--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-22.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-22.xlsx
@@ -802,22 +802,22 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>2.3</v>
+        <v>2.24</v>
       </c>
       <c r="G3" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="H3" t="n">
-        <v>2.98</v>
+        <v>2.92</v>
       </c>
       <c r="I3" t="n">
-        <v>4.6</v>
+        <v>4</v>
       </c>
       <c r="J3" t="n">
-        <v>2.72</v>
+        <v>2.7</v>
       </c>
       <c r="K3" t="n">
-        <v>4.5</v>
+        <v>3.3</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -832,10 +832,10 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>1.41</v>
+        <v>1.52</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.34</v>
+        <v>2.4</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -1072,22 +1072,22 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.04</v>
+        <v>1.21</v>
       </c>
       <c r="G5" t="n">
-        <v>1000</v>
+        <v>1.28</v>
       </c>
       <c r="H5" t="n">
-        <v>1.04</v>
+        <v>11</v>
       </c>
       <c r="I5" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="J5" t="n">
-        <v>6.2</v>
+        <v>7</v>
       </c>
       <c r="K5" t="n">
-        <v>1000</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -1096,28 +1096,28 @@
         <v>1.01</v>
       </c>
       <c r="N5" t="n">
-        <v>2.6</v>
+        <v>6.6</v>
       </c>
       <c r="O5" t="n">
-        <v>1.12</v>
+        <v>1.13</v>
       </c>
       <c r="P5" t="n">
-        <v>2.6</v>
+        <v>2.94</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.31</v>
+        <v>1.4</v>
       </c>
       <c r="R5" t="n">
-        <v>1.65</v>
+        <v>1.78</v>
       </c>
       <c r="S5" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="T5" t="n">
-        <v>1.01</v>
+        <v>1.98</v>
       </c>
       <c r="U5" t="n">
-        <v>1.01</v>
+        <v>1.81</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -1126,55 +1126,55 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="Y5" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="Z5" t="n">
-        <v>1000</v>
+        <v>190</v>
       </c>
       <c r="AA5" t="n">
         <v>1000</v>
       </c>
       <c r="AB5" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AC5" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AD5" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AE5" t="n">
-        <v>1000</v>
+        <v>280</v>
       </c>
       <c r="AF5" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AG5" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AH5" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AI5" t="n">
-        <v>1000</v>
+        <v>190</v>
       </c>
       <c r="AJ5" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AK5" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="AL5" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AM5" t="n">
-        <v>1000</v>
+        <v>190</v>
       </c>
       <c r="AN5" t="n">
-        <v>1000</v>
+        <v>3.95</v>
       </c>
       <c r="AO5" t="n">
         <v>1000</v>
@@ -1351,7 +1351,7 @@
         <v>2.02</v>
       </c>
       <c r="I7" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="J7" t="n">
         <v>3.6</v>
@@ -1372,10 +1372,10 @@
         <v>1.38</v>
       </c>
       <c r="P7" t="n">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="R7" t="n">
         <v>1.3</v>
@@ -1387,7 +1387,7 @@
         <v>1.95</v>
       </c>
       <c r="U7" t="n">
-        <v>1.97</v>
+        <v>1.98</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1510,7 +1510,7 @@
         <v>2.58</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.52</v>
+        <v>1.51</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -1639,13 +1639,13 @@
         <v>4.4</v>
       </c>
       <c r="O9" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="P9" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.77</v>
+        <v>1.79</v>
       </c>
       <c r="R9" t="n">
         <v>1.45</v>
@@ -1654,7 +1654,7 @@
         <v>2.98</v>
       </c>
       <c r="T9" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="U9" t="n">
         <v>2.36</v>
@@ -1777,7 +1777,7 @@
         <v>1.27</v>
       </c>
       <c r="P10" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="Q10" t="n">
         <v>1.78</v>
@@ -1786,7 +1786,7 @@
         <v>1.45</v>
       </c>
       <c r="S10" t="n">
-        <v>2.94</v>
+        <v>2.98</v>
       </c>
       <c r="T10" t="n">
         <v>1.71</v>
@@ -1888,7 +1888,7 @@
         <v>3.35</v>
       </c>
       <c r="H11" t="n">
-        <v>2.28</v>
+        <v>2.26</v>
       </c>
       <c r="I11" t="n">
         <v>2.36</v>
@@ -1915,10 +1915,10 @@
         <v>2.22</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.72</v>
+        <v>1.71</v>
       </c>
       <c r="R11" t="n">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="S11" t="n">
         <v>2.78</v>
@@ -2020,7 +2020,7 @@
         <v>1.58</v>
       </c>
       <c r="G12" t="n">
-        <v>1.59</v>
+        <v>1.61</v>
       </c>
       <c r="H12" t="n">
         <v>6.2</v>
@@ -2047,7 +2047,7 @@
         <v>1.25</v>
       </c>
       <c r="P12" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="Q12" t="n">
         <v>1.76</v>
@@ -2059,10 +2059,10 @@
         <v>2.9</v>
       </c>
       <c r="T12" t="n">
-        <v>1.88</v>
+        <v>1.86</v>
       </c>
       <c r="U12" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -2071,7 +2071,7 @@
         <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="Y12" t="n">
         <v>30</v>
@@ -2155,7 +2155,7 @@
         <v>2.64</v>
       </c>
       <c r="G13" t="n">
-        <v>2.7</v>
+        <v>2.72</v>
       </c>
       <c r="H13" t="n">
         <v>2.76</v>
@@ -2197,7 +2197,7 @@
         <v>1.65</v>
       </c>
       <c r="U13" t="n">
-        <v>2.34</v>
+        <v>2.38</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -2206,7 +2206,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Y13" t="n">
         <v>14</v>
@@ -2215,7 +2215,7 @@
         <v>20</v>
       </c>
       <c r="AA13" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AB13" t="n">
         <v>13.5</v>
@@ -2230,7 +2230,7 @@
         <v>44</v>
       </c>
       <c r="AF13" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AG13" t="n">
         <v>13</v>
@@ -2239,10 +2239,10 @@
         <v>16.5</v>
       </c>
       <c r="AI13" t="n">
-        <v>980</v>
+        <v>42</v>
       </c>
       <c r="AJ13" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AK13" t="n">
         <v>40</v>
@@ -2251,7 +2251,7 @@
         <v>80</v>
       </c>
       <c r="AM13" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="AN13" t="n">
         <v>27</v>
@@ -2293,7 +2293,7 @@
         <v>4.8</v>
       </c>
       <c r="H14" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="I14" t="n">
         <v>1.85</v>
@@ -2326,13 +2326,13 @@
         <v>1.53</v>
       </c>
       <c r="S14" t="n">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="T14" t="n">
         <v>1.66</v>
       </c>
       <c r="U14" t="n">
-        <v>2.36</v>
+        <v>2.34</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -2392,7 +2392,7 @@
         <v>46</v>
       </c>
       <c r="AO14" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15">
@@ -2434,7 +2434,7 @@
         <v>7.8</v>
       </c>
       <c r="J15" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="K15" t="n">
         <v>5.7</v>
@@ -2455,10 +2455,10 @@
         <v>2.8</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="R15" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="S15" t="n">
         <v>2.2</v>
@@ -2524,7 +2524,7 @@
         <v>95</v>
       </c>
       <c r="AN15" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="AO15" t="n">
         <v>85</v>
@@ -2557,22 +2557,22 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="G16" t="n">
-        <v>5.6</v>
+        <v>5.2</v>
       </c>
       <c r="H16" t="n">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="I16" t="n">
-        <v>2.84</v>
+        <v>2.78</v>
       </c>
       <c r="J16" t="n">
-        <v>2.6</v>
+        <v>2.48</v>
       </c>
       <c r="K16" t="n">
-        <v>3.75</v>
+        <v>3.05</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -2587,7 +2587,7 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>1.31</v>
+        <v>1.39</v>
       </c>
       <c r="Q16" t="n">
         <v>2.86</v>
@@ -2719,7 +2719,7 @@
         <v>3.7</v>
       </c>
       <c r="O17" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="P17" t="n">
         <v>1.92</v>
@@ -2737,7 +2737,7 @@
         <v>1.92</v>
       </c>
       <c r="U17" t="n">
-        <v>1.95</v>
+        <v>1.96</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -2851,28 +2851,28 @@
         <v>1.06</v>
       </c>
       <c r="N18" t="n">
-        <v>1.34</v>
+        <v>4</v>
       </c>
       <c r="O18" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="P18" t="n">
-        <v>1.33</v>
+        <v>2.04</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.26</v>
+        <v>1.8</v>
       </c>
       <c r="R18" t="n">
-        <v>1.33</v>
+        <v>1.42</v>
       </c>
       <c r="S18" t="n">
-        <v>2.7</v>
+        <v>3</v>
       </c>
       <c r="T18" t="n">
-        <v>1.01</v>
+        <v>1.72</v>
       </c>
       <c r="U18" t="n">
-        <v>1.01</v>
+        <v>2.16</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -2881,55 +2881,55 @@
         <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="Y18" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="Z18" t="n">
-        <v>980</v>
+        <v>34</v>
       </c>
       <c r="AA18" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AB18" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AC18" t="n">
-        <v>1000</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD18" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AE18" t="n">
         <v>55</v>
       </c>
       <c r="AF18" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AG18" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AH18" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AI18" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AJ18" t="n">
-        <v>980</v>
+        <v>23</v>
       </c>
       <c r="AK18" t="n">
-        <v>980</v>
+        <v>20</v>
       </c>
       <c r="AL18" t="n">
-        <v>980</v>
+        <v>34</v>
       </c>
       <c r="AM18" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AN18" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AO18" t="n">
         <v>55</v>
@@ -2992,7 +2992,7 @@
         <v>1.3</v>
       </c>
       <c r="P19" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="Q19" t="n">
         <v>1.92</v>
@@ -3001,10 +3001,10 @@
         <v>1.4</v>
       </c>
       <c r="S19" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="T19" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="U19" t="n">
         <v>2.26</v>
@@ -3061,7 +3061,7 @@
         <v>40</v>
       </c>
       <c r="AM19" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AN19" t="n">
         <v>21</v>
@@ -3097,19 +3097,19 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>2.72</v>
+        <v>2.8</v>
       </c>
       <c r="G20" t="n">
         <v>2.92</v>
       </c>
       <c r="H20" t="n">
-        <v>2.58</v>
+        <v>2.6</v>
       </c>
       <c r="I20" t="n">
-        <v>2.76</v>
+        <v>2.68</v>
       </c>
       <c r="J20" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="K20" t="n">
         <v>3.7</v>
@@ -3124,25 +3124,25 @@
         <v>3.9</v>
       </c>
       <c r="O20" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="P20" t="n">
         <v>2</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="R20" t="n">
         <v>1.4</v>
       </c>
       <c r="S20" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="T20" t="n">
-        <v>1.68</v>
+        <v>1.7</v>
       </c>
       <c r="U20" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -3166,7 +3166,7 @@
         <v>13</v>
       </c>
       <c r="AC20" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="AD20" t="n">
         <v>13</v>
@@ -3262,7 +3262,7 @@
         <v>1.3</v>
       </c>
       <c r="P21" t="n">
-        <v>1.94</v>
+        <v>1.95</v>
       </c>
       <c r="Q21" t="n">
         <v>1.87</v>
@@ -3370,19 +3370,19 @@
         <v>1.86</v>
       </c>
       <c r="G22" t="n">
-        <v>1.96</v>
+        <v>1.98</v>
       </c>
       <c r="H22" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="I22" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="J22" t="n">
         <v>4</v>
       </c>
       <c r="K22" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
@@ -3397,7 +3397,7 @@
         <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="Q22" t="n">
         <v>1.67</v>
@@ -3514,10 +3514,10 @@
         <v>4.1</v>
       </c>
       <c r="J23" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="K23" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -3649,10 +3649,10 @@
         <v>2.74</v>
       </c>
       <c r="J24" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="K24" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -3661,7 +3661,7 @@
         <v>1.07</v>
       </c>
       <c r="N24" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="O24" t="n">
         <v>1.33</v>
@@ -3670,10 +3670,10 @@
         <v>1.91</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.96</v>
+        <v>1.95</v>
       </c>
       <c r="R24" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="S24" t="n">
         <v>3.4</v>
@@ -3781,7 +3781,7 @@
         <v>2.78</v>
       </c>
       <c r="I25" t="n">
-        <v>2.94</v>
+        <v>2.92</v>
       </c>
       <c r="J25" t="n">
         <v>3.85</v>
@@ -3811,7 +3811,7 @@
         <v>1.58</v>
       </c>
       <c r="S25" t="n">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="T25" t="n">
         <v>1.55</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-22.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-22.xlsx
@@ -802,19 +802,19 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>2.24</v>
+        <v>2.38</v>
       </c>
       <c r="G3" t="n">
-        <v>3</v>
+        <v>2.82</v>
       </c>
       <c r="H3" t="n">
-        <v>2.92</v>
+        <v>3.25</v>
       </c>
       <c r="I3" t="n">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="J3" t="n">
-        <v>2.7</v>
+        <v>2.98</v>
       </c>
       <c r="K3" t="n">
         <v>3.3</v>
@@ -835,7 +835,7 @@
         <v>1.52</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.4</v>
+        <v>2.66</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -1105,13 +1105,13 @@
         <v>2.94</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="R5" t="n">
         <v>1.78</v>
       </c>
       <c r="S5" t="n">
-        <v>1.87</v>
+        <v>1.89</v>
       </c>
       <c r="T5" t="n">
         <v>1.98</v>
@@ -1126,7 +1126,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>970</v>
+        <v>980</v>
       </c>
       <c r="Y5" t="n">
         <v>70</v>
@@ -1141,7 +1141,7 @@
         <v>15</v>
       </c>
       <c r="AC5" t="n">
-        <v>970</v>
+        <v>980</v>
       </c>
       <c r="AD5" t="n">
         <v>65</v>
@@ -1156,7 +1156,7 @@
         <v>15</v>
       </c>
       <c r="AH5" t="n">
-        <v>42</v>
+        <v>980</v>
       </c>
       <c r="AI5" t="n">
         <v>190</v>
@@ -1168,7 +1168,7 @@
         <v>17</v>
       </c>
       <c r="AL5" t="n">
-        <v>970</v>
+        <v>980</v>
       </c>
       <c r="AM5" t="n">
         <v>190</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.14</v>
+        <v>2.26</v>
       </c>
       <c r="G6" t="n">
         <v>2.86</v>
@@ -1216,13 +1216,13 @@
         <v>2.64</v>
       </c>
       <c r="I6" t="n">
-        <v>3.7</v>
+        <v>3.55</v>
       </c>
       <c r="J6" t="n">
         <v>3.55</v>
       </c>
       <c r="K6" t="n">
-        <v>7</v>
+        <v>5.8</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -1366,28 +1366,28 @@
         <v>1.08</v>
       </c>
       <c r="N7" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="O7" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="P7" t="n">
-        <v>1.8</v>
+        <v>1.79</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="R7" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="S7" t="n">
         <v>4</v>
       </c>
       <c r="T7" t="n">
-        <v>1.95</v>
+        <v>1.96</v>
       </c>
       <c r="U7" t="n">
-        <v>1.98</v>
+        <v>1.96</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1396,7 +1396,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="Y7" t="n">
         <v>8.4</v>
@@ -1408,7 +1408,7 @@
         <v>25</v>
       </c>
       <c r="AB7" t="n">
-        <v>16</v>
+        <v>13.5</v>
       </c>
       <c r="AC7" t="n">
         <v>8</v>
@@ -1426,16 +1426,16 @@
         <v>17.5</v>
       </c>
       <c r="AH7" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AI7" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="AJ7" t="n">
         <v>1000</v>
       </c>
       <c r="AK7" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="AL7" t="n">
         <v>1000</v>
@@ -1480,16 +1480,16 @@
         <v>1.2</v>
       </c>
       <c r="G8" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="H8" t="n">
         <v>18</v>
       </c>
       <c r="I8" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J8" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="K8" t="n">
         <v>9</v>
@@ -1510,7 +1510,7 @@
         <v>2.58</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -1612,7 +1612,7 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="G9" t="n">
         <v>3.1</v>
@@ -1636,16 +1636,16 @@
         <v>1.05</v>
       </c>
       <c r="N9" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="O9" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="P9" t="n">
         <v>2.12</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="R9" t="n">
         <v>1.45</v>
@@ -1654,10 +1654,10 @@
         <v>2.98</v>
       </c>
       <c r="T9" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="U9" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -1747,7 +1747,7 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="G10" t="n">
         <v>3.85</v>
@@ -1885,13 +1885,13 @@
         <v>3.25</v>
       </c>
       <c r="G11" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="H11" t="n">
-        <v>2.26</v>
+        <v>2.24</v>
       </c>
       <c r="I11" t="n">
-        <v>2.36</v>
+        <v>2.34</v>
       </c>
       <c r="J11" t="n">
         <v>3.7</v>
@@ -1909,16 +1909,16 @@
         <v>4.5</v>
       </c>
       <c r="O11" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="P11" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="R11" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="S11" t="n">
         <v>2.78</v>
@@ -2017,22 +2017,22 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1.58</v>
+        <v>1.56</v>
       </c>
       <c r="G12" t="n">
-        <v>1.61</v>
+        <v>1.6</v>
       </c>
       <c r="H12" t="n">
         <v>6.2</v>
       </c>
       <c r="I12" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="J12" t="n">
         <v>4.5</v>
       </c>
       <c r="K12" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -2053,16 +2053,16 @@
         <v>1.76</v>
       </c>
       <c r="R12" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="S12" t="n">
-        <v>2.9</v>
+        <v>2.92</v>
       </c>
       <c r="T12" t="n">
-        <v>1.86</v>
+        <v>1.88</v>
       </c>
       <c r="U12" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -2071,13 +2071,13 @@
         <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="Y12" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="Z12" t="n">
-        <v>200</v>
+        <v>220</v>
       </c>
       <c r="AA12" t="n">
         <v>1000</v>
@@ -2089,7 +2089,7 @@
         <v>10.5</v>
       </c>
       <c r="AD12" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AE12" t="n">
         <v>1000</v>
@@ -2110,7 +2110,7 @@
         <v>15</v>
       </c>
       <c r="AK12" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AL12" t="n">
         <v>70</v>
@@ -2152,19 +2152,19 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2.64</v>
+        <v>2.72</v>
       </c>
       <c r="G13" t="n">
-        <v>2.72</v>
+        <v>2.76</v>
       </c>
       <c r="H13" t="n">
-        <v>2.76</v>
+        <v>2.7</v>
       </c>
       <c r="I13" t="n">
-        <v>2.82</v>
+        <v>2.78</v>
       </c>
       <c r="J13" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="K13" t="n">
         <v>3.75</v>
@@ -2191,13 +2191,13 @@
         <v>1.46</v>
       </c>
       <c r="S13" t="n">
-        <v>2.98</v>
+        <v>2.92</v>
       </c>
       <c r="T13" t="n">
         <v>1.65</v>
       </c>
       <c r="U13" t="n">
-        <v>2.38</v>
+        <v>2.36</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -2206,16 +2206,16 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Y13" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="Z13" t="n">
         <v>20</v>
       </c>
       <c r="AA13" t="n">
-        <v>48</v>
+        <v>980</v>
       </c>
       <c r="AB13" t="n">
         <v>13.5</v>
@@ -2245,19 +2245,19 @@
         <v>46</v>
       </c>
       <c r="AK13" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AL13" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AM13" t="n">
         <v>85</v>
       </c>
       <c r="AN13" t="n">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="AO13" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14">
@@ -2326,13 +2326,13 @@
         <v>1.53</v>
       </c>
       <c r="S14" t="n">
-        <v>2.64</v>
+        <v>2.62</v>
       </c>
       <c r="T14" t="n">
         <v>1.66</v>
       </c>
       <c r="U14" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -2431,13 +2431,13 @@
         <v>7</v>
       </c>
       <c r="I15" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="J15" t="n">
         <v>5.3</v>
       </c>
       <c r="K15" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -2455,10 +2455,10 @@
         <v>2.8</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="R15" t="n">
-        <v>1.74</v>
+        <v>1.73</v>
       </c>
       <c r="S15" t="n">
         <v>2.2</v>
@@ -2560,16 +2560,16 @@
         <v>4</v>
       </c>
       <c r="G16" t="n">
-        <v>5.2</v>
+        <v>5</v>
       </c>
       <c r="H16" t="n">
         <v>2.28</v>
       </c>
       <c r="I16" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="J16" t="n">
         <v>2.78</v>
-      </c>
-      <c r="J16" t="n">
-        <v>2.48</v>
       </c>
       <c r="K16" t="n">
         <v>3.05</v>
@@ -2590,7 +2590,7 @@
         <v>1.39</v>
       </c>
       <c r="Q16" t="n">
-        <v>2.86</v>
+        <v>3.15</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -2707,7 +2707,7 @@
         <v>4.1</v>
       </c>
       <c r="K17" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -2716,13 +2716,13 @@
         <v>1.06</v>
       </c>
       <c r="N17" t="n">
-        <v>3.7</v>
+        <v>3.85</v>
       </c>
       <c r="O17" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="P17" t="n">
-        <v>1.92</v>
+        <v>1.94</v>
       </c>
       <c r="Q17" t="n">
         <v>1.92</v>
@@ -2734,7 +2734,7 @@
         <v>3.35</v>
       </c>
       <c r="T17" t="n">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="U17" t="n">
         <v>1.96</v>
@@ -2746,7 +2746,7 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="Y17" t="n">
         <v>21</v>
@@ -2758,10 +2758,10 @@
         <v>200</v>
       </c>
       <c r="AB17" t="n">
-        <v>8.199999999999999</v>
+        <v>8.6</v>
       </c>
       <c r="AC17" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="AD17" t="n">
         <v>25</v>
@@ -2830,19 +2830,19 @@
         <v>1.91</v>
       </c>
       <c r="G18" t="n">
-        <v>2</v>
+        <v>1.99</v>
       </c>
       <c r="H18" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="I18" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="J18" t="n">
         <v>3.75</v>
       </c>
       <c r="K18" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -2866,7 +2866,7 @@
         <v>1.42</v>
       </c>
       <c r="S18" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="T18" t="n">
         <v>1.72</v>
@@ -2896,7 +2896,7 @@
         <v>10.5</v>
       </c>
       <c r="AC18" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="AD18" t="n">
         <v>18</v>
@@ -2962,10 +2962,10 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="G19" t="n">
-        <v>2.52</v>
+        <v>2.54</v>
       </c>
       <c r="H19" t="n">
         <v>3.05</v>
@@ -2974,10 +2974,10 @@
         <v>3.1</v>
       </c>
       <c r="J19" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="K19" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
@@ -2989,10 +2989,10 @@
         <v>4</v>
       </c>
       <c r="O19" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="P19" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="Q19" t="n">
         <v>1.92</v>
@@ -3097,16 +3097,16 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="G20" t="n">
-        <v>2.92</v>
+        <v>2.9</v>
       </c>
       <c r="H20" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="I20" t="n">
-        <v>2.68</v>
+        <v>2.66</v>
       </c>
       <c r="J20" t="n">
         <v>3.6</v>
@@ -3127,7 +3127,7 @@
         <v>1.29</v>
       </c>
       <c r="P20" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="Q20" t="n">
         <v>1.86</v>
@@ -3136,13 +3136,13 @@
         <v>1.4</v>
       </c>
       <c r="S20" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="T20" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="U20" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -3151,7 +3151,7 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="Y20" t="n">
         <v>13</v>
@@ -3367,13 +3367,13 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="G22" t="n">
-        <v>1.98</v>
+        <v>1.96</v>
       </c>
       <c r="H22" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="I22" t="n">
         <v>4.5</v>
@@ -3382,7 +3382,7 @@
         <v>4</v>
       </c>
       <c r="K22" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
@@ -3397,7 +3397,7 @@
         <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>2.3</v>
+        <v>2.28</v>
       </c>
       <c r="Q22" t="n">
         <v>1.67</v>
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="G23" t="n">
         <v>2.06</v>
@@ -3637,16 +3637,16 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>2.84</v>
+        <v>2.8</v>
       </c>
       <c r="G24" t="n">
-        <v>2.88</v>
+        <v>2.86</v>
       </c>
       <c r="H24" t="n">
-        <v>2.68</v>
+        <v>2.72</v>
       </c>
       <c r="I24" t="n">
-        <v>2.74</v>
+        <v>2.78</v>
       </c>
       <c r="J24" t="n">
         <v>3.45</v>
@@ -3670,7 +3670,7 @@
         <v>1.91</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.95</v>
+        <v>1.96</v>
       </c>
       <c r="R24" t="n">
         <v>1.36</v>
@@ -3703,7 +3703,7 @@
         <v>44</v>
       </c>
       <c r="AB24" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AC24" t="n">
         <v>8.199999999999999</v>
@@ -3715,13 +3715,13 @@
         <v>30</v>
       </c>
       <c r="AF24" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AG24" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AH24" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AI24" t="n">
         <v>48</v>
@@ -3733,13 +3733,13 @@
         <v>38</v>
       </c>
       <c r="AL24" t="n">
-        <v>46</v>
+        <v>980</v>
       </c>
       <c r="AM24" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AN24" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AO24" t="n">
         <v>28</v>
@@ -3778,10 +3778,10 @@
         <v>2.58</v>
       </c>
       <c r="H25" t="n">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="I25" t="n">
-        <v>2.92</v>
+        <v>2.94</v>
       </c>
       <c r="J25" t="n">
         <v>3.85</v>
@@ -3808,10 +3808,10 @@
         <v>1.62</v>
       </c>
       <c r="R25" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="S25" t="n">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="T25" t="n">
         <v>1.55</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-22.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-22.xlsx
@@ -667,22 +667,22 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.76</v>
+        <v>1.81</v>
       </c>
       <c r="G2" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="H2" t="n">
-        <v>4.8</v>
+        <v>1.83</v>
       </c>
       <c r="I2" t="n">
-        <v>8.4</v>
+        <v>11.5</v>
       </c>
       <c r="J2" t="n">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="K2" t="n">
-        <v>4.6</v>
+        <v>980</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -697,7 +697,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="Q2" t="n">
         <v>2.58</v>
@@ -802,22 +802,22 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>2.38</v>
+        <v>2.26</v>
       </c>
       <c r="G3" t="n">
-        <v>2.82</v>
+        <v>3</v>
       </c>
       <c r="H3" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="I3" t="n">
-        <v>3.6</v>
+        <v>4.6</v>
       </c>
       <c r="J3" t="n">
-        <v>2.98</v>
+        <v>2.66</v>
       </c>
       <c r="K3" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -832,10 +832,10 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>1.52</v>
+        <v>1.51</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.66</v>
+        <v>2.42</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -937,22 +937,22 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.66</v>
+        <v>1.61</v>
       </c>
       <c r="G4" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="H4" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="I4" t="n">
-        <v>8.800000000000001</v>
+        <v>11</v>
       </c>
       <c r="J4" t="n">
-        <v>3.65</v>
+        <v>3.5</v>
       </c>
       <c r="K4" t="n">
-        <v>5.6</v>
+        <v>6.2</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -967,10 +967,10 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -1111,7 +1111,7 @@
         <v>1.78</v>
       </c>
       <c r="S5" t="n">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="T5" t="n">
         <v>1.98</v>
@@ -1207,22 +1207,22 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.26</v>
+        <v>2.3</v>
       </c>
       <c r="G6" t="n">
-        <v>2.86</v>
+        <v>3.05</v>
       </c>
       <c r="H6" t="n">
         <v>2.64</v>
       </c>
       <c r="I6" t="n">
-        <v>3.55</v>
+        <v>3.45</v>
       </c>
       <c r="J6" t="n">
-        <v>3.55</v>
+        <v>3.3</v>
       </c>
       <c r="K6" t="n">
-        <v>5.8</v>
+        <v>5.5</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -1237,10 +1237,10 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>2.34</v>
+        <v>2.38</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -1348,10 +1348,10 @@
         <v>4.4</v>
       </c>
       <c r="H7" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="I7" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="J7" t="n">
         <v>3.6</v>
@@ -1372,19 +1372,19 @@
         <v>1.39</v>
       </c>
       <c r="P7" t="n">
-        <v>1.79</v>
+        <v>1.77</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="R7" t="n">
         <v>1.29</v>
       </c>
       <c r="S7" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="T7" t="n">
-        <v>1.96</v>
+        <v>1.97</v>
       </c>
       <c r="U7" t="n">
         <v>1.96</v>
@@ -1396,16 +1396,16 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="Y7" t="n">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="Z7" t="n">
         <v>12</v>
       </c>
       <c r="AA7" t="n">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="AB7" t="n">
         <v>13.5</v>
@@ -1423,7 +1423,7 @@
         <v>30</v>
       </c>
       <c r="AG7" t="n">
-        <v>17.5</v>
+        <v>23</v>
       </c>
       <c r="AH7" t="n">
         <v>32</v>
@@ -1441,13 +1441,13 @@
         <v>1000</v>
       </c>
       <c r="AM7" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AN7" t="n">
         <v>1000</v>
       </c>
       <c r="AO7" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8">
@@ -1480,7 +1480,7 @@
         <v>1.2</v>
       </c>
       <c r="G8" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="H8" t="n">
         <v>18</v>
@@ -1507,10 +1507,10 @@
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>2.58</v>
+        <v>2.6</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.52</v>
+        <v>1.51</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -1612,16 +1612,16 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>3.05</v>
+        <v>2.94</v>
       </c>
       <c r="G9" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="H9" t="n">
-        <v>2.44</v>
+        <v>2.48</v>
       </c>
       <c r="I9" t="n">
-        <v>2.46</v>
+        <v>2.5</v>
       </c>
       <c r="J9" t="n">
         <v>3.75</v>
@@ -1636,10 +1636,10 @@
         <v>1.05</v>
       </c>
       <c r="N9" t="n">
-        <v>4.5</v>
+        <v>4.3</v>
       </c>
       <c r="O9" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="P9" t="n">
         <v>2.12</v>
@@ -1669,7 +1669,7 @@
         <v>18.5</v>
       </c>
       <c r="Y9" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="Z9" t="n">
         <v>17</v>
@@ -1678,7 +1678,7 @@
         <v>34</v>
       </c>
       <c r="AB9" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AC9" t="n">
         <v>8.800000000000001</v>
@@ -1690,10 +1690,10 @@
         <v>25</v>
       </c>
       <c r="AF9" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AG9" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AH9" t="n">
         <v>16.5</v>
@@ -1705,16 +1705,16 @@
         <v>980</v>
       </c>
       <c r="AK9" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AL9" t="n">
-        <v>980</v>
+        <v>40</v>
       </c>
       <c r="AM9" t="n">
         <v>75</v>
       </c>
       <c r="AN9" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AO9" t="n">
         <v>17</v>
@@ -1750,7 +1750,7 @@
         <v>3.7</v>
       </c>
       <c r="G10" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="H10" t="n">
         <v>2.02</v>
@@ -1777,7 +1777,7 @@
         <v>1.27</v>
       </c>
       <c r="P10" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="Q10" t="n">
         <v>1.78</v>
@@ -1804,19 +1804,19 @@
         <v>18.5</v>
       </c>
       <c r="Y10" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="Z10" t="n">
         <v>14</v>
       </c>
       <c r="AA10" t="n">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="AB10" t="n">
         <v>16.5</v>
       </c>
       <c r="AC10" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="AD10" t="n">
         <v>11</v>
@@ -1837,16 +1837,16 @@
         <v>34</v>
       </c>
       <c r="AJ10" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AK10" t="n">
-        <v>980</v>
+        <v>46</v>
       </c>
       <c r="AL10" t="n">
-        <v>980</v>
+        <v>55</v>
       </c>
       <c r="AM10" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AN10" t="n">
         <v>38</v>
@@ -1891,10 +1891,10 @@
         <v>2.24</v>
       </c>
       <c r="I11" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="J11" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="K11" t="n">
         <v>3.85</v>
@@ -1912,10 +1912,10 @@
         <v>1.24</v>
       </c>
       <c r="P11" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.72</v>
+        <v>1.71</v>
       </c>
       <c r="R11" t="n">
         <v>1.5</v>
@@ -1927,7 +1927,7 @@
         <v>1.64</v>
       </c>
       <c r="U11" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -1948,7 +1948,7 @@
         <v>32</v>
       </c>
       <c r="AB11" t="n">
-        <v>18</v>
+        <v>16.5</v>
       </c>
       <c r="AC11" t="n">
         <v>9.199999999999999</v>
@@ -1987,7 +1987,7 @@
         <v>28</v>
       </c>
       <c r="AO11" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
     </row>
     <row r="12">
@@ -2017,16 +2017,16 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1.56</v>
+        <v>1.55</v>
       </c>
       <c r="G12" t="n">
-        <v>1.6</v>
+        <v>1.59</v>
       </c>
       <c r="H12" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="I12" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="J12" t="n">
         <v>4.5</v>
@@ -2056,7 +2056,7 @@
         <v>1.48</v>
       </c>
       <c r="S12" t="n">
-        <v>2.92</v>
+        <v>2.94</v>
       </c>
       <c r="T12" t="n">
         <v>1.88</v>
@@ -2071,7 +2071,7 @@
         <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="Y12" t="n">
         <v>32</v>
@@ -2101,7 +2101,7 @@
         <v>10.5</v>
       </c>
       <c r="AH12" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AI12" t="n">
         <v>1000</v>
@@ -2152,19 +2152,19 @@
         </is>
       </c>
       <c r="F13" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="G13" t="n">
         <v>2.72</v>
       </c>
-      <c r="G13" t="n">
-        <v>2.76</v>
-      </c>
       <c r="H13" t="n">
-        <v>2.7</v>
+        <v>2.72</v>
       </c>
       <c r="I13" t="n">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="J13" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="K13" t="n">
         <v>3.75</v>
@@ -2194,7 +2194,7 @@
         <v>2.92</v>
       </c>
       <c r="T13" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="U13" t="n">
         <v>2.36</v>
@@ -2206,10 +2206,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="Y13" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="Z13" t="n">
         <v>20</v>
@@ -2224,7 +2224,7 @@
         <v>8.800000000000001</v>
       </c>
       <c r="AD13" t="n">
-        <v>14.5</v>
+        <v>13</v>
       </c>
       <c r="AE13" t="n">
         <v>44</v>
@@ -2239,19 +2239,19 @@
         <v>16.5</v>
       </c>
       <c r="AI13" t="n">
-        <v>42</v>
+        <v>980</v>
       </c>
       <c r="AJ13" t="n">
-        <v>46</v>
+        <v>980</v>
       </c>
       <c r="AK13" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AL13" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AM13" t="n">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="AN13" t="n">
         <v>20</v>
@@ -2341,7 +2341,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Y14" t="n">
         <v>12</v>
@@ -2386,10 +2386,10 @@
         <v>55</v>
       </c>
       <c r="AM14" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AN14" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="AO14" t="n">
         <v>9</v>
@@ -2428,16 +2428,16 @@
         <v>1.48</v>
       </c>
       <c r="H15" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="I15" t="n">
-        <v>7.6</v>
+        <v>8</v>
       </c>
       <c r="J15" t="n">
         <v>5.3</v>
       </c>
       <c r="K15" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -2452,7 +2452,7 @@
         <v>1.16</v>
       </c>
       <c r="P15" t="n">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="Q15" t="n">
         <v>1.5</v>
@@ -2482,28 +2482,28 @@
         <v>36</v>
       </c>
       <c r="Z15" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AA15" t="n">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="AB15" t="n">
         <v>13.5</v>
       </c>
       <c r="AC15" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AD15" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AE15" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="AF15" t="n">
         <v>12</v>
       </c>
       <c r="AG15" t="n">
-        <v>13</v>
+        <v>11.5</v>
       </c>
       <c r="AH15" t="n">
         <v>22</v>
@@ -2527,7 +2527,7 @@
         <v>5</v>
       </c>
       <c r="AO15" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="16">
@@ -2560,16 +2560,16 @@
         <v>4</v>
       </c>
       <c r="G16" t="n">
-        <v>5</v>
+        <v>5.2</v>
       </c>
       <c r="H16" t="n">
         <v>2.28</v>
       </c>
       <c r="I16" t="n">
-        <v>2.58</v>
+        <v>2.78</v>
       </c>
       <c r="J16" t="n">
-        <v>2.78</v>
+        <v>2.48</v>
       </c>
       <c r="K16" t="n">
         <v>3.05</v>
@@ -2698,7 +2698,7 @@
         <v>1.66</v>
       </c>
       <c r="H17" t="n">
-        <v>6</v>
+        <v>5.8</v>
       </c>
       <c r="I17" t="n">
         <v>6.6</v>
@@ -2707,7 +2707,7 @@
         <v>4.1</v>
       </c>
       <c r="K17" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -2719,10 +2719,10 @@
         <v>3.85</v>
       </c>
       <c r="O17" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="P17" t="n">
-        <v>1.94</v>
+        <v>1.96</v>
       </c>
       <c r="Q17" t="n">
         <v>1.92</v>
@@ -2737,7 +2737,7 @@
         <v>1.91</v>
       </c>
       <c r="U17" t="n">
-        <v>1.96</v>
+        <v>1.97</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>200</v>
       </c>
       <c r="AB17" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC17" t="n">
         <v>9.4</v>
@@ -2767,7 +2767,7 @@
         <v>25</v>
       </c>
       <c r="AE17" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="AF17" t="n">
         <v>10</v>
@@ -2833,13 +2833,13 @@
         <v>1.99</v>
       </c>
       <c r="H18" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="I18" t="n">
         <v>4.7</v>
       </c>
       <c r="J18" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="K18" t="n">
         <v>3.95</v>
@@ -2962,10 +2962,10 @@
         </is>
       </c>
       <c r="F19" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="G19" t="n">
         <v>2.52</v>
-      </c>
-      <c r="G19" t="n">
-        <v>2.54</v>
       </c>
       <c r="H19" t="n">
         <v>3.05</v>
@@ -2974,10 +2974,10 @@
         <v>3.1</v>
       </c>
       <c r="J19" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="K19" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
@@ -2989,7 +2989,7 @@
         <v>4</v>
       </c>
       <c r="O19" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="P19" t="n">
         <v>2.02</v>
@@ -3001,10 +3001,10 @@
         <v>1.4</v>
       </c>
       <c r="S19" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="T19" t="n">
-        <v>1.74</v>
+        <v>1.73</v>
       </c>
       <c r="U19" t="n">
         <v>2.26</v>
@@ -3025,7 +3025,7 @@
         <v>22</v>
       </c>
       <c r="AA19" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AB19" t="n">
         <v>11.5</v>
@@ -3049,13 +3049,13 @@
         <v>17.5</v>
       </c>
       <c r="AI19" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AJ19" t="n">
         <v>36</v>
       </c>
       <c r="AK19" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AL19" t="n">
         <v>40</v>
@@ -3067,7 +3067,7 @@
         <v>21</v>
       </c>
       <c r="AO19" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20">
@@ -3100,7 +3100,7 @@
         <v>2.82</v>
       </c>
       <c r="G20" t="n">
-        <v>2.9</v>
+        <v>2.94</v>
       </c>
       <c r="H20" t="n">
         <v>2.62</v>
@@ -3130,13 +3130,13 @@
         <v>2.02</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.86</v>
+        <v>1.89</v>
       </c>
       <c r="R20" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="S20" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="T20" t="n">
         <v>1.72</v>
@@ -3163,7 +3163,7 @@
         <v>42</v>
       </c>
       <c r="AB20" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AC20" t="n">
         <v>8.4</v>
@@ -3181,7 +3181,7 @@
         <v>13.5</v>
       </c>
       <c r="AH20" t="n">
-        <v>17</v>
+        <v>19.5</v>
       </c>
       <c r="AI20" t="n">
         <v>40</v>
@@ -3190,7 +3190,7 @@
         <v>46</v>
       </c>
       <c r="AK20" t="n">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="AL20" t="n">
         <v>42</v>
@@ -3202,7 +3202,7 @@
         <v>25</v>
       </c>
       <c r="AO20" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="21">
@@ -3232,19 +3232,19 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="G21" t="n">
-        <v>2.48</v>
+        <v>2.54</v>
       </c>
       <c r="H21" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="I21" t="n">
         <v>3.4</v>
       </c>
       <c r="J21" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="K21" t="n">
         <v>3.65</v>
@@ -3265,13 +3265,13 @@
         <v>1.95</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.87</v>
+        <v>1.89</v>
       </c>
       <c r="R21" t="n">
         <v>1.37</v>
       </c>
       <c r="S21" t="n">
-        <v>3.25</v>
+        <v>3.45</v>
       </c>
       <c r="T21" t="n">
         <v>1.71</v>
@@ -3286,7 +3286,7 @@
         <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>17.5</v>
+        <v>15.5</v>
       </c>
       <c r="Y21" t="n">
         <v>13.5</v>
@@ -3301,22 +3301,22 @@
         <v>11</v>
       </c>
       <c r="AC21" t="n">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="AD21" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AE21" t="n">
-        <v>980</v>
+        <v>38</v>
       </c>
       <c r="AF21" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="AG21" t="n">
         <v>12</v>
       </c>
       <c r="AH21" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="AI21" t="n">
         <v>980</v>
@@ -3331,13 +3331,13 @@
         <v>980</v>
       </c>
       <c r="AM21" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AN21" t="n">
         <v>1000</v>
       </c>
       <c r="AO21" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22">
@@ -3376,13 +3376,13 @@
         <v>4.1</v>
       </c>
       <c r="I22" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="J22" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="K22" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
@@ -3397,10 +3397,10 @@
         <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -3505,7 +3505,7 @@
         <v>2.02</v>
       </c>
       <c r="G23" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="H23" t="n">
         <v>3.95</v>
@@ -3514,10 +3514,10 @@
         <v>4.1</v>
       </c>
       <c r="J23" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="K23" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -3562,10 +3562,10 @@
         <v>16.5</v>
       </c>
       <c r="Z23" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="AA23" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AB23" t="n">
         <v>11</v>
@@ -3577,7 +3577,7 @@
         <v>16.5</v>
       </c>
       <c r="AE23" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AF23" t="n">
         <v>14</v>
@@ -3589,7 +3589,7 @@
         <v>17</v>
       </c>
       <c r="AI23" t="n">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="AJ23" t="n">
         <v>25</v>
@@ -3607,7 +3607,7 @@
         <v>13</v>
       </c>
       <c r="AO23" t="n">
-        <v>95</v>
+        <v>44</v>
       </c>
     </row>
     <row r="24">
@@ -3637,16 +3637,16 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="G24" t="n">
-        <v>2.86</v>
+        <v>2.88</v>
       </c>
       <c r="H24" t="n">
         <v>2.72</v>
       </c>
       <c r="I24" t="n">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="J24" t="n">
         <v>3.45</v>
@@ -3661,7 +3661,7 @@
         <v>1.07</v>
       </c>
       <c r="N24" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="O24" t="n">
         <v>1.33</v>
@@ -3670,19 +3670,19 @@
         <v>1.91</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.96</v>
+        <v>2</v>
       </c>
       <c r="R24" t="n">
         <v>1.36</v>
       </c>
       <c r="S24" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="T24" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="U24" t="n">
-        <v>2.14</v>
+        <v>2.18</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -3694,28 +3694,28 @@
         <v>15</v>
       </c>
       <c r="Y24" t="n">
-        <v>13</v>
+        <v>11.5</v>
       </c>
       <c r="Z24" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AA24" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AB24" t="n">
         <v>12</v>
       </c>
       <c r="AC24" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="AD24" t="n">
-        <v>14.5</v>
+        <v>12.5</v>
       </c>
       <c r="AE24" t="n">
         <v>30</v>
       </c>
       <c r="AF24" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AG24" t="n">
         <v>13</v>
@@ -3724,25 +3724,25 @@
         <v>17.5</v>
       </c>
       <c r="AI24" t="n">
-        <v>48</v>
+        <v>980</v>
       </c>
       <c r="AJ24" t="n">
-        <v>55</v>
+        <v>980</v>
       </c>
       <c r="AK24" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="AL24" t="n">
-        <v>980</v>
+        <v>44</v>
       </c>
       <c r="AM24" t="n">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="AN24" t="n">
         <v>29</v>
       </c>
       <c r="AO24" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="25">
@@ -3772,7 +3772,7 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="G25" t="n">
         <v>2.58</v>
@@ -3781,7 +3781,7 @@
         <v>2.8</v>
       </c>
       <c r="I25" t="n">
-        <v>2.94</v>
+        <v>2.92</v>
       </c>
       <c r="J25" t="n">
         <v>3.85</v>
@@ -3808,13 +3808,13 @@
         <v>1.62</v>
       </c>
       <c r="R25" t="n">
-        <v>1.59</v>
+        <v>1.58</v>
       </c>
       <c r="S25" t="n">
-        <v>2.5</v>
+        <v>2.46</v>
       </c>
       <c r="T25" t="n">
-        <v>1.55</v>
+        <v>1.54</v>
       </c>
       <c r="U25" t="n">
         <v>2.56</v>
@@ -3835,7 +3835,7 @@
         <v>980</v>
       </c>
       <c r="AA25" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AB25" t="n">
         <v>15.5</v>
@@ -3865,10 +3865,10 @@
         <v>36</v>
       </c>
       <c r="AK25" t="n">
-        <v>980</v>
+        <v>28</v>
       </c>
       <c r="AL25" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AM25" t="n">
         <v>60</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-22.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-22.xlsx
@@ -667,22 +667,22 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.81</v>
+        <v>1.75</v>
       </c>
       <c r="G2" t="n">
         <v>2.22</v>
       </c>
       <c r="H2" t="n">
-        <v>1.83</v>
+        <v>4.7</v>
       </c>
       <c r="I2" t="n">
-        <v>11.5</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="J2" t="n">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="K2" t="n">
-        <v>980</v>
+        <v>4.7</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -697,10 +697,10 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.58</v>
+        <v>2.62</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -802,22 +802,22 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>2.26</v>
+        <v>2.24</v>
       </c>
       <c r="G3" t="n">
-        <v>3</v>
+        <v>2.68</v>
       </c>
       <c r="H3" t="n">
-        <v>3.2</v>
+        <v>3.05</v>
       </c>
       <c r="I3" t="n">
         <v>4.6</v>
       </c>
       <c r="J3" t="n">
-        <v>2.66</v>
+        <v>3</v>
       </c>
       <c r="K3" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -832,10 +832,10 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.42</v>
+        <v>2.38</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -937,22 +937,22 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.61</v>
+        <v>1.59</v>
       </c>
       <c r="G4" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="H4" t="n">
-        <v>4.6</v>
+        <v>4.4</v>
       </c>
       <c r="I4" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="J4" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="K4" t="n">
-        <v>6.2</v>
+        <v>7</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -967,10 +967,10 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.82</v>
+        <v>1.8</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -1075,7 +1075,7 @@
         <v>1.21</v>
       </c>
       <c r="G5" t="n">
-        <v>1.28</v>
+        <v>1.31</v>
       </c>
       <c r="H5" t="n">
         <v>11</v>
@@ -1084,7 +1084,7 @@
         <v>20</v>
       </c>
       <c r="J5" t="n">
-        <v>7</v>
+        <v>6.2</v>
       </c>
       <c r="K5" t="n">
         <v>9.800000000000001</v>
@@ -1096,22 +1096,22 @@
         <v>1.01</v>
       </c>
       <c r="N5" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="O5" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="P5" t="n">
-        <v>2.94</v>
+        <v>2.96</v>
       </c>
       <c r="Q5" t="n">
         <v>1.36</v>
       </c>
       <c r="R5" t="n">
-        <v>1.78</v>
+        <v>1.81</v>
       </c>
       <c r="S5" t="n">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="T5" t="n">
         <v>1.98</v>
@@ -1147,7 +1147,7 @@
         <v>65</v>
       </c>
       <c r="AE5" t="n">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="AF5" t="n">
         <v>11.5</v>
@@ -1207,22 +1207,22 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.3</v>
+        <v>2.24</v>
       </c>
       <c r="G6" t="n">
         <v>3.05</v>
       </c>
       <c r="H6" t="n">
-        <v>2.64</v>
+        <v>2.44</v>
       </c>
       <c r="I6" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="J6" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="K6" t="n">
-        <v>5.5</v>
+        <v>7.2</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -1237,7 +1237,7 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>2.38</v>
+        <v>2.18</v>
       </c>
       <c r="Q6" t="n">
         <v>1.48</v>
@@ -1348,7 +1348,7 @@
         <v>4.4</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="I7" t="n">
         <v>2.04</v>
@@ -1369,10 +1369,10 @@
         <v>3.35</v>
       </c>
       <c r="O7" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="P7" t="n">
-        <v>1.77</v>
+        <v>1.79</v>
       </c>
       <c r="Q7" t="n">
         <v>2.2</v>
@@ -1384,10 +1384,10 @@
         <v>4.1</v>
       </c>
       <c r="T7" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="U7" t="n">
         <v>1.97</v>
-      </c>
-      <c r="U7" t="n">
-        <v>1.96</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1408,7 +1408,7 @@
         <v>34</v>
       </c>
       <c r="AB7" t="n">
-        <v>13.5</v>
+        <v>15.5</v>
       </c>
       <c r="AC7" t="n">
         <v>8</v>
@@ -1420,31 +1420,31 @@
         <v>32</v>
       </c>
       <c r="AF7" t="n">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="AG7" t="n">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="AH7" t="n">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="AI7" t="n">
-        <v>150</v>
+        <v>980</v>
       </c>
       <c r="AJ7" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AK7" t="n">
         <v>400</v>
       </c>
       <c r="AL7" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AM7" t="n">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="AN7" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="AO7" t="n">
         <v>22</v>
@@ -1480,16 +1480,16 @@
         <v>1.2</v>
       </c>
       <c r="G8" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="H8" t="n">
-        <v>18</v>
+        <v>14.5</v>
       </c>
       <c r="I8" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J8" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="K8" t="n">
         <v>9</v>
@@ -1507,10 +1507,10 @@
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>2.6</v>
+        <v>2.66</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.51</v>
+        <v>1.53</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -1618,10 +1618,10 @@
         <v>3</v>
       </c>
       <c r="H9" t="n">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="I9" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="J9" t="n">
         <v>3.75</v>
@@ -1642,19 +1642,19 @@
         <v>1.26</v>
       </c>
       <c r="P9" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="R9" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="S9" t="n">
-        <v>2.98</v>
+        <v>2.94</v>
       </c>
       <c r="T9" t="n">
-        <v>1.68</v>
+        <v>1.67</v>
       </c>
       <c r="U9" t="n">
         <v>2.38</v>
@@ -1672,7 +1672,7 @@
         <v>12.5</v>
       </c>
       <c r="Z9" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AA9" t="n">
         <v>34</v>
@@ -1696,10 +1696,10 @@
         <v>13.5</v>
       </c>
       <c r="AH9" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AI9" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AJ9" t="n">
         <v>980</v>
@@ -1711,13 +1711,13 @@
         <v>40</v>
       </c>
       <c r="AM9" t="n">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="AN9" t="n">
         <v>25</v>
       </c>
       <c r="AO9" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
     </row>
     <row r="10">
@@ -1771,7 +1771,7 @@
         <v>1.05</v>
       </c>
       <c r="N10" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="O10" t="n">
         <v>1.27</v>
@@ -1786,7 +1786,7 @@
         <v>1.45</v>
       </c>
       <c r="S10" t="n">
-        <v>2.98</v>
+        <v>2.96</v>
       </c>
       <c r="T10" t="n">
         <v>1.71</v>
@@ -1804,7 +1804,7 @@
         <v>18.5</v>
       </c>
       <c r="Y10" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="Z10" t="n">
         <v>14</v>
@@ -1816,7 +1816,7 @@
         <v>16.5</v>
       </c>
       <c r="AC10" t="n">
-        <v>9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD10" t="n">
         <v>11</v>
@@ -1837,16 +1837,16 @@
         <v>34</v>
       </c>
       <c r="AJ10" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AK10" t="n">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="AL10" t="n">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="AM10" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
       <c r="AN10" t="n">
         <v>38</v>
@@ -1891,10 +1891,10 @@
         <v>2.24</v>
       </c>
       <c r="I11" t="n">
-        <v>2.36</v>
+        <v>2.34</v>
       </c>
       <c r="J11" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="K11" t="n">
         <v>3.85</v>
@@ -1906,13 +1906,13 @@
         <v>1.05</v>
       </c>
       <c r="N11" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="O11" t="n">
         <v>1.24</v>
       </c>
       <c r="P11" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="Q11" t="n">
         <v>1.71</v>
@@ -1921,13 +1921,13 @@
         <v>1.5</v>
       </c>
       <c r="S11" t="n">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="T11" t="n">
         <v>1.64</v>
       </c>
       <c r="U11" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -1942,7 +1942,7 @@
         <v>13</v>
       </c>
       <c r="Z11" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AA11" t="n">
         <v>32</v>
@@ -1951,7 +1951,7 @@
         <v>16.5</v>
       </c>
       <c r="AC11" t="n">
-        <v>9.199999999999999</v>
+        <v>10.5</v>
       </c>
       <c r="AD11" t="n">
         <v>12</v>
@@ -2017,10 +2017,10 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="G12" t="n">
-        <v>1.59</v>
+        <v>1.57</v>
       </c>
       <c r="H12" t="n">
         <v>6.4</v>
@@ -2041,7 +2041,7 @@
         <v>1.05</v>
       </c>
       <c r="N12" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="O12" t="n">
         <v>1.25</v>
@@ -2053,13 +2053,13 @@
         <v>1.76</v>
       </c>
       <c r="R12" t="n">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="S12" t="n">
-        <v>2.94</v>
+        <v>2.86</v>
       </c>
       <c r="T12" t="n">
-        <v>1.88</v>
+        <v>1.86</v>
       </c>
       <c r="U12" t="n">
         <v>2.04</v>
@@ -2071,28 +2071,28 @@
         <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="Y12" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="Z12" t="n">
-        <v>220</v>
+        <v>300</v>
       </c>
       <c r="AA12" t="n">
-        <v>1000</v>
+        <v>210</v>
       </c>
       <c r="AB12" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="AC12" t="n">
         <v>10.5</v>
       </c>
       <c r="AD12" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AE12" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="AF12" t="n">
         <v>10</v>
@@ -2101,28 +2101,28 @@
         <v>10.5</v>
       </c>
       <c r="AH12" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AI12" t="n">
         <v>1000</v>
       </c>
       <c r="AJ12" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AK12" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AL12" t="n">
         <v>70</v>
       </c>
       <c r="AM12" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AN12" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="AO12" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
     </row>
     <row r="13">
@@ -2152,7 +2152,7 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2.64</v>
+        <v>2.66</v>
       </c>
       <c r="G13" t="n">
         <v>2.72</v>
@@ -2161,7 +2161,7 @@
         <v>2.72</v>
       </c>
       <c r="I13" t="n">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="J13" t="n">
         <v>3.65</v>
@@ -2188,13 +2188,13 @@
         <v>1.8</v>
       </c>
       <c r="R13" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="S13" t="n">
-        <v>2.92</v>
+        <v>2.96</v>
       </c>
       <c r="T13" t="n">
-        <v>1.66</v>
+        <v>1.65</v>
       </c>
       <c r="U13" t="n">
         <v>2.36</v>
@@ -2206,7 +2206,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Y13" t="n">
         <v>14</v>
@@ -2287,13 +2287,13 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="G14" t="n">
         <v>4.8</v>
       </c>
       <c r="H14" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="I14" t="n">
         <v>1.85</v>
@@ -2320,16 +2320,16 @@
         <v>2.32</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.65</v>
+        <v>1.68</v>
       </c>
       <c r="R14" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="S14" t="n">
-        <v>2.62</v>
+        <v>2.66</v>
       </c>
       <c r="T14" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="U14" t="n">
         <v>2.36</v>
@@ -2371,7 +2371,7 @@
         <v>19.5</v>
       </c>
       <c r="AH14" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="AI14" t="n">
         <v>30</v>
@@ -2386,7 +2386,7 @@
         <v>55</v>
       </c>
       <c r="AM14" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AN14" t="n">
         <v>48</v>
@@ -2434,7 +2434,7 @@
         <v>8</v>
       </c>
       <c r="J15" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="K15" t="n">
         <v>5.7</v>
@@ -2446,28 +2446,28 @@
         <v>1.03</v>
       </c>
       <c r="N15" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="O15" t="n">
         <v>1.16</v>
       </c>
       <c r="P15" t="n">
-        <v>2.82</v>
+        <v>2.84</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="R15" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="S15" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="T15" t="n">
         <v>1.7</v>
       </c>
       <c r="U15" t="n">
-        <v>2.22</v>
+        <v>2.26</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -2479,7 +2479,7 @@
         <v>32</v>
       </c>
       <c r="Y15" t="n">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="Z15" t="n">
         <v>75</v>
@@ -2494,10 +2494,10 @@
         <v>14</v>
       </c>
       <c r="AD15" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AE15" t="n">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="AF15" t="n">
         <v>12</v>
@@ -2518,13 +2518,13 @@
         <v>15</v>
       </c>
       <c r="AL15" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AM15" t="n">
         <v>95</v>
       </c>
       <c r="AN15" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="AO15" t="n">
         <v>80</v>
@@ -2590,7 +2590,7 @@
         <v>1.39</v>
       </c>
       <c r="Q16" t="n">
-        <v>3.15</v>
+        <v>2.86</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -2692,16 +2692,16 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="G17" t="n">
         <v>1.66</v>
       </c>
       <c r="H17" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="I17" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="J17" t="n">
         <v>4.1</v>
@@ -2725,16 +2725,16 @@
         <v>1.96</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.92</v>
+        <v>1.79</v>
       </c>
       <c r="R17" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="S17" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="T17" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="U17" t="n">
         <v>1.97</v>
@@ -2746,7 +2746,7 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="Y17" t="n">
         <v>21</v>
@@ -2767,7 +2767,7 @@
         <v>25</v>
       </c>
       <c r="AE17" t="n">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="AF17" t="n">
         <v>10</v>
@@ -2830,16 +2830,16 @@
         <v>1.91</v>
       </c>
       <c r="G18" t="n">
-        <v>1.99</v>
+        <v>1.98</v>
       </c>
       <c r="H18" t="n">
         <v>4.1</v>
       </c>
       <c r="I18" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="J18" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="K18" t="n">
         <v>3.95</v>
@@ -2851,25 +2851,25 @@
         <v>1.06</v>
       </c>
       <c r="N18" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="O18" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="P18" t="n">
-        <v>2.04</v>
+        <v>2.08</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="R18" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="S18" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="T18" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="U18" t="n">
         <v>2.16</v>
@@ -2881,7 +2881,7 @@
         <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="Y18" t="n">
         <v>17.5</v>
@@ -2899,28 +2899,28 @@
         <v>9</v>
       </c>
       <c r="AD18" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AE18" t="n">
         <v>55</v>
       </c>
       <c r="AF18" t="n">
-        <v>13</v>
+        <v>14.5</v>
       </c>
       <c r="AG18" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AH18" t="n">
         <v>18</v>
       </c>
       <c r="AI18" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AJ18" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AK18" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AL18" t="n">
         <v>34</v>
@@ -2989,19 +2989,19 @@
         <v>4</v>
       </c>
       <c r="O19" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="P19" t="n">
-        <v>2.02</v>
+        <v>1.98</v>
       </c>
       <c r="Q19" t="n">
         <v>1.92</v>
       </c>
       <c r="R19" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="S19" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="T19" t="n">
         <v>1.73</v>
@@ -3019,10 +3019,10 @@
         <v>16</v>
       </c>
       <c r="Y19" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="Z19" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AA19" t="n">
         <v>55</v>
@@ -3031,16 +3031,16 @@
         <v>11.5</v>
       </c>
       <c r="AC19" t="n">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD19" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AE19" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AF19" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AG19" t="n">
         <v>12</v>
@@ -3055,7 +3055,7 @@
         <v>36</v>
       </c>
       <c r="AK19" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AL19" t="n">
         <v>40</v>
@@ -3097,13 +3097,13 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>2.82</v>
+        <v>2.84</v>
       </c>
       <c r="G20" t="n">
-        <v>2.94</v>
+        <v>2.9</v>
       </c>
       <c r="H20" t="n">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="I20" t="n">
         <v>2.66</v>
@@ -3121,19 +3121,19 @@
         <v>1.06</v>
       </c>
       <c r="N20" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="O20" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="P20" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="R20" t="n">
-        <v>1.39</v>
+        <v>1.41</v>
       </c>
       <c r="S20" t="n">
         <v>3.15</v>
@@ -3154,55 +3154,55 @@
         <v>16.5</v>
       </c>
       <c r="Y20" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Z20" t="n">
-        <v>19.5</v>
+        <v>22</v>
       </c>
       <c r="AA20" t="n">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="AB20" t="n">
-        <v>13.5</v>
+        <v>15.5</v>
       </c>
       <c r="AC20" t="n">
         <v>8.4</v>
       </c>
       <c r="AD20" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AE20" t="n">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="AF20" t="n">
         <v>21</v>
       </c>
       <c r="AG20" t="n">
-        <v>13.5</v>
+        <v>15.5</v>
       </c>
       <c r="AH20" t="n">
         <v>19.5</v>
       </c>
       <c r="AI20" t="n">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="AJ20" t="n">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="AK20" t="n">
         <v>36</v>
       </c>
       <c r="AL20" t="n">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="AM20" t="n">
         <v>85</v>
       </c>
       <c r="AN20" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="AO20" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="21">
@@ -3232,19 +3232,19 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>2.38</v>
+        <v>2.36</v>
       </c>
       <c r="G21" t="n">
         <v>2.54</v>
       </c>
       <c r="H21" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="I21" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="J21" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="K21" t="n">
         <v>3.65</v>
@@ -3253,31 +3253,31 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N21" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="O21" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="P21" t="n">
-        <v>1.95</v>
+        <v>1.96</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="R21" t="n">
         <v>1.37</v>
       </c>
       <c r="S21" t="n">
-        <v>3.45</v>
+        <v>3.25</v>
       </c>
       <c r="T21" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="U21" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -3286,58 +3286,58 @@
         <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>15.5</v>
+        <v>17.5</v>
       </c>
       <c r="Y21" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>26</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>65</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>16</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>42</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>19</v>
+      </c>
+      <c r="AG21" t="n">
         <v>13.5</v>
       </c>
-      <c r="Z21" t="n">
-        <v>980</v>
-      </c>
-      <c r="AA21" t="n">
-        <v>60</v>
-      </c>
-      <c r="AB21" t="n">
-        <v>11</v>
-      </c>
-      <c r="AC21" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="AD21" t="n">
-        <v>14</v>
-      </c>
-      <c r="AE21" t="n">
-        <v>38</v>
-      </c>
-      <c r="AF21" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AG21" t="n">
-        <v>12</v>
-      </c>
       <c r="AH21" t="n">
-        <v>17.5</v>
+        <v>19.5</v>
       </c>
       <c r="AI21" t="n">
-        <v>980</v>
+        <v>55</v>
       </c>
       <c r="AJ21" t="n">
-        <v>980</v>
+        <v>40</v>
       </c>
       <c r="AK21" t="n">
-        <v>980</v>
+        <v>30</v>
       </c>
       <c r="AL21" t="n">
-        <v>980</v>
+        <v>44</v>
       </c>
       <c r="AM21" t="n">
         <v>100</v>
       </c>
       <c r="AN21" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AO21" t="n">
-        <v>34</v>
+        <v>38</v>
       </c>
     </row>
     <row r="22">
@@ -3370,7 +3370,7 @@
         <v>1.87</v>
       </c>
       <c r="G22" t="n">
-        <v>1.96</v>
+        <v>1.95</v>
       </c>
       <c r="H22" t="n">
         <v>4.1</v>
@@ -3397,10 +3397,10 @@
         <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.65</v>
+        <v>1.63</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -3505,7 +3505,7 @@
         <v>2.02</v>
       </c>
       <c r="G23" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="H23" t="n">
         <v>3.95</v>
@@ -3514,10 +3514,10 @@
         <v>4.1</v>
       </c>
       <c r="J23" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="K23" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -3556,7 +3556,7 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="Y23" t="n">
         <v>16.5</v>
@@ -3565,7 +3565,7 @@
         <v>30</v>
       </c>
       <c r="AA23" t="n">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="AB23" t="n">
         <v>11</v>
@@ -3577,10 +3577,10 @@
         <v>16.5</v>
       </c>
       <c r="AE23" t="n">
-        <v>120</v>
+        <v>55</v>
       </c>
       <c r="AF23" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AG23" t="n">
         <v>11</v>
@@ -3589,10 +3589,10 @@
         <v>17</v>
       </c>
       <c r="AI23" t="n">
-        <v>210</v>
+        <v>60</v>
       </c>
       <c r="AJ23" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AK23" t="n">
         <v>21</v>
@@ -3601,10 +3601,10 @@
         <v>34</v>
       </c>
       <c r="AM23" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
       <c r="AN23" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AO23" t="n">
         <v>44</v>
@@ -3637,7 +3637,7 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>2.82</v>
+        <v>2.8</v>
       </c>
       <c r="G24" t="n">
         <v>2.88</v>
@@ -3649,7 +3649,7 @@
         <v>2.8</v>
       </c>
       <c r="J24" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="K24" t="n">
         <v>3.55</v>
@@ -3661,28 +3661,28 @@
         <v>1.07</v>
       </c>
       <c r="N24" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="O24" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="P24" t="n">
-        <v>1.91</v>
+        <v>1.94</v>
       </c>
       <c r="Q24" t="n">
-        <v>2</v>
+        <v>1.99</v>
       </c>
       <c r="R24" t="n">
         <v>1.36</v>
       </c>
       <c r="S24" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="T24" t="n">
-        <v>1.76</v>
+        <v>1.74</v>
       </c>
       <c r="U24" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -3694,25 +3694,25 @@
         <v>15</v>
       </c>
       <c r="Y24" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="Z24" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AA24" t="n">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="AB24" t="n">
         <v>12</v>
       </c>
       <c r="AC24" t="n">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD24" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AE24" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AF24" t="n">
         <v>19.5</v>
@@ -3727,22 +3727,22 @@
         <v>980</v>
       </c>
       <c r="AJ24" t="n">
-        <v>980</v>
+        <v>50</v>
       </c>
       <c r="AK24" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AL24" t="n">
         <v>44</v>
       </c>
       <c r="AM24" t="n">
-        <v>95</v>
+        <v>110</v>
       </c>
       <c r="AN24" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AO24" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="25">
@@ -3772,22 +3772,22 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>2.48</v>
+        <v>2.44</v>
       </c>
       <c r="G25" t="n">
-        <v>2.58</v>
+        <v>2.56</v>
       </c>
       <c r="H25" t="n">
-        <v>2.8</v>
+        <v>2.78</v>
       </c>
       <c r="I25" t="n">
         <v>2.92</v>
       </c>
       <c r="J25" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="K25" t="n">
-        <v>3.95</v>
+        <v>4.1</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
@@ -3802,22 +3802,22 @@
         <v>1.2</v>
       </c>
       <c r="P25" t="n">
-        <v>2.44</v>
+        <v>2.48</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.62</v>
+        <v>1.61</v>
       </c>
       <c r="R25" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="S25" t="n">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="T25" t="n">
-        <v>1.54</v>
+        <v>1.56</v>
       </c>
       <c r="U25" t="n">
-        <v>2.56</v>
+        <v>2.6</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -3829,19 +3829,19 @@
         <v>980</v>
       </c>
       <c r="Y25" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="Z25" t="n">
         <v>980</v>
       </c>
       <c r="AA25" t="n">
-        <v>48</v>
+        <v>980</v>
       </c>
       <c r="AB25" t="n">
         <v>15.5</v>
       </c>
       <c r="AC25" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="AD25" t="n">
         <v>13.5</v>
@@ -3850,25 +3850,25 @@
         <v>980</v>
       </c>
       <c r="AF25" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AG25" t="n">
         <v>12.5</v>
       </c>
       <c r="AH25" t="n">
-        <v>15.5</v>
+        <v>17</v>
       </c>
       <c r="AI25" t="n">
-        <v>34</v>
+        <v>980</v>
       </c>
       <c r="AJ25" t="n">
-        <v>36</v>
+        <v>980</v>
       </c>
       <c r="AK25" t="n">
-        <v>28</v>
+        <v>980</v>
       </c>
       <c r="AL25" t="n">
-        <v>32</v>
+        <v>980</v>
       </c>
       <c r="AM25" t="n">
         <v>60</v>
@@ -3877,7 +3877,7 @@
         <v>14</v>
       </c>
       <c r="AO25" t="n">
-        <v>19.5</v>
+        <v>17.5</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-22.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-22.xlsx
@@ -667,22 +667,22 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.75</v>
+        <v>1.91</v>
       </c>
       <c r="G2" t="n">
-        <v>2.22</v>
+        <v>2.06</v>
       </c>
       <c r="H2" t="n">
-        <v>4.7</v>
+        <v>5.2</v>
       </c>
       <c r="I2" t="n">
-        <v>8.199999999999999</v>
+        <v>6.8</v>
       </c>
       <c r="J2" t="n">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="K2" t="n">
-        <v>4.7</v>
+        <v>3.35</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -697,10 +697,10 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>1.34</v>
+        <v>1.45</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.62</v>
+        <v>2.68</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -802,19 +802,19 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>2.24</v>
+        <v>2.38</v>
       </c>
       <c r="G3" t="n">
-        <v>2.68</v>
+        <v>3</v>
       </c>
       <c r="H3" t="n">
-        <v>3.05</v>
+        <v>3.25</v>
       </c>
       <c r="I3" t="n">
-        <v>4.6</v>
+        <v>3.6</v>
       </c>
       <c r="J3" t="n">
-        <v>3</v>
+        <v>2.7</v>
       </c>
       <c r="K3" t="n">
         <v>3.3</v>
@@ -835,7 +835,7 @@
         <v>1.52</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.38</v>
+        <v>2.66</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -937,22 +937,22 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="G4" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="H4" t="n">
-        <v>4.4</v>
+        <v>4.2</v>
       </c>
       <c r="I4" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="J4" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="K4" t="n">
-        <v>7</v>
+        <v>7.4</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -967,10 +967,10 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>1.73</v>
+        <v>1.78</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.8</v>
+        <v>1.89</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -1105,7 +1105,7 @@
         <v>2.96</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="R5" t="n">
         <v>1.81</v>
@@ -1207,22 +1207,22 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.24</v>
+        <v>2.38</v>
       </c>
       <c r="G6" t="n">
-        <v>3.05</v>
+        <v>2.84</v>
       </c>
       <c r="H6" t="n">
-        <v>2.44</v>
+        <v>2.64</v>
       </c>
       <c r="I6" t="n">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="J6" t="n">
-        <v>3.35</v>
+        <v>3.75</v>
       </c>
       <c r="K6" t="n">
-        <v>7.2</v>
+        <v>4.5</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -1237,10 +1237,10 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>2.18</v>
+        <v>2.46</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.48</v>
+        <v>1.55</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -1369,7 +1369,7 @@
         <v>3.35</v>
       </c>
       <c r="O7" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="P7" t="n">
         <v>1.79</v>
@@ -1381,10 +1381,10 @@
         <v>1.29</v>
       </c>
       <c r="S7" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="T7" t="n">
-        <v>1.93</v>
+        <v>1.96</v>
       </c>
       <c r="U7" t="n">
         <v>1.97</v>
@@ -1399,10 +1399,10 @@
         <v>13</v>
       </c>
       <c r="Y7" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="Z7" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AA7" t="n">
         <v>34</v>
@@ -1420,7 +1420,7 @@
         <v>32</v>
       </c>
       <c r="AF7" t="n">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="AG7" t="n">
         <v>18</v>
@@ -1429,13 +1429,13 @@
         <v>21</v>
       </c>
       <c r="AI7" t="n">
-        <v>980</v>
+        <v>150</v>
       </c>
       <c r="AJ7" t="n">
         <v>120</v>
       </c>
       <c r="AK7" t="n">
-        <v>400</v>
+        <v>80</v>
       </c>
       <c r="AL7" t="n">
         <v>85</v>
@@ -1483,13 +1483,13 @@
         <v>1.22</v>
       </c>
       <c r="H8" t="n">
-        <v>14.5</v>
+        <v>16</v>
       </c>
       <c r="I8" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J8" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="K8" t="n">
         <v>9</v>
@@ -1507,10 +1507,10 @@
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>2.66</v>
+        <v>2.62</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -1612,16 +1612,16 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.94</v>
+        <v>2.86</v>
       </c>
       <c r="G9" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="H9" t="n">
-        <v>2.5</v>
+        <v>2.54</v>
       </c>
       <c r="I9" t="n">
-        <v>2.52</v>
+        <v>2.58</v>
       </c>
       <c r="J9" t="n">
         <v>3.75</v>
@@ -1636,28 +1636,28 @@
         <v>1.05</v>
       </c>
       <c r="N9" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="O9" t="n">
         <v>1.26</v>
       </c>
       <c r="P9" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.77</v>
+        <v>1.79</v>
       </c>
       <c r="R9" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="S9" t="n">
-        <v>2.94</v>
+        <v>2.92</v>
       </c>
       <c r="T9" t="n">
         <v>1.67</v>
       </c>
       <c r="U9" t="n">
-        <v>2.38</v>
+        <v>2.36</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -1687,13 +1687,13 @@
         <v>12</v>
       </c>
       <c r="AE9" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AF9" t="n">
         <v>22</v>
       </c>
       <c r="AG9" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AH9" t="n">
         <v>17</v>
@@ -1702,7 +1702,7 @@
         <v>36</v>
       </c>
       <c r="AJ9" t="n">
-        <v>980</v>
+        <v>50</v>
       </c>
       <c r="AK9" t="n">
         <v>32</v>
@@ -1711,13 +1711,13 @@
         <v>40</v>
       </c>
       <c r="AM9" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AN9" t="n">
         <v>25</v>
       </c>
       <c r="AO9" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10">
@@ -1771,28 +1771,28 @@
         <v>1.05</v>
       </c>
       <c r="N10" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="O10" t="n">
         <v>1.27</v>
       </c>
       <c r="P10" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="Q10" t="n">
         <v>1.78</v>
       </c>
       <c r="R10" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="S10" t="n">
-        <v>2.96</v>
+        <v>2.98</v>
       </c>
       <c r="T10" t="n">
-        <v>1.71</v>
+        <v>1.7</v>
       </c>
       <c r="U10" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1840,7 +1840,7 @@
         <v>85</v>
       </c>
       <c r="AK10" t="n">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="AL10" t="n">
         <v>48</v>
@@ -1885,10 +1885,10 @@
         <v>3.25</v>
       </c>
       <c r="G11" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="H11" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="I11" t="n">
         <v>2.34</v>
@@ -1912,22 +1912,22 @@
         <v>1.24</v>
       </c>
       <c r="P11" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.71</v>
+        <v>1.73</v>
       </c>
       <c r="R11" t="n">
         <v>1.5</v>
       </c>
       <c r="S11" t="n">
-        <v>2.8</v>
+        <v>2.78</v>
       </c>
       <c r="T11" t="n">
-        <v>1.64</v>
+        <v>1.63</v>
       </c>
       <c r="U11" t="n">
-        <v>2.4</v>
+        <v>2.36</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -1936,58 +1936,58 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Y11" t="n">
-        <v>13</v>
+        <v>14.5</v>
       </c>
       <c r="Z11" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AA11" t="n">
+        <v>34</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>25</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>28</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>16</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>18</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>36</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>65</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>38</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>44</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>80</v>
+      </c>
+      <c r="AN11" t="n">
         <v>32</v>
       </c>
-      <c r="AB11" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AC11" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AD11" t="n">
-        <v>12</v>
-      </c>
-      <c r="AE11" t="n">
-        <v>24</v>
-      </c>
-      <c r="AF11" t="n">
-        <v>26</v>
-      </c>
-      <c r="AG11" t="n">
-        <v>15</v>
-      </c>
-      <c r="AH11" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AI11" t="n">
-        <v>34</v>
-      </c>
-      <c r="AJ11" t="n">
-        <v>60</v>
-      </c>
-      <c r="AK11" t="n">
-        <v>36</v>
-      </c>
-      <c r="AL11" t="n">
-        <v>42</v>
-      </c>
-      <c r="AM11" t="n">
-        <v>75</v>
-      </c>
-      <c r="AN11" t="n">
-        <v>28</v>
-      </c>
       <c r="AO11" t="n">
-        <v>14.5</v>
+        <v>15.5</v>
       </c>
     </row>
     <row r="12">
@@ -2017,10 +2017,10 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="G12" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="H12" t="n">
         <v>6.4</v>
@@ -2041,7 +2041,7 @@
         <v>1.05</v>
       </c>
       <c r="N12" t="n">
-        <v>4.4</v>
+        <v>4.6</v>
       </c>
       <c r="O12" t="n">
         <v>1.25</v>
@@ -2053,16 +2053,16 @@
         <v>1.76</v>
       </c>
       <c r="R12" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="S12" t="n">
-        <v>2.86</v>
+        <v>2.92</v>
       </c>
       <c r="T12" t="n">
-        <v>1.86</v>
+        <v>1.88</v>
       </c>
       <c r="U12" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -2071,13 +2071,13 @@
         <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Y12" t="n">
         <v>34</v>
       </c>
       <c r="Z12" t="n">
-        <v>300</v>
+        <v>280</v>
       </c>
       <c r="AA12" t="n">
         <v>210</v>
@@ -2092,10 +2092,10 @@
         <v>38</v>
       </c>
       <c r="AE12" t="n">
-        <v>90</v>
+        <v>1000</v>
       </c>
       <c r="AF12" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AG12" t="n">
         <v>10.5</v>
@@ -2107,7 +2107,7 @@
         <v>1000</v>
       </c>
       <c r="AJ12" t="n">
-        <v>17</v>
+        <v>14.5</v>
       </c>
       <c r="AK12" t="n">
         <v>16.5</v>
@@ -2119,10 +2119,10 @@
         <v>130</v>
       </c>
       <c r="AN12" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="AO12" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="13">
@@ -2155,10 +2155,10 @@
         <v>2.66</v>
       </c>
       <c r="G13" t="n">
-        <v>2.72</v>
+        <v>2.74</v>
       </c>
       <c r="H13" t="n">
-        <v>2.72</v>
+        <v>2.7</v>
       </c>
       <c r="I13" t="n">
         <v>2.82</v>
@@ -2188,13 +2188,13 @@
         <v>1.8</v>
       </c>
       <c r="R13" t="n">
-        <v>1.47</v>
+        <v>1.46</v>
       </c>
       <c r="S13" t="n">
-        <v>2.96</v>
+        <v>2.94</v>
       </c>
       <c r="T13" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="U13" t="n">
         <v>2.36</v>
@@ -2206,10 +2206,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Y13" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="Z13" t="n">
         <v>20</v>
@@ -2239,16 +2239,16 @@
         <v>16.5</v>
       </c>
       <c r="AI13" t="n">
-        <v>980</v>
+        <v>80</v>
       </c>
       <c r="AJ13" t="n">
         <v>980</v>
       </c>
       <c r="AK13" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AL13" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AM13" t="n">
         <v>75</v>
@@ -2287,7 +2287,7 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="G14" t="n">
         <v>4.8</v>
@@ -2296,7 +2296,7 @@
         <v>1.78</v>
       </c>
       <c r="I14" t="n">
-        <v>1.85</v>
+        <v>1.84</v>
       </c>
       <c r="J14" t="n">
         <v>4.1</v>
@@ -2311,25 +2311,25 @@
         <v>1.04</v>
       </c>
       <c r="N14" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="O14" t="n">
         <v>1.22</v>
       </c>
       <c r="P14" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="Q14" t="n">
         <v>1.68</v>
       </c>
       <c r="R14" t="n">
-        <v>1.52</v>
+        <v>1.54</v>
       </c>
       <c r="S14" t="n">
-        <v>2.66</v>
+        <v>2.62</v>
       </c>
       <c r="T14" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="U14" t="n">
         <v>2.36</v>
@@ -2341,58 +2341,58 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
+        <v>27</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>14</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>24</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>20</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>46</v>
+      </c>
+      <c r="AG14" t="n">
         <v>23</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>12</v>
-      </c>
-      <c r="Z14" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AA14" t="n">
-        <v>21</v>
-      </c>
-      <c r="AB14" t="n">
-        <v>22</v>
-      </c>
-      <c r="AC14" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AD14" t="n">
-        <v>11</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>40</v>
-      </c>
-      <c r="AG14" t="n">
-        <v>19.5</v>
       </c>
       <c r="AH14" t="n">
         <v>21</v>
       </c>
       <c r="AI14" t="n">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="AJ14" t="n">
         <v>120</v>
       </c>
       <c r="AK14" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="AL14" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="AM14" t="n">
         <v>90</v>
       </c>
       <c r="AN14" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AO14" t="n">
-        <v>9</v>
+        <v>10.5</v>
       </c>
     </row>
     <row r="15">
@@ -2428,7 +2428,7 @@
         <v>1.48</v>
       </c>
       <c r="H15" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="I15" t="n">
         <v>8</v>
@@ -2455,13 +2455,13 @@
         <v>2.84</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.49</v>
+        <v>1.48</v>
       </c>
       <c r="R15" t="n">
         <v>1.75</v>
       </c>
       <c r="S15" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="T15" t="n">
         <v>1.7</v>
@@ -2479,7 +2479,7 @@
         <v>32</v>
       </c>
       <c r="Y15" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="Z15" t="n">
         <v>75</v>
@@ -2497,7 +2497,7 @@
         <v>29</v>
       </c>
       <c r="AE15" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AF15" t="n">
         <v>12</v>
@@ -2569,7 +2569,7 @@
         <v>2.78</v>
       </c>
       <c r="J16" t="n">
-        <v>2.48</v>
+        <v>2.54</v>
       </c>
       <c r="K16" t="n">
         <v>3.05</v>
@@ -2590,7 +2590,7 @@
         <v>1.39</v>
       </c>
       <c r="Q16" t="n">
-        <v>2.86</v>
+        <v>2.84</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -2698,7 +2698,7 @@
         <v>1.66</v>
       </c>
       <c r="H17" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="I17" t="n">
         <v>6.4</v>
@@ -2716,7 +2716,7 @@
         <v>1.06</v>
       </c>
       <c r="N17" t="n">
-        <v>3.85</v>
+        <v>3.75</v>
       </c>
       <c r="O17" t="n">
         <v>1.31</v>
@@ -2725,13 +2725,13 @@
         <v>1.96</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.79</v>
+        <v>1.88</v>
       </c>
       <c r="R17" t="n">
         <v>1.37</v>
       </c>
       <c r="S17" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="T17" t="n">
         <v>1.9</v>
@@ -2761,13 +2761,13 @@
         <v>8.800000000000001</v>
       </c>
       <c r="AC17" t="n">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="AD17" t="n">
         <v>25</v>
       </c>
       <c r="AE17" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="AF17" t="n">
         <v>10</v>
@@ -2827,19 +2827,19 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="G18" t="n">
-        <v>1.98</v>
+        <v>1.99</v>
       </c>
       <c r="H18" t="n">
         <v>4.1</v>
       </c>
       <c r="I18" t="n">
-        <v>4.6</v>
+        <v>4.4</v>
       </c>
       <c r="J18" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="K18" t="n">
         <v>3.95</v>
@@ -2851,28 +2851,28 @@
         <v>1.06</v>
       </c>
       <c r="N18" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="O18" t="n">
         <v>1.28</v>
       </c>
       <c r="P18" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="R18" t="n">
         <v>1.43</v>
       </c>
       <c r="S18" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="T18" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="U18" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -2881,13 +2881,13 @@
         <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="Y18" t="n">
-        <v>17.5</v>
+        <v>19.5</v>
       </c>
       <c r="Z18" t="n">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="AA18" t="n">
         <v>110</v>
@@ -2899,31 +2899,31 @@
         <v>9</v>
       </c>
       <c r="AD18" t="n">
-        <v>17.5</v>
+        <v>20</v>
       </c>
       <c r="AE18" t="n">
         <v>55</v>
       </c>
       <c r="AF18" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AG18" t="n">
-        <v>12</v>
+        <v>10.5</v>
       </c>
       <c r="AH18" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="AI18" t="n">
         <v>65</v>
       </c>
       <c r="AJ18" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="AK18" t="n">
-        <v>19.5</v>
+        <v>23</v>
       </c>
       <c r="AL18" t="n">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="AM18" t="n">
         <v>110</v>
@@ -2932,7 +2932,7 @@
         <v>12</v>
       </c>
       <c r="AO18" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
     <row r="19">
@@ -2965,25 +2965,25 @@
         <v>2.5</v>
       </c>
       <c r="G19" t="n">
-        <v>2.52</v>
+        <v>2.54</v>
       </c>
       <c r="H19" t="n">
         <v>3.05</v>
       </c>
       <c r="I19" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="J19" t="n">
-        <v>3.55</v>
+        <v>3.45</v>
       </c>
       <c r="K19" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N19" t="n">
         <v>4</v>
@@ -2992,22 +2992,22 @@
         <v>1.31</v>
       </c>
       <c r="P19" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="R19" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="S19" t="n">
         <v>3.35</v>
       </c>
       <c r="T19" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="U19" t="n">
-        <v>2.26</v>
+        <v>2.24</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -3016,10 +3016,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="Y19" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="Z19" t="n">
         <v>23</v>
@@ -3031,13 +3031,13 @@
         <v>11.5</v>
       </c>
       <c r="AC19" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="AD19" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AE19" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AF19" t="n">
         <v>17.5</v>
@@ -3046,7 +3046,7 @@
         <v>12</v>
       </c>
       <c r="AH19" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="AI19" t="n">
         <v>46</v>
@@ -3061,13 +3061,13 @@
         <v>40</v>
       </c>
       <c r="AM19" t="n">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="AN19" t="n">
         <v>21</v>
       </c>
       <c r="AO19" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20">
@@ -3100,13 +3100,13 @@
         <v>2.84</v>
       </c>
       <c r="G20" t="n">
-        <v>2.9</v>
+        <v>2.92</v>
       </c>
       <c r="H20" t="n">
-        <v>2.64</v>
+        <v>2.6</v>
       </c>
       <c r="I20" t="n">
-        <v>2.66</v>
+        <v>2.72</v>
       </c>
       <c r="J20" t="n">
         <v>3.6</v>
@@ -3130,10 +3130,10 @@
         <v>2.04</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.9</v>
+        <v>1.87</v>
       </c>
       <c r="R20" t="n">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="S20" t="n">
         <v>3.15</v>
@@ -3166,7 +3166,7 @@
         <v>15.5</v>
       </c>
       <c r="AC20" t="n">
-        <v>8.4</v>
+        <v>9.6</v>
       </c>
       <c r="AD20" t="n">
         <v>15</v>
@@ -3175,7 +3175,7 @@
         <v>34</v>
       </c>
       <c r="AF20" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="AG20" t="n">
         <v>15.5</v>
@@ -3196,13 +3196,13 @@
         <v>48</v>
       </c>
       <c r="AM20" t="n">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="AN20" t="n">
         <v>28</v>
       </c>
       <c r="AO20" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="21">
@@ -3253,7 +3253,7 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N21" t="n">
         <v>3.8</v>
@@ -3265,13 +3265,13 @@
         <v>1.96</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.8</v>
+        <v>1.94</v>
       </c>
       <c r="R21" t="n">
         <v>1.37</v>
       </c>
       <c r="S21" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="T21" t="n">
         <v>1.72</v>
@@ -3337,7 +3337,7 @@
         <v>23</v>
       </c>
       <c r="AO21" t="n">
-        <v>38</v>
+        <v>980</v>
       </c>
     </row>
     <row r="22">
@@ -3367,7 +3367,7 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>1.87</v>
+        <v>1.89</v>
       </c>
       <c r="G22" t="n">
         <v>1.95</v>
@@ -3400,7 +3400,7 @@
         <v>2.32</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.63</v>
+        <v>1.66</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -3502,10 +3502,10 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="G23" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="H23" t="n">
         <v>3.95</v>
@@ -3526,7 +3526,7 @@
         <v>1.06</v>
       </c>
       <c r="N23" t="n">
-        <v>4.5</v>
+        <v>4.3</v>
       </c>
       <c r="O23" t="n">
         <v>1.27</v>
@@ -3538,13 +3538,13 @@
         <v>1.81</v>
       </c>
       <c r="R23" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="S23" t="n">
         <v>3.05</v>
       </c>
       <c r="T23" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="U23" t="n">
         <v>2.32</v>
@@ -3577,7 +3577,7 @@
         <v>16.5</v>
       </c>
       <c r="AE23" t="n">
-        <v>55</v>
+        <v>120</v>
       </c>
       <c r="AF23" t="n">
         <v>13.5</v>
@@ -3589,10 +3589,10 @@
         <v>17</v>
       </c>
       <c r="AI23" t="n">
-        <v>60</v>
+        <v>210</v>
       </c>
       <c r="AJ23" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AK23" t="n">
         <v>21</v>
@@ -3601,7 +3601,7 @@
         <v>34</v>
       </c>
       <c r="AM23" t="n">
-        <v>95</v>
+        <v>1000</v>
       </c>
       <c r="AN23" t="n">
         <v>12.5</v>
@@ -3637,7 +3637,7 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="G24" t="n">
         <v>2.88</v>
@@ -3649,7 +3649,7 @@
         <v>2.8</v>
       </c>
       <c r="J24" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="K24" t="n">
         <v>3.55</v>
@@ -3661,13 +3661,13 @@
         <v>1.07</v>
       </c>
       <c r="N24" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="O24" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="P24" t="n">
-        <v>1.94</v>
+        <v>1.92</v>
       </c>
       <c r="Q24" t="n">
         <v>1.99</v>
@@ -3676,13 +3676,13 @@
         <v>1.36</v>
       </c>
       <c r="S24" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="T24" t="n">
-        <v>1.74</v>
+        <v>1.77</v>
       </c>
       <c r="U24" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -3697,10 +3697,10 @@
         <v>12</v>
       </c>
       <c r="Z24" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AA24" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AB24" t="n">
         <v>12</v>
@@ -3715,7 +3715,7 @@
         <v>32</v>
       </c>
       <c r="AF24" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AG24" t="n">
         <v>13</v>
@@ -3724,10 +3724,10 @@
         <v>17.5</v>
       </c>
       <c r="AI24" t="n">
-        <v>980</v>
+        <v>44</v>
       </c>
       <c r="AJ24" t="n">
-        <v>50</v>
+        <v>120</v>
       </c>
       <c r="AK24" t="n">
         <v>32</v>
@@ -3778,13 +3778,13 @@
         <v>2.56</v>
       </c>
       <c r="H25" t="n">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="I25" t="n">
-        <v>2.92</v>
+        <v>2.94</v>
       </c>
       <c r="J25" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="K25" t="n">
         <v>4.1</v>
@@ -3805,13 +3805,13 @@
         <v>2.48</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.61</v>
+        <v>1.6</v>
       </c>
       <c r="R25" t="n">
         <v>1.59</v>
       </c>
       <c r="S25" t="n">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="T25" t="n">
         <v>1.56</v>
@@ -3826,58 +3826,58 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>980</v>
+        <v>25</v>
       </c>
       <c r="Y25" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="Z25" t="n">
-        <v>980</v>
+        <v>25</v>
       </c>
       <c r="AA25" t="n">
-        <v>980</v>
+        <v>50</v>
       </c>
       <c r="AB25" t="n">
+        <v>17</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD25" t="n">
         <v>15.5</v>
       </c>
-      <c r="AC25" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AD25" t="n">
+      <c r="AE25" t="n">
+        <v>32</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>22</v>
+      </c>
+      <c r="AG25" t="n">
         <v>13.5</v>
-      </c>
-      <c r="AE25" t="n">
-        <v>980</v>
-      </c>
-      <c r="AF25" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG25" t="n">
-        <v>12.5</v>
       </c>
       <c r="AH25" t="n">
         <v>17</v>
       </c>
       <c r="AI25" t="n">
-        <v>980</v>
+        <v>38</v>
       </c>
       <c r="AJ25" t="n">
-        <v>980</v>
+        <v>40</v>
       </c>
       <c r="AK25" t="n">
-        <v>980</v>
+        <v>28</v>
       </c>
       <c r="AL25" t="n">
-        <v>980</v>
+        <v>36</v>
       </c>
       <c r="AM25" t="n">
         <v>60</v>
       </c>
       <c r="AN25" t="n">
-        <v>14</v>
+        <v>15.5</v>
       </c>
       <c r="AO25" t="n">
-        <v>17.5</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-22.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-22.xlsx
@@ -679,100 +679,100 @@
         <v>6.8</v>
       </c>
       <c r="J2" t="n">
-        <v>2.8</v>
+        <v>2.76</v>
       </c>
       <c r="K2" t="n">
         <v>3.35</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>1.13</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>1.45</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="P2" t="n">
         <v>1.45</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.68</v>
+        <v>2.7</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>6.2</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>2.22</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>1.94</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="Z2" t="n">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="AA2" t="n">
-        <v>0</v>
+        <v>220</v>
       </c>
       <c r="AB2" t="n">
-        <v>0</v>
+        <v>6.6</v>
       </c>
       <c r="AC2" t="n">
-        <v>0</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD2" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="AE2" t="n">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="AF2" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AG2" t="n">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="AH2" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="AI2" t="n">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="AJ2" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="AK2" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="AL2" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="AM2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN2" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="AO2" t="n">
-        <v>0</v>
+        <v>280</v>
       </c>
     </row>
     <row r="3">
@@ -802,112 +802,112 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>2.38</v>
+        <v>2.54</v>
       </c>
       <c r="G3" t="n">
-        <v>3</v>
+        <v>2.68</v>
       </c>
       <c r="H3" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I3" t="n">
         <v>3.6</v>
       </c>
       <c r="J3" t="n">
-        <v>2.7</v>
+        <v>2.86</v>
       </c>
       <c r="K3" t="n">
-        <v>3.3</v>
+        <v>3.05</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>1.49</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>2.54</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="P3" t="n">
         <v>1.52</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.66</v>
+        <v>2.38</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>4.8</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>1.94</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>1.62</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>1.59</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="Z3" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="AA3" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="AB3" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AC3" t="n">
-        <v>0</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD3" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="AE3" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="AF3" t="n">
-        <v>0</v>
+        <v>18.5</v>
       </c>
       <c r="AG3" t="n">
-        <v>0</v>
+        <v>15.5</v>
       </c>
       <c r="AH3" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AI3" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AJ3" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AK3" t="n">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="AL3" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="AM3" t="n">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="AN3" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AO3" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
     </row>
     <row r="4">
@@ -937,112 +937,112 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.6</v>
+        <v>1.25</v>
       </c>
       <c r="G4" t="n">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="H4" t="n">
-        <v>4.2</v>
+        <v>4.7</v>
       </c>
       <c r="I4" t="n">
-        <v>12.5</v>
+        <v>7.2</v>
       </c>
       <c r="J4" t="n">
-        <v>3.45</v>
+        <v>3.7</v>
       </c>
       <c r="K4" t="n">
-        <v>7.4</v>
+        <v>980</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="P4" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.89</v>
+        <v>1.81</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>2.98</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>2.06</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="5">
@@ -1093,19 +1093,19 @@
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N5" t="n">
         <v>6.8</v>
       </c>
       <c r="O5" t="n">
-        <v>1.14</v>
+        <v>1.12</v>
       </c>
       <c r="P5" t="n">
         <v>2.96</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="R5" t="n">
         <v>1.81</v>
@@ -1351,7 +1351,7 @@
         <v>2.02</v>
       </c>
       <c r="I7" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="J7" t="n">
         <v>3.6</v>
@@ -1366,7 +1366,7 @@
         <v>1.08</v>
       </c>
       <c r="N7" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="O7" t="n">
         <v>1.39</v>
@@ -1378,7 +1378,7 @@
         <v>2.2</v>
       </c>
       <c r="R7" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="S7" t="n">
         <v>4</v>
@@ -1387,7 +1387,7 @@
         <v>1.96</v>
       </c>
       <c r="U7" t="n">
-        <v>1.97</v>
+        <v>1.98</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>32</v>
       </c>
       <c r="AF7" t="n">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="AG7" t="n">
         <v>18</v>
@@ -1435,7 +1435,7 @@
         <v>120</v>
       </c>
       <c r="AK7" t="n">
-        <v>80</v>
+        <v>400</v>
       </c>
       <c r="AL7" t="n">
         <v>85</v>
@@ -1489,10 +1489,10 @@
         <v>24</v>
       </c>
       <c r="J8" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="K8" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -1507,7 +1507,7 @@
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>2.62</v>
+        <v>2.66</v>
       </c>
       <c r="Q8" t="n">
         <v>1.54</v>
@@ -1612,22 +1612,22 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.86</v>
+        <v>2.74</v>
       </c>
       <c r="G9" t="n">
-        <v>2.88</v>
+        <v>2.76</v>
       </c>
       <c r="H9" t="n">
-        <v>2.54</v>
+        <v>2.7</v>
       </c>
       <c r="I9" t="n">
-        <v>2.58</v>
+        <v>2.74</v>
       </c>
       <c r="J9" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="K9" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -1639,25 +1639,25 @@
         <v>4.4</v>
       </c>
       <c r="O9" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="P9" t="n">
-        <v>2.12</v>
+        <v>2.16</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.79</v>
+        <v>1.81</v>
       </c>
       <c r="R9" t="n">
         <v>1.45</v>
       </c>
       <c r="S9" t="n">
-        <v>2.92</v>
+        <v>2.98</v>
       </c>
       <c r="T9" t="n">
-        <v>1.67</v>
+        <v>1.66</v>
       </c>
       <c r="U9" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -1666,58 +1666,58 @@
         <v>0</v>
       </c>
       <c r="X9" t="n">
+        <v>18</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="Z9" t="n">
         <v>18.5</v>
       </c>
-      <c r="Y9" t="n">
+      <c r="AA9" t="n">
+        <v>40</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>13</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>13</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>28</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>20</v>
+      </c>
+      <c r="AG9" t="n">
         <v>12.5</v>
       </c>
-      <c r="Z9" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>34</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>14</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>12</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>26</v>
-      </c>
-      <c r="AF9" t="n">
+      <c r="AH9" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>38</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>42</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>29</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>75</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>85</v>
+      </c>
+      <c r="AN9" t="n">
         <v>22</v>
       </c>
-      <c r="AG9" t="n">
-        <v>13</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>17</v>
-      </c>
-      <c r="AI9" t="n">
-        <v>36</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>50</v>
-      </c>
-      <c r="AK9" t="n">
-        <v>32</v>
-      </c>
-      <c r="AL9" t="n">
-        <v>40</v>
-      </c>
-      <c r="AM9" t="n">
-        <v>80</v>
-      </c>
-      <c r="AN9" t="n">
-        <v>25</v>
-      </c>
       <c r="AO9" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10">
@@ -1747,19 +1747,19 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="G10" t="n">
-        <v>3.8</v>
+        <v>3.95</v>
       </c>
       <c r="H10" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="I10" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="J10" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="K10" t="n">
         <v>4.1</v>
@@ -1777,7 +1777,7 @@
         <v>1.27</v>
       </c>
       <c r="P10" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="Q10" t="n">
         <v>1.78</v>
@@ -1789,10 +1789,10 @@
         <v>2.98</v>
       </c>
       <c r="T10" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="U10" t="n">
-        <v>2.3</v>
+        <v>2.28</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1804,13 +1804,13 @@
         <v>18.5</v>
       </c>
       <c r="Y10" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="Z10" t="n">
         <v>14</v>
       </c>
       <c r="AA10" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AB10" t="n">
         <v>16.5</v>
@@ -1819,7 +1819,7 @@
         <v>9.199999999999999</v>
       </c>
       <c r="AD10" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AE10" t="n">
         <v>21</v>
@@ -1834,13 +1834,13 @@
         <v>17.5</v>
       </c>
       <c r="AI10" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AJ10" t="n">
         <v>85</v>
       </c>
       <c r="AK10" t="n">
-        <v>90</v>
+        <v>46</v>
       </c>
       <c r="AL10" t="n">
         <v>48</v>
@@ -1888,7 +1888,7 @@
         <v>3.35</v>
       </c>
       <c r="H11" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="I11" t="n">
         <v>2.34</v>
@@ -1921,13 +1921,13 @@
         <v>1.5</v>
       </c>
       <c r="S11" t="n">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="T11" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="U11" t="n">
-        <v>2.36</v>
+        <v>2.4</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -1942,7 +1942,7 @@
         <v>14.5</v>
       </c>
       <c r="Z11" t="n">
-        <v>18.5</v>
+        <v>17</v>
       </c>
       <c r="AA11" t="n">
         <v>34</v>
@@ -1954,40 +1954,40 @@
         <v>9</v>
       </c>
       <c r="AD11" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AE11" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AF11" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AG11" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AH11" t="n">
-        <v>18</v>
+        <v>16.5</v>
       </c>
       <c r="AI11" t="n">
+        <v>34</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>60</v>
+      </c>
+      <c r="AK11" t="n">
         <v>36</v>
       </c>
-      <c r="AJ11" t="n">
-        <v>65</v>
-      </c>
-      <c r="AK11" t="n">
-        <v>38</v>
-      </c>
       <c r="AL11" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AM11" t="n">
         <v>80</v>
       </c>
       <c r="AN11" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="AO11" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
     </row>
     <row r="12">
@@ -2020,7 +2020,7 @@
         <v>1.57</v>
       </c>
       <c r="G12" t="n">
-        <v>1.6</v>
+        <v>1.59</v>
       </c>
       <c r="H12" t="n">
         <v>6.4</v>
@@ -2041,7 +2041,7 @@
         <v>1.05</v>
       </c>
       <c r="N12" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="O12" t="n">
         <v>1.25</v>
@@ -2050,13 +2050,13 @@
         <v>2.2</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.76</v>
+        <v>1.77</v>
       </c>
       <c r="R12" t="n">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="S12" t="n">
-        <v>2.92</v>
+        <v>2.88</v>
       </c>
       <c r="T12" t="n">
         <v>1.88</v>
@@ -2071,7 +2071,7 @@
         <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="Y12" t="n">
         <v>34</v>
@@ -2080,7 +2080,7 @@
         <v>280</v>
       </c>
       <c r="AA12" t="n">
-        <v>210</v>
+        <v>1000</v>
       </c>
       <c r="AB12" t="n">
         <v>9.4</v>
@@ -2110,13 +2110,13 @@
         <v>14.5</v>
       </c>
       <c r="AK12" t="n">
-        <v>16.5</v>
+        <v>19</v>
       </c>
       <c r="AL12" t="n">
         <v>70</v>
       </c>
       <c r="AM12" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="AN12" t="n">
         <v>7.6</v>
@@ -2152,16 +2152,16 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2.66</v>
+        <v>2.68</v>
       </c>
       <c r="G13" t="n">
-        <v>2.74</v>
+        <v>2.76</v>
       </c>
       <c r="H13" t="n">
         <v>2.7</v>
       </c>
       <c r="I13" t="n">
-        <v>2.82</v>
+        <v>2.78</v>
       </c>
       <c r="J13" t="n">
         <v>3.65</v>
@@ -2191,13 +2191,13 @@
         <v>1.46</v>
       </c>
       <c r="S13" t="n">
-        <v>2.94</v>
+        <v>2.96</v>
       </c>
       <c r="T13" t="n">
-        <v>1.66</v>
+        <v>1.65</v>
       </c>
       <c r="U13" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -2293,7 +2293,7 @@
         <v>4.8</v>
       </c>
       <c r="H14" t="n">
-        <v>1.78</v>
+        <v>1.77</v>
       </c>
       <c r="I14" t="n">
         <v>1.84</v>
@@ -2302,7 +2302,7 @@
         <v>4.1</v>
       </c>
       <c r="K14" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -2311,7 +2311,7 @@
         <v>1.04</v>
       </c>
       <c r="N14" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="O14" t="n">
         <v>1.22</v>
@@ -2341,40 +2341,40 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="Y14" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="Z14" t="n">
         <v>15.5</v>
       </c>
       <c r="AA14" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AB14" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AC14" t="n">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="AD14" t="n">
         <v>12.5</v>
       </c>
       <c r="AE14" t="n">
-        <v>20</v>
+        <v>18.5</v>
       </c>
       <c r="AF14" t="n">
         <v>46</v>
       </c>
       <c r="AG14" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AH14" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AI14" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AJ14" t="n">
         <v>120</v>
@@ -2383,13 +2383,13 @@
         <v>65</v>
       </c>
       <c r="AL14" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="AM14" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AN14" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AO14" t="n">
         <v>10.5</v>
@@ -2455,7 +2455,7 @@
         <v>2.84</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="R15" t="n">
         <v>1.75</v>
@@ -2497,7 +2497,7 @@
         <v>29</v>
       </c>
       <c r="AE15" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AF15" t="n">
         <v>12</v>
@@ -2560,16 +2560,16 @@
         <v>4</v>
       </c>
       <c r="G16" t="n">
-        <v>5.2</v>
+        <v>5</v>
       </c>
       <c r="H16" t="n">
         <v>2.28</v>
       </c>
       <c r="I16" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="J16" t="n">
         <v>2.78</v>
-      </c>
-      <c r="J16" t="n">
-        <v>2.54</v>
       </c>
       <c r="K16" t="n">
         <v>3.05</v>
@@ -2590,7 +2590,7 @@
         <v>1.39</v>
       </c>
       <c r="Q16" t="n">
-        <v>2.84</v>
+        <v>2.86</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -2731,7 +2731,7 @@
         <v>1.37</v>
       </c>
       <c r="S17" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="T17" t="n">
         <v>1.9</v>
@@ -2767,7 +2767,7 @@
         <v>25</v>
       </c>
       <c r="AE17" t="n">
-        <v>95</v>
+        <v>110</v>
       </c>
       <c r="AF17" t="n">
         <v>10</v>
@@ -2830,7 +2830,7 @@
         <v>1.92</v>
       </c>
       <c r="G18" t="n">
-        <v>1.99</v>
+        <v>2.02</v>
       </c>
       <c r="H18" t="n">
         <v>4.1</v>
@@ -2866,7 +2866,7 @@
         <v>1.43</v>
       </c>
       <c r="S18" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="T18" t="n">
         <v>1.75</v>
@@ -2929,7 +2929,7 @@
         <v>110</v>
       </c>
       <c r="AN18" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AO18" t="n">
         <v>60</v>
@@ -2986,25 +2986,25 @@
         <v>1.07</v>
       </c>
       <c r="N19" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="O19" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="P19" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="Q19" t="n">
         <v>1.95</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>1.93</v>
       </c>
       <c r="R19" t="n">
         <v>1.38</v>
       </c>
       <c r="S19" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="T19" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="U19" t="n">
         <v>2.24</v>
@@ -3016,13 +3016,13 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="Y19" t="n">
         <v>13</v>
       </c>
       <c r="Z19" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AA19" t="n">
         <v>55</v>
@@ -3037,10 +3037,10 @@
         <v>13.5</v>
       </c>
       <c r="AE19" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AF19" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AG19" t="n">
         <v>12</v>
@@ -3055,7 +3055,7 @@
         <v>36</v>
       </c>
       <c r="AK19" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AL19" t="n">
         <v>40</v>
@@ -3067,7 +3067,7 @@
         <v>21</v>
       </c>
       <c r="AO19" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20">
@@ -3097,16 +3097,16 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>2.84</v>
+        <v>2.82</v>
       </c>
       <c r="G20" t="n">
-        <v>2.92</v>
+        <v>2.9</v>
       </c>
       <c r="H20" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="I20" t="n">
-        <v>2.72</v>
+        <v>2.7</v>
       </c>
       <c r="J20" t="n">
         <v>3.6</v>
@@ -3130,7 +3130,7 @@
         <v>2.04</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.87</v>
+        <v>1.9</v>
       </c>
       <c r="R20" t="n">
         <v>1.39</v>
@@ -3139,7 +3139,7 @@
         <v>3.15</v>
       </c>
       <c r="T20" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="U20" t="n">
         <v>2.28</v>
@@ -3154,16 +3154,16 @@
         <v>16.5</v>
       </c>
       <c r="Y20" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Z20" t="n">
         <v>22</v>
       </c>
       <c r="AA20" t="n">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="AB20" t="n">
-        <v>15.5</v>
+        <v>13.5</v>
       </c>
       <c r="AC20" t="n">
         <v>9.6</v>
@@ -3175,10 +3175,10 @@
         <v>34</v>
       </c>
       <c r="AF20" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AG20" t="n">
-        <v>15.5</v>
+        <v>13.5</v>
       </c>
       <c r="AH20" t="n">
         <v>19.5</v>
@@ -3187,16 +3187,16 @@
         <v>46</v>
       </c>
       <c r="AJ20" t="n">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="AK20" t="n">
         <v>36</v>
       </c>
       <c r="AL20" t="n">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="AM20" t="n">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="AN20" t="n">
         <v>28</v>
@@ -3232,13 +3232,13 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="G21" t="n">
-        <v>2.54</v>
+        <v>2.46</v>
       </c>
       <c r="H21" t="n">
-        <v>3.05</v>
+        <v>3.25</v>
       </c>
       <c r="I21" t="n">
         <v>3.35</v>
@@ -3265,13 +3265,13 @@
         <v>1.96</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.94</v>
+        <v>1.9</v>
       </c>
       <c r="R21" t="n">
         <v>1.37</v>
       </c>
       <c r="S21" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="T21" t="n">
         <v>1.72</v>
@@ -3301,7 +3301,7 @@
         <v>12.5</v>
       </c>
       <c r="AC21" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD21" t="n">
         <v>16</v>
@@ -3400,7 +3400,7 @@
         <v>2.32</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -3505,16 +3505,16 @@
         <v>2.04</v>
       </c>
       <c r="G23" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="H23" t="n">
         <v>3.95</v>
       </c>
       <c r="I23" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="J23" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="K23" t="n">
         <v>3.9</v>
@@ -3526,7 +3526,7 @@
         <v>1.06</v>
       </c>
       <c r="N23" t="n">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
       <c r="O23" t="n">
         <v>1.27</v>
@@ -3601,7 +3601,7 @@
         <v>34</v>
       </c>
       <c r="AM23" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
       <c r="AN23" t="n">
         <v>12.5</v>
@@ -3637,7 +3637,7 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>2.82</v>
+        <v>2.84</v>
       </c>
       <c r="G24" t="n">
         <v>2.88</v>
@@ -3742,7 +3742,7 @@
         <v>28</v>
       </c>
       <c r="AO24" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="25">
@@ -3775,16 +3775,16 @@
         <v>2.44</v>
       </c>
       <c r="G25" t="n">
-        <v>2.56</v>
+        <v>2.58</v>
       </c>
       <c r="H25" t="n">
-        <v>2.8</v>
+        <v>2.78</v>
       </c>
       <c r="I25" t="n">
         <v>2.94</v>
       </c>
       <c r="J25" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="K25" t="n">
         <v>4.1</v>
@@ -3808,7 +3808,7 @@
         <v>1.6</v>
       </c>
       <c r="R25" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="S25" t="n">
         <v>2.5</v>
@@ -3856,7 +3856,7 @@
         <v>13.5</v>
       </c>
       <c r="AH25" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AI25" t="n">
         <v>38</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-22.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-22.xlsx
@@ -715,7 +715,7 @@
         <v>1.53</v>
       </c>
       <c r="V2" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="W2" t="n">
         <v>1.94</v>
@@ -802,31 +802,31 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>2.54</v>
+        <v>2.56</v>
       </c>
       <c r="G3" t="n">
-        <v>2.68</v>
+        <v>2.76</v>
       </c>
       <c r="H3" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I3" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="J3" t="n">
-        <v>2.86</v>
+        <v>3</v>
       </c>
       <c r="K3" t="n">
         <v>3.05</v>
       </c>
       <c r="L3" t="n">
-        <v>1.49</v>
+        <v>1.6</v>
       </c>
       <c r="M3" t="n">
         <v>1.1</v>
       </c>
       <c r="N3" t="n">
-        <v>2.54</v>
+        <v>2.56</v>
       </c>
       <c r="O3" t="n">
         <v>1.57</v>
@@ -835,13 +835,13 @@
         <v>1.52</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.38</v>
+        <v>2.42</v>
       </c>
       <c r="R3" t="n">
         <v>1.18</v>
       </c>
       <c r="S3" t="n">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="T3" t="n">
         <v>1.94</v>
@@ -850,16 +850,16 @@
         <v>1.62</v>
       </c>
       <c r="V3" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="W3" t="n">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="X3" t="n">
         <v>10.5</v>
       </c>
       <c r="Y3" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="Z3" t="n">
         <v>27</v>
@@ -868,13 +868,13 @@
         <v>90</v>
       </c>
       <c r="AB3" t="n">
-        <v>9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AC3" t="n">
         <v>8.800000000000001</v>
       </c>
       <c r="AD3" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AE3" t="n">
         <v>70</v>
@@ -895,10 +895,10 @@
         <v>55</v>
       </c>
       <c r="AK3" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="AL3" t="n">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="AM3" t="n">
         <v>250</v>
@@ -937,7 +937,7 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.25</v>
+        <v>1.04</v>
       </c>
       <c r="G4" t="n">
         <v>1.93</v>
@@ -946,7 +946,7 @@
         <v>4.7</v>
       </c>
       <c r="I4" t="n">
-        <v>7.2</v>
+        <v>980</v>
       </c>
       <c r="J4" t="n">
         <v>3.7</v>
@@ -970,7 +970,7 @@
         <v>1.8</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="R4" t="n">
         <v>1.27</v>
@@ -1075,22 +1075,22 @@
         <v>1.21</v>
       </c>
       <c r="G5" t="n">
-        <v>1.31</v>
+        <v>1.26</v>
       </c>
       <c r="H5" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I5" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="J5" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="K5" t="n">
-        <v>9.800000000000001</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M5" t="n">
         <v>1.02</v>
@@ -1105,7 +1105,7 @@
         <v>2.96</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="R5" t="n">
         <v>1.81</v>
@@ -1120,10 +1120,10 @@
         <v>1.81</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>4.7</v>
       </c>
       <c r="X5" t="n">
         <v>980</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.38</v>
+        <v>2.42</v>
       </c>
       <c r="G6" t="n">
         <v>2.84</v>
@@ -1216,7 +1216,7 @@
         <v>2.64</v>
       </c>
       <c r="I6" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="J6" t="n">
         <v>3.75</v>
@@ -1225,16 +1225,16 @@
         <v>4.5</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>2.46</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="P6" t="n">
         <v>2.46</v>
@@ -1243,76 +1243,76 @@
         <v>1.55</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>1.49</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>2.18</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>1.47</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>1.55</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="7">
@@ -1342,34 +1342,34 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="G7" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="H7" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="I7" t="n">
         <v>2.02</v>
-      </c>
-      <c r="I7" t="n">
-        <v>2.06</v>
       </c>
       <c r="J7" t="n">
         <v>3.6</v>
       </c>
       <c r="K7" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>1.43</v>
       </c>
       <c r="M7" t="n">
         <v>1.08</v>
       </c>
       <c r="N7" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="O7" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="P7" t="n">
         <v>1.79</v>
@@ -1390,13 +1390,13 @@
         <v>1.98</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>1.98</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="X7" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="Y7" t="n">
         <v>8.4</v>
@@ -1405,22 +1405,22 @@
         <v>11.5</v>
       </c>
       <c r="AA7" t="n">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="AB7" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AC7" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="AD7" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AE7" t="n">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="AF7" t="n">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="AG7" t="n">
         <v>18</v>
@@ -1429,25 +1429,25 @@
         <v>21</v>
       </c>
       <c r="AI7" t="n">
+        <v>44</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>110</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>65</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>80</v>
+      </c>
+      <c r="AM7" t="n">
         <v>150</v>
       </c>
-      <c r="AJ7" t="n">
-        <v>120</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>400</v>
-      </c>
-      <c r="AL7" t="n">
-        <v>85</v>
-      </c>
-      <c r="AM7" t="n">
-        <v>160</v>
-      </c>
       <c r="AN7" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AO7" t="n">
-        <v>22</v>
+        <v>18.5</v>
       </c>
     </row>
     <row r="8">
@@ -1483,106 +1483,106 @@
         <v>1.22</v>
       </c>
       <c r="H8" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I8" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J8" t="n">
         <v>7.8</v>
       </c>
       <c r="K8" t="n">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>5.7</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="P8" t="n">
-        <v>2.66</v>
+        <v>2.62</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>1.65</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>2.36</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>2.44</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>1.61</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>5.5</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="Z8" t="n">
-        <v>0</v>
+        <v>240</v>
       </c>
       <c r="AA8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB8" t="n">
-        <v>0</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AC8" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="AD8" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="AE8" t="n">
-        <v>0</v>
+        <v>470</v>
       </c>
       <c r="AF8" t="n">
-        <v>0</v>
+        <v>7.8</v>
       </c>
       <c r="AG8" t="n">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="AH8" t="n">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="AI8" t="n">
-        <v>0</v>
+        <v>310</v>
       </c>
       <c r="AJ8" t="n">
-        <v>0</v>
+        <v>8.4</v>
       </c>
       <c r="AK8" t="n">
-        <v>0</v>
+        <v>15.5</v>
       </c>
       <c r="AL8" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AM8" t="n">
-        <v>0</v>
+        <v>350</v>
       </c>
       <c r="AN8" t="n">
-        <v>0</v>
+        <v>3.7</v>
       </c>
       <c r="AO8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="9">
@@ -1612,16 +1612,16 @@
         </is>
       </c>
       <c r="F9" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="G9" t="n">
         <v>2.74</v>
       </c>
-      <c r="G9" t="n">
+      <c r="H9" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="I9" t="n">
         <v>2.76</v>
-      </c>
-      <c r="H9" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="I9" t="n">
-        <v>2.74</v>
       </c>
       <c r="J9" t="n">
         <v>3.7</v>
@@ -1630,7 +1630,7 @@
         <v>3.8</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="M9" t="n">
         <v>1.05</v>
@@ -1639,34 +1639,34 @@
         <v>4.4</v>
       </c>
       <c r="O9" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="P9" t="n">
-        <v>2.16</v>
+        <v>2.12</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.81</v>
+        <v>1.79</v>
       </c>
       <c r="R9" t="n">
         <v>1.45</v>
       </c>
       <c r="S9" t="n">
-        <v>2.98</v>
+        <v>3</v>
       </c>
       <c r="T9" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="U9" t="n">
         <v>2.38</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>1.56</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="X9" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="Y9" t="n">
         <v>13.5</v>
@@ -1681,22 +1681,22 @@
         <v>13</v>
       </c>
       <c r="AC9" t="n">
-        <v>8.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD9" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AE9" t="n">
         <v>28</v>
       </c>
       <c r="AF9" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AG9" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AH9" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AI9" t="n">
         <v>38</v>
@@ -1705,19 +1705,19 @@
         <v>42</v>
       </c>
       <c r="AK9" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AL9" t="n">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="AM9" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AN9" t="n">
         <v>22</v>
       </c>
       <c r="AO9" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
     </row>
     <row r="10">
@@ -1765,7 +1765,7 @@
         <v>4.1</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="M10" t="n">
         <v>1.05</v>
@@ -1777,52 +1777,52 @@
         <v>1.27</v>
       </c>
       <c r="P10" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="Q10" t="n">
         <v>1.78</v>
       </c>
       <c r="R10" t="n">
-        <v>1.46</v>
+        <v>1.45</v>
       </c>
       <c r="S10" t="n">
         <v>2.98</v>
       </c>
       <c r="T10" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="U10" t="n">
         <v>2.28</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>1.98</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="X10" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="Y10" t="n">
         <v>11</v>
       </c>
       <c r="Z10" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AA10" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AB10" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AC10" t="n">
-        <v>9.199999999999999</v>
+        <v>8.6</v>
       </c>
       <c r="AD10" t="n">
         <v>10.5</v>
       </c>
       <c r="AE10" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="AF10" t="n">
         <v>29</v>
@@ -1831,25 +1831,25 @@
         <v>16</v>
       </c>
       <c r="AH10" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AI10" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="AJ10" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AK10" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AL10" t="n">
         <v>48</v>
       </c>
       <c r="AM10" t="n">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="AN10" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AO10" t="n">
         <v>13</v>
@@ -1894,13 +1894,13 @@
         <v>2.34</v>
       </c>
       <c r="J11" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="K11" t="n">
         <v>3.85</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="M11" t="n">
         <v>1.05</v>
@@ -1915,7 +1915,7 @@
         <v>2.26</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="R11" t="n">
         <v>1.5</v>
@@ -1930,10 +1930,10 @@
         <v>2.4</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>1.74</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="X11" t="n">
         <v>23</v>
@@ -2032,10 +2032,10 @@
         <v>4.5</v>
       </c>
       <c r="K12" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="M12" t="n">
         <v>1.05</v>
@@ -2053,7 +2053,7 @@
         <v>1.77</v>
       </c>
       <c r="R12" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="S12" t="n">
         <v>2.88</v>
@@ -2065,64 +2065,64 @@
         <v>2.06</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>1.16</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>2.7</v>
       </c>
       <c r="X12" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="Y12" t="n">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="Z12" t="n">
-        <v>280</v>
+        <v>55</v>
       </c>
       <c r="AA12" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="AB12" t="n">
         <v>9.4</v>
       </c>
       <c r="AC12" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AD12" t="n">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="AE12" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="AF12" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AG12" t="n">
         <v>9.800000000000001</v>
       </c>
-      <c r="AG12" t="n">
-        <v>10.5</v>
-      </c>
       <c r="AH12" t="n">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="AI12" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AJ12" t="n">
         <v>14.5</v>
       </c>
       <c r="AK12" t="n">
-        <v>19</v>
+        <v>15.5</v>
       </c>
       <c r="AL12" t="n">
-        <v>70</v>
+        <v>32</v>
       </c>
       <c r="AM12" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AN12" t="n">
         <v>7.6</v>
       </c>
       <c r="AO12" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
     </row>
     <row r="13">
@@ -2152,7 +2152,7 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2.68</v>
+        <v>2.72</v>
       </c>
       <c r="G13" t="n">
         <v>2.76</v>
@@ -2161,16 +2161,16 @@
         <v>2.7</v>
       </c>
       <c r="I13" t="n">
-        <v>2.78</v>
+        <v>2.76</v>
       </c>
       <c r="J13" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="K13" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="M13" t="n">
         <v>1.05</v>
@@ -2191,64 +2191,64 @@
         <v>1.46</v>
       </c>
       <c r="S13" t="n">
-        <v>2.96</v>
+        <v>2.94</v>
       </c>
       <c r="T13" t="n">
         <v>1.65</v>
       </c>
       <c r="U13" t="n">
-        <v>2.38</v>
+        <v>2.36</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>1.56</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="X13" t="n">
-        <v>22</v>
+        <v>18.5</v>
       </c>
       <c r="Y13" t="n">
         <v>13.5</v>
       </c>
       <c r="Z13" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AA13" t="n">
-        <v>980</v>
+        <v>42</v>
       </c>
       <c r="AB13" t="n">
         <v>13.5</v>
       </c>
       <c r="AC13" t="n">
-        <v>8.800000000000001</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD13" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AE13" t="n">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="AF13" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AG13" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AH13" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="AI13" t="n">
-        <v>80</v>
+        <v>36</v>
       </c>
       <c r="AJ13" t="n">
-        <v>980</v>
+        <v>42</v>
       </c>
       <c r="AK13" t="n">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="AL13" t="n">
-        <v>85</v>
+        <v>36</v>
       </c>
       <c r="AM13" t="n">
         <v>75</v>
@@ -2287,25 +2287,25 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="G14" t="n">
         <v>4.8</v>
       </c>
       <c r="H14" t="n">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
       <c r="I14" t="n">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="J14" t="n">
         <v>4.1</v>
       </c>
       <c r="K14" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="M14" t="n">
         <v>1.04</v>
@@ -2317,7 +2317,7 @@
         <v>1.22</v>
       </c>
       <c r="P14" t="n">
-        <v>2.34</v>
+        <v>2.32</v>
       </c>
       <c r="Q14" t="n">
         <v>1.68</v>
@@ -2329,16 +2329,16 @@
         <v>2.62</v>
       </c>
       <c r="T14" t="n">
-        <v>1.68</v>
+        <v>1.66</v>
       </c>
       <c r="U14" t="n">
-        <v>2.36</v>
+        <v>2.34</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>2.16</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="X14" t="n">
         <v>25</v>
@@ -2440,7 +2440,7 @@
         <v>5.7</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="M15" t="n">
         <v>1.03</v>
@@ -2470,10 +2470,10 @@
         <v>2.26</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>1.14</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>3.05</v>
       </c>
       <c r="X15" t="n">
         <v>32</v>
@@ -2575,94 +2575,94 @@
         <v>3.05</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>2.18</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="P16" t="n">
         <v>1.39</v>
       </c>
       <c r="Q16" t="n">
-        <v>2.86</v>
+        <v>2.84</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>1.12</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>5.7</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>1.64</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>8.6</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z16" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA16" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB16" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC16" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD16" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE16" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF16" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG16" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH16" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI16" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ16" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK16" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL16" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM16" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN16" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO16" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="17">
@@ -2701,10 +2701,10 @@
         <v>5.8</v>
       </c>
       <c r="I17" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="J17" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="K17" t="n">
         <v>4.4</v>
@@ -2716,28 +2716,28 @@
         <v>1.06</v>
       </c>
       <c r="N17" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="O17" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="P17" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="R17" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="S17" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="T17" t="n">
         <v>1.96</v>
       </c>
-      <c r="Q17" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="R17" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="S17" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="T17" t="n">
-        <v>1.9</v>
-      </c>
       <c r="U17" t="n">
-        <v>1.97</v>
+        <v>1.96</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -2749,28 +2749,28 @@
         <v>16</v>
       </c>
       <c r="Y17" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Z17" t="n">
         <v>55</v>
       </c>
       <c r="AA17" t="n">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="AB17" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="AC17" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="AD17" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AE17" t="n">
         <v>110</v>
       </c>
       <c r="AF17" t="n">
-        <v>10</v>
+        <v>9.6</v>
       </c>
       <c r="AG17" t="n">
         <v>10.5</v>
@@ -2782,10 +2782,10 @@
         <v>90</v>
       </c>
       <c r="AJ17" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AK17" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AL17" t="n">
         <v>40</v>
@@ -2797,7 +2797,7 @@
         <v>10.5</v>
       </c>
       <c r="AO17" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
     </row>
     <row r="18">
@@ -2827,19 +2827,19 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1.92</v>
+        <v>1.96</v>
       </c>
       <c r="G18" t="n">
         <v>2.02</v>
       </c>
       <c r="H18" t="n">
-        <v>4.1</v>
+        <v>3.95</v>
       </c>
       <c r="I18" t="n">
-        <v>4.4</v>
+        <v>4.2</v>
       </c>
       <c r="J18" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="K18" t="n">
         <v>3.95</v>
@@ -2860,7 +2860,7 @@
         <v>2.1</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="R18" t="n">
         <v>1.43</v>
@@ -2884,13 +2884,13 @@
         <v>18</v>
       </c>
       <c r="Y18" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="Z18" t="n">
         <v>38</v>
       </c>
       <c r="AA18" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AB18" t="n">
         <v>10.5</v>
@@ -2899,7 +2899,7 @@
         <v>9</v>
       </c>
       <c r="AD18" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AE18" t="n">
         <v>55</v>
@@ -2914,7 +2914,7 @@
         <v>21</v>
       </c>
       <c r="AI18" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AJ18" t="n">
         <v>26</v>
@@ -2932,7 +2932,7 @@
         <v>14</v>
       </c>
       <c r="AO18" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="19">
@@ -2977,7 +2977,7 @@
         <v>3.45</v>
       </c>
       <c r="K19" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
@@ -2989,10 +2989,10 @@
         <v>3.9</v>
       </c>
       <c r="O19" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="P19" t="n">
-        <v>1.99</v>
+        <v>1.98</v>
       </c>
       <c r="Q19" t="n">
         <v>1.95</v>
@@ -3133,13 +3133,13 @@
         <v>1.9</v>
       </c>
       <c r="R20" t="n">
-        <v>1.39</v>
+        <v>1.41</v>
       </c>
       <c r="S20" t="n">
         <v>3.15</v>
       </c>
       <c r="T20" t="n">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="U20" t="n">
         <v>2.28</v>
@@ -3367,10 +3367,10 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="G22" t="n">
-        <v>1.95</v>
+        <v>1.96</v>
       </c>
       <c r="H22" t="n">
         <v>4.1</v>
@@ -3382,7 +3382,7 @@
         <v>4.1</v>
       </c>
       <c r="K22" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
@@ -3400,7 +3400,7 @@
         <v>2.32</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.67</v>
+        <v>1.66</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -3502,22 +3502,22 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="G23" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="H23" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="I23" t="n">
         <v>3.95</v>
-      </c>
-      <c r="I23" t="n">
-        <v>4</v>
       </c>
       <c r="J23" t="n">
         <v>3.85</v>
       </c>
       <c r="K23" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -3544,7 +3544,7 @@
         <v>3.05</v>
       </c>
       <c r="T23" t="n">
-        <v>1.72</v>
+        <v>1.71</v>
       </c>
       <c r="U23" t="n">
         <v>2.32</v>
@@ -3574,10 +3574,10 @@
         <v>8.6</v>
       </c>
       <c r="AD23" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AE23" t="n">
-        <v>120</v>
+        <v>50</v>
       </c>
       <c r="AF23" t="n">
         <v>13.5</v>
@@ -3589,7 +3589,7 @@
         <v>17</v>
       </c>
       <c r="AI23" t="n">
-        <v>210</v>
+        <v>55</v>
       </c>
       <c r="AJ23" t="n">
         <v>25</v>
@@ -3607,7 +3607,7 @@
         <v>12.5</v>
       </c>
       <c r="AO23" t="n">
-        <v>44</v>
+        <v>85</v>
       </c>
     </row>
     <row r="24">
@@ -3637,7 +3637,7 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>2.84</v>
+        <v>2.82</v>
       </c>
       <c r="G24" t="n">
         <v>2.88</v>
@@ -3649,7 +3649,7 @@
         <v>2.8</v>
       </c>
       <c r="J24" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="K24" t="n">
         <v>3.55</v>
@@ -3661,7 +3661,7 @@
         <v>1.07</v>
       </c>
       <c r="N24" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="O24" t="n">
         <v>1.33</v>
@@ -3670,7 +3670,7 @@
         <v>1.92</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="R24" t="n">
         <v>1.36</v>
@@ -3679,7 +3679,7 @@
         <v>3.45</v>
       </c>
       <c r="T24" t="n">
-        <v>1.77</v>
+        <v>1.76</v>
       </c>
       <c r="U24" t="n">
         <v>2.18</v>
@@ -3706,7 +3706,7 @@
         <v>12</v>
       </c>
       <c r="AC24" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="AD24" t="n">
         <v>13</v>
@@ -3727,7 +3727,7 @@
         <v>44</v>
       </c>
       <c r="AJ24" t="n">
-        <v>120</v>
+        <v>980</v>
       </c>
       <c r="AK24" t="n">
         <v>32</v>
@@ -3781,7 +3781,7 @@
         <v>2.78</v>
       </c>
       <c r="I25" t="n">
-        <v>2.94</v>
+        <v>2.92</v>
       </c>
       <c r="J25" t="n">
         <v>3.9</v>
@@ -3796,16 +3796,16 @@
         <v>1.04</v>
       </c>
       <c r="N25" t="n">
-        <v>5.2</v>
+        <v>5.4</v>
       </c>
       <c r="O25" t="n">
         <v>1.2</v>
       </c>
       <c r="P25" t="n">
-        <v>2.48</v>
+        <v>2.46</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="R25" t="n">
         <v>1.6</v>
@@ -3874,7 +3874,7 @@
         <v>60</v>
       </c>
       <c r="AN25" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AO25" t="n">
         <v>20</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-22.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-22.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO25"/>
+  <dimension ref="A1:AO28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -706,13 +706,13 @@
         <v>1.15</v>
       </c>
       <c r="S2" t="n">
-        <v>6.2</v>
+        <v>5.7</v>
       </c>
       <c r="T2" t="n">
-        <v>2.22</v>
+        <v>2.4</v>
       </c>
       <c r="U2" t="n">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="V2" t="n">
         <v>1.18</v>
@@ -811,7 +811,7 @@
         <v>3.25</v>
       </c>
       <c r="I3" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="J3" t="n">
         <v>3</v>
@@ -820,10 +820,10 @@
         <v>3.05</v>
       </c>
       <c r="L3" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="M3" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N3" t="n">
         <v>2.56</v>
@@ -835,25 +835,25 @@
         <v>1.52</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.42</v>
+        <v>2.66</v>
       </c>
       <c r="R3" t="n">
         <v>1.18</v>
       </c>
       <c r="S3" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="T3" t="n">
-        <v>1.94</v>
+        <v>2.14</v>
       </c>
       <c r="U3" t="n">
-        <v>1.62</v>
+        <v>1.75</v>
       </c>
       <c r="V3" t="n">
-        <v>1.39</v>
+        <v>1.37</v>
       </c>
       <c r="W3" t="n">
-        <v>1.56</v>
+        <v>1.55</v>
       </c>
       <c r="X3" t="n">
         <v>10.5</v>
@@ -937,7 +937,7 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.04</v>
+        <v>1.59</v>
       </c>
       <c r="G4" t="n">
         <v>1.93</v>
@@ -946,13 +946,13 @@
         <v>4.7</v>
       </c>
       <c r="I4" t="n">
-        <v>980</v>
+        <v>7.2</v>
       </c>
       <c r="J4" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="K4" t="n">
-        <v>980</v>
+        <v>6.4</v>
       </c>
       <c r="L4" t="n">
         <v>1.01</v>
@@ -985,10 +985,10 @@
         <v>1.01</v>
       </c>
       <c r="V4" t="n">
-        <v>1.01</v>
+        <v>1.16</v>
       </c>
       <c r="W4" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="X4" t="n">
         <v>1000</v>
@@ -1081,10 +1081,10 @@
         <v>12</v>
       </c>
       <c r="I5" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="J5" t="n">
-        <v>6</v>
+        <v>6.4</v>
       </c>
       <c r="K5" t="n">
         <v>9.199999999999999</v>
@@ -1123,7 +1123,7 @@
         <v>1.06</v>
       </c>
       <c r="W5" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="X5" t="n">
         <v>980</v>
@@ -1258,7 +1258,7 @@
         <v>1.47</v>
       </c>
       <c r="W6" t="n">
-        <v>1.55</v>
+        <v>1.54</v>
       </c>
       <c r="X6" t="n">
         <v>1000</v>
@@ -1333,121 +1333,121 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Plzen</t>
+          <t>Freiburg</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Porto</t>
+          <t>Maccabi Tel Aviv</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>4.3</v>
+        <v>1.2</v>
       </c>
       <c r="G7" t="n">
-        <v>4.5</v>
+        <v>1.22</v>
       </c>
       <c r="H7" t="n">
-        <v>1.99</v>
+        <v>17.5</v>
       </c>
       <c r="I7" t="n">
-        <v>2.02</v>
+        <v>23</v>
       </c>
       <c r="J7" t="n">
-        <v>3.6</v>
+        <v>7.8</v>
       </c>
       <c r="K7" t="n">
-        <v>3.65</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="L7" t="n">
-        <v>1.43</v>
+        <v>1.27</v>
       </c>
       <c r="M7" t="n">
-        <v>1.08</v>
+        <v>1.03</v>
       </c>
       <c r="N7" t="n">
-        <v>3.35</v>
+        <v>6</v>
       </c>
       <c r="O7" t="n">
-        <v>1.38</v>
+        <v>1.18</v>
       </c>
       <c r="P7" t="n">
-        <v>1.79</v>
+        <v>2.68</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.2</v>
+        <v>1.55</v>
       </c>
       <c r="R7" t="n">
-        <v>1.3</v>
+        <v>1.66</v>
       </c>
       <c r="S7" t="n">
-        <v>4</v>
+        <v>2.38</v>
       </c>
       <c r="T7" t="n">
-        <v>1.96</v>
+        <v>2.44</v>
       </c>
       <c r="U7" t="n">
-        <v>1.98</v>
+        <v>1.62</v>
       </c>
       <c r="V7" t="n">
-        <v>1.98</v>
+        <v>1.04</v>
       </c>
       <c r="W7" t="n">
-        <v>1.29</v>
+        <v>5.5</v>
       </c>
       <c r="X7" t="n">
-        <v>12.5</v>
+        <v>36</v>
       </c>
       <c r="Y7" t="n">
+        <v>60</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>240</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>19</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>75</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>470</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>48</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>310</v>
+      </c>
+      <c r="AJ7" t="n">
         <v>8.4</v>
       </c>
-      <c r="Z7" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>24</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>16</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>24</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>30</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>18</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>21</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>44</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>110</v>
-      </c>
       <c r="AK7" t="n">
-        <v>65</v>
+        <v>15.5</v>
       </c>
       <c r="AL7" t="n">
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="AM7" t="n">
-        <v>150</v>
+        <v>350</v>
       </c>
       <c r="AN7" t="n">
-        <v>80</v>
+        <v>3.7</v>
       </c>
       <c r="AO7" t="n">
-        <v>18.5</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="8">
@@ -1468,121 +1468,121 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Freiburg</t>
+          <t>Brann</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Maccabi Tel Aviv</t>
+          <t>Midtjylland</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.2</v>
+        <v>3.3</v>
       </c>
       <c r="G8" t="n">
-        <v>1.22</v>
+        <v>3.4</v>
       </c>
       <c r="H8" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="I8" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="J8" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="K8" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="L8" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N8" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="P8" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="R8" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="S8" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="T8" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="U8" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="V8" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="W8" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="X8" t="n">
+        <v>23</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="Z8" t="n">
         <v>17</v>
       </c>
-      <c r="I8" t="n">
-        <v>23</v>
-      </c>
-      <c r="J8" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="K8" t="n">
+      <c r="AA8" t="n">
+        <v>32</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AC8" t="n">
         <v>9</v>
       </c>
-      <c r="L8" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="M8" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N8" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="O8" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="P8" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="R8" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="S8" t="n">
-        <v>2.36</v>
-      </c>
-      <c r="T8" t="n">
-        <v>2.44</v>
-      </c>
-      <c r="U8" t="n">
-        <v>1.61</v>
-      </c>
-      <c r="V8" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="W8" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="X8" t="n">
+      <c r="AD8" t="n">
+        <v>12</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>24</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>26</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>34</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>60</v>
+      </c>
+      <c r="AK8" t="n">
         <v>36</v>
       </c>
-      <c r="Y8" t="n">
-        <v>60</v>
-      </c>
-      <c r="Z8" t="n">
-        <v>240</v>
-      </c>
-      <c r="AA8" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB8" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>19</v>
-      </c>
-      <c r="AD8" t="n">
+      <c r="AL8" t="n">
+        <v>42</v>
+      </c>
+      <c r="AM8" t="n">
         <v>75</v>
       </c>
-      <c r="AE8" t="n">
-        <v>470</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>48</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>310</v>
-      </c>
-      <c r="AJ8" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="AK8" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AL8" t="n">
-        <v>55</v>
-      </c>
-      <c r="AM8" t="n">
-        <v>350</v>
-      </c>
       <c r="AN8" t="n">
-        <v>3.7</v>
+        <v>28</v>
       </c>
       <c r="AO8" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
     </row>
     <row r="9">
@@ -1624,13 +1624,13 @@
         <v>2.76</v>
       </c>
       <c r="J9" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="K9" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="L9" t="n">
-        <v>1.34</v>
+        <v>1.36</v>
       </c>
       <c r="M9" t="n">
         <v>1.05</v>
@@ -1639,10 +1639,10 @@
         <v>4.4</v>
       </c>
       <c r="O9" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="P9" t="n">
-        <v>2.12</v>
+        <v>2.16</v>
       </c>
       <c r="Q9" t="n">
         <v>1.79</v>
@@ -1654,10 +1654,10 @@
         <v>3</v>
       </c>
       <c r="T9" t="n">
-        <v>1.67</v>
+        <v>1.66</v>
       </c>
       <c r="U9" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="V9" t="n">
         <v>1.56</v>
@@ -1672,10 +1672,10 @@
         <v>13.5</v>
       </c>
       <c r="Z9" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AA9" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AB9" t="n">
         <v>13</v>
@@ -1708,7 +1708,7 @@
         <v>28</v>
       </c>
       <c r="AL9" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AM9" t="n">
         <v>80</v>
@@ -1717,7 +1717,7 @@
         <v>22</v>
       </c>
       <c r="AO9" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10">
@@ -1747,16 +1747,16 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="G10" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="H10" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="I10" t="n">
         <v>2</v>
-      </c>
-      <c r="I10" t="n">
-        <v>2.04</v>
       </c>
       <c r="J10" t="n">
         <v>4</v>
@@ -1765,7 +1765,7 @@
         <v>4.1</v>
       </c>
       <c r="L10" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="M10" t="n">
         <v>1.05</v>
@@ -1777,16 +1777,16 @@
         <v>1.27</v>
       </c>
       <c r="P10" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="R10" t="n">
         <v>1.45</v>
       </c>
       <c r="S10" t="n">
-        <v>2.98</v>
+        <v>3</v>
       </c>
       <c r="T10" t="n">
         <v>1.72</v>
@@ -1795,7 +1795,7 @@
         <v>2.28</v>
       </c>
       <c r="V10" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="W10" t="n">
         <v>1.34</v>
@@ -1846,7 +1846,7 @@
         <v>48</v>
       </c>
       <c r="AM10" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AN10" t="n">
         <v>40</v>
@@ -1873,121 +1873,121 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Brann</t>
+          <t>Plzen</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Midtjylland</t>
+          <t>Porto</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>3.25</v>
+        <v>4.3</v>
       </c>
       <c r="G11" t="n">
-        <v>3.35</v>
+        <v>4.6</v>
       </c>
       <c r="H11" t="n">
-        <v>2.28</v>
+        <v>2</v>
       </c>
       <c r="I11" t="n">
-        <v>2.34</v>
+        <v>2.02</v>
       </c>
       <c r="J11" t="n">
-        <v>3.75</v>
+        <v>3.55</v>
       </c>
       <c r="K11" t="n">
-        <v>3.85</v>
+        <v>3.65</v>
       </c>
       <c r="L11" t="n">
-        <v>1.32</v>
+        <v>1.45</v>
       </c>
       <c r="M11" t="n">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="N11" t="n">
-        <v>4.6</v>
+        <v>3.4</v>
       </c>
       <c r="O11" t="n">
-        <v>1.24</v>
+        <v>1.4</v>
       </c>
       <c r="P11" t="n">
-        <v>2.26</v>
+        <v>1.79</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.72</v>
+        <v>2.18</v>
       </c>
       <c r="R11" t="n">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="S11" t="n">
-        <v>2.8</v>
+        <v>4.1</v>
       </c>
       <c r="T11" t="n">
-        <v>1.64</v>
+        <v>1.95</v>
       </c>
       <c r="U11" t="n">
-        <v>2.4</v>
+        <v>1.96</v>
       </c>
       <c r="V11" t="n">
-        <v>1.74</v>
+        <v>1.98</v>
       </c>
       <c r="W11" t="n">
-        <v>1.42</v>
+        <v>1.28</v>
       </c>
       <c r="X11" t="n">
-        <v>23</v>
+        <v>12.5</v>
       </c>
       <c r="Y11" t="n">
-        <v>14.5</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="Z11" t="n">
-        <v>17</v>
+        <v>11.5</v>
       </c>
       <c r="AA11" t="n">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="AB11" t="n">
-        <v>18.5</v>
+        <v>14</v>
       </c>
       <c r="AC11" t="n">
-        <v>9</v>
+        <v>7.8</v>
       </c>
       <c r="AD11" t="n">
-        <v>12</v>
+        <v>10.5</v>
       </c>
       <c r="AE11" t="n">
         <v>24</v>
       </c>
       <c r="AF11" t="n">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="AG11" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="AH11" t="n">
-        <v>16.5</v>
+        <v>21</v>
       </c>
       <c r="AI11" t="n">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="AJ11" t="n">
-        <v>60</v>
+        <v>110</v>
       </c>
       <c r="AK11" t="n">
-        <v>36</v>
+        <v>65</v>
       </c>
       <c r="AL11" t="n">
-        <v>46</v>
+        <v>80</v>
       </c>
       <c r="AM11" t="n">
+        <v>150</v>
+      </c>
+      <c r="AN11" t="n">
         <v>80</v>
       </c>
-      <c r="AN11" t="n">
-        <v>28</v>
-      </c>
       <c r="AO11" t="n">
-        <v>14.5</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12">
@@ -2035,28 +2035,28 @@
         <v>4.7</v>
       </c>
       <c r="L12" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="M12" t="n">
         <v>1.05</v>
       </c>
       <c r="N12" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="O12" t="n">
         <v>1.25</v>
       </c>
       <c r="P12" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.77</v>
+        <v>1.76</v>
       </c>
       <c r="R12" t="n">
         <v>1.48</v>
       </c>
       <c r="S12" t="n">
-        <v>2.88</v>
+        <v>2.96</v>
       </c>
       <c r="T12" t="n">
         <v>1.88</v>
@@ -2155,7 +2155,7 @@
         <v>2.72</v>
       </c>
       <c r="G13" t="n">
-        <v>2.76</v>
+        <v>2.78</v>
       </c>
       <c r="H13" t="n">
         <v>2.7</v>
@@ -2164,34 +2164,34 @@
         <v>2.76</v>
       </c>
       <c r="J13" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="K13" t="n">
         <v>3.7</v>
       </c>
-      <c r="K13" t="n">
-        <v>3.8</v>
-      </c>
       <c r="L13" t="n">
-        <v>1.34</v>
+        <v>1.36</v>
       </c>
       <c r="M13" t="n">
         <v>1.05</v>
       </c>
       <c r="N13" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="O13" t="n">
         <v>1.26</v>
       </c>
       <c r="P13" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="Q13" t="n">
         <v>1.8</v>
       </c>
       <c r="R13" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="S13" t="n">
-        <v>2.94</v>
+        <v>3</v>
       </c>
       <c r="T13" t="n">
         <v>1.65</v>
@@ -2200,10 +2200,10 @@
         <v>2.36</v>
       </c>
       <c r="V13" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="W13" t="n">
         <v>1.56</v>
-      </c>
-      <c r="W13" t="n">
-        <v>1.57</v>
       </c>
       <c r="X13" t="n">
         <v>18.5</v>
@@ -2242,10 +2242,10 @@
         <v>36</v>
       </c>
       <c r="AJ13" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AK13" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AL13" t="n">
         <v>36</v>
@@ -2287,46 +2287,46 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>4.4</v>
+        <v>4.6</v>
       </c>
       <c r="G14" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="H14" t="n">
         <v>1.78</v>
       </c>
       <c r="I14" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="J14" t="n">
         <v>4.1</v>
       </c>
       <c r="K14" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="L14" t="n">
-        <v>1.29</v>
+        <v>1.32</v>
       </c>
       <c r="M14" t="n">
         <v>1.04</v>
       </c>
       <c r="N14" t="n">
-        <v>4.8</v>
+        <v>5.1</v>
       </c>
       <c r="O14" t="n">
         <v>1.22</v>
       </c>
       <c r="P14" t="n">
-        <v>2.32</v>
+        <v>2.36</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.68</v>
+        <v>1.67</v>
       </c>
       <c r="R14" t="n">
         <v>1.54</v>
       </c>
       <c r="S14" t="n">
-        <v>2.62</v>
+        <v>2.72</v>
       </c>
       <c r="T14" t="n">
         <v>1.66</v>
@@ -2335,7 +2335,7 @@
         <v>2.34</v>
       </c>
       <c r="V14" t="n">
-        <v>2.16</v>
+        <v>2.2</v>
       </c>
       <c r="W14" t="n">
         <v>1.26</v>
@@ -2422,16 +2422,16 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="G15" t="n">
         <v>1.48</v>
       </c>
       <c r="H15" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="I15" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="J15" t="n">
         <v>5.2</v>
@@ -2440,7 +2440,7 @@
         <v>5.7</v>
       </c>
       <c r="L15" t="n">
-        <v>1.23</v>
+        <v>1.26</v>
       </c>
       <c r="M15" t="n">
         <v>1.03</v>
@@ -2452,7 +2452,7 @@
         <v>1.16</v>
       </c>
       <c r="P15" t="n">
-        <v>2.84</v>
+        <v>2.88</v>
       </c>
       <c r="Q15" t="n">
         <v>1.5</v>
@@ -2461,7 +2461,7 @@
         <v>1.75</v>
       </c>
       <c r="S15" t="n">
-        <v>2.2</v>
+        <v>2.24</v>
       </c>
       <c r="T15" t="n">
         <v>1.7</v>
@@ -2497,7 +2497,7 @@
         <v>29</v>
       </c>
       <c r="AE15" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AF15" t="n">
         <v>12</v>
@@ -2527,7 +2527,7 @@
         <v>4.9</v>
       </c>
       <c r="AO15" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
     </row>
     <row r="16">
@@ -2560,13 +2560,13 @@
         <v>4</v>
       </c>
       <c r="G16" t="n">
-        <v>5</v>
+        <v>4.8</v>
       </c>
       <c r="H16" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="I16" t="n">
-        <v>2.58</v>
+        <v>2.54</v>
       </c>
       <c r="J16" t="n">
         <v>2.78</v>
@@ -2578,10 +2578,10 @@
         <v>1.01</v>
       </c>
       <c r="M16" t="n">
-        <v>1.01</v>
+        <v>1.17</v>
       </c>
       <c r="N16" t="n">
-        <v>2.18</v>
+        <v>1.39</v>
       </c>
       <c r="O16" t="n">
         <v>1.01</v>
@@ -2590,13 +2590,13 @@
         <v>1.39</v>
       </c>
       <c r="Q16" t="n">
-        <v>2.84</v>
+        <v>3.15</v>
       </c>
       <c r="R16" t="n">
-        <v>1.12</v>
+        <v>1.13</v>
       </c>
       <c r="S16" t="n">
-        <v>5.7</v>
+        <v>7.2</v>
       </c>
       <c r="T16" t="n">
         <v>1.01</v>
@@ -2605,43 +2605,43 @@
         <v>1.01</v>
       </c>
       <c r="V16" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="W16" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="X16" t="n">
-        <v>8.6</v>
+        <v>6.8</v>
       </c>
       <c r="Y16" t="n">
-        <v>1000</v>
+        <v>6.4</v>
       </c>
       <c r="Z16" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AA16" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AB16" t="n">
-        <v>1000</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AC16" t="n">
-        <v>1000</v>
+        <v>7.2</v>
       </c>
       <c r="AD16" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AE16" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AF16" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AG16" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AH16" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AI16" t="n">
         <v>1000</v>
@@ -2662,7 +2662,7 @@
         <v>1000</v>
       </c>
       <c r="AO16" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
     </row>
     <row r="17">
@@ -2683,121 +2683,121 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Dinamo Zagreb</t>
+          <t>Red Bull Salzburg</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>FCSB</t>
+          <t>FC Basel</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>1.65</v>
+        <v>2.44</v>
       </c>
       <c r="G17" t="n">
-        <v>1.66</v>
+        <v>2.56</v>
       </c>
       <c r="H17" t="n">
-        <v>5.8</v>
+        <v>2.8</v>
       </c>
       <c r="I17" t="n">
-        <v>6.2</v>
+        <v>2.92</v>
       </c>
       <c r="J17" t="n">
-        <v>4.2</v>
+        <v>3.9</v>
       </c>
       <c r="K17" t="n">
-        <v>4.4</v>
+        <v>4</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="M17" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="N17" t="n">
-        <v>3.8</v>
+        <v>5.4</v>
       </c>
       <c r="O17" t="n">
-        <v>1.32</v>
+        <v>1.2</v>
       </c>
       <c r="P17" t="n">
-        <v>1.95</v>
+        <v>2.5</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.95</v>
+        <v>1.62</v>
       </c>
       <c r="R17" t="n">
-        <v>1.36</v>
+        <v>1.59</v>
       </c>
       <c r="S17" t="n">
-        <v>3.35</v>
+        <v>2.48</v>
       </c>
       <c r="T17" t="n">
-        <v>1.96</v>
+        <v>1.55</v>
       </c>
       <c r="U17" t="n">
-        <v>1.96</v>
+        <v>2.6</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>1.52</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>1.64</v>
       </c>
       <c r="X17" t="n">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="Y17" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="Z17" t="n">
-        <v>55</v>
+        <v>24</v>
       </c>
       <c r="AA17" t="n">
-        <v>190</v>
+        <v>48</v>
       </c>
       <c r="AB17" t="n">
-        <v>8.6</v>
+        <v>16.5</v>
       </c>
       <c r="AC17" t="n">
         <v>9.4</v>
       </c>
       <c r="AD17" t="n">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="AE17" t="n">
-        <v>110</v>
+        <v>30</v>
       </c>
       <c r="AF17" t="n">
-        <v>9.6</v>
+        <v>21</v>
       </c>
       <c r="AG17" t="n">
-        <v>10.5</v>
+        <v>13</v>
       </c>
       <c r="AH17" t="n">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="AI17" t="n">
-        <v>90</v>
+        <v>32</v>
       </c>
       <c r="AJ17" t="n">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="AK17" t="n">
-        <v>18.5</v>
+        <v>26</v>
       </c>
       <c r="AL17" t="n">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="AM17" t="n">
-        <v>150</v>
+        <v>60</v>
       </c>
       <c r="AN17" t="n">
-        <v>10.5</v>
+        <v>15.5</v>
       </c>
       <c r="AO17" t="n">
-        <v>130</v>
+        <v>19.5</v>
       </c>
     </row>
     <row r="18">
@@ -2818,121 +2818,121 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Rangers</t>
+          <t>Dinamo Zagreb</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Ludogorets</t>
+          <t>FCSB</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1.96</v>
+        <v>1.65</v>
       </c>
       <c r="G18" t="n">
-        <v>2.02</v>
+        <v>1.67</v>
       </c>
       <c r="H18" t="n">
-        <v>3.95</v>
+        <v>5.9</v>
       </c>
       <c r="I18" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="J18" t="n">
         <v>4.2</v>
       </c>
-      <c r="J18" t="n">
-        <v>3.85</v>
-      </c>
       <c r="K18" t="n">
-        <v>3.95</v>
+        <v>4.3</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="M18" t="n">
         <v>1.06</v>
       </c>
       <c r="N18" t="n">
-        <v>4.2</v>
+        <v>3.85</v>
       </c>
       <c r="O18" t="n">
-        <v>1.28</v>
+        <v>1.31</v>
       </c>
       <c r="P18" t="n">
-        <v>2.1</v>
+        <v>1.98</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.83</v>
+        <v>1.95</v>
       </c>
       <c r="R18" t="n">
-        <v>1.43</v>
+        <v>1.37</v>
       </c>
       <c r="S18" t="n">
-        <v>3</v>
+        <v>3.45</v>
       </c>
       <c r="T18" t="n">
-        <v>1.75</v>
+        <v>1.98</v>
       </c>
       <c r="U18" t="n">
-        <v>2.18</v>
+        <v>1.96</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>1.19</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>2.48</v>
       </c>
       <c r="X18" t="n">
-        <v>18</v>
+        <v>15.5</v>
       </c>
       <c r="Y18" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="Z18" t="n">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="AA18" t="n">
-        <v>100</v>
+        <v>170</v>
       </c>
       <c r="AB18" t="n">
-        <v>10.5</v>
+        <v>8.6</v>
       </c>
       <c r="AC18" t="n">
-        <v>9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD18" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AE18" t="n">
-        <v>55</v>
+        <v>95</v>
       </c>
       <c r="AF18" t="n">
-        <v>15</v>
+        <v>9.4</v>
       </c>
       <c r="AG18" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AH18" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AI18" t="n">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="AJ18" t="n">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="AK18" t="n">
-        <v>23</v>
+        <v>17.5</v>
       </c>
       <c r="AL18" t="n">
         <v>38</v>
       </c>
       <c r="AM18" t="n">
+        <v>140</v>
+      </c>
+      <c r="AN18" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AO18" t="n">
         <v>110</v>
-      </c>
-      <c r="AN18" t="n">
-        <v>14</v>
-      </c>
-      <c r="AO18" t="n">
-        <v>55</v>
       </c>
     </row>
     <row r="19">
@@ -2953,121 +2953,121 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Celta Vigo</t>
+          <t>Braga</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Lille</t>
+          <t>Nottm Forest</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>2.5</v>
+        <v>2.82</v>
       </c>
       <c r="G19" t="n">
-        <v>2.54</v>
+        <v>2.86</v>
       </c>
       <c r="H19" t="n">
-        <v>3.05</v>
+        <v>2.78</v>
       </c>
       <c r="I19" t="n">
-        <v>3.15</v>
+        <v>2.82</v>
       </c>
       <c r="J19" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="K19" t="n">
         <v>3.45</v>
       </c>
-      <c r="K19" t="n">
-        <v>3.55</v>
-      </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="M19" t="n">
         <v>1.07</v>
       </c>
       <c r="N19" t="n">
-        <v>3.9</v>
+        <v>3.75</v>
       </c>
       <c r="O19" t="n">
-        <v>1.31</v>
+        <v>1.33</v>
       </c>
       <c r="P19" t="n">
-        <v>1.98</v>
+        <v>1.92</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.95</v>
+        <v>2.02</v>
       </c>
       <c r="R19" t="n">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="S19" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="T19" t="n">
-        <v>1.75</v>
+        <v>1.77</v>
       </c>
       <c r="U19" t="n">
-        <v>2.24</v>
+        <v>2.16</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>1.55</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="X19" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="Y19" t="n">
-        <v>13</v>
+        <v>11.5</v>
       </c>
       <c r="Z19" t="n">
-        <v>22</v>
+        <v>17.5</v>
       </c>
       <c r="AA19" t="n">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="AB19" t="n">
         <v>11.5</v>
       </c>
       <c r="AC19" t="n">
-        <v>8</v>
+        <v>7.6</v>
       </c>
       <c r="AD19" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="AE19" t="n">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="AF19" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AH19" t="n">
         <v>17</v>
       </c>
-      <c r="AG19" t="n">
-        <v>12</v>
-      </c>
-      <c r="AH19" t="n">
-        <v>16.5</v>
-      </c>
       <c r="AI19" t="n">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="AJ19" t="n">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="AK19" t="n">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="AL19" t="n">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="AM19" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AN19" t="n">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="AO19" t="n">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="20">
@@ -3088,121 +3088,121 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>FC Utrecht</t>
+          <t>Roma</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Genk</t>
+          <t>Stuttgart</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>2.82</v>
+        <v>2.06</v>
       </c>
       <c r="G20" t="n">
-        <v>2.9</v>
+        <v>2.12</v>
       </c>
       <c r="H20" t="n">
-        <v>2.62</v>
+        <v>3.75</v>
       </c>
       <c r="I20" t="n">
-        <v>2.7</v>
+        <v>3.95</v>
       </c>
       <c r="J20" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="K20" t="n">
-        <v>3.7</v>
+        <v>3.85</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="M20" t="n">
         <v>1.06</v>
       </c>
       <c r="N20" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="O20" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="P20" t="n">
-        <v>2.04</v>
+        <v>2.16</v>
       </c>
       <c r="Q20" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="R20" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="S20" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="T20" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="U20" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="V20" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="W20" t="n">
         <v>1.9</v>
       </c>
-      <c r="R20" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="S20" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="T20" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="U20" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="V20" t="n">
-        <v>0</v>
-      </c>
-      <c r="W20" t="n">
-        <v>0</v>
-      </c>
       <c r="X20" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="Y20" t="n">
         <v>16.5</v>
       </c>
-      <c r="Y20" t="n">
-        <v>13</v>
-      </c>
       <c r="Z20" t="n">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="AA20" t="n">
+        <v>75</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>11</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AE20" t="n">
         <v>42</v>
       </c>
-      <c r="AB20" t="n">
+      <c r="AF20" t="n">
         <v>13.5</v>
       </c>
-      <c r="AC20" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AD20" t="n">
-        <v>15</v>
-      </c>
-      <c r="AE20" t="n">
-        <v>34</v>
-      </c>
-      <c r="AF20" t="n">
-        <v>21</v>
-      </c>
       <c r="AG20" t="n">
-        <v>13.5</v>
+        <v>10.5</v>
       </c>
       <c r="AH20" t="n">
-        <v>19.5</v>
+        <v>16.5</v>
       </c>
       <c r="AI20" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="AJ20" t="n">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="AK20" t="n">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="AL20" t="n">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="AM20" t="n">
         <v>85</v>
       </c>
       <c r="AN20" t="n">
-        <v>28</v>
+        <v>12.5</v>
       </c>
       <c r="AO20" t="n">
-        <v>26</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21">
@@ -3223,121 +3223,121 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Ferencvaros</t>
+          <t>Nice</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Panathinaikos</t>
+          <t>Go Ahead Eagles</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>2.38</v>
+        <v>1.91</v>
       </c>
       <c r="G21" t="n">
-        <v>2.46</v>
+        <v>1.96</v>
       </c>
       <c r="H21" t="n">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="I21" t="n">
-        <v>3.35</v>
+        <v>4.3</v>
       </c>
       <c r="J21" t="n">
-        <v>3.45</v>
+        <v>4</v>
       </c>
       <c r="K21" t="n">
-        <v>3.65</v>
+        <v>4.2</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="M21" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="N21" t="n">
-        <v>3.8</v>
+        <v>4.8</v>
       </c>
       <c r="O21" t="n">
-        <v>1.31</v>
+        <v>1.22</v>
       </c>
       <c r="P21" t="n">
-        <v>1.96</v>
+        <v>2.34</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.9</v>
+        <v>1.68</v>
       </c>
       <c r="R21" t="n">
-        <v>1.37</v>
+        <v>1.53</v>
       </c>
       <c r="S21" t="n">
-        <v>3.3</v>
+        <v>2.68</v>
       </c>
       <c r="T21" t="n">
-        <v>1.72</v>
+        <v>1.65</v>
       </c>
       <c r="U21" t="n">
-        <v>2.18</v>
+        <v>2.34</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>2.04</v>
       </c>
       <c r="X21" t="n">
-        <v>17.5</v>
+        <v>21</v>
       </c>
       <c r="Y21" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="Z21" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="AA21" t="n">
-        <v>65</v>
+        <v>90</v>
       </c>
       <c r="AB21" t="n">
         <v>12.5</v>
       </c>
       <c r="AC21" t="n">
-        <v>9.199999999999999</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD21" t="n">
-        <v>16</v>
+        <v>17.5</v>
       </c>
       <c r="AE21" t="n">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="AF21" t="n">
+        <v>14</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>17</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>48</v>
+      </c>
+      <c r="AJ21" t="n">
+        <v>23</v>
+      </c>
+      <c r="AK21" t="n">
         <v>19</v>
       </c>
-      <c r="AG21" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AH21" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AI21" t="n">
-        <v>55</v>
-      </c>
-      <c r="AJ21" t="n">
-        <v>40</v>
-      </c>
-      <c r="AK21" t="n">
+      <c r="AL21" t="n">
         <v>30</v>
       </c>
-      <c r="AL21" t="n">
-        <v>44</v>
-      </c>
       <c r="AM21" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="AN21" t="n">
-        <v>23</v>
+        <v>10.5</v>
       </c>
       <c r="AO21" t="n">
-        <v>980</v>
+        <v>38</v>
       </c>
     </row>
     <row r="22">
@@ -3358,121 +3358,121 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Nice</t>
+          <t>FC Utrecht</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Go Ahead Eagles</t>
+          <t>Genk</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>1.9</v>
+        <v>2.84</v>
       </c>
       <c r="G22" t="n">
-        <v>1.96</v>
+        <v>2.9</v>
       </c>
       <c r="H22" t="n">
-        <v>4.1</v>
+        <v>2.62</v>
       </c>
       <c r="I22" t="n">
-        <v>4.4</v>
+        <v>2.7</v>
       </c>
       <c r="J22" t="n">
-        <v>4.1</v>
+        <v>3.55</v>
       </c>
       <c r="K22" t="n">
-        <v>4.3</v>
+        <v>3.65</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="P22" t="n">
-        <v>2.32</v>
+        <v>2.04</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.66</v>
+        <v>1.86</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>1.41</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>3.15</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>1.71</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>1.58</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>1.52</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="Z22" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AA22" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AB22" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AC22" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AD22" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="AE22" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AF22" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AG22" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AH22" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="AI22" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="AJ22" t="n">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="AK22" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="AL22" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AM22" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="AN22" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="AO22" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
     </row>
     <row r="23">
@@ -3493,121 +3493,121 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Roma</t>
+          <t>Celta Vigo</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Stuttgart</t>
+          <t>Lille</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>2.06</v>
+        <v>2.5</v>
       </c>
       <c r="G23" t="n">
-        <v>2.08</v>
+        <v>2.54</v>
       </c>
       <c r="H23" t="n">
-        <v>3.8</v>
+        <v>3.05</v>
       </c>
       <c r="I23" t="n">
-        <v>3.95</v>
+        <v>3.15</v>
       </c>
       <c r="J23" t="n">
-        <v>3.85</v>
+        <v>3.5</v>
       </c>
       <c r="K23" t="n">
-        <v>3.95</v>
+        <v>3.55</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="M23" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N23" t="n">
-        <v>4.5</v>
+        <v>3.9</v>
       </c>
       <c r="O23" t="n">
-        <v>1.27</v>
+        <v>1.31</v>
       </c>
       <c r="P23" t="n">
-        <v>2.16</v>
+        <v>1.98</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.81</v>
+        <v>1.95</v>
       </c>
       <c r="R23" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="S23" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="T23" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="U23" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="V23" t="n">
         <v>1.46</v>
       </c>
-      <c r="S23" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="T23" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="U23" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="V23" t="n">
-        <v>0</v>
-      </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>1.65</v>
       </c>
       <c r="X23" t="n">
-        <v>18</v>
+        <v>14.5</v>
       </c>
       <c r="Y23" t="n">
+        <v>13</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>55</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>13</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>34</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>16</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AH23" t="n">
         <v>16.5</v>
       </c>
-      <c r="Z23" t="n">
-        <v>30</v>
-      </c>
-      <c r="AA23" t="n">
-        <v>85</v>
-      </c>
-      <c r="AB23" t="n">
-        <v>11</v>
-      </c>
-      <c r="AC23" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="AD23" t="n">
-        <v>16</v>
-      </c>
-      <c r="AE23" t="n">
-        <v>50</v>
-      </c>
-      <c r="AF23" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AG23" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH23" t="n">
-        <v>17</v>
-      </c>
       <c r="AI23" t="n">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="AJ23" t="n">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="AK23" t="n">
+        <v>26</v>
+      </c>
+      <c r="AL23" t="n">
+        <v>40</v>
+      </c>
+      <c r="AM23" t="n">
+        <v>90</v>
+      </c>
+      <c r="AN23" t="n">
         <v>21</v>
       </c>
-      <c r="AL23" t="n">
-        <v>34</v>
-      </c>
-      <c r="AM23" t="n">
-        <v>95</v>
-      </c>
-      <c r="AN23" t="n">
-        <v>12.5</v>
-      </c>
       <c r="AO23" t="n">
-        <v>85</v>
+        <v>32</v>
       </c>
     </row>
     <row r="24">
@@ -3628,256 +3628,661 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Braga</t>
+          <t>Rangers</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Nottm Forest</t>
+          <t>Ludogorets</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>2.82</v>
+        <v>1.96</v>
       </c>
       <c r="G24" t="n">
-        <v>2.88</v>
+        <v>2.02</v>
       </c>
       <c r="H24" t="n">
-        <v>2.72</v>
+        <v>3.95</v>
       </c>
       <c r="I24" t="n">
-        <v>2.8</v>
+        <v>4.2</v>
       </c>
       <c r="J24" t="n">
-        <v>3.4</v>
+        <v>3.85</v>
       </c>
       <c r="K24" t="n">
-        <v>3.55</v>
+        <v>3.95</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="M24" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N24" t="n">
-        <v>3.8</v>
+        <v>4.1</v>
       </c>
       <c r="O24" t="n">
-        <v>1.33</v>
+        <v>1.28</v>
       </c>
       <c r="P24" t="n">
-        <v>1.92</v>
+        <v>2.1</v>
       </c>
       <c r="Q24" t="n">
-        <v>2</v>
+        <v>1.82</v>
       </c>
       <c r="R24" t="n">
-        <v>1.36</v>
+        <v>1.43</v>
       </c>
       <c r="S24" t="n">
-        <v>3.45</v>
+        <v>3.05</v>
       </c>
       <c r="T24" t="n">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="U24" t="n">
         <v>2.18</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>1.98</v>
       </c>
       <c r="X24" t="n">
+        <v>20</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>36</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>100</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>50</v>
+      </c>
+      <c r="AF24" t="n">
         <v>15</v>
       </c>
-      <c r="Y24" t="n">
-        <v>12</v>
-      </c>
-      <c r="Z24" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AA24" t="n">
-        <v>44</v>
-      </c>
-      <c r="AB24" t="n">
-        <v>12</v>
-      </c>
-      <c r="AC24" t="n">
-        <v>8</v>
-      </c>
-      <c r="AD24" t="n">
-        <v>13</v>
-      </c>
-      <c r="AE24" t="n">
-        <v>32</v>
-      </c>
-      <c r="AF24" t="n">
-        <v>19</v>
-      </c>
       <c r="AG24" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AH24" t="n">
-        <v>17.5</v>
+        <v>20</v>
       </c>
       <c r="AI24" t="n">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AJ24" t="n">
-        <v>980</v>
+        <v>25</v>
       </c>
       <c r="AK24" t="n">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="AL24" t="n">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="AM24" t="n">
         <v>110</v>
       </c>
       <c r="AN24" t="n">
-        <v>28</v>
+        <v>13.5</v>
       </c>
       <c r="AO24" t="n">
-        <v>27</v>
+        <v>50</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
+          <t>Argentinian Primera Division</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>2026-01-22</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>17:00:00</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Aldosivi</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Defensa y Justicia</t>
+        </is>
+      </c>
+      <c r="F25" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="G25" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="H25" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="I25" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="J25" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="K25" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="L25" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M25" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N25" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="O25" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="P25" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="R25" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="S25" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="T25" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="U25" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="V25" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="W25" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="X25" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>65</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>15</v>
+      </c>
+      <c r="AE25" t="n">
+        <v>50</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AG25" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH25" t="n">
+        <v>23</v>
+      </c>
+      <c r="AI25" t="n">
+        <v>75</v>
+      </c>
+      <c r="AJ25" t="n">
+        <v>46</v>
+      </c>
+      <c r="AK25" t="n">
+        <v>40</v>
+      </c>
+      <c r="AL25" t="n">
+        <v>70</v>
+      </c>
+      <c r="AM25" t="n">
+        <v>220</v>
+      </c>
+      <c r="AN25" t="n">
+        <v>48</v>
+      </c>
+      <c r="AO25" t="n">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
           <t>UEFA Europa League</t>
         </is>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="B26" t="inlineStr">
         <is>
           <t>2026-01-22</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="C26" t="inlineStr">
         <is>
           <t>17:00:00</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>Red Bull Salzburg</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>FC Basel</t>
-        </is>
-      </c>
-      <c r="F25" t="n">
-        <v>2.44</v>
-      </c>
-      <c r="G25" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="H25" t="n">
-        <v>2.78</v>
-      </c>
-      <c r="I25" t="n">
-        <v>2.92</v>
-      </c>
-      <c r="J25" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="K25" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="L25" t="n">
-        <v>0</v>
-      </c>
-      <c r="M25" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N25" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="O25" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="P25" t="n">
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Ferencvaros</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Panathinaikos</t>
+        </is>
+      </c>
+      <c r="F26" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="G26" t="n">
         <v>2.46</v>
       </c>
-      <c r="Q25" t="n">
-        <v>1.61</v>
-      </c>
-      <c r="R25" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="S25" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="T25" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="U25" t="n">
+      <c r="H26" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="I26" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="J26" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="K26" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="L26" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="M26" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N26" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="O26" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="P26" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="R26" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="S26" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="T26" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="U26" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="V26" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="W26" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="X26" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>26</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>65</v>
+      </c>
+      <c r="AB26" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AC26" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AD26" t="n">
+        <v>16</v>
+      </c>
+      <c r="AE26" t="n">
+        <v>42</v>
+      </c>
+      <c r="AF26" t="n">
+        <v>19</v>
+      </c>
+      <c r="AG26" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AH26" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AI26" t="n">
+        <v>55</v>
+      </c>
+      <c r="AJ26" t="n">
+        <v>40</v>
+      </c>
+      <c r="AK26" t="n">
+        <v>30</v>
+      </c>
+      <c r="AL26" t="n">
+        <v>44</v>
+      </c>
+      <c r="AM26" t="n">
+        <v>100</v>
+      </c>
+      <c r="AN26" t="n">
+        <v>23</v>
+      </c>
+      <c r="AO26" t="n">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Argentinian Primera Division</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>2026-01-22</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>20:00:00</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Banfield</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Huracan</t>
+        </is>
+      </c>
+      <c r="F27" t="n">
         <v>2.6</v>
       </c>
-      <c r="V25" t="n">
-        <v>0</v>
-      </c>
-      <c r="W25" t="n">
-        <v>0</v>
-      </c>
-      <c r="X25" t="n">
-        <v>25</v>
-      </c>
-      <c r="Y25" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="Z25" t="n">
-        <v>25</v>
-      </c>
-      <c r="AA25" t="n">
-        <v>50</v>
-      </c>
-      <c r="AB25" t="n">
-        <v>17</v>
-      </c>
-      <c r="AC25" t="n">
-        <v>11</v>
-      </c>
-      <c r="AD25" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AE25" t="n">
-        <v>32</v>
-      </c>
-      <c r="AF25" t="n">
-        <v>22</v>
-      </c>
-      <c r="AG25" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AH25" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AI25" t="n">
-        <v>38</v>
-      </c>
-      <c r="AJ25" t="n">
-        <v>40</v>
-      </c>
-      <c r="AK25" t="n">
-        <v>28</v>
-      </c>
-      <c r="AL25" t="n">
-        <v>36</v>
-      </c>
-      <c r="AM25" t="n">
-        <v>60</v>
-      </c>
-      <c r="AN25" t="n">
-        <v>16</v>
-      </c>
-      <c r="AO25" t="n">
-        <v>20</v>
+      <c r="G27" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="H27" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="I27" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="J27" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="K27" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0</v>
+      </c>
+      <c r="O27" t="n">
+        <v>0</v>
+      </c>
+      <c r="P27" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>0</v>
+      </c>
+      <c r="R27" t="n">
+        <v>0</v>
+      </c>
+      <c r="S27" t="n">
+        <v>0</v>
+      </c>
+      <c r="T27" t="n">
+        <v>0</v>
+      </c>
+      <c r="U27" t="n">
+        <v>0</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="n">
+        <v>0</v>
+      </c>
+      <c r="X27" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO27" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Argentinian Primera Division</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>2026-01-22</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>20:00:00</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Union Santa Fe</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>CA Platense</t>
+        </is>
+      </c>
+      <c r="F28" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="G28" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="H28" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="I28" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="J28" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="K28" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0</v>
+      </c>
+      <c r="O28" t="n">
+        <v>0</v>
+      </c>
+      <c r="P28" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>0</v>
+      </c>
+      <c r="R28" t="n">
+        <v>0</v>
+      </c>
+      <c r="S28" t="n">
+        <v>0</v>
+      </c>
+      <c r="T28" t="n">
+        <v>0</v>
+      </c>
+      <c r="U28" t="n">
+        <v>0</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="n">
+        <v>0</v>
+      </c>
+      <c r="X28" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO28" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-22.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-22.xlsx
@@ -715,7 +715,7 @@
         <v>1.61</v>
       </c>
       <c r="V2" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="W2" t="n">
         <v>1.94</v>
@@ -802,16 +802,16 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>2.56</v>
+        <v>2.5</v>
       </c>
       <c r="G3" t="n">
-        <v>2.76</v>
+        <v>2.72</v>
       </c>
       <c r="H3" t="n">
         <v>3.25</v>
       </c>
       <c r="I3" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="J3" t="n">
         <v>3</v>
@@ -820,10 +820,10 @@
         <v>3.05</v>
       </c>
       <c r="L3" t="n">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="M3" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N3" t="n">
         <v>2.56</v>
@@ -832,16 +832,16 @@
         <v>1.57</v>
       </c>
       <c r="P3" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.66</v>
+        <v>2.68</v>
       </c>
       <c r="R3" t="n">
         <v>1.18</v>
       </c>
       <c r="S3" t="n">
-        <v>5.5</v>
+        <v>4.8</v>
       </c>
       <c r="T3" t="n">
         <v>2.14</v>
@@ -853,7 +853,7 @@
         <v>1.37</v>
       </c>
       <c r="W3" t="n">
-        <v>1.55</v>
+        <v>1.58</v>
       </c>
       <c r="X3" t="n">
         <v>10.5</v>
@@ -1072,22 +1072,22 @@
         </is>
       </c>
       <c r="F5" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="G5" t="n">
         <v>1.21</v>
       </c>
-      <c r="G5" t="n">
-        <v>1.26</v>
-      </c>
       <c r="H5" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I5" t="n">
         <v>20</v>
       </c>
       <c r="J5" t="n">
-        <v>6.4</v>
+        <v>8</v>
       </c>
       <c r="K5" t="n">
-        <v>9.199999999999999</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="L5" t="n">
         <v>1.01</v>
@@ -1099,10 +1099,10 @@
         <v>6.8</v>
       </c>
       <c r="O5" t="n">
-        <v>1.12</v>
+        <v>1.13</v>
       </c>
       <c r="P5" t="n">
-        <v>2.96</v>
+        <v>2.98</v>
       </c>
       <c r="Q5" t="n">
         <v>1.37</v>
@@ -1123,7 +1123,7 @@
         <v>1.06</v>
       </c>
       <c r="W5" t="n">
-        <v>4.8</v>
+        <v>5.7</v>
       </c>
       <c r="X5" t="n">
         <v>980</v>
@@ -1141,7 +1141,7 @@
         <v>15</v>
       </c>
       <c r="AC5" t="n">
-        <v>980</v>
+        <v>22</v>
       </c>
       <c r="AD5" t="n">
         <v>65</v>
@@ -1153,7 +1153,7 @@
         <v>11.5</v>
       </c>
       <c r="AG5" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AH5" t="n">
         <v>980</v>
@@ -1165,7 +1165,7 @@
         <v>12</v>
       </c>
       <c r="AK5" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AL5" t="n">
         <v>980</v>
@@ -1174,7 +1174,7 @@
         <v>190</v>
       </c>
       <c r="AN5" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="AO5" t="n">
         <v>1000</v>
@@ -1249,10 +1249,10 @@
         <v>2.18</v>
       </c>
       <c r="T6" t="n">
-        <v>1.01</v>
+        <v>1.39</v>
       </c>
       <c r="U6" t="n">
-        <v>1.01</v>
+        <v>2.38</v>
       </c>
       <c r="V6" t="n">
         <v>1.47</v>
@@ -1345,19 +1345,19 @@
         <v>1.2</v>
       </c>
       <c r="G7" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="H7" t="n">
         <v>17.5</v>
       </c>
       <c r="I7" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J7" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="K7" t="n">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="L7" t="n">
         <v>1.27</v>
@@ -1381,28 +1381,28 @@
         <v>1.66</v>
       </c>
       <c r="S7" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="T7" t="n">
-        <v>2.44</v>
+        <v>2.48</v>
       </c>
       <c r="U7" t="n">
         <v>1.62</v>
       </c>
       <c r="V7" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="W7" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="X7" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="Y7" t="n">
         <v>60</v>
       </c>
       <c r="Z7" t="n">
-        <v>240</v>
+        <v>1000</v>
       </c>
       <c r="AA7" t="n">
         <v>1000</v>
@@ -1411,7 +1411,7 @@
         <v>9.800000000000001</v>
       </c>
       <c r="AC7" t="n">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="AD7" t="n">
         <v>75</v>
@@ -1420,31 +1420,31 @@
         <v>470</v>
       </c>
       <c r="AF7" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="AG7" t="n">
         <v>13.5</v>
       </c>
       <c r="AH7" t="n">
-        <v>48</v>
+        <v>250</v>
       </c>
       <c r="AI7" t="n">
         <v>310</v>
       </c>
       <c r="AJ7" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AK7" t="n">
         <v>15.5</v>
       </c>
       <c r="AL7" t="n">
-        <v>55</v>
+        <v>410</v>
       </c>
       <c r="AM7" t="n">
         <v>350</v>
       </c>
       <c r="AN7" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="AO7" t="n">
         <v>1000</v>
@@ -1477,22 +1477,22 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="G8" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="H8" t="n">
         <v>2.24</v>
       </c>
       <c r="I8" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="J8" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="K8" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="L8" t="n">
         <v>1.34</v>
@@ -1618,10 +1618,10 @@
         <v>2.74</v>
       </c>
       <c r="H9" t="n">
-        <v>2.72</v>
+        <v>2.76</v>
       </c>
       <c r="I9" t="n">
-        <v>2.76</v>
+        <v>2.78</v>
       </c>
       <c r="J9" t="n">
         <v>3.65</v>
@@ -1633,7 +1633,7 @@
         <v>1.36</v>
       </c>
       <c r="M9" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N9" t="n">
         <v>4.4</v>
@@ -1645,7 +1645,7 @@
         <v>2.16</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.79</v>
+        <v>1.81</v>
       </c>
       <c r="R9" t="n">
         <v>1.45</v>
@@ -1654,7 +1654,7 @@
         <v>3</v>
       </c>
       <c r="T9" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="U9" t="n">
         <v>2.4</v>
@@ -1663,10 +1663,10 @@
         <v>1.56</v>
       </c>
       <c r="W9" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="X9" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="Y9" t="n">
         <v>13.5</v>
@@ -1690,7 +1690,7 @@
         <v>28</v>
       </c>
       <c r="AF9" t="n">
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
       <c r="AG9" t="n">
         <v>12</v>
@@ -1699,7 +1699,7 @@
         <v>16</v>
       </c>
       <c r="AI9" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AJ9" t="n">
         <v>42</v>
@@ -1714,7 +1714,7 @@
         <v>80</v>
       </c>
       <c r="AN9" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AO9" t="n">
         <v>20</v>
@@ -1747,19 +1747,19 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="G10" t="n">
         <v>4</v>
       </c>
       <c r="H10" t="n">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="I10" t="n">
-        <v>2</v>
+        <v>2.04</v>
       </c>
       <c r="J10" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="K10" t="n">
         <v>4.1</v>
@@ -1777,10 +1777,10 @@
         <v>1.27</v>
       </c>
       <c r="P10" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.8</v>
+        <v>1.79</v>
       </c>
       <c r="R10" t="n">
         <v>1.45</v>
@@ -1789,16 +1789,16 @@
         <v>3</v>
       </c>
       <c r="T10" t="n">
-        <v>1.72</v>
+        <v>1.71</v>
       </c>
       <c r="U10" t="n">
         <v>2.28</v>
       </c>
       <c r="V10" t="n">
-        <v>2</v>
+        <v>1.96</v>
       </c>
       <c r="W10" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="X10" t="n">
         <v>18</v>
@@ -1825,7 +1825,7 @@
         <v>19.5</v>
       </c>
       <c r="AF10" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AG10" t="n">
         <v>16</v>
@@ -1846,7 +1846,7 @@
         <v>48</v>
       </c>
       <c r="AM10" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AN10" t="n">
         <v>40</v>
@@ -1882,16 +1882,16 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="G11" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="H11" t="n">
         <v>2</v>
       </c>
       <c r="I11" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="J11" t="n">
         <v>3.55</v>
@@ -1909,13 +1909,13 @@
         <v>3.4</v>
       </c>
       <c r="O11" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="P11" t="n">
         <v>1.79</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="R11" t="n">
         <v>1.29</v>
@@ -1924,13 +1924,13 @@
         <v>4.1</v>
       </c>
       <c r="T11" t="n">
-        <v>1.95</v>
+        <v>1.96</v>
       </c>
       <c r="U11" t="n">
         <v>1.96</v>
       </c>
       <c r="V11" t="n">
-        <v>1.98</v>
+        <v>1.96</v>
       </c>
       <c r="W11" t="n">
         <v>1.28</v>
@@ -1939,7 +1939,7 @@
         <v>12.5</v>
       </c>
       <c r="Y11" t="n">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="Z11" t="n">
         <v>11.5</v>
@@ -2017,22 +2017,22 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="G12" t="n">
-        <v>1.59</v>
+        <v>1.61</v>
       </c>
       <c r="H12" t="n">
         <v>6.4</v>
       </c>
       <c r="I12" t="n">
-        <v>7</v>
+        <v>6.6</v>
       </c>
       <c r="J12" t="n">
         <v>4.5</v>
       </c>
       <c r="K12" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="L12" t="n">
         <v>1.34</v>
@@ -2059,16 +2059,16 @@
         <v>2.96</v>
       </c>
       <c r="T12" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="U12" t="n">
         <v>2.06</v>
       </c>
       <c r="V12" t="n">
-        <v>1.16</v>
+        <v>1.18</v>
       </c>
       <c r="W12" t="n">
-        <v>2.7</v>
+        <v>2.64</v>
       </c>
       <c r="X12" t="n">
         <v>19</v>
@@ -2095,7 +2095,7 @@
         <v>90</v>
       </c>
       <c r="AF12" t="n">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="AG12" t="n">
         <v>9.800000000000001</v>
@@ -2104,10 +2104,10 @@
         <v>22</v>
       </c>
       <c r="AI12" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AJ12" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AK12" t="n">
         <v>15.5</v>
@@ -2152,7 +2152,7 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2.72</v>
+        <v>2.74</v>
       </c>
       <c r="G13" t="n">
         <v>2.78</v>
@@ -2161,10 +2161,10 @@
         <v>2.7</v>
       </c>
       <c r="I13" t="n">
-        <v>2.76</v>
+        <v>2.78</v>
       </c>
       <c r="J13" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="K13" t="n">
         <v>3.7</v>
@@ -2173,7 +2173,7 @@
         <v>1.36</v>
       </c>
       <c r="M13" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N13" t="n">
         <v>4.5</v>
@@ -2188,7 +2188,7 @@
         <v>1.8</v>
       </c>
       <c r="R13" t="n">
-        <v>1.47</v>
+        <v>1.46</v>
       </c>
       <c r="S13" t="n">
         <v>3</v>
@@ -2200,13 +2200,13 @@
         <v>2.36</v>
       </c>
       <c r="V13" t="n">
-        <v>1.57</v>
+        <v>1.56</v>
       </c>
       <c r="W13" t="n">
         <v>1.56</v>
       </c>
       <c r="X13" t="n">
-        <v>18.5</v>
+        <v>17.5</v>
       </c>
       <c r="Y13" t="n">
         <v>13.5</v>
@@ -2221,7 +2221,7 @@
         <v>13.5</v>
       </c>
       <c r="AC13" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="AD13" t="n">
         <v>12</v>
@@ -2242,7 +2242,7 @@
         <v>36</v>
       </c>
       <c r="AJ13" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AK13" t="n">
         <v>28</v>
@@ -2425,16 +2425,16 @@
         <v>1.46</v>
       </c>
       <c r="G15" t="n">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="H15" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="I15" t="n">
         <v>7.8</v>
       </c>
       <c r="J15" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="K15" t="n">
         <v>5.7</v>
@@ -2446,7 +2446,7 @@
         <v>1.03</v>
       </c>
       <c r="N15" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="O15" t="n">
         <v>1.16</v>
@@ -2455,25 +2455,25 @@
         <v>2.88</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="R15" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="S15" t="n">
         <v>2.24</v>
       </c>
       <c r="T15" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="U15" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="V15" t="n">
-        <v>1.14</v>
+        <v>1.15</v>
       </c>
       <c r="W15" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="X15" t="n">
         <v>32</v>
@@ -2485,25 +2485,25 @@
         <v>75</v>
       </c>
       <c r="AA15" t="n">
-        <v>230</v>
+        <v>1000</v>
       </c>
       <c r="AB15" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AC15" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AD15" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AE15" t="n">
         <v>100</v>
       </c>
       <c r="AF15" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AG15" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AH15" t="n">
         <v>22</v>
@@ -2512,22 +2512,22 @@
         <v>80</v>
       </c>
       <c r="AJ15" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AK15" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AL15" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AM15" t="n">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="AN15" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="AO15" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="16">
@@ -2560,13 +2560,13 @@
         <v>4</v>
       </c>
       <c r="G16" t="n">
-        <v>4.8</v>
+        <v>4.5</v>
       </c>
       <c r="H16" t="n">
-        <v>2.3</v>
+        <v>2.28</v>
       </c>
       <c r="I16" t="n">
-        <v>2.54</v>
+        <v>2.48</v>
       </c>
       <c r="J16" t="n">
         <v>2.78</v>
@@ -2581,10 +2581,10 @@
         <v>1.17</v>
       </c>
       <c r="N16" t="n">
-        <v>1.39</v>
+        <v>2.2</v>
       </c>
       <c r="O16" t="n">
-        <v>1.01</v>
+        <v>1.71</v>
       </c>
       <c r="P16" t="n">
         <v>1.39</v>
@@ -2599,13 +2599,13 @@
         <v>7.2</v>
       </c>
       <c r="T16" t="n">
-        <v>1.01</v>
+        <v>2.42</v>
       </c>
       <c r="U16" t="n">
-        <v>1.01</v>
+        <v>1.6</v>
       </c>
       <c r="V16" t="n">
-        <v>1.65</v>
+        <v>1.68</v>
       </c>
       <c r="W16" t="n">
         <v>1.29</v>
@@ -2644,22 +2644,22 @@
         <v>30</v>
       </c>
       <c r="AI16" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AJ16" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AK16" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AL16" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
       <c r="AM16" t="n">
-        <v>1000</v>
+        <v>380</v>
       </c>
       <c r="AN16" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="AO16" t="n">
         <v>48</v>
@@ -2692,7 +2692,7 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
       <c r="G17" t="n">
         <v>2.56</v>
@@ -2710,7 +2710,7 @@
         <v>4</v>
       </c>
       <c r="L17" t="n">
-        <v>1.27</v>
+        <v>1.3</v>
       </c>
       <c r="M17" t="n">
         <v>1.04</v>
@@ -2719,22 +2719,22 @@
         <v>5.4</v>
       </c>
       <c r="O17" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="P17" t="n">
-        <v>2.5</v>
+        <v>2.48</v>
       </c>
       <c r="Q17" t="n">
         <v>1.62</v>
       </c>
       <c r="R17" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="S17" t="n">
-        <v>2.48</v>
+        <v>2.54</v>
       </c>
       <c r="T17" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="U17" t="n">
         <v>2.6</v>
@@ -2746,7 +2746,7 @@
         <v>1.64</v>
       </c>
       <c r="X17" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="Y17" t="n">
         <v>18</v>
@@ -2845,13 +2845,13 @@
         <v>4.3</v>
       </c>
       <c r="L18" t="n">
-        <v>1.38</v>
+        <v>1.4</v>
       </c>
       <c r="M18" t="n">
         <v>1.06</v>
       </c>
       <c r="N18" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="O18" t="n">
         <v>1.31</v>
@@ -2866,7 +2866,7 @@
         <v>1.37</v>
       </c>
       <c r="S18" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="T18" t="n">
         <v>1.98</v>
@@ -2980,13 +2980,13 @@
         <v>3.45</v>
       </c>
       <c r="L19" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="M19" t="n">
         <v>1.07</v>
       </c>
       <c r="N19" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="O19" t="n">
         <v>1.33</v>
@@ -2998,7 +2998,7 @@
         <v>2.02</v>
       </c>
       <c r="R19" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="S19" t="n">
         <v>3.6</v>
@@ -3100,10 +3100,10 @@
         <v>2.06</v>
       </c>
       <c r="G20" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="H20" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="I20" t="n">
         <v>3.95</v>
@@ -3115,7 +3115,7 @@
         <v>3.85</v>
       </c>
       <c r="L20" t="n">
-        <v>1.35</v>
+        <v>1.37</v>
       </c>
       <c r="M20" t="n">
         <v>1.06</v>
@@ -3232,10 +3232,10 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="G21" t="n">
-        <v>1.96</v>
+        <v>1.95</v>
       </c>
       <c r="H21" t="n">
         <v>4</v>
@@ -3250,13 +3250,13 @@
         <v>4.2</v>
       </c>
       <c r="L21" t="n">
-        <v>1.3</v>
+        <v>1.32</v>
       </c>
       <c r="M21" t="n">
         <v>1.04</v>
       </c>
       <c r="N21" t="n">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="O21" t="n">
         <v>1.22</v>
@@ -3265,13 +3265,13 @@
         <v>2.34</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="R21" t="n">
         <v>1.53</v>
       </c>
       <c r="S21" t="n">
-        <v>2.68</v>
+        <v>2.74</v>
       </c>
       <c r="T21" t="n">
         <v>1.65</v>
@@ -3295,13 +3295,13 @@
         <v>34</v>
       </c>
       <c r="AA21" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="AB21" t="n">
         <v>12.5</v>
       </c>
       <c r="AC21" t="n">
-        <v>9.800000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="AD21" t="n">
         <v>17.5</v>
@@ -3370,13 +3370,13 @@
         <v>2.84</v>
       </c>
       <c r="G22" t="n">
-        <v>2.9</v>
+        <v>2.92</v>
       </c>
       <c r="H22" t="n">
         <v>2.62</v>
       </c>
       <c r="I22" t="n">
-        <v>2.7</v>
+        <v>2.68</v>
       </c>
       <c r="J22" t="n">
         <v>3.55</v>
@@ -3385,13 +3385,13 @@
         <v>3.65</v>
       </c>
       <c r="L22" t="n">
-        <v>1.36</v>
+        <v>1.38</v>
       </c>
       <c r="M22" t="n">
         <v>1.06</v>
       </c>
       <c r="N22" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="O22" t="n">
         <v>1.3</v>
@@ -3400,13 +3400,13 @@
         <v>2.04</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.86</v>
+        <v>1.89</v>
       </c>
       <c r="R22" t="n">
         <v>1.41</v>
       </c>
       <c r="S22" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="T22" t="n">
         <v>1.71</v>
@@ -3415,7 +3415,7 @@
         <v>2.3</v>
       </c>
       <c r="V22" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="W22" t="n">
         <v>1.52</v>
@@ -3520,13 +3520,13 @@
         <v>3.55</v>
       </c>
       <c r="L23" t="n">
-        <v>1.36</v>
+        <v>1.41</v>
       </c>
       <c r="M23" t="n">
         <v>1.07</v>
       </c>
       <c r="N23" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="O23" t="n">
         <v>1.31</v>
@@ -3535,19 +3535,19 @@
         <v>1.98</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.95</v>
+        <v>1.97</v>
       </c>
       <c r="R23" t="n">
         <v>1.38</v>
       </c>
       <c r="S23" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="T23" t="n">
         <v>1.75</v>
       </c>
       <c r="U23" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="V23" t="n">
         <v>1.46</v>
@@ -3640,28 +3640,28 @@
         <v>1.96</v>
       </c>
       <c r="G24" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="H24" t="n">
-        <v>3.95</v>
+        <v>4.1</v>
       </c>
       <c r="I24" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="J24" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="K24" t="n">
         <v>3.95</v>
       </c>
       <c r="L24" t="n">
-        <v>1.34</v>
+        <v>1.37</v>
       </c>
       <c r="M24" t="n">
         <v>1.06</v>
       </c>
       <c r="N24" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="O24" t="n">
         <v>1.28</v>
@@ -3670,13 +3670,13 @@
         <v>2.1</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.82</v>
+        <v>1.85</v>
       </c>
       <c r="R24" t="n">
         <v>1.43</v>
       </c>
       <c r="S24" t="n">
-        <v>3.05</v>
+        <v>3.15</v>
       </c>
       <c r="T24" t="n">
         <v>1.75</v>
@@ -3688,7 +3688,7 @@
         <v>1.31</v>
       </c>
       <c r="W24" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="X24" t="n">
         <v>20</v>
@@ -3907,7 +3907,7 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="G26" t="n">
         <v>2.46</v>
@@ -3925,28 +3925,28 @@
         <v>3.65</v>
       </c>
       <c r="L26" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="M26" t="n">
         <v>1.06</v>
       </c>
       <c r="N26" t="n">
-        <v>3.8</v>
+        <v>3.95</v>
       </c>
       <c r="O26" t="n">
         <v>1.31</v>
       </c>
       <c r="P26" t="n">
-        <v>1.96</v>
+        <v>1.98</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="R26" t="n">
         <v>1.37</v>
       </c>
       <c r="S26" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="T26" t="n">
         <v>1.72</v>
@@ -4042,7 +4042,7 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>2.6</v>
+        <v>2.58</v>
       </c>
       <c r="G27" t="n">
         <v>2.86</v>
@@ -4051,7 +4051,7 @@
         <v>3.35</v>
       </c>
       <c r="I27" t="n">
-        <v>3.75</v>
+        <v>3.65</v>
       </c>
       <c r="J27" t="n">
         <v>2.8</v>
@@ -4183,7 +4183,7 @@
         <v>2.3</v>
       </c>
       <c r="H28" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="I28" t="n">
         <v>5.1</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-22.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-22.xlsx
@@ -667,22 +667,22 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.91</v>
+        <v>1.7</v>
       </c>
       <c r="G2" t="n">
-        <v>2.06</v>
+        <v>2.2</v>
       </c>
       <c r="H2" t="n">
-        <v>5.2</v>
+        <v>4.8</v>
       </c>
       <c r="I2" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="J2" t="n">
-        <v>2.76</v>
+        <v>1.09</v>
       </c>
       <c r="K2" t="n">
-        <v>3.35</v>
+        <v>980</v>
       </c>
       <c r="L2" t="n">
         <v>1.01</v>
@@ -691,22 +691,22 @@
         <v>1.13</v>
       </c>
       <c r="N2" t="n">
-        <v>1.45</v>
+        <v>1.34</v>
       </c>
       <c r="O2" t="n">
         <v>1.15</v>
       </c>
       <c r="P2" t="n">
-        <v>1.45</v>
+        <v>1.34</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.7</v>
+        <v>2.74</v>
       </c>
       <c r="R2" t="n">
-        <v>1.15</v>
+        <v>1.13</v>
       </c>
       <c r="S2" t="n">
-        <v>5.7</v>
+        <v>5.2</v>
       </c>
       <c r="T2" t="n">
         <v>2.4</v>
@@ -718,61 +718,61 @@
         <v>1.17</v>
       </c>
       <c r="W2" t="n">
-        <v>1.94</v>
+        <v>1.83</v>
       </c>
       <c r="X2" t="n">
-        <v>8.800000000000001</v>
+        <v>970</v>
       </c>
       <c r="Y2" t="n">
-        <v>14.5</v>
+        <v>970</v>
       </c>
       <c r="Z2" t="n">
         <v>48</v>
       </c>
       <c r="AA2" t="n">
-        <v>220</v>
+        <v>1000</v>
       </c>
       <c r="AB2" t="n">
-        <v>6.6</v>
+        <v>970</v>
       </c>
       <c r="AC2" t="n">
-        <v>8.800000000000001</v>
+        <v>970</v>
       </c>
       <c r="AD2" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AE2" t="n">
-        <v>150</v>
+        <v>1000</v>
       </c>
       <c r="AF2" t="n">
-        <v>12</v>
+        <v>970</v>
       </c>
       <c r="AG2" t="n">
-        <v>13.5</v>
+        <v>970</v>
       </c>
       <c r="AH2" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AI2" t="n">
-        <v>180</v>
+        <v>1000</v>
       </c>
       <c r="AJ2" t="n">
-        <v>29</v>
+        <v>1000</v>
       </c>
       <c r="AK2" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AL2" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AM2" t="n">
         <v>1000</v>
       </c>
       <c r="AN2" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AO2" t="n">
-        <v>280</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="3">
@@ -802,25 +802,25 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>2.5</v>
+        <v>2.46</v>
       </c>
       <c r="G3" t="n">
-        <v>2.72</v>
+        <v>3.15</v>
       </c>
       <c r="H3" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="I3" t="n">
-        <v>3.7</v>
+        <v>4.3</v>
       </c>
       <c r="J3" t="n">
-        <v>3</v>
+        <v>2.26</v>
       </c>
       <c r="K3" t="n">
         <v>3.05</v>
       </c>
       <c r="L3" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="M3" t="n">
         <v>1.1</v>
@@ -832,16 +832,16 @@
         <v>1.57</v>
       </c>
       <c r="P3" t="n">
-        <v>1.53</v>
+        <v>1.43</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.68</v>
+        <v>2.38</v>
       </c>
       <c r="R3" t="n">
-        <v>1.18</v>
+        <v>1.14</v>
       </c>
       <c r="S3" t="n">
-        <v>4.8</v>
+        <v>4.4</v>
       </c>
       <c r="T3" t="n">
         <v>2.14</v>
@@ -850,64 +850,64 @@
         <v>1.75</v>
       </c>
       <c r="V3" t="n">
-        <v>1.37</v>
+        <v>1.3</v>
       </c>
       <c r="W3" t="n">
-        <v>1.58</v>
+        <v>1.47</v>
       </c>
       <c r="X3" t="n">
-        <v>10.5</v>
+        <v>970</v>
       </c>
       <c r="Y3" t="n">
-        <v>11</v>
+        <v>970</v>
       </c>
       <c r="Z3" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AA3" t="n">
-        <v>90</v>
+        <v>1000</v>
       </c>
       <c r="AB3" t="n">
-        <v>9.199999999999999</v>
+        <v>970</v>
       </c>
       <c r="AC3" t="n">
-        <v>8.800000000000001</v>
+        <v>970</v>
       </c>
       <c r="AD3" t="n">
-        <v>18.5</v>
+        <v>970</v>
       </c>
       <c r="AE3" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AF3" t="n">
-        <v>18.5</v>
+        <v>970</v>
       </c>
       <c r="AG3" t="n">
-        <v>15.5</v>
+        <v>970</v>
       </c>
       <c r="AH3" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AI3" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AJ3" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AK3" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AL3" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AM3" t="n">
-        <v>250</v>
+        <v>1000</v>
       </c>
       <c r="AN3" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AO3" t="n">
-        <v>95</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="4">
@@ -940,19 +940,19 @@
         <v>1.59</v>
       </c>
       <c r="G4" t="n">
-        <v>1.93</v>
+        <v>1.78</v>
       </c>
       <c r="H4" t="n">
-        <v>4.7</v>
+        <v>5.3</v>
       </c>
       <c r="I4" t="n">
         <v>7.2</v>
       </c>
       <c r="J4" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="K4" t="n">
-        <v>6.4</v>
+        <v>5.6</v>
       </c>
       <c r="L4" t="n">
         <v>1.01</v>
@@ -961,19 +961,19 @@
         <v>1.06</v>
       </c>
       <c r="N4" t="n">
-        <v>1.8</v>
+        <v>1.29</v>
       </c>
       <c r="O4" t="n">
         <v>1.31</v>
       </c>
       <c r="P4" t="n">
-        <v>1.8</v>
+        <v>1.29</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.82</v>
+        <v>1.84</v>
       </c>
       <c r="R4" t="n">
-        <v>1.27</v>
+        <v>1.29</v>
       </c>
       <c r="S4" t="n">
         <v>2.98</v>
@@ -988,7 +988,7 @@
         <v>1.16</v>
       </c>
       <c r="W4" t="n">
-        <v>2.08</v>
+        <v>2.28</v>
       </c>
       <c r="X4" t="n">
         <v>1000</v>
@@ -1072,22 +1072,22 @@
         </is>
       </c>
       <c r="F5" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="G5" t="n">
         <v>1.2</v>
       </c>
-      <c r="G5" t="n">
-        <v>1.21</v>
-      </c>
       <c r="H5" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="I5" t="n">
         <v>20</v>
       </c>
       <c r="J5" t="n">
-        <v>8</v>
+        <v>8.6</v>
       </c>
       <c r="K5" t="n">
-        <v>9.800000000000001</v>
+        <v>10.5</v>
       </c>
       <c r="L5" t="n">
         <v>1.01</v>
@@ -1096,34 +1096,34 @@
         <v>1.02</v>
       </c>
       <c r="N5" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="O5" t="n">
         <v>1.13</v>
       </c>
       <c r="P5" t="n">
-        <v>2.98</v>
+        <v>3.05</v>
       </c>
       <c r="Q5" t="n">
         <v>1.37</v>
       </c>
       <c r="R5" t="n">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="S5" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="T5" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="U5" t="n">
         <v>1.81</v>
       </c>
       <c r="V5" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="W5" t="n">
-        <v>5.7</v>
+        <v>6</v>
       </c>
       <c r="X5" t="n">
         <v>980</v>
@@ -1138,7 +1138,7 @@
         <v>1000</v>
       </c>
       <c r="AB5" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AC5" t="n">
         <v>22</v>
@@ -1150,10 +1150,10 @@
         <v>270</v>
       </c>
       <c r="AF5" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AG5" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="AH5" t="n">
         <v>980</v>
@@ -1162,7 +1162,7 @@
         <v>190</v>
       </c>
       <c r="AJ5" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AK5" t="n">
         <v>16.5</v>
@@ -1174,7 +1174,7 @@
         <v>190</v>
       </c>
       <c r="AN5" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="AO5" t="n">
         <v>1000</v>
@@ -1207,22 +1207,22 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="G6" t="n">
-        <v>2.84</v>
+        <v>3.05</v>
       </c>
       <c r="H6" t="n">
-        <v>2.64</v>
+        <v>2.44</v>
       </c>
       <c r="I6" t="n">
-        <v>3.15</v>
+        <v>3.45</v>
       </c>
       <c r="J6" t="n">
-        <v>3.75</v>
+        <v>2.6</v>
       </c>
       <c r="K6" t="n">
-        <v>4.5</v>
+        <v>4.3</v>
       </c>
       <c r="L6" t="n">
         <v>1.01</v>
@@ -1243,22 +1243,22 @@
         <v>1.55</v>
       </c>
       <c r="R6" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="S6" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="T6" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="U6" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="V6" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="W6" t="n">
         <v>1.49</v>
-      </c>
-      <c r="S6" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="T6" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="U6" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="V6" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="W6" t="n">
-        <v>1.54</v>
       </c>
       <c r="X6" t="n">
         <v>1000</v>
@@ -1351,7 +1351,7 @@
         <v>17.5</v>
       </c>
       <c r="I7" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J7" t="n">
         <v>8</v>
@@ -1375,7 +1375,7 @@
         <v>2.68</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="R7" t="n">
         <v>1.66</v>
@@ -1441,7 +1441,7 @@
         <v>410</v>
       </c>
       <c r="AM7" t="n">
-        <v>350</v>
+        <v>360</v>
       </c>
       <c r="AN7" t="n">
         <v>3.65</v>
@@ -1480,10 +1480,10 @@
         <v>3.25</v>
       </c>
       <c r="G8" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="H8" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="I8" t="n">
         <v>2.34</v>
@@ -1510,7 +1510,7 @@
         <v>2.26</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.72</v>
+        <v>1.74</v>
       </c>
       <c r="R8" t="n">
         <v>1.5</v>
@@ -1531,7 +1531,7 @@
         <v>1.41</v>
       </c>
       <c r="X8" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="Y8" t="n">
         <v>13.5</v>
@@ -1618,7 +1618,7 @@
         <v>2.74</v>
       </c>
       <c r="H9" t="n">
-        <v>2.76</v>
+        <v>2.74</v>
       </c>
       <c r="I9" t="n">
         <v>2.78</v>
@@ -1645,7 +1645,7 @@
         <v>2.16</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="R9" t="n">
         <v>1.45</v>
@@ -1657,7 +1657,7 @@
         <v>1.67</v>
       </c>
       <c r="U9" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="V9" t="n">
         <v>1.56</v>
@@ -1711,7 +1711,7 @@
         <v>36</v>
       </c>
       <c r="AM9" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AN9" t="n">
         <v>20</v>
@@ -1756,7 +1756,7 @@
         <v>2</v>
       </c>
       <c r="I10" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="J10" t="n">
         <v>3.95</v>
@@ -1789,13 +1789,13 @@
         <v>3</v>
       </c>
       <c r="T10" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="U10" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="V10" t="n">
-        <v>1.96</v>
+        <v>1.98</v>
       </c>
       <c r="W10" t="n">
         <v>1.33</v>
@@ -1837,13 +1837,13 @@
         <v>32</v>
       </c>
       <c r="AJ10" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AK10" t="n">
         <v>44</v>
       </c>
       <c r="AL10" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AM10" t="n">
         <v>80</v>
@@ -1882,7 +1882,7 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="G11" t="n">
         <v>4.5</v>
@@ -1924,7 +1924,7 @@
         <v>4.1</v>
       </c>
       <c r="T11" t="n">
-        <v>1.96</v>
+        <v>1.93</v>
       </c>
       <c r="U11" t="n">
         <v>1.96</v>
@@ -1939,7 +1939,7 @@
         <v>12.5</v>
       </c>
       <c r="Y11" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="Z11" t="n">
         <v>11.5</v>
@@ -1972,7 +1972,7 @@
         <v>44</v>
       </c>
       <c r="AJ11" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AK11" t="n">
         <v>65</v>
@@ -1981,10 +1981,10 @@
         <v>80</v>
       </c>
       <c r="AM11" t="n">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="AN11" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AO11" t="n">
         <v>18</v>
@@ -2050,7 +2050,7 @@
         <v>2.22</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.76</v>
+        <v>1.77</v>
       </c>
       <c r="R12" t="n">
         <v>1.48</v>
@@ -2080,7 +2080,7 @@
         <v>55</v>
       </c>
       <c r="AA12" t="n">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="AB12" t="n">
         <v>9.4</v>
@@ -2116,7 +2116,7 @@
         <v>32</v>
       </c>
       <c r="AM12" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AN12" t="n">
         <v>7.6</v>
@@ -2158,13 +2158,13 @@
         <v>2.78</v>
       </c>
       <c r="H13" t="n">
-        <v>2.7</v>
+        <v>2.72</v>
       </c>
       <c r="I13" t="n">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="J13" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="K13" t="n">
         <v>3.7</v>
@@ -2197,10 +2197,10 @@
         <v>1.65</v>
       </c>
       <c r="U13" t="n">
-        <v>2.36</v>
+        <v>2.4</v>
       </c>
       <c r="V13" t="n">
-        <v>1.56</v>
+        <v>1.55</v>
       </c>
       <c r="W13" t="n">
         <v>1.56</v>
@@ -2221,7 +2221,7 @@
         <v>13.5</v>
       </c>
       <c r="AC13" t="n">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD13" t="n">
         <v>12</v>
@@ -2293,10 +2293,10 @@
         <v>4.9</v>
       </c>
       <c r="H14" t="n">
-        <v>1.78</v>
+        <v>1.77</v>
       </c>
       <c r="I14" t="n">
-        <v>1.83</v>
+        <v>1.81</v>
       </c>
       <c r="J14" t="n">
         <v>4.1</v>
@@ -2317,10 +2317,10 @@
         <v>1.22</v>
       </c>
       <c r="P14" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="R14" t="n">
         <v>1.54</v>
@@ -2335,64 +2335,64 @@
         <v>2.34</v>
       </c>
       <c r="V14" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="W14" t="n">
         <v>1.26</v>
       </c>
       <c r="X14" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="Y14" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z14" t="n">
         <v>13.5</v>
-      </c>
-      <c r="Z14" t="n">
-        <v>15.5</v>
       </c>
       <c r="AA14" t="n">
         <v>21</v>
       </c>
       <c r="AB14" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="AC14" t="n">
         <v>10.5</v>
       </c>
       <c r="AD14" t="n">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="AE14" t="n">
         <v>18.5</v>
       </c>
       <c r="AF14" t="n">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="AG14" t="n">
-        <v>22</v>
+        <v>19.5</v>
       </c>
       <c r="AH14" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AI14" t="n">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="AJ14" t="n">
         <v>120</v>
       </c>
       <c r="AK14" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="AL14" t="n">
         <v>55</v>
       </c>
       <c r="AM14" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AN14" t="n">
         <v>48</v>
       </c>
       <c r="AO14" t="n">
-        <v>10.5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15">
@@ -2431,7 +2431,7 @@
         <v>7.4</v>
       </c>
       <c r="I15" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="J15" t="n">
         <v>5.3</v>
@@ -2455,7 +2455,7 @@
         <v>2.88</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="R15" t="n">
         <v>1.76</v>
@@ -2467,10 +2467,10 @@
         <v>1.71</v>
       </c>
       <c r="U15" t="n">
-        <v>2.28</v>
+        <v>2.32</v>
       </c>
       <c r="V15" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="W15" t="n">
         <v>3.1</v>
@@ -2479,10 +2479,10 @@
         <v>32</v>
       </c>
       <c r="Y15" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="Z15" t="n">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="AA15" t="n">
         <v>1000</v>
@@ -2494,10 +2494,10 @@
         <v>13</v>
       </c>
       <c r="AD15" t="n">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="AE15" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="AF15" t="n">
         <v>11.5</v>
@@ -2527,7 +2527,7 @@
         <v>4.8</v>
       </c>
       <c r="AO15" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
     </row>
     <row r="16">
@@ -2581,16 +2581,16 @@
         <v>1.17</v>
       </c>
       <c r="N16" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="O16" t="n">
-        <v>1.71</v>
+        <v>1.64</v>
       </c>
       <c r="P16" t="n">
         <v>1.39</v>
       </c>
       <c r="Q16" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="R16" t="n">
         <v>1.13</v>
@@ -2611,58 +2611,58 @@
         <v>1.29</v>
       </c>
       <c r="X16" t="n">
-        <v>6.8</v>
+        <v>1000</v>
       </c>
       <c r="Y16" t="n">
-        <v>6.4</v>
+        <v>1000</v>
       </c>
       <c r="Z16" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AA16" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AB16" t="n">
-        <v>9.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="AC16" t="n">
-        <v>7.2</v>
+        <v>1000</v>
       </c>
       <c r="AD16" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="AE16" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AF16" t="n">
-        <v>29</v>
+        <v>1000</v>
       </c>
       <c r="AG16" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AH16" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="AI16" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AJ16" t="n">
-        <v>150</v>
+        <v>1000</v>
       </c>
       <c r="AK16" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AL16" t="n">
-        <v>160</v>
+        <v>1000</v>
       </c>
       <c r="AM16" t="n">
-        <v>380</v>
+        <v>1000</v>
       </c>
       <c r="AN16" t="n">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="AO16" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="17">
@@ -2716,13 +2716,13 @@
         <v>1.04</v>
       </c>
       <c r="N17" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="O17" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="P17" t="n">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="Q17" t="n">
         <v>1.62</v>
@@ -2731,13 +2731,13 @@
         <v>1.6</v>
       </c>
       <c r="S17" t="n">
-        <v>2.54</v>
+        <v>2.56</v>
       </c>
       <c r="T17" t="n">
         <v>1.56</v>
       </c>
       <c r="U17" t="n">
-        <v>2.6</v>
+        <v>2.64</v>
       </c>
       <c r="V17" t="n">
         <v>1.52</v>
@@ -2749,34 +2749,34 @@
         <v>22</v>
       </c>
       <c r="Y17" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="Z17" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AA17" t="n">
         <v>48</v>
       </c>
       <c r="AB17" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="AC17" t="n">
         <v>9.4</v>
       </c>
       <c r="AD17" t="n">
+        <v>13</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>28</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH17" t="n">
         <v>15</v>
-      </c>
-      <c r="AE17" t="n">
-        <v>30</v>
-      </c>
-      <c r="AF17" t="n">
-        <v>21</v>
-      </c>
-      <c r="AG17" t="n">
-        <v>13</v>
-      </c>
-      <c r="AH17" t="n">
-        <v>16</v>
       </c>
       <c r="AI17" t="n">
         <v>32</v>
@@ -2785,19 +2785,19 @@
         <v>36</v>
       </c>
       <c r="AK17" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AL17" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AM17" t="n">
         <v>60</v>
       </c>
       <c r="AN17" t="n">
-        <v>15.5</v>
+        <v>14</v>
       </c>
       <c r="AO17" t="n">
-        <v>19.5</v>
+        <v>17.5</v>
       </c>
     </row>
     <row r="18">
@@ -2854,7 +2854,7 @@
         <v>3.9</v>
       </c>
       <c r="O18" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="P18" t="n">
         <v>1.98</v>
@@ -2884,7 +2884,7 @@
         <v>15.5</v>
       </c>
       <c r="Y18" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="Z18" t="n">
         <v>48</v>
@@ -2902,7 +2902,7 @@
         <v>23</v>
       </c>
       <c r="AE18" t="n">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="AF18" t="n">
         <v>9.4</v>
@@ -2926,7 +2926,7 @@
         <v>38</v>
       </c>
       <c r="AM18" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="AN18" t="n">
         <v>10.5</v>
@@ -2998,7 +2998,7 @@
         <v>2.02</v>
       </c>
       <c r="R19" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="S19" t="n">
         <v>3.6</v>
@@ -3046,10 +3046,10 @@
         <v>12.5</v>
       </c>
       <c r="AH19" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AI19" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AJ19" t="n">
         <v>44</v>
@@ -3061,7 +3061,7 @@
         <v>44</v>
       </c>
       <c r="AM19" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="AN19" t="n">
         <v>28</v>
@@ -3154,7 +3154,7 @@
         <v>17.5</v>
       </c>
       <c r="Y20" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="Z20" t="n">
         <v>28</v>
@@ -3196,7 +3196,7 @@
         <v>32</v>
       </c>
       <c r="AM20" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AN20" t="n">
         <v>12.5</v>
@@ -3262,7 +3262,7 @@
         <v>1.22</v>
       </c>
       <c r="P21" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="Q21" t="n">
         <v>1.69</v>
@@ -3298,7 +3298,7 @@
         <v>85</v>
       </c>
       <c r="AB21" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AC21" t="n">
         <v>9.4</v>
@@ -3319,22 +3319,22 @@
         <v>17</v>
       </c>
       <c r="AI21" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AJ21" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AK21" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AL21" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AM21" t="n">
         <v>75</v>
       </c>
       <c r="AN21" t="n">
-        <v>10.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AO21" t="n">
         <v>38</v>
@@ -3427,22 +3427,22 @@
         <v>12.5</v>
       </c>
       <c r="Z22" t="n">
-        <v>21</v>
+        <v>18.5</v>
       </c>
       <c r="AA22" t="n">
         <v>40</v>
       </c>
       <c r="AB22" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AC22" t="n">
         <v>8</v>
       </c>
       <c r="AD22" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AE22" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AF22" t="n">
         <v>20</v>
@@ -3451,16 +3451,16 @@
         <v>13</v>
       </c>
       <c r="AH22" t="n">
-        <v>19</v>
+        <v>16.5</v>
       </c>
       <c r="AI22" t="n">
+        <v>38</v>
+      </c>
+      <c r="AJ22" t="n">
         <v>44</v>
       </c>
-      <c r="AJ22" t="n">
-        <v>46</v>
-      </c>
       <c r="AK22" t="n">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="AL22" t="n">
         <v>40</v>
@@ -3469,10 +3469,10 @@
         <v>80</v>
       </c>
       <c r="AN22" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="AO22" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="23">
@@ -3508,7 +3508,7 @@
         <v>2.54</v>
       </c>
       <c r="H23" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="I23" t="n">
         <v>3.15</v>
@@ -3559,7 +3559,7 @@
         <v>14.5</v>
       </c>
       <c r="Y23" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="Z23" t="n">
         <v>21</v>
@@ -3568,7 +3568,7 @@
         <v>55</v>
       </c>
       <c r="AB23" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AC23" t="n">
         <v>7.8</v>
@@ -3589,7 +3589,7 @@
         <v>16.5</v>
       </c>
       <c r="AI23" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AJ23" t="n">
         <v>36</v>
@@ -3598,7 +3598,7 @@
         <v>26</v>
       </c>
       <c r="AL23" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AM23" t="n">
         <v>90</v>
@@ -3670,7 +3670,7 @@
         <v>2.1</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.85</v>
+        <v>1.84</v>
       </c>
       <c r="R24" t="n">
         <v>1.43</v>
@@ -3694,13 +3694,13 @@
         <v>20</v>
       </c>
       <c r="Y24" t="n">
-        <v>18.5</v>
+        <v>16.5</v>
       </c>
       <c r="Z24" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="AA24" t="n">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="AB24" t="n">
         <v>10.5</v>
@@ -3709,40 +3709,40 @@
         <v>9</v>
       </c>
       <c r="AD24" t="n">
-        <v>18.5</v>
+        <v>17</v>
       </c>
       <c r="AE24" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AF24" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AG24" t="n">
         <v>11</v>
       </c>
       <c r="AH24" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AI24" t="n">
         <v>55</v>
       </c>
       <c r="AJ24" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AK24" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="AL24" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AM24" t="n">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="AN24" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="AO24" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
     </row>
     <row r="25">
@@ -3826,13 +3826,13 @@
         <v>1.54</v>
       </c>
       <c r="X25" t="n">
-        <v>8.6</v>
+        <v>10.5</v>
       </c>
       <c r="Y25" t="n">
         <v>9.4</v>
       </c>
       <c r="Z25" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AA25" t="n">
         <v>65</v>
@@ -3847,25 +3847,25 @@
         <v>15</v>
       </c>
       <c r="AE25" t="n">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="AF25" t="n">
-        <v>16.5</v>
+        <v>970</v>
       </c>
       <c r="AG25" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="AH25" t="n">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="AI25" t="n">
         <v>75</v>
       </c>
       <c r="AJ25" t="n">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="AK25" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="AL25" t="n">
         <v>70</v>
@@ -3874,7 +3874,7 @@
         <v>220</v>
       </c>
       <c r="AN25" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AO25" t="n">
         <v>65</v>
@@ -3940,7 +3940,7 @@
         <v>1.98</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.93</v>
+        <v>1.94</v>
       </c>
       <c r="R26" t="n">
         <v>1.37</v>
@@ -3964,52 +3964,52 @@
         <v>17.5</v>
       </c>
       <c r="Y26" t="n">
-        <v>15</v>
+        <v>13.5</v>
       </c>
       <c r="Z26" t="n">
-        <v>26</v>
+        <v>980</v>
       </c>
       <c r="AA26" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="AB26" t="n">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="AC26" t="n">
-        <v>9.199999999999999</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD26" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AE26" t="n">
-        <v>42</v>
+        <v>980</v>
       </c>
       <c r="AF26" t="n">
-        <v>19</v>
+        <v>16.5</v>
       </c>
       <c r="AG26" t="n">
-        <v>13.5</v>
+        <v>12</v>
       </c>
       <c r="AH26" t="n">
-        <v>19.5</v>
+        <v>1000</v>
       </c>
       <c r="AI26" t="n">
-        <v>55</v>
+        <v>980</v>
       </c>
       <c r="AJ26" t="n">
-        <v>40</v>
+        <v>980</v>
       </c>
       <c r="AK26" t="n">
-        <v>30</v>
+        <v>980</v>
       </c>
       <c r="AL26" t="n">
-        <v>44</v>
+        <v>980</v>
       </c>
       <c r="AM26" t="n">
         <v>100</v>
       </c>
       <c r="AN26" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AO26" t="n">
         <v>980</v>
@@ -4042,7 +4042,7 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>2.58</v>
+        <v>2.6</v>
       </c>
       <c r="G27" t="n">
         <v>2.86</v>
@@ -4054,7 +4054,7 @@
         <v>3.65</v>
       </c>
       <c r="J27" t="n">
-        <v>2.8</v>
+        <v>2.74</v>
       </c>
       <c r="K27" t="n">
         <v>2.94</v>
@@ -4183,10 +4183,10 @@
         <v>2.3</v>
       </c>
       <c r="H28" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="I28" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="J28" t="n">
         <v>2.84</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-22.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-22.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO28"/>
+  <dimension ref="A1:AO30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -667,10 +667,10 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="G2" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="H2" t="n">
         <v>4.8</v>
@@ -679,7 +679,7 @@
         <v>7</v>
       </c>
       <c r="J2" t="n">
-        <v>1.09</v>
+        <v>2.52</v>
       </c>
       <c r="K2" t="n">
         <v>980</v>
@@ -718,40 +718,40 @@
         <v>1.17</v>
       </c>
       <c r="W2" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="X2" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="Y2" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="Z2" t="n">
-        <v>48</v>
+        <v>980</v>
       </c>
       <c r="AA2" t="n">
         <v>1000</v>
       </c>
       <c r="AB2" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AC2" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AD2" t="n">
-        <v>28</v>
+        <v>980</v>
       </c>
       <c r="AE2" t="n">
         <v>1000</v>
       </c>
       <c r="AF2" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AG2" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AH2" t="n">
-        <v>34</v>
+        <v>980</v>
       </c>
       <c r="AI2" t="n">
         <v>1000</v>
@@ -760,7 +760,7 @@
         <v>1000</v>
       </c>
       <c r="AK2" t="n">
-        <v>34</v>
+        <v>980</v>
       </c>
       <c r="AL2" t="n">
         <v>1000</v>
@@ -769,7 +769,7 @@
         <v>1000</v>
       </c>
       <c r="AN2" t="n">
-        <v>32</v>
+        <v>980</v>
       </c>
       <c r="AO2" t="n">
         <v>1000</v>
@@ -814,22 +814,22 @@
         <v>4.3</v>
       </c>
       <c r="J3" t="n">
-        <v>2.26</v>
+        <v>2.24</v>
       </c>
       <c r="K3" t="n">
         <v>3.05</v>
       </c>
       <c r="L3" t="n">
-        <v>1.5</v>
+        <v>1.01</v>
       </c>
       <c r="M3" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="N3" t="n">
-        <v>2.56</v>
+        <v>1.43</v>
       </c>
       <c r="O3" t="n">
-        <v>1.57</v>
+        <v>1.09</v>
       </c>
       <c r="P3" t="n">
         <v>1.43</v>
@@ -844,10 +844,10 @@
         <v>4.4</v>
       </c>
       <c r="T3" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="U3" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="V3" t="n">
         <v>1.3</v>
@@ -856,46 +856,46 @@
         <v>1.47</v>
       </c>
       <c r="X3" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="Y3" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="Z3" t="n">
-        <v>26</v>
+        <v>980</v>
       </c>
       <c r="AA3" t="n">
         <v>1000</v>
       </c>
       <c r="AB3" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AC3" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AD3" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AE3" t="n">
         <v>65</v>
       </c>
       <c r="AF3" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AG3" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AH3" t="n">
-        <v>29</v>
+        <v>980</v>
       </c>
       <c r="AI3" t="n">
         <v>1000</v>
       </c>
       <c r="AJ3" t="n">
-        <v>50</v>
+        <v>980</v>
       </c>
       <c r="AK3" t="n">
-        <v>46</v>
+        <v>980</v>
       </c>
       <c r="AL3" t="n">
         <v>1000</v>
@@ -904,7 +904,7 @@
         <v>1000</v>
       </c>
       <c r="AN3" t="n">
-        <v>50</v>
+        <v>980</v>
       </c>
       <c r="AO3" t="n">
         <v>1000</v>
@@ -937,22 +937,22 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.59</v>
+        <v>1.57</v>
       </c>
       <c r="G4" t="n">
         <v>1.78</v>
       </c>
       <c r="H4" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="I4" t="n">
-        <v>7.2</v>
+        <v>6.2</v>
       </c>
       <c r="J4" t="n">
         <v>3.7</v>
       </c>
       <c r="K4" t="n">
-        <v>5.6</v>
+        <v>5.8</v>
       </c>
       <c r="L4" t="n">
         <v>1.01</v>
@@ -961,13 +961,13 @@
         <v>1.06</v>
       </c>
       <c r="N4" t="n">
-        <v>1.29</v>
+        <v>1.78</v>
       </c>
       <c r="O4" t="n">
         <v>1.31</v>
       </c>
       <c r="P4" t="n">
-        <v>1.29</v>
+        <v>1.78</v>
       </c>
       <c r="Q4" t="n">
         <v>1.84</v>
@@ -979,13 +979,13 @@
         <v>2.98</v>
       </c>
       <c r="T4" t="n">
-        <v>1.01</v>
+        <v>1.73</v>
       </c>
       <c r="U4" t="n">
-        <v>1.01</v>
+        <v>1.83</v>
       </c>
       <c r="V4" t="n">
-        <v>1.16</v>
+        <v>1.19</v>
       </c>
       <c r="W4" t="n">
         <v>2.28</v>
@@ -1210,16 +1210,16 @@
         <v>2.44</v>
       </c>
       <c r="G6" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="H6" t="n">
         <v>2.44</v>
       </c>
       <c r="I6" t="n">
-        <v>3.45</v>
+        <v>3.15</v>
       </c>
       <c r="J6" t="n">
-        <v>2.6</v>
+        <v>3.7</v>
       </c>
       <c r="K6" t="n">
         <v>4.3</v>
@@ -1231,34 +1231,34 @@
         <v>1.03</v>
       </c>
       <c r="N6" t="n">
-        <v>2.46</v>
+        <v>2.72</v>
       </c>
       <c r="O6" t="n">
         <v>1.17</v>
       </c>
       <c r="P6" t="n">
-        <v>2.46</v>
+        <v>2.72</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.55</v>
+        <v>1.46</v>
       </c>
       <c r="R6" t="n">
-        <v>1.51</v>
+        <v>1.59</v>
       </c>
       <c r="S6" t="n">
-        <v>2.2</v>
+        <v>2.16</v>
       </c>
       <c r="T6" t="n">
         <v>1.4</v>
       </c>
       <c r="U6" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="V6" t="n">
-        <v>1.4</v>
+        <v>1.47</v>
       </c>
       <c r="W6" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="X6" t="n">
         <v>1000</v>
@@ -1333,121 +1333,121 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Freiburg</t>
+          <t>Young Boys</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Maccabi Tel Aviv</t>
+          <t>Lyon</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.2</v>
+        <v>4.6</v>
       </c>
       <c r="G7" t="n">
-        <v>1.21</v>
+        <v>4.9</v>
       </c>
       <c r="H7" t="n">
-        <v>17.5</v>
+        <v>1.77</v>
       </c>
       <c r="I7" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="J7" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="K7" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="L7" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N7" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P7" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="R7" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="S7" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="T7" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="U7" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="V7" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="W7" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="X7" t="n">
+        <v>23</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AA7" t="n">
         <v>21</v>
       </c>
-      <c r="J7" t="n">
-        <v>8</v>
-      </c>
-      <c r="K7" t="n">
+      <c r="AB7" t="n">
+        <v>22</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>40</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>18</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>30</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>120</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>55</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>55</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>85</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>50</v>
+      </c>
+      <c r="AO7" t="n">
         <v>9</v>
-      </c>
-      <c r="L7" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="M7" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N7" t="n">
-        <v>6</v>
-      </c>
-      <c r="O7" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="P7" t="n">
-        <v>2.68</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="R7" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="S7" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="T7" t="n">
-        <v>2.48</v>
-      </c>
-      <c r="U7" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="V7" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="W7" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="X7" t="n">
-        <v>34</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>60</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>25</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>75</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>470</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>250</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>310</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AL7" t="n">
-        <v>410</v>
-      </c>
-      <c r="AM7" t="n">
-        <v>360</v>
-      </c>
-      <c r="AN7" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="AO7" t="n">
-        <v>1000</v>
       </c>
     </row>
     <row r="8">
@@ -1468,121 +1468,121 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Brann</t>
+          <t>Fenerbahce</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Midtjylland</t>
+          <t>Aston Villa</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>3.25</v>
+        <v>2.7</v>
       </c>
       <c r="G8" t="n">
-        <v>3.4</v>
+        <v>2.74</v>
       </c>
       <c r="H8" t="n">
-        <v>2.26</v>
+        <v>2.76</v>
       </c>
       <c r="I8" t="n">
-        <v>2.34</v>
+        <v>2.8</v>
       </c>
       <c r="J8" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="K8" t="n">
-        <v>3.85</v>
+        <v>3.7</v>
       </c>
       <c r="L8" t="n">
-        <v>1.34</v>
+        <v>1.36</v>
       </c>
       <c r="M8" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N8" t="n">
-        <v>4.7</v>
+        <v>4.5</v>
       </c>
       <c r="O8" t="n">
-        <v>1.24</v>
+        <v>1.26</v>
       </c>
       <c r="P8" t="n">
-        <v>2.26</v>
+        <v>2.18</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.74</v>
+        <v>1.8</v>
       </c>
       <c r="R8" t="n">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="S8" t="n">
-        <v>2.84</v>
+        <v>3</v>
       </c>
       <c r="T8" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="U8" t="n">
-        <v>2.4</v>
+        <v>2.36</v>
       </c>
       <c r="V8" t="n">
-        <v>1.75</v>
+        <v>1.55</v>
       </c>
       <c r="W8" t="n">
-        <v>1.41</v>
+        <v>1.57</v>
       </c>
       <c r="X8" t="n">
-        <v>20</v>
+        <v>17.5</v>
       </c>
       <c r="Y8" t="n">
         <v>13.5</v>
       </c>
       <c r="Z8" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AA8" t="n">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="AB8" t="n">
-        <v>16.5</v>
+        <v>13.5</v>
       </c>
       <c r="AC8" t="n">
-        <v>9</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD8" t="n">
         <v>12</v>
       </c>
       <c r="AE8" t="n">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="AF8" t="n">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="AG8" t="n">
-        <v>15</v>
+        <v>12.5</v>
       </c>
       <c r="AH8" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="AI8" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AJ8" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="AK8" t="n">
+        <v>28</v>
+      </c>
+      <c r="AL8" t="n">
         <v>36</v>
-      </c>
-      <c r="AL8" t="n">
-        <v>42</v>
       </c>
       <c r="AM8" t="n">
         <v>75</v>
       </c>
       <c r="AN8" t="n">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="AO8" t="n">
-        <v>14.5</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9">
@@ -1603,121 +1603,121 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>PAOK</t>
+          <t>Bologna</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Betis</t>
+          <t>Celtic</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.7</v>
+        <v>1.6</v>
       </c>
       <c r="G9" t="n">
-        <v>2.74</v>
+        <v>1.61</v>
       </c>
       <c r="H9" t="n">
-        <v>2.74</v>
+        <v>6.2</v>
       </c>
       <c r="I9" t="n">
-        <v>2.78</v>
+        <v>6.6</v>
       </c>
       <c r="J9" t="n">
-        <v>3.65</v>
+        <v>4.5</v>
       </c>
       <c r="K9" t="n">
-        <v>3.75</v>
+        <v>4.6</v>
       </c>
       <c r="L9" t="n">
-        <v>1.36</v>
+        <v>1.34</v>
       </c>
       <c r="M9" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N9" t="n">
-        <v>4.4</v>
+        <v>4.6</v>
       </c>
       <c r="O9" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="P9" t="n">
-        <v>2.16</v>
+        <v>2.22</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="R9" t="n">
-        <v>1.45</v>
+        <v>1.48</v>
       </c>
       <c r="S9" t="n">
-        <v>3</v>
+        <v>2.96</v>
       </c>
       <c r="T9" t="n">
-        <v>1.67</v>
+        <v>1.88</v>
       </c>
       <c r="U9" t="n">
-        <v>2.38</v>
+        <v>2.06</v>
       </c>
       <c r="V9" t="n">
-        <v>1.56</v>
+        <v>1.18</v>
       </c>
       <c r="W9" t="n">
-        <v>1.58</v>
+        <v>2.64</v>
       </c>
       <c r="X9" t="n">
-        <v>16.5</v>
+        <v>19</v>
       </c>
       <c r="Y9" t="n">
-        <v>13.5</v>
+        <v>24</v>
       </c>
       <c r="Z9" t="n">
-        <v>19</v>
+        <v>55</v>
       </c>
       <c r="AA9" t="n">
-        <v>42</v>
+        <v>180</v>
       </c>
       <c r="AB9" t="n">
-        <v>13</v>
+        <v>9.4</v>
       </c>
       <c r="AC9" t="n">
-        <v>8.199999999999999</v>
+        <v>10</v>
       </c>
       <c r="AD9" t="n">
-        <v>12.5</v>
+        <v>25</v>
       </c>
       <c r="AE9" t="n">
-        <v>28</v>
+        <v>90</v>
       </c>
       <c r="AF9" t="n">
-        <v>18.5</v>
+        <v>9.6</v>
       </c>
       <c r="AG9" t="n">
-        <v>12</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AH9" t="n">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="AI9" t="n">
-        <v>36</v>
+        <v>80</v>
       </c>
       <c r="AJ9" t="n">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="AK9" t="n">
-        <v>28</v>
+        <v>15.5</v>
       </c>
       <c r="AL9" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="AM9" t="n">
-        <v>75</v>
+        <v>110</v>
       </c>
       <c r="AN9" t="n">
-        <v>20</v>
+        <v>7.6</v>
       </c>
       <c r="AO9" t="n">
-        <v>20</v>
+        <v>95</v>
       </c>
     </row>
     <row r="10">
@@ -1738,121 +1738,121 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Malmo FF</t>
+          <t>Feyenoord</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Crvena Zvezda</t>
+          <t>Sturm Graz</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>3.85</v>
+        <v>1.45</v>
       </c>
       <c r="G10" t="n">
-        <v>4</v>
+        <v>1.47</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>7.4</v>
       </c>
       <c r="I10" t="n">
-        <v>2.02</v>
+        <v>8</v>
       </c>
       <c r="J10" t="n">
-        <v>3.95</v>
+        <v>5.3</v>
       </c>
       <c r="K10" t="n">
-        <v>4.1</v>
+        <v>5.7</v>
       </c>
       <c r="L10" t="n">
-        <v>1.36</v>
+        <v>1.26</v>
       </c>
       <c r="M10" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="N10" t="n">
-        <v>4.4</v>
+        <v>6.6</v>
       </c>
       <c r="O10" t="n">
-        <v>1.27</v>
+        <v>1.16</v>
       </c>
       <c r="P10" t="n">
-        <v>2.16</v>
+        <v>2.88</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.79</v>
+        <v>1.49</v>
       </c>
       <c r="R10" t="n">
-        <v>1.45</v>
+        <v>1.76</v>
       </c>
       <c r="S10" t="n">
-        <v>3</v>
+        <v>2.24</v>
       </c>
       <c r="T10" t="n">
-        <v>1.72</v>
+        <v>1.71</v>
       </c>
       <c r="U10" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="V10" t="n">
-        <v>1.98</v>
+        <v>1.14</v>
       </c>
       <c r="W10" t="n">
-        <v>1.33</v>
+        <v>3.1</v>
       </c>
       <c r="X10" t="n">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="Y10" t="n">
+        <v>38</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>85</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>13</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>13</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>44</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>95</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AG10" t="n">
         <v>11</v>
       </c>
-      <c r="Z10" t="n">
-        <v>13</v>
-      </c>
-      <c r="AA10" t="n">
-        <v>24</v>
-      </c>
-      <c r="AB10" t="n">
-        <v>17</v>
-      </c>
-      <c r="AC10" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="AD10" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AE10" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AF10" t="n">
-        <v>30</v>
-      </c>
-      <c r="AG10" t="n">
-        <v>16</v>
-      </c>
       <c r="AH10" t="n">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="AI10" t="n">
-        <v>32</v>
+        <v>75</v>
       </c>
       <c r="AJ10" t="n">
-        <v>75</v>
+        <v>14</v>
       </c>
       <c r="AK10" t="n">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="AL10" t="n">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="AM10" t="n">
         <v>80</v>
       </c>
       <c r="AN10" t="n">
-        <v>40</v>
+        <v>4.8</v>
       </c>
       <c r="AO10" t="n">
-        <v>13</v>
+        <v>85</v>
       </c>
     </row>
     <row r="11">
@@ -1873,121 +1873,121 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Plzen</t>
+          <t>Malmo FF</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Porto</t>
+          <t>Crvena Zvezda</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>4.3</v>
+        <v>3.85</v>
       </c>
       <c r="G11" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="H11" t="n">
         <v>2</v>
       </c>
       <c r="I11" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="J11" t="n">
-        <v>3.55</v>
+        <v>3.95</v>
       </c>
       <c r="K11" t="n">
-        <v>3.65</v>
+        <v>4.1</v>
       </c>
       <c r="L11" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N11" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="P11" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="R11" t="n">
         <v>1.45</v>
       </c>
-      <c r="M11" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N11" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="O11" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="P11" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="R11" t="n">
-        <v>1.29</v>
-      </c>
       <c r="S11" t="n">
-        <v>4.1</v>
+        <v>3</v>
       </c>
       <c r="T11" t="n">
-        <v>1.93</v>
+        <v>1.72</v>
       </c>
       <c r="U11" t="n">
-        <v>1.96</v>
+        <v>2.3</v>
       </c>
       <c r="V11" t="n">
-        <v>1.96</v>
+        <v>1.98</v>
       </c>
       <c r="W11" t="n">
-        <v>1.28</v>
+        <v>1.33</v>
       </c>
       <c r="X11" t="n">
-        <v>12.5</v>
+        <v>18</v>
       </c>
       <c r="Y11" t="n">
-        <v>8.199999999999999</v>
+        <v>11</v>
       </c>
       <c r="Z11" t="n">
-        <v>11.5</v>
+        <v>13</v>
       </c>
       <c r="AA11" t="n">
         <v>24</v>
       </c>
       <c r="AB11" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="AC11" t="n">
-        <v>7.8</v>
+        <v>8.6</v>
       </c>
       <c r="AD11" t="n">
         <v>10.5</v>
       </c>
       <c r="AE11" t="n">
-        <v>24</v>
+        <v>19.5</v>
       </c>
       <c r="AF11" t="n">
         <v>30</v>
       </c>
       <c r="AG11" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AH11" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AI11" t="n">
+        <v>32</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>75</v>
+      </c>
+      <c r="AK11" t="n">
         <v>44</v>
       </c>
-      <c r="AJ11" t="n">
-        <v>100</v>
-      </c>
-      <c r="AK11" t="n">
-        <v>65</v>
-      </c>
       <c r="AL11" t="n">
+        <v>50</v>
+      </c>
+      <c r="AM11" t="n">
         <v>80</v>
       </c>
-      <c r="AM11" t="n">
-        <v>130</v>
-      </c>
       <c r="AN11" t="n">
-        <v>75</v>
+        <v>40</v>
       </c>
       <c r="AO11" t="n">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12">
@@ -2008,121 +2008,121 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Bologna</t>
+          <t>PAOK</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Celtic</t>
+          <t>Betis</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1.6</v>
+        <v>2.7</v>
       </c>
       <c r="G12" t="n">
-        <v>1.61</v>
+        <v>2.74</v>
       </c>
       <c r="H12" t="n">
-        <v>6.4</v>
+        <v>2.74</v>
       </c>
       <c r="I12" t="n">
-        <v>6.6</v>
+        <v>2.78</v>
       </c>
       <c r="J12" t="n">
-        <v>4.5</v>
+        <v>3.65</v>
       </c>
       <c r="K12" t="n">
-        <v>4.6</v>
+        <v>3.75</v>
       </c>
       <c r="L12" t="n">
-        <v>1.34</v>
+        <v>1.36</v>
       </c>
       <c r="M12" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N12" t="n">
-        <v>4.6</v>
+        <v>4.4</v>
       </c>
       <c r="O12" t="n">
-        <v>1.25</v>
+        <v>1.27</v>
       </c>
       <c r="P12" t="n">
-        <v>2.22</v>
+        <v>2.16</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="R12" t="n">
-        <v>1.48</v>
+        <v>1.45</v>
       </c>
       <c r="S12" t="n">
-        <v>2.96</v>
+        <v>3</v>
       </c>
       <c r="T12" t="n">
-        <v>1.87</v>
+        <v>1.67</v>
       </c>
       <c r="U12" t="n">
-        <v>2.06</v>
+        <v>2.38</v>
       </c>
       <c r="V12" t="n">
-        <v>1.18</v>
+        <v>1.56</v>
       </c>
       <c r="W12" t="n">
-        <v>2.64</v>
+        <v>1.57</v>
       </c>
       <c r="X12" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="Z12" t="n">
         <v>19</v>
       </c>
-      <c r="Y12" t="n">
-        <v>24</v>
-      </c>
-      <c r="Z12" t="n">
-        <v>55</v>
-      </c>
       <c r="AA12" t="n">
-        <v>180</v>
+        <v>42</v>
       </c>
       <c r="AB12" t="n">
-        <v>9.4</v>
+        <v>13</v>
       </c>
       <c r="AC12" t="n">
-        <v>10</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD12" t="n">
-        <v>25</v>
+        <v>12.5</v>
       </c>
       <c r="AE12" t="n">
-        <v>90</v>
+        <v>28</v>
       </c>
       <c r="AF12" t="n">
-        <v>9.6</v>
+        <v>18.5</v>
       </c>
       <c r="AG12" t="n">
-        <v>9.800000000000001</v>
+        <v>12</v>
       </c>
       <c r="AH12" t="n">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="AI12" t="n">
-        <v>80</v>
+        <v>36</v>
       </c>
       <c r="AJ12" t="n">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="AK12" t="n">
-        <v>15.5</v>
+        <v>28</v>
       </c>
       <c r="AL12" t="n">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="AM12" t="n">
-        <v>110</v>
+        <v>75</v>
       </c>
       <c r="AN12" t="n">
-        <v>7.6</v>
+        <v>21</v>
       </c>
       <c r="AO12" t="n">
-        <v>95</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13">
@@ -2143,121 +2143,121 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Fenerbahce</t>
+          <t>Brann</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Aston Villa</t>
+          <t>Midtjylland</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2.74</v>
+        <v>3.25</v>
       </c>
       <c r="G13" t="n">
-        <v>2.78</v>
+        <v>3.4</v>
       </c>
       <c r="H13" t="n">
-        <v>2.72</v>
+        <v>2.26</v>
       </c>
       <c r="I13" t="n">
-        <v>2.8</v>
+        <v>2.32</v>
       </c>
       <c r="J13" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="K13" t="n">
-        <v>3.7</v>
+        <v>3.85</v>
       </c>
       <c r="L13" t="n">
-        <v>1.36</v>
+        <v>1.34</v>
       </c>
       <c r="M13" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N13" t="n">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="O13" t="n">
-        <v>1.26</v>
+        <v>1.24</v>
       </c>
       <c r="P13" t="n">
-        <v>2.18</v>
+        <v>2.26</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.8</v>
+        <v>1.74</v>
       </c>
       <c r="R13" t="n">
-        <v>1.46</v>
+        <v>1.5</v>
       </c>
       <c r="S13" t="n">
-        <v>3</v>
+        <v>2.84</v>
       </c>
       <c r="T13" t="n">
-        <v>1.65</v>
+        <v>1.64</v>
       </c>
       <c r="U13" t="n">
         <v>2.4</v>
       </c>
       <c r="V13" t="n">
-        <v>1.55</v>
+        <v>1.75</v>
       </c>
       <c r="W13" t="n">
-        <v>1.56</v>
+        <v>1.41</v>
       </c>
       <c r="X13" t="n">
-        <v>17.5</v>
+        <v>20</v>
       </c>
       <c r="Y13" t="n">
         <v>13.5</v>
       </c>
       <c r="Z13" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AA13" t="n">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="AB13" t="n">
-        <v>13.5</v>
+        <v>16.5</v>
       </c>
       <c r="AC13" t="n">
-        <v>8.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="AD13" t="n">
         <v>12</v>
       </c>
       <c r="AE13" t="n">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="AF13" t="n">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="AG13" t="n">
-        <v>12.5</v>
+        <v>15</v>
       </c>
       <c r="AH13" t="n">
-        <v>15.5</v>
+        <v>16.5</v>
       </c>
       <c r="AI13" t="n">
+        <v>34</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>60</v>
+      </c>
+      <c r="AK13" t="n">
         <v>36</v>
       </c>
-      <c r="AJ13" t="n">
+      <c r="AL13" t="n">
         <v>42</v>
-      </c>
-      <c r="AK13" t="n">
-        <v>28</v>
-      </c>
-      <c r="AL13" t="n">
-        <v>36</v>
       </c>
       <c r="AM13" t="n">
         <v>75</v>
       </c>
       <c r="AN13" t="n">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="AO13" t="n">
-        <v>21</v>
+        <v>14.5</v>
       </c>
     </row>
     <row r="14">
@@ -2278,121 +2278,121 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Young Boys</t>
+          <t>Freiburg</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Lyon</t>
+          <t>Maccabi Tel Aviv</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>4.6</v>
+        <v>1.2</v>
       </c>
       <c r="G14" t="n">
-        <v>4.9</v>
+        <v>1.21</v>
       </c>
       <c r="H14" t="n">
-        <v>1.77</v>
+        <v>17.5</v>
       </c>
       <c r="I14" t="n">
-        <v>1.81</v>
+        <v>21</v>
       </c>
       <c r="J14" t="n">
-        <v>4.1</v>
+        <v>8</v>
       </c>
       <c r="K14" t="n">
-        <v>4.5</v>
+        <v>9</v>
       </c>
       <c r="L14" t="n">
-        <v>1.32</v>
+        <v>1.27</v>
       </c>
       <c r="M14" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N14" t="n">
-        <v>5.1</v>
+        <v>6</v>
       </c>
       <c r="O14" t="n">
-        <v>1.22</v>
+        <v>1.18</v>
       </c>
       <c r="P14" t="n">
-        <v>2.38</v>
+        <v>2.68</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.68</v>
+        <v>1.55</v>
       </c>
       <c r="R14" t="n">
-        <v>1.54</v>
+        <v>1.66</v>
       </c>
       <c r="S14" t="n">
-        <v>2.72</v>
+        <v>2.4</v>
       </c>
       <c r="T14" t="n">
-        <v>1.66</v>
+        <v>2.46</v>
       </c>
       <c r="U14" t="n">
-        <v>2.34</v>
+        <v>1.62</v>
       </c>
       <c r="V14" t="n">
-        <v>2.22</v>
+        <v>1.05</v>
       </c>
       <c r="W14" t="n">
-        <v>1.26</v>
+        <v>5.6</v>
       </c>
       <c r="X14" t="n">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="Y14" t="n">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="Z14" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>25</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>75</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>470</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AG14" t="n">
         <v>13.5</v>
       </c>
-      <c r="AA14" t="n">
-        <v>21</v>
-      </c>
-      <c r="AB14" t="n">
-        <v>22</v>
-      </c>
-      <c r="AC14" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AD14" t="n">
-        <v>11</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>40</v>
-      </c>
-      <c r="AG14" t="n">
-        <v>19.5</v>
-      </c>
       <c r="AH14" t="n">
-        <v>18</v>
+        <v>250</v>
       </c>
       <c r="AI14" t="n">
-        <v>30</v>
+        <v>310</v>
       </c>
       <c r="AJ14" t="n">
-        <v>120</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AK14" t="n">
-        <v>55</v>
+        <v>15.5</v>
       </c>
       <c r="AL14" t="n">
-        <v>55</v>
+        <v>420</v>
       </c>
       <c r="AM14" t="n">
-        <v>85</v>
+        <v>360</v>
       </c>
       <c r="AN14" t="n">
-        <v>48</v>
+        <v>3.65</v>
       </c>
       <c r="AO14" t="n">
-        <v>9</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="15">
@@ -2413,121 +2413,121 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Feyenoord</t>
+          <t>Plzen</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Sturm Graz</t>
+          <t>Porto</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1.46</v>
+        <v>4.3</v>
       </c>
       <c r="G15" t="n">
-        <v>1.47</v>
+        <v>4.5</v>
       </c>
       <c r="H15" t="n">
-        <v>7.4</v>
+        <v>2</v>
       </c>
       <c r="I15" t="n">
-        <v>8</v>
+        <v>2.04</v>
       </c>
       <c r="J15" t="n">
-        <v>5.3</v>
+        <v>3.55</v>
       </c>
       <c r="K15" t="n">
-        <v>5.7</v>
+        <v>3.65</v>
       </c>
       <c r="L15" t="n">
-        <v>1.26</v>
+        <v>1.45</v>
       </c>
       <c r="M15" t="n">
-        <v>1.03</v>
+        <v>1.08</v>
       </c>
       <c r="N15" t="n">
-        <v>6.6</v>
+        <v>3.4</v>
       </c>
       <c r="O15" t="n">
-        <v>1.16</v>
+        <v>1.39</v>
       </c>
       <c r="P15" t="n">
-        <v>2.88</v>
+        <v>1.79</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.5</v>
+        <v>2.2</v>
       </c>
       <c r="R15" t="n">
-        <v>1.76</v>
+        <v>1.29</v>
       </c>
       <c r="S15" t="n">
-        <v>2.24</v>
+        <v>4</v>
       </c>
       <c r="T15" t="n">
-        <v>1.71</v>
+        <v>1.97</v>
       </c>
       <c r="U15" t="n">
-        <v>2.32</v>
+        <v>1.96</v>
       </c>
       <c r="V15" t="n">
-        <v>1.14</v>
+        <v>1.96</v>
       </c>
       <c r="W15" t="n">
-        <v>3.1</v>
+        <v>1.28</v>
       </c>
       <c r="X15" t="n">
-        <v>32</v>
+        <v>12.5</v>
       </c>
       <c r="Y15" t="n">
-        <v>38</v>
+        <v>8.4</v>
       </c>
       <c r="Z15" t="n">
-        <v>85</v>
+        <v>11.5</v>
       </c>
       <c r="AA15" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AB15" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AC15" t="n">
-        <v>13</v>
+        <v>7.8</v>
       </c>
       <c r="AD15" t="n">
-        <v>42</v>
+        <v>10.5</v>
       </c>
       <c r="AE15" t="n">
-        <v>95</v>
+        <v>24</v>
       </c>
       <c r="AF15" t="n">
-        <v>11.5</v>
+        <v>30</v>
       </c>
       <c r="AG15" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="AH15" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AI15" t="n">
+        <v>44</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>100</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>65</v>
+      </c>
+      <c r="AL15" t="n">
         <v>80</v>
       </c>
-      <c r="AJ15" t="n">
-        <v>14</v>
-      </c>
-      <c r="AK15" t="n">
-        <v>14</v>
-      </c>
-      <c r="AL15" t="n">
-        <v>26</v>
-      </c>
       <c r="AM15" t="n">
-        <v>80</v>
+        <v>130</v>
       </c>
       <c r="AN15" t="n">
-        <v>4.8</v>
+        <v>75</v>
       </c>
       <c r="AO15" t="n">
-        <v>85</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16">
@@ -2563,10 +2563,10 @@
         <v>4.5</v>
       </c>
       <c r="H16" t="n">
-        <v>2.28</v>
+        <v>2.32</v>
       </c>
       <c r="I16" t="n">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="J16" t="n">
         <v>2.78</v>
@@ -2602,10 +2602,10 @@
         <v>2.42</v>
       </c>
       <c r="U16" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="V16" t="n">
-        <v>1.68</v>
+        <v>1.67</v>
       </c>
       <c r="W16" t="n">
         <v>1.29</v>
@@ -2668,7 +2668,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>UEFA Europa League</t>
+          <t>Argentinian Primera Division</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -2683,121 +2683,121 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Red Bull Salzburg</t>
+          <t>Aldosivi</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>FC Basel</t>
+          <t>Defensa y Justicia</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>2.46</v>
+        <v>2.68</v>
       </c>
       <c r="G17" t="n">
-        <v>2.56</v>
+        <v>2.84</v>
       </c>
       <c r="H17" t="n">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="I17" t="n">
-        <v>2.92</v>
+        <v>3.4</v>
       </c>
       <c r="J17" t="n">
-        <v>3.9</v>
+        <v>2.94</v>
       </c>
       <c r="K17" t="n">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="L17" t="n">
-        <v>1.3</v>
+        <v>1.01</v>
       </c>
       <c r="M17" t="n">
-        <v>1.04</v>
+        <v>1.1</v>
       </c>
       <c r="N17" t="n">
-        <v>5.5</v>
+        <v>2.62</v>
       </c>
       <c r="O17" t="n">
-        <v>1.2</v>
+        <v>1.55</v>
       </c>
       <c r="P17" t="n">
-        <v>2.5</v>
+        <v>1.55</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.62</v>
+        <v>2.62</v>
       </c>
       <c r="R17" t="n">
-        <v>1.6</v>
+        <v>1.19</v>
       </c>
       <c r="S17" t="n">
-        <v>2.56</v>
+        <v>5.3</v>
       </c>
       <c r="T17" t="n">
-        <v>1.56</v>
+        <v>2.08</v>
       </c>
       <c r="U17" t="n">
-        <v>2.64</v>
+        <v>1.8</v>
       </c>
       <c r="V17" t="n">
-        <v>1.52</v>
+        <v>1.41</v>
       </c>
       <c r="W17" t="n">
-        <v>1.64</v>
+        <v>1.54</v>
       </c>
       <c r="X17" t="n">
-        <v>22</v>
+        <v>10.5</v>
       </c>
       <c r="Y17" t="n">
-        <v>17.5</v>
+        <v>9.4</v>
       </c>
       <c r="Z17" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AA17" t="n">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="AB17" t="n">
-        <v>15.5</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AC17" t="n">
-        <v>9.4</v>
+        <v>7.2</v>
       </c>
       <c r="AD17" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AE17" t="n">
-        <v>28</v>
+        <v>65</v>
       </c>
       <c r="AF17" t="n">
-        <v>19.5</v>
+        <v>970</v>
       </c>
       <c r="AG17" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="AH17" t="n">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="AI17" t="n">
-        <v>32</v>
+        <v>75</v>
       </c>
       <c r="AJ17" t="n">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="AK17" t="n">
-        <v>23</v>
+        <v>50</v>
       </c>
       <c r="AL17" t="n">
-        <v>29</v>
+        <v>70</v>
       </c>
       <c r="AM17" t="n">
-        <v>60</v>
+        <v>220</v>
       </c>
       <c r="AN17" t="n">
-        <v>14</v>
+        <v>970</v>
       </c>
       <c r="AO17" t="n">
-        <v>17.5</v>
+        <v>65</v>
       </c>
     </row>
     <row r="18">
@@ -2818,121 +2818,121 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Dinamo Zagreb</t>
+          <t>Rangers</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>FCSB</t>
+          <t>Ludogorets</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1.65</v>
+        <v>1.96</v>
       </c>
       <c r="G18" t="n">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="H18" t="n">
-        <v>5.9</v>
+        <v>4.1</v>
       </c>
       <c r="I18" t="n">
-        <v>6.2</v>
+        <v>4.3</v>
       </c>
       <c r="J18" t="n">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="K18" t="n">
-        <v>4.3</v>
+        <v>3.95</v>
       </c>
       <c r="L18" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="M18" t="n">
         <v>1.06</v>
       </c>
       <c r="N18" t="n">
-        <v>3.9</v>
+        <v>4.2</v>
       </c>
       <c r="O18" t="n">
-        <v>1.32</v>
+        <v>1.28</v>
       </c>
       <c r="P18" t="n">
-        <v>1.98</v>
+        <v>2.1</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="R18" t="n">
-        <v>1.37</v>
+        <v>1.43</v>
       </c>
       <c r="S18" t="n">
-        <v>3.5</v>
+        <v>3.15</v>
       </c>
       <c r="T18" t="n">
-        <v>1.98</v>
+        <v>1.75</v>
       </c>
       <c r="U18" t="n">
-        <v>1.96</v>
+        <v>2.18</v>
       </c>
       <c r="V18" t="n">
-        <v>1.19</v>
+        <v>1.31</v>
       </c>
       <c r="W18" t="n">
-        <v>2.48</v>
+        <v>2</v>
       </c>
       <c r="X18" t="n">
-        <v>15.5</v>
+        <v>20</v>
       </c>
       <c r="Y18" t="n">
-        <v>19.5</v>
+        <v>16.5</v>
       </c>
       <c r="Z18" t="n">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="AA18" t="n">
-        <v>170</v>
+        <v>85</v>
       </c>
       <c r="AB18" t="n">
-        <v>8.6</v>
+        <v>10.5</v>
       </c>
       <c r="AC18" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="AD18" t="n">
+        <v>17</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>55</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>13</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>18</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>55</v>
+      </c>
+      <c r="AJ18" t="n">
         <v>23</v>
       </c>
-      <c r="AE18" t="n">
+      <c r="AK18" t="n">
+        <v>20</v>
+      </c>
+      <c r="AL18" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM18" t="n">
         <v>90</v>
       </c>
-      <c r="AF18" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="AG18" t="n">
-        <v>10</v>
-      </c>
-      <c r="AH18" t="n">
-        <v>22</v>
-      </c>
-      <c r="AI18" t="n">
-        <v>90</v>
-      </c>
-      <c r="AJ18" t="n">
-        <v>16</v>
-      </c>
-      <c r="AK18" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AL18" t="n">
-        <v>38</v>
-      </c>
-      <c r="AM18" t="n">
-        <v>130</v>
-      </c>
       <c r="AN18" t="n">
-        <v>10.5</v>
+        <v>12.5</v>
       </c>
       <c r="AO18" t="n">
-        <v>110</v>
+        <v>970</v>
       </c>
     </row>
     <row r="19">
@@ -2953,31 +2953,31 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Braga</t>
+          <t>Celta Vigo</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Nottm Forest</t>
+          <t>Lille</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>2.82</v>
+        <v>2.5</v>
       </c>
       <c r="G19" t="n">
-        <v>2.86</v>
+        <v>2.54</v>
       </c>
       <c r="H19" t="n">
-        <v>2.78</v>
+        <v>3.1</v>
       </c>
       <c r="I19" t="n">
-        <v>2.82</v>
+        <v>3.2</v>
       </c>
       <c r="J19" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="K19" t="n">
-        <v>3.45</v>
+        <v>3.55</v>
       </c>
       <c r="L19" t="n">
         <v>1.41</v>
@@ -2986,88 +2986,88 @@
         <v>1.07</v>
       </c>
       <c r="N19" t="n">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="O19" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="P19" t="n">
-        <v>1.92</v>
+        <v>1.99</v>
       </c>
       <c r="Q19" t="n">
-        <v>2.02</v>
+        <v>1.97</v>
       </c>
       <c r="R19" t="n">
-        <v>1.36</v>
+        <v>1.38</v>
       </c>
       <c r="S19" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="T19" t="n">
-        <v>1.77</v>
+        <v>1.75</v>
       </c>
       <c r="U19" t="n">
-        <v>2.16</v>
+        <v>2.26</v>
       </c>
       <c r="V19" t="n">
-        <v>1.55</v>
+        <v>1.45</v>
       </c>
       <c r="W19" t="n">
-        <v>1.53</v>
+        <v>1.65</v>
       </c>
       <c r="X19" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="Y19" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>55</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>11</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>13</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>34</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>16</v>
+      </c>
+      <c r="AG19" t="n">
         <v>11.5</v>
       </c>
-      <c r="Z19" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AA19" t="n">
-        <v>42</v>
-      </c>
-      <c r="AB19" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AC19" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AD19" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AE19" t="n">
-        <v>30</v>
-      </c>
-      <c r="AF19" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AG19" t="n">
-        <v>12.5</v>
-      </c>
       <c r="AH19" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="AI19" t="n">
         <v>44</v>
       </c>
       <c r="AJ19" t="n">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="AK19" t="n">
+        <v>26</v>
+      </c>
+      <c r="AL19" t="n">
+        <v>38</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>90</v>
+      </c>
+      <c r="AN19" t="n">
+        <v>21</v>
+      </c>
+      <c r="AO19" t="n">
         <v>32</v>
-      </c>
-      <c r="AL19" t="n">
-        <v>44</v>
-      </c>
-      <c r="AM19" t="n">
-        <v>95</v>
-      </c>
-      <c r="AN19" t="n">
-        <v>28</v>
-      </c>
-      <c r="AO19" t="n">
-        <v>26</v>
       </c>
     </row>
     <row r="20">
@@ -3088,121 +3088,121 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Roma</t>
+          <t>FC Utrecht</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Stuttgart</t>
+          <t>Genk</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>2.06</v>
+        <v>2.82</v>
       </c>
       <c r="G20" t="n">
-        <v>2.1</v>
+        <v>2.92</v>
       </c>
       <c r="H20" t="n">
-        <v>3.8</v>
+        <v>2.62</v>
       </c>
       <c r="I20" t="n">
-        <v>3.95</v>
+        <v>2.68</v>
       </c>
       <c r="J20" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="K20" t="n">
-        <v>3.85</v>
+        <v>3.65</v>
       </c>
       <c r="L20" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="M20" t="n">
         <v>1.06</v>
       </c>
       <c r="N20" t="n">
-        <v>4.5</v>
+        <v>4.1</v>
       </c>
       <c r="O20" t="n">
-        <v>1.27</v>
+        <v>1.3</v>
       </c>
       <c r="P20" t="n">
-        <v>2.16</v>
+        <v>2.04</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.81</v>
+        <v>1.89</v>
       </c>
       <c r="R20" t="n">
-        <v>1.46</v>
+        <v>1.41</v>
       </c>
       <c r="S20" t="n">
-        <v>3.05</v>
+        <v>3.25</v>
       </c>
       <c r="T20" t="n">
         <v>1.71</v>
       </c>
       <c r="U20" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="V20" t="n">
-        <v>1.34</v>
+        <v>1.59</v>
       </c>
       <c r="W20" t="n">
-        <v>1.9</v>
+        <v>1.52</v>
       </c>
       <c r="X20" t="n">
-        <v>17.5</v>
+        <v>16</v>
       </c>
       <c r="Y20" t="n">
-        <v>16</v>
+        <v>12.5</v>
       </c>
       <c r="Z20" t="n">
-        <v>28</v>
+        <v>18.5</v>
       </c>
       <c r="AA20" t="n">
-        <v>75</v>
+        <v>40</v>
       </c>
       <c r="AB20" t="n">
-        <v>11</v>
+        <v>12.5</v>
       </c>
       <c r="AC20" t="n">
-        <v>8.4</v>
+        <v>8</v>
       </c>
       <c r="AD20" t="n">
-        <v>15.5</v>
+        <v>12</v>
       </c>
       <c r="AE20" t="n">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="AF20" t="n">
-        <v>13.5</v>
+        <v>20</v>
       </c>
       <c r="AG20" t="n">
-        <v>10.5</v>
+        <v>13</v>
       </c>
       <c r="AH20" t="n">
         <v>16.5</v>
       </c>
       <c r="AI20" t="n">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="AJ20" t="n">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="AK20" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="AL20" t="n">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="AM20" t="n">
         <v>80</v>
       </c>
       <c r="AN20" t="n">
-        <v>12.5</v>
+        <v>24</v>
       </c>
       <c r="AO20" t="n">
-        <v>38</v>
+        <v>22</v>
       </c>
     </row>
     <row r="21">
@@ -3223,121 +3223,121 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Nice</t>
+          <t>Ferencvaros</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Go Ahead Eagles</t>
+          <t>Panathinaikos</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>1.9</v>
+        <v>2.38</v>
       </c>
       <c r="G21" t="n">
-        <v>1.95</v>
+        <v>2.46</v>
       </c>
       <c r="H21" t="n">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="I21" t="n">
-        <v>4.3</v>
+        <v>3.35</v>
       </c>
       <c r="J21" t="n">
-        <v>4</v>
+        <v>3.45</v>
       </c>
       <c r="K21" t="n">
-        <v>4.2</v>
+        <v>3.65</v>
       </c>
       <c r="L21" t="n">
-        <v>1.32</v>
+        <v>1.4</v>
       </c>
       <c r="M21" t="n">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="N21" t="n">
-        <v>5</v>
+        <v>3.95</v>
       </c>
       <c r="O21" t="n">
-        <v>1.22</v>
+        <v>1.31</v>
       </c>
       <c r="P21" t="n">
-        <v>2.36</v>
+        <v>1.98</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.69</v>
+        <v>1.94</v>
       </c>
       <c r="R21" t="n">
-        <v>1.53</v>
+        <v>1.37</v>
       </c>
       <c r="S21" t="n">
-        <v>2.74</v>
+        <v>3.35</v>
       </c>
       <c r="T21" t="n">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="U21" t="n">
-        <v>2.34</v>
+        <v>2.18</v>
       </c>
       <c r="V21" t="n">
-        <v>1.3</v>
+        <v>1.42</v>
       </c>
       <c r="W21" t="n">
-        <v>2.04</v>
+        <v>1.68</v>
       </c>
       <c r="X21" t="n">
-        <v>21</v>
+        <v>17.5</v>
       </c>
       <c r="Y21" t="n">
-        <v>20</v>
+        <v>13.5</v>
       </c>
       <c r="Z21" t="n">
-        <v>34</v>
+        <v>980</v>
       </c>
       <c r="AA21" t="n">
-        <v>85</v>
+        <v>55</v>
       </c>
       <c r="AB21" t="n">
+        <v>11</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>14</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>980</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AG21" t="n">
         <v>12</v>
       </c>
-      <c r="AC21" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="AD21" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AE21" t="n">
-        <v>46</v>
-      </c>
-      <c r="AF21" t="n">
-        <v>14</v>
-      </c>
-      <c r="AG21" t="n">
-        <v>11</v>
-      </c>
       <c r="AH21" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="AI21" t="n">
-        <v>46</v>
+        <v>980</v>
       </c>
       <c r="AJ21" t="n">
-        <v>22</v>
+        <v>980</v>
       </c>
       <c r="AK21" t="n">
-        <v>18</v>
+        <v>980</v>
       </c>
       <c r="AL21" t="n">
-        <v>28</v>
+        <v>980</v>
       </c>
       <c r="AM21" t="n">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="AN21" t="n">
-        <v>9.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="AO21" t="n">
-        <v>38</v>
+        <v>980</v>
       </c>
     </row>
     <row r="22">
@@ -3358,121 +3358,121 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>FC Utrecht</t>
+          <t>Nice</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Genk</t>
+          <t>Go Ahead Eagles</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>2.84</v>
+        <v>1.89</v>
       </c>
       <c r="G22" t="n">
-        <v>2.92</v>
+        <v>1.96</v>
       </c>
       <c r="H22" t="n">
-        <v>2.62</v>
+        <v>4</v>
       </c>
       <c r="I22" t="n">
-        <v>2.68</v>
+        <v>4.3</v>
       </c>
       <c r="J22" t="n">
-        <v>3.55</v>
+        <v>4</v>
       </c>
       <c r="K22" t="n">
-        <v>3.65</v>
+        <v>4.2</v>
       </c>
       <c r="L22" t="n">
-        <v>1.38</v>
+        <v>1.32</v>
       </c>
       <c r="M22" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="N22" t="n">
-        <v>4.1</v>
+        <v>5</v>
       </c>
       <c r="O22" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P22" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="R22" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="S22" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="T22" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="U22" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="V22" t="n">
         <v>1.3</v>
       </c>
-      <c r="P22" t="n">
+      <c r="W22" t="n">
         <v>2.04</v>
       </c>
-      <c r="Q22" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="R22" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="S22" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="T22" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="U22" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="V22" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="W22" t="n">
-        <v>1.52</v>
-      </c>
       <c r="X22" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="Y22" t="n">
-        <v>12.5</v>
+        <v>20</v>
       </c>
       <c r="Z22" t="n">
-        <v>18.5</v>
+        <v>34</v>
       </c>
       <c r="AA22" t="n">
-        <v>40</v>
+        <v>85</v>
       </c>
       <c r="AB22" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AC22" t="n">
-        <v>8</v>
+        <v>9.4</v>
       </c>
       <c r="AD22" t="n">
-        <v>12</v>
+        <v>17.5</v>
       </c>
       <c r="AE22" t="n">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="AF22" t="n">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="AG22" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AH22" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AI22" t="n">
+        <v>46</v>
+      </c>
+      <c r="AJ22" t="n">
+        <v>22</v>
+      </c>
+      <c r="AK22" t="n">
+        <v>18</v>
+      </c>
+      <c r="AL22" t="n">
+        <v>28</v>
+      </c>
+      <c r="AM22" t="n">
+        <v>75</v>
+      </c>
+      <c r="AN22" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AO22" t="n">
         <v>38</v>
-      </c>
-      <c r="AJ22" t="n">
-        <v>44</v>
-      </c>
-      <c r="AK22" t="n">
-        <v>30</v>
-      </c>
-      <c r="AL22" t="n">
-        <v>40</v>
-      </c>
-      <c r="AM22" t="n">
-        <v>80</v>
-      </c>
-      <c r="AN22" t="n">
-        <v>24</v>
-      </c>
-      <c r="AO22" t="n">
-        <v>22</v>
       </c>
     </row>
     <row r="23">
@@ -3493,121 +3493,121 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Celta Vigo</t>
+          <t>Roma</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Lille</t>
+          <t>Stuttgart</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>2.5</v>
+        <v>2.06</v>
       </c>
       <c r="G23" t="n">
-        <v>2.54</v>
+        <v>2.1</v>
       </c>
       <c r="H23" t="n">
-        <v>3.1</v>
+        <v>3.8</v>
       </c>
       <c r="I23" t="n">
-        <v>3.15</v>
+        <v>3.95</v>
       </c>
       <c r="J23" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="K23" t="n">
-        <v>3.55</v>
+        <v>3.85</v>
       </c>
       <c r="L23" t="n">
-        <v>1.41</v>
+        <v>1.37</v>
       </c>
       <c r="M23" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N23" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="O23" t="n">
-        <v>1.31</v>
+        <v>1.27</v>
       </c>
       <c r="P23" t="n">
-        <v>1.98</v>
+        <v>2.16</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.97</v>
+        <v>1.81</v>
       </c>
       <c r="R23" t="n">
-        <v>1.38</v>
+        <v>1.46</v>
       </c>
       <c r="S23" t="n">
-        <v>3.5</v>
+        <v>3.05</v>
       </c>
       <c r="T23" t="n">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="U23" t="n">
-        <v>2.26</v>
+        <v>2.32</v>
       </c>
       <c r="V23" t="n">
-        <v>1.46</v>
+        <v>1.34</v>
       </c>
       <c r="W23" t="n">
-        <v>1.65</v>
+        <v>1.9</v>
       </c>
       <c r="X23" t="n">
-        <v>14.5</v>
+        <v>17.5</v>
       </c>
       <c r="Y23" t="n">
-        <v>12.5</v>
+        <v>16</v>
       </c>
       <c r="Z23" t="n">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="AA23" t="n">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="AB23" t="n">
         <v>11</v>
       </c>
       <c r="AC23" t="n">
-        <v>7.8</v>
+        <v>8.4</v>
       </c>
       <c r="AD23" t="n">
-        <v>13</v>
+        <v>15.5</v>
       </c>
       <c r="AE23" t="n">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="AF23" t="n">
-        <v>16</v>
+        <v>13.5</v>
       </c>
       <c r="AG23" t="n">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="AH23" t="n">
         <v>16.5</v>
       </c>
       <c r="AI23" t="n">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="AJ23" t="n">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="AK23" t="n">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="AL23" t="n">
+        <v>32</v>
+      </c>
+      <c r="AM23" t="n">
+        <v>80</v>
+      </c>
+      <c r="AN23" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AO23" t="n">
         <v>38</v>
-      </c>
-      <c r="AM23" t="n">
-        <v>90</v>
-      </c>
-      <c r="AN23" t="n">
-        <v>21</v>
-      </c>
-      <c r="AO23" t="n">
-        <v>32</v>
       </c>
     </row>
     <row r="24">
@@ -3628,127 +3628,127 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Rangers</t>
+          <t>Braga</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Ludogorets</t>
+          <t>Nottm Forest</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>1.96</v>
+        <v>2.82</v>
       </c>
       <c r="G24" t="n">
-        <v>2</v>
+        <v>2.86</v>
       </c>
       <c r="H24" t="n">
-        <v>4.1</v>
+        <v>2.78</v>
       </c>
       <c r="I24" t="n">
-        <v>4.3</v>
+        <v>2.82</v>
       </c>
       <c r="J24" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="K24" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="L24" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="M24" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N24" t="n">
         <v>3.8</v>
       </c>
-      <c r="K24" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="L24" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="M24" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N24" t="n">
-        <v>4.2</v>
-      </c>
       <c r="O24" t="n">
-        <v>1.28</v>
+        <v>1.33</v>
       </c>
       <c r="P24" t="n">
-        <v>2.1</v>
+        <v>1.93</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.84</v>
+        <v>2.02</v>
       </c>
       <c r="R24" t="n">
-        <v>1.43</v>
+        <v>1.36</v>
       </c>
       <c r="S24" t="n">
-        <v>3.15</v>
+        <v>3.6</v>
       </c>
       <c r="T24" t="n">
-        <v>1.75</v>
+        <v>1.77</v>
       </c>
       <c r="U24" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="V24" t="n">
-        <v>1.31</v>
+        <v>1.55</v>
       </c>
       <c r="W24" t="n">
-        <v>2</v>
+        <v>1.53</v>
       </c>
       <c r="X24" t="n">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="Y24" t="n">
-        <v>16.5</v>
+        <v>11.5</v>
       </c>
       <c r="Z24" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>42</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>30</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AG24" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AH24" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AI24" t="n">
+        <v>44</v>
+      </c>
+      <c r="AJ24" t="n">
+        <v>44</v>
+      </c>
+      <c r="AK24" t="n">
         <v>32</v>
       </c>
-      <c r="AA24" t="n">
-        <v>85</v>
-      </c>
-      <c r="AB24" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AC24" t="n">
-        <v>9</v>
-      </c>
-      <c r="AD24" t="n">
-        <v>17</v>
-      </c>
-      <c r="AE24" t="n">
-        <v>55</v>
-      </c>
-      <c r="AF24" t="n">
-        <v>13</v>
-      </c>
-      <c r="AG24" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH24" t="n">
-        <v>18</v>
-      </c>
-      <c r="AI24" t="n">
-        <v>55</v>
-      </c>
-      <c r="AJ24" t="n">
-        <v>23</v>
-      </c>
-      <c r="AK24" t="n">
-        <v>20</v>
-      </c>
       <c r="AL24" t="n">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="AM24" t="n">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="AN24" t="n">
-        <v>12.5</v>
+        <v>27</v>
       </c>
       <c r="AO24" t="n">
-        <v>55</v>
+        <v>26</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Argentinian Primera Division</t>
+          <t>UEFA Europa League</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -3763,121 +3763,121 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Aldosivi</t>
+          <t>Dinamo Zagreb</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Defensa y Justicia</t>
+          <t>FCSB</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>2.68</v>
+        <v>1.66</v>
       </c>
       <c r="G25" t="n">
-        <v>2.84</v>
+        <v>1.67</v>
       </c>
       <c r="H25" t="n">
-        <v>3.1</v>
+        <v>5.9</v>
       </c>
       <c r="I25" t="n">
-        <v>3.4</v>
+        <v>6.2</v>
       </c>
       <c r="J25" t="n">
-        <v>2.94</v>
+        <v>4.2</v>
       </c>
       <c r="K25" t="n">
-        <v>3.2</v>
+        <v>4.3</v>
       </c>
       <c r="L25" t="n">
-        <v>1.01</v>
+        <v>1.4</v>
       </c>
       <c r="M25" t="n">
-        <v>1.1</v>
+        <v>1.06</v>
       </c>
       <c r="N25" t="n">
-        <v>2.62</v>
+        <v>3.9</v>
       </c>
       <c r="O25" t="n">
-        <v>1.55</v>
+        <v>1.31</v>
       </c>
       <c r="P25" t="n">
-        <v>1.55</v>
+        <v>1.98</v>
       </c>
       <c r="Q25" t="n">
-        <v>2.62</v>
+        <v>1.95</v>
       </c>
       <c r="R25" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="S25" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="T25" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="U25" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="V25" t="n">
         <v>1.19</v>
       </c>
-      <c r="S25" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="T25" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="U25" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="V25" t="n">
-        <v>1.41</v>
-      </c>
       <c r="W25" t="n">
-        <v>1.54</v>
+        <v>2.48</v>
       </c>
       <c r="X25" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>48</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>170</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>23</v>
+      </c>
+      <c r="AE25" t="n">
+        <v>90</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AG25" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH25" t="n">
+        <v>22</v>
+      </c>
+      <c r="AI25" t="n">
+        <v>90</v>
+      </c>
+      <c r="AJ25" t="n">
+        <v>16</v>
+      </c>
+      <c r="AK25" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AL25" t="n">
+        <v>38</v>
+      </c>
+      <c r="AM25" t="n">
+        <v>130</v>
+      </c>
+      <c r="AN25" t="n">
         <v>10.5</v>
       </c>
-      <c r="Y25" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="Z25" t="n">
-        <v>26</v>
-      </c>
-      <c r="AA25" t="n">
-        <v>65</v>
-      </c>
-      <c r="AB25" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AC25" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="AD25" t="n">
-        <v>15</v>
-      </c>
-      <c r="AE25" t="n">
-        <v>65</v>
-      </c>
-      <c r="AF25" t="n">
-        <v>970</v>
-      </c>
-      <c r="AG25" t="n">
-        <v>16</v>
-      </c>
-      <c r="AH25" t="n">
-        <v>27</v>
-      </c>
-      <c r="AI25" t="n">
-        <v>75</v>
-      </c>
-      <c r="AJ25" t="n">
-        <v>60</v>
-      </c>
-      <c r="AK25" t="n">
-        <v>50</v>
-      </c>
-      <c r="AL25" t="n">
-        <v>70</v>
-      </c>
-      <c r="AM25" t="n">
-        <v>220</v>
-      </c>
-      <c r="AN25" t="n">
-        <v>46</v>
-      </c>
       <c r="AO25" t="n">
-        <v>65</v>
+        <v>110</v>
       </c>
     </row>
     <row r="26">
@@ -3898,121 +3898,121 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Ferencvaros</t>
+          <t>Red Bull Salzburg</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Panathinaikos</t>
+          <t>FC Basel</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>2.38</v>
+        <v>2.46</v>
       </c>
       <c r="G26" t="n">
-        <v>2.46</v>
+        <v>2.56</v>
       </c>
       <c r="H26" t="n">
-        <v>3.25</v>
+        <v>2.8</v>
       </c>
       <c r="I26" t="n">
-        <v>3.35</v>
+        <v>2.94</v>
       </c>
       <c r="J26" t="n">
-        <v>3.45</v>
+        <v>3.9</v>
       </c>
       <c r="K26" t="n">
-        <v>3.65</v>
+        <v>4</v>
       </c>
       <c r="L26" t="n">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="M26" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="N26" t="n">
-        <v>3.95</v>
+        <v>5.5</v>
       </c>
       <c r="O26" t="n">
-        <v>1.31</v>
+        <v>1.2</v>
       </c>
       <c r="P26" t="n">
-        <v>1.98</v>
+        <v>2.5</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.94</v>
+        <v>1.62</v>
       </c>
       <c r="R26" t="n">
-        <v>1.37</v>
+        <v>1.6</v>
       </c>
       <c r="S26" t="n">
-        <v>3.35</v>
+        <v>2.56</v>
       </c>
       <c r="T26" t="n">
-        <v>1.72</v>
+        <v>1.56</v>
       </c>
       <c r="U26" t="n">
-        <v>2.18</v>
+        <v>2.64</v>
       </c>
       <c r="V26" t="n">
-        <v>1.42</v>
+        <v>1.51</v>
       </c>
       <c r="W26" t="n">
-        <v>1.68</v>
+        <v>1.64</v>
       </c>
       <c r="X26" t="n">
+        <v>22</v>
+      </c>
+      <c r="Y26" t="n">
         <v>17.5</v>
       </c>
-      <c r="Y26" t="n">
-        <v>13.5</v>
-      </c>
       <c r="Z26" t="n">
-        <v>980</v>
+        <v>23</v>
       </c>
       <c r="AA26" t="n">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="AB26" t="n">
-        <v>11</v>
+        <v>15.5</v>
       </c>
       <c r="AC26" t="n">
-        <v>8.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="AD26" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AE26" t="n">
-        <v>980</v>
+        <v>28</v>
       </c>
       <c r="AF26" t="n">
-        <v>16.5</v>
+        <v>19.5</v>
       </c>
       <c r="AG26" t="n">
         <v>12</v>
       </c>
       <c r="AH26" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AI26" t="n">
-        <v>980</v>
+        <v>32</v>
       </c>
       <c r="AJ26" t="n">
-        <v>980</v>
+        <v>36</v>
       </c>
       <c r="AK26" t="n">
-        <v>980</v>
+        <v>23</v>
       </c>
       <c r="AL26" t="n">
-        <v>980</v>
+        <v>29</v>
       </c>
       <c r="AM26" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="AN26" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AO26" t="n">
-        <v>980</v>
+        <v>17.5</v>
       </c>
     </row>
     <row r="27">
@@ -4042,22 +4042,22 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>2.6</v>
+        <v>2.72</v>
       </c>
       <c r="G27" t="n">
-        <v>2.86</v>
+        <v>2.98</v>
       </c>
       <c r="H27" t="n">
-        <v>3.35</v>
+        <v>3.2</v>
       </c>
       <c r="I27" t="n">
-        <v>3.65</v>
+        <v>3.55</v>
       </c>
       <c r="J27" t="n">
-        <v>2.74</v>
+        <v>2.72</v>
       </c>
       <c r="K27" t="n">
-        <v>2.94</v>
+        <v>2.98</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -4283,6 +4283,276 @@
       </c>
       <c r="AO28" t="n">
         <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Argentinian Primera Division</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>2026-01-22</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>22:15:00</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Instituto</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Velez Sarsfield</t>
+        </is>
+      </c>
+      <c r="F29" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="G29" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="H29" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="I29" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="J29" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="K29" t="n">
+        <v>3</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>0</v>
+      </c>
+      <c r="R29" t="n">
+        <v>0</v>
+      </c>
+      <c r="S29" t="n">
+        <v>0</v>
+      </c>
+      <c r="T29" t="n">
+        <v>0</v>
+      </c>
+      <c r="U29" t="n">
+        <v>0</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="n">
+        <v>0</v>
+      </c>
+      <c r="X29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO29" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Argentinian Primera Division</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>2026-01-22</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>22:15:00</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Central Cordoba (SdE)</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Gimnasia Mendoza</t>
+        </is>
+      </c>
+      <c r="F30" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="G30" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="H30" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="I30" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="J30" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="K30" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="L30" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M30" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N30" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="O30" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="P30" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="R30" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="S30" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="T30" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="U30" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="V30" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="W30" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="X30" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y30" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="Z30" t="n">
+        <v>46</v>
+      </c>
+      <c r="AA30" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB30" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AC30" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD30" t="n">
+        <v>29</v>
+      </c>
+      <c r="AE30" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF30" t="n">
+        <v>16</v>
+      </c>
+      <c r="AG30" t="n">
+        <v>17</v>
+      </c>
+      <c r="AH30" t="n">
+        <v>38</v>
+      </c>
+      <c r="AI30" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ30" t="n">
+        <v>44</v>
+      </c>
+      <c r="AK30" t="n">
+        <v>46</v>
+      </c>
+      <c r="AL30" t="n">
+        <v>95</v>
+      </c>
+      <c r="AM30" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN30" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO30" t="n">
+        <v>1000</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-22.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-22.xlsx
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.73</v>
+        <v>1.76</v>
       </c>
       <c r="G2" t="n">
         <v>2.18</v>
@@ -691,13 +691,13 @@
         <v>1.13</v>
       </c>
       <c r="N2" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="O2" t="n">
         <v>1.15</v>
       </c>
       <c r="P2" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="Q2" t="n">
         <v>2.74</v>
@@ -706,7 +706,7 @@
         <v>1.13</v>
       </c>
       <c r="S2" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="T2" t="n">
         <v>2.4</v>
@@ -802,58 +802,58 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>2.46</v>
+        <v>2.54</v>
       </c>
       <c r="G3" t="n">
-        <v>3.15</v>
+        <v>3.05</v>
       </c>
       <c r="H3" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="I3" t="n">
-        <v>4.3</v>
+        <v>4</v>
       </c>
       <c r="J3" t="n">
-        <v>2.24</v>
+        <v>2.64</v>
       </c>
       <c r="K3" t="n">
-        <v>3.05</v>
+        <v>2.94</v>
       </c>
       <c r="L3" t="n">
         <v>1.01</v>
       </c>
       <c r="M3" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="N3" t="n">
-        <v>1.43</v>
+        <v>2.28</v>
       </c>
       <c r="O3" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="P3" t="n">
-        <v>1.43</v>
+        <v>1.45</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.38</v>
+        <v>2.48</v>
       </c>
       <c r="R3" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="S3" t="n">
-        <v>4.4</v>
+        <v>4.7</v>
       </c>
       <c r="T3" t="n">
-        <v>2.12</v>
+        <v>2.18</v>
       </c>
       <c r="U3" t="n">
-        <v>1.76</v>
+        <v>1.73</v>
       </c>
       <c r="V3" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="W3" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="X3" t="n">
         <v>1000</v>
@@ -937,22 +937,22 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.57</v>
+        <v>1.54</v>
       </c>
       <c r="G4" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="H4" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="I4" t="n">
         <v>6.2</v>
       </c>
       <c r="J4" t="n">
-        <v>3.7</v>
+        <v>3.85</v>
       </c>
       <c r="K4" t="n">
-        <v>5.8</v>
+        <v>6.4</v>
       </c>
       <c r="L4" t="n">
         <v>1.01</v>
@@ -961,13 +961,13 @@
         <v>1.06</v>
       </c>
       <c r="N4" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="O4" t="n">
         <v>1.31</v>
       </c>
       <c r="P4" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="Q4" t="n">
         <v>1.84</v>
@@ -976,7 +976,7 @@
         <v>1.29</v>
       </c>
       <c r="S4" t="n">
-        <v>2.98</v>
+        <v>3</v>
       </c>
       <c r="T4" t="n">
         <v>1.73</v>
@@ -988,7 +988,7 @@
         <v>1.19</v>
       </c>
       <c r="W4" t="n">
-        <v>2.28</v>
+        <v>2.32</v>
       </c>
       <c r="X4" t="n">
         <v>1000</v>
@@ -1072,7 +1072,7 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="G5" t="n">
         <v>1.2</v>
@@ -1084,7 +1084,7 @@
         <v>20</v>
       </c>
       <c r="J5" t="n">
-        <v>8.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="K5" t="n">
         <v>10.5</v>
@@ -1096,10 +1096,10 @@
         <v>1.02</v>
       </c>
       <c r="N5" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="O5" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="P5" t="n">
         <v>3.05</v>
@@ -1117,13 +1117,13 @@
         <v>2</v>
       </c>
       <c r="U5" t="n">
-        <v>1.81</v>
+        <v>1.83</v>
       </c>
       <c r="V5" t="n">
         <v>1.05</v>
       </c>
       <c r="W5" t="n">
-        <v>6</v>
+        <v>5.7</v>
       </c>
       <c r="X5" t="n">
         <v>980</v>
@@ -1138,7 +1138,7 @@
         <v>1000</v>
       </c>
       <c r="AB5" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="AC5" t="n">
         <v>22</v>
@@ -1207,16 +1207,16 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.44</v>
+        <v>2.22</v>
       </c>
       <c r="G6" t="n">
-        <v>3</v>
+        <v>2.86</v>
       </c>
       <c r="H6" t="n">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="I6" t="n">
-        <v>3.15</v>
+        <v>3.3</v>
       </c>
       <c r="J6" t="n">
         <v>3.7</v>
@@ -1234,31 +1234,31 @@
         <v>2.72</v>
       </c>
       <c r="O6" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="P6" t="n">
         <v>2.72</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="R6" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="S6" t="n">
-        <v>2.16</v>
+        <v>1.47</v>
       </c>
       <c r="T6" t="n">
         <v>1.4</v>
       </c>
       <c r="U6" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="V6" t="n">
-        <v>1.47</v>
+        <v>1.43</v>
       </c>
       <c r="W6" t="n">
-        <v>1.5</v>
+        <v>1.54</v>
       </c>
       <c r="X6" t="n">
         <v>1000</v>
@@ -1348,7 +1348,7 @@
         <v>4.9</v>
       </c>
       <c r="H7" t="n">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
       <c r="I7" t="n">
         <v>1.81</v>
@@ -1357,7 +1357,7 @@
         <v>4.1</v>
       </c>
       <c r="K7" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="L7" t="n">
         <v>1.32</v>
@@ -1372,7 +1372,7 @@
         <v>1.22</v>
       </c>
       <c r="P7" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="Q7" t="n">
         <v>1.68</v>
@@ -1384,7 +1384,7 @@
         <v>2.72</v>
       </c>
       <c r="T7" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="U7" t="n">
         <v>2.34</v>
@@ -1405,7 +1405,7 @@
         <v>13.5</v>
       </c>
       <c r="AA7" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AB7" t="n">
         <v>22</v>
@@ -1417,7 +1417,7 @@
         <v>11</v>
       </c>
       <c r="AE7" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AF7" t="n">
         <v>40</v>
@@ -1477,19 +1477,19 @@
         </is>
       </c>
       <c r="F8" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="G8" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="H8" t="n">
         <v>2.7</v>
       </c>
-      <c r="G8" t="n">
+      <c r="I8" t="n">
         <v>2.74</v>
       </c>
-      <c r="H8" t="n">
-        <v>2.76</v>
-      </c>
-      <c r="I8" t="n">
-        <v>2.8</v>
-      </c>
       <c r="J8" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="K8" t="n">
         <v>3.7</v>
@@ -1498,22 +1498,22 @@
         <v>1.36</v>
       </c>
       <c r="M8" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N8" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="O8" t="n">
         <v>1.26</v>
       </c>
       <c r="P8" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="Q8" t="n">
         <v>1.8</v>
       </c>
       <c r="R8" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="S8" t="n">
         <v>3</v>
@@ -1522,13 +1522,13 @@
         <v>1.65</v>
       </c>
       <c r="U8" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="V8" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="W8" t="n">
-        <v>1.57</v>
+        <v>1.56</v>
       </c>
       <c r="X8" t="n">
         <v>17.5</v>
@@ -1540,7 +1540,7 @@
         <v>19</v>
       </c>
       <c r="AA8" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AB8" t="n">
         <v>13.5</v>
@@ -1567,22 +1567,22 @@
         <v>36</v>
       </c>
       <c r="AJ8" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AK8" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AL8" t="n">
         <v>36</v>
       </c>
       <c r="AM8" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AN8" t="n">
         <v>20</v>
       </c>
       <c r="AO8" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
     </row>
     <row r="9">
@@ -1618,7 +1618,7 @@
         <v>1.61</v>
       </c>
       <c r="H9" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="I9" t="n">
         <v>6.6</v>
@@ -1630,34 +1630,34 @@
         <v>4.6</v>
       </c>
       <c r="L9" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="M9" t="n">
         <v>1.05</v>
       </c>
       <c r="N9" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="O9" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="P9" t="n">
         <v>2.22</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
       <c r="R9" t="n">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="S9" t="n">
-        <v>2.96</v>
+        <v>2.98</v>
       </c>
       <c r="T9" t="n">
-        <v>1.88</v>
+        <v>1.89</v>
       </c>
       <c r="U9" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="V9" t="n">
         <v>1.18</v>
@@ -1666,7 +1666,7 @@
         <v>2.64</v>
       </c>
       <c r="X9" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Y9" t="n">
         <v>24</v>
@@ -1678,7 +1678,7 @@
         <v>180</v>
       </c>
       <c r="AB9" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AC9" t="n">
         <v>10</v>
@@ -1702,7 +1702,7 @@
         <v>80</v>
       </c>
       <c r="AJ9" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AK9" t="n">
         <v>15.5</v>
@@ -1753,16 +1753,16 @@
         <v>1.47</v>
       </c>
       <c r="H10" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="I10" t="n">
         <v>8</v>
       </c>
       <c r="J10" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="K10" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="L10" t="n">
         <v>1.26</v>
@@ -1777,10 +1777,10 @@
         <v>1.16</v>
       </c>
       <c r="P10" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="R10" t="n">
         <v>1.76</v>
@@ -1789,7 +1789,7 @@
         <v>2.24</v>
       </c>
       <c r="T10" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="U10" t="n">
         <v>2.32</v>
@@ -1798,7 +1798,7 @@
         <v>1.14</v>
       </c>
       <c r="W10" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="X10" t="n">
         <v>32</v>
@@ -1807,7 +1807,7 @@
         <v>38</v>
       </c>
       <c r="Z10" t="n">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="AA10" t="n">
         <v>1000</v>
@@ -1828,7 +1828,7 @@
         <v>11.5</v>
       </c>
       <c r="AG10" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AH10" t="n">
         <v>22</v>
@@ -1837,7 +1837,7 @@
         <v>75</v>
       </c>
       <c r="AJ10" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AK10" t="n">
         <v>14</v>
@@ -1849,7 +1849,7 @@
         <v>80</v>
       </c>
       <c r="AN10" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="AO10" t="n">
         <v>85</v>
@@ -1882,16 +1882,16 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="G11" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="I11" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="J11" t="n">
         <v>3.95</v>
@@ -1900,40 +1900,40 @@
         <v>4.1</v>
       </c>
       <c r="L11" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="M11" t="n">
         <v>1.05</v>
       </c>
       <c r="N11" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="O11" t="n">
         <v>1.27</v>
       </c>
       <c r="P11" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.79</v>
+        <v>1.81</v>
       </c>
       <c r="R11" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="S11" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="T11" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="U11" t="n">
         <v>2.3</v>
       </c>
       <c r="V11" t="n">
-        <v>1.98</v>
+        <v>1.96</v>
       </c>
       <c r="W11" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="X11" t="n">
         <v>18</v>
@@ -1948,7 +1948,7 @@
         <v>24</v>
       </c>
       <c r="AB11" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AC11" t="n">
         <v>8.6</v>
@@ -1960,7 +1960,7 @@
         <v>19.5</v>
       </c>
       <c r="AF11" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AG11" t="n">
         <v>16</v>
@@ -1972,19 +1972,19 @@
         <v>32</v>
       </c>
       <c r="AJ11" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AK11" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AL11" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AM11" t="n">
         <v>80</v>
       </c>
       <c r="AN11" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AO11" t="n">
         <v>13</v>
@@ -2026,43 +2026,43 @@
         <v>2.74</v>
       </c>
       <c r="I12" t="n">
-        <v>2.78</v>
+        <v>2.76</v>
       </c>
       <c r="J12" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="K12" t="n">
         <v>3.75</v>
       </c>
       <c r="L12" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="M12" t="n">
         <v>1.06</v>
       </c>
       <c r="N12" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="O12" t="n">
         <v>1.27</v>
       </c>
       <c r="P12" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="R12" t="n">
         <v>1.45</v>
       </c>
       <c r="S12" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="T12" t="n">
         <v>1.67</v>
       </c>
       <c r="U12" t="n">
-        <v>2.38</v>
+        <v>2.36</v>
       </c>
       <c r="V12" t="n">
         <v>1.56</v>
@@ -2074,7 +2074,7 @@
         <v>16.5</v>
       </c>
       <c r="Y12" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="Z12" t="n">
         <v>19</v>
@@ -2176,28 +2176,28 @@
         <v>1.05</v>
       </c>
       <c r="N13" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="O13" t="n">
         <v>1.24</v>
       </c>
       <c r="P13" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="Q13" t="n">
         <v>1.74</v>
       </c>
       <c r="R13" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="S13" t="n">
-        <v>2.84</v>
+        <v>2.88</v>
       </c>
       <c r="T13" t="n">
         <v>1.64</v>
       </c>
       <c r="U13" t="n">
-        <v>2.4</v>
+        <v>2.44</v>
       </c>
       <c r="V13" t="n">
         <v>1.75</v>
@@ -2209,7 +2209,7 @@
         <v>20</v>
       </c>
       <c r="Y13" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="Z13" t="n">
         <v>17</v>
@@ -2227,7 +2227,7 @@
         <v>12</v>
       </c>
       <c r="AE13" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AF13" t="n">
         <v>26</v>
@@ -2251,10 +2251,10 @@
         <v>42</v>
       </c>
       <c r="AM13" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AN13" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AO13" t="n">
         <v>14.5</v>
@@ -2302,10 +2302,10 @@
         <v>8</v>
       </c>
       <c r="K14" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="L14" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="M14" t="n">
         <v>1.03</v>
@@ -2317,19 +2317,19 @@
         <v>1.18</v>
       </c>
       <c r="P14" t="n">
-        <v>2.68</v>
+        <v>2.7</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="R14" t="n">
         <v>1.66</v>
       </c>
       <c r="S14" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="T14" t="n">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="U14" t="n">
         <v>1.62</v>
@@ -2338,10 +2338,10 @@
         <v>1.05</v>
       </c>
       <c r="W14" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="X14" t="n">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="Y14" t="n">
         <v>60</v>
@@ -2356,7 +2356,7 @@
         <v>9.800000000000001</v>
       </c>
       <c r="AC14" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AD14" t="n">
         <v>75</v>
@@ -2368,10 +2368,10 @@
         <v>7.6</v>
       </c>
       <c r="AG14" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AH14" t="n">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="AI14" t="n">
         <v>310</v>
@@ -2383,7 +2383,7 @@
         <v>15.5</v>
       </c>
       <c r="AL14" t="n">
-        <v>420</v>
+        <v>390</v>
       </c>
       <c r="AM14" t="n">
         <v>360</v>
@@ -2425,10 +2425,10 @@
         <v>4.3</v>
       </c>
       <c r="G15" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="I15" t="n">
         <v>2.04</v>
@@ -2440,28 +2440,28 @@
         <v>3.65</v>
       </c>
       <c r="L15" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="M15" t="n">
         <v>1.08</v>
       </c>
       <c r="N15" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="O15" t="n">
         <v>1.39</v>
       </c>
       <c r="P15" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="R15" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="S15" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="T15" t="n">
         <v>1.97</v>
@@ -2473,7 +2473,7 @@
         <v>1.96</v>
       </c>
       <c r="W15" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="X15" t="n">
         <v>12.5</v>
@@ -2509,7 +2509,7 @@
         <v>21</v>
       </c>
       <c r="AI15" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AJ15" t="n">
         <v>100</v>
@@ -2557,7 +2557,7 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>4</v>
+        <v>3.85</v>
       </c>
       <c r="G16" t="n">
         <v>4.5</v>
@@ -2566,7 +2566,7 @@
         <v>2.32</v>
       </c>
       <c r="I16" t="n">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="J16" t="n">
         <v>2.78</v>
@@ -2581,13 +2581,13 @@
         <v>1.17</v>
       </c>
       <c r="N16" t="n">
-        <v>2.18</v>
+        <v>2.12</v>
       </c>
       <c r="O16" t="n">
         <v>1.64</v>
       </c>
       <c r="P16" t="n">
-        <v>1.39</v>
+        <v>1.37</v>
       </c>
       <c r="Q16" t="n">
         <v>3.2</v>
@@ -2605,7 +2605,7 @@
         <v>1.61</v>
       </c>
       <c r="V16" t="n">
-        <v>1.67</v>
+        <v>1.64</v>
       </c>
       <c r="W16" t="n">
         <v>1.29</v>
@@ -2692,16 +2692,16 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>2.68</v>
+        <v>2.7</v>
       </c>
       <c r="G17" t="n">
-        <v>2.84</v>
+        <v>2.9</v>
       </c>
       <c r="H17" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="I17" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="J17" t="n">
         <v>2.94</v>
@@ -2725,10 +2725,10 @@
         <v>1.55</v>
       </c>
       <c r="Q17" t="n">
-        <v>2.62</v>
+        <v>2.58</v>
       </c>
       <c r="R17" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="S17" t="n">
         <v>5.3</v>
@@ -2737,13 +2737,13 @@
         <v>2.08</v>
       </c>
       <c r="U17" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="V17" t="n">
-        <v>1.41</v>
+        <v>1.43</v>
       </c>
       <c r="W17" t="n">
-        <v>1.54</v>
+        <v>1.53</v>
       </c>
       <c r="X17" t="n">
         <v>10.5</v>
@@ -2767,7 +2767,7 @@
         <v>15</v>
       </c>
       <c r="AE17" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AF17" t="n">
         <v>970</v>
@@ -2785,13 +2785,13 @@
         <v>60</v>
       </c>
       <c r="AK17" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AL17" t="n">
         <v>70</v>
       </c>
       <c r="AM17" t="n">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="AN17" t="n">
         <v>970</v>
@@ -2827,67 +2827,67 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1.96</v>
+        <v>1.98</v>
       </c>
       <c r="G18" t="n">
-        <v>2</v>
+        <v>2.04</v>
       </c>
       <c r="H18" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="I18" t="n">
         <v>4.1</v>
       </c>
-      <c r="I18" t="n">
-        <v>4.3</v>
-      </c>
       <c r="J18" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="K18" t="n">
         <v>3.95</v>
       </c>
       <c r="L18" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="M18" t="n">
         <v>1.06</v>
       </c>
       <c r="N18" t="n">
-        <v>4.2</v>
+        <v>4.4</v>
       </c>
       <c r="O18" t="n">
         <v>1.28</v>
       </c>
       <c r="P18" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.85</v>
+        <v>1.84</v>
       </c>
       <c r="R18" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="S18" t="n">
         <v>3.15</v>
       </c>
       <c r="T18" t="n">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="U18" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="V18" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="W18" t="n">
-        <v>2</v>
+        <v>1.96</v>
       </c>
       <c r="X18" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Y18" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="Z18" t="n">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="AA18" t="n">
         <v>85</v>
@@ -2899,37 +2899,37 @@
         <v>9</v>
       </c>
       <c r="AD18" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AE18" t="n">
-        <v>55</v>
+        <v>970</v>
       </c>
       <c r="AF18" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AG18" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AH18" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AI18" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="AJ18" t="n">
+        <v>24</v>
+      </c>
+      <c r="AK18" t="n">
         <v>23</v>
       </c>
-      <c r="AK18" t="n">
-        <v>20</v>
-      </c>
       <c r="AL18" t="n">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="AM18" t="n">
         <v>90</v>
       </c>
       <c r="AN18" t="n">
-        <v>12.5</v>
+        <v>14.5</v>
       </c>
       <c r="AO18" t="n">
         <v>970</v>
@@ -2965,7 +2965,7 @@
         <v>2.5</v>
       </c>
       <c r="G19" t="n">
-        <v>2.54</v>
+        <v>2.52</v>
       </c>
       <c r="H19" t="n">
         <v>3.1</v>
@@ -2989,7 +2989,7 @@
         <v>4</v>
       </c>
       <c r="O19" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="P19" t="n">
         <v>1.99</v>
@@ -3004,10 +3004,10 @@
         <v>3.5</v>
       </c>
       <c r="T19" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="U19" t="n">
-        <v>2.26</v>
+        <v>2.24</v>
       </c>
       <c r="V19" t="n">
         <v>1.45</v>
@@ -3016,7 +3016,7 @@
         <v>1.65</v>
       </c>
       <c r="X19" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="Y19" t="n">
         <v>12.5</v>
@@ -3067,7 +3067,7 @@
         <v>21</v>
       </c>
       <c r="AO19" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20">
@@ -3097,7 +3097,7 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>2.82</v>
+        <v>2.84</v>
       </c>
       <c r="G20" t="n">
         <v>2.92</v>
@@ -3115,19 +3115,19 @@
         <v>3.65</v>
       </c>
       <c r="L20" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="M20" t="n">
         <v>1.06</v>
       </c>
       <c r="N20" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="O20" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="P20" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="Q20" t="n">
         <v>1.89</v>
@@ -3241,7 +3241,7 @@
         <v>3.25</v>
       </c>
       <c r="I21" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="J21" t="n">
         <v>3.45</v>
@@ -3256,37 +3256,37 @@
         <v>1.06</v>
       </c>
       <c r="N21" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="O21" t="n">
         <v>1.31</v>
       </c>
       <c r="P21" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="Q21" t="n">
         <v>1.94</v>
       </c>
       <c r="R21" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="S21" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="T21" t="n">
-        <v>1.72</v>
+        <v>1.74</v>
       </c>
       <c r="U21" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="V21" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="W21" t="n">
         <v>1.68</v>
       </c>
       <c r="X21" t="n">
-        <v>17.5</v>
+        <v>15.5</v>
       </c>
       <c r="Y21" t="n">
         <v>13.5</v>
@@ -3367,13 +3367,13 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="G22" t="n">
-        <v>1.96</v>
+        <v>1.95</v>
       </c>
       <c r="H22" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="I22" t="n">
         <v>4.3</v>
@@ -3385,7 +3385,7 @@
         <v>4.2</v>
       </c>
       <c r="L22" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="M22" t="n">
         <v>1.04</v>
@@ -3397,13 +3397,13 @@
         <v>1.22</v>
       </c>
       <c r="P22" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="Q22" t="n">
         <v>1.69</v>
       </c>
       <c r="R22" t="n">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="S22" t="n">
         <v>2.74</v>
@@ -3412,7 +3412,7 @@
         <v>1.65</v>
       </c>
       <c r="U22" t="n">
-        <v>2.34</v>
+        <v>2.38</v>
       </c>
       <c r="V22" t="n">
         <v>1.3</v>
@@ -3424,7 +3424,7 @@
         <v>21</v>
       </c>
       <c r="Y22" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="Z22" t="n">
         <v>34</v>
@@ -3436,7 +3436,7 @@
         <v>12</v>
       </c>
       <c r="AC22" t="n">
-        <v>9.4</v>
+        <v>9</v>
       </c>
       <c r="AD22" t="n">
         <v>17.5</v>
@@ -3466,10 +3466,10 @@
         <v>28</v>
       </c>
       <c r="AM22" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AN22" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="AO22" t="n">
         <v>38</v>
@@ -3514,7 +3514,7 @@
         <v>3.95</v>
       </c>
       <c r="J23" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="K23" t="n">
         <v>3.85</v>
@@ -3637,10 +3637,10 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>2.82</v>
+        <v>2.8</v>
       </c>
       <c r="G24" t="n">
-        <v>2.86</v>
+        <v>2.84</v>
       </c>
       <c r="H24" t="n">
         <v>2.78</v>
@@ -3655,25 +3655,25 @@
         <v>3.45</v>
       </c>
       <c r="L24" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="M24" t="n">
         <v>1.07</v>
       </c>
       <c r="N24" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="O24" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="P24" t="n">
-        <v>1.93</v>
+        <v>1.94</v>
       </c>
       <c r="Q24" t="n">
         <v>2.02</v>
       </c>
       <c r="R24" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="S24" t="n">
         <v>3.6</v>
@@ -3682,13 +3682,13 @@
         <v>1.77</v>
       </c>
       <c r="U24" t="n">
-        <v>2.16</v>
+        <v>2.2</v>
       </c>
       <c r="V24" t="n">
         <v>1.55</v>
       </c>
       <c r="W24" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="X24" t="n">
         <v>14</v>
@@ -3721,25 +3721,25 @@
         <v>12.5</v>
       </c>
       <c r="AH24" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AI24" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AJ24" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AK24" t="n">
         <v>32</v>
       </c>
       <c r="AL24" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AM24" t="n">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="AN24" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AO24" t="n">
         <v>26</v>
@@ -3790,7 +3790,7 @@
         <v>4.3</v>
       </c>
       <c r="L25" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="M25" t="n">
         <v>1.06</v>
@@ -3805,7 +3805,7 @@
         <v>1.98</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.95</v>
+        <v>1.97</v>
       </c>
       <c r="R25" t="n">
         <v>1.37</v>
@@ -3814,10 +3814,10 @@
         <v>3.5</v>
       </c>
       <c r="T25" t="n">
-        <v>1.98</v>
+        <v>1.99</v>
       </c>
       <c r="U25" t="n">
-        <v>1.96</v>
+        <v>1.97</v>
       </c>
       <c r="V25" t="n">
         <v>1.19</v>
@@ -3853,7 +3853,7 @@
         <v>9.4</v>
       </c>
       <c r="AG25" t="n">
-        <v>10</v>
+        <v>9.6</v>
       </c>
       <c r="AH25" t="n">
         <v>22</v>
@@ -3907,7 +3907,7 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="G26" t="n">
         <v>2.56</v>
@@ -3916,7 +3916,7 @@
         <v>2.8</v>
       </c>
       <c r="I26" t="n">
-        <v>2.94</v>
+        <v>2.9</v>
       </c>
       <c r="J26" t="n">
         <v>3.9</v>
@@ -3925,7 +3925,7 @@
         <v>4</v>
       </c>
       <c r="L26" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="M26" t="n">
         <v>1.04</v>
@@ -3937,7 +3937,7 @@
         <v>1.2</v>
       </c>
       <c r="P26" t="n">
-        <v>2.5</v>
+        <v>2.54</v>
       </c>
       <c r="Q26" t="n">
         <v>1.62</v>
@@ -3946,16 +3946,16 @@
         <v>1.6</v>
       </c>
       <c r="S26" t="n">
-        <v>2.56</v>
+        <v>2.54</v>
       </c>
       <c r="T26" t="n">
         <v>1.56</v>
       </c>
       <c r="U26" t="n">
-        <v>2.64</v>
+        <v>2.66</v>
       </c>
       <c r="V26" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="W26" t="n">
         <v>1.64</v>
@@ -3982,7 +3982,7 @@
         <v>13</v>
       </c>
       <c r="AE26" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AF26" t="n">
         <v>19.5</v>
@@ -4012,7 +4012,7 @@
         <v>14</v>
       </c>
       <c r="AO26" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
     </row>
     <row r="27">
@@ -4327,7 +4327,7 @@
         <v>2.9</v>
       </c>
       <c r="K29" t="n">
-        <v>3</v>
+        <v>2.96</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
@@ -4489,7 +4489,7 @@
         <v>4.8</v>
       </c>
       <c r="T30" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="U30" t="n">
         <v>1.48</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-22.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-22.xlsx
@@ -667,46 +667,46 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.76</v>
+        <v>1.92</v>
       </c>
       <c r="G2" t="n">
-        <v>2.18</v>
+        <v>2.06</v>
       </c>
       <c r="H2" t="n">
-        <v>4.8</v>
+        <v>5.2</v>
       </c>
       <c r="I2" t="n">
-        <v>7</v>
+        <v>6.6</v>
       </c>
       <c r="J2" t="n">
-        <v>2.52</v>
+        <v>3</v>
       </c>
       <c r="K2" t="n">
-        <v>980</v>
+        <v>3.3</v>
       </c>
       <c r="L2" t="n">
-        <v>1.01</v>
+        <v>1.55</v>
       </c>
       <c r="M2" t="n">
         <v>1.13</v>
       </c>
       <c r="N2" t="n">
-        <v>1.35</v>
+        <v>2.36</v>
       </c>
       <c r="O2" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="P2" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="R2" t="n">
         <v>1.15</v>
       </c>
-      <c r="P2" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>2.74</v>
-      </c>
-      <c r="R2" t="n">
-        <v>1.13</v>
-      </c>
       <c r="S2" t="n">
-        <v>5.3</v>
+        <v>6.2</v>
       </c>
       <c r="T2" t="n">
         <v>2.4</v>
@@ -715,64 +715,64 @@
         <v>1.61</v>
       </c>
       <c r="V2" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="W2" t="n">
-        <v>1.84</v>
+        <v>1.94</v>
       </c>
       <c r="X2" t="n">
-        <v>1000</v>
+        <v>8.6</v>
       </c>
       <c r="Y2" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="Z2" t="n">
         <v>980</v>
       </c>
       <c r="AA2" t="n">
-        <v>1000</v>
+        <v>220</v>
       </c>
       <c r="AB2" t="n">
-        <v>1000</v>
+        <v>6.8</v>
       </c>
       <c r="AC2" t="n">
-        <v>1000</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD2" t="n">
-        <v>980</v>
+        <v>29</v>
       </c>
       <c r="AE2" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AF2" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AG2" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AH2" t="n">
-        <v>980</v>
+        <v>36</v>
       </c>
       <c r="AI2" t="n">
-        <v>1000</v>
+        <v>180</v>
       </c>
       <c r="AJ2" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AK2" t="n">
         <v>980</v>
       </c>
       <c r="AL2" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="AM2" t="n">
-        <v>1000</v>
+        <v>350</v>
       </c>
       <c r="AN2" t="n">
-        <v>980</v>
+        <v>34</v>
       </c>
       <c r="AO2" t="n">
-        <v>1000</v>
+        <v>280</v>
       </c>
     </row>
     <row r="3">
@@ -802,112 +802,112 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>2.54</v>
+        <v>2.66</v>
       </c>
       <c r="G3" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="H3" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="I3" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="J3" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="K3" t="n">
         <v>3.05</v>
-      </c>
-      <c r="H3" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="I3" t="n">
-        <v>4</v>
-      </c>
-      <c r="J3" t="n">
-        <v>2.64</v>
-      </c>
-      <c r="K3" t="n">
-        <v>2.94</v>
       </c>
       <c r="L3" t="n">
         <v>1.01</v>
       </c>
       <c r="M3" t="n">
-        <v>1.08</v>
+        <v>1.13</v>
       </c>
       <c r="N3" t="n">
-        <v>2.28</v>
+        <v>2.48</v>
       </c>
       <c r="O3" t="n">
-        <v>1.08</v>
+        <v>1.59</v>
       </c>
       <c r="P3" t="n">
-        <v>1.45</v>
+        <v>1.5</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.48</v>
+        <v>2.74</v>
       </c>
       <c r="R3" t="n">
-        <v>1.13</v>
+        <v>1.17</v>
       </c>
       <c r="S3" t="n">
-        <v>4.7</v>
+        <v>5.9</v>
       </c>
       <c r="T3" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="U3" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="V3" t="n">
-        <v>1.33</v>
+        <v>1.42</v>
       </c>
       <c r="W3" t="n">
-        <v>1.48</v>
+        <v>1.54</v>
       </c>
       <c r="X3" t="n">
-        <v>1000</v>
+        <v>8.4</v>
       </c>
       <c r="Y3" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="Z3" t="n">
-        <v>980</v>
+        <v>25</v>
       </c>
       <c r="AA3" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AB3" t="n">
-        <v>1000</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AC3" t="n">
-        <v>1000</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD3" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AE3" t="n">
+        <v>55</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>16</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>32</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>100</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>60</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>55</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>90</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>260</v>
+      </c>
+      <c r="AN3" t="n">
         <v>65</v>
       </c>
-      <c r="AF3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>980</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>980</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>980</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>980</v>
-      </c>
       <c r="AO3" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4">
@@ -937,52 +937,52 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.54</v>
+        <v>1.68</v>
       </c>
       <c r="G4" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="H4" t="n">
-        <v>5.1</v>
+        <v>5.6</v>
       </c>
       <c r="I4" t="n">
         <v>6.2</v>
       </c>
       <c r="J4" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="K4" t="n">
-        <v>6.4</v>
+        <v>4.2</v>
       </c>
       <c r="L4" t="n">
         <v>1.01</v>
       </c>
       <c r="M4" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N4" t="n">
-        <v>1.8</v>
+        <v>3.6</v>
       </c>
       <c r="O4" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="P4" t="n">
-        <v>1.79</v>
+        <v>1.9</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.84</v>
+        <v>1.94</v>
       </c>
       <c r="R4" t="n">
-        <v>1.29</v>
+        <v>1.34</v>
       </c>
       <c r="S4" t="n">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="T4" t="n">
-        <v>1.73</v>
+        <v>1.9</v>
       </c>
       <c r="U4" t="n">
-        <v>1.83</v>
+        <v>1.95</v>
       </c>
       <c r="V4" t="n">
         <v>1.19</v>
@@ -991,58 +991,58 @@
         <v>2.32</v>
       </c>
       <c r="X4" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="Y4" t="n">
         <v>1000</v>
       </c>
       <c r="Z4" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AA4" t="n">
-        <v>1000</v>
+        <v>180</v>
       </c>
       <c r="AB4" t="n">
-        <v>1000</v>
+        <v>8.4</v>
       </c>
       <c r="AC4" t="n">
-        <v>1000</v>
+        <v>9</v>
       </c>
       <c r="AD4" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AE4" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
       <c r="AF4" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AG4" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AH4" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AI4" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
       <c r="AJ4" t="n">
         <v>1000</v>
       </c>
       <c r="AK4" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AL4" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AM4" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AN4" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AO4" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
     </row>
     <row r="5">
@@ -1072,7 +1072,7 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="G5" t="n">
         <v>1.2</v>
@@ -1081,7 +1081,7 @@
         <v>16</v>
       </c>
       <c r="I5" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="J5" t="n">
         <v>8.199999999999999</v>
@@ -1096,28 +1096,28 @@
         <v>1.02</v>
       </c>
       <c r="N5" t="n">
-        <v>6</v>
+        <v>6.8</v>
       </c>
       <c r="O5" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="P5" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="R5" t="n">
-        <v>1.82</v>
+        <v>1.81</v>
       </c>
       <c r="S5" t="n">
         <v>2</v>
       </c>
       <c r="T5" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="U5" t="n">
-        <v>1.83</v>
+        <v>1.81</v>
       </c>
       <c r="V5" t="n">
         <v>1.05</v>
@@ -1132,37 +1132,37 @@
         <v>70</v>
       </c>
       <c r="Z5" t="n">
-        <v>190</v>
+        <v>210</v>
       </c>
       <c r="AA5" t="n">
         <v>1000</v>
       </c>
       <c r="AB5" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AC5" t="n">
-        <v>22</v>
+        <v>980</v>
       </c>
       <c r="AD5" t="n">
         <v>65</v>
       </c>
       <c r="AE5" t="n">
-        <v>270</v>
+        <v>1000</v>
       </c>
       <c r="AF5" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AG5" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AH5" t="n">
         <v>980</v>
       </c>
       <c r="AI5" t="n">
-        <v>190</v>
+        <v>210</v>
       </c>
       <c r="AJ5" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AK5" t="n">
         <v>16.5</v>
@@ -1171,10 +1171,10 @@
         <v>980</v>
       </c>
       <c r="AM5" t="n">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="AN5" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="AO5" t="n">
         <v>1000</v>
@@ -1207,112 +1207,112 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="G6" t="n">
-        <v>2.86</v>
+        <v>2.68</v>
       </c>
       <c r="H6" t="n">
-        <v>2.5</v>
+        <v>2.66</v>
       </c>
       <c r="I6" t="n">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="J6" t="n">
-        <v>3.7</v>
+        <v>3.95</v>
       </c>
       <c r="K6" t="n">
-        <v>4.3</v>
+        <v>4.7</v>
       </c>
       <c r="L6" t="n">
-        <v>1.01</v>
+        <v>1.21</v>
       </c>
       <c r="M6" t="n">
         <v>1.03</v>
       </c>
       <c r="N6" t="n">
-        <v>2.72</v>
+        <v>6.2</v>
       </c>
       <c r="O6" t="n">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="P6" t="n">
-        <v>2.72</v>
+        <v>2.78</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="R6" t="n">
-        <v>1.6</v>
+        <v>1.72</v>
       </c>
       <c r="S6" t="n">
-        <v>1.47</v>
+        <v>2.02</v>
       </c>
       <c r="T6" t="n">
-        <v>1.4</v>
+        <v>1.45</v>
       </c>
       <c r="U6" t="n">
-        <v>2.52</v>
+        <v>2.78</v>
       </c>
       <c r="V6" t="n">
-        <v>1.43</v>
+        <v>1.5</v>
       </c>
       <c r="W6" t="n">
-        <v>1.54</v>
+        <v>1.62</v>
       </c>
       <c r="X6" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="Y6" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="Z6" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AA6" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AB6" t="n">
         <v>1000</v>
       </c>
       <c r="AC6" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AD6" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AE6" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AF6" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AG6" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AH6" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AI6" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AJ6" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AK6" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AL6" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AM6" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AN6" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AO6" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
     </row>
     <row r="7">
@@ -1348,10 +1348,10 @@
         <v>4.9</v>
       </c>
       <c r="H7" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="I7" t="n">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="J7" t="n">
         <v>4.1</v>
@@ -1366,7 +1366,7 @@
         <v>1.04</v>
       </c>
       <c r="N7" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="O7" t="n">
         <v>1.22</v>
@@ -1384,13 +1384,13 @@
         <v>2.72</v>
       </c>
       <c r="T7" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="U7" t="n">
         <v>2.34</v>
       </c>
       <c r="V7" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="W7" t="n">
         <v>1.26</v>
@@ -1402,31 +1402,31 @@
         <v>12</v>
       </c>
       <c r="Z7" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AA7" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AB7" t="n">
         <v>22</v>
       </c>
       <c r="AC7" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD7" t="n">
         <v>10.5</v>
       </c>
-      <c r="AD7" t="n">
-        <v>11</v>
-      </c>
       <c r="AE7" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AF7" t="n">
         <v>40</v>
       </c>
       <c r="AG7" t="n">
-        <v>19.5</v>
+        <v>22</v>
       </c>
       <c r="AH7" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AI7" t="n">
         <v>30</v>
@@ -1441,13 +1441,13 @@
         <v>55</v>
       </c>
       <c r="AM7" t="n">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="AN7" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AO7" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="8">
@@ -1477,31 +1477,31 @@
         </is>
       </c>
       <c r="F8" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="G8" t="n">
         <v>2.74</v>
       </c>
-      <c r="G8" t="n">
+      <c r="H8" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="I8" t="n">
         <v>2.78</v>
       </c>
-      <c r="H8" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="I8" t="n">
-        <v>2.74</v>
-      </c>
       <c r="J8" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="K8" t="n">
         <v>3.7</v>
       </c>
       <c r="L8" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="M8" t="n">
         <v>1.05</v>
       </c>
       <c r="N8" t="n">
-        <v>4.6</v>
+        <v>4.4</v>
       </c>
       <c r="O8" t="n">
         <v>1.26</v>
@@ -1510,25 +1510,25 @@
         <v>2.2</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.8</v>
+        <v>1.79</v>
       </c>
       <c r="R8" t="n">
         <v>1.47</v>
       </c>
       <c r="S8" t="n">
-        <v>3</v>
+        <v>2.92</v>
       </c>
       <c r="T8" t="n">
         <v>1.65</v>
       </c>
       <c r="U8" t="n">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="V8" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="W8" t="n">
         <v>1.57</v>
-      </c>
-      <c r="W8" t="n">
-        <v>1.56</v>
       </c>
       <c r="X8" t="n">
         <v>17.5</v>
@@ -1540,10 +1540,10 @@
         <v>19</v>
       </c>
       <c r="AA8" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AB8" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AC8" t="n">
         <v>8.199999999999999</v>
@@ -1567,7 +1567,7 @@
         <v>36</v>
       </c>
       <c r="AJ8" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AK8" t="n">
         <v>27</v>
@@ -1582,7 +1582,7 @@
         <v>20</v>
       </c>
       <c r="AO8" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9">
@@ -1618,13 +1618,13 @@
         <v>1.61</v>
       </c>
       <c r="H9" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="I9" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="J9" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="K9" t="n">
         <v>4.6</v>
@@ -1642,7 +1642,7 @@
         <v>1.26</v>
       </c>
       <c r="P9" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="Q9" t="n">
         <v>1.78</v>
@@ -1651,25 +1651,25 @@
         <v>1.47</v>
       </c>
       <c r="S9" t="n">
-        <v>2.98</v>
+        <v>2.96</v>
       </c>
       <c r="T9" t="n">
-        <v>1.89</v>
+        <v>1.88</v>
       </c>
       <c r="U9" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="V9" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="W9" t="n">
-        <v>2.64</v>
+        <v>2.62</v>
       </c>
       <c r="X9" t="n">
         <v>18</v>
       </c>
       <c r="Y9" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Z9" t="n">
         <v>55</v>
@@ -1678,7 +1678,7 @@
         <v>180</v>
       </c>
       <c r="AB9" t="n">
-        <v>9.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="AC9" t="n">
         <v>10</v>
@@ -1702,7 +1702,7 @@
         <v>80</v>
       </c>
       <c r="AJ9" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AK9" t="n">
         <v>15.5</v>
@@ -1753,7 +1753,7 @@
         <v>1.47</v>
       </c>
       <c r="H10" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="I10" t="n">
         <v>8</v>
@@ -1777,7 +1777,7 @@
         <v>1.16</v>
       </c>
       <c r="P10" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="Q10" t="n">
         <v>1.5</v>
@@ -1789,7 +1789,7 @@
         <v>2.24</v>
       </c>
       <c r="T10" t="n">
-        <v>1.72</v>
+        <v>1.71</v>
       </c>
       <c r="U10" t="n">
         <v>2.32</v>
@@ -1798,7 +1798,7 @@
         <v>1.14</v>
       </c>
       <c r="W10" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="X10" t="n">
         <v>32</v>
@@ -1807,37 +1807,37 @@
         <v>38</v>
       </c>
       <c r="Z10" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AA10" t="n">
         <v>1000</v>
       </c>
       <c r="AB10" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AC10" t="n">
         <v>13</v>
       </c>
       <c r="AD10" t="n">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="AE10" t="n">
         <v>95</v>
       </c>
       <c r="AF10" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AG10" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AH10" t="n">
         <v>22</v>
       </c>
       <c r="AI10" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AJ10" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AK10" t="n">
         <v>14</v>
@@ -1888,7 +1888,7 @@
         <v>3.9</v>
       </c>
       <c r="H11" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="I11" t="n">
         <v>2.04</v>
@@ -1900,13 +1900,13 @@
         <v>4.1</v>
       </c>
       <c r="L11" t="n">
-        <v>1.37</v>
+        <v>1.35</v>
       </c>
       <c r="M11" t="n">
         <v>1.05</v>
       </c>
       <c r="N11" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="O11" t="n">
         <v>1.27</v>
@@ -1915,16 +1915,16 @@
         <v>2.18</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="R11" t="n">
         <v>1.46</v>
       </c>
       <c r="S11" t="n">
-        <v>3.05</v>
+        <v>2.98</v>
       </c>
       <c r="T11" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="U11" t="n">
         <v>2.3</v>
@@ -1972,10 +1972,10 @@
         <v>32</v>
       </c>
       <c r="AJ11" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AK11" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AL11" t="n">
         <v>48</v>
@@ -1987,7 +1987,7 @@
         <v>38</v>
       </c>
       <c r="AO11" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="12">
@@ -2023,13 +2023,13 @@
         <v>2.74</v>
       </c>
       <c r="H12" t="n">
-        <v>2.74</v>
+        <v>2.72</v>
       </c>
       <c r="I12" t="n">
         <v>2.76</v>
       </c>
       <c r="J12" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="K12" t="n">
         <v>3.75</v>
@@ -2047,10 +2047,10 @@
         <v>1.27</v>
       </c>
       <c r="P12" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="R12" t="n">
         <v>1.45</v>
@@ -2062,7 +2062,7 @@
         <v>1.67</v>
       </c>
       <c r="U12" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="V12" t="n">
         <v>1.56</v>
@@ -2080,7 +2080,7 @@
         <v>19</v>
       </c>
       <c r="AA12" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AB12" t="n">
         <v>13</v>
@@ -2161,7 +2161,7 @@
         <v>2.26</v>
       </c>
       <c r="I13" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="J13" t="n">
         <v>3.75</v>
@@ -2170,13 +2170,13 @@
         <v>3.85</v>
       </c>
       <c r="L13" t="n">
-        <v>1.34</v>
+        <v>1.32</v>
       </c>
       <c r="M13" t="n">
         <v>1.05</v>
       </c>
       <c r="N13" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="O13" t="n">
         <v>1.24</v>
@@ -2185,16 +2185,16 @@
         <v>2.28</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.74</v>
+        <v>1.72</v>
       </c>
       <c r="R13" t="n">
         <v>1.51</v>
       </c>
       <c r="S13" t="n">
-        <v>2.88</v>
+        <v>2.8</v>
       </c>
       <c r="T13" t="n">
-        <v>1.64</v>
+        <v>1.63</v>
       </c>
       <c r="U13" t="n">
         <v>2.44</v>
@@ -2203,37 +2203,37 @@
         <v>1.75</v>
       </c>
       <c r="W13" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="X13" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Y13" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="Z13" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>34</v>
+      </c>
+      <c r="AB13" t="n">
         <v>17</v>
-      </c>
-      <c r="AA13" t="n">
-        <v>32</v>
-      </c>
-      <c r="AB13" t="n">
-        <v>16.5</v>
       </c>
       <c r="AC13" t="n">
         <v>9</v>
       </c>
       <c r="AD13" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AE13" t="n">
         <v>23</v>
       </c>
       <c r="AF13" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AG13" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AH13" t="n">
         <v>16.5</v>
@@ -2296,13 +2296,13 @@
         <v>17.5</v>
       </c>
       <c r="I14" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J14" t="n">
         <v>8</v>
       </c>
       <c r="K14" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="L14" t="n">
         <v>1.28</v>
@@ -2314,13 +2314,13 @@
         <v>6</v>
       </c>
       <c r="O14" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="P14" t="n">
         <v>2.7</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.57</v>
+        <v>1.56</v>
       </c>
       <c r="R14" t="n">
         <v>1.66</v>
@@ -2356,10 +2356,10 @@
         <v>9.800000000000001</v>
       </c>
       <c r="AC14" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AD14" t="n">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="AE14" t="n">
         <v>470</v>
@@ -2377,19 +2377,19 @@
         <v>310</v>
       </c>
       <c r="AJ14" t="n">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="AK14" t="n">
         <v>15.5</v>
       </c>
       <c r="AL14" t="n">
-        <v>390</v>
+        <v>380</v>
       </c>
       <c r="AM14" t="n">
         <v>360</v>
       </c>
       <c r="AN14" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="AO14" t="n">
         <v>1000</v>
@@ -2425,10 +2425,10 @@
         <v>4.3</v>
       </c>
       <c r="G15" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="H15" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="I15" t="n">
         <v>2.04</v>
@@ -2446,22 +2446,22 @@
         <v>1.08</v>
       </c>
       <c r="N15" t="n">
-        <v>3.45</v>
+        <v>3.35</v>
       </c>
       <c r="O15" t="n">
         <v>1.39</v>
       </c>
       <c r="P15" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="R15" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="S15" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="T15" t="n">
         <v>1.97</v>
@@ -2473,13 +2473,13 @@
         <v>1.96</v>
       </c>
       <c r="W15" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="X15" t="n">
         <v>12.5</v>
       </c>
       <c r="Y15" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="Z15" t="n">
         <v>11.5</v>
@@ -2509,7 +2509,7 @@
         <v>21</v>
       </c>
       <c r="AI15" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AJ15" t="n">
         <v>100</v>
@@ -2518,10 +2518,10 @@
         <v>65</v>
       </c>
       <c r="AL15" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AM15" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="AN15" t="n">
         <v>75</v>
@@ -2557,7 +2557,7 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="G16" t="n">
         <v>4.5</v>
@@ -2566,7 +2566,7 @@
         <v>2.32</v>
       </c>
       <c r="I16" t="n">
-        <v>2.56</v>
+        <v>2.54</v>
       </c>
       <c r="J16" t="n">
         <v>2.78</v>
@@ -2575,94 +2575,94 @@
         <v>3.05</v>
       </c>
       <c r="L16" t="n">
-        <v>1.01</v>
+        <v>1.58</v>
       </c>
       <c r="M16" t="n">
         <v>1.17</v>
       </c>
       <c r="N16" t="n">
-        <v>2.12</v>
+        <v>2.2</v>
       </c>
       <c r="O16" t="n">
-        <v>1.64</v>
+        <v>1.71</v>
       </c>
       <c r="P16" t="n">
-        <v>1.37</v>
+        <v>1.39</v>
       </c>
       <c r="Q16" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="R16" t="n">
         <v>1.13</v>
       </c>
       <c r="S16" t="n">
-        <v>7.2</v>
+        <v>6.2</v>
       </c>
       <c r="T16" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="U16" t="n">
         <v>1.61</v>
       </c>
       <c r="V16" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="W16" t="n">
         <v>1.29</v>
       </c>
       <c r="X16" t="n">
-        <v>1000</v>
+        <v>8</v>
       </c>
       <c r="Y16" t="n">
-        <v>1000</v>
+        <v>7.6</v>
       </c>
       <c r="Z16" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AA16" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AB16" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AC16" t="n">
-        <v>1000</v>
+        <v>8.6</v>
       </c>
       <c r="AD16" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="AE16" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AF16" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AG16" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AH16" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AI16" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AJ16" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AK16" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AL16" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
       <c r="AM16" t="n">
-        <v>1000</v>
+        <v>370</v>
       </c>
       <c r="AN16" t="n">
-        <v>1000</v>
+        <v>190</v>
       </c>
       <c r="AO16" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
     </row>
     <row r="17">
@@ -2695,25 +2695,25 @@
         <v>2.7</v>
       </c>
       <c r="G17" t="n">
-        <v>2.9</v>
+        <v>2.92</v>
       </c>
       <c r="H17" t="n">
         <v>3.05</v>
       </c>
       <c r="I17" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="J17" t="n">
         <v>2.94</v>
       </c>
       <c r="K17" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="L17" t="n">
-        <v>1.01</v>
+        <v>1.59</v>
       </c>
       <c r="M17" t="n">
-        <v>1.1</v>
+        <v>1.13</v>
       </c>
       <c r="N17" t="n">
         <v>2.62</v>
@@ -2725,10 +2725,10 @@
         <v>1.55</v>
       </c>
       <c r="Q17" t="n">
-        <v>2.58</v>
+        <v>2.62</v>
       </c>
       <c r="R17" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="S17" t="n">
         <v>5.3</v>
@@ -2737,34 +2737,34 @@
         <v>2.08</v>
       </c>
       <c r="U17" t="n">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="V17" t="n">
-        <v>1.43</v>
+        <v>1.42</v>
       </c>
       <c r="W17" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="X17" t="n">
         <v>10.5</v>
       </c>
       <c r="Y17" t="n">
-        <v>9.4</v>
+        <v>10.5</v>
       </c>
       <c r="Z17" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AA17" t="n">
         <v>65</v>
       </c>
       <c r="AB17" t="n">
-        <v>8.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="AC17" t="n">
-        <v>7.2</v>
+        <v>8.4</v>
       </c>
       <c r="AD17" t="n">
-        <v>15</v>
+        <v>17.5</v>
       </c>
       <c r="AE17" t="n">
         <v>60</v>
@@ -2779,25 +2779,25 @@
         <v>27</v>
       </c>
       <c r="AI17" t="n">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="AJ17" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AK17" t="n">
         <v>48</v>
       </c>
       <c r="AL17" t="n">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="AM17" t="n">
-        <v>210</v>
+        <v>220</v>
       </c>
       <c r="AN17" t="n">
-        <v>970</v>
+        <v>60</v>
       </c>
       <c r="AO17" t="n">
-        <v>65</v>
+        <v>80</v>
       </c>
     </row>
     <row r="18">
@@ -2827,10 +2827,10 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1.98</v>
+        <v>1.99</v>
       </c>
       <c r="G18" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="H18" t="n">
         <v>3.95</v>
@@ -2851,7 +2851,7 @@
         <v>1.06</v>
       </c>
       <c r="N18" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="O18" t="n">
         <v>1.28</v>
@@ -2878,16 +2878,16 @@
         <v>1.32</v>
       </c>
       <c r="W18" t="n">
-        <v>1.96</v>
+        <v>1.98</v>
       </c>
       <c r="X18" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Y18" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="Z18" t="n">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="AA18" t="n">
         <v>85</v>
@@ -2896,43 +2896,43 @@
         <v>10.5</v>
       </c>
       <c r="AC18" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD18" t="n">
         <v>16</v>
       </c>
       <c r="AE18" t="n">
-        <v>970</v>
+        <v>46</v>
       </c>
       <c r="AF18" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AG18" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AH18" t="n">
         <v>17.5</v>
       </c>
       <c r="AI18" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="AJ18" t="n">
         <v>24</v>
       </c>
       <c r="AK18" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="AL18" t="n">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="AM18" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="AN18" t="n">
-        <v>14.5</v>
+        <v>12.5</v>
       </c>
       <c r="AO18" t="n">
-        <v>970</v>
+        <v>42</v>
       </c>
     </row>
     <row r="19">
@@ -2980,28 +2980,28 @@
         <v>3.55</v>
       </c>
       <c r="L19" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="M19" t="n">
         <v>1.07</v>
       </c>
       <c r="N19" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="O19" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="P19" t="n">
-        <v>1.99</v>
+        <v>1.98</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.97</v>
+        <v>1.96</v>
       </c>
       <c r="R19" t="n">
         <v>1.38</v>
       </c>
       <c r="S19" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="T19" t="n">
         <v>1.76</v>
@@ -3019,7 +3019,7 @@
         <v>13.5</v>
       </c>
       <c r="Y19" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="Z19" t="n">
         <v>21</v>
@@ -3049,10 +3049,10 @@
         <v>16.5</v>
       </c>
       <c r="AI19" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AJ19" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AK19" t="n">
         <v>26</v>
@@ -3061,13 +3061,13 @@
         <v>38</v>
       </c>
       <c r="AM19" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="AN19" t="n">
         <v>21</v>
       </c>
       <c r="AO19" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20">
@@ -3097,7 +3097,7 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>2.84</v>
+        <v>2.86</v>
       </c>
       <c r="G20" t="n">
         <v>2.92</v>
@@ -3106,7 +3106,7 @@
         <v>2.62</v>
       </c>
       <c r="I20" t="n">
-        <v>2.68</v>
+        <v>2.66</v>
       </c>
       <c r="J20" t="n">
         <v>3.6</v>
@@ -3115,13 +3115,13 @@
         <v>3.65</v>
       </c>
       <c r="L20" t="n">
-        <v>1.39</v>
+        <v>1.37</v>
       </c>
       <c r="M20" t="n">
         <v>1.06</v>
       </c>
       <c r="N20" t="n">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="O20" t="n">
         <v>1.29</v>
@@ -3130,22 +3130,22 @@
         <v>2.06</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.89</v>
+        <v>1.84</v>
       </c>
       <c r="R20" t="n">
         <v>1.41</v>
       </c>
       <c r="S20" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="T20" t="n">
-        <v>1.71</v>
+        <v>1.7</v>
       </c>
       <c r="U20" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="V20" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="W20" t="n">
         <v>1.52</v>
@@ -3160,10 +3160,10 @@
         <v>18.5</v>
       </c>
       <c r="AA20" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AB20" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AC20" t="n">
         <v>8</v>
@@ -3172,7 +3172,7 @@
         <v>12</v>
       </c>
       <c r="AE20" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AF20" t="n">
         <v>20</v>
@@ -3181,13 +3181,13 @@
         <v>13</v>
       </c>
       <c r="AH20" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AI20" t="n">
         <v>38</v>
       </c>
       <c r="AJ20" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AK20" t="n">
         <v>30</v>
@@ -3199,10 +3199,10 @@
         <v>80</v>
       </c>
       <c r="AN20" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AO20" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21">
@@ -3235,10 +3235,10 @@
         <v>2.38</v>
       </c>
       <c r="G21" t="n">
-        <v>2.46</v>
+        <v>2.5</v>
       </c>
       <c r="H21" t="n">
-        <v>3.25</v>
+        <v>3.15</v>
       </c>
       <c r="I21" t="n">
         <v>3.3</v>
@@ -3247,31 +3247,31 @@
         <v>3.45</v>
       </c>
       <c r="K21" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="L21" t="n">
         <v>1.4</v>
       </c>
       <c r="M21" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N21" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="O21" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="P21" t="n">
         <v>2</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.94</v>
+        <v>1.84</v>
       </c>
       <c r="R21" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="S21" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="T21" t="n">
         <v>1.74</v>
@@ -3283,7 +3283,7 @@
         <v>1.43</v>
       </c>
       <c r="W21" t="n">
-        <v>1.68</v>
+        <v>1.66</v>
       </c>
       <c r="X21" t="n">
         <v>15.5</v>
@@ -3292,10 +3292,10 @@
         <v>13.5</v>
       </c>
       <c r="Z21" t="n">
-        <v>980</v>
+        <v>26</v>
       </c>
       <c r="AA21" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="AB21" t="n">
         <v>11</v>
@@ -3304,40 +3304,40 @@
         <v>8.199999999999999</v>
       </c>
       <c r="AD21" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AE21" t="n">
         <v>980</v>
       </c>
       <c r="AF21" t="n">
-        <v>16.5</v>
+        <v>19</v>
       </c>
       <c r="AG21" t="n">
-        <v>12</v>
+        <v>13.5</v>
       </c>
       <c r="AH21" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="AI21" t="n">
-        <v>980</v>
+        <v>55</v>
       </c>
       <c r="AJ21" t="n">
-        <v>980</v>
+        <v>40</v>
       </c>
       <c r="AK21" t="n">
-        <v>980</v>
+        <v>30</v>
       </c>
       <c r="AL21" t="n">
-        <v>980</v>
+        <v>44</v>
       </c>
       <c r="AM21" t="n">
         <v>100</v>
       </c>
       <c r="AN21" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AO21" t="n">
-        <v>980</v>
+        <v>38</v>
       </c>
     </row>
     <row r="22">
@@ -3367,7 +3367,7 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="G22" t="n">
         <v>1.95</v>
@@ -3385,28 +3385,28 @@
         <v>4.2</v>
       </c>
       <c r="L22" t="n">
-        <v>1.33</v>
+        <v>1.28</v>
       </c>
       <c r="M22" t="n">
         <v>1.04</v>
       </c>
       <c r="N22" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="O22" t="n">
         <v>1.22</v>
       </c>
       <c r="P22" t="n">
-        <v>2.38</v>
+        <v>2.36</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.69</v>
+        <v>1.67</v>
       </c>
       <c r="R22" t="n">
         <v>1.55</v>
       </c>
       <c r="S22" t="n">
-        <v>2.74</v>
+        <v>2.68</v>
       </c>
       <c r="T22" t="n">
         <v>1.65</v>
@@ -3424,7 +3424,7 @@
         <v>21</v>
       </c>
       <c r="Y22" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="Z22" t="n">
         <v>34</v>
@@ -3433,7 +3433,7 @@
         <v>85</v>
       </c>
       <c r="AB22" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AC22" t="n">
         <v>9</v>
@@ -3445,13 +3445,13 @@
         <v>46</v>
       </c>
       <c r="AF22" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AG22" t="n">
         <v>11</v>
       </c>
       <c r="AH22" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AI22" t="n">
         <v>46</v>
@@ -3502,16 +3502,16 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="G23" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="H23" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="I23" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="J23" t="n">
         <v>3.8</v>
@@ -3532,7 +3532,7 @@
         <v>1.27</v>
       </c>
       <c r="P23" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="Q23" t="n">
         <v>1.81</v>
@@ -3544,25 +3544,25 @@
         <v>3.05</v>
       </c>
       <c r="T23" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="U23" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="V23" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="W23" t="n">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="X23" t="n">
         <v>17.5</v>
       </c>
       <c r="Y23" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="Z23" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AA23" t="n">
         <v>75</v>
@@ -3592,7 +3592,7 @@
         <v>48</v>
       </c>
       <c r="AJ23" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AK23" t="n">
         <v>20</v>
@@ -3640,10 +3640,10 @@
         <v>2.8</v>
       </c>
       <c r="G24" t="n">
-        <v>2.84</v>
+        <v>2.86</v>
       </c>
       <c r="H24" t="n">
-        <v>2.78</v>
+        <v>2.76</v>
       </c>
       <c r="I24" t="n">
         <v>2.82</v>
@@ -3655,31 +3655,31 @@
         <v>3.45</v>
       </c>
       <c r="L24" t="n">
-        <v>1.42</v>
+        <v>1.39</v>
       </c>
       <c r="M24" t="n">
         <v>1.07</v>
       </c>
       <c r="N24" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="O24" t="n">
         <v>1.32</v>
       </c>
       <c r="P24" t="n">
-        <v>1.94</v>
+        <v>1.95</v>
       </c>
       <c r="Q24" t="n">
-        <v>2.02</v>
+        <v>1.98</v>
       </c>
       <c r="R24" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="S24" t="n">
-        <v>3.6</v>
+        <v>3.45</v>
       </c>
       <c r="T24" t="n">
-        <v>1.77</v>
+        <v>1.76</v>
       </c>
       <c r="U24" t="n">
         <v>2.2</v>
@@ -3688,22 +3688,22 @@
         <v>1.55</v>
       </c>
       <c r="W24" t="n">
-        <v>1.54</v>
+        <v>1.53</v>
       </c>
       <c r="X24" t="n">
         <v>14</v>
       </c>
       <c r="Y24" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="Z24" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AA24" t="n">
         <v>42</v>
       </c>
       <c r="AB24" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AC24" t="n">
         <v>7.6</v>
@@ -3790,13 +3790,13 @@
         <v>4.3</v>
       </c>
       <c r="L25" t="n">
-        <v>1.41</v>
+        <v>1.38</v>
       </c>
       <c r="M25" t="n">
         <v>1.06</v>
       </c>
       <c r="N25" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="O25" t="n">
         <v>1.31</v>
@@ -3805,19 +3805,19 @@
         <v>1.98</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.97</v>
+        <v>1.94</v>
       </c>
       <c r="R25" t="n">
         <v>1.37</v>
       </c>
       <c r="S25" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="T25" t="n">
-        <v>1.99</v>
+        <v>1.98</v>
       </c>
       <c r="U25" t="n">
-        <v>1.97</v>
+        <v>1.98</v>
       </c>
       <c r="V25" t="n">
         <v>1.19</v>
@@ -3829,7 +3829,7 @@
         <v>15.5</v>
       </c>
       <c r="Y25" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="Z25" t="n">
         <v>48</v>
@@ -3838,7 +3838,7 @@
         <v>170</v>
       </c>
       <c r="AB25" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="AC25" t="n">
         <v>9.199999999999999</v>
@@ -3853,7 +3853,7 @@
         <v>9.4</v>
       </c>
       <c r="AG25" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="AH25" t="n">
         <v>22</v>
@@ -3910,37 +3910,37 @@
         <v>2.48</v>
       </c>
       <c r="G26" t="n">
-        <v>2.56</v>
+        <v>2.54</v>
       </c>
       <c r="H26" t="n">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="I26" t="n">
-        <v>2.9</v>
+        <v>2.92</v>
       </c>
       <c r="J26" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="K26" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="L26" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="M26" t="n">
         <v>1.04</v>
       </c>
       <c r="N26" t="n">
-        <v>5.5</v>
+        <v>5.3</v>
       </c>
       <c r="O26" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="P26" t="n">
-        <v>2.54</v>
+        <v>2.46</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="R26" t="n">
         <v>1.6</v>
@@ -3958,13 +3958,13 @@
         <v>1.52</v>
       </c>
       <c r="W26" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="X26" t="n">
         <v>22</v>
       </c>
       <c r="Y26" t="n">
-        <v>17.5</v>
+        <v>160</v>
       </c>
       <c r="Z26" t="n">
         <v>23</v>
@@ -4012,7 +4012,7 @@
         <v>14</v>
       </c>
       <c r="AO26" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
     </row>
     <row r="27">
@@ -4318,7 +4318,7 @@
         <v>3.15</v>
       </c>
       <c r="H29" t="n">
-        <v>2.98</v>
+        <v>3</v>
       </c>
       <c r="I29" t="n">
         <v>3.3</v>
@@ -4453,7 +4453,7 @@
         <v>2.28</v>
       </c>
       <c r="H30" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="I30" t="n">
         <v>4.9</v>
@@ -4462,97 +4462,97 @@
         <v>2.96</v>
       </c>
       <c r="K30" t="n">
-        <v>3.35</v>
+        <v>3.25</v>
       </c>
       <c r="L30" t="n">
-        <v>1.01</v>
+        <v>1.61</v>
       </c>
       <c r="M30" t="n">
-        <v>1.01</v>
+        <v>1.13</v>
       </c>
       <c r="N30" t="n">
-        <v>1.48</v>
+        <v>2.42</v>
       </c>
       <c r="O30" t="n">
-        <v>1.01</v>
+        <v>1.59</v>
       </c>
       <c r="P30" t="n">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="Q30" t="n">
         <v>2.74</v>
       </c>
       <c r="R30" t="n">
-        <v>1.13</v>
+        <v>1.16</v>
       </c>
       <c r="S30" t="n">
-        <v>4.8</v>
+        <v>5.7</v>
       </c>
       <c r="T30" t="n">
-        <v>1.9</v>
+        <v>2.26</v>
       </c>
       <c r="U30" t="n">
-        <v>1.48</v>
+        <v>1.67</v>
       </c>
       <c r="V30" t="n">
         <v>1.25</v>
       </c>
       <c r="W30" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="X30" t="n">
-        <v>10</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="Y30" t="n">
-        <v>15.5</v>
+        <v>13</v>
       </c>
       <c r="Z30" t="n">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="AA30" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AB30" t="n">
-        <v>8.800000000000001</v>
+        <v>7.2</v>
       </c>
       <c r="AC30" t="n">
-        <v>10</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD30" t="n">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="AE30" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AF30" t="n">
-        <v>16</v>
+        <v>12.5</v>
       </c>
       <c r="AG30" t="n">
-        <v>17</v>
+        <v>13.5</v>
       </c>
       <c r="AH30" t="n">
+        <v>32</v>
+      </c>
+      <c r="AI30" t="n">
+        <v>140</v>
+      </c>
+      <c r="AJ30" t="n">
+        <v>34</v>
+      </c>
+      <c r="AK30" t="n">
+        <v>36</v>
+      </c>
+      <c r="AL30" t="n">
+        <v>80</v>
+      </c>
+      <c r="AM30" t="n">
+        <v>280</v>
+      </c>
+      <c r="AN30" t="n">
         <v>38</v>
       </c>
-      <c r="AI30" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ30" t="n">
-        <v>44</v>
-      </c>
-      <c r="AK30" t="n">
-        <v>46</v>
-      </c>
-      <c r="AL30" t="n">
-        <v>95</v>
-      </c>
-      <c r="AM30" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN30" t="n">
-        <v>1000</v>
-      </c>
       <c r="AO30" t="n">
-        <v>1000</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-22.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-22.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO30"/>
+  <dimension ref="A1:AO32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -643,7 +643,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Egyptian Premier</t>
+          <t>Saudi 1st Division</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -653,132 +653,132 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>12:00:00</t>
+          <t>09:40:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Wadi Degla</t>
+          <t>Al-Raed (KSA)</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Ghazl El Mahallah</t>
+          <t>Al-Adalh</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.92</v>
+        <v>1.02</v>
       </c>
       <c r="G2" t="n">
-        <v>2.06</v>
+        <v>1000</v>
       </c>
       <c r="H2" t="n">
-        <v>5.2</v>
+        <v>1.02</v>
       </c>
       <c r="I2" t="n">
-        <v>6.6</v>
+        <v>1000</v>
       </c>
       <c r="J2" t="n">
-        <v>3</v>
+        <v>1.02</v>
       </c>
       <c r="K2" t="n">
-        <v>3.3</v>
+        <v>950</v>
       </c>
       <c r="L2" t="n">
-        <v>1.55</v>
+        <v>1.01</v>
       </c>
       <c r="M2" t="n">
-        <v>1.13</v>
+        <v>1.01</v>
       </c>
       <c r="N2" t="n">
-        <v>2.36</v>
+        <v>1.24</v>
       </c>
       <c r="O2" t="n">
-        <v>1.63</v>
+        <v>1.25</v>
       </c>
       <c r="P2" t="n">
-        <v>1.45</v>
+        <v>1.24</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.88</v>
+        <v>1.25</v>
       </c>
       <c r="R2" t="n">
-        <v>1.15</v>
+        <v>1.18</v>
       </c>
       <c r="S2" t="n">
-        <v>6.2</v>
+        <v>1.25</v>
       </c>
       <c r="T2" t="n">
-        <v>2.4</v>
+        <v>1.01</v>
       </c>
       <c r="U2" t="n">
-        <v>1.61</v>
+        <v>1.01</v>
       </c>
       <c r="V2" t="n">
-        <v>1.18</v>
+        <v>1.01</v>
       </c>
       <c r="W2" t="n">
-        <v>1.94</v>
+        <v>1.01</v>
       </c>
       <c r="X2" t="n">
-        <v>8.6</v>
+        <v>1000</v>
       </c>
       <c r="Y2" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="Z2" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AA2" t="n">
-        <v>220</v>
+        <v>1000</v>
       </c>
       <c r="AB2" t="n">
-        <v>6.8</v>
+        <v>1000</v>
       </c>
       <c r="AC2" t="n">
-        <v>8.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="AD2" t="n">
-        <v>29</v>
+        <v>1000</v>
       </c>
       <c r="AE2" t="n">
-        <v>150</v>
+        <v>1000</v>
       </c>
       <c r="AF2" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="AH2" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AI2" t="n">
-        <v>180</v>
+        <v>1000</v>
       </c>
       <c r="AJ2" t="n">
-        <v>29</v>
+        <v>1000</v>
       </c>
       <c r="AK2" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AL2" t="n">
-        <v>90</v>
+        <v>1000</v>
       </c>
       <c r="AM2" t="n">
-        <v>350</v>
+        <v>1000</v>
       </c>
       <c r="AN2" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AO2" t="n">
-        <v>280</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Egyptian Premier</t>
+          <t>Saudi 1st Division</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -788,132 +788,132 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>12:00:00</t>
+          <t>11:10:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Haras El Hodood</t>
+          <t>Al-Ula FC</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Kahraba Ismailia</t>
+          <t>Al-Wahda (KSA)</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>2.66</v>
+        <v>1.02</v>
       </c>
       <c r="G3" t="n">
-        <v>2.84</v>
+        <v>1000</v>
       </c>
       <c r="H3" t="n">
-        <v>3.1</v>
+        <v>1.02</v>
       </c>
       <c r="I3" t="n">
-        <v>3.35</v>
+        <v>1000</v>
       </c>
       <c r="J3" t="n">
-        <v>2.98</v>
+        <v>1.02</v>
       </c>
       <c r="K3" t="n">
-        <v>3.05</v>
+        <v>950</v>
       </c>
       <c r="L3" t="n">
         <v>1.01</v>
       </c>
       <c r="M3" t="n">
-        <v>1.13</v>
+        <v>1.01</v>
       </c>
       <c r="N3" t="n">
-        <v>2.48</v>
+        <v>1.24</v>
       </c>
       <c r="O3" t="n">
-        <v>1.59</v>
+        <v>1.25</v>
       </c>
       <c r="P3" t="n">
-        <v>1.5</v>
+        <v>1.24</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.74</v>
+        <v>1.25</v>
       </c>
       <c r="R3" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="S3" t="n">
-        <v>5.9</v>
+        <v>1.25</v>
       </c>
       <c r="T3" t="n">
-        <v>2.16</v>
+        <v>1.01</v>
       </c>
       <c r="U3" t="n">
-        <v>1.74</v>
+        <v>1.01</v>
       </c>
       <c r="V3" t="n">
-        <v>1.42</v>
+        <v>1.01</v>
       </c>
       <c r="W3" t="n">
-        <v>1.54</v>
+        <v>1.01</v>
       </c>
       <c r="X3" t="n">
-        <v>8.4</v>
+        <v>1000</v>
       </c>
       <c r="Y3" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="Z3" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="AA3" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AB3" t="n">
-        <v>9.199999999999999</v>
+        <v>1000</v>
       </c>
       <c r="AC3" t="n">
-        <v>8.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="AD3" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="AE3" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AF3" t="n">
-        <v>19.5</v>
+        <v>1000</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="AH3" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AI3" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AJ3" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AK3" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AL3" t="n">
-        <v>90</v>
+        <v>1000</v>
       </c>
       <c r="AM3" t="n">
-        <v>260</v>
+        <v>1000</v>
       </c>
       <c r="AN3" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AO3" t="n">
-        <v>90</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Saudi Professional League</t>
+          <t>Egyptian Premier</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -923,132 +923,132 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>12:15:00</t>
+          <t>12:00:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Al-Taawoun Buraidah</t>
+          <t>Wadi Degla</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Al-Hazm (KSA)</t>
+          <t>Ghazl El Mahallah</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.68</v>
+        <v>1.84</v>
       </c>
       <c r="G4" t="n">
-        <v>1.76</v>
+        <v>980</v>
       </c>
       <c r="H4" t="n">
-        <v>5.6</v>
+        <v>1.45</v>
       </c>
       <c r="I4" t="n">
-        <v>6.2</v>
+        <v>980</v>
       </c>
       <c r="J4" t="n">
-        <v>3.8</v>
+        <v>1.2</v>
       </c>
       <c r="K4" t="n">
-        <v>4.2</v>
+        <v>980</v>
       </c>
       <c r="L4" t="n">
         <v>1.01</v>
       </c>
       <c r="M4" t="n">
-        <v>1.07</v>
+        <v>1.01</v>
       </c>
       <c r="N4" t="n">
-        <v>3.6</v>
+        <v>1.25</v>
       </c>
       <c r="O4" t="n">
-        <v>1.32</v>
+        <v>1.01</v>
       </c>
       <c r="P4" t="n">
-        <v>1.9</v>
+        <v>1.24</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.94</v>
+        <v>1.01</v>
       </c>
       <c r="R4" t="n">
-        <v>1.34</v>
+        <v>1.12</v>
       </c>
       <c r="S4" t="n">
-        <v>3.4</v>
+        <v>1.01</v>
       </c>
       <c r="T4" t="n">
-        <v>1.9</v>
+        <v>1.01</v>
       </c>
       <c r="U4" t="n">
-        <v>1.95</v>
+        <v>1.01</v>
       </c>
       <c r="V4" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="W4" t="n">
-        <v>2.32</v>
+        <v>1.23</v>
       </c>
       <c r="X4" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="Y4" t="n">
         <v>1000</v>
       </c>
       <c r="Z4" t="n">
-        <v>55</v>
+        <v>980</v>
       </c>
       <c r="AA4" t="n">
-        <v>180</v>
+        <v>1000</v>
       </c>
       <c r="AB4" t="n">
-        <v>8.4</v>
+        <v>1000</v>
       </c>
       <c r="AC4" t="n">
-        <v>9</v>
+        <v>1000</v>
       </c>
       <c r="AD4" t="n">
         <v>980</v>
       </c>
       <c r="AE4" t="n">
-        <v>95</v>
+        <v>1000</v>
       </c>
       <c r="AF4" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AG4" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AH4" t="n">
         <v>980</v>
       </c>
       <c r="AI4" t="n">
-        <v>95</v>
+        <v>1000</v>
       </c>
       <c r="AJ4" t="n">
         <v>1000</v>
       </c>
       <c r="AK4" t="n">
-        <v>22</v>
+        <v>980</v>
       </c>
       <c r="AL4" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="AM4" t="n">
-        <v>150</v>
+        <v>1000</v>
       </c>
       <c r="AN4" t="n">
-        <v>11.5</v>
+        <v>980</v>
       </c>
       <c r="AO4" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Saudi Professional League</t>
+          <t>Egyptian Premier</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1058,93 +1058,93 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>14:30:00</t>
+          <t>12:00:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Al-Hilal</t>
+          <t>Haras El Hodood</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Al-Feiha</t>
+          <t>Kahraba Ismailia</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.18</v>
+        <v>1.04</v>
       </c>
       <c r="G5" t="n">
-        <v>1.2</v>
+        <v>95</v>
       </c>
       <c r="H5" t="n">
-        <v>16</v>
+        <v>3.05</v>
       </c>
       <c r="I5" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="J5" t="n">
-        <v>8.199999999999999</v>
+        <v>1.57</v>
       </c>
       <c r="K5" t="n">
-        <v>10.5</v>
+        <v>3.05</v>
       </c>
       <c r="L5" t="n">
         <v>1.01</v>
       </c>
       <c r="M5" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="N5" t="n">
-        <v>6.8</v>
+        <v>1.25</v>
       </c>
       <c r="O5" t="n">
-        <v>1.13</v>
+        <v>1.01</v>
       </c>
       <c r="P5" t="n">
-        <v>3</v>
+        <v>1.24</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.4</v>
+        <v>1.01</v>
       </c>
       <c r="R5" t="n">
-        <v>1.81</v>
+        <v>1.12</v>
       </c>
       <c r="S5" t="n">
-        <v>2</v>
+        <v>1.01</v>
       </c>
       <c r="T5" t="n">
-        <v>1.98</v>
+        <v>1.01</v>
       </c>
       <c r="U5" t="n">
-        <v>1.81</v>
+        <v>1.01</v>
       </c>
       <c r="V5" t="n">
-        <v>1.05</v>
+        <v>1.01</v>
       </c>
       <c r="W5" t="n">
-        <v>5.7</v>
+        <v>1.54</v>
       </c>
       <c r="X5" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="Y5" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="Z5" t="n">
-        <v>210</v>
+        <v>1000</v>
       </c>
       <c r="AA5" t="n">
         <v>1000</v>
       </c>
       <c r="AB5" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="AC5" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AD5" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AE5" t="n">
         <v>1000</v>
@@ -1153,28 +1153,28 @@
         <v>1000</v>
       </c>
       <c r="AG5" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="AH5" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AI5" t="n">
-        <v>210</v>
+        <v>1000</v>
       </c>
       <c r="AJ5" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AK5" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="AL5" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AM5" t="n">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="AN5" t="n">
-        <v>3.9</v>
+        <v>1000</v>
       </c>
       <c r="AO5" t="n">
         <v>1000</v>
@@ -1193,132 +1193,132 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>14:30:00</t>
+          <t>12:15:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Al-Quadisiya (KSA)</t>
+          <t>Al-Taawoun Buraidah</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Al-Ittihad</t>
+          <t>Al-Hazm (KSA)</t>
         </is>
       </c>
       <c r="F6" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="G6" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="H6" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="I6" t="n">
+        <v>980</v>
+      </c>
+      <c r="J6" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="K6" t="n">
+        <v>980</v>
+      </c>
+      <c r="L6" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N6" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="P6" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="R6" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="S6" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="T6" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="U6" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="V6" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="W6" t="n">
         <v>2.3</v>
       </c>
-      <c r="G6" t="n">
-        <v>2.68</v>
-      </c>
-      <c r="H6" t="n">
-        <v>2.66</v>
-      </c>
-      <c r="I6" t="n">
-        <v>3</v>
-      </c>
-      <c r="J6" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="K6" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="L6" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="M6" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N6" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="O6" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="P6" t="n">
-        <v>2.78</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="R6" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="S6" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="T6" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="U6" t="n">
-        <v>2.78</v>
-      </c>
-      <c r="V6" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="W6" t="n">
-        <v>1.62</v>
-      </c>
       <c r="X6" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="Y6" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="Z6" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AA6" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AB6" t="n">
         <v>1000</v>
       </c>
       <c r="AC6" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AD6" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="AE6" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AF6" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AG6" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="AH6" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="AI6" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AJ6" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AK6" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AL6" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AM6" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AN6" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AO6" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>UEFA Europa League</t>
+          <t>Saudi Professional League</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1328,132 +1328,132 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>14:45:00</t>
+          <t>14:30:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Young Boys</t>
+          <t>Al-Hilal</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Lyon</t>
+          <t>Al-Feiha</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>4.6</v>
+        <v>1.16</v>
       </c>
       <c r="G7" t="n">
-        <v>4.9</v>
+        <v>1.21</v>
       </c>
       <c r="H7" t="n">
-        <v>1.79</v>
+        <v>1.09</v>
       </c>
       <c r="I7" t="n">
-        <v>1.82</v>
+        <v>1000</v>
       </c>
       <c r="J7" t="n">
-        <v>4.1</v>
+        <v>7.8</v>
       </c>
       <c r="K7" t="n">
-        <v>4.4</v>
+        <v>1000</v>
       </c>
       <c r="L7" t="n">
-        <v>1.32</v>
+        <v>1.01</v>
       </c>
       <c r="M7" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N7" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="P7" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="R7" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="S7" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="T7" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="U7" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="V7" t="n">
         <v>1.04</v>
       </c>
-      <c r="N7" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="O7" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="P7" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="R7" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="S7" t="n">
-        <v>2.72</v>
-      </c>
-      <c r="T7" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="U7" t="n">
-        <v>2.34</v>
-      </c>
-      <c r="V7" t="n">
-        <v>2.2</v>
-      </c>
       <c r="W7" t="n">
-        <v>1.26</v>
+        <v>5.7</v>
       </c>
       <c r="X7" t="n">
-        <v>23</v>
+        <v>980</v>
       </c>
       <c r="Y7" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="Z7" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AA7" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AB7" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AC7" t="n">
-        <v>10</v>
+        <v>980</v>
       </c>
       <c r="AD7" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AE7" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="AF7" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AG7" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AH7" t="n">
-        <v>18.5</v>
+        <v>1000</v>
       </c>
       <c r="AI7" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="AJ7" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AK7" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AL7" t="n">
-        <v>55</v>
+        <v>980</v>
       </c>
       <c r="AM7" t="n">
-        <v>90</v>
+        <v>1000</v>
       </c>
       <c r="AN7" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="AO7" t="n">
-        <v>8.800000000000001</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>UEFA Europa League</t>
+          <t>Saudi Professional League</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1463,126 +1463,126 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>14:45:00</t>
+          <t>14:30:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Fenerbahce</t>
+          <t>Al-Quadisiya (KSA)</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Aston Villa</t>
+          <t>Al-Ittihad</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2.7</v>
+        <v>1.09</v>
       </c>
       <c r="G8" t="n">
-        <v>2.74</v>
+        <v>2.4</v>
       </c>
       <c r="H8" t="n">
-        <v>2.74</v>
+        <v>2.64</v>
       </c>
       <c r="I8" t="n">
-        <v>2.78</v>
+        <v>980</v>
       </c>
       <c r="J8" t="n">
-        <v>3.6</v>
+        <v>1.03</v>
       </c>
       <c r="K8" t="n">
-        <v>3.7</v>
+        <v>5.2</v>
       </c>
       <c r="L8" t="n">
-        <v>1.35</v>
+        <v>1.22</v>
       </c>
       <c r="M8" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="N8" t="n">
-        <v>4.4</v>
+        <v>1.28</v>
       </c>
       <c r="O8" t="n">
-        <v>1.26</v>
+        <v>1.15</v>
       </c>
       <c r="P8" t="n">
-        <v>2.2</v>
+        <v>1.28</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.79</v>
+        <v>1.15</v>
       </c>
       <c r="R8" t="n">
-        <v>1.47</v>
+        <v>1.28</v>
       </c>
       <c r="S8" t="n">
-        <v>2.92</v>
+        <v>1.15</v>
       </c>
       <c r="T8" t="n">
-        <v>1.65</v>
+        <v>1.01</v>
       </c>
       <c r="U8" t="n">
-        <v>2.44</v>
+        <v>1.01</v>
       </c>
       <c r="V8" t="n">
-        <v>1.56</v>
+        <v>1.02</v>
       </c>
       <c r="W8" t="n">
-        <v>1.57</v>
+        <v>1.71</v>
       </c>
       <c r="X8" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="Y8" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="Z8" t="n">
-        <v>19</v>
+        <v>1000</v>
       </c>
       <c r="AA8" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AB8" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="AC8" t="n">
-        <v>8.199999999999999</v>
+        <v>1000</v>
       </c>
       <c r="AD8" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AE8" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
       <c r="AF8" t="n">
-        <v>19</v>
+        <v>1000</v>
       </c>
       <c r="AG8" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AH8" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="AI8" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AJ8" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AK8" t="n">
-        <v>27</v>
+        <v>1000</v>
       </c>
       <c r="AL8" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AM8" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AN8" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="AO8" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="9">
@@ -1603,121 +1603,121 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Bologna</t>
+          <t>Freiburg</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Celtic</t>
+          <t>Maccabi Tel Aviv</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.6</v>
+        <v>1.2</v>
       </c>
       <c r="G9" t="n">
-        <v>1.61</v>
+        <v>1.21</v>
       </c>
       <c r="H9" t="n">
-        <v>6.2</v>
+        <v>17.5</v>
       </c>
       <c r="I9" t="n">
-        <v>6.8</v>
+        <v>21</v>
       </c>
       <c r="J9" t="n">
-        <v>4.4</v>
+        <v>8</v>
       </c>
       <c r="K9" t="n">
-        <v>4.6</v>
+        <v>8.6</v>
       </c>
       <c r="L9" t="n">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="M9" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N9" t="n">
+        <v>6</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="P9" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="R9" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="S9" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="T9" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="U9" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="V9" t="n">
         <v>1.05</v>
       </c>
-      <c r="N9" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="O9" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="P9" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="R9" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="S9" t="n">
-        <v>2.96</v>
-      </c>
-      <c r="T9" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="U9" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="V9" t="n">
-        <v>1.17</v>
-      </c>
       <c r="W9" t="n">
-        <v>2.62</v>
+        <v>5.7</v>
       </c>
       <c r="X9" t="n">
+        <v>50</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>55</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>11</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>24</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>240</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AK9" t="n">
         <v>18</v>
       </c>
-      <c r="Y9" t="n">
-        <v>25</v>
-      </c>
-      <c r="Z9" t="n">
-        <v>55</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>180</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>10</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>25</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>90</v>
-      </c>
-      <c r="AF9" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>22</v>
-      </c>
-      <c r="AI9" t="n">
-        <v>80</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>15</v>
-      </c>
-      <c r="AK9" t="n">
-        <v>15.5</v>
-      </c>
       <c r="AL9" t="n">
-        <v>32</v>
+        <v>380</v>
       </c>
       <c r="AM9" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AN9" t="n">
-        <v>7.6</v>
+        <v>3.65</v>
       </c>
       <c r="AO9" t="n">
-        <v>95</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="10">
@@ -1738,121 +1738,121 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Feyenoord</t>
+          <t>Brann</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Sturm Graz</t>
+          <t>Midtjylland</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.45</v>
+        <v>3.3</v>
       </c>
       <c r="G10" t="n">
-        <v>1.47</v>
+        <v>3.45</v>
       </c>
       <c r="H10" t="n">
-        <v>7.4</v>
+        <v>2.26</v>
       </c>
       <c r="I10" t="n">
-        <v>8</v>
+        <v>2.32</v>
       </c>
       <c r="J10" t="n">
-        <v>5.2</v>
+        <v>3.65</v>
       </c>
       <c r="K10" t="n">
-        <v>5.6</v>
+        <v>3.8</v>
       </c>
       <c r="L10" t="n">
-        <v>1.26</v>
+        <v>1.34</v>
       </c>
       <c r="M10" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="N10" t="n">
-        <v>6.6</v>
+        <v>4.9</v>
       </c>
       <c r="O10" t="n">
-        <v>1.16</v>
+        <v>1.24</v>
       </c>
       <c r="P10" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="R10" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="S10" t="n">
         <v>2.88</v>
       </c>
-      <c r="Q10" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="R10" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="S10" t="n">
-        <v>2.24</v>
-      </c>
       <c r="T10" t="n">
-        <v>1.71</v>
+        <v>1.55</v>
       </c>
       <c r="U10" t="n">
-        <v>2.32</v>
+        <v>2.28</v>
       </c>
       <c r="V10" t="n">
-        <v>1.14</v>
+        <v>1.75</v>
       </c>
       <c r="W10" t="n">
-        <v>3.1</v>
+        <v>1.4</v>
       </c>
       <c r="X10" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="Y10" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="Z10" t="n">
         <v>1000</v>
       </c>
       <c r="AA10" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AB10" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AC10" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AD10" t="n">
-        <v>30</v>
+        <v>11.5</v>
       </c>
       <c r="AE10" t="n">
-        <v>95</v>
+        <v>980</v>
       </c>
       <c r="AF10" t="n">
-        <v>11</v>
+        <v>980</v>
       </c>
       <c r="AG10" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AH10" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AI10" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AJ10" t="n">
-        <v>14</v>
+        <v>60</v>
       </c>
       <c r="AK10" t="n">
-        <v>14</v>
+        <v>980</v>
       </c>
       <c r="AL10" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="AM10" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AN10" t="n">
-        <v>4.9</v>
+        <v>980</v>
       </c>
       <c r="AO10" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="11">
@@ -1873,121 +1873,121 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Malmo FF</t>
+          <t>PAOK</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Crvena Zvezda</t>
+          <t>Betis</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>3.8</v>
+        <v>2.68</v>
       </c>
       <c r="G11" t="n">
-        <v>3.9</v>
+        <v>2.72</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>2.78</v>
       </c>
       <c r="I11" t="n">
-        <v>2.04</v>
+        <v>2.82</v>
       </c>
       <c r="J11" t="n">
-        <v>3.95</v>
+        <v>3.6</v>
       </c>
       <c r="K11" t="n">
-        <v>4.1</v>
+        <v>3.7</v>
       </c>
       <c r="L11" t="n">
-        <v>1.35</v>
+        <v>1.37</v>
       </c>
       <c r="M11" t="n">
         <v>1.05</v>
       </c>
       <c r="N11" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="O11" t="n">
         <v>1.27</v>
       </c>
       <c r="P11" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.8</v>
+        <v>1.82</v>
       </c>
       <c r="R11" t="n">
-        <v>1.46</v>
+        <v>1.45</v>
       </c>
       <c r="S11" t="n">
-        <v>2.98</v>
+        <v>3.1</v>
       </c>
       <c r="T11" t="n">
-        <v>1.72</v>
+        <v>1.67</v>
       </c>
       <c r="U11" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="V11" t="n">
-        <v>1.96</v>
+        <v>1.54</v>
       </c>
       <c r="W11" t="n">
-        <v>1.34</v>
+        <v>1.58</v>
       </c>
       <c r="X11" t="n">
-        <v>18</v>
+        <v>16.5</v>
       </c>
       <c r="Y11" t="n">
-        <v>11</v>
+        <v>13.5</v>
       </c>
       <c r="Z11" t="n">
+        <v>19</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>42</v>
+      </c>
+      <c r="AB11" t="n">
         <v>13</v>
       </c>
-      <c r="AA11" t="n">
-        <v>24</v>
-      </c>
-      <c r="AB11" t="n">
-        <v>16.5</v>
-      </c>
       <c r="AC11" t="n">
-        <v>8.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD11" t="n">
-        <v>10.5</v>
+        <v>12.5</v>
       </c>
       <c r="AE11" t="n">
-        <v>19.5</v>
+        <v>28</v>
       </c>
       <c r="AF11" t="n">
-        <v>29</v>
+        <v>18.5</v>
       </c>
       <c r="AG11" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH11" t="n">
         <v>16</v>
       </c>
-      <c r="AH11" t="n">
-        <v>17</v>
-      </c>
       <c r="AI11" t="n">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="AJ11" t="n">
+        <v>40</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>28</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>36</v>
+      </c>
+      <c r="AM11" t="n">
         <v>75</v>
       </c>
-      <c r="AK11" t="n">
-        <v>44</v>
-      </c>
-      <c r="AL11" t="n">
-        <v>48</v>
-      </c>
-      <c r="AM11" t="n">
-        <v>80</v>
-      </c>
       <c r="AN11" t="n">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="AO11" t="n">
-        <v>12.5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12">
@@ -2008,49 +2008,49 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>PAOK</t>
+          <t>Malmo FF</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Betis</t>
+          <t>Crvena Zvezda</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.7</v>
+        <v>3.85</v>
       </c>
       <c r="G12" t="n">
-        <v>2.74</v>
+        <v>3.9</v>
       </c>
       <c r="H12" t="n">
-        <v>2.72</v>
+        <v>2.02</v>
       </c>
       <c r="I12" t="n">
-        <v>2.76</v>
+        <v>2.04</v>
       </c>
       <c r="J12" t="n">
-        <v>3.65</v>
+        <v>3.95</v>
       </c>
       <c r="K12" t="n">
-        <v>3.75</v>
+        <v>4.1</v>
       </c>
       <c r="L12" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="M12" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N12" t="n">
         <v>4.5</v>
       </c>
       <c r="O12" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="P12" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.82</v>
+        <v>1.8</v>
       </c>
       <c r="R12" t="n">
         <v>1.45</v>
@@ -2059,70 +2059,70 @@
         <v>3.05</v>
       </c>
       <c r="T12" t="n">
-        <v>1.67</v>
+        <v>1.71</v>
       </c>
       <c r="U12" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="V12" t="n">
-        <v>1.56</v>
+        <v>1.96</v>
       </c>
       <c r="W12" t="n">
-        <v>1.57</v>
+        <v>1.34</v>
       </c>
       <c r="X12" t="n">
-        <v>16.5</v>
+        <v>18</v>
       </c>
       <c r="Y12" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z12" t="n">
         <v>13</v>
       </c>
-      <c r="Z12" t="n">
-        <v>19</v>
-      </c>
       <c r="AA12" t="n">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="AB12" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AC12" t="n">
-        <v>8.199999999999999</v>
+        <v>8.6</v>
       </c>
       <c r="AD12" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>29</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>16</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>17</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>32</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>75</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>44</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>48</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>80</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>38</v>
+      </c>
+      <c r="AO12" t="n">
         <v>12.5</v>
-      </c>
-      <c r="AE12" t="n">
-        <v>28</v>
-      </c>
-      <c r="AF12" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AG12" t="n">
-        <v>12</v>
-      </c>
-      <c r="AH12" t="n">
-        <v>16</v>
-      </c>
-      <c r="AI12" t="n">
-        <v>36</v>
-      </c>
-      <c r="AJ12" t="n">
-        <v>42</v>
-      </c>
-      <c r="AK12" t="n">
-        <v>28</v>
-      </c>
-      <c r="AL12" t="n">
-        <v>36</v>
-      </c>
-      <c r="AM12" t="n">
-        <v>75</v>
-      </c>
-      <c r="AN12" t="n">
-        <v>21</v>
-      </c>
-      <c r="AO12" t="n">
-        <v>20</v>
       </c>
     </row>
     <row r="13">
@@ -2143,121 +2143,121 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Brann</t>
+          <t>Plzen</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Midtjylland</t>
+          <t>Porto</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>3.25</v>
+        <v>4.3</v>
       </c>
       <c r="G13" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+      <c r="I13" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="J13" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="K13" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="L13" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N13" t="n">
         <v>3.4</v>
       </c>
-      <c r="H13" t="n">
-        <v>2.26</v>
-      </c>
-      <c r="I13" t="n">
-        <v>2.34</v>
-      </c>
-      <c r="J13" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="K13" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="L13" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="M13" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N13" t="n">
-        <v>4.7</v>
-      </c>
       <c r="O13" t="n">
-        <v>1.24</v>
+        <v>1.39</v>
       </c>
       <c r="P13" t="n">
-        <v>2.28</v>
+        <v>1.79</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.72</v>
+        <v>2.2</v>
       </c>
       <c r="R13" t="n">
-        <v>1.51</v>
+        <v>1.29</v>
       </c>
       <c r="S13" t="n">
-        <v>2.8</v>
+        <v>4.1</v>
       </c>
       <c r="T13" t="n">
-        <v>1.63</v>
+        <v>1.97</v>
       </c>
       <c r="U13" t="n">
-        <v>2.44</v>
+        <v>1.91</v>
       </c>
       <c r="V13" t="n">
-        <v>1.75</v>
+        <v>1.96</v>
       </c>
       <c r="W13" t="n">
-        <v>1.42</v>
+        <v>1.29</v>
       </c>
       <c r="X13" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>24</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>14</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>24</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>30</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>18</v>
+      </c>
+      <c r="AH13" t="n">
         <v>21</v>
       </c>
-      <c r="Y13" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="Z13" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AA13" t="n">
-        <v>34</v>
-      </c>
-      <c r="AB13" t="n">
-        <v>17</v>
-      </c>
-      <c r="AC13" t="n">
-        <v>9</v>
-      </c>
-      <c r="AD13" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AE13" t="n">
-        <v>23</v>
-      </c>
-      <c r="AF13" t="n">
-        <v>29</v>
-      </c>
-      <c r="AG13" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AH13" t="n">
-        <v>16.5</v>
-      </c>
       <c r="AI13" t="n">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="AJ13" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="AK13" t="n">
-        <v>36</v>
+        <v>65</v>
       </c>
       <c r="AL13" t="n">
-        <v>42</v>
+        <v>75</v>
       </c>
       <c r="AM13" t="n">
-        <v>70</v>
+        <v>130</v>
       </c>
       <c r="AN13" t="n">
-        <v>27</v>
+        <v>75</v>
       </c>
       <c r="AO13" t="n">
-        <v>14.5</v>
+        <v>17.5</v>
       </c>
     </row>
     <row r="14">
@@ -2278,121 +2278,121 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Freiburg</t>
+          <t>Bologna</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Maccabi Tel Aviv</t>
+          <t>Celtic</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.2</v>
+        <v>1.59</v>
       </c>
       <c r="G14" t="n">
-        <v>1.21</v>
+        <v>1.61</v>
       </c>
       <c r="H14" t="n">
-        <v>17.5</v>
+        <v>6.4</v>
       </c>
       <c r="I14" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="J14" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="K14" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="L14" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N14" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="O14" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P14" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="R14" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="S14" t="n">
+        <v>3</v>
+      </c>
+      <c r="T14" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="U14" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="V14" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="W14" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="X14" t="n">
+        <v>18</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>25</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>55</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>180</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>9</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>25</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>90</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AH14" t="n">
         <v>22</v>
       </c>
-      <c r="J14" t="n">
-        <v>8</v>
-      </c>
-      <c r="K14" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="L14" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="M14" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N14" t="n">
-        <v>6</v>
-      </c>
-      <c r="O14" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="P14" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="R14" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="S14" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="T14" t="n">
-        <v>2.48</v>
-      </c>
-      <c r="U14" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="V14" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="W14" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="X14" t="n">
-        <v>50</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>60</v>
-      </c>
-      <c r="Z14" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA14" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB14" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AC14" t="n">
-        <v>21</v>
-      </c>
-      <c r="AD14" t="n">
-        <v>85</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>470</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AG14" t="n">
-        <v>13</v>
-      </c>
-      <c r="AH14" t="n">
-        <v>240</v>
-      </c>
       <c r="AI14" t="n">
-        <v>310</v>
+        <v>80</v>
       </c>
       <c r="AJ14" t="n">
-        <v>8.4</v>
+        <v>15</v>
       </c>
       <c r="AK14" t="n">
         <v>15.5</v>
       </c>
       <c r="AL14" t="n">
-        <v>380</v>
+        <v>32</v>
       </c>
       <c r="AM14" t="n">
-        <v>360</v>
+        <v>110</v>
       </c>
       <c r="AN14" t="n">
-        <v>3.7</v>
+        <v>8</v>
       </c>
       <c r="AO14" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
     </row>
     <row r="15">
@@ -2413,127 +2413,127 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Plzen</t>
+          <t>Fenerbahce</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Porto</t>
+          <t>Aston Villa</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>4.3</v>
+        <v>2.7</v>
       </c>
       <c r="G15" t="n">
-        <v>4.5</v>
+        <v>2.72</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>2.76</v>
       </c>
       <c r="I15" t="n">
-        <v>2.04</v>
+        <v>2.78</v>
       </c>
       <c r="J15" t="n">
-        <v>3.55</v>
+        <v>3.65</v>
       </c>
       <c r="K15" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="L15" t="n">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="M15" t="n">
-        <v>1.08</v>
+        <v>1.05</v>
       </c>
       <c r="N15" t="n">
-        <v>3.35</v>
+        <v>4.6</v>
       </c>
       <c r="O15" t="n">
-        <v>1.39</v>
+        <v>1.26</v>
       </c>
       <c r="P15" t="n">
-        <v>1.78</v>
+        <v>2.2</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.2</v>
+        <v>1.79</v>
       </c>
       <c r="R15" t="n">
-        <v>1.29</v>
+        <v>1.47</v>
       </c>
       <c r="S15" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T15" t="n">
-        <v>1.97</v>
+        <v>1.65</v>
       </c>
       <c r="U15" t="n">
-        <v>1.96</v>
+        <v>2.42</v>
       </c>
       <c r="V15" t="n">
-        <v>1.96</v>
+        <v>1.56</v>
       </c>
       <c r="W15" t="n">
-        <v>1.28</v>
+        <v>1.58</v>
       </c>
       <c r="X15" t="n">
-        <v>12.5</v>
+        <v>17.5</v>
       </c>
       <c r="Y15" t="n">
-        <v>8.199999999999999</v>
+        <v>13.5</v>
       </c>
       <c r="Z15" t="n">
-        <v>11.5</v>
+        <v>19</v>
       </c>
       <c r="AA15" t="n">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="AB15" t="n">
         <v>14</v>
       </c>
       <c r="AC15" t="n">
-        <v>7.8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD15" t="n">
-        <v>10.5</v>
+        <v>12</v>
       </c>
       <c r="AE15" t="n">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="AF15" t="n">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="AG15" t="n">
-        <v>18</v>
+        <v>12.5</v>
       </c>
       <c r="AH15" t="n">
-        <v>21</v>
+        <v>15.5</v>
       </c>
       <c r="AI15" t="n">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="AJ15" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="AK15" t="n">
-        <v>65</v>
+        <v>27</v>
       </c>
       <c r="AL15" t="n">
-        <v>75</v>
+        <v>36</v>
       </c>
       <c r="AM15" t="n">
-        <v>140</v>
+        <v>70</v>
       </c>
       <c r="AN15" t="n">
-        <v>75</v>
+        <v>19.5</v>
       </c>
       <c r="AO15" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Egyptian Premier</t>
+          <t>UEFA Europa League</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -2543,132 +2543,132 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>14:45:00</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Ismaily</t>
+          <t>Young Boys</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Al Mokawloon</t>
+          <t>Lyon</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>3.9</v>
+        <v>4.6</v>
       </c>
       <c r="G16" t="n">
-        <v>4.5</v>
+        <v>4.9</v>
       </c>
       <c r="H16" t="n">
-        <v>2.32</v>
+        <v>1.79</v>
       </c>
       <c r="I16" t="n">
-        <v>2.54</v>
+        <v>1.82</v>
       </c>
       <c r="J16" t="n">
-        <v>2.78</v>
+        <v>4.1</v>
       </c>
       <c r="K16" t="n">
-        <v>3.05</v>
+        <v>4.4</v>
       </c>
       <c r="L16" t="n">
-        <v>1.58</v>
+        <v>1.32</v>
       </c>
       <c r="M16" t="n">
-        <v>1.17</v>
+        <v>1.04</v>
       </c>
       <c r="N16" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="O16" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P16" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="R16" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="S16" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="T16" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="U16" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="V16" t="n">
         <v>2.2</v>
       </c>
-      <c r="O16" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="P16" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="R16" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="S16" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="T16" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="U16" t="n">
-        <v>1.61</v>
-      </c>
-      <c r="V16" t="n">
-        <v>1.65</v>
-      </c>
       <c r="W16" t="n">
-        <v>1.29</v>
+        <v>1.26</v>
       </c>
       <c r="X16" t="n">
-        <v>8</v>
+        <v>980</v>
       </c>
       <c r="Y16" t="n">
-        <v>7.6</v>
+        <v>1000</v>
       </c>
       <c r="Z16" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="AA16" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AB16" t="n">
-        <v>11.5</v>
+        <v>980</v>
       </c>
       <c r="AC16" t="n">
-        <v>8.6</v>
+        <v>1000</v>
       </c>
       <c r="AD16" t="n">
-        <v>16.5</v>
+        <v>10.5</v>
       </c>
       <c r="AE16" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AF16" t="n">
-        <v>970</v>
+        <v>980</v>
       </c>
       <c r="AG16" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AH16" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AI16" t="n">
-        <v>110</v>
+        <v>980</v>
       </c>
       <c r="AJ16" t="n">
-        <v>140</v>
+        <v>1000</v>
       </c>
       <c r="AK16" t="n">
-        <v>110</v>
+        <v>60</v>
       </c>
       <c r="AL16" t="n">
-        <v>160</v>
+        <v>65</v>
       </c>
       <c r="AM16" t="n">
-        <v>370</v>
+        <v>1000</v>
       </c>
       <c r="AN16" t="n">
-        <v>190</v>
+        <v>980</v>
       </c>
       <c r="AO16" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Argentinian Primera Division</t>
+          <t>UEFA Europa League</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -2678,132 +2678,132 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>14:45:00</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Aldosivi</t>
+          <t>Feyenoord</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Defensa y Justicia</t>
+          <t>Sturm Graz</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>2.7</v>
+        <v>1.45</v>
       </c>
       <c r="G17" t="n">
-        <v>2.92</v>
+        <v>1.47</v>
       </c>
       <c r="H17" t="n">
-        <v>3.05</v>
+        <v>7.4</v>
       </c>
       <c r="I17" t="n">
-        <v>3.35</v>
+        <v>8</v>
       </c>
       <c r="J17" t="n">
-        <v>2.94</v>
+        <v>5.2</v>
       </c>
       <c r="K17" t="n">
-        <v>3.15</v>
+        <v>5.6</v>
       </c>
       <c r="L17" t="n">
-        <v>1.59</v>
+        <v>1.26</v>
       </c>
       <c r="M17" t="n">
-        <v>1.13</v>
+        <v>1.03</v>
       </c>
       <c r="N17" t="n">
-        <v>2.62</v>
+        <v>6.6</v>
       </c>
       <c r="O17" t="n">
-        <v>1.55</v>
+        <v>1.16</v>
       </c>
       <c r="P17" t="n">
-        <v>1.55</v>
+        <v>2.9</v>
       </c>
       <c r="Q17" t="n">
-        <v>2.62</v>
+        <v>1.5</v>
       </c>
       <c r="R17" t="n">
-        <v>1.19</v>
+        <v>1.76</v>
       </c>
       <c r="S17" t="n">
-        <v>5.3</v>
+        <v>2.24</v>
       </c>
       <c r="T17" t="n">
-        <v>2.08</v>
+        <v>1.7</v>
       </c>
       <c r="U17" t="n">
-        <v>1.8</v>
+        <v>2.32</v>
       </c>
       <c r="V17" t="n">
-        <v>1.42</v>
+        <v>1.14</v>
       </c>
       <c r="W17" t="n">
-        <v>1.52</v>
+        <v>3.1</v>
       </c>
       <c r="X17" t="n">
+        <v>60</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>65</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>44</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>11</v>
+      </c>
+      <c r="AG17" t="n">
         <v>10.5</v>
       </c>
-      <c r="Y17" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="Z17" t="n">
-        <v>24</v>
-      </c>
-      <c r="AA17" t="n">
-        <v>65</v>
-      </c>
-      <c r="AB17" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="AC17" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="AD17" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AE17" t="n">
-        <v>60</v>
-      </c>
-      <c r="AF17" t="n">
-        <v>970</v>
-      </c>
-      <c r="AG17" t="n">
+      <c r="AH17" t="n">
+        <v>29</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ17" t="n">
         <v>16</v>
       </c>
-      <c r="AH17" t="n">
-        <v>27</v>
-      </c>
-      <c r="AI17" t="n">
-        <v>90</v>
-      </c>
-      <c r="AJ17" t="n">
-        <v>55</v>
-      </c>
       <c r="AK17" t="n">
-        <v>48</v>
+        <v>14</v>
       </c>
       <c r="AL17" t="n">
+        <v>26</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>95</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="AO17" t="n">
         <v>85</v>
-      </c>
-      <c r="AM17" t="n">
-        <v>220</v>
-      </c>
-      <c r="AN17" t="n">
-        <v>60</v>
-      </c>
-      <c r="AO17" t="n">
-        <v>80</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>UEFA Europa League</t>
+          <t>Egyptian Premier</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -2813,126 +2813,126 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Rangers</t>
+          <t>Ismaily</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Ludogorets</t>
+          <t>Al Mokawloon</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1.99</v>
+        <v>1.09</v>
       </c>
       <c r="G18" t="n">
-        <v>2.02</v>
+        <v>980</v>
       </c>
       <c r="H18" t="n">
-        <v>3.95</v>
+        <v>1.52</v>
       </c>
       <c r="I18" t="n">
-        <v>4.1</v>
+        <v>980</v>
       </c>
       <c r="J18" t="n">
-        <v>3.85</v>
+        <v>1.03</v>
       </c>
       <c r="K18" t="n">
-        <v>3.95</v>
+        <v>950</v>
       </c>
       <c r="L18" t="n">
-        <v>1.38</v>
+        <v>1.01</v>
       </c>
       <c r="M18" t="n">
-        <v>1.06</v>
+        <v>1.01</v>
       </c>
       <c r="N18" t="n">
-        <v>4.3</v>
+        <v>1.25</v>
       </c>
       <c r="O18" t="n">
-        <v>1.28</v>
+        <v>1.01</v>
       </c>
       <c r="P18" t="n">
-        <v>2.12</v>
+        <v>1.24</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.84</v>
+        <v>1.01</v>
       </c>
       <c r="R18" t="n">
-        <v>1.44</v>
+        <v>1.12</v>
       </c>
       <c r="S18" t="n">
-        <v>3.15</v>
+        <v>1.01</v>
       </c>
       <c r="T18" t="n">
-        <v>1.74</v>
+        <v>1.01</v>
       </c>
       <c r="U18" t="n">
-        <v>2.22</v>
+        <v>1.01</v>
       </c>
       <c r="V18" t="n">
-        <v>1.32</v>
+        <v>1.01</v>
       </c>
       <c r="W18" t="n">
-        <v>1.98</v>
+        <v>1.01</v>
       </c>
       <c r="X18" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="Y18" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="Z18" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="AA18" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AB18" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AC18" t="n">
-        <v>8.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="AD18" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="AE18" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="AF18" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AG18" t="n">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="AH18" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="AI18" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AJ18" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AK18" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="AL18" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AM18" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AN18" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AO18" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="19">
@@ -2953,121 +2953,121 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Celta Vigo</t>
+          <t>Red Bull Salzburg</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Lille</t>
+          <t>FC Basel</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>2.5</v>
+        <v>2.46</v>
       </c>
       <c r="G19" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="H19" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="I19" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="J19" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="K19" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="L19" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="M19" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N19" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="O19" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="P19" t="n">
         <v>2.52</v>
       </c>
-      <c r="H19" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="I19" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="J19" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="K19" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="L19" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="M19" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N19" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="O19" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="P19" t="n">
-        <v>1.98</v>
-      </c>
       <c r="Q19" t="n">
-        <v>1.96</v>
+        <v>1.61</v>
       </c>
       <c r="R19" t="n">
-        <v>1.38</v>
+        <v>1.6</v>
       </c>
       <c r="S19" t="n">
-        <v>3.4</v>
+        <v>2.56</v>
       </c>
       <c r="T19" t="n">
-        <v>1.76</v>
+        <v>1.53</v>
       </c>
       <c r="U19" t="n">
-        <v>2.24</v>
+        <v>2.66</v>
       </c>
       <c r="V19" t="n">
-        <v>1.45</v>
+        <v>1.51</v>
       </c>
       <c r="W19" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="X19" t="n">
-        <v>13.5</v>
+        <v>22</v>
       </c>
       <c r="Y19" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="Z19" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AA19" t="n">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="AB19" t="n">
-        <v>11</v>
+        <v>15.5</v>
       </c>
       <c r="AC19" t="n">
-        <v>7.8</v>
+        <v>9.4</v>
       </c>
       <c r="AD19" t="n">
         <v>13</v>
       </c>
       <c r="AE19" t="n">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="AF19" t="n">
-        <v>16</v>
+        <v>19.5</v>
       </c>
       <c r="AG19" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AH19" t="n">
-        <v>16.5</v>
+        <v>15</v>
       </c>
       <c r="AI19" t="n">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="AJ19" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AK19" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AL19" t="n">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="AM19" t="n">
-        <v>85</v>
+        <v>60</v>
       </c>
       <c r="AN19" t="n">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="AO19" t="n">
-        <v>32</v>
+        <v>17.5</v>
       </c>
     </row>
     <row r="20">
@@ -3088,121 +3088,121 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>FC Utrecht</t>
+          <t>Dinamo Zagreb</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Genk</t>
+          <t>FCSB</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>2.86</v>
+        <v>1.66</v>
       </c>
       <c r="G20" t="n">
-        <v>2.92</v>
+        <v>1.68</v>
       </c>
       <c r="H20" t="n">
-        <v>2.62</v>
+        <v>5.8</v>
       </c>
       <c r="I20" t="n">
-        <v>2.66</v>
+        <v>6.2</v>
       </c>
       <c r="J20" t="n">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="K20" t="n">
-        <v>3.65</v>
+        <v>4.3</v>
       </c>
       <c r="L20" t="n">
-        <v>1.37</v>
+        <v>1.41</v>
       </c>
       <c r="M20" t="n">
         <v>1.06</v>
       </c>
       <c r="N20" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="O20" t="n">
-        <v>1.29</v>
+        <v>1.31</v>
       </c>
       <c r="P20" t="n">
-        <v>2.06</v>
+        <v>1.99</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.84</v>
+        <v>1.96</v>
       </c>
       <c r="R20" t="n">
-        <v>1.41</v>
+        <v>1.37</v>
       </c>
       <c r="S20" t="n">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="T20" t="n">
-        <v>1.7</v>
+        <v>1.97</v>
       </c>
       <c r="U20" t="n">
-        <v>2.32</v>
+        <v>1.94</v>
       </c>
       <c r="V20" t="n">
-        <v>1.6</v>
+        <v>1.19</v>
       </c>
       <c r="W20" t="n">
-        <v>1.52</v>
+        <v>2.46</v>
       </c>
       <c r="X20" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>20</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>48</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>170</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>23</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>90</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>22</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>90</v>
+      </c>
+      <c r="AJ20" t="n">
         <v>16</v>
       </c>
-      <c r="Y20" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="Z20" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AA20" t="n">
+      <c r="AK20" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AL20" t="n">
         <v>38</v>
       </c>
-      <c r="AB20" t="n">
-        <v>13</v>
-      </c>
-      <c r="AC20" t="n">
-        <v>8</v>
-      </c>
-      <c r="AD20" t="n">
-        <v>12</v>
-      </c>
-      <c r="AE20" t="n">
-        <v>27</v>
-      </c>
-      <c r="AF20" t="n">
-        <v>20</v>
-      </c>
-      <c r="AG20" t="n">
-        <v>13</v>
-      </c>
-      <c r="AH20" t="n">
-        <v>16</v>
-      </c>
-      <c r="AI20" t="n">
-        <v>38</v>
-      </c>
-      <c r="AJ20" t="n">
-        <v>46</v>
-      </c>
-      <c r="AK20" t="n">
-        <v>30</v>
-      </c>
-      <c r="AL20" t="n">
-        <v>40</v>
-      </c>
       <c r="AM20" t="n">
-        <v>80</v>
+        <v>130</v>
       </c>
       <c r="AN20" t="n">
-        <v>25</v>
+        <v>10.5</v>
       </c>
       <c r="AO20" t="n">
-        <v>21</v>
+        <v>110</v>
       </c>
     </row>
     <row r="21">
@@ -3223,121 +3223,121 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Ferencvaros</t>
+          <t>Braga</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Panathinaikos</t>
+          <t>Nottm Forest</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>2.38</v>
+        <v>2.82</v>
       </c>
       <c r="G21" t="n">
-        <v>2.5</v>
+        <v>2.86</v>
       </c>
       <c r="H21" t="n">
-        <v>3.15</v>
+        <v>2.76</v>
       </c>
       <c r="I21" t="n">
-        <v>3.3</v>
+        <v>2.8</v>
       </c>
       <c r="J21" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="K21" t="n">
         <v>3.45</v>
       </c>
-      <c r="K21" t="n">
-        <v>3.6</v>
-      </c>
       <c r="L21" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="M21" t="n">
         <v>1.07</v>
       </c>
       <c r="N21" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="O21" t="n">
-        <v>1.3</v>
+        <v>1.32</v>
       </c>
       <c r="P21" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="Q21" t="n">
         <v>2</v>
       </c>
-      <c r="Q21" t="n">
-        <v>1.84</v>
-      </c>
       <c r="R21" t="n">
-        <v>1.39</v>
+        <v>1.36</v>
       </c>
       <c r="S21" t="n">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="T21" t="n">
-        <v>1.74</v>
+        <v>1.76</v>
       </c>
       <c r="U21" t="n">
         <v>2.22</v>
       </c>
       <c r="V21" t="n">
-        <v>1.43</v>
+        <v>1.55</v>
       </c>
       <c r="W21" t="n">
-        <v>1.66</v>
+        <v>1.53</v>
       </c>
       <c r="X21" t="n">
-        <v>15.5</v>
+        <v>14</v>
       </c>
       <c r="Y21" t="n">
-        <v>13.5</v>
+        <v>12</v>
       </c>
       <c r="Z21" t="n">
+        <v>18</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>42</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>12</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>30</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>17</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>42</v>
+      </c>
+      <c r="AJ21" t="n">
+        <v>42</v>
+      </c>
+      <c r="AK21" t="n">
+        <v>32</v>
+      </c>
+      <c r="AL21" t="n">
+        <v>42</v>
+      </c>
+      <c r="AM21" t="n">
+        <v>90</v>
+      </c>
+      <c r="AN21" t="n">
+        <v>27</v>
+      </c>
+      <c r="AO21" t="n">
         <v>26</v>
-      </c>
-      <c r="AA21" t="n">
-        <v>65</v>
-      </c>
-      <c r="AB21" t="n">
-        <v>11</v>
-      </c>
-      <c r="AC21" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AD21" t="n">
-        <v>16</v>
-      </c>
-      <c r="AE21" t="n">
-        <v>980</v>
-      </c>
-      <c r="AF21" t="n">
-        <v>19</v>
-      </c>
-      <c r="AG21" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AH21" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AI21" t="n">
-        <v>55</v>
-      </c>
-      <c r="AJ21" t="n">
-        <v>40</v>
-      </c>
-      <c r="AK21" t="n">
-        <v>30</v>
-      </c>
-      <c r="AL21" t="n">
-        <v>44</v>
-      </c>
-      <c r="AM21" t="n">
-        <v>100</v>
-      </c>
-      <c r="AN21" t="n">
-        <v>23</v>
-      </c>
-      <c r="AO21" t="n">
-        <v>38</v>
       </c>
     </row>
     <row r="22">
@@ -3358,118 +3358,118 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Nice</t>
+          <t>Roma</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Go Ahead Eagles</t>
+          <t>Stuttgart</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>1.88</v>
+        <v>2.06</v>
       </c>
       <c r="G22" t="n">
-        <v>1.95</v>
+        <v>2.08</v>
       </c>
       <c r="H22" t="n">
-        <v>4.1</v>
+        <v>3.85</v>
       </c>
       <c r="I22" t="n">
-        <v>4.3</v>
+        <v>3.95</v>
       </c>
       <c r="J22" t="n">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="K22" t="n">
-        <v>4.2</v>
+        <v>3.85</v>
       </c>
       <c r="L22" t="n">
-        <v>1.28</v>
+        <v>1.37</v>
       </c>
       <c r="M22" t="n">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="N22" t="n">
-        <v>4.9</v>
+        <v>4.5</v>
       </c>
       <c r="O22" t="n">
-        <v>1.22</v>
+        <v>1.26</v>
       </c>
       <c r="P22" t="n">
-        <v>2.36</v>
+        <v>2.16</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.67</v>
+        <v>1.82</v>
       </c>
       <c r="R22" t="n">
-        <v>1.55</v>
+        <v>1.46</v>
       </c>
       <c r="S22" t="n">
-        <v>2.68</v>
+        <v>3.05</v>
       </c>
       <c r="T22" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="U22" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="V22" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="W22" t="n">
-        <v>2.04</v>
+        <v>1.92</v>
       </c>
       <c r="X22" t="n">
-        <v>21</v>
+        <v>17.5</v>
       </c>
       <c r="Y22" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="Z22" t="n">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="AA22" t="n">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="AB22" t="n">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="AC22" t="n">
-        <v>9</v>
+        <v>8.4</v>
       </c>
       <c r="AD22" t="n">
-        <v>17.5</v>
+        <v>15.5</v>
       </c>
       <c r="AE22" t="n">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="AF22" t="n">
         <v>13.5</v>
       </c>
       <c r="AG22" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AH22" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AI22" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="AJ22" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="AK22" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AL22" t="n">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="AM22" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="AN22" t="n">
-        <v>9.6</v>
+        <v>12.5</v>
       </c>
       <c r="AO22" t="n">
         <v>38</v>
@@ -3493,118 +3493,118 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Roma</t>
+          <t>Nice</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Stuttgart</t>
+          <t>Go Ahead Eagles</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>2.04</v>
+        <v>1.9</v>
       </c>
       <c r="G23" t="n">
-        <v>2.08</v>
+        <v>1.94</v>
       </c>
       <c r="H23" t="n">
-        <v>3.85</v>
+        <v>4.1</v>
       </c>
       <c r="I23" t="n">
-        <v>4</v>
+        <v>4.3</v>
       </c>
       <c r="J23" t="n">
-        <v>3.8</v>
+        <v>4.1</v>
       </c>
       <c r="K23" t="n">
-        <v>3.85</v>
+        <v>4.2</v>
       </c>
       <c r="L23" t="n">
-        <v>1.37</v>
+        <v>1.32</v>
       </c>
       <c r="M23" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="N23" t="n">
-        <v>4.5</v>
+        <v>5.1</v>
       </c>
       <c r="O23" t="n">
-        <v>1.27</v>
+        <v>1.22</v>
       </c>
       <c r="P23" t="n">
-        <v>2.14</v>
+        <v>2.44</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.81</v>
+        <v>1.68</v>
       </c>
       <c r="R23" t="n">
-        <v>1.46</v>
+        <v>1.55</v>
       </c>
       <c r="S23" t="n">
-        <v>3.05</v>
+        <v>2.74</v>
       </c>
       <c r="T23" t="n">
-        <v>1.72</v>
+        <v>1.65</v>
       </c>
       <c r="U23" t="n">
-        <v>2.3</v>
+        <v>2.44</v>
       </c>
       <c r="V23" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="W23" t="n">
-        <v>1.92</v>
+        <v>2.06</v>
       </c>
       <c r="X23" t="n">
-        <v>17.5</v>
+        <v>21</v>
       </c>
       <c r="Y23" t="n">
+        <v>21</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>34</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>85</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AD23" t="n">
         <v>16.5</v>
       </c>
-      <c r="Z23" t="n">
-        <v>29</v>
-      </c>
-      <c r="AA23" t="n">
-        <v>75</v>
-      </c>
-      <c r="AB23" t="n">
-        <v>11</v>
-      </c>
-      <c r="AC23" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="AD23" t="n">
-        <v>15.5</v>
-      </c>
       <c r="AE23" t="n">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="AF23" t="n">
         <v>13.5</v>
       </c>
       <c r="AG23" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AH23" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AI23" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AJ23" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AK23" t="n">
-        <v>20</v>
+        <v>17.5</v>
       </c>
       <c r="AL23" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="AM23" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="AN23" t="n">
-        <v>12.5</v>
+        <v>9.6</v>
       </c>
       <c r="AO23" t="n">
         <v>38</v>
@@ -3628,121 +3628,121 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Braga</t>
+          <t>Ferencvaros</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Nottm Forest</t>
+          <t>Panathinaikos</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>2.8</v>
+        <v>2.4</v>
       </c>
       <c r="G24" t="n">
-        <v>2.86</v>
+        <v>2.5</v>
       </c>
       <c r="H24" t="n">
-        <v>2.76</v>
+        <v>3.15</v>
       </c>
       <c r="I24" t="n">
-        <v>2.82</v>
+        <v>3.3</v>
       </c>
       <c r="J24" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="K24" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="L24" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="M24" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N24" t="n">
+        <v>4</v>
+      </c>
+      <c r="O24" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="P24" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="R24" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="S24" t="n">
         <v>3.4</v>
       </c>
-      <c r="K24" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="L24" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="M24" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N24" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="O24" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="P24" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="R24" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="S24" t="n">
-        <v>3.45</v>
-      </c>
       <c r="T24" t="n">
-        <v>1.76</v>
+        <v>1.66</v>
       </c>
       <c r="U24" t="n">
-        <v>2.2</v>
+        <v>2.08</v>
       </c>
       <c r="V24" t="n">
-        <v>1.55</v>
+        <v>1.43</v>
       </c>
       <c r="W24" t="n">
-        <v>1.53</v>
+        <v>1.66</v>
       </c>
       <c r="X24" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="Y24" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="Z24" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="AA24" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AB24" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AC24" t="n">
-        <v>7.6</v>
+        <v>1000</v>
       </c>
       <c r="AD24" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AE24" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="AF24" t="n">
-        <v>18.5</v>
+        <v>1000</v>
       </c>
       <c r="AG24" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AH24" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="AI24" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AJ24" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AK24" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AL24" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AM24" t="n">
-        <v>90</v>
+        <v>1000</v>
       </c>
       <c r="AN24" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="AO24" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="25">
@@ -3763,121 +3763,121 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Dinamo Zagreb</t>
+          <t>Celta Vigo</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>FCSB</t>
+          <t>Lille</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>1.66</v>
+        <v>2.5</v>
       </c>
       <c r="G25" t="n">
-        <v>1.67</v>
+        <v>2.52</v>
       </c>
       <c r="H25" t="n">
-        <v>5.9</v>
+        <v>3.1</v>
       </c>
       <c r="I25" t="n">
-        <v>6.2</v>
+        <v>3.2</v>
       </c>
       <c r="J25" t="n">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="K25" t="n">
-        <v>4.3</v>
+        <v>3.55</v>
       </c>
       <c r="L25" t="n">
-        <v>1.38</v>
+        <v>1.41</v>
       </c>
       <c r="M25" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N25" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="O25" t="n">
         <v>1.31</v>
       </c>
       <c r="P25" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.94</v>
+        <v>1.96</v>
       </c>
       <c r="R25" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="S25" t="n">
         <v>3.45</v>
       </c>
       <c r="T25" t="n">
-        <v>1.98</v>
+        <v>1.76</v>
       </c>
       <c r="U25" t="n">
-        <v>1.98</v>
+        <v>2.24</v>
       </c>
       <c r="V25" t="n">
-        <v>1.19</v>
+        <v>1.45</v>
       </c>
       <c r="W25" t="n">
-        <v>2.48</v>
+        <v>1.65</v>
       </c>
       <c r="X25" t="n">
-        <v>15.5</v>
+        <v>13.5</v>
       </c>
       <c r="Y25" t="n">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="Z25" t="n">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="AA25" t="n">
-        <v>170</v>
+        <v>55</v>
       </c>
       <c r="AB25" t="n">
-        <v>8.4</v>
+        <v>11.5</v>
       </c>
       <c r="AC25" t="n">
-        <v>9.199999999999999</v>
+        <v>7.8</v>
       </c>
       <c r="AD25" t="n">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="AE25" t="n">
-        <v>90</v>
+        <v>34</v>
       </c>
       <c r="AF25" t="n">
-        <v>9.4</v>
+        <v>16</v>
       </c>
       <c r="AG25" t="n">
-        <v>9.4</v>
+        <v>11.5</v>
       </c>
       <c r="AH25" t="n">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="AI25" t="n">
-        <v>90</v>
+        <v>46</v>
       </c>
       <c r="AJ25" t="n">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="AK25" t="n">
-        <v>17.5</v>
+        <v>26</v>
       </c>
       <c r="AL25" t="n">
         <v>38</v>
       </c>
       <c r="AM25" t="n">
-        <v>130</v>
+        <v>90</v>
       </c>
       <c r="AN25" t="n">
-        <v>10.5</v>
+        <v>20</v>
       </c>
       <c r="AO25" t="n">
-        <v>110</v>
+        <v>30</v>
       </c>
     </row>
     <row r="26">
@@ -3898,121 +3898,121 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Red Bull Salzburg</t>
+          <t>Rangers</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>FC Basel</t>
+          <t>Ludogorets</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>2.48</v>
+        <v>1.97</v>
       </c>
       <c r="G26" t="n">
-        <v>2.54</v>
+        <v>2</v>
       </c>
       <c r="H26" t="n">
-        <v>2.9</v>
+        <v>4</v>
       </c>
       <c r="I26" t="n">
-        <v>2.92</v>
+        <v>4.2</v>
       </c>
       <c r="J26" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="K26" t="n">
         <v>3.95</v>
       </c>
       <c r="L26" t="n">
-        <v>1.3</v>
+        <v>1.37</v>
       </c>
       <c r="M26" t="n">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="N26" t="n">
-        <v>5.3</v>
+        <v>4.3</v>
       </c>
       <c r="O26" t="n">
-        <v>1.21</v>
+        <v>1.27</v>
       </c>
       <c r="P26" t="n">
-        <v>2.46</v>
+        <v>2.14</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="R26" t="n">
-        <v>1.6</v>
+        <v>1.43</v>
       </c>
       <c r="S26" t="n">
-        <v>2.54</v>
+        <v>3.15</v>
       </c>
       <c r="T26" t="n">
-        <v>1.56</v>
+        <v>1.74</v>
       </c>
       <c r="U26" t="n">
-        <v>2.66</v>
+        <v>2.24</v>
       </c>
       <c r="V26" t="n">
-        <v>1.52</v>
+        <v>1.31</v>
       </c>
       <c r="W26" t="n">
-        <v>1.65</v>
+        <v>2</v>
       </c>
       <c r="X26" t="n">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="Y26" t="n">
-        <v>160</v>
+        <v>17.5</v>
       </c>
       <c r="Z26" t="n">
+        <v>32</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>85</v>
+      </c>
+      <c r="AB26" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AC26" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AD26" t="n">
+        <v>16</v>
+      </c>
+      <c r="AE26" t="n">
+        <v>46</v>
+      </c>
+      <c r="AF26" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AG26" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH26" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AI26" t="n">
+        <v>55</v>
+      </c>
+      <c r="AJ26" t="n">
         <v>23</v>
       </c>
-      <c r="AA26" t="n">
-        <v>48</v>
-      </c>
-      <c r="AB26" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AC26" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="AD26" t="n">
-        <v>13</v>
-      </c>
-      <c r="AE26" t="n">
-        <v>27</v>
-      </c>
-      <c r="AF26" t="n">
+      <c r="AK26" t="n">
         <v>19.5</v>
       </c>
-      <c r="AG26" t="n">
-        <v>12</v>
-      </c>
-      <c r="AH26" t="n">
-        <v>15</v>
-      </c>
-      <c r="AI26" t="n">
+      <c r="AL26" t="n">
         <v>32</v>
       </c>
-      <c r="AJ26" t="n">
-        <v>36</v>
-      </c>
-      <c r="AK26" t="n">
-        <v>23</v>
-      </c>
-      <c r="AL26" t="n">
-        <v>29</v>
-      </c>
       <c r="AM26" t="n">
-        <v>60</v>
+        <v>85</v>
       </c>
       <c r="AN26" t="n">
-        <v>14</v>
+        <v>12.5</v>
       </c>
       <c r="AO26" t="n">
-        <v>17.5</v>
+        <v>44</v>
       </c>
     </row>
     <row r="27">
@@ -4028,132 +4028,132 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>20:00:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Banfield</t>
+          <t>Aldosivi</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Huracan</t>
+          <t>Defensa y Justicia</t>
         </is>
       </c>
       <c r="F27" t="n">
         <v>2.72</v>
       </c>
       <c r="G27" t="n">
-        <v>2.98</v>
+        <v>2.9</v>
       </c>
       <c r="H27" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="I27" t="n">
-        <v>3.55</v>
+        <v>3.35</v>
       </c>
       <c r="J27" t="n">
-        <v>2.72</v>
+        <v>2.94</v>
       </c>
       <c r="K27" t="n">
-        <v>2.98</v>
+        <v>3.15</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>1.12</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>2.64</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>1.56</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>2.64</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>1.19</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>2.64</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>1.81</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>1.43</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Z27" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="AA27" t="n">
-        <v>0</v>
+        <v>410</v>
       </c>
       <c r="AB27" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AC27" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AD27" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="AE27" t="n">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="AF27" t="n">
-        <v>0</v>
+        <v>16.5</v>
       </c>
       <c r="AG27" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AH27" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="AI27" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ27" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AK27" t="n">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="AL27" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM27" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN27" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AO27" t="n">
-        <v>0</v>
+        <v>950</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Argentinian Primera Division</t>
+          <t>UEFA Europa League</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -4163,126 +4163,126 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>20:00:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Union Santa Fe</t>
+          <t>FC Utrecht</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>CA Platense</t>
+          <t>Genk</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>2.12</v>
+        <v>2.86</v>
       </c>
       <c r="G28" t="n">
-        <v>2.3</v>
+        <v>2.92</v>
       </c>
       <c r="H28" t="n">
-        <v>4.6</v>
+        <v>2.62</v>
       </c>
       <c r="I28" t="n">
-        <v>5</v>
+        <v>2.66</v>
       </c>
       <c r="J28" t="n">
-        <v>2.84</v>
+        <v>3.6</v>
       </c>
       <c r="K28" t="n">
-        <v>3.15</v>
+        <v>3.65</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>4.3</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>2.08</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>1.88</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>3.25</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>2.32</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>1.52</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="Z28" t="n">
-        <v>0</v>
+        <v>17.5</v>
       </c>
       <c r="AA28" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="AB28" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AC28" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AD28" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AE28" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="AF28" t="n">
-        <v>0</v>
+        <v>19.5</v>
       </c>
       <c r="AG28" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AH28" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="AI28" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="AJ28" t="n">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="AK28" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AL28" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AM28" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="AN28" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AO28" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
     </row>
     <row r="29">
@@ -4298,36 +4298,36 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>22:15:00</t>
+          <t>20:00:00</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Instituto</t>
+          <t>Banfield</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Velez Sarsfield</t>
+          <t>Huracan</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>2.86</v>
+        <v>2.6</v>
       </c>
       <c r="G29" t="n">
         <v>3.15</v>
       </c>
       <c r="H29" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="I29" t="n">
-        <v>3.3</v>
+        <v>85</v>
       </c>
       <c r="J29" t="n">
-        <v>2.9</v>
+        <v>2.62</v>
       </c>
       <c r="K29" t="n">
-        <v>2.96</v>
+        <v>3.2</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
@@ -4433,126 +4433,396 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
+          <t>20:00:00</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Union Santa Fe</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>CA Platense</t>
+        </is>
+      </c>
+      <c r="F30" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="G30" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H30" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="I30" t="n">
+        <v>1000</v>
+      </c>
+      <c r="J30" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="K30" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0</v>
+      </c>
+      <c r="O30" t="n">
+        <v>0</v>
+      </c>
+      <c r="P30" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>0</v>
+      </c>
+      <c r="R30" t="n">
+        <v>0</v>
+      </c>
+      <c r="S30" t="n">
+        <v>0</v>
+      </c>
+      <c r="T30" t="n">
+        <v>0</v>
+      </c>
+      <c r="U30" t="n">
+        <v>0</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="n">
+        <v>0</v>
+      </c>
+      <c r="X30" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y30" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO30" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Argentinian Primera Division</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>2026-01-22</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
           <t>22:15:00</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Instituto</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Velez Sarsfield</t>
+        </is>
+      </c>
+      <c r="F31" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="G31" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H31" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="I31" t="n">
+        <v>1000</v>
+      </c>
+      <c r="J31" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="K31" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0</v>
+      </c>
+      <c r="O31" t="n">
+        <v>0</v>
+      </c>
+      <c r="P31" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>0</v>
+      </c>
+      <c r="R31" t="n">
+        <v>0</v>
+      </c>
+      <c r="S31" t="n">
+        <v>0</v>
+      </c>
+      <c r="T31" t="n">
+        <v>0</v>
+      </c>
+      <c r="U31" t="n">
+        <v>0</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="n">
+        <v>0</v>
+      </c>
+      <c r="X31" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y31" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO31" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Argentinian Primera Division</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>2026-01-22</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>22:15:00</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
         <is>
           <t>Central Cordoba (SdE)</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>Gimnasia Mendoza</t>
         </is>
       </c>
-      <c r="F30" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="G30" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="H30" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="I30" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="J30" t="n">
-        <v>2.96</v>
-      </c>
-      <c r="K30" t="n">
+      <c r="F32" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="G32" t="n">
+        <v>980</v>
+      </c>
+      <c r="H32" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="I32" t="n">
+        <v>980</v>
+      </c>
+      <c r="J32" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="K32" t="n">
         <v>3.25</v>
       </c>
-      <c r="L30" t="n">
-        <v>1.61</v>
-      </c>
-      <c r="M30" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="N30" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="O30" t="n">
+      <c r="L32" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M32" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N32" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="O32" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="P32" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="Q32" t="n">
         <v>1.59</v>
       </c>
-      <c r="P30" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="Q30" t="n">
-        <v>2.74</v>
-      </c>
-      <c r="R30" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="S30" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="T30" t="n">
-        <v>2.26</v>
-      </c>
-      <c r="U30" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="V30" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="W30" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="X30" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="Y30" t="n">
-        <v>13</v>
-      </c>
-      <c r="Z30" t="n">
-        <v>36</v>
-      </c>
-      <c r="AA30" t="n">
-        <v>150</v>
-      </c>
-      <c r="AB30" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="AC30" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AD30" t="n">
-        <v>24</v>
-      </c>
-      <c r="AE30" t="n">
-        <v>110</v>
-      </c>
-      <c r="AF30" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AG30" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AH30" t="n">
-        <v>32</v>
-      </c>
-      <c r="AI30" t="n">
-        <v>140</v>
-      </c>
-      <c r="AJ30" t="n">
-        <v>34</v>
-      </c>
-      <c r="AK30" t="n">
-        <v>36</v>
-      </c>
-      <c r="AL30" t="n">
-        <v>80</v>
-      </c>
-      <c r="AM30" t="n">
-        <v>280</v>
-      </c>
-      <c r="AN30" t="n">
-        <v>38</v>
-      </c>
-      <c r="AO30" t="n">
-        <v>180</v>
+      <c r="R32" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="S32" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="T32" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="U32" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="V32" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="W32" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="X32" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y32" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z32" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA32" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB32" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC32" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD32" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE32" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF32" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG32" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH32" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI32" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ32" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK32" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL32" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM32" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN32" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO32" t="n">
+        <v>1000</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-22.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-22.xlsx
@@ -667,112 +667,112 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.02</v>
+        <v>1.5</v>
       </c>
       <c r="G2" t="n">
-        <v>1000</v>
+        <v>1.8</v>
       </c>
       <c r="H2" t="n">
-        <v>1.02</v>
+        <v>4.8</v>
       </c>
       <c r="I2" t="n">
-        <v>1000</v>
+        <v>7.8</v>
       </c>
       <c r="J2" t="n">
-        <v>1.02</v>
+        <v>3.6</v>
       </c>
       <c r="K2" t="n">
-        <v>950</v>
+        <v>5</v>
       </c>
       <c r="L2" t="n">
-        <v>1.01</v>
+        <v>1.33</v>
       </c>
       <c r="M2" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="N2" t="n">
-        <v>1.24</v>
+        <v>3.9</v>
       </c>
       <c r="O2" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="P2" t="n">
-        <v>1.24</v>
+        <v>2.22</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.25</v>
+        <v>1.68</v>
       </c>
       <c r="R2" t="n">
-        <v>1.18</v>
+        <v>1.47</v>
       </c>
       <c r="S2" t="n">
-        <v>1.25</v>
+        <v>2.44</v>
       </c>
       <c r="T2" t="n">
-        <v>1.01</v>
+        <v>1.75</v>
       </c>
       <c r="U2" t="n">
-        <v>1.01</v>
+        <v>2.06</v>
       </c>
       <c r="V2" t="n">
-        <v>1.01</v>
+        <v>1.14</v>
       </c>
       <c r="W2" t="n">
-        <v>1.01</v>
+        <v>2.26</v>
       </c>
       <c r="X2" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="Y2" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="Z2" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AA2" t="n">
-        <v>1000</v>
+        <v>190</v>
       </c>
       <c r="AB2" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AC2" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AD2" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AE2" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
       <c r="AF2" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AG2" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AH2" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AI2" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="AJ2" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="AK2" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="AL2" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AM2" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AN2" t="n">
-        <v>1000</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AO2" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -937,112 +937,112 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.84</v>
+        <v>1.93</v>
       </c>
       <c r="G4" t="n">
-        <v>980</v>
+        <v>2.06</v>
       </c>
       <c r="H4" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="I4" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="J4" t="n">
+        <v>3</v>
+      </c>
+      <c r="K4" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="L4" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="N4" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="P4" t="n">
         <v>1.45</v>
       </c>
-      <c r="I4" t="n">
-        <v>980</v>
-      </c>
-      <c r="J4" t="n">
+      <c r="Q4" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="R4" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="S4" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="T4" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="U4" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="V4" t="n">
         <v>1.2</v>
       </c>
-      <c r="K4" t="n">
-        <v>980</v>
-      </c>
-      <c r="L4" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="M4" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N4" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="O4" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="P4" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="R4" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="S4" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="T4" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="U4" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="V4" t="n">
-        <v>1.18</v>
-      </c>
       <c r="W4" t="n">
-        <v>1.23</v>
+        <v>1.94</v>
       </c>
       <c r="X4" t="n">
-        <v>1000</v>
+        <v>8.6</v>
       </c>
       <c r="Y4" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="Z4" t="n">
         <v>980</v>
       </c>
       <c r="AA4" t="n">
-        <v>1000</v>
+        <v>220</v>
       </c>
       <c r="AB4" t="n">
-        <v>1000</v>
+        <v>6.8</v>
       </c>
       <c r="AC4" t="n">
-        <v>1000</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD4" t="n">
-        <v>980</v>
+        <v>29</v>
       </c>
       <c r="AE4" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AF4" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AG4" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AH4" t="n">
-        <v>980</v>
+        <v>36</v>
       </c>
       <c r="AI4" t="n">
-        <v>1000</v>
+        <v>180</v>
       </c>
       <c r="AJ4" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AK4" t="n">
         <v>980</v>
       </c>
       <c r="AL4" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="AM4" t="n">
-        <v>1000</v>
+        <v>350</v>
       </c>
       <c r="AN4" t="n">
-        <v>980</v>
+        <v>34</v>
       </c>
       <c r="AO4" t="n">
-        <v>1000</v>
+        <v>280</v>
       </c>
     </row>
     <row r="5">
@@ -1072,19 +1072,19 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.04</v>
+        <v>2.8</v>
       </c>
       <c r="G5" t="n">
-        <v>95</v>
+        <v>3.05</v>
       </c>
       <c r="H5" t="n">
-        <v>3.05</v>
+        <v>2.94</v>
       </c>
       <c r="I5" t="n">
-        <v>1000</v>
+        <v>3.2</v>
       </c>
       <c r="J5" t="n">
-        <v>1.57</v>
+        <v>2.9</v>
       </c>
       <c r="K5" t="n">
         <v>3.05</v>
@@ -1093,91 +1093,91 @@
         <v>1.01</v>
       </c>
       <c r="M5" t="n">
-        <v>1.01</v>
+        <v>1.13</v>
       </c>
       <c r="N5" t="n">
-        <v>1.25</v>
+        <v>2.46</v>
       </c>
       <c r="O5" t="n">
-        <v>1.01</v>
+        <v>1.6</v>
       </c>
       <c r="P5" t="n">
-        <v>1.24</v>
+        <v>1.49</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.01</v>
+        <v>2.78</v>
       </c>
       <c r="R5" t="n">
-        <v>1.12</v>
+        <v>1.17</v>
       </c>
       <c r="S5" t="n">
-        <v>1.01</v>
+        <v>6</v>
       </c>
       <c r="T5" t="n">
-        <v>1.01</v>
+        <v>2.16</v>
       </c>
       <c r="U5" t="n">
-        <v>1.01</v>
+        <v>1.74</v>
       </c>
       <c r="V5" t="n">
-        <v>1.01</v>
+        <v>1.45</v>
       </c>
       <c r="W5" t="n">
-        <v>1.54</v>
+        <v>1.51</v>
       </c>
       <c r="X5" t="n">
-        <v>1000</v>
+        <v>9.6</v>
       </c>
       <c r="Y5" t="n">
-        <v>1000</v>
+        <v>8.4</v>
       </c>
       <c r="Z5" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AA5" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AB5" t="n">
-        <v>1000</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AC5" t="n">
-        <v>1000</v>
+        <v>7.2</v>
       </c>
       <c r="AD5" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AE5" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AF5" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AG5" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AH5" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AI5" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AJ5" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AK5" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AL5" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AM5" t="n">
-        <v>1000</v>
+        <v>250</v>
       </c>
       <c r="AN5" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AO5" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6">
@@ -1207,112 +1207,112 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.04</v>
+        <v>1.7</v>
       </c>
       <c r="G6" t="n">
-        <v>1.77</v>
+        <v>1.76</v>
       </c>
       <c r="H6" t="n">
-        <v>4.3</v>
+        <v>5.6</v>
       </c>
       <c r="I6" t="n">
-        <v>980</v>
+        <v>6.2</v>
       </c>
       <c r="J6" t="n">
-        <v>2.36</v>
+        <v>3.8</v>
       </c>
       <c r="K6" t="n">
-        <v>980</v>
+        <v>4.2</v>
       </c>
       <c r="L6" t="n">
-        <v>1.01</v>
+        <v>1.35</v>
       </c>
       <c r="M6" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N6" t="n">
-        <v>1.25</v>
+        <v>3.6</v>
       </c>
       <c r="O6" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="P6" t="n">
-        <v>1.25</v>
+        <v>1.89</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.31</v>
+        <v>1.94</v>
       </c>
       <c r="R6" t="n">
-        <v>1.18</v>
+        <v>1.34</v>
       </c>
       <c r="S6" t="n">
-        <v>1.31</v>
+        <v>3.4</v>
       </c>
       <c r="T6" t="n">
-        <v>1.01</v>
+        <v>1.89</v>
       </c>
       <c r="U6" t="n">
-        <v>1.01</v>
+        <v>1.94</v>
       </c>
       <c r="V6" t="n">
-        <v>1.01</v>
+        <v>1.19</v>
       </c>
       <c r="W6" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="X6" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="Y6" t="n">
         <v>1000</v>
       </c>
       <c r="Z6" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AA6" t="n">
-        <v>1000</v>
+        <v>180</v>
       </c>
       <c r="AB6" t="n">
-        <v>1000</v>
+        <v>8.4</v>
       </c>
       <c r="AC6" t="n">
-        <v>1000</v>
+        <v>9</v>
       </c>
       <c r="AD6" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AE6" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AF6" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AG6" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AH6" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AI6" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AJ6" t="n">
         <v>1000</v>
       </c>
       <c r="AK6" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AL6" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AM6" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AN6" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AO6" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
     </row>
     <row r="7">
@@ -1342,22 +1342,22 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.16</v>
+        <v>1.19</v>
       </c>
       <c r="G7" t="n">
         <v>1.21</v>
       </c>
       <c r="H7" t="n">
-        <v>1.09</v>
+        <v>15</v>
       </c>
       <c r="I7" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="J7" t="n">
         <v>7.8</v>
       </c>
       <c r="K7" t="n">
-        <v>1000</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="L7" t="n">
         <v>1.01</v>
@@ -1366,31 +1366,31 @@
         <v>1.02</v>
       </c>
       <c r="N7" t="n">
-        <v>1.01</v>
+        <v>6.8</v>
       </c>
       <c r="O7" t="n">
-        <v>1.12</v>
+        <v>1.13</v>
       </c>
       <c r="P7" t="n">
-        <v>1.34</v>
+        <v>3</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.12</v>
+        <v>1.4</v>
       </c>
       <c r="R7" t="n">
-        <v>1.34</v>
+        <v>1.82</v>
       </c>
       <c r="S7" t="n">
-        <v>1.12</v>
+        <v>2</v>
       </c>
       <c r="T7" t="n">
-        <v>1.01</v>
+        <v>1.96</v>
       </c>
       <c r="U7" t="n">
-        <v>1.01</v>
+        <v>1.81</v>
       </c>
       <c r="V7" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="W7" t="n">
         <v>5.7</v>
@@ -1399,40 +1399,40 @@
         <v>980</v>
       </c>
       <c r="Y7" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="Z7" t="n">
-        <v>1000</v>
+        <v>210</v>
       </c>
       <c r="AA7" t="n">
         <v>1000</v>
       </c>
       <c r="AB7" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AC7" t="n">
         <v>980</v>
       </c>
       <c r="AD7" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AE7" t="n">
-        <v>1000</v>
+        <v>300</v>
       </c>
       <c r="AF7" t="n">
-        <v>1000</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AG7" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AH7" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AI7" t="n">
-        <v>1000</v>
+        <v>210</v>
       </c>
       <c r="AJ7" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AK7" t="n">
         <v>1000</v>
@@ -1441,13 +1441,13 @@
         <v>980</v>
       </c>
       <c r="AM7" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="AN7" t="n">
-        <v>1000</v>
+        <v>3.5</v>
       </c>
       <c r="AO7" t="n">
-        <v>1000</v>
+        <v>330</v>
       </c>
     </row>
     <row r="8">
@@ -1477,112 +1477,112 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.09</v>
+        <v>2.32</v>
       </c>
       <c r="G8" t="n">
-        <v>2.4</v>
+        <v>2.58</v>
       </c>
       <c r="H8" t="n">
-        <v>2.64</v>
+        <v>2.68</v>
       </c>
       <c r="I8" t="n">
-        <v>980</v>
+        <v>3.05</v>
       </c>
       <c r="J8" t="n">
-        <v>1.03</v>
+        <v>3.85</v>
       </c>
       <c r="K8" t="n">
-        <v>5.2</v>
+        <v>4.5</v>
       </c>
       <c r="L8" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="M8" t="n">
         <v>1.03</v>
       </c>
       <c r="N8" t="n">
-        <v>1.28</v>
+        <v>5.8</v>
       </c>
       <c r="O8" t="n">
-        <v>1.15</v>
+        <v>1.16</v>
       </c>
       <c r="P8" t="n">
-        <v>1.28</v>
+        <v>2.62</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.15</v>
+        <v>1.49</v>
       </c>
       <c r="R8" t="n">
-        <v>1.28</v>
+        <v>1.66</v>
       </c>
       <c r="S8" t="n">
-        <v>1.15</v>
+        <v>2.2</v>
       </c>
       <c r="T8" t="n">
-        <v>1.01</v>
+        <v>1.48</v>
       </c>
       <c r="U8" t="n">
-        <v>1.01</v>
+        <v>2.66</v>
       </c>
       <c r="V8" t="n">
-        <v>1.02</v>
+        <v>1.49</v>
       </c>
       <c r="W8" t="n">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="X8" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="Y8" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="Z8" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AA8" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AB8" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AC8" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AD8" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="AE8" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AF8" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AG8" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AH8" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AI8" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AJ8" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AK8" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AL8" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AM8" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AN8" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AO8" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9">
@@ -1618,10 +1618,10 @@
         <v>1.21</v>
       </c>
       <c r="H9" t="n">
-        <v>17.5</v>
+        <v>18.5</v>
       </c>
       <c r="I9" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J9" t="n">
         <v>8</v>
@@ -1642,34 +1642,34 @@
         <v>1.18</v>
       </c>
       <c r="P9" t="n">
-        <v>2.68</v>
+        <v>2.7</v>
       </c>
       <c r="Q9" t="n">
         <v>1.56</v>
       </c>
       <c r="R9" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="S9" t="n">
         <v>2.42</v>
       </c>
       <c r="T9" t="n">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="U9" t="n">
-        <v>1.62</v>
+        <v>1.64</v>
       </c>
       <c r="V9" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="W9" t="n">
         <v>5.7</v>
       </c>
       <c r="X9" t="n">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="Y9" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="Z9" t="n">
         <v>1000</v>
@@ -1678,40 +1678,40 @@
         <v>1000</v>
       </c>
       <c r="AB9" t="n">
-        <v>11</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AC9" t="n">
-        <v>24</v>
+        <v>19.5</v>
       </c>
       <c r="AD9" t="n">
         <v>1000</v>
       </c>
       <c r="AE9" t="n">
-        <v>1000</v>
+        <v>490</v>
       </c>
       <c r="AF9" t="n">
         <v>7.4</v>
       </c>
       <c r="AG9" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>55</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>330</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AK9" t="n">
         <v>15.5</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>240</v>
-      </c>
-      <c r="AI9" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="AK9" t="n">
-        <v>18</v>
       </c>
       <c r="AL9" t="n">
         <v>380</v>
       </c>
       <c r="AM9" t="n">
-        <v>1000</v>
+        <v>370</v>
       </c>
       <c r="AN9" t="n">
         <v>3.65</v>
@@ -1747,22 +1747,22 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="G10" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="H10" t="n">
-        <v>2.26</v>
+        <v>2.24</v>
       </c>
       <c r="I10" t="n">
-        <v>2.32</v>
+        <v>2.28</v>
       </c>
       <c r="J10" t="n">
-        <v>3.65</v>
+        <v>3.75</v>
       </c>
       <c r="K10" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="L10" t="n">
         <v>1.34</v>
@@ -1786,73 +1786,73 @@
         <v>1.51</v>
       </c>
       <c r="S10" t="n">
-        <v>2.88</v>
+        <v>2.86</v>
       </c>
       <c r="T10" t="n">
-        <v>1.55</v>
+        <v>1.64</v>
       </c>
       <c r="U10" t="n">
-        <v>2.28</v>
+        <v>2.44</v>
       </c>
       <c r="V10" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="W10" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="X10" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="Y10" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="Z10" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AA10" t="n">
-        <v>980</v>
+        <v>29</v>
       </c>
       <c r="AB10" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AC10" t="n">
-        <v>1000</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD10" t="n">
         <v>11.5</v>
       </c>
       <c r="AE10" t="n">
-        <v>980</v>
+        <v>23</v>
       </c>
       <c r="AF10" t="n">
-        <v>980</v>
+        <v>25</v>
       </c>
       <c r="AG10" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AH10" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AI10" t="n">
-        <v>980</v>
+        <v>34</v>
       </c>
       <c r="AJ10" t="n">
         <v>60</v>
       </c>
       <c r="AK10" t="n">
-        <v>980</v>
+        <v>36</v>
       </c>
       <c r="AL10" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AM10" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AN10" t="n">
-        <v>980</v>
+        <v>27</v>
       </c>
       <c r="AO10" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
     </row>
     <row r="11">
@@ -1882,16 +1882,16 @@
         </is>
       </c>
       <c r="F11" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="G11" t="n">
         <v>2.68</v>
       </c>
-      <c r="G11" t="n">
-        <v>2.72</v>
-      </c>
       <c r="H11" t="n">
-        <v>2.78</v>
+        <v>2.86</v>
       </c>
       <c r="I11" t="n">
-        <v>2.82</v>
+        <v>2.9</v>
       </c>
       <c r="J11" t="n">
         <v>3.6</v>
@@ -1903,7 +1903,7 @@
         <v>1.37</v>
       </c>
       <c r="M11" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N11" t="n">
         <v>4.5</v>
@@ -1921,7 +1921,7 @@
         <v>1.45</v>
       </c>
       <c r="S11" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="T11" t="n">
         <v>1.67</v>
@@ -1930,10 +1930,10 @@
         <v>2.38</v>
       </c>
       <c r="V11" t="n">
-        <v>1.54</v>
+        <v>1.52</v>
       </c>
       <c r="W11" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="X11" t="n">
         <v>16.5</v>
@@ -1942,13 +1942,13 @@
         <v>13.5</v>
       </c>
       <c r="Z11" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AA11" t="n">
         <v>42</v>
       </c>
       <c r="AB11" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AC11" t="n">
         <v>8.199999999999999</v>
@@ -1969,7 +1969,7 @@
         <v>16</v>
       </c>
       <c r="AI11" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AJ11" t="n">
         <v>40</v>
@@ -1984,10 +1984,10 @@
         <v>75</v>
       </c>
       <c r="AN11" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="AO11" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12">
@@ -2017,13 +2017,13 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="G12" t="n">
         <v>3.9</v>
       </c>
       <c r="H12" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="I12" t="n">
         <v>2.04</v>
@@ -2044,25 +2044,25 @@
         <v>4.5</v>
       </c>
       <c r="O12" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="P12" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="R12" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="S12" t="n">
         <v>3.05</v>
       </c>
       <c r="T12" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="U12" t="n">
-        <v>2.3</v>
+        <v>2.28</v>
       </c>
       <c r="V12" t="n">
         <v>1.96</v>
@@ -2083,7 +2083,7 @@
         <v>24</v>
       </c>
       <c r="AB12" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AC12" t="n">
         <v>8.6</v>
@@ -2152,10 +2152,10 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="G13" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="H13" t="n">
         <v>2</v>
@@ -2179,13 +2179,13 @@
         <v>3.4</v>
       </c>
       <c r="O13" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="P13" t="n">
-        <v>1.79</v>
+        <v>1.78</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.2</v>
+        <v>2.24</v>
       </c>
       <c r="R13" t="n">
         <v>1.29</v>
@@ -2197,13 +2197,13 @@
         <v>1.97</v>
       </c>
       <c r="U13" t="n">
-        <v>1.91</v>
+        <v>1.97</v>
       </c>
       <c r="V13" t="n">
         <v>1.96</v>
       </c>
       <c r="W13" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="X13" t="n">
         <v>12.5</v>
@@ -2212,7 +2212,7 @@
         <v>8.199999999999999</v>
       </c>
       <c r="Z13" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AA13" t="n">
         <v>24</v>
@@ -2227,7 +2227,7 @@
         <v>10.5</v>
       </c>
       <c r="AE13" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AF13" t="n">
         <v>30</v>
@@ -2239,7 +2239,7 @@
         <v>21</v>
       </c>
       <c r="AI13" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AJ13" t="n">
         <v>100</v>
@@ -2251,7 +2251,7 @@
         <v>75</v>
       </c>
       <c r="AM13" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="AN13" t="n">
         <v>75</v>
@@ -2287,22 +2287,22 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.59</v>
+        <v>1.63</v>
       </c>
       <c r="G14" t="n">
-        <v>1.61</v>
+        <v>1.64</v>
       </c>
       <c r="H14" t="n">
+        <v>6</v>
+      </c>
+      <c r="I14" t="n">
         <v>6.4</v>
-      </c>
-      <c r="I14" t="n">
-        <v>6.8</v>
       </c>
       <c r="J14" t="n">
         <v>4.4</v>
       </c>
       <c r="K14" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="L14" t="n">
         <v>1.35</v>
@@ -2314,7 +2314,7 @@
         <v>4.6</v>
       </c>
       <c r="O14" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="P14" t="n">
         <v>2.22</v>
@@ -2326,55 +2326,55 @@
         <v>1.47</v>
       </c>
       <c r="S14" t="n">
-        <v>3</v>
+        <v>2.98</v>
       </c>
       <c r="T14" t="n">
-        <v>1.88</v>
+        <v>1.84</v>
       </c>
       <c r="U14" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="V14" t="n">
-        <v>1.17</v>
+        <v>1.19</v>
       </c>
       <c r="W14" t="n">
-        <v>2.64</v>
+        <v>2.56</v>
       </c>
       <c r="X14" t="n">
         <v>18</v>
       </c>
       <c r="Y14" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="Z14" t="n">
         <v>55</v>
       </c>
       <c r="AA14" t="n">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="AB14" t="n">
-        <v>9</v>
+        <v>9.6</v>
       </c>
       <c r="AC14" t="n">
         <v>9.800000000000001</v>
       </c>
       <c r="AD14" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AE14" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AF14" t="n">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AG14" t="n">
         <v>9.4</v>
       </c>
       <c r="AH14" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AI14" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AJ14" t="n">
         <v>15</v>
@@ -2392,7 +2392,7 @@
         <v>8</v>
       </c>
       <c r="AO14" t="n">
-        <v>95</v>
+        <v>85</v>
       </c>
     </row>
     <row r="15">
@@ -2431,7 +2431,7 @@
         <v>2.76</v>
       </c>
       <c r="I15" t="n">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="J15" t="n">
         <v>3.65</v>
@@ -2443,7 +2443,7 @@
         <v>1.36</v>
       </c>
       <c r="M15" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N15" t="n">
         <v>4.6</v>
@@ -2470,7 +2470,7 @@
         <v>2.42</v>
       </c>
       <c r="V15" t="n">
-        <v>1.56</v>
+        <v>1.55</v>
       </c>
       <c r="W15" t="n">
         <v>1.58</v>
@@ -2479,7 +2479,7 @@
         <v>17.5</v>
       </c>
       <c r="Y15" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="Z15" t="n">
         <v>19</v>
@@ -2488,7 +2488,7 @@
         <v>42</v>
       </c>
       <c r="AB15" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AC15" t="n">
         <v>8.199999999999999</v>
@@ -2563,7 +2563,7 @@
         <v>4.9</v>
       </c>
       <c r="H16" t="n">
-        <v>1.79</v>
+        <v>1.78</v>
       </c>
       <c r="I16" t="n">
         <v>1.82</v>
@@ -2593,16 +2593,16 @@
         <v>1.68</v>
       </c>
       <c r="R16" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="S16" t="n">
         <v>2.72</v>
       </c>
       <c r="T16" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="U16" t="n">
-        <v>2.36</v>
+        <v>2.34</v>
       </c>
       <c r="V16" t="n">
         <v>2.2</v>
@@ -2611,58 +2611,58 @@
         <v>1.26</v>
       </c>
       <c r="X16" t="n">
-        <v>980</v>
+        <v>26</v>
       </c>
       <c r="Y16" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="Z16" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AA16" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AB16" t="n">
-        <v>980</v>
+        <v>22</v>
       </c>
       <c r="AC16" t="n">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="AD16" t="n">
         <v>10.5</v>
       </c>
       <c r="AE16" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AF16" t="n">
-        <v>980</v>
+        <v>40</v>
       </c>
       <c r="AG16" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="AH16" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="AI16" t="n">
-        <v>980</v>
+        <v>30</v>
       </c>
       <c r="AJ16" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AK16" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AL16" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="AM16" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AN16" t="n">
-        <v>980</v>
+        <v>48</v>
       </c>
       <c r="AO16" t="n">
-        <v>1000</v>
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="17">
@@ -2692,22 +2692,22 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="G17" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="H17" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="I17" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="J17" t="n">
         <v>5.2</v>
       </c>
       <c r="K17" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="L17" t="n">
         <v>1.26</v>
@@ -2728,13 +2728,13 @@
         <v>1.5</v>
       </c>
       <c r="R17" t="n">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="S17" t="n">
         <v>2.24</v>
       </c>
       <c r="T17" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="U17" t="n">
         <v>2.32</v>
@@ -2743,46 +2743,46 @@
         <v>1.14</v>
       </c>
       <c r="W17" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="X17" t="n">
-        <v>60</v>
+        <v>32</v>
       </c>
       <c r="Y17" t="n">
-        <v>65</v>
+        <v>36</v>
       </c>
       <c r="Z17" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AA17" t="n">
         <v>1000</v>
       </c>
       <c r="AB17" t="n">
-        <v>14.5</v>
+        <v>12.5</v>
       </c>
       <c r="AC17" t="n">
-        <v>14.5</v>
+        <v>12.5</v>
       </c>
       <c r="AD17" t="n">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="AE17" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
       <c r="AF17" t="n">
         <v>11</v>
       </c>
       <c r="AG17" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AH17" t="n">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="AI17" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AJ17" t="n">
-        <v>16</v>
+        <v>13.5</v>
       </c>
       <c r="AK17" t="n">
         <v>14</v>
@@ -2791,13 +2791,13 @@
         <v>26</v>
       </c>
       <c r="AM17" t="n">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="AN17" t="n">
         <v>4.9</v>
       </c>
       <c r="AO17" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="18">
@@ -2827,112 +2827,112 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1.09</v>
+        <v>3.9</v>
       </c>
       <c r="G18" t="n">
-        <v>980</v>
+        <v>4.5</v>
       </c>
       <c r="H18" t="n">
-        <v>1.52</v>
+        <v>2.32</v>
       </c>
       <c r="I18" t="n">
-        <v>980</v>
+        <v>2.52</v>
       </c>
       <c r="J18" t="n">
-        <v>1.03</v>
+        <v>2.78</v>
       </c>
       <c r="K18" t="n">
-        <v>950</v>
+        <v>3.05</v>
       </c>
       <c r="L18" t="n">
-        <v>1.01</v>
+        <v>1.58</v>
       </c>
       <c r="M18" t="n">
-        <v>1.01</v>
+        <v>1.17</v>
       </c>
       <c r="N18" t="n">
-        <v>1.25</v>
+        <v>2.2</v>
       </c>
       <c r="O18" t="n">
-        <v>1.01</v>
+        <v>1.71</v>
       </c>
       <c r="P18" t="n">
-        <v>1.24</v>
+        <v>1.39</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.01</v>
+        <v>3.15</v>
       </c>
       <c r="R18" t="n">
-        <v>1.12</v>
+        <v>1.13</v>
       </c>
       <c r="S18" t="n">
-        <v>1.01</v>
+        <v>7.2</v>
       </c>
       <c r="T18" t="n">
-        <v>1.01</v>
+        <v>2.42</v>
       </c>
       <c r="U18" t="n">
-        <v>1.01</v>
+        <v>1.61</v>
       </c>
       <c r="V18" t="n">
-        <v>1.01</v>
+        <v>1.66</v>
       </c>
       <c r="W18" t="n">
-        <v>1.01</v>
+        <v>1.29</v>
       </c>
       <c r="X18" t="n">
-        <v>1000</v>
+        <v>7</v>
       </c>
       <c r="Y18" t="n">
-        <v>1000</v>
+        <v>7.6</v>
       </c>
       <c r="Z18" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AA18" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AB18" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AC18" t="n">
-        <v>1000</v>
+        <v>8.6</v>
       </c>
       <c r="AD18" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="AE18" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AF18" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AG18" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AH18" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AI18" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AJ18" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AK18" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AL18" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
       <c r="AM18" t="n">
-        <v>1000</v>
+        <v>370</v>
       </c>
       <c r="AN18" t="n">
-        <v>1000</v>
+        <v>190</v>
       </c>
       <c r="AO18" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
     </row>
     <row r="19">
@@ -2962,16 +2962,16 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="G19" t="n">
-        <v>2.56</v>
+        <v>2.54</v>
       </c>
       <c r="H19" t="n">
         <v>2.82</v>
       </c>
       <c r="I19" t="n">
-        <v>2.94</v>
+        <v>2.92</v>
       </c>
       <c r="J19" t="n">
         <v>3.9</v>
@@ -2989,13 +2989,13 @@
         <v>5.5</v>
       </c>
       <c r="O19" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="P19" t="n">
         <v>2.52</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="R19" t="n">
         <v>1.6</v>
@@ -3004,22 +3004,22 @@
         <v>2.56</v>
       </c>
       <c r="T19" t="n">
-        <v>1.53</v>
+        <v>1.58</v>
       </c>
       <c r="U19" t="n">
-        <v>2.66</v>
+        <v>2.64</v>
       </c>
       <c r="V19" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="W19" t="n">
-        <v>1.66</v>
+        <v>1.64</v>
       </c>
       <c r="X19" t="n">
         <v>22</v>
       </c>
       <c r="Y19" t="n">
-        <v>18</v>
+        <v>16.5</v>
       </c>
       <c r="Z19" t="n">
         <v>23</v>
@@ -3046,7 +3046,7 @@
         <v>12</v>
       </c>
       <c r="AH19" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AI19" t="n">
         <v>32</v>
@@ -3067,7 +3067,7 @@
         <v>14</v>
       </c>
       <c r="AO19" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20">
@@ -3124,25 +3124,25 @@
         <v>3.9</v>
       </c>
       <c r="O20" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="P20" t="n">
-        <v>1.99</v>
+        <v>1.98</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.96</v>
+        <v>1.97</v>
       </c>
       <c r="R20" t="n">
         <v>1.37</v>
       </c>
       <c r="S20" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="T20" t="n">
         <v>1.97</v>
       </c>
       <c r="U20" t="n">
-        <v>1.94</v>
+        <v>1.96</v>
       </c>
       <c r="V20" t="n">
         <v>1.19</v>
@@ -3154,7 +3154,7 @@
         <v>15.5</v>
       </c>
       <c r="Y20" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="Z20" t="n">
         <v>48</v>
@@ -3184,7 +3184,7 @@
         <v>22</v>
       </c>
       <c r="AI20" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="AJ20" t="n">
         <v>16</v>
@@ -3232,16 +3232,16 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>2.82</v>
+        <v>2.86</v>
       </c>
       <c r="G21" t="n">
-        <v>2.86</v>
+        <v>2.88</v>
       </c>
       <c r="H21" t="n">
         <v>2.76</v>
       </c>
       <c r="I21" t="n">
-        <v>2.8</v>
+        <v>2.78</v>
       </c>
       <c r="J21" t="n">
         <v>3.4</v>
@@ -3250,37 +3250,37 @@
         <v>3.45</v>
       </c>
       <c r="L21" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="M21" t="n">
         <v>1.07</v>
       </c>
       <c r="N21" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="O21" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="P21" t="n">
-        <v>1.94</v>
+        <v>1.93</v>
       </c>
       <c r="Q21" t="n">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="R21" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="S21" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="T21" t="n">
-        <v>1.76</v>
+        <v>1.77</v>
       </c>
       <c r="U21" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="V21" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="W21" t="n">
         <v>1.53</v>
@@ -3289,7 +3289,7 @@
         <v>14</v>
       </c>
       <c r="Y21" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="Z21" t="n">
         <v>18</v>
@@ -3298,7 +3298,7 @@
         <v>42</v>
       </c>
       <c r="AB21" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AC21" t="n">
         <v>7.4</v>
@@ -3322,16 +3322,16 @@
         <v>42</v>
       </c>
       <c r="AJ21" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AK21" t="n">
         <v>32</v>
       </c>
       <c r="AL21" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AM21" t="n">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="AN21" t="n">
         <v>27</v>
@@ -3394,7 +3394,7 @@
         <v>4.5</v>
       </c>
       <c r="O22" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="P22" t="n">
         <v>2.16</v>
@@ -3409,7 +3409,7 @@
         <v>3.05</v>
       </c>
       <c r="T22" t="n">
-        <v>1.66</v>
+        <v>1.72</v>
       </c>
       <c r="U22" t="n">
         <v>2.3</v>
@@ -3424,7 +3424,7 @@
         <v>17.5</v>
       </c>
       <c r="Y22" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="Z22" t="n">
         <v>28</v>
@@ -3457,7 +3457,7 @@
         <v>48</v>
       </c>
       <c r="AJ22" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AK22" t="n">
         <v>20</v>
@@ -3502,10 +3502,10 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="G23" t="n">
-        <v>1.94</v>
+        <v>1.95</v>
       </c>
       <c r="H23" t="n">
         <v>4.1</v>
@@ -3520,7 +3520,7 @@
         <v>4.2</v>
       </c>
       <c r="L23" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="M23" t="n">
         <v>1.04</v>
@@ -3532,7 +3532,7 @@
         <v>1.22</v>
       </c>
       <c r="P23" t="n">
-        <v>2.44</v>
+        <v>2.42</v>
       </c>
       <c r="Q23" t="n">
         <v>1.68</v>
@@ -3550,16 +3550,16 @@
         <v>2.44</v>
       </c>
       <c r="V23" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="W23" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="X23" t="n">
         <v>21</v>
       </c>
       <c r="Y23" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="Z23" t="n">
         <v>34</v>
@@ -3568,10 +3568,10 @@
         <v>85</v>
       </c>
       <c r="AB23" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AC23" t="n">
-        <v>9.4</v>
+        <v>9</v>
       </c>
       <c r="AD23" t="n">
         <v>16.5</v>
@@ -3604,7 +3604,7 @@
         <v>70</v>
       </c>
       <c r="AN23" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="AO23" t="n">
         <v>38</v>
@@ -3640,7 +3640,7 @@
         <v>2.4</v>
       </c>
       <c r="G24" t="n">
-        <v>2.5</v>
+        <v>2.48</v>
       </c>
       <c r="H24" t="n">
         <v>3.15</v>
@@ -3658,13 +3658,13 @@
         <v>1.4</v>
       </c>
       <c r="M24" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N24" t="n">
         <v>4</v>
       </c>
       <c r="O24" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="P24" t="n">
         <v>2</v>
@@ -3673,76 +3673,76 @@
         <v>1.94</v>
       </c>
       <c r="R24" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="S24" t="n">
         <v>3.4</v>
       </c>
       <c r="T24" t="n">
-        <v>1.66</v>
+        <v>1.74</v>
       </c>
       <c r="U24" t="n">
-        <v>2.08</v>
+        <v>2.22</v>
       </c>
       <c r="V24" t="n">
         <v>1.43</v>
       </c>
       <c r="W24" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="X24" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="Y24" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="Z24" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AA24" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AB24" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AC24" t="n">
-        <v>1000</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD24" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AE24" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AF24" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="AG24" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AH24" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="AI24" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AJ24" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AK24" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AL24" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AM24" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AN24" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AO24" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
     </row>
     <row r="25">
@@ -3799,13 +3799,13 @@
         <v>4</v>
       </c>
       <c r="O25" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="P25" t="n">
-        <v>2</v>
+        <v>1.99</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.96</v>
+        <v>1.97</v>
       </c>
       <c r="R25" t="n">
         <v>1.38</v>
@@ -3826,10 +3826,10 @@
         <v>1.65</v>
       </c>
       <c r="X25" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="Y25" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="Z25" t="n">
         <v>21</v>
@@ -3838,7 +3838,7 @@
         <v>55</v>
       </c>
       <c r="AB25" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AC25" t="n">
         <v>7.8</v>
@@ -3859,7 +3859,7 @@
         <v>17</v>
       </c>
       <c r="AI25" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AJ25" t="n">
         <v>34</v>
@@ -3874,7 +3874,7 @@
         <v>90</v>
       </c>
       <c r="AN25" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AO25" t="n">
         <v>30</v>
@@ -3916,7 +3916,7 @@
         <v>4</v>
       </c>
       <c r="I26" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="J26" t="n">
         <v>3.9</v>
@@ -3925,16 +3925,16 @@
         <v>3.95</v>
       </c>
       <c r="L26" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="M26" t="n">
         <v>1.06</v>
       </c>
       <c r="N26" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="O26" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="P26" t="n">
         <v>2.14</v>
@@ -3943,7 +3943,7 @@
         <v>1.83</v>
       </c>
       <c r="R26" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="S26" t="n">
         <v>3.15</v>
@@ -3964,7 +3964,7 @@
         <v>17</v>
       </c>
       <c r="Y26" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="Z26" t="n">
         <v>32</v>
@@ -4042,10 +4042,10 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>2.72</v>
+        <v>2.7</v>
       </c>
       <c r="G27" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="H27" t="n">
         <v>3.1</v>
@@ -4057,22 +4057,22 @@
         <v>2.94</v>
       </c>
       <c r="K27" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="L27" t="n">
-        <v>1.01</v>
+        <v>1.59</v>
       </c>
       <c r="M27" t="n">
-        <v>1.12</v>
+        <v>1.13</v>
       </c>
       <c r="N27" t="n">
-        <v>2.64</v>
+        <v>2.66</v>
       </c>
       <c r="O27" t="n">
         <v>1.56</v>
       </c>
       <c r="P27" t="n">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="Q27" t="n">
         <v>2.64</v>
@@ -4081,7 +4081,7 @@
         <v>1.19</v>
       </c>
       <c r="S27" t="n">
-        <v>2.64</v>
+        <v>5.5</v>
       </c>
       <c r="T27" t="n">
         <v>2.1</v>
@@ -4096,25 +4096,25 @@
         <v>1.53</v>
       </c>
       <c r="X27" t="n">
-        <v>9</v>
+        <v>8.4</v>
       </c>
       <c r="Y27" t="n">
-        <v>10</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Z27" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="AA27" t="n">
-        <v>410</v>
+        <v>400</v>
       </c>
       <c r="AB27" t="n">
-        <v>9</v>
+        <v>8.4</v>
       </c>
       <c r="AC27" t="n">
         <v>7</v>
       </c>
       <c r="AD27" t="n">
-        <v>16</v>
+        <v>19.5</v>
       </c>
       <c r="AE27" t="n">
         <v>180</v>
@@ -4123,31 +4123,31 @@
         <v>16.5</v>
       </c>
       <c r="AG27" t="n">
-        <v>15</v>
+        <v>13.5</v>
       </c>
       <c r="AH27" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AI27" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AJ27" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="AK27" t="n">
-        <v>48</v>
+        <v>100</v>
       </c>
       <c r="AL27" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AM27" t="n">
-        <v>1000</v>
+        <v>220</v>
       </c>
       <c r="AN27" t="n">
-        <v>55</v>
+        <v>970</v>
       </c>
       <c r="AO27" t="n">
-        <v>950</v>
+        <v>65</v>
       </c>
     </row>
     <row r="28">
@@ -4180,13 +4180,13 @@
         <v>2.86</v>
       </c>
       <c r="G28" t="n">
-        <v>2.92</v>
+        <v>2.9</v>
       </c>
       <c r="H28" t="n">
         <v>2.62</v>
       </c>
       <c r="I28" t="n">
-        <v>2.66</v>
+        <v>2.7</v>
       </c>
       <c r="J28" t="n">
         <v>3.6</v>
@@ -4216,16 +4216,16 @@
         <v>1.42</v>
       </c>
       <c r="S28" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="T28" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="U28" t="n">
         <v>2.32</v>
       </c>
       <c r="V28" t="n">
-        <v>1.6</v>
+        <v>1.59</v>
       </c>
       <c r="W28" t="n">
         <v>1.52</v>
@@ -4267,7 +4267,7 @@
         <v>38</v>
       </c>
       <c r="AJ28" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AK28" t="n">
         <v>30</v>
@@ -4279,7 +4279,7 @@
         <v>80</v>
       </c>
       <c r="AN28" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AO28" t="n">
         <v>21</v>
@@ -4312,112 +4312,112 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>2.6</v>
+        <v>2.72</v>
       </c>
       <c r="G29" t="n">
-        <v>3.15</v>
+        <v>3</v>
       </c>
       <c r="H29" t="n">
-        <v>3.05</v>
+        <v>3.2</v>
       </c>
       <c r="I29" t="n">
-        <v>85</v>
+        <v>3.55</v>
       </c>
       <c r="J29" t="n">
-        <v>2.62</v>
+        <v>2.72</v>
       </c>
       <c r="K29" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="L29" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M29" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="N29" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="O29" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="P29" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="Q29" t="n">
         <v>3.2</v>
       </c>
-      <c r="L29" t="n">
-        <v>0</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" t="n">
-        <v>0</v>
-      </c>
-      <c r="O29" t="n">
-        <v>0</v>
-      </c>
-      <c r="P29" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>0</v>
-      </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>1.13</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>7.2</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>2.38</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>1.62</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>1.39</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>6.8</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Z29" t="n">
-        <v>0</v>
+        <v>970</v>
       </c>
       <c r="AA29" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="AB29" t="n">
-        <v>0</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AC29" t="n">
-        <v>0</v>
+        <v>7.2</v>
       </c>
       <c r="AD29" t="n">
-        <v>0</v>
+        <v>970</v>
       </c>
       <c r="AE29" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="AF29" t="n">
-        <v>0</v>
+        <v>970</v>
       </c>
       <c r="AG29" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="AH29" t="n">
-        <v>0</v>
+        <v>970</v>
       </c>
       <c r="AI29" t="n">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="AJ29" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AK29" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AL29" t="n">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="AM29" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN29" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="AO29" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
     </row>
     <row r="30">
@@ -4447,22 +4447,22 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>1.45</v>
+        <v>2.12</v>
       </c>
       <c r="G30" t="n">
-        <v>1000</v>
+        <v>2.3</v>
       </c>
       <c r="H30" t="n">
-        <v>1.43</v>
+        <v>4.6</v>
       </c>
       <c r="I30" t="n">
-        <v>1000</v>
+        <v>5.1</v>
       </c>
       <c r="J30" t="n">
-        <v>2.84</v>
+        <v>2.86</v>
       </c>
       <c r="K30" t="n">
-        <v>3.35</v>
+        <v>3.15</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -4582,16 +4582,16 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>1.55</v>
+        <v>2.86</v>
       </c>
       <c r="G31" t="n">
-        <v>1000</v>
+        <v>3.15</v>
       </c>
       <c r="H31" t="n">
-        <v>1.55</v>
+        <v>3</v>
       </c>
       <c r="I31" t="n">
-        <v>1000</v>
+        <v>3.3</v>
       </c>
       <c r="J31" t="n">
         <v>2.9</v>
@@ -4717,112 +4717,112 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>1.46</v>
+        <v>2.1</v>
       </c>
       <c r="G32" t="n">
-        <v>980</v>
+        <v>2.28</v>
       </c>
       <c r="H32" t="n">
-        <v>1.46</v>
+        <v>4.4</v>
       </c>
       <c r="I32" t="n">
-        <v>980</v>
+        <v>4.9</v>
       </c>
       <c r="J32" t="n">
-        <v>2.9</v>
+        <v>2.96</v>
       </c>
       <c r="K32" t="n">
         <v>3.25</v>
       </c>
       <c r="L32" t="n">
-        <v>1.01</v>
+        <v>1.61</v>
       </c>
       <c r="M32" t="n">
-        <v>1.01</v>
+        <v>1.13</v>
       </c>
       <c r="N32" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="O32" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="P32" t="n">
         <v>1.47</v>
       </c>
-      <c r="O32" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="P32" t="n">
+      <c r="Q32" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="R32" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="S32" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="T32" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="U32" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="V32" t="n">
         <v>1.25</v>
       </c>
-      <c r="Q32" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="R32" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="S32" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="T32" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="U32" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="V32" t="n">
-        <v>1.22</v>
-      </c>
       <c r="W32" t="n">
-        <v>1.71</v>
+        <v>1.79</v>
       </c>
       <c r="X32" t="n">
-        <v>1000</v>
+        <v>9</v>
       </c>
       <c r="Y32" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="Z32" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AA32" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AB32" t="n">
-        <v>1000</v>
+        <v>7.2</v>
       </c>
       <c r="AC32" t="n">
-        <v>1000</v>
+        <v>7.8</v>
       </c>
       <c r="AD32" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AE32" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AF32" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AG32" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AH32" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AI32" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AJ32" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AK32" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AL32" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AM32" t="n">
-        <v>1000</v>
+        <v>280</v>
       </c>
       <c r="AN32" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AO32" t="n">
-        <v>1000</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-22.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-22.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO32"/>
+  <dimension ref="A1:AO33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -667,109 +667,109 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.5</v>
+        <v>1.66</v>
       </c>
       <c r="G2" t="n">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="H2" t="n">
-        <v>4.8</v>
+        <v>4.4</v>
       </c>
       <c r="I2" t="n">
-        <v>7.8</v>
+        <v>6.4</v>
       </c>
       <c r="J2" t="n">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="K2" t="n">
-        <v>5</v>
+        <v>4.4</v>
       </c>
       <c r="L2" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="M2" t="n">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="N2" t="n">
         <v>3.9</v>
       </c>
       <c r="O2" t="n">
-        <v>1.23</v>
+        <v>1.28</v>
       </c>
       <c r="P2" t="n">
-        <v>2.22</v>
+        <v>1.98</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.68</v>
+        <v>1.81</v>
       </c>
       <c r="R2" t="n">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="S2" t="n">
-        <v>2.44</v>
+        <v>2.82</v>
       </c>
       <c r="T2" t="n">
-        <v>1.75</v>
+        <v>1.79</v>
       </c>
       <c r="U2" t="n">
+        <v>2</v>
+      </c>
+      <c r="V2" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="W2" t="n">
         <v>2.06</v>
       </c>
-      <c r="V2" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="W2" t="n">
-        <v>2.26</v>
-      </c>
       <c r="X2" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>23</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>55</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>160</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>11</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD2" t="n">
         <v>25</v>
       </c>
-      <c r="Y2" t="n">
-        <v>29</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>65</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>190</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>12</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>29</v>
-      </c>
       <c r="AE2" t="n">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="AF2" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AG2" t="n">
         <v>12.5</v>
       </c>
       <c r="AH2" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AI2" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="AJ2" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AK2" t="n">
-        <v>19.5</v>
+        <v>23</v>
       </c>
       <c r="AL2" t="n">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="AM2" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="AN2" t="n">
-        <v>9.199999999999999</v>
+        <v>13</v>
       </c>
       <c r="AO2" t="n">
         <v>100</v>
@@ -778,7 +778,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Saudi 1st Division</t>
+          <t>Tunisian Ligue Professionelle 1</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -788,36 +788,36 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>11:10:00</t>
+          <t>10:00:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Al-Ula FC</t>
+          <t>Club Africain</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Al-Wahda (KSA)</t>
+          <t>Etoile Sportive Sahel</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.02</v>
+        <v>1.72</v>
       </c>
       <c r="G3" t="n">
-        <v>1000</v>
+        <v>2.24</v>
       </c>
       <c r="H3" t="n">
-        <v>1.02</v>
+        <v>4.3</v>
       </c>
       <c r="I3" t="n">
-        <v>1000</v>
+        <v>8.4</v>
       </c>
       <c r="J3" t="n">
-        <v>1.02</v>
+        <v>2.66</v>
       </c>
       <c r="K3" t="n">
-        <v>950</v>
+        <v>5.4</v>
       </c>
       <c r="L3" t="n">
         <v>1.01</v>
@@ -826,22 +826,22 @@
         <v>1.01</v>
       </c>
       <c r="N3" t="n">
-        <v>1.24</v>
+        <v>1.28</v>
       </c>
       <c r="O3" t="n">
-        <v>1.25</v>
+        <v>1.64</v>
       </c>
       <c r="P3" t="n">
-        <v>1.24</v>
+        <v>1.28</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.25</v>
+        <v>2.84</v>
       </c>
       <c r="R3" t="n">
-        <v>1.18</v>
+        <v>1.12</v>
       </c>
       <c r="S3" t="n">
-        <v>1.25</v>
+        <v>2.84</v>
       </c>
       <c r="T3" t="n">
         <v>1.01</v>
@@ -850,10 +850,10 @@
         <v>1.01</v>
       </c>
       <c r="V3" t="n">
-        <v>1.01</v>
+        <v>1.13</v>
       </c>
       <c r="W3" t="n">
-        <v>1.01</v>
+        <v>1.8</v>
       </c>
       <c r="X3" t="n">
         <v>1000</v>
@@ -913,7 +913,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Egyptian Premier</t>
+          <t>Saudi 1st Division</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -923,126 +923,126 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>12:00:00</t>
+          <t>11:10:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Wadi Degla</t>
+          <t>Al-Ula FC</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Ghazl El Mahallah</t>
+          <t>Al-Wahda (KSA)</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.93</v>
+        <v>1.02</v>
       </c>
       <c r="G4" t="n">
-        <v>2.06</v>
+        <v>500</v>
       </c>
       <c r="H4" t="n">
-        <v>5.2</v>
+        <v>1.02</v>
       </c>
       <c r="I4" t="n">
-        <v>5.9</v>
+        <v>110</v>
       </c>
       <c r="J4" t="n">
-        <v>3</v>
+        <v>1.02</v>
       </c>
       <c r="K4" t="n">
-        <v>3.3</v>
+        <v>950</v>
       </c>
       <c r="L4" t="n">
-        <v>1.63</v>
+        <v>1.01</v>
       </c>
       <c r="M4" t="n">
-        <v>1.13</v>
+        <v>1.01</v>
       </c>
       <c r="N4" t="n">
-        <v>2.36</v>
+        <v>1.25</v>
       </c>
       <c r="O4" t="n">
-        <v>1.63</v>
+        <v>1.01</v>
       </c>
       <c r="P4" t="n">
-        <v>1.45</v>
+        <v>1.24</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.88</v>
+        <v>1.25</v>
       </c>
       <c r="R4" t="n">
-        <v>1.15</v>
+        <v>1.18</v>
       </c>
       <c r="S4" t="n">
-        <v>6.2</v>
+        <v>1.25</v>
       </c>
       <c r="T4" t="n">
-        <v>2.4</v>
+        <v>1.01</v>
       </c>
       <c r="U4" t="n">
-        <v>1.61</v>
+        <v>1.01</v>
       </c>
       <c r="V4" t="n">
-        <v>1.2</v>
+        <v>1.01</v>
       </c>
       <c r="W4" t="n">
-        <v>1.94</v>
+        <v>1.01</v>
       </c>
       <c r="X4" t="n">
-        <v>8.6</v>
+        <v>1000</v>
       </c>
       <c r="Y4" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="Z4" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AA4" t="n">
-        <v>220</v>
+        <v>1000</v>
       </c>
       <c r="AB4" t="n">
-        <v>6.8</v>
+        <v>1000</v>
       </c>
       <c r="AC4" t="n">
-        <v>8.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="AD4" t="n">
-        <v>29</v>
+        <v>1000</v>
       </c>
       <c r="AE4" t="n">
-        <v>150</v>
+        <v>1000</v>
       </c>
       <c r="AF4" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AG4" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="AH4" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AI4" t="n">
-        <v>180</v>
+        <v>1000</v>
       </c>
       <c r="AJ4" t="n">
-        <v>29</v>
+        <v>1000</v>
       </c>
       <c r="AK4" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AL4" t="n">
-        <v>90</v>
+        <v>1000</v>
       </c>
       <c r="AM4" t="n">
-        <v>350</v>
+        <v>1000</v>
       </c>
       <c r="AN4" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AO4" t="n">
-        <v>280</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="5">
@@ -1063,127 +1063,127 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Haras El Hodood</t>
+          <t>Wadi Degla</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Kahraba Ismailia</t>
+          <t>Ghazl El Mahallah</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>2.8</v>
+        <v>1.97</v>
       </c>
       <c r="G5" t="n">
-        <v>3.05</v>
+        <v>2.18</v>
       </c>
       <c r="H5" t="n">
-        <v>2.94</v>
+        <v>4.6</v>
       </c>
       <c r="I5" t="n">
-        <v>3.2</v>
+        <v>5.9</v>
       </c>
       <c r="J5" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="K5" t="n">
-        <v>3.05</v>
+        <v>3.3</v>
       </c>
       <c r="L5" t="n">
-        <v>1.01</v>
+        <v>1.55</v>
       </c>
       <c r="M5" t="n">
         <v>1.13</v>
       </c>
       <c r="N5" t="n">
-        <v>2.46</v>
+        <v>2.36</v>
       </c>
       <c r="O5" t="n">
-        <v>1.6</v>
+        <v>1.63</v>
       </c>
       <c r="P5" t="n">
-        <v>1.49</v>
+        <v>1.45</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.78</v>
+        <v>2.88</v>
       </c>
       <c r="R5" t="n">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="S5" t="n">
         <v>6</v>
       </c>
       <c r="T5" t="n">
-        <v>2.16</v>
+        <v>2.38</v>
       </c>
       <c r="U5" t="n">
-        <v>1.74</v>
+        <v>1.62</v>
       </c>
       <c r="V5" t="n">
-        <v>1.45</v>
+        <v>1.2</v>
       </c>
       <c r="W5" t="n">
-        <v>1.51</v>
+        <v>1.85</v>
       </c>
       <c r="X5" t="n">
-        <v>9.6</v>
+        <v>8.6</v>
       </c>
       <c r="Y5" t="n">
-        <v>8.4</v>
+        <v>14</v>
       </c>
       <c r="Z5" t="n">
-        <v>23</v>
+        <v>980</v>
       </c>
       <c r="AA5" t="n">
-        <v>60</v>
+        <v>210</v>
       </c>
       <c r="AB5" t="n">
-        <v>8.199999999999999</v>
+        <v>6.8</v>
       </c>
       <c r="AC5" t="n">
-        <v>7.2</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD5" t="n">
-        <v>14.5</v>
+        <v>28</v>
       </c>
       <c r="AE5" t="n">
-        <v>980</v>
+        <v>140</v>
       </c>
       <c r="AF5" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="AG5" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AH5" t="n">
-        <v>980</v>
+        <v>36</v>
       </c>
       <c r="AI5" t="n">
-        <v>80</v>
+        <v>170</v>
       </c>
       <c r="AJ5" t="n">
-        <v>980</v>
+        <v>30</v>
       </c>
       <c r="AK5" t="n">
-        <v>980</v>
+        <v>38</v>
       </c>
       <c r="AL5" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AM5" t="n">
-        <v>250</v>
+        <v>340</v>
       </c>
       <c r="AN5" t="n">
-        <v>980</v>
+        <v>36</v>
       </c>
       <c r="AO5" t="n">
-        <v>65</v>
+        <v>260</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Saudi Professional League</t>
+          <t>Egyptian Premier</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1193,126 +1193,126 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>12:15:00</t>
+          <t>12:00:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Al-Taawoun Buraidah</t>
+          <t>Haras El Hodood</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Al-Hazm (KSA)</t>
+          <t>Kahraba Ismailia</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.7</v>
+        <v>2.8</v>
       </c>
       <c r="G6" t="n">
-        <v>1.76</v>
+        <v>3.05</v>
       </c>
       <c r="H6" t="n">
-        <v>5.6</v>
+        <v>2.92</v>
       </c>
       <c r="I6" t="n">
-        <v>6.2</v>
+        <v>3.2</v>
       </c>
       <c r="J6" t="n">
-        <v>3.8</v>
+        <v>2.9</v>
       </c>
       <c r="K6" t="n">
-        <v>4.2</v>
+        <v>3.05</v>
       </c>
       <c r="L6" t="n">
-        <v>1.35</v>
+        <v>1.01</v>
       </c>
       <c r="M6" t="n">
-        <v>1.07</v>
+        <v>1.14</v>
       </c>
       <c r="N6" t="n">
-        <v>3.6</v>
+        <v>2.46</v>
       </c>
       <c r="O6" t="n">
-        <v>1.32</v>
+        <v>1.6</v>
       </c>
       <c r="P6" t="n">
-        <v>1.89</v>
+        <v>1.49</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.94</v>
+        <v>2.78</v>
       </c>
       <c r="R6" t="n">
-        <v>1.34</v>
+        <v>1.17</v>
       </c>
       <c r="S6" t="n">
-        <v>3.4</v>
+        <v>6</v>
       </c>
       <c r="T6" t="n">
-        <v>1.89</v>
+        <v>2.16</v>
       </c>
       <c r="U6" t="n">
-        <v>1.94</v>
+        <v>1.74</v>
       </c>
       <c r="V6" t="n">
-        <v>1.19</v>
+        <v>1.45</v>
       </c>
       <c r="W6" t="n">
-        <v>2.32</v>
+        <v>1.51</v>
       </c>
       <c r="X6" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>75</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>60</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>22</v>
+      </c>
+      <c r="AG6" t="n">
         <v>17</v>
       </c>
-      <c r="Y6" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>970</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>180</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>9</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>980</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>85</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>10.5</v>
-      </c>
       <c r="AH6" t="n">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="AI6" t="n">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="AJ6" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AK6" t="n">
-        <v>980</v>
+        <v>60</v>
       </c>
       <c r="AL6" t="n">
-        <v>980</v>
+        <v>95</v>
       </c>
       <c r="AM6" t="n">
-        <v>150</v>
+        <v>260</v>
       </c>
       <c r="AN6" t="n">
-        <v>12</v>
+        <v>75</v>
       </c>
       <c r="AO6" t="n">
-        <v>120</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7">
@@ -1328,126 +1328,126 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>14:30:00</t>
+          <t>12:15:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Al-Hilal</t>
+          <t>Al-Taawoun Buraidah</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Al-Feiha</t>
+          <t>Al-Hazm (KSA)</t>
         </is>
       </c>
       <c r="F7" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="G7" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="H7" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="I7" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="J7" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="K7" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="L7" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N7" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="P7" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="R7" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="S7" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="T7" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="U7" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="V7" t="n">
         <v>1.19</v>
       </c>
-      <c r="G7" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="H7" t="n">
-        <v>15</v>
-      </c>
-      <c r="I7" t="n">
+      <c r="W7" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="X7" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>970</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>180</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>980</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>85</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH7" t="n">
         <v>22</v>
       </c>
-      <c r="J7" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="K7" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="L7" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="M7" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N7" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="O7" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="P7" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="R7" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="S7" t="n">
-        <v>2</v>
-      </c>
-      <c r="T7" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="U7" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="V7" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="W7" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="X7" t="n">
+      <c r="AI7" t="n">
+        <v>85</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK7" t="n">
         <v>980</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>65</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>210</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>980</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>65</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>300</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>980</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>210</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>1000</v>
       </c>
       <c r="AL7" t="n">
         <v>980</v>
       </c>
       <c r="AM7" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="AN7" t="n">
-        <v>3.5</v>
+        <v>12</v>
       </c>
       <c r="AO7" t="n">
-        <v>330</v>
+        <v>120</v>
       </c>
     </row>
     <row r="8">
@@ -1468,127 +1468,127 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Al-Quadisiya (KSA)</t>
+          <t>Al-Hilal</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Al-Ittihad</t>
+          <t>Al-Feiha</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2.32</v>
+        <v>1.19</v>
       </c>
       <c r="G8" t="n">
-        <v>2.58</v>
+        <v>1.23</v>
       </c>
       <c r="H8" t="n">
-        <v>2.68</v>
+        <v>12.5</v>
       </c>
       <c r="I8" t="n">
-        <v>3.05</v>
+        <v>22</v>
       </c>
       <c r="J8" t="n">
-        <v>3.85</v>
+        <v>7.8</v>
       </c>
       <c r="K8" t="n">
-        <v>4.5</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="L8" t="n">
-        <v>1.23</v>
+        <v>1.01</v>
       </c>
       <c r="M8" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N8" t="n">
-        <v>5.8</v>
+        <v>6.8</v>
       </c>
       <c r="O8" t="n">
-        <v>1.16</v>
+        <v>1.13</v>
       </c>
       <c r="P8" t="n">
-        <v>2.62</v>
+        <v>3</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.49</v>
+        <v>1.41</v>
       </c>
       <c r="R8" t="n">
-        <v>1.66</v>
+        <v>1.82</v>
       </c>
       <c r="S8" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="T8" t="n">
-        <v>1.48</v>
+        <v>1.98</v>
       </c>
       <c r="U8" t="n">
-        <v>2.66</v>
+        <v>1.84</v>
       </c>
       <c r="V8" t="n">
-        <v>1.49</v>
+        <v>1.05</v>
       </c>
       <c r="W8" t="n">
-        <v>1.63</v>
+        <v>5.3</v>
       </c>
       <c r="X8" t="n">
-        <v>36</v>
+        <v>980</v>
       </c>
       <c r="Y8" t="n">
-        <v>23</v>
+        <v>65</v>
       </c>
       <c r="Z8" t="n">
-        <v>29</v>
+        <v>210</v>
       </c>
       <c r="AA8" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AB8" t="n">
-        <v>21</v>
+        <v>14.5</v>
       </c>
       <c r="AC8" t="n">
-        <v>13</v>
+        <v>980</v>
       </c>
       <c r="AD8" t="n">
-        <v>16.5</v>
+        <v>65</v>
       </c>
       <c r="AE8" t="n">
-        <v>32</v>
+        <v>300</v>
       </c>
       <c r="AF8" t="n">
-        <v>25</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AG8" t="n">
-        <v>15</v>
+        <v>12.5</v>
       </c>
       <c r="AH8" t="n">
-        <v>18</v>
+        <v>980</v>
       </c>
       <c r="AI8" t="n">
-        <v>36</v>
+        <v>210</v>
       </c>
       <c r="AJ8" t="n">
-        <v>42</v>
+        <v>10.5</v>
       </c>
       <c r="AK8" t="n">
-        <v>27</v>
+        <v>1000</v>
       </c>
       <c r="AL8" t="n">
-        <v>34</v>
+        <v>980</v>
       </c>
       <c r="AM8" t="n">
-        <v>65</v>
+        <v>200</v>
       </c>
       <c r="AN8" t="n">
-        <v>14.5</v>
+        <v>3.5</v>
       </c>
       <c r="AO8" t="n">
-        <v>18</v>
+        <v>330</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>UEFA Europa League</t>
+          <t>Saudi Professional League</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1598,39 +1598,39 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>14:45:00</t>
+          <t>14:30:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Freiburg</t>
+          <t>Al-Quadisiya (KSA)</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Maccabi Tel Aviv</t>
+          <t>Al-Ittihad</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.2</v>
+        <v>2.28</v>
       </c>
       <c r="G9" t="n">
-        <v>1.21</v>
+        <v>2.56</v>
       </c>
       <c r="H9" t="n">
-        <v>18.5</v>
+        <v>2.66</v>
       </c>
       <c r="I9" t="n">
-        <v>22</v>
+        <v>3.05</v>
       </c>
       <c r="J9" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="K9" t="n">
-        <v>8.6</v>
+        <v>4.7</v>
       </c>
       <c r="L9" t="n">
-        <v>1.28</v>
+        <v>1.22</v>
       </c>
       <c r="M9" t="n">
         <v>1.03</v>
@@ -1639,85 +1639,85 @@
         <v>6</v>
       </c>
       <c r="O9" t="n">
-        <v>1.18</v>
+        <v>1.15</v>
       </c>
       <c r="P9" t="n">
-        <v>2.7</v>
+        <v>2.74</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.56</v>
+        <v>1.46</v>
       </c>
       <c r="R9" t="n">
-        <v>1.67</v>
+        <v>1.71</v>
       </c>
       <c r="S9" t="n">
-        <v>2.42</v>
+        <v>2.18</v>
       </c>
       <c r="T9" t="n">
-        <v>2.5</v>
+        <v>1.46</v>
       </c>
       <c r="U9" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="V9" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="W9" t="n">
         <v>1.64</v>
-      </c>
-      <c r="V9" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="W9" t="n">
-        <v>5.7</v>
       </c>
       <c r="X9" t="n">
         <v>38</v>
       </c>
       <c r="Y9" t="n">
-        <v>60</v>
+        <v>21</v>
       </c>
       <c r="Z9" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AA9" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AB9" t="n">
-        <v>9.800000000000001</v>
+        <v>18.5</v>
       </c>
       <c r="AC9" t="n">
-        <v>19.5</v>
+        <v>11.5</v>
       </c>
       <c r="AD9" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AE9" t="n">
-        <v>490</v>
+        <v>980</v>
       </c>
       <c r="AF9" t="n">
-        <v>7.4</v>
+        <v>980</v>
       </c>
       <c r="AG9" t="n">
         <v>13</v>
       </c>
       <c r="AH9" t="n">
-        <v>55</v>
+        <v>15</v>
       </c>
       <c r="AI9" t="n">
-        <v>330</v>
+        <v>980</v>
       </c>
       <c r="AJ9" t="n">
-        <v>8.199999999999999</v>
+        <v>980</v>
       </c>
       <c r="AK9" t="n">
-        <v>15.5</v>
+        <v>23</v>
       </c>
       <c r="AL9" t="n">
-        <v>380</v>
+        <v>980</v>
       </c>
       <c r="AM9" t="n">
-        <v>370</v>
+        <v>980</v>
       </c>
       <c r="AN9" t="n">
-        <v>3.65</v>
+        <v>11.5</v>
       </c>
       <c r="AO9" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10">
@@ -1738,121 +1738,121 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Brann</t>
+          <t>Plzen</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Midtjylland</t>
+          <t>Porto</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>3.35</v>
+        <v>4.3</v>
       </c>
       <c r="G10" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="H10" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="I10" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="J10" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="K10" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="L10" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N10" t="n">
         <v>3.4</v>
       </c>
-      <c r="H10" t="n">
+      <c r="O10" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P10" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="Q10" t="n">
         <v>2.24</v>
       </c>
-      <c r="I10" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="J10" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="K10" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="L10" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="M10" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N10" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="O10" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="P10" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>1.74</v>
-      </c>
       <c r="R10" t="n">
-        <v>1.51</v>
+        <v>1.29</v>
       </c>
       <c r="S10" t="n">
-        <v>2.86</v>
+        <v>4.1</v>
       </c>
       <c r="T10" t="n">
-        <v>1.64</v>
+        <v>1.97</v>
       </c>
       <c r="U10" t="n">
-        <v>2.44</v>
+        <v>1.97</v>
       </c>
       <c r="V10" t="n">
-        <v>1.78</v>
+        <v>1.96</v>
       </c>
       <c r="W10" t="n">
-        <v>1.41</v>
+        <v>1.28</v>
       </c>
       <c r="X10" t="n">
-        <v>21</v>
+        <v>12.5</v>
       </c>
       <c r="Y10" t="n">
-        <v>12.5</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="Z10" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="AA10" t="n">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="AB10" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AC10" t="n">
-        <v>8.800000000000001</v>
+        <v>7.8</v>
       </c>
       <c r="AD10" t="n">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="AE10" t="n">
         <v>23</v>
       </c>
       <c r="AF10" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="AG10" t="n">
-        <v>14.5</v>
+        <v>18</v>
       </c>
       <c r="AH10" t="n">
-        <v>15.5</v>
+        <v>21</v>
       </c>
       <c r="AI10" t="n">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="AJ10" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="AK10" t="n">
-        <v>36</v>
+        <v>65</v>
       </c>
       <c r="AL10" t="n">
-        <v>42</v>
+        <v>75</v>
       </c>
       <c r="AM10" t="n">
-        <v>70</v>
+        <v>130</v>
       </c>
       <c r="AN10" t="n">
-        <v>27</v>
+        <v>75</v>
       </c>
       <c r="AO10" t="n">
-        <v>13.5</v>
+        <v>17.5</v>
       </c>
     </row>
     <row r="11">
@@ -1873,121 +1873,121 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>PAOK</t>
+          <t>Brann</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Betis</t>
+          <t>Midtjylland</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2.64</v>
+        <v>3.3</v>
       </c>
       <c r="G11" t="n">
-        <v>2.68</v>
+        <v>3.4</v>
       </c>
       <c r="H11" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="I11" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="J11" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="K11" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="L11" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N11" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="P11" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="R11" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="S11" t="n">
         <v>2.86</v>
       </c>
-      <c r="I11" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="J11" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="K11" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="L11" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="M11" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N11" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="O11" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="P11" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="R11" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="S11" t="n">
-        <v>3.05</v>
-      </c>
       <c r="T11" t="n">
-        <v>1.67</v>
+        <v>1.64</v>
       </c>
       <c r="U11" t="n">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="V11" t="n">
-        <v>1.52</v>
+        <v>1.78</v>
       </c>
       <c r="W11" t="n">
-        <v>1.59</v>
+        <v>1.41</v>
       </c>
       <c r="X11" t="n">
-        <v>16.5</v>
+        <v>21</v>
       </c>
       <c r="Y11" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="Z11" t="n">
-        <v>19.5</v>
+        <v>16</v>
       </c>
       <c r="AA11" t="n">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="AB11" t="n">
-        <v>12.5</v>
+        <v>16</v>
       </c>
       <c r="AC11" t="n">
-        <v>8.199999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD11" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="AE11" t="n">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="AF11" t="n">
-        <v>18.5</v>
+        <v>27</v>
       </c>
       <c r="AG11" t="n">
-        <v>12</v>
+        <v>14.5</v>
       </c>
       <c r="AH11" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AI11" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="AJ11" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="AK11" t="n">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="AL11" t="n">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="AM11" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AN11" t="n">
-        <v>19.5</v>
+        <v>27</v>
       </c>
       <c r="AO11" t="n">
-        <v>22</v>
+        <v>14.5</v>
       </c>
     </row>
     <row r="12">
@@ -2008,37 +2008,37 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Malmo FF</t>
+          <t>PAOK</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Crvena Zvezda</t>
+          <t>Betis</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>3.8</v>
+        <v>2.64</v>
       </c>
       <c r="G12" t="n">
-        <v>3.9</v>
+        <v>2.66</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>2.86</v>
       </c>
       <c r="I12" t="n">
-        <v>2.04</v>
+        <v>2.9</v>
       </c>
       <c r="J12" t="n">
-        <v>3.95</v>
+        <v>3.6</v>
       </c>
       <c r="K12" t="n">
-        <v>4.1</v>
+        <v>3.7</v>
       </c>
       <c r="L12" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="M12" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N12" t="n">
         <v>4.5</v>
@@ -2050,79 +2050,79 @@
         <v>2.16</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="R12" t="n">
-        <v>1.46</v>
+        <v>1.45</v>
       </c>
       <c r="S12" t="n">
         <v>3.05</v>
       </c>
       <c r="T12" t="n">
-        <v>1.72</v>
+        <v>1.67</v>
       </c>
       <c r="U12" t="n">
-        <v>2.28</v>
+        <v>2.4</v>
       </c>
       <c r="V12" t="n">
-        <v>1.96</v>
+        <v>1.52</v>
       </c>
       <c r="W12" t="n">
-        <v>1.34</v>
+        <v>1.6</v>
       </c>
       <c r="X12" t="n">
-        <v>18</v>
+        <v>16.5</v>
       </c>
       <c r="Y12" t="n">
-        <v>11</v>
+        <v>13.5</v>
       </c>
       <c r="Z12" t="n">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="AA12" t="n">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="AB12" t="n">
-        <v>16.5</v>
+        <v>12.5</v>
       </c>
       <c r="AC12" t="n">
-        <v>8.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD12" t="n">
-        <v>10.5</v>
+        <v>12.5</v>
       </c>
       <c r="AE12" t="n">
+        <v>29</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>38</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>40</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>26</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>36</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>75</v>
+      </c>
+      <c r="AN12" t="n">
         <v>19.5</v>
       </c>
-      <c r="AF12" t="n">
-        <v>29</v>
-      </c>
-      <c r="AG12" t="n">
-        <v>16</v>
-      </c>
-      <c r="AH12" t="n">
-        <v>17</v>
-      </c>
-      <c r="AI12" t="n">
-        <v>32</v>
-      </c>
-      <c r="AJ12" t="n">
-        <v>75</v>
-      </c>
-      <c r="AK12" t="n">
-        <v>44</v>
-      </c>
-      <c r="AL12" t="n">
-        <v>48</v>
-      </c>
-      <c r="AM12" t="n">
-        <v>80</v>
-      </c>
-      <c r="AN12" t="n">
-        <v>38</v>
-      </c>
       <c r="AO12" t="n">
-        <v>12.5</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13">
@@ -2143,121 +2143,121 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Plzen</t>
+          <t>Malmo FF</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Porto</t>
+          <t>Crvena Zvezda</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>4.4</v>
+        <v>3.8</v>
       </c>
       <c r="G13" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="H13" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="I13" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="J13" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="K13" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="L13" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N13" t="n">
         <v>4.5</v>
       </c>
-      <c r="H13" t="n">
-        <v>2</v>
-      </c>
-      <c r="I13" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="J13" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="K13" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="L13" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="M13" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N13" t="n">
-        <v>3.4</v>
-      </c>
       <c r="O13" t="n">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="P13" t="n">
-        <v>1.78</v>
+        <v>2.16</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.24</v>
+        <v>1.81</v>
       </c>
       <c r="R13" t="n">
-        <v>1.29</v>
+        <v>1.46</v>
       </c>
       <c r="S13" t="n">
-        <v>4.1</v>
+        <v>3.05</v>
       </c>
       <c r="T13" t="n">
-        <v>1.97</v>
+        <v>1.73</v>
       </c>
       <c r="U13" t="n">
-        <v>1.97</v>
+        <v>2.3</v>
       </c>
       <c r="V13" t="n">
-        <v>1.96</v>
+        <v>1.93</v>
       </c>
       <c r="W13" t="n">
-        <v>1.28</v>
+        <v>1.35</v>
       </c>
       <c r="X13" t="n">
-        <v>12.5</v>
+        <v>18</v>
       </c>
       <c r="Y13" t="n">
-        <v>8.199999999999999</v>
+        <v>11</v>
       </c>
       <c r="Z13" t="n">
-        <v>11</v>
+        <v>13.5</v>
       </c>
       <c r="AA13" t="n">
         <v>24</v>
       </c>
       <c r="AB13" t="n">
-        <v>14</v>
+        <v>16.5</v>
       </c>
       <c r="AC13" t="n">
-        <v>7.8</v>
+        <v>8.6</v>
       </c>
       <c r="AD13" t="n">
         <v>10.5</v>
       </c>
       <c r="AE13" t="n">
-        <v>23</v>
+        <v>19.5</v>
       </c>
       <c r="AF13" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AG13" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AH13" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AI13" t="n">
+        <v>32</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>75</v>
+      </c>
+      <c r="AK13" t="n">
         <v>44</v>
       </c>
-      <c r="AJ13" t="n">
-        <v>100</v>
-      </c>
-      <c r="AK13" t="n">
-        <v>65</v>
-      </c>
       <c r="AL13" t="n">
-        <v>75</v>
+        <v>48</v>
       </c>
       <c r="AM13" t="n">
-        <v>140</v>
+        <v>80</v>
       </c>
       <c r="AN13" t="n">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="AO13" t="n">
-        <v>17.5</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="14">
@@ -2278,121 +2278,121 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Bologna</t>
+          <t>Freiburg</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Celtic</t>
+          <t>Maccabi Tel Aviv</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.63</v>
+        <v>1.2</v>
       </c>
       <c r="G14" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="H14" t="n">
+        <v>18</v>
+      </c>
+      <c r="I14" t="n">
+        <v>22</v>
+      </c>
+      <c r="J14" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="K14" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="L14" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N14" t="n">
+        <v>6</v>
+      </c>
+      <c r="O14" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="P14" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="R14" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="S14" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="T14" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="U14" t="n">
         <v>1.64</v>
       </c>
-      <c r="H14" t="n">
-        <v>6</v>
-      </c>
-      <c r="I14" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="J14" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="K14" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="L14" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="M14" t="n">
+      <c r="V14" t="n">
         <v>1.05</v>
       </c>
-      <c r="N14" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="O14" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="P14" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="R14" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="S14" t="n">
-        <v>2.98</v>
-      </c>
-      <c r="T14" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="U14" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="V14" t="n">
-        <v>1.19</v>
-      </c>
       <c r="W14" t="n">
-        <v>2.56</v>
+        <v>5.6</v>
       </c>
       <c r="X14" t="n">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="Y14" t="n">
-        <v>22</v>
+        <v>60</v>
       </c>
       <c r="Z14" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AA14" t="n">
-        <v>170</v>
+        <v>1000</v>
       </c>
       <c r="AB14" t="n">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AC14" t="n">
-        <v>9.800000000000001</v>
+        <v>19</v>
       </c>
       <c r="AD14" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AE14" t="n">
-        <v>80</v>
+        <v>470</v>
       </c>
       <c r="AF14" t="n">
-        <v>9.800000000000001</v>
+        <v>7.4</v>
       </c>
       <c r="AG14" t="n">
-        <v>9.4</v>
+        <v>13</v>
       </c>
       <c r="AH14" t="n">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="AI14" t="n">
-        <v>75</v>
+        <v>310</v>
       </c>
       <c r="AJ14" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="AK14" t="n">
         <v>15.5</v>
       </c>
       <c r="AL14" t="n">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="AM14" t="n">
-        <v>110</v>
+        <v>370</v>
       </c>
       <c r="AN14" t="n">
-        <v>8</v>
+        <v>3.65</v>
       </c>
       <c r="AO14" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="15">
@@ -2413,34 +2413,34 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Fenerbahce</t>
+          <t>Bologna</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Aston Villa</t>
+          <t>Celtic</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>2.7</v>
+        <v>1.65</v>
       </c>
       <c r="G15" t="n">
-        <v>2.72</v>
+        <v>1.66</v>
       </c>
       <c r="H15" t="n">
-        <v>2.76</v>
+        <v>6</v>
       </c>
       <c r="I15" t="n">
-        <v>2.8</v>
+        <v>6.2</v>
       </c>
       <c r="J15" t="n">
-        <v>3.65</v>
+        <v>4.3</v>
       </c>
       <c r="K15" t="n">
-        <v>3.7</v>
+        <v>4.4</v>
       </c>
       <c r="L15" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="M15" t="n">
         <v>1.06</v>
@@ -2449,85 +2449,85 @@
         <v>4.6</v>
       </c>
       <c r="O15" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="P15" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.79</v>
+        <v>1.78</v>
       </c>
       <c r="R15" t="n">
         <v>1.47</v>
       </c>
       <c r="S15" t="n">
-        <v>3</v>
+        <v>2.98</v>
       </c>
       <c r="T15" t="n">
-        <v>1.65</v>
+        <v>1.84</v>
       </c>
       <c r="U15" t="n">
-        <v>2.42</v>
+        <v>2.1</v>
       </c>
       <c r="V15" t="n">
-        <v>1.55</v>
+        <v>1.2</v>
       </c>
       <c r="W15" t="n">
-        <v>1.58</v>
+        <v>2.46</v>
       </c>
       <c r="X15" t="n">
         <v>17.5</v>
       </c>
       <c r="Y15" t="n">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="Z15" t="n">
-        <v>19</v>
+        <v>48</v>
       </c>
       <c r="AA15" t="n">
-        <v>42</v>
+        <v>160</v>
       </c>
       <c r="AB15" t="n">
-        <v>13.5</v>
+        <v>9.4</v>
       </c>
       <c r="AC15" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>22</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>80</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>10</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>75</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>16</v>
+      </c>
+      <c r="AL15" t="n">
+        <v>32</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>110</v>
+      </c>
+      <c r="AN15" t="n">
         <v>8.199999999999999</v>
       </c>
-      <c r="AD15" t="n">
-        <v>12</v>
-      </c>
-      <c r="AE15" t="n">
-        <v>28</v>
-      </c>
-      <c r="AF15" t="n">
-        <v>19</v>
-      </c>
-      <c r="AG15" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AH15" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AI15" t="n">
-        <v>36</v>
-      </c>
-      <c r="AJ15" t="n">
-        <v>40</v>
-      </c>
-      <c r="AK15" t="n">
-        <v>27</v>
-      </c>
-      <c r="AL15" t="n">
-        <v>36</v>
-      </c>
-      <c r="AM15" t="n">
-        <v>70</v>
-      </c>
-      <c r="AN15" t="n">
-        <v>19.5</v>
-      </c>
       <c r="AO15" t="n">
-        <v>20</v>
+        <v>85</v>
       </c>
     </row>
     <row r="16">
@@ -2548,121 +2548,121 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Young Boys</t>
+          <t>Fenerbahce</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Lyon</t>
+          <t>Aston Villa</t>
         </is>
       </c>
       <c r="F16" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="G16" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="H16" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="I16" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="J16" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="K16" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="L16" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N16" t="n">
         <v>4.6</v>
       </c>
-      <c r="G16" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="H16" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="I16" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="J16" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="K16" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="L16" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="M16" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N16" t="n">
-        <v>5.2</v>
-      </c>
       <c r="O16" t="n">
-        <v>1.22</v>
+        <v>1.26</v>
       </c>
       <c r="P16" t="n">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.68</v>
+        <v>1.79</v>
       </c>
       <c r="R16" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="S16" t="n">
+        <v>3</v>
+      </c>
+      <c r="T16" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="U16" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="V16" t="n">
         <v>1.55</v>
       </c>
-      <c r="S16" t="n">
-        <v>2.72</v>
-      </c>
-      <c r="T16" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="U16" t="n">
-        <v>2.34</v>
-      </c>
-      <c r="V16" t="n">
-        <v>2.2</v>
-      </c>
       <c r="W16" t="n">
-        <v>1.26</v>
+        <v>1.58</v>
       </c>
       <c r="X16" t="n">
-        <v>26</v>
+        <v>17.5</v>
       </c>
       <c r="Y16" t="n">
+        <v>14</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>19</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>42</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AD16" t="n">
         <v>12</v>
       </c>
-      <c r="Z16" t="n">
-        <v>13</v>
-      </c>
-      <c r="AA16" t="n">
-        <v>21</v>
-      </c>
-      <c r="AB16" t="n">
-        <v>22</v>
-      </c>
-      <c r="AC16" t="n">
-        <v>10</v>
-      </c>
-      <c r="AD16" t="n">
-        <v>10.5</v>
-      </c>
       <c r="AE16" t="n">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="AF16" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>36</v>
+      </c>
+      <c r="AJ16" t="n">
         <v>40</v>
       </c>
-      <c r="AG16" t="n">
+      <c r="AK16" t="n">
+        <v>27</v>
+      </c>
+      <c r="AL16" t="n">
+        <v>36</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>70</v>
+      </c>
+      <c r="AN16" t="n">
         <v>19.5</v>
       </c>
-      <c r="AH16" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AI16" t="n">
-        <v>30</v>
-      </c>
-      <c r="AJ16" t="n">
-        <v>120</v>
-      </c>
-      <c r="AK16" t="n">
-        <v>55</v>
-      </c>
-      <c r="AL16" t="n">
-        <v>55</v>
-      </c>
-      <c r="AM16" t="n">
-        <v>80</v>
-      </c>
-      <c r="AN16" t="n">
-        <v>48</v>
-      </c>
       <c r="AO16" t="n">
-        <v>8.800000000000001</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17">
@@ -2683,127 +2683,127 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Feyenoord</t>
+          <t>Young Boys</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Sturm Graz</t>
+          <t>Lyon</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>1.46</v>
+        <v>4.6</v>
       </c>
       <c r="G17" t="n">
-        <v>1.48</v>
+        <v>4.9</v>
       </c>
       <c r="H17" t="n">
-        <v>7.2</v>
+        <v>1.78</v>
       </c>
       <c r="I17" t="n">
-        <v>7.8</v>
+        <v>1.82</v>
       </c>
       <c r="J17" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="K17" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="L17" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N17" t="n">
         <v>5.2</v>
       </c>
-      <c r="K17" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="L17" t="n">
+      <c r="O17" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P17" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="R17" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="S17" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="T17" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="U17" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="V17" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="W17" t="n">
         <v>1.26</v>
       </c>
-      <c r="M17" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N17" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="O17" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="P17" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="R17" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="S17" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="T17" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="U17" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="V17" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="W17" t="n">
-        <v>3.05</v>
-      </c>
       <c r="X17" t="n">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="Y17" t="n">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="Z17" t="n">
-        <v>75</v>
+        <v>13</v>
       </c>
       <c r="AA17" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AB17" t="n">
-        <v>12.5</v>
+        <v>22</v>
       </c>
       <c r="AC17" t="n">
-        <v>12.5</v>
+        <v>10</v>
       </c>
       <c r="AD17" t="n">
-        <v>29</v>
+        <v>10.5</v>
       </c>
       <c r="AE17" t="n">
-        <v>95</v>
+        <v>20</v>
       </c>
       <c r="AF17" t="n">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="AG17" t="n">
-        <v>11</v>
+        <v>19.5</v>
       </c>
       <c r="AH17" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="AI17" t="n">
-        <v>75</v>
+        <v>30</v>
       </c>
       <c r="AJ17" t="n">
-        <v>13.5</v>
+        <v>120</v>
       </c>
       <c r="AK17" t="n">
-        <v>14</v>
+        <v>55</v>
       </c>
       <c r="AL17" t="n">
-        <v>26</v>
+        <v>55</v>
       </c>
       <c r="AM17" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AN17" t="n">
-        <v>4.9</v>
+        <v>48</v>
       </c>
       <c r="AO17" t="n">
-        <v>80</v>
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Egyptian Premier</t>
+          <t>UEFA Europa League</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -2813,132 +2813,132 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>14:45:00</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Ismaily</t>
+          <t>Feyenoord</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Al Mokawloon</t>
+          <t>Sturm Graz</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>3.9</v>
+        <v>1.45</v>
       </c>
       <c r="G18" t="n">
-        <v>4.5</v>
+        <v>1.47</v>
       </c>
       <c r="H18" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="I18" t="n">
+        <v>8</v>
+      </c>
+      <c r="J18" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="K18" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="L18" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="M18" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N18" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="O18" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="P18" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="R18" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="S18" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="T18" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="U18" t="n">
         <v>2.32</v>
       </c>
-      <c r="I18" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="J18" t="n">
-        <v>2.78</v>
-      </c>
-      <c r="K18" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="L18" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="M18" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="N18" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="O18" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="P18" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="R18" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="S18" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="T18" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="U18" t="n">
-        <v>1.61</v>
-      </c>
       <c r="V18" t="n">
-        <v>1.66</v>
+        <v>1.14</v>
       </c>
       <c r="W18" t="n">
-        <v>1.29</v>
+        <v>3.1</v>
       </c>
       <c r="X18" t="n">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="Y18" t="n">
-        <v>7.6</v>
+        <v>36</v>
       </c>
       <c r="Z18" t="n">
-        <v>16</v>
+        <v>75</v>
       </c>
       <c r="AA18" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AB18" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>13</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>30</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>95</v>
+      </c>
+      <c r="AF18" t="n">
         <v>11.5</v>
       </c>
-      <c r="AC18" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="AD18" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AE18" t="n">
-        <v>970</v>
-      </c>
-      <c r="AF18" t="n">
-        <v>34</v>
-      </c>
       <c r="AG18" t="n">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="AH18" t="n">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="AI18" t="n">
-        <v>110</v>
+        <v>75</v>
       </c>
       <c r="AJ18" t="n">
-        <v>140</v>
+        <v>13.5</v>
       </c>
       <c r="AK18" t="n">
-        <v>110</v>
+        <v>14</v>
       </c>
       <c r="AL18" t="n">
-        <v>160</v>
+        <v>26</v>
       </c>
       <c r="AM18" t="n">
-        <v>370</v>
+        <v>90</v>
       </c>
       <c r="AN18" t="n">
-        <v>190</v>
+        <v>4.9</v>
       </c>
       <c r="AO18" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>UEFA Europa League</t>
+          <t>Egyptian Premier</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -2948,126 +2948,126 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Red Bull Salzburg</t>
+          <t>Ismaily</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>FC Basel</t>
+          <t>Al Mokawloon</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>2.48</v>
+        <v>3.9</v>
       </c>
       <c r="G19" t="n">
-        <v>2.54</v>
+        <v>4.4</v>
       </c>
       <c r="H19" t="n">
-        <v>2.82</v>
+        <v>2.32</v>
       </c>
       <c r="I19" t="n">
-        <v>2.92</v>
+        <v>2.52</v>
       </c>
       <c r="J19" t="n">
-        <v>3.9</v>
+        <v>2.78</v>
       </c>
       <c r="K19" t="n">
-        <v>3.95</v>
+        <v>3.05</v>
       </c>
       <c r="L19" t="n">
-        <v>1.31</v>
+        <v>1.7</v>
       </c>
       <c r="M19" t="n">
-        <v>1.04</v>
+        <v>1.17</v>
       </c>
       <c r="N19" t="n">
-        <v>5.5</v>
+        <v>2.2</v>
       </c>
       <c r="O19" t="n">
-        <v>1.21</v>
+        <v>1.71</v>
       </c>
       <c r="P19" t="n">
-        <v>2.52</v>
+        <v>1.39</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.62</v>
+        <v>3.15</v>
       </c>
       <c r="R19" t="n">
-        <v>1.6</v>
+        <v>1.13</v>
       </c>
       <c r="S19" t="n">
-        <v>2.56</v>
+        <v>7.2</v>
       </c>
       <c r="T19" t="n">
-        <v>1.58</v>
+        <v>2.4</v>
       </c>
       <c r="U19" t="n">
-        <v>2.64</v>
+        <v>1.61</v>
       </c>
       <c r="V19" t="n">
-        <v>1.52</v>
+        <v>1.66</v>
       </c>
       <c r="W19" t="n">
-        <v>1.64</v>
+        <v>1.29</v>
       </c>
       <c r="X19" t="n">
-        <v>22</v>
+        <v>6.8</v>
       </c>
       <c r="Y19" t="n">
-        <v>16.5</v>
+        <v>6.4</v>
       </c>
       <c r="Z19" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AA19" t="n">
-        <v>48</v>
+        <v>980</v>
       </c>
       <c r="AB19" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="AC19" t="n">
-        <v>9.4</v>
+        <v>7.2</v>
       </c>
       <c r="AD19" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AE19" t="n">
-        <v>27</v>
+        <v>980</v>
       </c>
       <c r="AF19" t="n">
-        <v>19.5</v>
+        <v>980</v>
       </c>
       <c r="AG19" t="n">
-        <v>12</v>
+        <v>980</v>
       </c>
       <c r="AH19" t="n">
-        <v>14</v>
+        <v>980</v>
       </c>
       <c r="AI19" t="n">
-        <v>32</v>
+        <v>110</v>
       </c>
       <c r="AJ19" t="n">
-        <v>36</v>
+        <v>140</v>
       </c>
       <c r="AK19" t="n">
-        <v>23</v>
+        <v>110</v>
       </c>
       <c r="AL19" t="n">
-        <v>29</v>
+        <v>160</v>
       </c>
       <c r="AM19" t="n">
-        <v>60</v>
+        <v>370</v>
       </c>
       <c r="AN19" t="n">
-        <v>14</v>
+        <v>190</v>
       </c>
       <c r="AO19" t="n">
-        <v>17</v>
+        <v>980</v>
       </c>
     </row>
     <row r="20">
@@ -3088,121 +3088,121 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Dinamo Zagreb</t>
+          <t>Red Bull Salzburg</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>FCSB</t>
+          <t>FC Basel</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1.66</v>
+        <v>2.48</v>
       </c>
       <c r="G20" t="n">
-        <v>1.68</v>
+        <v>2.56</v>
       </c>
       <c r="H20" t="n">
-        <v>5.8</v>
+        <v>2.82</v>
       </c>
       <c r="I20" t="n">
-        <v>6.2</v>
+        <v>2.92</v>
       </c>
       <c r="J20" t="n">
-        <v>4.2</v>
+        <v>3.9</v>
       </c>
       <c r="K20" t="n">
-        <v>4.3</v>
+        <v>3.95</v>
       </c>
       <c r="L20" t="n">
-        <v>1.41</v>
+        <v>1.31</v>
       </c>
       <c r="M20" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="N20" t="n">
-        <v>3.9</v>
+        <v>5.5</v>
       </c>
       <c r="O20" t="n">
-        <v>1.32</v>
+        <v>1.2</v>
       </c>
       <c r="P20" t="n">
-        <v>1.98</v>
+        <v>2.52</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.97</v>
+        <v>1.62</v>
       </c>
       <c r="R20" t="n">
-        <v>1.37</v>
+        <v>1.6</v>
       </c>
       <c r="S20" t="n">
-        <v>3.55</v>
+        <v>2.56</v>
       </c>
       <c r="T20" t="n">
-        <v>1.97</v>
+        <v>1.58</v>
       </c>
       <c r="U20" t="n">
-        <v>1.96</v>
+        <v>2.64</v>
       </c>
       <c r="V20" t="n">
-        <v>1.19</v>
+        <v>1.52</v>
       </c>
       <c r="W20" t="n">
-        <v>2.46</v>
+        <v>1.64</v>
       </c>
       <c r="X20" t="n">
+        <v>22</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>48</v>
+      </c>
+      <c r="AB20" t="n">
         <v>15.5</v>
       </c>
-      <c r="Y20" t="n">
+      <c r="AC20" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>13</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>27</v>
+      </c>
+      <c r="AF20" t="n">
         <v>19.5</v>
       </c>
-      <c r="Z20" t="n">
-        <v>48</v>
-      </c>
-      <c r="AA20" t="n">
-        <v>170</v>
-      </c>
-      <c r="AB20" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="AC20" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AD20" t="n">
+      <c r="AG20" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>14</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>32</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>36</v>
+      </c>
+      <c r="AK20" t="n">
         <v>23</v>
       </c>
-      <c r="AE20" t="n">
-        <v>90</v>
-      </c>
-      <c r="AF20" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="AG20" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AH20" t="n">
-        <v>22</v>
-      </c>
-      <c r="AI20" t="n">
-        <v>85</v>
-      </c>
-      <c r="AJ20" t="n">
-        <v>16</v>
-      </c>
-      <c r="AK20" t="n">
-        <v>17.5</v>
-      </c>
       <c r="AL20" t="n">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="AM20" t="n">
-        <v>130</v>
+        <v>60</v>
       </c>
       <c r="AN20" t="n">
-        <v>10.5</v>
+        <v>14</v>
       </c>
       <c r="AO20" t="n">
-        <v>110</v>
+        <v>17</v>
       </c>
     </row>
     <row r="21">
@@ -3223,121 +3223,121 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Braga</t>
+          <t>Dinamo Zagreb</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Nottm Forest</t>
+          <t>FCSB</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>2.86</v>
+        <v>1.66</v>
       </c>
       <c r="G21" t="n">
-        <v>2.88</v>
+        <v>1.68</v>
       </c>
       <c r="H21" t="n">
-        <v>2.76</v>
+        <v>5.8</v>
       </c>
       <c r="I21" t="n">
-        <v>2.78</v>
+        <v>6.2</v>
       </c>
       <c r="J21" t="n">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="K21" t="n">
-        <v>3.45</v>
+        <v>4.3</v>
       </c>
       <c r="L21" t="n">
-        <v>1.43</v>
+        <v>1.41</v>
       </c>
       <c r="M21" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N21" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="O21" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="P21" t="n">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="Q21" t="n">
-        <v>2.06</v>
+        <v>1.97</v>
       </c>
       <c r="R21" t="n">
-        <v>1.35</v>
+        <v>1.37</v>
       </c>
       <c r="S21" t="n">
-        <v>3.65</v>
+        <v>3.55</v>
       </c>
       <c r="T21" t="n">
-        <v>1.77</v>
+        <v>1.97</v>
       </c>
       <c r="U21" t="n">
-        <v>2.2</v>
+        <v>1.96</v>
       </c>
       <c r="V21" t="n">
-        <v>1.56</v>
+        <v>1.19</v>
       </c>
       <c r="W21" t="n">
-        <v>1.53</v>
+        <v>2.46</v>
       </c>
       <c r="X21" t="n">
-        <v>14</v>
+        <v>15.5</v>
       </c>
       <c r="Y21" t="n">
-        <v>11.5</v>
+        <v>19.5</v>
       </c>
       <c r="Z21" t="n">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="AA21" t="n">
-        <v>42</v>
+        <v>170</v>
       </c>
       <c r="AB21" t="n">
-        <v>11.5</v>
+        <v>8.4</v>
       </c>
       <c r="AC21" t="n">
-        <v>7.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD21" t="n">
-        <v>12.5</v>
+        <v>23</v>
       </c>
       <c r="AE21" t="n">
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="AF21" t="n">
-        <v>18.5</v>
+        <v>9.4</v>
       </c>
       <c r="AG21" t="n">
-        <v>12.5</v>
+        <v>9.6</v>
       </c>
       <c r="AH21" t="n">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="AI21" t="n">
-        <v>42</v>
+        <v>85</v>
       </c>
       <c r="AJ21" t="n">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="AK21" t="n">
-        <v>32</v>
+        <v>17.5</v>
       </c>
       <c r="AL21" t="n">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="AM21" t="n">
-        <v>95</v>
+        <v>130</v>
       </c>
       <c r="AN21" t="n">
-        <v>27</v>
+        <v>10.5</v>
       </c>
       <c r="AO21" t="n">
-        <v>26</v>
+        <v>110</v>
       </c>
     </row>
     <row r="22">
@@ -3358,121 +3358,121 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Roma</t>
+          <t>Braga</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Stuttgart</t>
+          <t>Nottm Forest</t>
         </is>
       </c>
       <c r="F22" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="G22" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="H22" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="I22" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="J22" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="K22" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="L22" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="M22" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N22" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="O22" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P22" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="Q22" t="n">
         <v>2.06</v>
       </c>
-      <c r="G22" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="H22" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="I22" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="J22" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="K22" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="L22" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="M22" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N22" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="O22" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="P22" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>1.82</v>
-      </c>
       <c r="R22" t="n">
-        <v>1.46</v>
+        <v>1.35</v>
       </c>
       <c r="S22" t="n">
-        <v>3.05</v>
+        <v>3.65</v>
       </c>
       <c r="T22" t="n">
-        <v>1.72</v>
+        <v>1.76</v>
       </c>
       <c r="U22" t="n">
-        <v>2.3</v>
+        <v>2.18</v>
       </c>
       <c r="V22" t="n">
-        <v>1.33</v>
+        <v>1.55</v>
       </c>
       <c r="W22" t="n">
-        <v>1.92</v>
+        <v>1.53</v>
       </c>
       <c r="X22" t="n">
+        <v>14</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>18</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>42</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>30</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AH22" t="n">
         <v>17.5</v>
       </c>
-      <c r="Y22" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="Z22" t="n">
+      <c r="AI22" t="n">
+        <v>44</v>
+      </c>
+      <c r="AJ22" t="n">
+        <v>44</v>
+      </c>
+      <c r="AK22" t="n">
+        <v>32</v>
+      </c>
+      <c r="AL22" t="n">
+        <v>44</v>
+      </c>
+      <c r="AM22" t="n">
+        <v>95</v>
+      </c>
+      <c r="AN22" t="n">
         <v>28</v>
       </c>
-      <c r="AA22" t="n">
-        <v>75</v>
-      </c>
-      <c r="AB22" t="n">
-        <v>11</v>
-      </c>
-      <c r="AC22" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="AD22" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AE22" t="n">
-        <v>42</v>
-      </c>
-      <c r="AF22" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AG22" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AH22" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AI22" t="n">
-        <v>48</v>
-      </c>
-      <c r="AJ22" t="n">
-        <v>24</v>
-      </c>
-      <c r="AK22" t="n">
-        <v>20</v>
-      </c>
-      <c r="AL22" t="n">
-        <v>32</v>
-      </c>
-      <c r="AM22" t="n">
-        <v>80</v>
-      </c>
-      <c r="AN22" t="n">
-        <v>12.5</v>
-      </c>
       <c r="AO22" t="n">
-        <v>38</v>
+        <v>26</v>
       </c>
     </row>
     <row r="23">
@@ -3493,118 +3493,118 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Nice</t>
+          <t>Roma</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Go Ahead Eagles</t>
+          <t>Stuttgart</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>1.93</v>
+        <v>2.08</v>
       </c>
       <c r="G23" t="n">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="H23" t="n">
-        <v>4.1</v>
+        <v>3.8</v>
       </c>
       <c r="I23" t="n">
-        <v>4.3</v>
+        <v>3.9</v>
       </c>
       <c r="J23" t="n">
-        <v>4.1</v>
+        <v>3.8</v>
       </c>
       <c r="K23" t="n">
-        <v>4.2</v>
+        <v>3.85</v>
       </c>
       <c r="L23" t="n">
-        <v>1.33</v>
+        <v>1.37</v>
       </c>
       <c r="M23" t="n">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="N23" t="n">
-        <v>5.1</v>
+        <v>4.5</v>
       </c>
       <c r="O23" t="n">
-        <v>1.22</v>
+        <v>1.27</v>
       </c>
       <c r="P23" t="n">
-        <v>2.42</v>
+        <v>2.16</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.68</v>
+        <v>1.82</v>
       </c>
       <c r="R23" t="n">
-        <v>1.55</v>
+        <v>1.46</v>
       </c>
       <c r="S23" t="n">
-        <v>2.74</v>
+        <v>3.05</v>
       </c>
       <c r="T23" t="n">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="U23" t="n">
-        <v>2.44</v>
+        <v>2.3</v>
       </c>
       <c r="V23" t="n">
-        <v>1.31</v>
+        <v>1.34</v>
       </c>
       <c r="W23" t="n">
-        <v>2.04</v>
+        <v>1.9</v>
       </c>
       <c r="X23" t="n">
-        <v>21</v>
+        <v>17.5</v>
       </c>
       <c r="Y23" t="n">
-        <v>19.5</v>
+        <v>16.5</v>
       </c>
       <c r="Z23" t="n">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="AA23" t="n">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="AB23" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AC23" t="n">
-        <v>9</v>
+        <v>8.4</v>
       </c>
       <c r="AD23" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="AE23" t="n">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="AF23" t="n">
         <v>13.5</v>
       </c>
       <c r="AG23" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AH23" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AI23" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="AJ23" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AK23" t="n">
-        <v>17.5</v>
+        <v>20</v>
       </c>
       <c r="AL23" t="n">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="AM23" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="AN23" t="n">
-        <v>9.4</v>
+        <v>12.5</v>
       </c>
       <c r="AO23" t="n">
         <v>38</v>
@@ -3628,121 +3628,121 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Ferencvaros</t>
+          <t>Nice</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Panathinaikos</t>
+          <t>Go Ahead Eagles</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>2.4</v>
+        <v>1.93</v>
       </c>
       <c r="G24" t="n">
-        <v>2.48</v>
+        <v>1.95</v>
       </c>
       <c r="H24" t="n">
-        <v>3.15</v>
+        <v>4.1</v>
       </c>
       <c r="I24" t="n">
-        <v>3.3</v>
+        <v>4.2</v>
       </c>
       <c r="J24" t="n">
-        <v>3.45</v>
+        <v>4.1</v>
       </c>
       <c r="K24" t="n">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="L24" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="M24" t="n">
-        <v>1.07</v>
+        <v>1.04</v>
       </c>
       <c r="N24" t="n">
-        <v>4</v>
+        <v>5.1</v>
       </c>
       <c r="O24" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P24" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="R24" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="S24" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="T24" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="U24" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="V24" t="n">
         <v>1.31</v>
       </c>
-      <c r="P24" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="R24" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="S24" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="T24" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="U24" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="V24" t="n">
-        <v>1.43</v>
-      </c>
       <c r="W24" t="n">
-        <v>1.67</v>
+        <v>2.04</v>
       </c>
       <c r="X24" t="n">
+        <v>21</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>34</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>85</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>12</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>44</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AG24" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH24" t="n">
+        <v>16</v>
+      </c>
+      <c r="AI24" t="n">
+        <v>46</v>
+      </c>
+      <c r="AJ24" t="n">
+        <v>22</v>
+      </c>
+      <c r="AK24" t="n">
         <v>17.5</v>
       </c>
-      <c r="Y24" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="Z24" t="n">
-        <v>23</v>
-      </c>
-      <c r="AA24" t="n">
-        <v>55</v>
-      </c>
-      <c r="AB24" t="n">
-        <v>11</v>
-      </c>
-      <c r="AC24" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AD24" t="n">
-        <v>14</v>
-      </c>
-      <c r="AE24" t="n">
-        <v>980</v>
-      </c>
-      <c r="AF24" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AG24" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AH24" t="n">
-        <v>17</v>
-      </c>
-      <c r="AI24" t="n">
-        <v>50</v>
-      </c>
-      <c r="AJ24" t="n">
-        <v>980</v>
-      </c>
-      <c r="AK24" t="n">
-        <v>980</v>
-      </c>
       <c r="AL24" t="n">
-        <v>980</v>
+        <v>28</v>
       </c>
       <c r="AM24" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="AN24" t="n">
-        <v>23</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AO24" t="n">
-        <v>980</v>
+        <v>34</v>
       </c>
     </row>
     <row r="25">
@@ -3763,34 +3763,34 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Celta Vigo</t>
+          <t>Ferencvaros</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Lille</t>
+          <t>Panathinaikos</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="G25" t="n">
-        <v>2.52</v>
+        <v>2.48</v>
       </c>
       <c r="H25" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="I25" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="J25" t="n">
         <v>3.5</v>
       </c>
       <c r="K25" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="L25" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="M25" t="n">
         <v>1.07</v>
@@ -3799,40 +3799,40 @@
         <v>4</v>
       </c>
       <c r="O25" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="P25" t="n">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.97</v>
+        <v>1.94</v>
       </c>
       <c r="R25" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="S25" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="T25" t="n">
-        <v>1.76</v>
+        <v>1.74</v>
       </c>
       <c r="U25" t="n">
-        <v>2.24</v>
+        <v>2.22</v>
       </c>
       <c r="V25" t="n">
-        <v>1.45</v>
+        <v>1.43</v>
       </c>
       <c r="W25" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="X25" t="n">
-        <v>14</v>
+        <v>15.5</v>
       </c>
       <c r="Y25" t="n">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="Z25" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AA25" t="n">
         <v>55</v>
@@ -3841,16 +3841,16 @@
         <v>11</v>
       </c>
       <c r="AC25" t="n">
-        <v>7.8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD25" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AE25" t="n">
-        <v>34</v>
+        <v>980</v>
       </c>
       <c r="AF25" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AG25" t="n">
         <v>11.5</v>
@@ -3859,25 +3859,25 @@
         <v>17</v>
       </c>
       <c r="AI25" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AJ25" t="n">
-        <v>34</v>
+        <v>980</v>
       </c>
       <c r="AK25" t="n">
-        <v>26</v>
+        <v>980</v>
       </c>
       <c r="AL25" t="n">
-        <v>38</v>
+        <v>980</v>
       </c>
       <c r="AM25" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AN25" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="AO25" t="n">
-        <v>30</v>
+        <v>980</v>
       </c>
     </row>
     <row r="26">
@@ -3898,127 +3898,127 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Rangers</t>
+          <t>Celta Vigo</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Ludogorets</t>
+          <t>Lille</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>1.97</v>
+        <v>2.48</v>
       </c>
       <c r="G26" t="n">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="H26" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="I26" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="J26" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="K26" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="L26" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="M26" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N26" t="n">
         <v>4</v>
       </c>
-      <c r="I26" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="J26" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="K26" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="L26" t="n">
+      <c r="O26" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="P26" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="R26" t="n">
         <v>1.38</v>
       </c>
-      <c r="M26" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N26" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="O26" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="P26" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="R26" t="n">
-        <v>1.44</v>
-      </c>
       <c r="S26" t="n">
-        <v>3.15</v>
+        <v>3.45</v>
       </c>
       <c r="T26" t="n">
-        <v>1.74</v>
+        <v>1.76</v>
       </c>
       <c r="U26" t="n">
         <v>2.24</v>
       </c>
       <c r="V26" t="n">
-        <v>1.31</v>
+        <v>1.45</v>
       </c>
       <c r="W26" t="n">
-        <v>2</v>
+        <v>1.66</v>
       </c>
       <c r="X26" t="n">
+        <v>14</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>55</v>
+      </c>
+      <c r="AB26" t="n">
+        <v>11</v>
+      </c>
+      <c r="AC26" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AD26" t="n">
+        <v>13</v>
+      </c>
+      <c r="AE26" t="n">
+        <v>34</v>
+      </c>
+      <c r="AF26" t="n">
+        <v>16</v>
+      </c>
+      <c r="AG26" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AH26" t="n">
         <v>17</v>
       </c>
-      <c r="Y26" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="Z26" t="n">
+      <c r="AI26" t="n">
+        <v>44</v>
+      </c>
+      <c r="AJ26" t="n">
+        <v>34</v>
+      </c>
+      <c r="AK26" t="n">
+        <v>26</v>
+      </c>
+      <c r="AL26" t="n">
+        <v>38</v>
+      </c>
+      <c r="AM26" t="n">
+        <v>90</v>
+      </c>
+      <c r="AN26" t="n">
+        <v>20</v>
+      </c>
+      <c r="AO26" t="n">
         <v>32</v>
-      </c>
-      <c r="AA26" t="n">
-        <v>85</v>
-      </c>
-      <c r="AB26" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AC26" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AD26" t="n">
-        <v>16</v>
-      </c>
-      <c r="AE26" t="n">
-        <v>46</v>
-      </c>
-      <c r="AF26" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AG26" t="n">
-        <v>10</v>
-      </c>
-      <c r="AH26" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AI26" t="n">
-        <v>55</v>
-      </c>
-      <c r="AJ26" t="n">
-        <v>23</v>
-      </c>
-      <c r="AK26" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AL26" t="n">
-        <v>32</v>
-      </c>
-      <c r="AM26" t="n">
-        <v>85</v>
-      </c>
-      <c r="AN26" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AO26" t="n">
-        <v>44</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Argentinian Primera Division</t>
+          <t>UEFA Europa League</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -4033,127 +4033,127 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Aldosivi</t>
+          <t>Rangers</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Defensa y Justicia</t>
+          <t>Ludogorets</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>2.7</v>
+        <v>2</v>
       </c>
       <c r="G27" t="n">
-        <v>2.88</v>
+        <v>2.04</v>
       </c>
       <c r="H27" t="n">
-        <v>3.1</v>
+        <v>3.9</v>
       </c>
       <c r="I27" t="n">
-        <v>3.35</v>
+        <v>4</v>
       </c>
       <c r="J27" t="n">
-        <v>2.94</v>
+        <v>3.9</v>
       </c>
       <c r="K27" t="n">
-        <v>3.1</v>
+        <v>4.1</v>
       </c>
       <c r="L27" t="n">
-        <v>1.59</v>
+        <v>1.38</v>
       </c>
       <c r="M27" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="N27" t="n">
-        <v>2.66</v>
+        <v>4.4</v>
       </c>
       <c r="O27" t="n">
-        <v>1.56</v>
+        <v>1.28</v>
       </c>
       <c r="P27" t="n">
-        <v>1.55</v>
+        <v>2.14</v>
       </c>
       <c r="Q27" t="n">
-        <v>2.64</v>
+        <v>1.83</v>
       </c>
       <c r="R27" t="n">
-        <v>1.19</v>
+        <v>1.44</v>
       </c>
       <c r="S27" t="n">
-        <v>5.5</v>
+        <v>3.15</v>
       </c>
       <c r="T27" t="n">
-        <v>2.1</v>
+        <v>1.75</v>
       </c>
       <c r="U27" t="n">
-        <v>1.81</v>
+        <v>2.24</v>
       </c>
       <c r="V27" t="n">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="W27" t="n">
-        <v>1.53</v>
+        <v>1.96</v>
       </c>
       <c r="X27" t="n">
-        <v>8.4</v>
+        <v>17</v>
       </c>
       <c r="Y27" t="n">
-        <v>9.199999999999999</v>
+        <v>16.5</v>
       </c>
       <c r="Z27" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="AA27" t="n">
-        <v>400</v>
+        <v>80</v>
       </c>
       <c r="AB27" t="n">
-        <v>8.4</v>
+        <v>10.5</v>
       </c>
       <c r="AC27" t="n">
-        <v>7</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD27" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AE27" t="n">
+        <v>46</v>
+      </c>
+      <c r="AF27" t="n">
+        <v>13</v>
+      </c>
+      <c r="AG27" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH27" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AI27" t="n">
+        <v>50</v>
+      </c>
+      <c r="AJ27" t="n">
+        <v>23</v>
+      </c>
+      <c r="AK27" t="n">
         <v>19.5</v>
       </c>
-      <c r="AE27" t="n">
-        <v>180</v>
-      </c>
-      <c r="AF27" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AG27" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AH27" t="n">
-        <v>23</v>
-      </c>
-      <c r="AI27" t="n">
-        <v>75</v>
-      </c>
-      <c r="AJ27" t="n">
-        <v>100</v>
-      </c>
-      <c r="AK27" t="n">
-        <v>100</v>
-      </c>
       <c r="AL27" t="n">
-        <v>70</v>
+        <v>32</v>
       </c>
       <c r="AM27" t="n">
-        <v>220</v>
+        <v>85</v>
       </c>
       <c r="AN27" t="n">
-        <v>970</v>
+        <v>12.5</v>
       </c>
       <c r="AO27" t="n">
-        <v>65</v>
+        <v>44</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>UEFA Europa League</t>
+          <t>Argentinian Primera Division</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -4168,127 +4168,127 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>FC Utrecht</t>
+          <t>Aldosivi</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Genk</t>
+          <t>Defensa y Justicia</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>2.86</v>
+        <v>2.7</v>
       </c>
       <c r="G28" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="H28" t="n">
-        <v>2.62</v>
+        <v>3.1</v>
       </c>
       <c r="I28" t="n">
-        <v>2.7</v>
+        <v>3.35</v>
       </c>
       <c r="J28" t="n">
-        <v>3.6</v>
+        <v>2.94</v>
       </c>
       <c r="K28" t="n">
-        <v>3.65</v>
+        <v>3.1</v>
       </c>
       <c r="L28" t="n">
-        <v>1.38</v>
+        <v>1.59</v>
       </c>
       <c r="M28" t="n">
-        <v>1.06</v>
+        <v>1.13</v>
       </c>
       <c r="N28" t="n">
-        <v>4.3</v>
+        <v>2.66</v>
       </c>
       <c r="O28" t="n">
-        <v>1.29</v>
+        <v>1.56</v>
       </c>
       <c r="P28" t="n">
-        <v>2.08</v>
+        <v>1.55</v>
       </c>
       <c r="Q28" t="n">
-        <v>1.88</v>
+        <v>2.64</v>
       </c>
       <c r="R28" t="n">
-        <v>1.42</v>
+        <v>1.19</v>
       </c>
       <c r="S28" t="n">
-        <v>3.2</v>
+        <v>5.5</v>
       </c>
       <c r="T28" t="n">
-        <v>1.71</v>
+        <v>2.1</v>
       </c>
       <c r="U28" t="n">
-        <v>2.32</v>
+        <v>1.82</v>
       </c>
       <c r="V28" t="n">
-        <v>1.59</v>
+        <v>1.43</v>
       </c>
       <c r="W28" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="X28" t="n">
-        <v>16</v>
+        <v>8.4</v>
       </c>
       <c r="Y28" t="n">
-        <v>12.5</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Z28" t="n">
-        <v>17.5</v>
+        <v>25</v>
       </c>
       <c r="AA28" t="n">
-        <v>38</v>
+        <v>400</v>
       </c>
       <c r="AB28" t="n">
-        <v>13</v>
+        <v>8.4</v>
       </c>
       <c r="AC28" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AD28" t="n">
-        <v>12</v>
+        <v>19.5</v>
       </c>
       <c r="AE28" t="n">
-        <v>27</v>
+        <v>180</v>
       </c>
       <c r="AF28" t="n">
-        <v>19.5</v>
+        <v>16.5</v>
       </c>
       <c r="AG28" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AH28" t="n">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="AI28" t="n">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="AJ28" t="n">
-        <v>44</v>
+        <v>970</v>
       </c>
       <c r="AK28" t="n">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="AL28" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="AM28" t="n">
-        <v>80</v>
+        <v>220</v>
       </c>
       <c r="AN28" t="n">
-        <v>24</v>
+        <v>970</v>
       </c>
       <c r="AO28" t="n">
-        <v>21</v>
+        <v>65</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Argentinian Primera Division</t>
+          <t>UEFA Europa League</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -4298,126 +4298,126 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>20:00:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Banfield</t>
+          <t>FC Utrecht</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Huracan</t>
+          <t>Genk</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>2.72</v>
+        <v>2.82</v>
       </c>
       <c r="G29" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="H29" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="I29" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="J29" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="K29" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="L29" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="M29" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N29" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="O29" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P29" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="R29" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="S29" t="n">
         <v>3.2</v>
       </c>
-      <c r="I29" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="J29" t="n">
-        <v>2.72</v>
-      </c>
-      <c r="K29" t="n">
-        <v>2.98</v>
-      </c>
-      <c r="L29" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="M29" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="N29" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="O29" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="P29" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="R29" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="S29" t="n">
-        <v>7.2</v>
-      </c>
       <c r="T29" t="n">
-        <v>2.38</v>
+        <v>1.71</v>
       </c>
       <c r="U29" t="n">
-        <v>1.62</v>
+        <v>2.32</v>
       </c>
       <c r="V29" t="n">
-        <v>1.39</v>
+        <v>1.58</v>
       </c>
       <c r="W29" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="X29" t="n">
-        <v>6.8</v>
+        <v>16</v>
       </c>
       <c r="Y29" t="n">
-        <v>9.199999999999999</v>
+        <v>12.5</v>
       </c>
       <c r="Z29" t="n">
-        <v>970</v>
+        <v>17.5</v>
       </c>
       <c r="AA29" t="n">
-        <v>75</v>
+        <v>40</v>
       </c>
       <c r="AB29" t="n">
-        <v>8.199999999999999</v>
+        <v>13</v>
       </c>
       <c r="AC29" t="n">
-        <v>7.2</v>
+        <v>8</v>
       </c>
       <c r="AD29" t="n">
-        <v>970</v>
+        <v>12</v>
       </c>
       <c r="AE29" t="n">
-        <v>65</v>
+        <v>27</v>
       </c>
       <c r="AF29" t="n">
-        <v>970</v>
+        <v>19</v>
       </c>
       <c r="AG29" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AH29" t="n">
-        <v>970</v>
+        <v>16</v>
       </c>
       <c r="AI29" t="n">
-        <v>130</v>
+        <v>38</v>
       </c>
       <c r="AJ29" t="n">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AK29" t="n">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="AL29" t="n">
-        <v>110</v>
+        <v>40</v>
       </c>
       <c r="AM29" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AN29" t="n">
-        <v>75</v>
+        <v>24</v>
       </c>
       <c r="AO29" t="n">
-        <v>120</v>
+        <v>21</v>
       </c>
     </row>
     <row r="30">
@@ -4438,121 +4438,121 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Union Santa Fe</t>
+          <t>Banfield</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>CA Platense</t>
+          <t>Huracan</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>2.12</v>
+        <v>2.72</v>
       </c>
       <c r="G30" t="n">
-        <v>2.3</v>
+        <v>3</v>
       </c>
       <c r="H30" t="n">
-        <v>4.6</v>
+        <v>3.2</v>
       </c>
       <c r="I30" t="n">
-        <v>5.1</v>
+        <v>3.55</v>
       </c>
       <c r="J30" t="n">
-        <v>2.86</v>
+        <v>2.72</v>
       </c>
       <c r="K30" t="n">
-        <v>3.15</v>
+        <v>2.98</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>2.18</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>1.73</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>1.39</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>1.13</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>6.8</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>2.38</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>1.62</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>6.8</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>970</v>
       </c>
       <c r="Z30" t="n">
-        <v>0</v>
+        <v>970</v>
       </c>
       <c r="AA30" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="AB30" t="n">
-        <v>0</v>
+        <v>970</v>
       </c>
       <c r="AC30" t="n">
-        <v>0</v>
+        <v>7.2</v>
       </c>
       <c r="AD30" t="n">
-        <v>0</v>
+        <v>970</v>
       </c>
       <c r="AE30" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="AF30" t="n">
-        <v>0</v>
+        <v>970</v>
       </c>
       <c r="AG30" t="n">
-        <v>0</v>
+        <v>970</v>
       </c>
       <c r="AH30" t="n">
-        <v>0</v>
+        <v>970</v>
       </c>
       <c r="AI30" t="n">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="AJ30" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AK30" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AL30" t="n">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="AM30" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN30" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="AO30" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
     </row>
     <row r="31">
@@ -4568,36 +4568,36 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>22:15:00</t>
+          <t>20:00:00</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Instituto</t>
+          <t>Union Santa Fe</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Velez Sarsfield</t>
+          <t>CA Platense</t>
         </is>
       </c>
       <c r="F31" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="G31" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="H31" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="I31" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="J31" t="n">
         <v>2.86</v>
       </c>
-      <c r="G31" t="n">
+      <c r="K31" t="n">
         <v>3.15</v>
-      </c>
-      <c r="H31" t="n">
-        <v>3</v>
-      </c>
-      <c r="I31" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="J31" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="K31" t="n">
-        <v>2.96</v>
       </c>
       <c r="L31" t="n">
         <v>0</v>
@@ -4708,120 +4708,255 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
+          <t>Instituto</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Velez Sarsfield</t>
+        </is>
+      </c>
+      <c r="F32" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="G32" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="H32" t="n">
+        <v>3</v>
+      </c>
+      <c r="I32" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="J32" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="K32" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0</v>
+      </c>
+      <c r="O32" t="n">
+        <v>0</v>
+      </c>
+      <c r="P32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>0</v>
+      </c>
+      <c r="R32" t="n">
+        <v>0</v>
+      </c>
+      <c r="S32" t="n">
+        <v>0</v>
+      </c>
+      <c r="T32" t="n">
+        <v>0</v>
+      </c>
+      <c r="U32" t="n">
+        <v>0</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="n">
+        <v>0</v>
+      </c>
+      <c r="X32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO32" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Argentinian Primera Division</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>2026-01-22</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>22:15:00</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
           <t>Central Cordoba (SdE)</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
+      <c r="E33" t="inlineStr">
         <is>
           <t>Gimnasia Mendoza</t>
         </is>
       </c>
-      <c r="F32" t="n">
+      <c r="F33" t="n">
         <v>2.1</v>
       </c>
-      <c r="G32" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="H32" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="I32" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="J32" t="n">
+      <c r="G33" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="H33" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="I33" t="n">
+        <v>5</v>
+      </c>
+      <c r="J33" t="n">
         <v>2.96</v>
       </c>
-      <c r="K32" t="n">
+      <c r="K33" t="n">
         <v>3.25</v>
       </c>
-      <c r="L32" t="n">
+      <c r="L33" t="n">
         <v>1.61</v>
       </c>
-      <c r="M32" t="n">
+      <c r="M33" t="n">
         <v>1.13</v>
       </c>
-      <c r="N32" t="n">
+      <c r="N33" t="n">
         <v>2.42</v>
       </c>
-      <c r="O32" t="n">
+      <c r="O33" t="n">
         <v>1.59</v>
       </c>
-      <c r="P32" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>2.66</v>
-      </c>
-      <c r="R32" t="n">
+      <c r="P33" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="R33" t="n">
         <v>1.16</v>
       </c>
-      <c r="S32" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="T32" t="n">
+      <c r="S33" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="T33" t="n">
         <v>2.22</v>
       </c>
-      <c r="U32" t="n">
+      <c r="U33" t="n">
         <v>1.66</v>
       </c>
-      <c r="V32" t="n">
+      <c r="V33" t="n">
         <v>1.25</v>
       </c>
-      <c r="W32" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="X32" t="n">
-        <v>9</v>
-      </c>
-      <c r="Y32" t="n">
+      <c r="W33" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="X33" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="Y33" t="n">
         <v>12</v>
       </c>
-      <c r="Z32" t="n">
+      <c r="Z33" t="n">
         <v>34</v>
       </c>
-      <c r="AA32" t="n">
+      <c r="AA33" t="n">
         <v>150</v>
       </c>
-      <c r="AB32" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="AC32" t="n">
+      <c r="AB33" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AC33" t="n">
         <v>7.8</v>
       </c>
-      <c r="AD32" t="n">
+      <c r="AD33" t="n">
         <v>22</v>
       </c>
-      <c r="AE32" t="n">
+      <c r="AE33" t="n">
         <v>110</v>
       </c>
-      <c r="AF32" t="n">
+      <c r="AF33" t="n">
         <v>12.5</v>
       </c>
-      <c r="AG32" t="n">
+      <c r="AG33" t="n">
         <v>12.5</v>
       </c>
-      <c r="AH32" t="n">
+      <c r="AH33" t="n">
+        <v>28</v>
+      </c>
+      <c r="AI33" t="n">
+        <v>140</v>
+      </c>
+      <c r="AJ33" t="n">
         <v>32</v>
       </c>
-      <c r="AI32" t="n">
-        <v>140</v>
-      </c>
-      <c r="AJ32" t="n">
-        <v>32</v>
-      </c>
-      <c r="AK32" t="n">
-        <v>38</v>
-      </c>
-      <c r="AL32" t="n">
+      <c r="AK33" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL33" t="n">
         <v>75</v>
       </c>
-      <c r="AM32" t="n">
+      <c r="AM33" t="n">
         <v>280</v>
       </c>
-      <c r="AN32" t="n">
-        <v>38</v>
-      </c>
-      <c r="AO32" t="n">
+      <c r="AN33" t="n">
+        <v>34</v>
+      </c>
+      <c r="AO33" t="n">
         <v>180</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-22.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-22.xlsx
@@ -667,73 +667,73 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.66</v>
+        <v>1.81</v>
       </c>
       <c r="G2" t="n">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="H2" t="n">
-        <v>4.4</v>
+        <v>4.6</v>
       </c>
       <c r="I2" t="n">
-        <v>6.4</v>
+        <v>5.5</v>
       </c>
       <c r="J2" t="n">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="K2" t="n">
         <v>4.4</v>
       </c>
       <c r="L2" t="n">
-        <v>1.31</v>
+        <v>1.42</v>
       </c>
       <c r="M2" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N2" t="n">
-        <v>3.9</v>
+        <v>3.5</v>
       </c>
       <c r="O2" t="n">
         <v>1.28</v>
       </c>
       <c r="P2" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="Q2" t="n">
         <v>1.98</v>
       </c>
-      <c r="Q2" t="n">
-        <v>1.81</v>
-      </c>
       <c r="R2" t="n">
-        <v>1.38</v>
+        <v>1.32</v>
       </c>
       <c r="S2" t="n">
-        <v>2.82</v>
+        <v>3.5</v>
       </c>
       <c r="T2" t="n">
-        <v>1.79</v>
+        <v>1.84</v>
       </c>
       <c r="U2" t="n">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="V2" t="n">
-        <v>1.17</v>
+        <v>1.22</v>
       </c>
       <c r="W2" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="X2" t="n">
-        <v>19.5</v>
+        <v>18</v>
       </c>
       <c r="Y2" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Z2" t="n">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="AA2" t="n">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="AB2" t="n">
-        <v>11</v>
+        <v>9.6</v>
       </c>
       <c r="AC2" t="n">
         <v>11</v>
@@ -748,28 +748,28 @@
         <v>13.5</v>
       </c>
       <c r="AG2" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AH2" t="n">
+        <v>26</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>90</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>25</v>
+      </c>
+      <c r="AK2" t="n">
         <v>24</v>
       </c>
-      <c r="AI2" t="n">
-        <v>85</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>23</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>23</v>
-      </c>
       <c r="AL2" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AM2" t="n">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="AN2" t="n">
-        <v>13</v>
+        <v>16.5</v>
       </c>
       <c r="AO2" t="n">
         <v>100</v>
@@ -802,112 +802,112 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.72</v>
+        <v>1.86</v>
       </c>
       <c r="G3" t="n">
-        <v>2.24</v>
+        <v>2.06</v>
       </c>
       <c r="H3" t="n">
-        <v>4.3</v>
+        <v>5.1</v>
       </c>
       <c r="I3" t="n">
-        <v>8.4</v>
+        <v>7</v>
       </c>
       <c r="J3" t="n">
-        <v>2.66</v>
+        <v>2.8</v>
       </c>
       <c r="K3" t="n">
-        <v>5.4</v>
+        <v>3.35</v>
       </c>
       <c r="L3" t="n">
-        <v>1.01</v>
+        <v>1.63</v>
       </c>
       <c r="M3" t="n">
-        <v>1.01</v>
+        <v>1.17</v>
       </c>
       <c r="N3" t="n">
-        <v>1.28</v>
+        <v>2.08</v>
       </c>
       <c r="O3" t="n">
-        <v>1.64</v>
+        <v>1.74</v>
       </c>
       <c r="P3" t="n">
-        <v>1.28</v>
+        <v>1.34</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.84</v>
+        <v>3.25</v>
       </c>
       <c r="R3" t="n">
         <v>1.12</v>
       </c>
       <c r="S3" t="n">
-        <v>2.84</v>
+        <v>7.6</v>
       </c>
       <c r="T3" t="n">
-        <v>1.01</v>
+        <v>2.62</v>
       </c>
       <c r="U3" t="n">
-        <v>1.01</v>
+        <v>1.48</v>
       </c>
       <c r="V3" t="n">
-        <v>1.13</v>
+        <v>1.17</v>
       </c>
       <c r="W3" t="n">
-        <v>1.8</v>
+        <v>1.94</v>
       </c>
       <c r="X3" t="n">
-        <v>1000</v>
+        <v>6.8</v>
       </c>
       <c r="Y3" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="Z3" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AA3" t="n">
-        <v>1000</v>
+        <v>290</v>
       </c>
       <c r="AB3" t="n">
-        <v>1000</v>
+        <v>5.5</v>
       </c>
       <c r="AC3" t="n">
-        <v>1000</v>
+        <v>8.4</v>
       </c>
       <c r="AD3" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AE3" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="AF3" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AG3" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AH3" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AI3" t="n">
-        <v>1000</v>
+        <v>260</v>
       </c>
       <c r="AJ3" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AK3" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AL3" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AM3" t="n">
-        <v>1000</v>
+        <v>530</v>
       </c>
       <c r="AN3" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AO3" t="n">
-        <v>1000</v>
+        <v>470</v>
       </c>
     </row>
     <row r="4">
@@ -937,112 +937,112 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.02</v>
+        <v>1.42</v>
       </c>
       <c r="G4" t="n">
-        <v>500</v>
+        <v>1.52</v>
       </c>
       <c r="H4" t="n">
-        <v>1.02</v>
+        <v>7</v>
       </c>
       <c r="I4" t="n">
-        <v>110</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="J4" t="n">
-        <v>1.02</v>
+        <v>4.8</v>
       </c>
       <c r="K4" t="n">
-        <v>950</v>
+        <v>5.7</v>
       </c>
       <c r="L4" t="n">
-        <v>1.01</v>
+        <v>1.24</v>
       </c>
       <c r="M4" t="n">
         <v>1.01</v>
       </c>
       <c r="N4" t="n">
-        <v>1.25</v>
+        <v>5.2</v>
       </c>
       <c r="O4" t="n">
-        <v>1.01</v>
+        <v>1.19</v>
       </c>
       <c r="P4" t="n">
-        <v>1.24</v>
+        <v>2.46</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.25</v>
+        <v>1.55</v>
       </c>
       <c r="R4" t="n">
-        <v>1.18</v>
+        <v>1.58</v>
       </c>
       <c r="S4" t="n">
-        <v>1.25</v>
+        <v>2.38</v>
       </c>
       <c r="T4" t="n">
-        <v>1.01</v>
+        <v>1.76</v>
       </c>
       <c r="U4" t="n">
-        <v>1.01</v>
+        <v>2.06</v>
       </c>
       <c r="V4" t="n">
-        <v>1.01</v>
+        <v>1.11</v>
       </c>
       <c r="W4" t="n">
-        <v>1.01</v>
+        <v>2.92</v>
       </c>
       <c r="X4" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="Y4" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="Z4" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AA4" t="n">
-        <v>1000</v>
+        <v>250</v>
       </c>
       <c r="AB4" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AC4" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AD4" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AE4" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AF4" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AG4" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AH4" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AI4" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AJ4" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AK4" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="AL4" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AM4" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AN4" t="n">
-        <v>1000</v>
+        <v>6.6</v>
       </c>
       <c r="AO4" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
     </row>
     <row r="5">
@@ -1072,22 +1072,22 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.97</v>
+        <v>1.95</v>
       </c>
       <c r="G5" t="n">
-        <v>2.18</v>
+        <v>2.08</v>
       </c>
       <c r="H5" t="n">
-        <v>4.6</v>
+        <v>5.1</v>
       </c>
       <c r="I5" t="n">
-        <v>5.9</v>
+        <v>5.7</v>
       </c>
       <c r="J5" t="n">
         <v>3</v>
       </c>
       <c r="K5" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="L5" t="n">
         <v>1.55</v>
@@ -1096,7 +1096,7 @@
         <v>1.13</v>
       </c>
       <c r="N5" t="n">
-        <v>2.36</v>
+        <v>2.34</v>
       </c>
       <c r="O5" t="n">
         <v>1.63</v>
@@ -1111,22 +1111,22 @@
         <v>1.15</v>
       </c>
       <c r="S5" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="T5" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="U5" t="n">
-        <v>1.62</v>
+        <v>1.61</v>
       </c>
       <c r="V5" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="W5" t="n">
-        <v>1.85</v>
+        <v>1.92</v>
       </c>
       <c r="X5" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Y5" t="n">
         <v>14</v>
@@ -1165,10 +1165,10 @@
         <v>30</v>
       </c>
       <c r="AK5" t="n">
-        <v>38</v>
+        <v>980</v>
       </c>
       <c r="AL5" t="n">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="AM5" t="n">
         <v>340</v>
@@ -1177,7 +1177,7 @@
         <v>36</v>
       </c>
       <c r="AO5" t="n">
-        <v>260</v>
+        <v>270</v>
       </c>
     </row>
     <row r="6">
@@ -1207,25 +1207,25 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="G6" t="n">
         <v>3.05</v>
       </c>
       <c r="H6" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="I6" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="J6" t="n">
         <v>2.92</v>
       </c>
-      <c r="I6" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="J6" t="n">
-        <v>2.9</v>
-      </c>
       <c r="K6" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="L6" t="n">
-        <v>1.01</v>
+        <v>1.52</v>
       </c>
       <c r="M6" t="n">
         <v>1.14</v>
@@ -1252,16 +1252,16 @@
         <v>2.16</v>
       </c>
       <c r="U6" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="V6" t="n">
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="W6" t="n">
-        <v>1.51</v>
+        <v>1.48</v>
       </c>
       <c r="X6" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="Y6" t="n">
         <v>10</v>
@@ -1270,13 +1270,13 @@
         <v>23</v>
       </c>
       <c r="AA6" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AB6" t="n">
         <v>9.800000000000001</v>
       </c>
       <c r="AC6" t="n">
-        <v>8.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD6" t="n">
         <v>17.5</v>
@@ -1291,7 +1291,7 @@
         <v>17</v>
       </c>
       <c r="AH6" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AI6" t="n">
         <v>95</v>
@@ -1306,7 +1306,7 @@
         <v>95</v>
       </c>
       <c r="AM6" t="n">
-        <v>260</v>
+        <v>240</v>
       </c>
       <c r="AN6" t="n">
         <v>75</v>
@@ -1348,37 +1348,37 @@
         <v>1.76</v>
       </c>
       <c r="H7" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="I7" t="n">
         <v>6.2</v>
       </c>
       <c r="J7" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="K7" t="n">
         <v>4.2</v>
       </c>
       <c r="L7" t="n">
-        <v>1.35</v>
+        <v>1.41</v>
       </c>
       <c r="M7" t="n">
         <v>1.07</v>
       </c>
       <c r="N7" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="O7" t="n">
         <v>1.32</v>
       </c>
       <c r="P7" t="n">
-        <v>1.89</v>
+        <v>1.91</v>
       </c>
       <c r="Q7" t="n">
         <v>1.95</v>
       </c>
       <c r="R7" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="S7" t="n">
         <v>3.4</v>
@@ -1387,7 +1387,7 @@
         <v>1.9</v>
       </c>
       <c r="U7" t="n">
-        <v>1.94</v>
+        <v>1.96</v>
       </c>
       <c r="V7" t="n">
         <v>1.19</v>
@@ -1405,7 +1405,7 @@
         <v>970</v>
       </c>
       <c r="AA7" t="n">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="AB7" t="n">
         <v>8.4</v>
@@ -1480,13 +1480,13 @@
         <v>1.19</v>
       </c>
       <c r="G8" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="H8" t="n">
         <v>12.5</v>
       </c>
       <c r="I8" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="J8" t="n">
         <v>7.8</v>
@@ -1516,7 +1516,7 @@
         <v>1.82</v>
       </c>
       <c r="S8" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="T8" t="n">
         <v>1.98</v>
@@ -1528,7 +1528,7 @@
         <v>1.05</v>
       </c>
       <c r="W8" t="n">
-        <v>5.3</v>
+        <v>5.1</v>
       </c>
       <c r="X8" t="n">
         <v>980</v>
@@ -1537,7 +1537,7 @@
         <v>65</v>
       </c>
       <c r="Z8" t="n">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="AA8" t="n">
         <v>1000</v>
@@ -1552,7 +1552,7 @@
         <v>65</v>
       </c>
       <c r="AE8" t="n">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="AF8" t="n">
         <v>9.800000000000001</v>
@@ -1564,7 +1564,7 @@
         <v>980</v>
       </c>
       <c r="AI8" t="n">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="AJ8" t="n">
         <v>10.5</v>
@@ -1582,7 +1582,7 @@
         <v>3.5</v>
       </c>
       <c r="AO8" t="n">
-        <v>330</v>
+        <v>320</v>
       </c>
     </row>
     <row r="9">
@@ -1615,13 +1615,13 @@
         <v>2.28</v>
       </c>
       <c r="G9" t="n">
-        <v>2.56</v>
+        <v>2.58</v>
       </c>
       <c r="H9" t="n">
         <v>2.66</v>
       </c>
       <c r="I9" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="J9" t="n">
         <v>4</v>
@@ -1630,40 +1630,40 @@
         <v>4.7</v>
       </c>
       <c r="L9" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="M9" t="n">
         <v>1.03</v>
       </c>
       <c r="N9" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="O9" t="n">
         <v>1.15</v>
       </c>
       <c r="P9" t="n">
-        <v>2.74</v>
+        <v>2.8</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.46</v>
+        <v>1.45</v>
       </c>
       <c r="R9" t="n">
-        <v>1.71</v>
+        <v>1.73</v>
       </c>
       <c r="S9" t="n">
-        <v>2.18</v>
+        <v>2.1</v>
       </c>
       <c r="T9" t="n">
         <v>1.46</v>
       </c>
       <c r="U9" t="n">
-        <v>2.74</v>
+        <v>2.78</v>
       </c>
       <c r="V9" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="W9" t="n">
-        <v>1.64</v>
+        <v>1.63</v>
       </c>
       <c r="X9" t="n">
         <v>38</v>
@@ -1702,7 +1702,7 @@
         <v>980</v>
       </c>
       <c r="AJ9" t="n">
-        <v>980</v>
+        <v>36</v>
       </c>
       <c r="AK9" t="n">
         <v>23</v>
@@ -1717,7 +1717,7 @@
         <v>11.5</v>
       </c>
       <c r="AO9" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
     </row>
     <row r="10">
@@ -1753,16 +1753,16 @@
         <v>4.5</v>
       </c>
       <c r="H10" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="I10" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="J10" t="n">
-        <v>3.55</v>
+        <v>3.65</v>
       </c>
       <c r="K10" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="L10" t="n">
         <v>1.47</v>
@@ -1771,7 +1771,7 @@
         <v>1.08</v>
       </c>
       <c r="N10" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="O10" t="n">
         <v>1.4</v>
@@ -1795,10 +1795,10 @@
         <v>1.97</v>
       </c>
       <c r="V10" t="n">
-        <v>1.96</v>
+        <v>1.97</v>
       </c>
       <c r="W10" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="X10" t="n">
         <v>12.5</v>
@@ -1891,7 +1891,7 @@
         <v>2.26</v>
       </c>
       <c r="I11" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="J11" t="n">
         <v>3.75</v>
@@ -1906,7 +1906,7 @@
         <v>1.05</v>
       </c>
       <c r="N11" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="O11" t="n">
         <v>1.24</v>
@@ -1927,67 +1927,67 @@
         <v>1.64</v>
       </c>
       <c r="U11" t="n">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
       <c r="V11" t="n">
-        <v>1.78</v>
+        <v>1.77</v>
       </c>
       <c r="W11" t="n">
         <v>1.41</v>
       </c>
       <c r="X11" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="Y11" t="n">
         <v>12.5</v>
       </c>
       <c r="Z11" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AA11" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AB11" t="n">
         <v>16</v>
       </c>
       <c r="AC11" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="AD11" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AE11" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AF11" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AG11" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AH11" t="n">
         <v>15.5</v>
       </c>
       <c r="AI11" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AJ11" t="n">
         <v>60</v>
       </c>
       <c r="AK11" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AL11" t="n">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="AM11" t="n">
         <v>70</v>
       </c>
       <c r="AN11" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AO11" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12">
@@ -2017,7 +2017,7 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.64</v>
+        <v>2.62</v>
       </c>
       <c r="G12" t="n">
         <v>2.66</v>
@@ -2041,28 +2041,28 @@
         <v>1.06</v>
       </c>
       <c r="N12" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="O12" t="n">
         <v>1.27</v>
       </c>
       <c r="P12" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="Q12" t="n">
         <v>1.82</v>
       </c>
       <c r="R12" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="S12" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="T12" t="n">
         <v>1.67</v>
       </c>
       <c r="U12" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="V12" t="n">
         <v>1.52</v>
@@ -2086,7 +2086,7 @@
         <v>12.5</v>
       </c>
       <c r="AC12" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="AD12" t="n">
         <v>12.5</v>
@@ -2101,7 +2101,7 @@
         <v>12</v>
       </c>
       <c r="AH12" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AI12" t="n">
         <v>38</v>
@@ -2155,7 +2155,7 @@
         <v>3.8</v>
       </c>
       <c r="G13" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="H13" t="n">
         <v>2.04</v>
@@ -2167,7 +2167,7 @@
         <v>3.95</v>
       </c>
       <c r="K13" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="L13" t="n">
         <v>1.36</v>
@@ -2194,7 +2194,7 @@
         <v>3.05</v>
       </c>
       <c r="T13" t="n">
-        <v>1.73</v>
+        <v>1.71</v>
       </c>
       <c r="U13" t="n">
         <v>2.3</v>
@@ -2203,7 +2203,7 @@
         <v>1.93</v>
       </c>
       <c r="W13" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="X13" t="n">
         <v>18</v>
@@ -2233,7 +2233,7 @@
         <v>29</v>
       </c>
       <c r="AG13" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AH13" t="n">
         <v>17</v>
@@ -2296,7 +2296,7 @@
         <v>18</v>
       </c>
       <c r="I14" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J14" t="n">
         <v>8.199999999999999</v>
@@ -2332,7 +2332,7 @@
         <v>2.48</v>
       </c>
       <c r="U14" t="n">
-        <v>1.64</v>
+        <v>1.62</v>
       </c>
       <c r="V14" t="n">
         <v>1.05</v>
@@ -2356,7 +2356,7 @@
         <v>9.800000000000001</v>
       </c>
       <c r="AC14" t="n">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="AD14" t="n">
         <v>1000</v>
@@ -2422,25 +2422,25 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1.65</v>
+        <v>1.71</v>
       </c>
       <c r="G15" t="n">
-        <v>1.66</v>
+        <v>1.73</v>
       </c>
       <c r="H15" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="I15" t="n">
-        <v>6.2</v>
+        <v>5.7</v>
       </c>
       <c r="J15" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="K15" t="n">
         <v>4.3</v>
       </c>
-      <c r="K15" t="n">
-        <v>4.4</v>
-      </c>
       <c r="L15" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="M15" t="n">
         <v>1.06</v>
@@ -2461,73 +2461,73 @@
         <v>1.47</v>
       </c>
       <c r="S15" t="n">
-        <v>2.98</v>
+        <v>3</v>
       </c>
       <c r="T15" t="n">
-        <v>1.84</v>
+        <v>1.81</v>
       </c>
       <c r="U15" t="n">
-        <v>2.1</v>
+        <v>2.14</v>
       </c>
       <c r="V15" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="W15" t="n">
-        <v>2.46</v>
+        <v>2.38</v>
       </c>
       <c r="X15" t="n">
         <v>17.5</v>
       </c>
       <c r="Y15" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Z15" t="n">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="AA15" t="n">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="AB15" t="n">
-        <v>9.4</v>
+        <v>10</v>
       </c>
       <c r="AC15" t="n">
         <v>9.4</v>
       </c>
       <c r="AD15" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AE15" t="n">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="AF15" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AG15" t="n">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AH15" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="AI15" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AJ15" t="n">
-        <v>15.5</v>
+        <v>17</v>
       </c>
       <c r="AK15" t="n">
         <v>16</v>
       </c>
       <c r="AL15" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AM15" t="n">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="AN15" t="n">
-        <v>8.199999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AO15" t="n">
-        <v>85</v>
+        <v>75</v>
       </c>
     </row>
     <row r="16">
@@ -2557,16 +2557,16 @@
         </is>
       </c>
       <c r="F16" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="G16" t="n">
         <v>2.7</v>
       </c>
-      <c r="G16" t="n">
-        <v>2.72</v>
-      </c>
       <c r="H16" t="n">
-        <v>2.76</v>
+        <v>2.78</v>
       </c>
       <c r="I16" t="n">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="J16" t="n">
         <v>3.65</v>
@@ -2602,13 +2602,13 @@
         <v>1.65</v>
       </c>
       <c r="U16" t="n">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="V16" t="n">
-        <v>1.55</v>
+        <v>1.54</v>
       </c>
       <c r="W16" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="X16" t="n">
         <v>17.5</v>
@@ -2617,7 +2617,7 @@
         <v>14</v>
       </c>
       <c r="Z16" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AA16" t="n">
         <v>42</v>
@@ -2662,7 +2662,7 @@
         <v>19.5</v>
       </c>
       <c r="AO16" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17">
@@ -2698,16 +2698,16 @@
         <v>4.9</v>
       </c>
       <c r="H17" t="n">
-        <v>1.78</v>
+        <v>1.77</v>
       </c>
       <c r="I17" t="n">
-        <v>1.82</v>
+        <v>1.8</v>
       </c>
       <c r="J17" t="n">
         <v>4.2</v>
       </c>
       <c r="K17" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="L17" t="n">
         <v>1.32</v>
@@ -2737,10 +2737,10 @@
         <v>1.69</v>
       </c>
       <c r="U17" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="V17" t="n">
-        <v>2.2</v>
+        <v>2.24</v>
       </c>
       <c r="W17" t="n">
         <v>1.26</v>
@@ -2749,34 +2749,34 @@
         <v>23</v>
       </c>
       <c r="Y17" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="Z17" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AA17" t="n">
+        <v>20</v>
+      </c>
+      <c r="AB17" t="n">
         <v>21</v>
       </c>
-      <c r="AB17" t="n">
-        <v>22</v>
-      </c>
       <c r="AC17" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD17" t="n">
         <v>10.5</v>
       </c>
       <c r="AE17" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AF17" t="n">
         <v>40</v>
       </c>
       <c r="AG17" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AH17" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AI17" t="n">
         <v>30</v>
@@ -2797,7 +2797,7 @@
         <v>48</v>
       </c>
       <c r="AO17" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
     </row>
     <row r="18">
@@ -2863,10 +2863,10 @@
         <v>1.5</v>
       </c>
       <c r="R18" t="n">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="S18" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="T18" t="n">
         <v>1.72</v>
@@ -2890,13 +2890,13 @@
         <v>75</v>
       </c>
       <c r="AA18" t="n">
-        <v>1000</v>
+        <v>210</v>
       </c>
       <c r="AB18" t="n">
         <v>12.5</v>
       </c>
       <c r="AC18" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AD18" t="n">
         <v>30</v>
@@ -2905,7 +2905,7 @@
         <v>95</v>
       </c>
       <c r="AF18" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AG18" t="n">
         <v>11</v>
@@ -2968,7 +2968,7 @@
         <v>4.4</v>
       </c>
       <c r="H19" t="n">
-        <v>2.32</v>
+        <v>2.36</v>
       </c>
       <c r="I19" t="n">
         <v>2.52</v>
@@ -2980,7 +2980,7 @@
         <v>3.05</v>
       </c>
       <c r="L19" t="n">
-        <v>1.7</v>
+        <v>1.58</v>
       </c>
       <c r="M19" t="n">
         <v>1.17</v>
@@ -3052,7 +3052,7 @@
         <v>110</v>
       </c>
       <c r="AJ19" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="AK19" t="n">
         <v>110</v>
@@ -3064,7 +3064,7 @@
         <v>370</v>
       </c>
       <c r="AN19" t="n">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="AO19" t="n">
         <v>980</v>
@@ -3097,16 +3097,16 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>2.48</v>
+        <v>2.46</v>
       </c>
       <c r="G20" t="n">
-        <v>2.56</v>
+        <v>2.52</v>
       </c>
       <c r="H20" t="n">
-        <v>2.82</v>
+        <v>2.88</v>
       </c>
       <c r="I20" t="n">
-        <v>2.92</v>
+        <v>2.94</v>
       </c>
       <c r="J20" t="n">
         <v>3.9</v>
@@ -3121,7 +3121,7 @@
         <v>1.04</v>
       </c>
       <c r="N20" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="O20" t="n">
         <v>1.2</v>
@@ -3133,40 +3133,40 @@
         <v>1.62</v>
       </c>
       <c r="R20" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="S20" t="n">
-        <v>2.56</v>
+        <v>2.54</v>
       </c>
       <c r="T20" t="n">
-        <v>1.58</v>
+        <v>1.56</v>
       </c>
       <c r="U20" t="n">
-        <v>2.64</v>
+        <v>2.7</v>
       </c>
       <c r="V20" t="n">
-        <v>1.52</v>
+        <v>1.51</v>
       </c>
       <c r="W20" t="n">
-        <v>1.64</v>
+        <v>1.66</v>
       </c>
       <c r="X20" t="n">
         <v>22</v>
       </c>
       <c r="Y20" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="Z20" t="n">
         <v>23</v>
       </c>
       <c r="AA20" t="n">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="AB20" t="n">
         <v>15.5</v>
       </c>
       <c r="AC20" t="n">
-        <v>9.4</v>
+        <v>9</v>
       </c>
       <c r="AD20" t="n">
         <v>13</v>
@@ -3175,7 +3175,7 @@
         <v>27</v>
       </c>
       <c r="AF20" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AG20" t="n">
         <v>12</v>
@@ -3202,7 +3202,7 @@
         <v>14</v>
       </c>
       <c r="AO20" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
     </row>
     <row r="21">
@@ -3256,28 +3256,28 @@
         <v>1.06</v>
       </c>
       <c r="N21" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="O21" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="P21" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.97</v>
+        <v>1.96</v>
       </c>
       <c r="R21" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="S21" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="T21" t="n">
         <v>1.97</v>
       </c>
       <c r="U21" t="n">
-        <v>1.96</v>
+        <v>1.97</v>
       </c>
       <c r="V21" t="n">
         <v>1.19</v>
@@ -3334,7 +3334,7 @@
         <v>130</v>
       </c>
       <c r="AN21" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AO21" t="n">
         <v>110</v>
@@ -3367,7 +3367,7 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>2.84</v>
+        <v>2.86</v>
       </c>
       <c r="G22" t="n">
         <v>2.88</v>
@@ -3394,7 +3394,7 @@
         <v>3.8</v>
       </c>
       <c r="O22" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="P22" t="n">
         <v>1.92</v>
@@ -3406,10 +3406,10 @@
         <v>1.35</v>
       </c>
       <c r="S22" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="T22" t="n">
-        <v>1.76</v>
+        <v>1.77</v>
       </c>
       <c r="U22" t="n">
         <v>2.18</v>
@@ -3502,19 +3502,19 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>2.08</v>
+        <v>2.16</v>
       </c>
       <c r="G23" t="n">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="H23" t="n">
-        <v>3.8</v>
+        <v>3.65</v>
       </c>
       <c r="I23" t="n">
-        <v>3.9</v>
+        <v>3.7</v>
       </c>
       <c r="J23" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="K23" t="n">
         <v>3.85</v>
@@ -3535,13 +3535,13 @@
         <v>2.16</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="R23" t="n">
         <v>1.46</v>
       </c>
       <c r="S23" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="T23" t="n">
         <v>1.72</v>
@@ -3550,22 +3550,22 @@
         <v>2.3</v>
       </c>
       <c r="V23" t="n">
-        <v>1.34</v>
+        <v>1.37</v>
       </c>
       <c r="W23" t="n">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="X23" t="n">
         <v>17.5</v>
       </c>
       <c r="Y23" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="Z23" t="n">
         <v>28</v>
       </c>
       <c r="AA23" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AB23" t="n">
         <v>11</v>
@@ -3574,13 +3574,13 @@
         <v>8.4</v>
       </c>
       <c r="AD23" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="AE23" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AF23" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AG23" t="n">
         <v>10.5</v>
@@ -3589,13 +3589,13 @@
         <v>16.5</v>
       </c>
       <c r="AI23" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AJ23" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AK23" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AL23" t="n">
         <v>32</v>
@@ -3604,10 +3604,10 @@
         <v>80</v>
       </c>
       <c r="AN23" t="n">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="AO23" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="24">
@@ -3637,16 +3637,16 @@
         </is>
       </c>
       <c r="F24" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="G24" t="n">
         <v>1.93</v>
-      </c>
-      <c r="G24" t="n">
-        <v>1.95</v>
       </c>
       <c r="H24" t="n">
         <v>4.1</v>
       </c>
       <c r="I24" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="J24" t="n">
         <v>4.1</v>
@@ -3676,25 +3676,25 @@
         <v>1.54</v>
       </c>
       <c r="S24" t="n">
-        <v>2.74</v>
+        <v>2.72</v>
       </c>
       <c r="T24" t="n">
         <v>1.65</v>
       </c>
       <c r="U24" t="n">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
       <c r="V24" t="n">
         <v>1.31</v>
       </c>
       <c r="W24" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="X24" t="n">
         <v>21</v>
       </c>
       <c r="Y24" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="Z24" t="n">
         <v>34</v>
@@ -3739,7 +3739,7 @@
         <v>70</v>
       </c>
       <c r="AN24" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="AO24" t="n">
         <v>34</v>
@@ -3775,7 +3775,7 @@
         <v>2.4</v>
       </c>
       <c r="G25" t="n">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="H25" t="n">
         <v>3.15</v>
@@ -3808,7 +3808,7 @@
         <v>1.94</v>
       </c>
       <c r="R25" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="S25" t="n">
         <v>3.4</v>
@@ -3820,16 +3820,16 @@
         <v>2.22</v>
       </c>
       <c r="V25" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="W25" t="n">
-        <v>1.67</v>
+        <v>1.66</v>
       </c>
       <c r="X25" t="n">
         <v>15.5</v>
       </c>
       <c r="Y25" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="Z25" t="n">
         <v>23</v>
@@ -4042,16 +4042,16 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="G27" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="H27" t="n">
         <v>3.9</v>
       </c>
       <c r="I27" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="J27" t="n">
         <v>3.9</v>
@@ -4060,7 +4060,7 @@
         <v>4.1</v>
       </c>
       <c r="L27" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="M27" t="n">
         <v>1.06</v>
@@ -4078,7 +4078,7 @@
         <v>1.83</v>
       </c>
       <c r="R27" t="n">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="S27" t="n">
         <v>3.15</v>
@@ -4093,13 +4093,13 @@
         <v>1.33</v>
       </c>
       <c r="W27" t="n">
-        <v>1.96</v>
+        <v>1.95</v>
       </c>
       <c r="X27" t="n">
         <v>17</v>
       </c>
       <c r="Y27" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="Z27" t="n">
         <v>30</v>
@@ -4186,7 +4186,7 @@
         <v>3.1</v>
       </c>
       <c r="I28" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="J28" t="n">
         <v>2.94</v>
@@ -4315,13 +4315,13 @@
         <v>2.82</v>
       </c>
       <c r="G29" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="H29" t="n">
         <v>2.64</v>
       </c>
       <c r="I29" t="n">
-        <v>2.7</v>
+        <v>2.72</v>
       </c>
       <c r="J29" t="n">
         <v>3.6</v>
@@ -4336,7 +4336,7 @@
         <v>1.06</v>
       </c>
       <c r="N29" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="O29" t="n">
         <v>1.29</v>
@@ -4363,7 +4363,7 @@
         <v>1.58</v>
       </c>
       <c r="W29" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="X29" t="n">
         <v>16</v>
@@ -4456,16 +4456,16 @@
         <v>3.2</v>
       </c>
       <c r="I30" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="J30" t="n">
-        <v>2.72</v>
+        <v>2.7</v>
       </c>
       <c r="K30" t="n">
-        <v>2.98</v>
+        <v>2.94</v>
       </c>
       <c r="L30" t="n">
-        <v>1.01</v>
+        <v>1.71</v>
       </c>
       <c r="M30" t="n">
         <v>1.17</v>
@@ -4486,7 +4486,7 @@
         <v>1.13</v>
       </c>
       <c r="S30" t="n">
-        <v>6.8</v>
+        <v>7.2</v>
       </c>
       <c r="T30" t="n">
         <v>2.38</v>
@@ -4582,22 +4582,22 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="G31" t="n">
-        <v>2.34</v>
+        <v>2.28</v>
       </c>
       <c r="H31" t="n">
-        <v>4.3</v>
+        <v>4.6</v>
       </c>
       <c r="I31" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="J31" t="n">
-        <v>2.86</v>
+        <v>2.84</v>
       </c>
       <c r="K31" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="L31" t="n">
         <v>0</v>
@@ -4855,19 +4855,19 @@
         <v>2.1</v>
       </c>
       <c r="G33" t="n">
-        <v>2.32</v>
+        <v>2.26</v>
       </c>
       <c r="H33" t="n">
         <v>4.2</v>
       </c>
       <c r="I33" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="J33" t="n">
         <v>2.96</v>
       </c>
       <c r="K33" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="L33" t="n">
         <v>1.61</v>
@@ -4882,7 +4882,7 @@
         <v>1.59</v>
       </c>
       <c r="P33" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="Q33" t="n">
         <v>2.62</v>
@@ -4903,7 +4903,7 @@
         <v>1.25</v>
       </c>
       <c r="W33" t="n">
-        <v>1.76</v>
+        <v>1.79</v>
       </c>
       <c r="X33" t="n">
         <v>8.199999999999999</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-22.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-22.xlsx
@@ -667,73 +667,73 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.81</v>
+        <v>1.59</v>
       </c>
       <c r="G2" t="n">
-        <v>1.92</v>
+        <v>1.68</v>
       </c>
       <c r="H2" t="n">
-        <v>4.6</v>
+        <v>5.7</v>
       </c>
       <c r="I2" t="n">
-        <v>5.5</v>
+        <v>6.8</v>
       </c>
       <c r="J2" t="n">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="K2" t="n">
-        <v>4.4</v>
+        <v>4.8</v>
       </c>
       <c r="L2" t="n">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="M2" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="N2" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="O2" t="n">
         <v>1.28</v>
       </c>
       <c r="P2" t="n">
-        <v>1.89</v>
+        <v>2.06</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.98</v>
+        <v>1.8</v>
       </c>
       <c r="R2" t="n">
-        <v>1.32</v>
+        <v>1.41</v>
       </c>
       <c r="S2" t="n">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="T2" t="n">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="U2" t="n">
-        <v>1.94</v>
+        <v>1.99</v>
       </c>
       <c r="V2" t="n">
-        <v>1.22</v>
+        <v>1.17</v>
       </c>
       <c r="W2" t="n">
-        <v>2.08</v>
+        <v>2.46</v>
       </c>
       <c r="X2" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="Y2" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="Z2" t="n">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="AA2" t="n">
-        <v>140</v>
+        <v>180</v>
       </c>
       <c r="AB2" t="n">
-        <v>9.6</v>
+        <v>10.5</v>
       </c>
       <c r="AC2" t="n">
         <v>11</v>
@@ -745,34 +745,34 @@
         <v>85</v>
       </c>
       <c r="AF2" t="n">
-        <v>13.5</v>
+        <v>12</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AH2" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AI2" t="n">
         <v>90</v>
       </c>
       <c r="AJ2" t="n">
-        <v>25</v>
+        <v>19.5</v>
       </c>
       <c r="AK2" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AL2" t="n">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="AM2" t="n">
         <v>150</v>
       </c>
       <c r="AN2" t="n">
-        <v>16.5</v>
+        <v>11.5</v>
       </c>
       <c r="AO2" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
     </row>
     <row r="3">
@@ -802,40 +802,40 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.86</v>
+        <v>2.34</v>
       </c>
       <c r="G3" t="n">
-        <v>2.06</v>
+        <v>2.7</v>
       </c>
       <c r="H3" t="n">
-        <v>5.1</v>
+        <v>3.95</v>
       </c>
       <c r="I3" t="n">
-        <v>7</v>
+        <v>4.8</v>
       </c>
       <c r="J3" t="n">
-        <v>2.8</v>
+        <v>2.42</v>
       </c>
       <c r="K3" t="n">
-        <v>3.35</v>
+        <v>2.84</v>
       </c>
       <c r="L3" t="n">
-        <v>1.63</v>
+        <v>1.72</v>
       </c>
       <c r="M3" t="n">
-        <v>1.17</v>
+        <v>1.21</v>
       </c>
       <c r="N3" t="n">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="O3" t="n">
-        <v>1.74</v>
+        <v>1.79</v>
       </c>
       <c r="P3" t="n">
-        <v>1.34</v>
+        <v>1.31</v>
       </c>
       <c r="Q3" t="n">
-        <v>3.25</v>
+        <v>3.55</v>
       </c>
       <c r="R3" t="n">
         <v>1.12</v>
@@ -844,70 +844,70 @@
         <v>7.6</v>
       </c>
       <c r="T3" t="n">
-        <v>2.62</v>
+        <v>2.48</v>
       </c>
       <c r="U3" t="n">
-        <v>1.48</v>
+        <v>1.53</v>
       </c>
       <c r="V3" t="n">
-        <v>1.17</v>
+        <v>1.26</v>
       </c>
       <c r="W3" t="n">
-        <v>1.94</v>
+        <v>1.58</v>
       </c>
       <c r="X3" t="n">
-        <v>6.8</v>
+        <v>6.2</v>
       </c>
       <c r="Y3" t="n">
-        <v>13</v>
+        <v>9.4</v>
       </c>
       <c r="Z3" t="n">
+        <v>34</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>150</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>7</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>22</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>120</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>34</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>180</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>46</v>
+      </c>
+      <c r="AK3" t="n">
         <v>55</v>
       </c>
-      <c r="AA3" t="n">
-        <v>290</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>34</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>200</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>11</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>15</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>42</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>260</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>29</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>42</v>
-      </c>
       <c r="AL3" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="AM3" t="n">
-        <v>530</v>
+        <v>420</v>
       </c>
       <c r="AN3" t="n">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="AO3" t="n">
-        <v>470</v>
+        <v>240</v>
       </c>
     </row>
     <row r="4">
@@ -937,19 +937,19 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="G4" t="n">
-        <v>1.52</v>
+        <v>1.54</v>
       </c>
       <c r="H4" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I4" t="n">
         <v>9.800000000000001</v>
       </c>
       <c r="J4" t="n">
-        <v>4.8</v>
+        <v>4.3</v>
       </c>
       <c r="K4" t="n">
         <v>5.7</v>
@@ -967,10 +967,10 @@
         <v>1.19</v>
       </c>
       <c r="P4" t="n">
-        <v>2.46</v>
+        <v>2.44</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.55</v>
+        <v>1.49</v>
       </c>
       <c r="R4" t="n">
         <v>1.58</v>
@@ -988,7 +988,7 @@
         <v>1.11</v>
       </c>
       <c r="W4" t="n">
-        <v>2.92</v>
+        <v>2.76</v>
       </c>
       <c r="X4" t="n">
         <v>32</v>
@@ -1033,13 +1033,13 @@
         <v>17.5</v>
       </c>
       <c r="AL4" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AM4" t="n">
         <v>120</v>
       </c>
       <c r="AN4" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="AO4" t="n">
         <v>120</v>
@@ -1072,7 +1072,7 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.95</v>
+        <v>1.97</v>
       </c>
       <c r="G5" t="n">
         <v>2.08</v>
@@ -1081,16 +1081,16 @@
         <v>5.1</v>
       </c>
       <c r="I5" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="J5" t="n">
         <v>3</v>
       </c>
       <c r="K5" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="L5" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="M5" t="n">
         <v>1.13</v>
@@ -1105,7 +1105,7 @@
         <v>1.45</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.88</v>
+        <v>2.92</v>
       </c>
       <c r="R5" t="n">
         <v>1.15</v>
@@ -1117,7 +1117,7 @@
         <v>2.4</v>
       </c>
       <c r="U5" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="V5" t="n">
         <v>1.21</v>
@@ -1126,7 +1126,7 @@
         <v>1.92</v>
       </c>
       <c r="X5" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="Y5" t="n">
         <v>14</v>
@@ -1168,16 +1168,16 @@
         <v>980</v>
       </c>
       <c r="AL5" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="AM5" t="n">
-        <v>340</v>
+        <v>330</v>
       </c>
       <c r="AN5" t="n">
-        <v>36</v>
+        <v>980</v>
       </c>
       <c r="AO5" t="n">
-        <v>270</v>
+        <v>260</v>
       </c>
     </row>
     <row r="6">
@@ -1216,7 +1216,7 @@
         <v>2.96</v>
       </c>
       <c r="I6" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="J6" t="n">
         <v>2.92</v>
@@ -1225,13 +1225,13 @@
         <v>3</v>
       </c>
       <c r="L6" t="n">
-        <v>1.52</v>
+        <v>1.51</v>
       </c>
       <c r="M6" t="n">
-        <v>1.14</v>
+        <v>1.12</v>
       </c>
       <c r="N6" t="n">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="O6" t="n">
         <v>1.6</v>
@@ -1252,7 +1252,7 @@
         <v>2.16</v>
       </c>
       <c r="U6" t="n">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="V6" t="n">
         <v>1.47</v>
@@ -1264,34 +1264,34 @@
         <v>9.4</v>
       </c>
       <c r="Y6" t="n">
-        <v>10</v>
+        <v>9.6</v>
       </c>
       <c r="Z6" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AA6" t="n">
         <v>70</v>
       </c>
       <c r="AB6" t="n">
-        <v>9.800000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="AC6" t="n">
         <v>8.199999999999999</v>
       </c>
       <c r="AD6" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AE6" t="n">
         <v>60</v>
       </c>
       <c r="AF6" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AG6" t="n">
         <v>17</v>
       </c>
       <c r="AH6" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AI6" t="n">
         <v>95</v>
@@ -1351,7 +1351,7 @@
         <v>5.7</v>
       </c>
       <c r="I7" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="J7" t="n">
         <v>3.8</v>
@@ -1360,22 +1360,22 @@
         <v>4.2</v>
       </c>
       <c r="L7" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="M7" t="n">
         <v>1.07</v>
       </c>
       <c r="N7" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="O7" t="n">
         <v>1.32</v>
       </c>
       <c r="P7" t="n">
-        <v>1.91</v>
+        <v>1.93</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="R7" t="n">
         <v>1.35</v>
@@ -1384,67 +1384,67 @@
         <v>3.4</v>
       </c>
       <c r="T7" t="n">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="U7" t="n">
-        <v>1.96</v>
+        <v>2</v>
       </c>
       <c r="V7" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="W7" t="n">
         <v>2.3</v>
       </c>
       <c r="X7" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="Y7" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="Z7" t="n">
-        <v>970</v>
+        <v>55</v>
       </c>
       <c r="AA7" t="n">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="AB7" t="n">
-        <v>8.4</v>
+        <v>9.6</v>
       </c>
       <c r="AC7" t="n">
-        <v>9</v>
+        <v>10.5</v>
       </c>
       <c r="AD7" t="n">
-        <v>980</v>
+        <v>25</v>
       </c>
       <c r="AE7" t="n">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="AF7" t="n">
-        <v>10.5</v>
+        <v>12</v>
       </c>
       <c r="AG7" t="n">
-        <v>10.5</v>
+        <v>11.5</v>
       </c>
       <c r="AH7" t="n">
+        <v>24</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>95</v>
+      </c>
+      <c r="AJ7" t="n">
         <v>22</v>
       </c>
-      <c r="AI7" t="n">
-        <v>85</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>1000</v>
-      </c>
       <c r="AK7" t="n">
-        <v>980</v>
+        <v>22</v>
       </c>
       <c r="AL7" t="n">
-        <v>980</v>
+        <v>44</v>
       </c>
       <c r="AM7" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="AN7" t="n">
-        <v>12</v>
+        <v>13.5</v>
       </c>
       <c r="AO7" t="n">
         <v>120</v>
@@ -1477,22 +1477,22 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="G8" t="n">
         <v>1.24</v>
       </c>
       <c r="H8" t="n">
-        <v>12.5</v>
+        <v>15.5</v>
       </c>
       <c r="I8" t="n">
         <v>19</v>
       </c>
       <c r="J8" t="n">
-        <v>7.8</v>
+        <v>7.4</v>
       </c>
       <c r="K8" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="L8" t="n">
         <v>1.01</v>
@@ -1507,13 +1507,13 @@
         <v>1.13</v>
       </c>
       <c r="P8" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.41</v>
+        <v>1.36</v>
       </c>
       <c r="R8" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="S8" t="n">
         <v>2.02</v>
@@ -1549,13 +1549,13 @@
         <v>980</v>
       </c>
       <c r="AD8" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AE8" t="n">
         <v>290</v>
       </c>
       <c r="AF8" t="n">
-        <v>9.800000000000001</v>
+        <v>11.5</v>
       </c>
       <c r="AG8" t="n">
         <v>12.5</v>
@@ -1567,19 +1567,19 @@
         <v>200</v>
       </c>
       <c r="AJ8" t="n">
-        <v>10.5</v>
+        <v>12</v>
       </c>
       <c r="AK8" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AL8" t="n">
-        <v>980</v>
+        <v>42</v>
       </c>
       <c r="AM8" t="n">
         <v>200</v>
       </c>
       <c r="AN8" t="n">
-        <v>3.5</v>
+        <v>3.85</v>
       </c>
       <c r="AO8" t="n">
         <v>320</v>
@@ -1615,13 +1615,13 @@
         <v>2.28</v>
       </c>
       <c r="G9" t="n">
-        <v>2.58</v>
+        <v>2.54</v>
       </c>
       <c r="H9" t="n">
-        <v>2.66</v>
+        <v>2.68</v>
       </c>
       <c r="I9" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="J9" t="n">
         <v>4</v>
@@ -1630,10 +1630,10 @@
         <v>4.7</v>
       </c>
       <c r="L9" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="M9" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N9" t="n">
         <v>6.2</v>
@@ -1651,7 +1651,7 @@
         <v>1.73</v>
       </c>
       <c r="S9" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="T9" t="n">
         <v>1.46</v>
@@ -1663,61 +1663,61 @@
         <v>1.5</v>
       </c>
       <c r="W9" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="X9" t="n">
         <v>38</v>
       </c>
       <c r="Y9" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="Z9" t="n">
-        <v>980</v>
+        <v>32</v>
       </c>
       <c r="AA9" t="n">
-        <v>980</v>
+        <v>55</v>
       </c>
       <c r="AB9" t="n">
-        <v>18.5</v>
+        <v>22</v>
       </c>
       <c r="AC9" t="n">
-        <v>11.5</v>
+        <v>13.5</v>
       </c>
       <c r="AD9" t="n">
-        <v>14.5</v>
+        <v>17</v>
       </c>
       <c r="AE9" t="n">
-        <v>980</v>
+        <v>32</v>
       </c>
       <c r="AF9" t="n">
-        <v>980</v>
+        <v>26</v>
       </c>
       <c r="AG9" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>36</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>40</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>26</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>32</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>60</v>
+      </c>
+      <c r="AN9" t="n">
         <v>13</v>
       </c>
-      <c r="AH9" t="n">
-        <v>15</v>
-      </c>
-      <c r="AI9" t="n">
-        <v>980</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>36</v>
-      </c>
-      <c r="AK9" t="n">
-        <v>23</v>
-      </c>
-      <c r="AL9" t="n">
-        <v>980</v>
-      </c>
-      <c r="AM9" t="n">
-        <v>980</v>
-      </c>
-      <c r="AN9" t="n">
-        <v>11.5</v>
-      </c>
       <c r="AO9" t="n">
-        <v>14.5</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10">
@@ -1747,19 +1747,19 @@
         </is>
       </c>
       <c r="F10" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="G10" t="n">
         <v>4.3</v>
       </c>
-      <c r="G10" t="n">
-        <v>4.5</v>
-      </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="I10" t="n">
         <v>2.04</v>
       </c>
       <c r="J10" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="K10" t="n">
         <v>3.7</v>
@@ -1783,52 +1783,52 @@
         <v>2.24</v>
       </c>
       <c r="R10" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="S10" t="n">
         <v>4.1</v>
       </c>
       <c r="T10" t="n">
-        <v>1.97</v>
+        <v>1.96</v>
       </c>
       <c r="U10" t="n">
         <v>1.97</v>
       </c>
       <c r="V10" t="n">
-        <v>1.97</v>
+        <v>1.96</v>
       </c>
       <c r="W10" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="X10" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="Y10" t="n">
         <v>8.199999999999999</v>
       </c>
       <c r="Z10" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AA10" t="n">
         <v>24</v>
       </c>
       <c r="AB10" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AC10" t="n">
         <v>7.8</v>
       </c>
       <c r="AD10" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AE10" t="n">
         <v>23</v>
       </c>
       <c r="AF10" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AG10" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AH10" t="n">
         <v>21</v>
@@ -1837,10 +1837,10 @@
         <v>44</v>
       </c>
       <c r="AJ10" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="AK10" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AL10" t="n">
         <v>75</v>
@@ -1849,7 +1849,7 @@
         <v>130</v>
       </c>
       <c r="AN10" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AO10" t="n">
         <v>17.5</v>
@@ -1882,16 +1882,16 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="G11" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="H11" t="n">
-        <v>2.26</v>
+        <v>2.32</v>
       </c>
       <c r="I11" t="n">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="J11" t="n">
         <v>3.75</v>
@@ -1921,37 +1921,37 @@
         <v>1.51</v>
       </c>
       <c r="S11" t="n">
-        <v>2.86</v>
+        <v>2.88</v>
       </c>
       <c r="T11" t="n">
-        <v>1.64</v>
+        <v>1.63</v>
       </c>
       <c r="U11" t="n">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="V11" t="n">
-        <v>1.77</v>
+        <v>1.73</v>
       </c>
       <c r="W11" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="X11" t="n">
         <v>19.5</v>
       </c>
       <c r="Y11" t="n">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="Z11" t="n">
-        <v>15.5</v>
+        <v>16.5</v>
       </c>
       <c r="AA11" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AB11" t="n">
         <v>16</v>
       </c>
       <c r="AC11" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="AD11" t="n">
         <v>11</v>
@@ -1960,10 +1960,10 @@
         <v>22</v>
       </c>
       <c r="AF11" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AG11" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AH11" t="n">
         <v>15.5</v>
@@ -1972,22 +1972,22 @@
         <v>32</v>
       </c>
       <c r="AJ11" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AK11" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AL11" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AM11" t="n">
         <v>70</v>
       </c>
       <c r="AN11" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AO11" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
     </row>
     <row r="12">
@@ -2017,22 +2017,22 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.62</v>
+        <v>2.72</v>
       </c>
       <c r="G12" t="n">
-        <v>2.66</v>
+        <v>2.74</v>
       </c>
       <c r="H12" t="n">
-        <v>2.86</v>
+        <v>2.78</v>
       </c>
       <c r="I12" t="n">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="J12" t="n">
         <v>3.6</v>
       </c>
       <c r="K12" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="L12" t="n">
         <v>1.37</v>
@@ -2050,7 +2050,7 @@
         <v>2.14</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.82</v>
+        <v>1.84</v>
       </c>
       <c r="R12" t="n">
         <v>1.44</v>
@@ -2059,16 +2059,16 @@
         <v>3.1</v>
       </c>
       <c r="T12" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="U12" t="n">
-        <v>2.38</v>
+        <v>2.36</v>
       </c>
       <c r="V12" t="n">
-        <v>1.52</v>
+        <v>1.55</v>
       </c>
       <c r="W12" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="X12" t="n">
         <v>16.5</v>
@@ -2077,13 +2077,13 @@
         <v>13.5</v>
       </c>
       <c r="Z12" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AA12" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AB12" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AC12" t="n">
         <v>8</v>
@@ -2101,7 +2101,7 @@
         <v>12</v>
       </c>
       <c r="AH12" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AI12" t="n">
         <v>38</v>
@@ -2110,19 +2110,19 @@
         <v>40</v>
       </c>
       <c r="AK12" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AL12" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AM12" t="n">
         <v>75</v>
       </c>
       <c r="AN12" t="n">
-        <v>19.5</v>
+        <v>21</v>
       </c>
       <c r="AO12" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13">
@@ -2185,10 +2185,10 @@
         <v>2.16</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="R13" t="n">
-        <v>1.46</v>
+        <v>1.45</v>
       </c>
       <c r="S13" t="n">
         <v>3.05</v>
@@ -2287,7 +2287,7 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="G14" t="n">
         <v>1.22</v>
@@ -2296,7 +2296,7 @@
         <v>18</v>
       </c>
       <c r="I14" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J14" t="n">
         <v>8.199999999999999</v>
@@ -2317,7 +2317,7 @@
         <v>1.18</v>
       </c>
       <c r="P14" t="n">
-        <v>2.68</v>
+        <v>2.7</v>
       </c>
       <c r="Q14" t="n">
         <v>1.56</v>
@@ -2329,19 +2329,19 @@
         <v>2.42</v>
       </c>
       <c r="T14" t="n">
-        <v>2.48</v>
+        <v>2.46</v>
       </c>
       <c r="U14" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="V14" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="W14" t="n">
         <v>5.6</v>
       </c>
       <c r="X14" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="Y14" t="n">
         <v>60</v>
@@ -2356,7 +2356,7 @@
         <v>9.800000000000001</v>
       </c>
       <c r="AC14" t="n">
-        <v>24</v>
+        <v>19.5</v>
       </c>
       <c r="AD14" t="n">
         <v>1000</v>
@@ -2383,10 +2383,10 @@
         <v>15.5</v>
       </c>
       <c r="AL14" t="n">
-        <v>55</v>
+        <v>370</v>
       </c>
       <c r="AM14" t="n">
-        <v>370</v>
+        <v>360</v>
       </c>
       <c r="AN14" t="n">
         <v>3.65</v>
@@ -2422,16 +2422,16 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="G15" t="n">
         <v>1.73</v>
       </c>
       <c r="H15" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="I15" t="n">
         <v>5.5</v>
-      </c>
-      <c r="I15" t="n">
-        <v>5.7</v>
       </c>
       <c r="J15" t="n">
         <v>4.2</v>
@@ -2449,13 +2449,13 @@
         <v>4.6</v>
       </c>
       <c r="O15" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="P15" t="n">
         <v>2.22</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="R15" t="n">
         <v>1.47</v>
@@ -2467,13 +2467,13 @@
         <v>1.81</v>
       </c>
       <c r="U15" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="V15" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="W15" t="n">
-        <v>2.38</v>
+        <v>2.36</v>
       </c>
       <c r="X15" t="n">
         <v>17.5</v>
@@ -2488,13 +2488,13 @@
         <v>140</v>
       </c>
       <c r="AB15" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AC15" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD15" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AE15" t="n">
         <v>65</v>
@@ -2506,19 +2506,19 @@
         <v>9.800000000000001</v>
       </c>
       <c r="AH15" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AI15" t="n">
         <v>70</v>
       </c>
       <c r="AJ15" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AK15" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AL15" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AM15" t="n">
         <v>95</v>
@@ -2557,22 +2557,22 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2.66</v>
+        <v>2.6</v>
       </c>
       <c r="G16" t="n">
-        <v>2.7</v>
+        <v>2.64</v>
       </c>
       <c r="H16" t="n">
-        <v>2.78</v>
+        <v>2.84</v>
       </c>
       <c r="I16" t="n">
-        <v>2.82</v>
+        <v>2.88</v>
       </c>
       <c r="J16" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="K16" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="L16" t="n">
         <v>1.36</v>
@@ -2587,10 +2587,10 @@
         <v>1.26</v>
       </c>
       <c r="P16" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.79</v>
+        <v>1.78</v>
       </c>
       <c r="R16" t="n">
         <v>1.47</v>
@@ -2605,10 +2605,10 @@
         <v>2.44</v>
       </c>
       <c r="V16" t="n">
-        <v>1.54</v>
+        <v>1.53</v>
       </c>
       <c r="W16" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="X16" t="n">
         <v>17.5</v>
@@ -2617,10 +2617,10 @@
         <v>14</v>
       </c>
       <c r="Z16" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AA16" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AB16" t="n">
         <v>13.5</v>
@@ -2629,7 +2629,7 @@
         <v>8.199999999999999</v>
       </c>
       <c r="AD16" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AE16" t="n">
         <v>28</v>
@@ -2638,7 +2638,7 @@
         <v>18.5</v>
       </c>
       <c r="AG16" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AH16" t="n">
         <v>15.5</v>
@@ -2647,10 +2647,10 @@
         <v>36</v>
       </c>
       <c r="AJ16" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AK16" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AL16" t="n">
         <v>36</v>
@@ -2659,7 +2659,7 @@
         <v>70</v>
       </c>
       <c r="AN16" t="n">
-        <v>19.5</v>
+        <v>18</v>
       </c>
       <c r="AO16" t="n">
         <v>21</v>
@@ -2698,10 +2698,10 @@
         <v>4.9</v>
       </c>
       <c r="H17" t="n">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
       <c r="I17" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="J17" t="n">
         <v>4.2</v>
@@ -2716,7 +2716,7 @@
         <v>1.04</v>
       </c>
       <c r="N17" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="O17" t="n">
         <v>1.22</v>
@@ -2740,7 +2740,7 @@
         <v>2.36</v>
       </c>
       <c r="V17" t="n">
-        <v>2.24</v>
+        <v>2.22</v>
       </c>
       <c r="W17" t="n">
         <v>1.26</v>
@@ -2839,7 +2839,7 @@
         <v>8</v>
       </c>
       <c r="J18" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="K18" t="n">
         <v>5.4</v>
@@ -2863,16 +2863,16 @@
         <v>1.5</v>
       </c>
       <c r="R18" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="S18" t="n">
-        <v>2.26</v>
+        <v>2.24</v>
       </c>
       <c r="T18" t="n">
         <v>1.72</v>
       </c>
       <c r="U18" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="V18" t="n">
         <v>1.14</v>
@@ -2881,7 +2881,7 @@
         <v>3.1</v>
       </c>
       <c r="X18" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Y18" t="n">
         <v>36</v>
@@ -2899,19 +2899,19 @@
         <v>12.5</v>
       </c>
       <c r="AD18" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AE18" t="n">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="AF18" t="n">
         <v>11</v>
       </c>
       <c r="AG18" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AH18" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AI18" t="n">
         <v>75</v>
@@ -2920,10 +2920,10 @@
         <v>13.5</v>
       </c>
       <c r="AK18" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AL18" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AM18" t="n">
         <v>90</v>
@@ -2932,7 +2932,7 @@
         <v>4.9</v>
       </c>
       <c r="AO18" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="19">
@@ -2971,31 +2971,31 @@
         <v>2.36</v>
       </c>
       <c r="I19" t="n">
-        <v>2.52</v>
+        <v>2.56</v>
       </c>
       <c r="J19" t="n">
         <v>2.78</v>
       </c>
       <c r="K19" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="L19" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="M19" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="N19" t="n">
-        <v>2.2</v>
+        <v>2.16</v>
       </c>
       <c r="O19" t="n">
-        <v>1.71</v>
+        <v>1.74</v>
       </c>
       <c r="P19" t="n">
         <v>1.39</v>
       </c>
       <c r="Q19" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="R19" t="n">
         <v>1.13</v>
@@ -3004,49 +3004,49 @@
         <v>7.2</v>
       </c>
       <c r="T19" t="n">
-        <v>2.4</v>
+        <v>2.44</v>
       </c>
       <c r="U19" t="n">
-        <v>1.61</v>
+        <v>1.6</v>
       </c>
       <c r="V19" t="n">
-        <v>1.66</v>
+        <v>1.64</v>
       </c>
       <c r="W19" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="X19" t="n">
-        <v>6.8</v>
+        <v>7.8</v>
       </c>
       <c r="Y19" t="n">
-        <v>6.4</v>
+        <v>7.6</v>
       </c>
       <c r="Z19" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="AA19" t="n">
         <v>980</v>
       </c>
       <c r="AB19" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AC19" t="n">
-        <v>7.2</v>
+        <v>8.6</v>
       </c>
       <c r="AD19" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="AE19" t="n">
         <v>980</v>
       </c>
       <c r="AF19" t="n">
-        <v>980</v>
+        <v>34</v>
       </c>
       <c r="AG19" t="n">
-        <v>980</v>
+        <v>24</v>
       </c>
       <c r="AH19" t="n">
-        <v>980</v>
+        <v>36</v>
       </c>
       <c r="AI19" t="n">
         <v>110</v>
@@ -3061,7 +3061,7 @@
         <v>160</v>
       </c>
       <c r="AM19" t="n">
-        <v>370</v>
+        <v>360</v>
       </c>
       <c r="AN19" t="n">
         <v>180</v>
@@ -3097,22 +3097,22 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>2.46</v>
+        <v>2.5</v>
       </c>
       <c r="G20" t="n">
         <v>2.52</v>
       </c>
       <c r="H20" t="n">
-        <v>2.88</v>
+        <v>2.78</v>
       </c>
       <c r="I20" t="n">
-        <v>2.94</v>
+        <v>2.8</v>
       </c>
       <c r="J20" t="n">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="K20" t="n">
-        <v>3.95</v>
+        <v>4.2</v>
       </c>
       <c r="L20" t="n">
         <v>1.31</v>
@@ -3121,43 +3121,43 @@
         <v>1.04</v>
       </c>
       <c r="N20" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="O20" t="n">
         <v>1.2</v>
       </c>
       <c r="P20" t="n">
-        <v>2.52</v>
+        <v>2.54</v>
       </c>
       <c r="Q20" t="n">
         <v>1.62</v>
       </c>
       <c r="R20" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="S20" t="n">
         <v>2.54</v>
       </c>
       <c r="T20" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="U20" t="n">
-        <v>2.7</v>
+        <v>2.66</v>
       </c>
       <c r="V20" t="n">
-        <v>1.51</v>
+        <v>1.55</v>
       </c>
       <c r="W20" t="n">
-        <v>1.66</v>
+        <v>1.65</v>
       </c>
       <c r="X20" t="n">
         <v>22</v>
       </c>
       <c r="Y20" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="Z20" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AA20" t="n">
         <v>44</v>
@@ -3166,34 +3166,34 @@
         <v>15.5</v>
       </c>
       <c r="AC20" t="n">
-        <v>9</v>
+        <v>9.4</v>
       </c>
       <c r="AD20" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AE20" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AF20" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AG20" t="n">
         <v>12</v>
       </c>
       <c r="AH20" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AI20" t="n">
         <v>32</v>
       </c>
       <c r="AJ20" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AK20" t="n">
         <v>23</v>
       </c>
       <c r="AL20" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AM20" t="n">
         <v>60</v>
@@ -3202,7 +3202,7 @@
         <v>14</v>
       </c>
       <c r="AO20" t="n">
-        <v>17.5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21">
@@ -3259,19 +3259,19 @@
         <v>3.95</v>
       </c>
       <c r="O21" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="P21" t="n">
         <v>2</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.96</v>
+        <v>1.97</v>
       </c>
       <c r="R21" t="n">
         <v>1.38</v>
       </c>
       <c r="S21" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="T21" t="n">
         <v>1.97</v>
@@ -3313,7 +3313,7 @@
         <v>9.4</v>
       </c>
       <c r="AG21" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="AH21" t="n">
         <v>22</v>
@@ -3367,16 +3367,16 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>2.86</v>
+        <v>2.9</v>
       </c>
       <c r="G22" t="n">
-        <v>2.88</v>
+        <v>2.92</v>
       </c>
       <c r="H22" t="n">
-        <v>2.76</v>
+        <v>2.7</v>
       </c>
       <c r="I22" t="n">
-        <v>2.8</v>
+        <v>2.74</v>
       </c>
       <c r="J22" t="n">
         <v>3.4</v>
@@ -3394,7 +3394,7 @@
         <v>3.8</v>
       </c>
       <c r="O22" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="P22" t="n">
         <v>1.92</v>
@@ -3406,7 +3406,7 @@
         <v>1.35</v>
       </c>
       <c r="S22" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="T22" t="n">
         <v>1.77</v>
@@ -3415,10 +3415,10 @@
         <v>2.18</v>
       </c>
       <c r="V22" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="W22" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="X22" t="n">
         <v>14</v>
@@ -3454,7 +3454,7 @@
         <v>17.5</v>
       </c>
       <c r="AI22" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AJ22" t="n">
         <v>44</v>
@@ -3508,7 +3508,7 @@
         <v>2.18</v>
       </c>
       <c r="H23" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="I23" t="n">
         <v>3.7</v>
@@ -3535,7 +3535,7 @@
         <v>2.16</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="R23" t="n">
         <v>1.46</v>
@@ -3562,7 +3562,7 @@
         <v>15.5</v>
       </c>
       <c r="Z23" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AA23" t="n">
         <v>70</v>
@@ -3574,7 +3574,7 @@
         <v>8.4</v>
       </c>
       <c r="AD23" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AE23" t="n">
         <v>40</v>
@@ -3637,10 +3637,10 @@
         </is>
       </c>
       <c r="F24" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="G24" t="n">
         <v>1.92</v>
-      </c>
-      <c r="G24" t="n">
-        <v>1.93</v>
       </c>
       <c r="H24" t="n">
         <v>4.1</v>
@@ -3664,7 +3664,7 @@
         <v>5.1</v>
       </c>
       <c r="O24" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="P24" t="n">
         <v>2.42</v>
@@ -3673,22 +3673,22 @@
         <v>1.68</v>
       </c>
       <c r="R24" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="S24" t="n">
-        <v>2.72</v>
+        <v>2.74</v>
       </c>
       <c r="T24" t="n">
         <v>1.65</v>
       </c>
       <c r="U24" t="n">
-        <v>2.46</v>
+        <v>2.44</v>
       </c>
       <c r="V24" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="W24" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="X24" t="n">
         <v>21</v>
@@ -3706,7 +3706,7 @@
         <v>12</v>
       </c>
       <c r="AC24" t="n">
-        <v>9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD24" t="n">
         <v>16.5</v>
@@ -3814,7 +3814,7 @@
         <v>3.4</v>
       </c>
       <c r="T25" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="U25" t="n">
         <v>2.22</v>
@@ -3847,7 +3847,7 @@
         <v>14</v>
       </c>
       <c r="AE25" t="n">
-        <v>980</v>
+        <v>40</v>
       </c>
       <c r="AF25" t="n">
         <v>16.5</v>
@@ -3862,22 +3862,22 @@
         <v>46</v>
       </c>
       <c r="AJ25" t="n">
-        <v>980</v>
+        <v>38</v>
       </c>
       <c r="AK25" t="n">
-        <v>980</v>
+        <v>29</v>
       </c>
       <c r="AL25" t="n">
-        <v>980</v>
+        <v>42</v>
       </c>
       <c r="AM25" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AN25" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AO25" t="n">
-        <v>980</v>
+        <v>36</v>
       </c>
     </row>
     <row r="26">
@@ -3907,13 +3907,13 @@
         </is>
       </c>
       <c r="F26" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="G26" t="n">
         <v>2.48</v>
       </c>
-      <c r="G26" t="n">
-        <v>2.5</v>
-      </c>
       <c r="H26" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="I26" t="n">
         <v>3.25</v>
@@ -3955,10 +3955,10 @@
         <v>2.24</v>
       </c>
       <c r="V26" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="W26" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="X26" t="n">
         <v>14</v>
@@ -3979,10 +3979,10 @@
         <v>7.8</v>
       </c>
       <c r="AD26" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AE26" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AF26" t="n">
         <v>16</v>
@@ -4042,25 +4042,25 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="G27" t="n">
         <v>2.06</v>
       </c>
       <c r="H27" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="I27" t="n">
         <v>4.1</v>
       </c>
       <c r="J27" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="K27" t="n">
-        <v>4.1</v>
+        <v>3.85</v>
       </c>
       <c r="L27" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="M27" t="n">
         <v>1.06</v>
@@ -4075,10 +4075,10 @@
         <v>2.14</v>
       </c>
       <c r="Q27" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="R27" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="S27" t="n">
         <v>3.15</v>
@@ -4093,7 +4093,7 @@
         <v>1.33</v>
       </c>
       <c r="W27" t="n">
-        <v>1.95</v>
+        <v>1.94</v>
       </c>
       <c r="X27" t="n">
         <v>17</v>
@@ -4318,10 +4318,10 @@
         <v>2.88</v>
       </c>
       <c r="H29" t="n">
-        <v>2.64</v>
+        <v>2.62</v>
       </c>
       <c r="I29" t="n">
-        <v>2.72</v>
+        <v>2.68</v>
       </c>
       <c r="J29" t="n">
         <v>3.6</v>
@@ -4336,7 +4336,7 @@
         <v>1.06</v>
       </c>
       <c r="N29" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="O29" t="n">
         <v>1.29</v>
@@ -4360,7 +4360,7 @@
         <v>2.32</v>
       </c>
       <c r="V29" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="W29" t="n">
         <v>1.53</v>
@@ -4447,112 +4447,112 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>2.72</v>
+        <v>3</v>
       </c>
       <c r="G30" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="H30" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="I30" t="n">
         <v>3.2</v>
       </c>
-      <c r="I30" t="n">
-        <v>3.5</v>
-      </c>
       <c r="J30" t="n">
-        <v>2.7</v>
+        <v>2.74</v>
       </c>
       <c r="K30" t="n">
-        <v>2.94</v>
+        <v>2.9</v>
       </c>
       <c r="L30" t="n">
         <v>1.71</v>
       </c>
       <c r="M30" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="N30" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="O30" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="P30" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="Q30" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="R30" t="n">
         <v>1.13</v>
       </c>
       <c r="S30" t="n">
-        <v>7.2</v>
+        <v>7.6</v>
       </c>
       <c r="T30" t="n">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="U30" t="n">
         <v>1.62</v>
       </c>
       <c r="V30" t="n">
-        <v>1.4</v>
+        <v>1.46</v>
       </c>
       <c r="W30" t="n">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="X30" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="Y30" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="Z30" t="n">
+        <v>18</v>
+      </c>
+      <c r="AA30" t="n">
+        <v>380</v>
+      </c>
+      <c r="AB30" t="n">
+        <v>8</v>
+      </c>
+      <c r="AC30" t="n">
         <v>6.8</v>
       </c>
-      <c r="Y30" t="n">
-        <v>970</v>
-      </c>
-      <c r="Z30" t="n">
-        <v>970</v>
-      </c>
-      <c r="AA30" t="n">
-        <v>75</v>
-      </c>
-      <c r="AB30" t="n">
-        <v>970</v>
-      </c>
-      <c r="AC30" t="n">
-        <v>7.2</v>
-      </c>
       <c r="AD30" t="n">
-        <v>970</v>
+        <v>21</v>
       </c>
       <c r="AE30" t="n">
-        <v>65</v>
+        <v>410</v>
       </c>
       <c r="AF30" t="n">
-        <v>970</v>
+        <v>18.5</v>
       </c>
       <c r="AG30" t="n">
-        <v>970</v>
+        <v>17.5</v>
       </c>
       <c r="AH30" t="n">
-        <v>970</v>
+        <v>60</v>
       </c>
       <c r="AI30" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="AJ30" t="n">
-        <v>55</v>
+        <v>440</v>
       </c>
       <c r="AK30" t="n">
-        <v>55</v>
+        <v>420</v>
       </c>
       <c r="AL30" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AM30" t="n">
+        <v>330</v>
+      </c>
+      <c r="AN30" t="n">
         <v>1000</v>
       </c>
-      <c r="AN30" t="n">
-        <v>75</v>
-      </c>
       <c r="AO30" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="31">
@@ -4585,7 +4585,7 @@
         <v>2.1</v>
       </c>
       <c r="G31" t="n">
-        <v>2.28</v>
+        <v>2.26</v>
       </c>
       <c r="H31" t="n">
         <v>4.6</v>
@@ -4873,7 +4873,7 @@
         <v>1.61</v>
       </c>
       <c r="M33" t="n">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="N33" t="n">
         <v>2.42</v>
@@ -4885,19 +4885,19 @@
         <v>1.47</v>
       </c>
       <c r="Q33" t="n">
-        <v>2.62</v>
+        <v>2.66</v>
       </c>
       <c r="R33" t="n">
         <v>1.16</v>
       </c>
       <c r="S33" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="T33" t="n">
-        <v>2.22</v>
+        <v>2.26</v>
       </c>
       <c r="U33" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="V33" t="n">
         <v>1.25</v>
@@ -4906,43 +4906,43 @@
         <v>1.79</v>
       </c>
       <c r="X33" t="n">
-        <v>8.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="Y33" t="n">
         <v>12</v>
       </c>
       <c r="Z33" t="n">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="AA33" t="n">
         <v>150</v>
       </c>
       <c r="AB33" t="n">
-        <v>6.8</v>
+        <v>7.2</v>
       </c>
       <c r="AC33" t="n">
-        <v>7.8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD33" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AE33" t="n">
         <v>110</v>
       </c>
       <c r="AF33" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AG33" t="n">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="AH33" t="n">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="AI33" t="n">
         <v>140</v>
       </c>
       <c r="AJ33" t="n">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="AK33" t="n">
         <v>34</v>
@@ -4954,7 +4954,7 @@
         <v>280</v>
       </c>
       <c r="AN33" t="n">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="AO33" t="n">
         <v>180</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-22.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-22.xlsx
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.59</v>
+        <v>1.63</v>
       </c>
       <c r="G2" t="n">
         <v>1.68</v>
@@ -676,7 +676,7 @@
         <v>5.7</v>
       </c>
       <c r="I2" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="J2" t="n">
         <v>4.2</v>
@@ -700,10 +700,10 @@
         <v>2.06</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="R2" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="S2" t="n">
         <v>3.1</v>
@@ -712,7 +712,7 @@
         <v>1.85</v>
       </c>
       <c r="U2" t="n">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="V2" t="n">
         <v>1.17</v>
@@ -724,25 +724,25 @@
         <v>22</v>
       </c>
       <c r="Y2" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Z2" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AA2" t="n">
         <v>180</v>
       </c>
       <c r="AB2" t="n">
+        <v>9</v>
+      </c>
+      <c r="AC2" t="n">
         <v>10.5</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>11</v>
       </c>
       <c r="AD2" t="n">
         <v>25</v>
       </c>
       <c r="AE2" t="n">
-        <v>85</v>
+        <v>110</v>
       </c>
       <c r="AF2" t="n">
         <v>12</v>
@@ -760,7 +760,7 @@
         <v>19.5</v>
       </c>
       <c r="AK2" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AL2" t="n">
         <v>40</v>
@@ -802,40 +802,40 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>2.34</v>
+        <v>2.26</v>
       </c>
       <c r="G3" t="n">
-        <v>2.7</v>
+        <v>2.46</v>
       </c>
       <c r="H3" t="n">
-        <v>3.95</v>
+        <v>4.2</v>
       </c>
       <c r="I3" t="n">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="J3" t="n">
-        <v>2.42</v>
+        <v>2.58</v>
       </c>
       <c r="K3" t="n">
-        <v>2.84</v>
+        <v>2.88</v>
       </c>
       <c r="L3" t="n">
-        <v>1.72</v>
+        <v>1.71</v>
       </c>
       <c r="M3" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="N3" t="n">
-        <v>2</v>
+        <v>2.04</v>
       </c>
       <c r="O3" t="n">
-        <v>1.79</v>
+        <v>1.76</v>
       </c>
       <c r="P3" t="n">
-        <v>1.31</v>
+        <v>1.33</v>
       </c>
       <c r="Q3" t="n">
-        <v>3.55</v>
+        <v>3.4</v>
       </c>
       <c r="R3" t="n">
         <v>1.12</v>
@@ -850,64 +850,64 @@
         <v>1.53</v>
       </c>
       <c r="V3" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="W3" t="n">
-        <v>1.58</v>
+        <v>1.68</v>
       </c>
       <c r="X3" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="Y3" t="n">
-        <v>9.4</v>
+        <v>10.5</v>
       </c>
       <c r="Z3" t="n">
         <v>34</v>
       </c>
       <c r="AA3" t="n">
-        <v>150</v>
+        <v>170</v>
       </c>
       <c r="AB3" t="n">
-        <v>7.2</v>
+        <v>6.8</v>
       </c>
       <c r="AC3" t="n">
         <v>7</v>
       </c>
       <c r="AD3" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AE3" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="AF3" t="n">
+        <v>14</v>
+      </c>
+      <c r="AG3" t="n">
         <v>15.5</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>17.5</v>
       </c>
       <c r="AH3" t="n">
         <v>34</v>
       </c>
       <c r="AI3" t="n">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="AJ3" t="n">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="AK3" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AL3" t="n">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="AM3" t="n">
         <v>420</v>
       </c>
       <c r="AN3" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AO3" t="n">
-        <v>240</v>
+        <v>270</v>
       </c>
     </row>
     <row r="4">
@@ -937,112 +937,112 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.41</v>
+        <v>1.62</v>
       </c>
       <c r="G4" t="n">
-        <v>1.54</v>
+        <v>1.73</v>
       </c>
       <c r="H4" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I4" t="n">
-        <v>9.800000000000001</v>
+        <v>6.8</v>
       </c>
       <c r="J4" t="n">
-        <v>4.3</v>
+        <v>3.95</v>
       </c>
       <c r="K4" t="n">
-        <v>5.7</v>
+        <v>4.7</v>
       </c>
       <c r="L4" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="M4" t="n">
         <v>1.01</v>
       </c>
       <c r="N4" t="n">
-        <v>5.2</v>
+        <v>4.5</v>
       </c>
       <c r="O4" t="n">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
       <c r="P4" t="n">
-        <v>2.44</v>
+        <v>2.26</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.49</v>
+        <v>1.64</v>
       </c>
       <c r="R4" t="n">
-        <v>1.58</v>
+        <v>1.5</v>
       </c>
       <c r="S4" t="n">
-        <v>2.38</v>
+        <v>2.64</v>
       </c>
       <c r="T4" t="n">
-        <v>1.76</v>
+        <v>1.67</v>
       </c>
       <c r="U4" t="n">
-        <v>2.06</v>
+        <v>2.2</v>
       </c>
       <c r="V4" t="n">
-        <v>1.11</v>
+        <v>1.17</v>
       </c>
       <c r="W4" t="n">
-        <v>2.76</v>
+        <v>2.36</v>
       </c>
       <c r="X4" t="n">
-        <v>32</v>
+        <v>90</v>
       </c>
       <c r="Y4" t="n">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="Z4" t="n">
-        <v>85</v>
+        <v>55</v>
       </c>
       <c r="AA4" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="AB4" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AC4" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AD4" t="n">
+        <v>25</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>80</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>14</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>70</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>22</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AL4" t="n">
         <v>34</v>
       </c>
-      <c r="AE4" t="n">
-        <v>120</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>27</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>100</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>16</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>38</v>
-      </c>
       <c r="AM4" t="n">
-        <v>120</v>
+        <v>95</v>
       </c>
       <c r="AN4" t="n">
-        <v>6.8</v>
+        <v>9.6</v>
       </c>
       <c r="AO4" t="n">
-        <v>120</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5">
@@ -1090,7 +1090,7 @@
         <v>3.3</v>
       </c>
       <c r="L5" t="n">
-        <v>1.56</v>
+        <v>1.64</v>
       </c>
       <c r="M5" t="n">
         <v>1.13</v>
@@ -1099,7 +1099,7 @@
         <v>2.34</v>
       </c>
       <c r="O5" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="P5" t="n">
         <v>1.45</v>
@@ -1207,16 +1207,16 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.9</v>
+        <v>2.86</v>
       </c>
       <c r="G6" t="n">
         <v>3.05</v>
       </c>
       <c r="H6" t="n">
-        <v>2.96</v>
+        <v>2.98</v>
       </c>
       <c r="I6" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="J6" t="n">
         <v>2.92</v>
@@ -1255,7 +1255,7 @@
         <v>1.74</v>
       </c>
       <c r="V6" t="n">
-        <v>1.47</v>
+        <v>1.46</v>
       </c>
       <c r="W6" t="n">
         <v>1.48</v>
@@ -1342,16 +1342,16 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="G7" t="n">
-        <v>1.76</v>
+        <v>1.78</v>
       </c>
       <c r="H7" t="n">
         <v>5.7</v>
       </c>
       <c r="I7" t="n">
-        <v>6</v>
+        <v>5.8</v>
       </c>
       <c r="J7" t="n">
         <v>3.8</v>
@@ -1360,7 +1360,7 @@
         <v>4.2</v>
       </c>
       <c r="L7" t="n">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="M7" t="n">
         <v>1.07</v>
@@ -1387,25 +1387,25 @@
         <v>1.89</v>
       </c>
       <c r="U7" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="V7" t="n">
         <v>1.2</v>
       </c>
       <c r="W7" t="n">
-        <v>2.3</v>
+        <v>2.28</v>
       </c>
       <c r="X7" t="n">
         <v>17.5</v>
       </c>
       <c r="Y7" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Z7" t="n">
-        <v>55</v>
+        <v>970</v>
       </c>
       <c r="AA7" t="n">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="AB7" t="n">
         <v>9.6</v>
@@ -1414,10 +1414,10 @@
         <v>10.5</v>
       </c>
       <c r="AD7" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AE7" t="n">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="AF7" t="n">
         <v>12</v>
@@ -1429,7 +1429,7 @@
         <v>24</v>
       </c>
       <c r="AI7" t="n">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="AJ7" t="n">
         <v>22</v>
@@ -1501,7 +1501,7 @@
         <v>1.02</v>
       </c>
       <c r="N8" t="n">
-        <v>6.8</v>
+        <v>6</v>
       </c>
       <c r="O8" t="n">
         <v>1.13</v>
@@ -1519,10 +1519,10 @@
         <v>2.02</v>
       </c>
       <c r="T8" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="U8" t="n">
-        <v>1.84</v>
+        <v>1.81</v>
       </c>
       <c r="V8" t="n">
         <v>1.05</v>
@@ -1543,7 +1543,7 @@
         <v>1000</v>
       </c>
       <c r="AB8" t="n">
-        <v>14.5</v>
+        <v>13</v>
       </c>
       <c r="AC8" t="n">
         <v>980</v>
@@ -1555,7 +1555,7 @@
         <v>290</v>
       </c>
       <c r="AF8" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AG8" t="n">
         <v>12.5</v>
@@ -1567,7 +1567,7 @@
         <v>200</v>
       </c>
       <c r="AJ8" t="n">
-        <v>12</v>
+        <v>10.5</v>
       </c>
       <c r="AK8" t="n">
         <v>16</v>
@@ -1612,22 +1612,22 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.28</v>
+        <v>2.38</v>
       </c>
       <c r="G9" t="n">
-        <v>2.54</v>
+        <v>2.64</v>
       </c>
       <c r="H9" t="n">
-        <v>2.68</v>
+        <v>2.62</v>
       </c>
       <c r="I9" t="n">
-        <v>3.05</v>
+        <v>2.9</v>
       </c>
       <c r="J9" t="n">
         <v>4</v>
       </c>
       <c r="K9" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="L9" t="n">
         <v>1.22</v>
@@ -1642,13 +1642,13 @@
         <v>1.15</v>
       </c>
       <c r="P9" t="n">
-        <v>2.8</v>
+        <v>2.86</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="R9" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="S9" t="n">
         <v>2.12</v>
@@ -1660,22 +1660,22 @@
         <v>2.78</v>
       </c>
       <c r="V9" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="W9" t="n">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="X9" t="n">
         <v>38</v>
       </c>
       <c r="Y9" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Z9" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AA9" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AB9" t="n">
         <v>22</v>
@@ -1684,10 +1684,10 @@
         <v>13.5</v>
       </c>
       <c r="AD9" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AE9" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AF9" t="n">
         <v>26</v>
@@ -1696,10 +1696,10 @@
         <v>15</v>
       </c>
       <c r="AH9" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AI9" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AJ9" t="n">
         <v>40</v>
@@ -1711,13 +1711,13 @@
         <v>32</v>
       </c>
       <c r="AM9" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AN9" t="n">
         <v>13</v>
       </c>
       <c r="AO9" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10">
@@ -1747,22 +1747,22 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="G10" t="n">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
       <c r="H10" t="n">
-        <v>2.02</v>
+        <v>1.96</v>
       </c>
       <c r="I10" t="n">
-        <v>2.04</v>
+        <v>1.98</v>
       </c>
       <c r="J10" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="K10" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="L10" t="n">
         <v>1.47</v>
@@ -1771,22 +1771,22 @@
         <v>1.08</v>
       </c>
       <c r="N10" t="n">
-        <v>3.35</v>
+        <v>3.45</v>
       </c>
       <c r="O10" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="P10" t="n">
-        <v>1.79</v>
+        <v>1.83</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.24</v>
+        <v>2.16</v>
       </c>
       <c r="R10" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="S10" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="T10" t="n">
         <v>1.96</v>
@@ -1795,13 +1795,13 @@
         <v>1.97</v>
       </c>
       <c r="V10" t="n">
-        <v>1.96</v>
+        <v>2.02</v>
       </c>
       <c r="W10" t="n">
-        <v>1.3</v>
+        <v>1.28</v>
       </c>
       <c r="X10" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="Y10" t="n">
         <v>8.199999999999999</v>
@@ -1810,34 +1810,34 @@
         <v>11.5</v>
       </c>
       <c r="AA10" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AB10" t="n">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="AC10" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="AD10" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AE10" t="n">
         <v>23</v>
       </c>
       <c r="AF10" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="AG10" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AH10" t="n">
         <v>21</v>
       </c>
       <c r="AI10" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AJ10" t="n">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="AK10" t="n">
         <v>60</v>
@@ -1849,10 +1849,10 @@
         <v>130</v>
       </c>
       <c r="AN10" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AO10" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
     </row>
     <row r="11">
@@ -1885,7 +1885,7 @@
         <v>3.2</v>
       </c>
       <c r="G11" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="H11" t="n">
         <v>2.32</v>
@@ -1900,7 +1900,7 @@
         <v>3.85</v>
       </c>
       <c r="L11" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="M11" t="n">
         <v>1.05</v>
@@ -1909,13 +1909,13 @@
         <v>4.8</v>
       </c>
       <c r="O11" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="P11" t="n">
         <v>2.28</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="R11" t="n">
         <v>1.51</v>
@@ -1924,22 +1924,22 @@
         <v>2.88</v>
       </c>
       <c r="T11" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="U11" t="n">
-        <v>2.48</v>
+        <v>2.44</v>
       </c>
       <c r="V11" t="n">
         <v>1.73</v>
       </c>
       <c r="W11" t="n">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="X11" t="n">
         <v>19.5</v>
       </c>
       <c r="Y11" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="Z11" t="n">
         <v>16.5</v>
@@ -1948,7 +1948,7 @@
         <v>32</v>
       </c>
       <c r="AB11" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AC11" t="n">
         <v>8.4</v>
@@ -2017,7 +2017,7 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.72</v>
+        <v>2.7</v>
       </c>
       <c r="G12" t="n">
         <v>2.74</v>
@@ -2026,10 +2026,10 @@
         <v>2.78</v>
       </c>
       <c r="I12" t="n">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="J12" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="K12" t="n">
         <v>3.65</v>
@@ -2047,7 +2047,7 @@
         <v>1.27</v>
       </c>
       <c r="P12" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="Q12" t="n">
         <v>1.84</v>
@@ -2056,7 +2056,7 @@
         <v>1.44</v>
       </c>
       <c r="S12" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="T12" t="n">
         <v>1.68</v>
@@ -2065,7 +2065,7 @@
         <v>2.36</v>
       </c>
       <c r="V12" t="n">
-        <v>1.55</v>
+        <v>1.54</v>
       </c>
       <c r="W12" t="n">
         <v>1.57</v>
@@ -2113,7 +2113,7 @@
         <v>28</v>
       </c>
       <c r="AL12" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AM12" t="n">
         <v>75</v>
@@ -2122,7 +2122,7 @@
         <v>21</v>
       </c>
       <c r="AO12" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13">
@@ -2155,10 +2155,10 @@
         <v>3.8</v>
       </c>
       <c r="G13" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="H13" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="I13" t="n">
         <v>2.08</v>
@@ -2194,7 +2194,7 @@
         <v>3.05</v>
       </c>
       <c r="T13" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="U13" t="n">
         <v>2.3</v>
@@ -2203,7 +2203,7 @@
         <v>1.93</v>
       </c>
       <c r="W13" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="X13" t="n">
         <v>18</v>
@@ -2215,7 +2215,7 @@
         <v>13.5</v>
       </c>
       <c r="AA13" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AB13" t="n">
         <v>16.5</v>
@@ -2290,10 +2290,10 @@
         <v>1.19</v>
       </c>
       <c r="G14" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="H14" t="n">
-        <v>18</v>
+        <v>19.5</v>
       </c>
       <c r="I14" t="n">
         <v>22</v>
@@ -2311,13 +2311,13 @@
         <v>1.03</v>
       </c>
       <c r="N14" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="O14" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="P14" t="n">
-        <v>2.7</v>
+        <v>2.68</v>
       </c>
       <c r="Q14" t="n">
         <v>1.56</v>
@@ -2326,19 +2326,19 @@
         <v>1.67</v>
       </c>
       <c r="S14" t="n">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="T14" t="n">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="U14" t="n">
-        <v>1.63</v>
+        <v>1.62</v>
       </c>
       <c r="V14" t="n">
         <v>1.04</v>
       </c>
       <c r="W14" t="n">
-        <v>5.6</v>
+        <v>6</v>
       </c>
       <c r="X14" t="n">
         <v>32</v>
@@ -2356,10 +2356,10 @@
         <v>9.800000000000001</v>
       </c>
       <c r="AC14" t="n">
-        <v>19.5</v>
+        <v>24</v>
       </c>
       <c r="AD14" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AE14" t="n">
         <v>470</v>
@@ -2371,19 +2371,19 @@
         <v>13</v>
       </c>
       <c r="AH14" t="n">
-        <v>50</v>
+        <v>210</v>
       </c>
       <c r="AI14" t="n">
         <v>310</v>
       </c>
       <c r="AJ14" t="n">
-        <v>8</v>
+        <v>8.4</v>
       </c>
       <c r="AK14" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AL14" t="n">
-        <v>370</v>
+        <v>55</v>
       </c>
       <c r="AM14" t="n">
         <v>360</v>
@@ -2428,7 +2428,7 @@
         <v>1.73</v>
       </c>
       <c r="H15" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="I15" t="n">
         <v>5.5</v>
@@ -2446,7 +2446,7 @@
         <v>1.06</v>
       </c>
       <c r="N15" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="O15" t="n">
         <v>1.26</v>
@@ -2488,13 +2488,13 @@
         <v>140</v>
       </c>
       <c r="AB15" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="AC15" t="n">
         <v>9.199999999999999</v>
       </c>
       <c r="AD15" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AE15" t="n">
         <v>65</v>
@@ -2512,7 +2512,7 @@
         <v>70</v>
       </c>
       <c r="AJ15" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AK15" t="n">
         <v>16.5</v>
@@ -2557,16 +2557,16 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2.6</v>
+        <v>2.56</v>
       </c>
       <c r="G16" t="n">
-        <v>2.64</v>
+        <v>2.58</v>
       </c>
       <c r="H16" t="n">
-        <v>2.84</v>
+        <v>2.88</v>
       </c>
       <c r="I16" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="J16" t="n">
         <v>3.7</v>
@@ -2587,16 +2587,16 @@
         <v>1.26</v>
       </c>
       <c r="P16" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="Q16" t="n">
         <v>1.78</v>
       </c>
       <c r="R16" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="S16" t="n">
-        <v>3</v>
+        <v>2.98</v>
       </c>
       <c r="T16" t="n">
         <v>1.65</v>
@@ -2605,10 +2605,10 @@
         <v>2.44</v>
       </c>
       <c r="V16" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="W16" t="n">
-        <v>1.6</v>
+        <v>1.63</v>
       </c>
       <c r="X16" t="n">
         <v>17.5</v>
@@ -2617,7 +2617,7 @@
         <v>14</v>
       </c>
       <c r="Z16" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AA16" t="n">
         <v>44</v>
@@ -2632,10 +2632,10 @@
         <v>12.5</v>
       </c>
       <c r="AE16" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AF16" t="n">
-        <v>18.5</v>
+        <v>17.5</v>
       </c>
       <c r="AG16" t="n">
         <v>11.5</v>
@@ -2650,7 +2650,7 @@
         <v>38</v>
       </c>
       <c r="AK16" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AL16" t="n">
         <v>36</v>
@@ -2659,10 +2659,10 @@
         <v>70</v>
       </c>
       <c r="AN16" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AO16" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17">
@@ -2698,16 +2698,16 @@
         <v>4.9</v>
       </c>
       <c r="H17" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="I17" t="n">
         <v>1.81</v>
       </c>
       <c r="J17" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="K17" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="L17" t="n">
         <v>1.32</v>
@@ -2842,7 +2842,7 @@
         <v>5.3</v>
       </c>
       <c r="K18" t="n">
-        <v>5.4</v>
+        <v>5.6</v>
       </c>
       <c r="L18" t="n">
         <v>1.26</v>
@@ -2851,7 +2851,7 @@
         <v>1.03</v>
       </c>
       <c r="N18" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="O18" t="n">
         <v>1.16</v>
@@ -2863,16 +2863,16 @@
         <v>1.5</v>
       </c>
       <c r="R18" t="n">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="S18" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="T18" t="n">
         <v>1.72</v>
       </c>
       <c r="U18" t="n">
-        <v>2.34</v>
+        <v>2.32</v>
       </c>
       <c r="V18" t="n">
         <v>1.14</v>
@@ -2923,10 +2923,10 @@
         <v>13</v>
       </c>
       <c r="AL18" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AM18" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="AN18" t="n">
         <v>4.9</v>
@@ -2965,7 +2965,7 @@
         <v>3.9</v>
       </c>
       <c r="G19" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="H19" t="n">
         <v>2.36</v>
@@ -3016,7 +3016,7 @@
         <v>1.3</v>
       </c>
       <c r="X19" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="Y19" t="n">
         <v>7.6</v>
@@ -3103,16 +3103,16 @@
         <v>2.52</v>
       </c>
       <c r="H20" t="n">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="I20" t="n">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="J20" t="n">
+        <v>4</v>
+      </c>
+      <c r="K20" t="n">
         <v>4.1</v>
-      </c>
-      <c r="K20" t="n">
-        <v>4.2</v>
       </c>
       <c r="L20" t="n">
         <v>1.31</v>
@@ -3139,13 +3139,13 @@
         <v>2.54</v>
       </c>
       <c r="T20" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="U20" t="n">
-        <v>2.66</v>
+        <v>2.64</v>
       </c>
       <c r="V20" t="n">
-        <v>1.55</v>
+        <v>1.54</v>
       </c>
       <c r="W20" t="n">
         <v>1.65</v>
@@ -3187,22 +3187,22 @@
         <v>32</v>
       </c>
       <c r="AJ20" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AK20" t="n">
         <v>23</v>
       </c>
       <c r="AL20" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AM20" t="n">
         <v>60</v>
       </c>
       <c r="AN20" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AO20" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
     </row>
     <row r="21">
@@ -3235,10 +3235,10 @@
         <v>1.66</v>
       </c>
       <c r="G21" t="n">
-        <v>1.68</v>
+        <v>1.67</v>
       </c>
       <c r="H21" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="I21" t="n">
         <v>6.2</v>
@@ -3274,7 +3274,7 @@
         <v>3.55</v>
       </c>
       <c r="T21" t="n">
-        <v>1.97</v>
+        <v>1.96</v>
       </c>
       <c r="U21" t="n">
         <v>1.97</v>
@@ -3283,7 +3283,7 @@
         <v>1.19</v>
       </c>
       <c r="W21" t="n">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="X21" t="n">
         <v>15.5</v>
@@ -3367,16 +3367,16 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="G22" t="n">
         <v>2.92</v>
       </c>
       <c r="H22" t="n">
-        <v>2.7</v>
+        <v>2.72</v>
       </c>
       <c r="I22" t="n">
-        <v>2.74</v>
+        <v>2.76</v>
       </c>
       <c r="J22" t="n">
         <v>3.4</v>
@@ -3415,19 +3415,19 @@
         <v>2.18</v>
       </c>
       <c r="V22" t="n">
-        <v>1.57</v>
+        <v>1.56</v>
       </c>
       <c r="W22" t="n">
         <v>1.52</v>
       </c>
       <c r="X22" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Y22" t="n">
         <v>11.5</v>
       </c>
       <c r="Z22" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AA22" t="n">
         <v>42</v>
@@ -3502,22 +3502,22 @@
         </is>
       </c>
       <c r="F23" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="G23" t="n">
         <v>2.16</v>
       </c>
-      <c r="G23" t="n">
-        <v>2.18</v>
-      </c>
       <c r="H23" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="I23" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="J23" t="n">
         <v>3.75</v>
       </c>
       <c r="K23" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="L23" t="n">
         <v>1.37</v>
@@ -3535,7 +3535,7 @@
         <v>2.16</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="R23" t="n">
         <v>1.46</v>
@@ -3547,13 +3547,13 @@
         <v>1.72</v>
       </c>
       <c r="U23" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="V23" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="W23" t="n">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="X23" t="n">
         <v>17.5</v>
@@ -3637,10 +3637,10 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="G24" t="n">
-        <v>1.92</v>
+        <v>1.96</v>
       </c>
       <c r="H24" t="n">
         <v>4.1</v>
@@ -3649,7 +3649,7 @@
         <v>4.3</v>
       </c>
       <c r="J24" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="K24" t="n">
         <v>4.2</v>
@@ -3673,7 +3673,7 @@
         <v>1.68</v>
       </c>
       <c r="R24" t="n">
-        <v>1.55</v>
+        <v>1.54</v>
       </c>
       <c r="S24" t="n">
         <v>2.74</v>
@@ -3685,10 +3685,10 @@
         <v>2.44</v>
       </c>
       <c r="V24" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="W24" t="n">
-        <v>2.08</v>
+        <v>2.04</v>
       </c>
       <c r="X24" t="n">
         <v>21</v>
@@ -3700,7 +3700,7 @@
         <v>34</v>
       </c>
       <c r="AA24" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AB24" t="n">
         <v>12</v>
@@ -3739,7 +3739,7 @@
         <v>70</v>
       </c>
       <c r="AN24" t="n">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AO24" t="n">
         <v>34</v>
@@ -3775,7 +3775,7 @@
         <v>2.4</v>
       </c>
       <c r="G25" t="n">
-        <v>2.5</v>
+        <v>2.46</v>
       </c>
       <c r="H25" t="n">
         <v>3.15</v>
@@ -3805,7 +3805,7 @@
         <v>2</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.94</v>
+        <v>1.96</v>
       </c>
       <c r="R25" t="n">
         <v>1.38</v>
@@ -3814,7 +3814,7 @@
         <v>3.4</v>
       </c>
       <c r="T25" t="n">
-        <v>1.75</v>
+        <v>1.77</v>
       </c>
       <c r="U25" t="n">
         <v>2.22</v>
@@ -3823,7 +3823,7 @@
         <v>1.44</v>
       </c>
       <c r="W25" t="n">
-        <v>1.66</v>
+        <v>1.68</v>
       </c>
       <c r="X25" t="n">
         <v>15.5</v>
@@ -3841,7 +3841,7 @@
         <v>11</v>
       </c>
       <c r="AC25" t="n">
-        <v>8.199999999999999</v>
+        <v>7.8</v>
       </c>
       <c r="AD25" t="n">
         <v>14</v>
@@ -3850,7 +3850,7 @@
         <v>40</v>
       </c>
       <c r="AF25" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="AG25" t="n">
         <v>11.5</v>
@@ -3862,10 +3862,10 @@
         <v>46</v>
       </c>
       <c r="AJ25" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AK25" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AL25" t="n">
         <v>42</v>
@@ -3877,7 +3877,7 @@
         <v>20</v>
       </c>
       <c r="AO25" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="26">
@@ -3907,10 +3907,10 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>2.44</v>
+        <v>2.42</v>
       </c>
       <c r="G26" t="n">
-        <v>2.48</v>
+        <v>2.46</v>
       </c>
       <c r="H26" t="n">
         <v>3.2</v>
@@ -3958,16 +3958,16 @@
         <v>1.44</v>
       </c>
       <c r="W26" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="X26" t="n">
         <v>14</v>
       </c>
       <c r="Y26" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="Z26" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AA26" t="n">
         <v>55</v>
@@ -3994,7 +3994,7 @@
         <v>17</v>
       </c>
       <c r="AI26" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AJ26" t="n">
         <v>34</v>
@@ -4048,7 +4048,7 @@
         <v>2.06</v>
       </c>
       <c r="H27" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="I27" t="n">
         <v>4.1</v>
@@ -4057,7 +4057,7 @@
         <v>3.8</v>
       </c>
       <c r="K27" t="n">
-        <v>3.85</v>
+        <v>3.95</v>
       </c>
       <c r="L27" t="n">
         <v>1.38</v>
@@ -4078,16 +4078,16 @@
         <v>1.84</v>
       </c>
       <c r="R27" t="n">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="S27" t="n">
         <v>3.15</v>
       </c>
       <c r="T27" t="n">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="U27" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="V27" t="n">
         <v>1.33</v>
@@ -4111,7 +4111,7 @@
         <v>10.5</v>
       </c>
       <c r="AC27" t="n">
-        <v>8.800000000000001</v>
+        <v>8.4</v>
       </c>
       <c r="AD27" t="n">
         <v>15.5</v>
@@ -4144,7 +4144,7 @@
         <v>85</v>
       </c>
       <c r="AN27" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AO27" t="n">
         <v>44</v>
@@ -4177,7 +4177,7 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>2.7</v>
+        <v>2.72</v>
       </c>
       <c r="G28" t="n">
         <v>2.88</v>
@@ -4189,7 +4189,7 @@
         <v>3.3</v>
       </c>
       <c r="J28" t="n">
-        <v>2.94</v>
+        <v>2.96</v>
       </c>
       <c r="K28" t="n">
         <v>3.1</v>
@@ -4219,7 +4219,7 @@
         <v>5.5</v>
       </c>
       <c r="T28" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="U28" t="n">
         <v>1.82</v>
@@ -4255,7 +4255,7 @@
         <v>180</v>
       </c>
       <c r="AF28" t="n">
-        <v>16.5</v>
+        <v>19.5</v>
       </c>
       <c r="AG28" t="n">
         <v>13.5</v>
@@ -4270,7 +4270,7 @@
         <v>970</v>
       </c>
       <c r="AK28" t="n">
-        <v>100</v>
+        <v>970</v>
       </c>
       <c r="AL28" t="n">
         <v>70</v>
@@ -4318,10 +4318,10 @@
         <v>2.88</v>
       </c>
       <c r="H29" t="n">
-        <v>2.62</v>
+        <v>2.66</v>
       </c>
       <c r="I29" t="n">
-        <v>2.68</v>
+        <v>2.72</v>
       </c>
       <c r="J29" t="n">
         <v>3.6</v>
@@ -4336,7 +4336,7 @@
         <v>1.06</v>
       </c>
       <c r="N29" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="O29" t="n">
         <v>1.29</v>
@@ -4351,16 +4351,16 @@
         <v>1.42</v>
       </c>
       <c r="S29" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="T29" t="n">
-        <v>1.71</v>
+        <v>1.7</v>
       </c>
       <c r="U29" t="n">
         <v>2.32</v>
       </c>
       <c r="V29" t="n">
-        <v>1.59</v>
+        <v>1.58</v>
       </c>
       <c r="W29" t="n">
         <v>1.53</v>
@@ -4453,13 +4453,13 @@
         <v>3.2</v>
       </c>
       <c r="H30" t="n">
-        <v>2.96</v>
+        <v>2.98</v>
       </c>
       <c r="I30" t="n">
         <v>3.2</v>
       </c>
       <c r="J30" t="n">
-        <v>2.74</v>
+        <v>2.76</v>
       </c>
       <c r="K30" t="n">
         <v>2.9</v>
@@ -4471,7 +4471,7 @@
         <v>1.18</v>
       </c>
       <c r="N30" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="O30" t="n">
         <v>1.75</v>
@@ -4528,13 +4528,13 @@
         <v>18.5</v>
       </c>
       <c r="AG30" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AH30" t="n">
         <v>60</v>
       </c>
       <c r="AI30" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AJ30" t="n">
         <v>440</v>
@@ -4543,13 +4543,13 @@
         <v>420</v>
       </c>
       <c r="AL30" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AM30" t="n">
         <v>330</v>
       </c>
       <c r="AN30" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="AO30" t="n">
         <v>1000</v>
@@ -4852,97 +4852,97 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>2.1</v>
+        <v>2.22</v>
       </c>
       <c r="G33" t="n">
-        <v>2.26</v>
+        <v>2.36</v>
       </c>
       <c r="H33" t="n">
         <v>4.2</v>
       </c>
       <c r="I33" t="n">
-        <v>4.9</v>
+        <v>4.7</v>
       </c>
       <c r="J33" t="n">
-        <v>2.96</v>
+        <v>2.9</v>
       </c>
       <c r="K33" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="L33" t="n">
         <v>1.61</v>
       </c>
       <c r="M33" t="n">
-        <v>1.12</v>
+        <v>1.13</v>
       </c>
       <c r="N33" t="n">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="O33" t="n">
         <v>1.59</v>
       </c>
       <c r="P33" t="n">
-        <v>1.47</v>
+        <v>1.46</v>
       </c>
       <c r="Q33" t="n">
-        <v>2.66</v>
+        <v>2.74</v>
       </c>
       <c r="R33" t="n">
         <v>1.16</v>
       </c>
       <c r="S33" t="n">
-        <v>6</v>
+        <v>5.7</v>
       </c>
       <c r="T33" t="n">
-        <v>2.26</v>
+        <v>2.22</v>
       </c>
       <c r="U33" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="V33" t="n">
-        <v>1.25</v>
+        <v>1.27</v>
       </c>
       <c r="W33" t="n">
-        <v>1.79</v>
+        <v>1.73</v>
       </c>
       <c r="X33" t="n">
-        <v>9</v>
+        <v>7.8</v>
       </c>
       <c r="Y33" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="Z33" t="n">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="AA33" t="n">
         <v>150</v>
       </c>
       <c r="AB33" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="AC33" t="n">
-        <v>8.199999999999999</v>
+        <v>7.4</v>
       </c>
       <c r="AD33" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AE33" t="n">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="AF33" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AG33" t="n">
         <v>13.5</v>
       </c>
       <c r="AH33" t="n">
+        <v>27</v>
+      </c>
+      <c r="AI33" t="n">
+        <v>130</v>
+      </c>
+      <c r="AJ33" t="n">
         <v>32</v>
-      </c>
-      <c r="AI33" t="n">
-        <v>140</v>
-      </c>
-      <c r="AJ33" t="n">
-        <v>36</v>
       </c>
       <c r="AK33" t="n">
         <v>34</v>
@@ -4951,13 +4951,13 @@
         <v>75</v>
       </c>
       <c r="AM33" t="n">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="AN33" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AO33" t="n">
-        <v>180</v>
+        <v>170</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-22.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-22.xlsx
@@ -673,7 +673,7 @@
         <v>1.68</v>
       </c>
       <c r="H2" t="n">
-        <v>5.7</v>
+        <v>5.9</v>
       </c>
       <c r="I2" t="n">
         <v>6.6</v>
@@ -682,7 +682,7 @@
         <v>4.2</v>
       </c>
       <c r="K2" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="L2" t="n">
         <v>1.31</v>
@@ -703,13 +703,13 @@
         <v>1.81</v>
       </c>
       <c r="R2" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="S2" t="n">
         <v>3.1</v>
       </c>
       <c r="T2" t="n">
-        <v>1.85</v>
+        <v>1.84</v>
       </c>
       <c r="U2" t="n">
         <v>2</v>
@@ -805,19 +805,19 @@
         <v>2.26</v>
       </c>
       <c r="G3" t="n">
-        <v>2.46</v>
+        <v>2.52</v>
       </c>
       <c r="H3" t="n">
         <v>4.2</v>
       </c>
       <c r="I3" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="J3" t="n">
-        <v>2.58</v>
+        <v>2.62</v>
       </c>
       <c r="K3" t="n">
-        <v>2.88</v>
+        <v>2.84</v>
       </c>
       <c r="L3" t="n">
         <v>1.71</v>
@@ -826,13 +826,13 @@
         <v>1.2</v>
       </c>
       <c r="N3" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="O3" t="n">
         <v>1.76</v>
       </c>
       <c r="P3" t="n">
-        <v>1.33</v>
+        <v>1.4</v>
       </c>
       <c r="Q3" t="n">
         <v>3.4</v>
@@ -847,16 +847,16 @@
         <v>2.48</v>
       </c>
       <c r="U3" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="V3" t="n">
         <v>1.25</v>
       </c>
       <c r="W3" t="n">
-        <v>1.68</v>
+        <v>1.66</v>
       </c>
       <c r="X3" t="n">
-        <v>6.4</v>
+        <v>5.9</v>
       </c>
       <c r="Y3" t="n">
         <v>10.5</v>
@@ -883,7 +883,7 @@
         <v>14</v>
       </c>
       <c r="AG3" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AH3" t="n">
         <v>34</v>
@@ -901,7 +901,7 @@
         <v>130</v>
       </c>
       <c r="AM3" t="n">
-        <v>420</v>
+        <v>500</v>
       </c>
       <c r="AN3" t="n">
         <v>60</v>
@@ -937,64 +937,64 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.62</v>
+        <v>1.49</v>
       </c>
       <c r="G4" t="n">
-        <v>1.73</v>
+        <v>1.65</v>
       </c>
       <c r="H4" t="n">
-        <v>5</v>
+        <v>5.9</v>
       </c>
       <c r="I4" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="J4" t="n">
-        <v>3.95</v>
+        <v>4.5</v>
       </c>
       <c r="K4" t="n">
-        <v>4.7</v>
+        <v>5.4</v>
       </c>
       <c r="L4" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="M4" t="n">
         <v>1.01</v>
       </c>
       <c r="N4" t="n">
-        <v>4.5</v>
+        <v>4.9</v>
       </c>
       <c r="O4" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="P4" t="n">
-        <v>2.26</v>
+        <v>2.38</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.64</v>
+        <v>1.57</v>
       </c>
       <c r="R4" t="n">
-        <v>1.5</v>
+        <v>1.54</v>
       </c>
       <c r="S4" t="n">
-        <v>2.64</v>
+        <v>2.52</v>
       </c>
       <c r="T4" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="U4" t="n">
-        <v>2.2</v>
+        <v>2.14</v>
       </c>
       <c r="V4" t="n">
         <v>1.17</v>
       </c>
       <c r="W4" t="n">
-        <v>2.36</v>
+        <v>2.54</v>
       </c>
       <c r="X4" t="n">
-        <v>90</v>
+        <v>970</v>
       </c>
       <c r="Y4" t="n">
-        <v>27</v>
+        <v>970</v>
       </c>
       <c r="Z4" t="n">
         <v>55</v>
@@ -1009,16 +1009,16 @@
         <v>12</v>
       </c>
       <c r="AD4" t="n">
-        <v>25</v>
+        <v>970</v>
       </c>
       <c r="AE4" t="n">
         <v>80</v>
       </c>
       <c r="AF4" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AH4" t="n">
         <v>21</v>
@@ -1027,22 +1027,22 @@
         <v>70</v>
       </c>
       <c r="AJ4" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="AK4" t="n">
-        <v>19.5</v>
+        <v>17.5</v>
       </c>
       <c r="AL4" t="n">
-        <v>34</v>
+        <v>970</v>
       </c>
       <c r="AM4" t="n">
         <v>95</v>
       </c>
       <c r="AN4" t="n">
-        <v>9.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AO4" t="n">
-        <v>75</v>
+        <v>95</v>
       </c>
     </row>
     <row r="5">
@@ -1072,22 +1072,22 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.97</v>
+        <v>1.92</v>
       </c>
       <c r="G5" t="n">
-        <v>2.08</v>
+        <v>2.02</v>
       </c>
       <c r="H5" t="n">
-        <v>5.1</v>
+        <v>4.9</v>
       </c>
       <c r="I5" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="J5" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="K5" t="n">
-        <v>3.3</v>
+        <v>3.55</v>
       </c>
       <c r="L5" t="n">
         <v>1.64</v>
@@ -1096,16 +1096,16 @@
         <v>1.13</v>
       </c>
       <c r="N5" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="O5" t="n">
-        <v>1.64</v>
+        <v>1.63</v>
       </c>
       <c r="P5" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.92</v>
+        <v>2.84</v>
       </c>
       <c r="R5" t="n">
         <v>1.15</v>
@@ -1114,70 +1114,70 @@
         <v>6.2</v>
       </c>
       <c r="T5" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="U5" t="n">
         <v>1.62</v>
       </c>
       <c r="V5" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="W5" t="n">
-        <v>1.92</v>
+        <v>1.98</v>
       </c>
       <c r="X5" t="n">
         <v>8.6</v>
       </c>
       <c r="Y5" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="Z5" t="n">
         <v>980</v>
       </c>
       <c r="AA5" t="n">
-        <v>210</v>
+        <v>500</v>
       </c>
       <c r="AB5" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="AC5" t="n">
         <v>8.800000000000001</v>
       </c>
       <c r="AD5" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AE5" t="n">
-        <v>140</v>
+        <v>500</v>
       </c>
       <c r="AF5" t="n">
         <v>12</v>
       </c>
       <c r="AG5" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AH5" t="n">
-        <v>36</v>
+        <v>980</v>
       </c>
       <c r="AI5" t="n">
-        <v>170</v>
+        <v>500</v>
       </c>
       <c r="AJ5" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AK5" t="n">
         <v>980</v>
       </c>
       <c r="AL5" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AM5" t="n">
-        <v>330</v>
+        <v>500</v>
       </c>
       <c r="AN5" t="n">
         <v>980</v>
       </c>
       <c r="AO5" t="n">
-        <v>260</v>
+        <v>500</v>
       </c>
     </row>
     <row r="6">
@@ -1210,10 +1210,10 @@
         <v>2.86</v>
       </c>
       <c r="G6" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="H6" t="n">
-        <v>2.98</v>
+        <v>3</v>
       </c>
       <c r="I6" t="n">
         <v>3.15</v>
@@ -1225,7 +1225,7 @@
         <v>3</v>
       </c>
       <c r="L6" t="n">
-        <v>1.51</v>
+        <v>1.62</v>
       </c>
       <c r="M6" t="n">
         <v>1.12</v>
@@ -1258,7 +1258,7 @@
         <v>1.46</v>
       </c>
       <c r="W6" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="X6" t="n">
         <v>9.4</v>
@@ -1294,7 +1294,7 @@
         <v>28</v>
       </c>
       <c r="AI6" t="n">
-        <v>95</v>
+        <v>460</v>
       </c>
       <c r="AJ6" t="n">
         <v>65</v>
@@ -1303,10 +1303,10 @@
         <v>60</v>
       </c>
       <c r="AL6" t="n">
-        <v>95</v>
+        <v>460</v>
       </c>
       <c r="AM6" t="n">
-        <v>240</v>
+        <v>500</v>
       </c>
       <c r="AN6" t="n">
         <v>75</v>
@@ -1342,19 +1342,19 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.71</v>
+        <v>1.73</v>
       </c>
       <c r="G7" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="H7" t="n">
-        <v>5.7</v>
+        <v>4.9</v>
       </c>
       <c r="I7" t="n">
-        <v>5.8</v>
+        <v>5.4</v>
       </c>
       <c r="J7" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="K7" t="n">
         <v>4.2</v>
@@ -1366,7 +1366,7 @@
         <v>1.07</v>
       </c>
       <c r="N7" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="O7" t="n">
         <v>1.32</v>
@@ -1375,7 +1375,7 @@
         <v>1.93</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.92</v>
+        <v>1.94</v>
       </c>
       <c r="R7" t="n">
         <v>1.35</v>
@@ -1390,46 +1390,46 @@
         <v>1.98</v>
       </c>
       <c r="V7" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="W7" t="n">
-        <v>2.28</v>
+        <v>2.24</v>
       </c>
       <c r="X7" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="Y7" t="n">
         <v>21</v>
       </c>
       <c r="Z7" t="n">
-        <v>970</v>
+        <v>50</v>
       </c>
       <c r="AA7" t="n">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="AB7" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="AC7" t="n">
         <v>10.5</v>
       </c>
       <c r="AD7" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AE7" t="n">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="AF7" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AG7" t="n">
-        <v>11.5</v>
+        <v>10</v>
       </c>
       <c r="AH7" t="n">
         <v>24</v>
       </c>
       <c r="AI7" t="n">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="AJ7" t="n">
         <v>22</v>
@@ -1444,10 +1444,10 @@
         <v>140</v>
       </c>
       <c r="AN7" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AO7" t="n">
-        <v>120</v>
+        <v>300</v>
       </c>
     </row>
     <row r="8">
@@ -1477,22 +1477,22 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="G8" t="n">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="H8" t="n">
-        <v>15.5</v>
+        <v>17.5</v>
       </c>
       <c r="I8" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="J8" t="n">
-        <v>7.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="K8" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L8" t="n">
         <v>1.01</v>
@@ -1501,22 +1501,22 @@
         <v>1.02</v>
       </c>
       <c r="N8" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="O8" t="n">
         <v>1.13</v>
       </c>
       <c r="P8" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.36</v>
+        <v>1.42</v>
       </c>
       <c r="R8" t="n">
         <v>1.83</v>
       </c>
       <c r="S8" t="n">
-        <v>2.02</v>
+        <v>2.08</v>
       </c>
       <c r="T8" t="n">
         <v>2</v>
@@ -1525,16 +1525,16 @@
         <v>1.81</v>
       </c>
       <c r="V8" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="W8" t="n">
-        <v>5.1</v>
+        <v>5.6</v>
       </c>
       <c r="X8" t="n">
         <v>980</v>
       </c>
       <c r="Y8" t="n">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="Z8" t="n">
         <v>200</v>
@@ -1543,10 +1543,10 @@
         <v>1000</v>
       </c>
       <c r="AB8" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AC8" t="n">
-        <v>980</v>
+        <v>24</v>
       </c>
       <c r="AD8" t="n">
         <v>70</v>
@@ -1567,13 +1567,13 @@
         <v>200</v>
       </c>
       <c r="AJ8" t="n">
-        <v>10.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AK8" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AL8" t="n">
-        <v>42</v>
+        <v>980</v>
       </c>
       <c r="AM8" t="n">
         <v>200</v>
@@ -1582,7 +1582,7 @@
         <v>3.85</v>
       </c>
       <c r="AO8" t="n">
-        <v>320</v>
+        <v>410</v>
       </c>
     </row>
     <row r="9">
@@ -1624,40 +1624,40 @@
         <v>2.9</v>
       </c>
       <c r="J9" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="K9" t="n">
         <v>4.6</v>
       </c>
       <c r="L9" t="n">
-        <v>1.22</v>
+        <v>1.24</v>
       </c>
       <c r="M9" t="n">
         <v>1.02</v>
       </c>
       <c r="N9" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="O9" t="n">
-        <v>1.15</v>
+        <v>1.17</v>
       </c>
       <c r="P9" t="n">
-        <v>2.86</v>
+        <v>2.88</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.46</v>
+        <v>1.45</v>
       </c>
       <c r="R9" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="S9" t="n">
         <v>2.12</v>
       </c>
       <c r="T9" t="n">
-        <v>1.46</v>
+        <v>1.44</v>
       </c>
       <c r="U9" t="n">
-        <v>2.78</v>
+        <v>2.84</v>
       </c>
       <c r="V9" t="n">
         <v>1.52</v>
@@ -1672,52 +1672,52 @@
         <v>24</v>
       </c>
       <c r="Z9" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AA9" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AB9" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AC9" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AD9" t="n">
         <v>16</v>
       </c>
       <c r="AE9" t="n">
+        <v>980</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>25</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>32</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>38</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>25</v>
+      </c>
+      <c r="AL9" t="n">
         <v>30</v>
       </c>
-      <c r="AF9" t="n">
-        <v>26</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>15</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>17</v>
-      </c>
-      <c r="AI9" t="n">
-        <v>34</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>40</v>
-      </c>
-      <c r="AK9" t="n">
-        <v>26</v>
-      </c>
-      <c r="AL9" t="n">
-        <v>32</v>
-      </c>
       <c r="AM9" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AN9" t="n">
-        <v>13</v>
+        <v>11.5</v>
       </c>
       <c r="AO9" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
     </row>
     <row r="10">
@@ -1747,25 +1747,25 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
       <c r="G10" t="n">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="H10" t="n">
         <v>1.96</v>
       </c>
       <c r="I10" t="n">
-        <v>1.98</v>
+        <v>1.97</v>
       </c>
       <c r="J10" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="K10" t="n">
         <v>3.75</v>
       </c>
       <c r="L10" t="n">
-        <v>1.47</v>
+        <v>1.46</v>
       </c>
       <c r="M10" t="n">
         <v>1.08</v>
@@ -1774,7 +1774,7 @@
         <v>3.45</v>
       </c>
       <c r="O10" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="P10" t="n">
         <v>1.83</v>
@@ -1783,22 +1783,22 @@
         <v>2.16</v>
       </c>
       <c r="R10" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="S10" t="n">
         <v>4</v>
       </c>
       <c r="T10" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="U10" t="n">
         <v>1.96</v>
-      </c>
-      <c r="U10" t="n">
-        <v>1.97</v>
       </c>
       <c r="V10" t="n">
         <v>2.02</v>
       </c>
       <c r="W10" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="X10" t="n">
         <v>12.5</v>
@@ -1807,10 +1807,10 @@
         <v>8.199999999999999</v>
       </c>
       <c r="Z10" t="n">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="AA10" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AB10" t="n">
         <v>14.5</v>
@@ -1822,13 +1822,13 @@
         <v>10.5</v>
       </c>
       <c r="AE10" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AF10" t="n">
         <v>32</v>
       </c>
       <c r="AG10" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AH10" t="n">
         <v>21</v>
@@ -1837,10 +1837,10 @@
         <v>42</v>
       </c>
       <c r="AJ10" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AK10" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AL10" t="n">
         <v>75</v>
@@ -1852,7 +1852,7 @@
         <v>75</v>
       </c>
       <c r="AO10" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11">
@@ -1888,10 +1888,10 @@
         <v>3.3</v>
       </c>
       <c r="H11" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="I11" t="n">
         <v>2.32</v>
-      </c>
-      <c r="I11" t="n">
-        <v>2.36</v>
       </c>
       <c r="J11" t="n">
         <v>3.75</v>
@@ -1915,10 +1915,10 @@
         <v>2.28</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="R11" t="n">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="S11" t="n">
         <v>2.88</v>
@@ -1927,10 +1927,10 @@
         <v>1.64</v>
       </c>
       <c r="U11" t="n">
-        <v>2.44</v>
+        <v>2.48</v>
       </c>
       <c r="V11" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="W11" t="n">
         <v>1.43</v>
@@ -1975,16 +1975,16 @@
         <v>55</v>
       </c>
       <c r="AK11" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AL11" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AM11" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AN11" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AO11" t="n">
         <v>14.5</v>
@@ -2020,16 +2020,16 @@
         <v>2.7</v>
       </c>
       <c r="G12" t="n">
-        <v>2.74</v>
+        <v>2.72</v>
       </c>
       <c r="H12" t="n">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="I12" t="n">
         <v>2.82</v>
       </c>
       <c r="J12" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="K12" t="n">
         <v>3.65</v>
@@ -2068,7 +2068,7 @@
         <v>1.54</v>
       </c>
       <c r="W12" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="X12" t="n">
         <v>16.5</v>
@@ -2164,13 +2164,13 @@
         <v>2.08</v>
       </c>
       <c r="J13" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="K13" t="n">
         <v>4</v>
       </c>
       <c r="L13" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="M13" t="n">
         <v>1.05</v>
@@ -2191,7 +2191,7 @@
         <v>1.45</v>
       </c>
       <c r="S13" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="T13" t="n">
         <v>1.72</v>
@@ -2200,13 +2200,13 @@
         <v>2.3</v>
       </c>
       <c r="V13" t="n">
-        <v>1.93</v>
+        <v>1.92</v>
       </c>
       <c r="W13" t="n">
         <v>1.35</v>
       </c>
       <c r="X13" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="Y13" t="n">
         <v>11</v>
@@ -2218,7 +2218,7 @@
         <v>25</v>
       </c>
       <c r="AB13" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AC13" t="n">
         <v>8.6</v>
@@ -2227,13 +2227,13 @@
         <v>10.5</v>
       </c>
       <c r="AE13" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AF13" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AG13" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AH13" t="n">
         <v>17</v>
@@ -2251,13 +2251,13 @@
         <v>48</v>
       </c>
       <c r="AM13" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AN13" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AO13" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14">
@@ -2293,16 +2293,16 @@
         <v>1.2</v>
       </c>
       <c r="H14" t="n">
-        <v>19.5</v>
+        <v>21</v>
       </c>
       <c r="I14" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J14" t="n">
-        <v>8.199999999999999</v>
+        <v>8.6</v>
       </c>
       <c r="K14" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="L14" t="n">
         <v>1.28</v>
@@ -2311,25 +2311,25 @@
         <v>1.03</v>
       </c>
       <c r="N14" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="O14" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="P14" t="n">
-        <v>2.68</v>
+        <v>2.7</v>
       </c>
       <c r="Q14" t="n">
         <v>1.56</v>
       </c>
       <c r="R14" t="n">
-        <v>1.67</v>
+        <v>1.69</v>
       </c>
       <c r="S14" t="n">
         <v>2.44</v>
       </c>
       <c r="T14" t="n">
-        <v>2.48</v>
+        <v>2.46</v>
       </c>
       <c r="U14" t="n">
         <v>1.62</v>
@@ -2341,7 +2341,7 @@
         <v>6</v>
       </c>
       <c r="X14" t="n">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="Y14" t="n">
         <v>60</v>
@@ -2353,43 +2353,43 @@
         <v>1000</v>
       </c>
       <c r="AB14" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="AC14" t="n">
-        <v>24</v>
+        <v>19.5</v>
       </c>
       <c r="AD14" t="n">
-        <v>75</v>
+        <v>400</v>
       </c>
       <c r="AE14" t="n">
-        <v>470</v>
+        <v>480</v>
       </c>
       <c r="AF14" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="AG14" t="n">
         <v>13</v>
       </c>
       <c r="AH14" t="n">
-        <v>210</v>
+        <v>50</v>
       </c>
       <c r="AI14" t="n">
-        <v>310</v>
+        <v>320</v>
       </c>
       <c r="AJ14" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AK14" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AL14" t="n">
         <v>55</v>
       </c>
       <c r="AM14" t="n">
-        <v>360</v>
+        <v>340</v>
       </c>
       <c r="AN14" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="AO14" t="n">
         <v>1000</v>
@@ -2428,16 +2428,16 @@
         <v>1.73</v>
       </c>
       <c r="H15" t="n">
-        <v>5.3</v>
+        <v>5.5</v>
       </c>
       <c r="I15" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="J15" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="K15" t="n">
         <v>4.2</v>
-      </c>
-      <c r="K15" t="n">
-        <v>4.3</v>
       </c>
       <c r="L15" t="n">
         <v>1.36</v>
@@ -2446,16 +2446,16 @@
         <v>1.06</v>
       </c>
       <c r="N15" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="O15" t="n">
         <v>1.26</v>
       </c>
       <c r="P15" t="n">
-        <v>2.22</v>
+        <v>2.18</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="R15" t="n">
         <v>1.47</v>
@@ -2464,19 +2464,19 @@
         <v>3</v>
       </c>
       <c r="T15" t="n">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="U15" t="n">
         <v>2.16</v>
       </c>
       <c r="V15" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="W15" t="n">
         <v>2.36</v>
       </c>
       <c r="X15" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="Y15" t="n">
         <v>21</v>
@@ -2488,10 +2488,10 @@
         <v>140</v>
       </c>
       <c r="AB15" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AC15" t="n">
-        <v>9.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="AD15" t="n">
         <v>20</v>
@@ -2560,7 +2560,7 @@
         <v>2.56</v>
       </c>
       <c r="G16" t="n">
-        <v>2.58</v>
+        <v>2.6</v>
       </c>
       <c r="H16" t="n">
         <v>2.88</v>
@@ -2590,7 +2590,7 @@
         <v>2.24</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="R16" t="n">
         <v>1.48</v>
@@ -2602,13 +2602,13 @@
         <v>1.65</v>
       </c>
       <c r="U16" t="n">
-        <v>2.44</v>
+        <v>2.42</v>
       </c>
       <c r="V16" t="n">
         <v>1.52</v>
       </c>
       <c r="W16" t="n">
-        <v>1.63</v>
+        <v>1.62</v>
       </c>
       <c r="X16" t="n">
         <v>17.5</v>
@@ -2635,25 +2635,25 @@
         <v>29</v>
       </c>
       <c r="AF16" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AG16" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AH16" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AI16" t="n">
         <v>36</v>
       </c>
       <c r="AJ16" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AK16" t="n">
         <v>25</v>
       </c>
       <c r="AL16" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AM16" t="n">
         <v>70</v>
@@ -2692,19 +2692,19 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="G17" t="n">
         <v>4.9</v>
       </c>
       <c r="H17" t="n">
-        <v>1.79</v>
+        <v>1.78</v>
       </c>
       <c r="I17" t="n">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="J17" t="n">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="K17" t="n">
         <v>4.4</v>
@@ -2716,16 +2716,16 @@
         <v>1.04</v>
       </c>
       <c r="N17" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="O17" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="P17" t="n">
         <v>2.4</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="R17" t="n">
         <v>1.55</v>
@@ -2740,49 +2740,49 @@
         <v>2.36</v>
       </c>
       <c r="V17" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="W17" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="X17" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Y17" t="n">
         <v>11.5</v>
       </c>
       <c r="Z17" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AA17" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AB17" t="n">
         <v>21</v>
       </c>
       <c r="AC17" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="AD17" t="n">
-        <v>10.5</v>
+        <v>9.6</v>
       </c>
       <c r="AE17" t="n">
-        <v>19.5</v>
+        <v>16.5</v>
       </c>
       <c r="AF17" t="n">
         <v>40</v>
       </c>
       <c r="AG17" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AH17" t="n">
-        <v>18.5</v>
+        <v>17.5</v>
       </c>
       <c r="AI17" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AJ17" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AK17" t="n">
         <v>55</v>
@@ -2791,10 +2791,10 @@
         <v>55</v>
       </c>
       <c r="AM17" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AN17" t="n">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="AO17" t="n">
         <v>8.6</v>
@@ -2827,22 +2827,22 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1.45</v>
+        <v>1.48</v>
       </c>
       <c r="G18" t="n">
-        <v>1.47</v>
+        <v>1.49</v>
       </c>
       <c r="H18" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="I18" t="n">
-        <v>8</v>
+        <v>7.6</v>
       </c>
       <c r="J18" t="n">
         <v>5.3</v>
       </c>
       <c r="K18" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="L18" t="n">
         <v>1.26</v>
@@ -2857,76 +2857,76 @@
         <v>1.16</v>
       </c>
       <c r="P18" t="n">
-        <v>2.92</v>
+        <v>2.88</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="R18" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="S18" t="n">
         <v>2.26</v>
       </c>
       <c r="T18" t="n">
-        <v>1.72</v>
+        <v>1.71</v>
       </c>
       <c r="U18" t="n">
         <v>2.32</v>
       </c>
       <c r="V18" t="n">
-        <v>1.14</v>
+        <v>1.15</v>
       </c>
       <c r="W18" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="X18" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Y18" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="Z18" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AA18" t="n">
         <v>210</v>
       </c>
       <c r="AB18" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AC18" t="n">
         <v>12.5</v>
       </c>
       <c r="AD18" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AE18" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="AF18" t="n">
         <v>11</v>
       </c>
       <c r="AG18" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AH18" t="n">
         <v>21</v>
       </c>
       <c r="AI18" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AJ18" t="n">
         <v>13.5</v>
       </c>
       <c r="AK18" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AL18" t="n">
         <v>25</v>
       </c>
       <c r="AM18" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AN18" t="n">
         <v>4.9</v>
@@ -2971,7 +2971,7 @@
         <v>2.36</v>
       </c>
       <c r="I19" t="n">
-        <v>2.56</v>
+        <v>2.54</v>
       </c>
       <c r="J19" t="n">
         <v>2.78</v>
@@ -2980,16 +2980,16 @@
         <v>3</v>
       </c>
       <c r="L19" t="n">
-        <v>1.59</v>
+        <v>1.71</v>
       </c>
       <c r="M19" t="n">
         <v>1.14</v>
       </c>
       <c r="N19" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="O19" t="n">
-        <v>1.74</v>
+        <v>1.73</v>
       </c>
       <c r="P19" t="n">
         <v>1.39</v>
@@ -3016,28 +3016,28 @@
         <v>1.3</v>
       </c>
       <c r="X19" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="Y19" t="n">
-        <v>7.6</v>
+        <v>7.2</v>
       </c>
       <c r="Z19" t="n">
         <v>16.5</v>
       </c>
       <c r="AA19" t="n">
-        <v>980</v>
+        <v>48</v>
       </c>
       <c r="AB19" t="n">
         <v>11.5</v>
       </c>
       <c r="AC19" t="n">
-        <v>8.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD19" t="n">
         <v>16.5</v>
       </c>
       <c r="AE19" t="n">
-        <v>980</v>
+        <v>55</v>
       </c>
       <c r="AF19" t="n">
         <v>34</v>
@@ -3049,7 +3049,7 @@
         <v>36</v>
       </c>
       <c r="AI19" t="n">
-        <v>110</v>
+        <v>480</v>
       </c>
       <c r="AJ19" t="n">
         <v>130</v>
@@ -3058,16 +3058,16 @@
         <v>110</v>
       </c>
       <c r="AL19" t="n">
-        <v>160</v>
+        <v>500</v>
       </c>
       <c r="AM19" t="n">
-        <v>360</v>
+        <v>500</v>
       </c>
       <c r="AN19" t="n">
+        <v>500</v>
+      </c>
+      <c r="AO19" t="n">
         <v>180</v>
-      </c>
-      <c r="AO19" t="n">
-        <v>980</v>
       </c>
     </row>
     <row r="20">
@@ -3097,7 +3097,7 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>2.5</v>
+        <v>2.48</v>
       </c>
       <c r="G20" t="n">
         <v>2.52</v>
@@ -3106,7 +3106,7 @@
         <v>2.8</v>
       </c>
       <c r="I20" t="n">
-        <v>2.82</v>
+        <v>2.84</v>
       </c>
       <c r="J20" t="n">
         <v>4</v>
@@ -3133,10 +3133,10 @@
         <v>1.62</v>
       </c>
       <c r="R20" t="n">
-        <v>1.62</v>
+        <v>1.61</v>
       </c>
       <c r="S20" t="n">
-        <v>2.54</v>
+        <v>2.56</v>
       </c>
       <c r="T20" t="n">
         <v>1.58</v>
@@ -3262,19 +3262,19 @@
         <v>1.32</v>
       </c>
       <c r="P21" t="n">
-        <v>2</v>
+        <v>1.99</v>
       </c>
       <c r="Q21" t="n">
         <v>1.97</v>
       </c>
       <c r="R21" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="S21" t="n">
         <v>3.55</v>
       </c>
       <c r="T21" t="n">
-        <v>1.96</v>
+        <v>1.97</v>
       </c>
       <c r="U21" t="n">
         <v>1.97</v>
@@ -3301,7 +3301,7 @@
         <v>8.4</v>
       </c>
       <c r="AC21" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="AD21" t="n">
         <v>23</v>
@@ -3319,7 +3319,7 @@
         <v>22</v>
       </c>
       <c r="AI21" t="n">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="AJ21" t="n">
         <v>16</v>
@@ -3373,7 +3373,7 @@
         <v>2.92</v>
       </c>
       <c r="H22" t="n">
-        <v>2.72</v>
+        <v>2.74</v>
       </c>
       <c r="I22" t="n">
         <v>2.76</v>
@@ -3388,16 +3388,16 @@
         <v>1.43</v>
       </c>
       <c r="M22" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N22" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="O22" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="P22" t="n">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="Q22" t="n">
         <v>2.06</v>
@@ -3406,10 +3406,10 @@
         <v>1.35</v>
       </c>
       <c r="S22" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="T22" t="n">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
       <c r="U22" t="n">
         <v>2.18</v>
@@ -3451,7 +3451,7 @@
         <v>12.5</v>
       </c>
       <c r="AH22" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AI22" t="n">
         <v>42</v>
@@ -3466,7 +3466,7 @@
         <v>44</v>
       </c>
       <c r="AM22" t="n">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="AN22" t="n">
         <v>28</v>
@@ -3502,16 +3502,16 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="G23" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="H23" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="I23" t="n">
         <v>3.7</v>
-      </c>
-      <c r="I23" t="n">
-        <v>3.75</v>
       </c>
       <c r="J23" t="n">
         <v>3.75</v>
@@ -3547,13 +3547,13 @@
         <v>1.72</v>
       </c>
       <c r="U23" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="V23" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="W23" t="n">
-        <v>1.86</v>
+        <v>1.84</v>
       </c>
       <c r="X23" t="n">
         <v>17.5</v>
@@ -3637,22 +3637,22 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="G24" t="n">
-        <v>1.96</v>
+        <v>2.02</v>
       </c>
       <c r="H24" t="n">
+        <v>4</v>
+      </c>
+      <c r="I24" t="n">
         <v>4.1</v>
       </c>
-      <c r="I24" t="n">
-        <v>4.3</v>
-      </c>
       <c r="J24" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="K24" t="n">
         <v>4</v>
-      </c>
-      <c r="K24" t="n">
-        <v>4.2</v>
       </c>
       <c r="L24" t="n">
         <v>1.33</v>
@@ -3667,55 +3667,55 @@
         <v>1.23</v>
       </c>
       <c r="P24" t="n">
-        <v>2.42</v>
+        <v>2.38</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.68</v>
+        <v>1.7</v>
       </c>
       <c r="R24" t="n">
         <v>1.54</v>
       </c>
       <c r="S24" t="n">
-        <v>2.74</v>
+        <v>2.76</v>
       </c>
       <c r="T24" t="n">
         <v>1.65</v>
       </c>
       <c r="U24" t="n">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
       <c r="V24" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="W24" t="n">
-        <v>2.04</v>
+        <v>1.98</v>
       </c>
       <c r="X24" t="n">
         <v>21</v>
       </c>
       <c r="Y24" t="n">
-        <v>20</v>
+        <v>18.5</v>
       </c>
       <c r="Z24" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AA24" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AB24" t="n">
         <v>12</v>
       </c>
       <c r="AC24" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="AD24" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="AE24" t="n">
         <v>44</v>
       </c>
       <c r="AF24" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AG24" t="n">
         <v>10</v>
@@ -3727,10 +3727,10 @@
         <v>46</v>
       </c>
       <c r="AJ24" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AK24" t="n">
-        <v>17.5</v>
+        <v>18.5</v>
       </c>
       <c r="AL24" t="n">
         <v>28</v>
@@ -3739,7 +3739,7 @@
         <v>70</v>
       </c>
       <c r="AN24" t="n">
-        <v>9.800000000000001</v>
+        <v>10.5</v>
       </c>
       <c r="AO24" t="n">
         <v>34</v>
@@ -3778,19 +3778,19 @@
         <v>2.46</v>
       </c>
       <c r="H25" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="I25" t="n">
         <v>3.3</v>
       </c>
       <c r="J25" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="K25" t="n">
         <v>3.6</v>
       </c>
       <c r="L25" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="M25" t="n">
         <v>1.07</v>
@@ -3799,19 +3799,19 @@
         <v>4</v>
       </c>
       <c r="O25" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="P25" t="n">
         <v>2</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.96</v>
+        <v>1.97</v>
       </c>
       <c r="R25" t="n">
         <v>1.38</v>
       </c>
       <c r="S25" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="T25" t="n">
         <v>1.77</v>
@@ -3820,13 +3820,13 @@
         <v>2.22</v>
       </c>
       <c r="V25" t="n">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="W25" t="n">
         <v>1.68</v>
       </c>
       <c r="X25" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="Y25" t="n">
         <v>13</v>
@@ -3838,7 +3838,7 @@
         <v>55</v>
       </c>
       <c r="AB25" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AC25" t="n">
         <v>7.8</v>
@@ -3847,10 +3847,10 @@
         <v>14</v>
       </c>
       <c r="AE25" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AF25" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AG25" t="n">
         <v>11.5</v>
@@ -3859,7 +3859,7 @@
         <v>17</v>
       </c>
       <c r="AI25" t="n">
-        <v>46</v>
+        <v>150</v>
       </c>
       <c r="AJ25" t="n">
         <v>36</v>
@@ -3907,7 +3907,7 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="G26" t="n">
         <v>2.46</v>
@@ -3916,7 +3916,7 @@
         <v>3.2</v>
       </c>
       <c r="I26" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="J26" t="n">
         <v>3.5</v>
@@ -3949,7 +3949,7 @@
         <v>3.45</v>
       </c>
       <c r="T26" t="n">
-        <v>1.76</v>
+        <v>1.78</v>
       </c>
       <c r="U26" t="n">
         <v>2.24</v>
@@ -3985,7 +3985,7 @@
         <v>36</v>
       </c>
       <c r="AF26" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AG26" t="n">
         <v>11.5</v>
@@ -4051,13 +4051,13 @@
         <v>3.9</v>
       </c>
       <c r="I27" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="J27" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="K27" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="L27" t="n">
         <v>1.38</v>
@@ -4066,7 +4066,7 @@
         <v>1.06</v>
       </c>
       <c r="N27" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="O27" t="n">
         <v>1.28</v>
@@ -4075,7 +4075,7 @@
         <v>2.14</v>
       </c>
       <c r="Q27" t="n">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="R27" t="n">
         <v>1.43</v>
@@ -4084,10 +4084,10 @@
         <v>3.15</v>
       </c>
       <c r="T27" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="U27" t="n">
-        <v>2.26</v>
+        <v>2.24</v>
       </c>
       <c r="V27" t="n">
         <v>1.33</v>
@@ -4099,10 +4099,10 @@
         <v>17</v>
       </c>
       <c r="Y27" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="Z27" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AA27" t="n">
         <v>80</v>
@@ -4123,7 +4123,7 @@
         <v>13</v>
       </c>
       <c r="AG27" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AH27" t="n">
         <v>17.5</v>
@@ -4147,7 +4147,7 @@
         <v>13</v>
       </c>
       <c r="AO27" t="n">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="28">
@@ -4177,7 +4177,7 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>2.72</v>
+        <v>2.74</v>
       </c>
       <c r="G28" t="n">
         <v>2.88</v>
@@ -4204,7 +4204,7 @@
         <v>2.66</v>
       </c>
       <c r="O28" t="n">
-        <v>1.56</v>
+        <v>1.55</v>
       </c>
       <c r="P28" t="n">
         <v>1.55</v>
@@ -4240,7 +4240,7 @@
         <v>25</v>
       </c>
       <c r="AA28" t="n">
-        <v>400</v>
+        <v>390</v>
       </c>
       <c r="AB28" t="n">
         <v>8.4</v>
@@ -4249,10 +4249,10 @@
         <v>7</v>
       </c>
       <c r="AD28" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AE28" t="n">
-        <v>180</v>
+        <v>970</v>
       </c>
       <c r="AF28" t="n">
         <v>19.5</v>
@@ -4264,7 +4264,7 @@
         <v>23</v>
       </c>
       <c r="AI28" t="n">
-        <v>75</v>
+        <v>500</v>
       </c>
       <c r="AJ28" t="n">
         <v>970</v>
@@ -4312,16 +4312,16 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>2.82</v>
+        <v>2.86</v>
       </c>
       <c r="G29" t="n">
-        <v>2.88</v>
+        <v>2.92</v>
       </c>
       <c r="H29" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="I29" t="n">
         <v>2.66</v>
-      </c>
-      <c r="I29" t="n">
-        <v>2.72</v>
       </c>
       <c r="J29" t="n">
         <v>3.6</v>
@@ -4351,19 +4351,19 @@
         <v>1.42</v>
       </c>
       <c r="S29" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="T29" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="U29" t="n">
         <v>2.32</v>
       </c>
       <c r="V29" t="n">
-        <v>1.58</v>
+        <v>1.6</v>
       </c>
       <c r="W29" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="X29" t="n">
         <v>16</v>
@@ -4381,7 +4381,7 @@
         <v>13</v>
       </c>
       <c r="AC29" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="AD29" t="n">
         <v>12</v>
@@ -4390,7 +4390,7 @@
         <v>27</v>
       </c>
       <c r="AF29" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AG29" t="n">
         <v>13</v>
@@ -4453,7 +4453,7 @@
         <v>3.2</v>
       </c>
       <c r="H30" t="n">
-        <v>2.98</v>
+        <v>2.96</v>
       </c>
       <c r="I30" t="n">
         <v>3.2</v>
@@ -4462,7 +4462,7 @@
         <v>2.76</v>
       </c>
       <c r="K30" t="n">
-        <v>2.9</v>
+        <v>2.92</v>
       </c>
       <c r="L30" t="n">
         <v>1.71</v>
@@ -4471,7 +4471,7 @@
         <v>1.18</v>
       </c>
       <c r="N30" t="n">
-        <v>2.22</v>
+        <v>2.18</v>
       </c>
       <c r="O30" t="n">
         <v>1.75</v>
@@ -4498,7 +4498,7 @@
         <v>1.46</v>
       </c>
       <c r="W30" t="n">
-        <v>1.46</v>
+        <v>1.45</v>
       </c>
       <c r="X30" t="n">
         <v>6.4</v>
@@ -4510,7 +4510,7 @@
         <v>18</v>
       </c>
       <c r="AA30" t="n">
-        <v>380</v>
+        <v>390</v>
       </c>
       <c r="AB30" t="n">
         <v>8</v>
@@ -4534,7 +4534,7 @@
         <v>60</v>
       </c>
       <c r="AI30" t="n">
-        <v>110</v>
+        <v>500</v>
       </c>
       <c r="AJ30" t="n">
         <v>440</v>
@@ -4543,13 +4543,13 @@
         <v>420</v>
       </c>
       <c r="AL30" t="n">
-        <v>110</v>
+        <v>500</v>
       </c>
       <c r="AM30" t="n">
-        <v>330</v>
+        <v>500</v>
       </c>
       <c r="AN30" t="n">
-        <v>90</v>
+        <v>500</v>
       </c>
       <c r="AO30" t="n">
         <v>1000</v>
@@ -4852,7 +4852,7 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="G33" t="n">
         <v>2.36</v>
@@ -4867,7 +4867,7 @@
         <v>2.9</v>
       </c>
       <c r="K33" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="L33" t="n">
         <v>1.61</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-22.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-22.xlsx
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.63</v>
+        <v>1.59</v>
       </c>
       <c r="G2" t="n">
         <v>1.68</v>
@@ -682,10 +682,10 @@
         <v>4.2</v>
       </c>
       <c r="K2" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="L2" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="M2" t="n">
         <v>1.05</v>
@@ -694,25 +694,25 @@
         <v>4</v>
       </c>
       <c r="O2" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="P2" t="n">
         <v>2.06</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.81</v>
+        <v>1.79</v>
       </c>
       <c r="R2" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="S2" t="n">
         <v>3.1</v>
       </c>
       <c r="T2" t="n">
-        <v>1.84</v>
+        <v>1.79</v>
       </c>
       <c r="U2" t="n">
-        <v>2</v>
+        <v>2.04</v>
       </c>
       <c r="V2" t="n">
         <v>1.17</v>
@@ -745,28 +745,28 @@
         <v>110</v>
       </c>
       <c r="AF2" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AG2" t="n">
-        <v>11.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AH2" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AI2" t="n">
-        <v>90</v>
+        <v>200</v>
       </c>
       <c r="AJ2" t="n">
         <v>19.5</v>
       </c>
       <c r="AK2" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AL2" t="n">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="AM2" t="n">
-        <v>150</v>
+        <v>580</v>
       </c>
       <c r="AN2" t="n">
         <v>11.5</v>
@@ -802,22 +802,22 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>2.26</v>
+        <v>2.3</v>
       </c>
       <c r="G3" t="n">
-        <v>2.52</v>
+        <v>2.6</v>
       </c>
       <c r="H3" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="I3" t="n">
         <v>4.9</v>
       </c>
       <c r="J3" t="n">
-        <v>2.62</v>
+        <v>2.56</v>
       </c>
       <c r="K3" t="n">
-        <v>2.84</v>
+        <v>2.88</v>
       </c>
       <c r="L3" t="n">
         <v>1.71</v>
@@ -829,10 +829,10 @@
         <v>2.06</v>
       </c>
       <c r="O3" t="n">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="P3" t="n">
-        <v>1.4</v>
+        <v>1.32</v>
       </c>
       <c r="Q3" t="n">
         <v>3.4</v>
@@ -844,28 +844,28 @@
         <v>7.6</v>
       </c>
       <c r="T3" t="n">
-        <v>2.48</v>
+        <v>2.4</v>
       </c>
       <c r="U3" t="n">
-        <v>1.54</v>
+        <v>1.56</v>
       </c>
       <c r="V3" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="W3" t="n">
-        <v>1.66</v>
+        <v>1.62</v>
       </c>
       <c r="X3" t="n">
         <v>5.9</v>
       </c>
       <c r="Y3" t="n">
-        <v>10.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Z3" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AA3" t="n">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="AB3" t="n">
         <v>6.8</v>
@@ -874,10 +874,10 @@
         <v>7</v>
       </c>
       <c r="AD3" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AE3" t="n">
-        <v>130</v>
+        <v>290</v>
       </c>
       <c r="AF3" t="n">
         <v>14</v>
@@ -886,10 +886,10 @@
         <v>16</v>
       </c>
       <c r="AH3" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AI3" t="n">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="AJ3" t="n">
         <v>40</v>
@@ -907,7 +907,7 @@
         <v>60</v>
       </c>
       <c r="AO3" t="n">
-        <v>270</v>
+        <v>250</v>
       </c>
     </row>
     <row r="4">
@@ -937,10 +937,10 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.49</v>
+        <v>1.51</v>
       </c>
       <c r="G4" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="H4" t="n">
         <v>5.9</v>
@@ -970,34 +970,34 @@
         <v>2.38</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="R4" t="n">
         <v>1.54</v>
       </c>
       <c r="S4" t="n">
-        <v>2.52</v>
+        <v>2.48</v>
       </c>
       <c r="T4" t="n">
         <v>1.7</v>
       </c>
       <c r="U4" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="V4" t="n">
         <v>1.17</v>
       </c>
       <c r="W4" t="n">
-        <v>2.54</v>
+        <v>2.6</v>
       </c>
       <c r="X4" t="n">
         <v>970</v>
       </c>
       <c r="Y4" t="n">
-        <v>970</v>
+        <v>48</v>
       </c>
       <c r="Z4" t="n">
-        <v>55</v>
+        <v>130</v>
       </c>
       <c r="AA4" t="n">
         <v>160</v>
@@ -1009,13 +1009,13 @@
         <v>12</v>
       </c>
       <c r="AD4" t="n">
-        <v>970</v>
+        <v>46</v>
       </c>
       <c r="AE4" t="n">
-        <v>80</v>
+        <v>190</v>
       </c>
       <c r="AF4" t="n">
-        <v>13.5</v>
+        <v>24</v>
       </c>
       <c r="AG4" t="n">
         <v>11.5</v>
@@ -1024,7 +1024,7 @@
         <v>21</v>
       </c>
       <c r="AI4" t="n">
-        <v>70</v>
+        <v>170</v>
       </c>
       <c r="AJ4" t="n">
         <v>19</v>
@@ -1033,7 +1033,7 @@
         <v>17.5</v>
       </c>
       <c r="AL4" t="n">
-        <v>970</v>
+        <v>80</v>
       </c>
       <c r="AM4" t="n">
         <v>95</v>
@@ -1084,13 +1084,13 @@
         <v>5.5</v>
       </c>
       <c r="J5" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="K5" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="L5" t="n">
-        <v>1.64</v>
+        <v>1.57</v>
       </c>
       <c r="M5" t="n">
         <v>1.13</v>
@@ -1105,7 +1105,7 @@
         <v>1.46</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.84</v>
+        <v>2.86</v>
       </c>
       <c r="R5" t="n">
         <v>1.15</v>
@@ -1135,7 +1135,7 @@
         <v>980</v>
       </c>
       <c r="AA5" t="n">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="AB5" t="n">
         <v>6.6</v>
@@ -1156,7 +1156,7 @@
         <v>13.5</v>
       </c>
       <c r="AH5" t="n">
-        <v>980</v>
+        <v>110</v>
       </c>
       <c r="AI5" t="n">
         <v>500</v>
@@ -1165,10 +1165,10 @@
         <v>29</v>
       </c>
       <c r="AK5" t="n">
-        <v>980</v>
+        <v>80</v>
       </c>
       <c r="AL5" t="n">
-        <v>80</v>
+        <v>460</v>
       </c>
       <c r="AM5" t="n">
         <v>500</v>
@@ -1207,19 +1207,19 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.86</v>
+        <v>2.88</v>
       </c>
       <c r="G6" t="n">
         <v>3</v>
       </c>
       <c r="H6" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="I6" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="J6" t="n">
-        <v>2.92</v>
+        <v>2.96</v>
       </c>
       <c r="K6" t="n">
         <v>3</v>
@@ -1228,16 +1228,16 @@
         <v>1.62</v>
       </c>
       <c r="M6" t="n">
-        <v>1.12</v>
+        <v>1.14</v>
       </c>
       <c r="N6" t="n">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="O6" t="n">
         <v>1.6</v>
       </c>
       <c r="P6" t="n">
-        <v>1.49</v>
+        <v>1.53</v>
       </c>
       <c r="Q6" t="n">
         <v>2.78</v>
@@ -1252,7 +1252,7 @@
         <v>2.16</v>
       </c>
       <c r="U6" t="n">
-        <v>1.74</v>
+        <v>1.76</v>
       </c>
       <c r="V6" t="n">
         <v>1.46</v>
@@ -1276,7 +1276,7 @@
         <v>9.4</v>
       </c>
       <c r="AC6" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="AD6" t="n">
         <v>17</v>
@@ -1294,7 +1294,7 @@
         <v>28</v>
       </c>
       <c r="AI6" t="n">
-        <v>460</v>
+        <v>230</v>
       </c>
       <c r="AJ6" t="n">
         <v>65</v>
@@ -1303,7 +1303,7 @@
         <v>60</v>
       </c>
       <c r="AL6" t="n">
-        <v>460</v>
+        <v>230</v>
       </c>
       <c r="AM6" t="n">
         <v>500</v>
@@ -1342,22 +1342,22 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.73</v>
+        <v>1.68</v>
       </c>
       <c r="G7" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="H7" t="n">
-        <v>4.9</v>
+        <v>5.2</v>
       </c>
       <c r="I7" t="n">
-        <v>5.4</v>
+        <v>5.8</v>
       </c>
       <c r="J7" t="n">
-        <v>3.85</v>
+        <v>3.95</v>
       </c>
       <c r="K7" t="n">
-        <v>4.2</v>
+        <v>4.4</v>
       </c>
       <c r="L7" t="n">
         <v>1.41</v>
@@ -1381,19 +1381,19 @@
         <v>1.35</v>
       </c>
       <c r="S7" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="T7" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="U7" t="n">
-        <v>1.98</v>
+        <v>1.96</v>
       </c>
       <c r="V7" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="W7" t="n">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="X7" t="n">
         <v>17</v>
@@ -1405,10 +1405,10 @@
         <v>50</v>
       </c>
       <c r="AA7" t="n">
-        <v>160</v>
+        <v>900</v>
       </c>
       <c r="AB7" t="n">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="AC7" t="n">
         <v>10.5</v>
@@ -1417,19 +1417,19 @@
         <v>23</v>
       </c>
       <c r="AE7" t="n">
-        <v>75</v>
+        <v>190</v>
       </c>
       <c r="AF7" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AG7" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AH7" t="n">
         <v>24</v>
       </c>
       <c r="AI7" t="n">
-        <v>75</v>
+        <v>190</v>
       </c>
       <c r="AJ7" t="n">
         <v>22</v>
@@ -1441,10 +1441,10 @@
         <v>44</v>
       </c>
       <c r="AM7" t="n">
-        <v>140</v>
+        <v>580</v>
       </c>
       <c r="AN7" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AO7" t="n">
         <v>300</v>
@@ -1489,10 +1489,10 @@
         <v>22</v>
       </c>
       <c r="J8" t="n">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="K8" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="L8" t="n">
         <v>1.01</v>
@@ -1501,31 +1501,31 @@
         <v>1.02</v>
       </c>
       <c r="N8" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="O8" t="n">
         <v>1.13</v>
       </c>
       <c r="P8" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="R8" t="n">
-        <v>1.83</v>
+        <v>1.86</v>
       </c>
       <c r="S8" t="n">
-        <v>2.08</v>
+        <v>1.96</v>
       </c>
       <c r="T8" t="n">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="U8" t="n">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="V8" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="W8" t="n">
         <v>5.6</v>
@@ -1537,7 +1537,7 @@
         <v>75</v>
       </c>
       <c r="Z8" t="n">
-        <v>200</v>
+        <v>230</v>
       </c>
       <c r="AA8" t="n">
         <v>1000</v>
@@ -1549,31 +1549,31 @@
         <v>24</v>
       </c>
       <c r="AD8" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AE8" t="n">
-        <v>290</v>
+        <v>330</v>
       </c>
       <c r="AF8" t="n">
         <v>11</v>
       </c>
       <c r="AG8" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AH8" t="n">
         <v>980</v>
       </c>
       <c r="AI8" t="n">
-        <v>200</v>
+        <v>230</v>
       </c>
       <c r="AJ8" t="n">
         <v>9.800000000000001</v>
       </c>
       <c r="AK8" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="AL8" t="n">
-        <v>980</v>
+        <v>44</v>
       </c>
       <c r="AM8" t="n">
         <v>200</v>
@@ -1582,7 +1582,7 @@
         <v>3.85</v>
       </c>
       <c r="AO8" t="n">
-        <v>410</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="9">
@@ -1615,55 +1615,55 @@
         <v>2.38</v>
       </c>
       <c r="G9" t="n">
-        <v>2.64</v>
+        <v>2.6</v>
       </c>
       <c r="H9" t="n">
         <v>2.62</v>
       </c>
       <c r="I9" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="J9" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="K9" t="n">
         <v>4.6</v>
       </c>
       <c r="L9" t="n">
-        <v>1.24</v>
+        <v>1.21</v>
       </c>
       <c r="M9" t="n">
         <v>1.02</v>
       </c>
       <c r="N9" t="n">
-        <v>6.4</v>
+        <v>7</v>
       </c>
       <c r="O9" t="n">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="P9" t="n">
-        <v>2.88</v>
+        <v>3.05</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.45</v>
+        <v>1.39</v>
       </c>
       <c r="R9" t="n">
-        <v>1.76</v>
+        <v>1.81</v>
       </c>
       <c r="S9" t="n">
-        <v>2.12</v>
+        <v>2.02</v>
       </c>
       <c r="T9" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="U9" t="n">
-        <v>2.84</v>
+        <v>3</v>
       </c>
       <c r="V9" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="W9" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="X9" t="n">
         <v>38</v>
@@ -1675,10 +1675,10 @@
         <v>29</v>
       </c>
       <c r="AA9" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AB9" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AC9" t="n">
         <v>13</v>
@@ -1690,7 +1690,7 @@
         <v>980</v>
       </c>
       <c r="AF9" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AG9" t="n">
         <v>14.5</v>
@@ -1702,7 +1702,7 @@
         <v>32</v>
       </c>
       <c r="AJ9" t="n">
-        <v>38</v>
+        <v>95</v>
       </c>
       <c r="AK9" t="n">
         <v>25</v>
@@ -1711,13 +1711,13 @@
         <v>30</v>
       </c>
       <c r="AM9" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AN9" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AO9" t="n">
-        <v>15.5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10">
@@ -1747,22 +1747,22 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="G10" t="n">
         <v>4.7</v>
       </c>
       <c r="H10" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="I10" t="n">
         <v>1.96</v>
-      </c>
-      <c r="I10" t="n">
-        <v>1.97</v>
       </c>
       <c r="J10" t="n">
         <v>3.65</v>
       </c>
       <c r="K10" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="L10" t="n">
         <v>1.46</v>
@@ -1777,25 +1777,25 @@
         <v>1.38</v>
       </c>
       <c r="P10" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="R10" t="n">
-        <v>1.32</v>
+        <v>1.3</v>
       </c>
       <c r="S10" t="n">
         <v>4</v>
       </c>
       <c r="T10" t="n">
-        <v>1.98</v>
+        <v>1.97</v>
       </c>
       <c r="U10" t="n">
-        <v>1.96</v>
+        <v>1.97</v>
       </c>
       <c r="V10" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="W10" t="n">
         <v>1.27</v>
@@ -1807,7 +1807,7 @@
         <v>8.199999999999999</v>
       </c>
       <c r="Z10" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AA10" t="n">
         <v>22</v>
@@ -1849,7 +1849,7 @@
         <v>130</v>
       </c>
       <c r="AN10" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AO10" t="n">
         <v>16</v>
@@ -1882,37 +1882,37 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="G11" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="H11" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="I11" t="n">
         <v>2.28</v>
       </c>
-      <c r="I11" t="n">
-        <v>2.32</v>
-      </c>
       <c r="J11" t="n">
-        <v>3.75</v>
+        <v>3.85</v>
       </c>
       <c r="K11" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="L11" t="n">
         <v>1.35</v>
       </c>
       <c r="M11" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N11" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="O11" t="n">
         <v>1.25</v>
       </c>
       <c r="P11" t="n">
-        <v>2.28</v>
+        <v>2.24</v>
       </c>
       <c r="Q11" t="n">
         <v>1.76</v>
@@ -1921,34 +1921,34 @@
         <v>1.5</v>
       </c>
       <c r="S11" t="n">
-        <v>2.88</v>
+        <v>2.92</v>
       </c>
       <c r="T11" t="n">
-        <v>1.64</v>
+        <v>1.66</v>
       </c>
       <c r="U11" t="n">
-        <v>2.48</v>
+        <v>2.44</v>
       </c>
       <c r="V11" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="W11" t="n">
-        <v>1.43</v>
+        <v>1.41</v>
       </c>
       <c r="X11" t="n">
-        <v>19.5</v>
+        <v>17.5</v>
       </c>
       <c r="Y11" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Z11" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="AA11" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AB11" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AC11" t="n">
         <v>8.4</v>
@@ -1960,10 +1960,10 @@
         <v>22</v>
       </c>
       <c r="AF11" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AG11" t="n">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="AH11" t="n">
         <v>15.5</v>
@@ -1981,13 +1981,13 @@
         <v>40</v>
       </c>
       <c r="AM11" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AN11" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AO11" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12">
@@ -2017,22 +2017,22 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.7</v>
+        <v>2.62</v>
       </c>
       <c r="G12" t="n">
-        <v>2.72</v>
+        <v>2.64</v>
       </c>
       <c r="H12" t="n">
-        <v>2.8</v>
+        <v>2.86</v>
       </c>
       <c r="I12" t="n">
-        <v>2.82</v>
+        <v>2.88</v>
       </c>
       <c r="J12" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="K12" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="L12" t="n">
         <v>1.37</v>
@@ -2041,16 +2041,16 @@
         <v>1.06</v>
       </c>
       <c r="N12" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="O12" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="P12" t="n">
         <v>2.12</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="R12" t="n">
         <v>1.44</v>
@@ -2059,16 +2059,16 @@
         <v>3.15</v>
       </c>
       <c r="T12" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="U12" t="n">
-        <v>2.36</v>
+        <v>2.34</v>
       </c>
       <c r="V12" t="n">
-        <v>1.54</v>
+        <v>1.53</v>
       </c>
       <c r="W12" t="n">
-        <v>1.58</v>
+        <v>1.6</v>
       </c>
       <c r="X12" t="n">
         <v>16.5</v>
@@ -2077,10 +2077,10 @@
         <v>13.5</v>
       </c>
       <c r="Z12" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AA12" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AB12" t="n">
         <v>13</v>
@@ -2113,16 +2113,16 @@
         <v>28</v>
       </c>
       <c r="AL12" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AM12" t="n">
         <v>75</v>
       </c>
       <c r="AN12" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AO12" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13">
@@ -2152,10 +2152,10 @@
         </is>
       </c>
       <c r="F13" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="G13" t="n">
         <v>3.8</v>
-      </c>
-      <c r="G13" t="n">
-        <v>3.85</v>
       </c>
       <c r="H13" t="n">
         <v>2.06</v>
@@ -2164,7 +2164,7 @@
         <v>2.08</v>
       </c>
       <c r="J13" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="K13" t="n">
         <v>4</v>
@@ -2188,7 +2188,7 @@
         <v>1.82</v>
       </c>
       <c r="R13" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="S13" t="n">
         <v>3.1</v>
@@ -2197,7 +2197,7 @@
         <v>1.72</v>
       </c>
       <c r="U13" t="n">
-        <v>2.3</v>
+        <v>2.34</v>
       </c>
       <c r="V13" t="n">
         <v>1.92</v>
@@ -2206,7 +2206,7 @@
         <v>1.35</v>
       </c>
       <c r="X13" t="n">
-        <v>17.5</v>
+        <v>18.5</v>
       </c>
       <c r="Y13" t="n">
         <v>11</v>
@@ -2221,7 +2221,7 @@
         <v>16</v>
       </c>
       <c r="AC13" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="AD13" t="n">
         <v>10.5</v>
@@ -2245,13 +2245,13 @@
         <v>75</v>
       </c>
       <c r="AK13" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AL13" t="n">
         <v>48</v>
       </c>
       <c r="AM13" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AN13" t="n">
         <v>36</v>
@@ -2287,61 +2287,61 @@
         </is>
       </c>
       <c r="F14" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="G14" t="n">
         <v>1.19</v>
-      </c>
-      <c r="G14" t="n">
-        <v>1.2</v>
       </c>
       <c r="H14" t="n">
         <v>21</v>
       </c>
       <c r="I14" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J14" t="n">
         <v>8.6</v>
       </c>
       <c r="K14" t="n">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="L14" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="M14" t="n">
         <v>1.03</v>
       </c>
       <c r="N14" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="O14" t="n">
         <v>1.18</v>
       </c>
       <c r="P14" t="n">
-        <v>2.7</v>
+        <v>2.78</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.56</v>
+        <v>1.54</v>
       </c>
       <c r="R14" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="S14" t="n">
-        <v>2.44</v>
+        <v>2.38</v>
       </c>
       <c r="T14" t="n">
-        <v>2.46</v>
+        <v>2.54</v>
       </c>
       <c r="U14" t="n">
-        <v>1.62</v>
+        <v>1.61</v>
       </c>
       <c r="V14" t="n">
         <v>1.04</v>
       </c>
       <c r="W14" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="X14" t="n">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="Y14" t="n">
         <v>60</v>
@@ -2356,40 +2356,40 @@
         <v>10</v>
       </c>
       <c r="AC14" t="n">
-        <v>19.5</v>
+        <v>25</v>
       </c>
       <c r="AD14" t="n">
-        <v>400</v>
+        <v>85</v>
       </c>
       <c r="AE14" t="n">
-        <v>480</v>
+        <v>1000</v>
       </c>
       <c r="AF14" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="AG14" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AH14" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AI14" t="n">
-        <v>320</v>
+        <v>350</v>
       </c>
       <c r="AJ14" t="n">
-        <v>8.199999999999999</v>
+        <v>7.8</v>
       </c>
       <c r="AK14" t="n">
         <v>15.5</v>
       </c>
       <c r="AL14" t="n">
-        <v>55</v>
+        <v>240</v>
       </c>
       <c r="AM14" t="n">
         <v>340</v>
       </c>
       <c r="AN14" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="AO14" t="n">
         <v>1000</v>
@@ -2425,19 +2425,19 @@
         <v>1.72</v>
       </c>
       <c r="G15" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="H15" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="I15" t="n">
         <v>5.5</v>
-      </c>
-      <c r="I15" t="n">
-        <v>5.6</v>
       </c>
       <c r="J15" t="n">
         <v>4.1</v>
       </c>
       <c r="K15" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="L15" t="n">
         <v>1.36</v>
@@ -2452,37 +2452,37 @@
         <v>1.26</v>
       </c>
       <c r="P15" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="Q15" t="n">
         <v>1.8</v>
       </c>
       <c r="R15" t="n">
-        <v>1.47</v>
+        <v>1.46</v>
       </c>
       <c r="S15" t="n">
         <v>3</v>
       </c>
       <c r="T15" t="n">
-        <v>1.82</v>
+        <v>1.81</v>
       </c>
       <c r="U15" t="n">
         <v>2.16</v>
       </c>
       <c r="V15" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="W15" t="n">
-        <v>2.36</v>
+        <v>2.34</v>
       </c>
       <c r="X15" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="Y15" t="n">
         <v>21</v>
       </c>
       <c r="Z15" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AA15" t="n">
         <v>140</v>
@@ -2494,7 +2494,7 @@
         <v>9.4</v>
       </c>
       <c r="AD15" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AE15" t="n">
         <v>65</v>
@@ -2509,7 +2509,7 @@
         <v>19</v>
       </c>
       <c r="AI15" t="n">
-        <v>70</v>
+        <v>160</v>
       </c>
       <c r="AJ15" t="n">
         <v>17</v>
@@ -2527,7 +2527,7 @@
         <v>8.800000000000001</v>
       </c>
       <c r="AO15" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="16">
@@ -2557,16 +2557,16 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2.56</v>
+        <v>2.5</v>
       </c>
       <c r="G16" t="n">
-        <v>2.6</v>
+        <v>2.52</v>
       </c>
       <c r="H16" t="n">
-        <v>2.88</v>
+        <v>2.96</v>
       </c>
       <c r="I16" t="n">
-        <v>2.9</v>
+        <v>2.98</v>
       </c>
       <c r="J16" t="n">
         <v>3.7</v>
@@ -2587,43 +2587,43 @@
         <v>1.26</v>
       </c>
       <c r="P16" t="n">
-        <v>2.24</v>
+        <v>2.22</v>
       </c>
       <c r="Q16" t="n">
         <v>1.79</v>
       </c>
       <c r="R16" t="n">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="S16" t="n">
-        <v>2.98</v>
+        <v>3</v>
       </c>
       <c r="T16" t="n">
         <v>1.65</v>
       </c>
       <c r="U16" t="n">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="V16" t="n">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="W16" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="X16" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="Y16" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="Z16" t="n">
         <v>21</v>
       </c>
       <c r="AA16" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AB16" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AC16" t="n">
         <v>8.199999999999999</v>
@@ -2638,7 +2638,7 @@
         <v>18</v>
       </c>
       <c r="AG16" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AH16" t="n">
         <v>15</v>
@@ -2659,7 +2659,7 @@
         <v>70</v>
       </c>
       <c r="AN16" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AO16" t="n">
         <v>22</v>
@@ -2704,37 +2704,37 @@
         <v>1.8</v>
       </c>
       <c r="J17" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="K17" t="n">
         <v>4.3</v>
-      </c>
-      <c r="K17" t="n">
-        <v>4.4</v>
       </c>
       <c r="L17" t="n">
         <v>1.32</v>
       </c>
       <c r="M17" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N17" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="O17" t="n">
         <v>1.23</v>
       </c>
       <c r="P17" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="R17" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="S17" t="n">
-        <v>2.72</v>
+        <v>2.78</v>
       </c>
       <c r="T17" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="U17" t="n">
         <v>2.36</v>
@@ -2743,10 +2743,10 @@
         <v>2.24</v>
       </c>
       <c r="W17" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="X17" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="Y17" t="n">
         <v>11.5</v>
@@ -2770,7 +2770,7 @@
         <v>16.5</v>
       </c>
       <c r="AF17" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AG17" t="n">
         <v>18.5</v>
@@ -2827,7 +2827,7 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="G18" t="n">
         <v>1.49</v>
@@ -2836,13 +2836,13 @@
         <v>7.2</v>
       </c>
       <c r="I18" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="J18" t="n">
         <v>5.3</v>
       </c>
       <c r="K18" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="L18" t="n">
         <v>1.26</v>
@@ -2857,22 +2857,22 @@
         <v>1.16</v>
       </c>
       <c r="P18" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="R18" t="n">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="S18" t="n">
         <v>2.26</v>
       </c>
       <c r="T18" t="n">
-        <v>1.71</v>
+        <v>1.7</v>
       </c>
       <c r="U18" t="n">
-        <v>2.32</v>
+        <v>2.38</v>
       </c>
       <c r="V18" t="n">
         <v>1.15</v>
@@ -2881,7 +2881,7 @@
         <v>3.05</v>
       </c>
       <c r="X18" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="Y18" t="n">
         <v>34</v>
@@ -2890,7 +2890,7 @@
         <v>70</v>
       </c>
       <c r="AA18" t="n">
-        <v>210</v>
+        <v>1000</v>
       </c>
       <c r="AB18" t="n">
         <v>13</v>
@@ -2902,7 +2902,7 @@
         <v>27</v>
       </c>
       <c r="AE18" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AF18" t="n">
         <v>11</v>
@@ -2911,7 +2911,7 @@
         <v>10.5</v>
       </c>
       <c r="AH18" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="AI18" t="n">
         <v>70</v>
@@ -2932,7 +2932,7 @@
         <v>4.9</v>
       </c>
       <c r="AO18" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="19">
@@ -2962,22 +2962,22 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="G19" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="H19" t="n">
-        <v>2.36</v>
+        <v>2.3</v>
       </c>
       <c r="I19" t="n">
-        <v>2.54</v>
+        <v>2.48</v>
       </c>
       <c r="J19" t="n">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="K19" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="L19" t="n">
         <v>1.71</v>
@@ -2986,16 +2986,16 @@
         <v>1.14</v>
       </c>
       <c r="N19" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="O19" t="n">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="P19" t="n">
         <v>1.39</v>
       </c>
       <c r="Q19" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="R19" t="n">
         <v>1.13</v>
@@ -3010,34 +3010,34 @@
         <v>1.6</v>
       </c>
       <c r="V19" t="n">
-        <v>1.64</v>
+        <v>1.67</v>
       </c>
       <c r="W19" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="X19" t="n">
         <v>7.4</v>
       </c>
       <c r="Y19" t="n">
-        <v>7.2</v>
+        <v>7.6</v>
       </c>
       <c r="Z19" t="n">
         <v>16.5</v>
       </c>
       <c r="AA19" t="n">
-        <v>48</v>
+        <v>110</v>
       </c>
       <c r="AB19" t="n">
         <v>11.5</v>
       </c>
       <c r="AC19" t="n">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="AD19" t="n">
         <v>16.5</v>
       </c>
       <c r="AE19" t="n">
-        <v>55</v>
+        <v>120</v>
       </c>
       <c r="AF19" t="n">
         <v>34</v>
@@ -3055,7 +3055,7 @@
         <v>130</v>
       </c>
       <c r="AK19" t="n">
-        <v>110</v>
+        <v>260</v>
       </c>
       <c r="AL19" t="n">
         <v>500</v>
@@ -3097,22 +3097,22 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>2.48</v>
+        <v>2.4</v>
       </c>
       <c r="G20" t="n">
-        <v>2.52</v>
+        <v>2.42</v>
       </c>
       <c r="H20" t="n">
-        <v>2.8</v>
+        <v>2.88</v>
       </c>
       <c r="I20" t="n">
-        <v>2.84</v>
+        <v>2.94</v>
       </c>
       <c r="J20" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="K20" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="L20" t="n">
         <v>1.31</v>
@@ -3127,13 +3127,13 @@
         <v>1.2</v>
       </c>
       <c r="P20" t="n">
-        <v>2.54</v>
+        <v>2.52</v>
       </c>
       <c r="Q20" t="n">
         <v>1.62</v>
       </c>
       <c r="R20" t="n">
-        <v>1.61</v>
+        <v>1.6</v>
       </c>
       <c r="S20" t="n">
         <v>2.56</v>
@@ -3142,40 +3142,40 @@
         <v>1.58</v>
       </c>
       <c r="U20" t="n">
-        <v>2.64</v>
+        <v>2.62</v>
       </c>
       <c r="V20" t="n">
-        <v>1.54</v>
+        <v>1.52</v>
       </c>
       <c r="W20" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="X20" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="Y20" t="n">
         <v>16.5</v>
       </c>
       <c r="Z20" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AA20" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AB20" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AC20" t="n">
         <v>9.4</v>
       </c>
       <c r="AD20" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AE20" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AF20" t="n">
-        <v>19.5</v>
+        <v>18</v>
       </c>
       <c r="AG20" t="n">
         <v>12</v>
@@ -3193,7 +3193,7 @@
         <v>23</v>
       </c>
       <c r="AL20" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AM20" t="n">
         <v>60</v>
@@ -3202,7 +3202,7 @@
         <v>13.5</v>
       </c>
       <c r="AO20" t="n">
-        <v>16.5</v>
+        <v>17.5</v>
       </c>
     </row>
     <row r="21">
@@ -3232,40 +3232,40 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>1.66</v>
+        <v>1.71</v>
       </c>
       <c r="G21" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="H21" t="n">
-        <v>5.9</v>
+        <v>5.6</v>
       </c>
       <c r="I21" t="n">
-        <v>6.2</v>
+        <v>5.8</v>
       </c>
       <c r="J21" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="K21" t="n">
         <v>4.2</v>
-      </c>
-      <c r="K21" t="n">
-        <v>4.3</v>
       </c>
       <c r="L21" t="n">
         <v>1.41</v>
       </c>
       <c r="M21" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N21" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="O21" t="n">
         <v>1.32</v>
       </c>
       <c r="P21" t="n">
-        <v>1.99</v>
+        <v>1.98</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.97</v>
+        <v>1.98</v>
       </c>
       <c r="R21" t="n">
         <v>1.37</v>
@@ -3274,43 +3274,43 @@
         <v>3.55</v>
       </c>
       <c r="T21" t="n">
-        <v>1.97</v>
+        <v>1.93</v>
       </c>
       <c r="U21" t="n">
-        <v>1.97</v>
+        <v>2</v>
       </c>
       <c r="V21" t="n">
-        <v>1.19</v>
+        <v>1.21</v>
       </c>
       <c r="W21" t="n">
-        <v>2.48</v>
+        <v>2.36</v>
       </c>
       <c r="X21" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="Y21" t="n">
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
       <c r="Z21" t="n">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="AA21" t="n">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="AB21" t="n">
         <v>8.4</v>
       </c>
       <c r="AC21" t="n">
-        <v>9</v>
+        <v>8.6</v>
       </c>
       <c r="AD21" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AE21" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AF21" t="n">
-        <v>9.4</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AG21" t="n">
         <v>9.4</v>
@@ -3319,13 +3319,13 @@
         <v>22</v>
       </c>
       <c r="AI21" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="AJ21" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AK21" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AL21" t="n">
         <v>38</v>
@@ -3334,7 +3334,7 @@
         <v>130</v>
       </c>
       <c r="AN21" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AO21" t="n">
         <v>110</v>
@@ -3367,16 +3367,16 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="G22" t="n">
-        <v>2.92</v>
+        <v>2.94</v>
       </c>
       <c r="H22" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="I22" t="n">
         <v>2.74</v>
-      </c>
-      <c r="I22" t="n">
-        <v>2.76</v>
       </c>
       <c r="J22" t="n">
         <v>3.4</v>
@@ -3391,13 +3391,13 @@
         <v>1.08</v>
       </c>
       <c r="N22" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="O22" t="n">
         <v>1.34</v>
       </c>
       <c r="P22" t="n">
-        <v>1.93</v>
+        <v>1.92</v>
       </c>
       <c r="Q22" t="n">
         <v>2.06</v>
@@ -3406,7 +3406,7 @@
         <v>1.35</v>
       </c>
       <c r="S22" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="T22" t="n">
         <v>1.78</v>
@@ -3415,10 +3415,10 @@
         <v>2.18</v>
       </c>
       <c r="V22" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="W22" t="n">
-        <v>1.52</v>
+        <v>1.51</v>
       </c>
       <c r="X22" t="n">
         <v>13</v>
@@ -3430,7 +3430,7 @@
         <v>17</v>
       </c>
       <c r="AA22" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AB22" t="n">
         <v>11.5</v>
@@ -3454,10 +3454,10 @@
         <v>17</v>
       </c>
       <c r="AI22" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AJ22" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AK22" t="n">
         <v>32</v>
@@ -3469,7 +3469,7 @@
         <v>90</v>
       </c>
       <c r="AN22" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AO22" t="n">
         <v>26</v>
@@ -3529,16 +3529,16 @@
         <v>4.5</v>
       </c>
       <c r="O23" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="P23" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="Q23" t="n">
         <v>1.83</v>
       </c>
       <c r="R23" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="S23" t="n">
         <v>3.1</v>
@@ -3547,7 +3547,7 @@
         <v>1.72</v>
       </c>
       <c r="U23" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="V23" t="n">
         <v>1.37</v>
@@ -3556,7 +3556,7 @@
         <v>1.84</v>
       </c>
       <c r="X23" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="Y23" t="n">
         <v>15.5</v>
@@ -3565,13 +3565,13 @@
         <v>27</v>
       </c>
       <c r="AA23" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AB23" t="n">
         <v>11</v>
       </c>
       <c r="AC23" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD23" t="n">
         <v>15</v>
@@ -3592,7 +3592,7 @@
         <v>46</v>
       </c>
       <c r="AJ23" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AK23" t="n">
         <v>21</v>
@@ -3637,22 +3637,22 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="G24" t="n">
-        <v>2.02</v>
+        <v>1.99</v>
       </c>
       <c r="H24" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="I24" t="n">
         <v>4.1</v>
       </c>
       <c r="J24" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="K24" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="L24" t="n">
         <v>1.33</v>
@@ -3667,7 +3667,7 @@
         <v>1.23</v>
       </c>
       <c r="P24" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="Q24" t="n">
         <v>1.7</v>
@@ -3688,13 +3688,13 @@
         <v>1.32</v>
       </c>
       <c r="W24" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="X24" t="n">
         <v>21</v>
       </c>
       <c r="Y24" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="Z24" t="n">
         <v>32</v>
@@ -3709,7 +3709,7 @@
         <v>9</v>
       </c>
       <c r="AD24" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AE24" t="n">
         <v>44</v>
@@ -3742,7 +3742,7 @@
         <v>10.5</v>
       </c>
       <c r="AO24" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="25">
@@ -3775,7 +3775,7 @@
         <v>2.4</v>
       </c>
       <c r="G25" t="n">
-        <v>2.46</v>
+        <v>2.44</v>
       </c>
       <c r="H25" t="n">
         <v>3.2</v>
@@ -3784,7 +3784,7 @@
         <v>3.3</v>
       </c>
       <c r="J25" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="K25" t="n">
         <v>3.6</v>
@@ -3805,7 +3805,7 @@
         <v>2</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.97</v>
+        <v>1.96</v>
       </c>
       <c r="R25" t="n">
         <v>1.38</v>
@@ -3817,28 +3817,28 @@
         <v>1.77</v>
       </c>
       <c r="U25" t="n">
-        <v>2.22</v>
+        <v>2.26</v>
       </c>
       <c r="V25" t="n">
         <v>1.43</v>
       </c>
       <c r="W25" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="X25" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Y25" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="Z25" t="n">
         <v>23</v>
       </c>
       <c r="AA25" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AB25" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AC25" t="n">
         <v>7.8</v>
@@ -3847,7 +3847,7 @@
         <v>14</v>
       </c>
       <c r="AE25" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AF25" t="n">
         <v>16</v>
@@ -3859,7 +3859,7 @@
         <v>17</v>
       </c>
       <c r="AI25" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="AJ25" t="n">
         <v>36</v>
@@ -3913,16 +3913,16 @@
         <v>2.46</v>
       </c>
       <c r="H26" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="I26" t="n">
         <v>3.3</v>
       </c>
       <c r="J26" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="K26" t="n">
         <v>3.5</v>
-      </c>
-      <c r="K26" t="n">
-        <v>3.55</v>
       </c>
       <c r="L26" t="n">
         <v>1.41</v>
@@ -3940,22 +3940,22 @@
         <v>1.99</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.96</v>
+        <v>1.98</v>
       </c>
       <c r="R26" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="S26" t="n">
         <v>3.45</v>
       </c>
       <c r="T26" t="n">
-        <v>1.78</v>
+        <v>1.76</v>
       </c>
       <c r="U26" t="n">
         <v>2.24</v>
       </c>
       <c r="V26" t="n">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="W26" t="n">
         <v>1.68</v>
@@ -4009,7 +4009,7 @@
         <v>90</v>
       </c>
       <c r="AN26" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AO26" t="n">
         <v>32</v>
@@ -4042,19 +4042,19 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>2.04</v>
+        <v>2.08</v>
       </c>
       <c r="G27" t="n">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="H27" t="n">
-        <v>3.9</v>
+        <v>3.75</v>
       </c>
       <c r="I27" t="n">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="J27" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="K27" t="n">
         <v>3.9</v>
@@ -4072,7 +4072,7 @@
         <v>1.28</v>
       </c>
       <c r="P27" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="Q27" t="n">
         <v>1.85</v>
@@ -4081,31 +4081,31 @@
         <v>1.43</v>
       </c>
       <c r="S27" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="T27" t="n">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="U27" t="n">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="V27" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="W27" t="n">
-        <v>1.94</v>
+        <v>1.9</v>
       </c>
       <c r="X27" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="Y27" t="n">
         <v>15.5</v>
       </c>
       <c r="Z27" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AA27" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AB27" t="n">
         <v>10.5</v>
@@ -4114,13 +4114,13 @@
         <v>8.4</v>
       </c>
       <c r="AD27" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AE27" t="n">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="AF27" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AG27" t="n">
         <v>10.5</v>
@@ -4129,25 +4129,25 @@
         <v>17.5</v>
       </c>
       <c r="AI27" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AJ27" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AK27" t="n">
-        <v>19.5</v>
+        <v>21</v>
       </c>
       <c r="AL27" t="n">
         <v>32</v>
       </c>
       <c r="AM27" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AN27" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AO27" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="28">
@@ -4177,7 +4177,7 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>2.74</v>
+        <v>2.72</v>
       </c>
       <c r="G28" t="n">
         <v>2.88</v>
@@ -4189,7 +4189,7 @@
         <v>3.3</v>
       </c>
       <c r="J28" t="n">
-        <v>2.96</v>
+        <v>3</v>
       </c>
       <c r="K28" t="n">
         <v>3.1</v>
@@ -4201,46 +4201,46 @@
         <v>1.13</v>
       </c>
       <c r="N28" t="n">
-        <v>2.66</v>
+        <v>2.78</v>
       </c>
       <c r="O28" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="P28" t="n">
-        <v>1.55</v>
+        <v>1.6</v>
       </c>
       <c r="Q28" t="n">
-        <v>2.64</v>
+        <v>2.56</v>
       </c>
       <c r="R28" t="n">
-        <v>1.19</v>
+        <v>1.21</v>
       </c>
       <c r="S28" t="n">
-        <v>5.5</v>
+        <v>5.3</v>
       </c>
       <c r="T28" t="n">
-        <v>2.12</v>
+        <v>2.08</v>
       </c>
       <c r="U28" t="n">
-        <v>1.82</v>
+        <v>1.86</v>
       </c>
       <c r="V28" t="n">
         <v>1.43</v>
       </c>
       <c r="W28" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="X28" t="n">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="Y28" t="n">
         <v>9.199999999999999</v>
       </c>
       <c r="Z28" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AA28" t="n">
-        <v>390</v>
+        <v>900</v>
       </c>
       <c r="AB28" t="n">
         <v>8.4</v>
@@ -4249,40 +4249,40 @@
         <v>7</v>
       </c>
       <c r="AD28" t="n">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="AE28" t="n">
-        <v>970</v>
+        <v>120</v>
       </c>
       <c r="AF28" t="n">
-        <v>19.5</v>
+        <v>21</v>
       </c>
       <c r="AG28" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AH28" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AI28" t="n">
         <v>500</v>
       </c>
       <c r="AJ28" t="n">
-        <v>970</v>
+        <v>120</v>
       </c>
       <c r="AK28" t="n">
-        <v>970</v>
+        <v>85</v>
       </c>
       <c r="AL28" t="n">
-        <v>70</v>
+        <v>460</v>
       </c>
       <c r="AM28" t="n">
-        <v>220</v>
+        <v>200</v>
       </c>
       <c r="AN28" t="n">
         <v>970</v>
       </c>
       <c r="AO28" t="n">
-        <v>65</v>
+        <v>170</v>
       </c>
     </row>
     <row r="29">
@@ -4312,16 +4312,16 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>2.86</v>
+        <v>2.88</v>
       </c>
       <c r="G29" t="n">
-        <v>2.92</v>
+        <v>2.9</v>
       </c>
       <c r="H29" t="n">
         <v>2.64</v>
       </c>
       <c r="I29" t="n">
-        <v>2.66</v>
+        <v>2.68</v>
       </c>
       <c r="J29" t="n">
         <v>3.6</v>
@@ -4336,28 +4336,28 @@
         <v>1.06</v>
       </c>
       <c r="N29" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="O29" t="n">
         <v>1.29</v>
       </c>
       <c r="P29" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="Q29" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="R29" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="S29" t="n">
         <v>3.2</v>
       </c>
       <c r="T29" t="n">
-        <v>1.71</v>
+        <v>1.7</v>
       </c>
       <c r="U29" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="V29" t="n">
         <v>1.6</v>
@@ -4366,13 +4366,13 @@
         <v>1.52</v>
       </c>
       <c r="X29" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Y29" t="n">
         <v>12.5</v>
       </c>
       <c r="Z29" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AA29" t="n">
         <v>40</v>
@@ -4393,7 +4393,7 @@
         <v>19.5</v>
       </c>
       <c r="AG29" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AH29" t="n">
         <v>16</v>
@@ -4405,7 +4405,7 @@
         <v>44</v>
       </c>
       <c r="AK29" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AL29" t="n">
         <v>40</v>
@@ -4453,19 +4453,19 @@
         <v>3.2</v>
       </c>
       <c r="H30" t="n">
-        <v>2.96</v>
+        <v>2.98</v>
       </c>
       <c r="I30" t="n">
         <v>3.2</v>
       </c>
       <c r="J30" t="n">
-        <v>2.76</v>
+        <v>2.82</v>
       </c>
       <c r="K30" t="n">
         <v>2.92</v>
       </c>
       <c r="L30" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="M30" t="n">
         <v>1.18</v>
@@ -4480,7 +4480,7 @@
         <v>1.38</v>
       </c>
       <c r="Q30" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="R30" t="n">
         <v>1.13</v>
@@ -4489,7 +4489,7 @@
         <v>7.6</v>
       </c>
       <c r="T30" t="n">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
       <c r="U30" t="n">
         <v>1.62</v>
@@ -4498,7 +4498,7 @@
         <v>1.46</v>
       </c>
       <c r="W30" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="X30" t="n">
         <v>6.4</v>
@@ -4510,7 +4510,7 @@
         <v>18</v>
       </c>
       <c r="AA30" t="n">
-        <v>390</v>
+        <v>150</v>
       </c>
       <c r="AB30" t="n">
         <v>8</v>
@@ -4522,7 +4522,7 @@
         <v>21</v>
       </c>
       <c r="AE30" t="n">
-        <v>410</v>
+        <v>140</v>
       </c>
       <c r="AF30" t="n">
         <v>18.5</v>
@@ -4537,10 +4537,10 @@
         <v>500</v>
       </c>
       <c r="AJ30" t="n">
-        <v>440</v>
+        <v>160</v>
       </c>
       <c r="AK30" t="n">
-        <v>420</v>
+        <v>450</v>
       </c>
       <c r="AL30" t="n">
         <v>500</v>
@@ -4552,7 +4552,7 @@
         <v>500</v>
       </c>
       <c r="AO30" t="n">
-        <v>1000</v>
+        <v>250</v>
       </c>
     </row>
     <row r="31">
@@ -4585,7 +4585,7 @@
         <v>2.1</v>
       </c>
       <c r="G31" t="n">
-        <v>2.26</v>
+        <v>2.22</v>
       </c>
       <c r="H31" t="n">
         <v>4.6</v>
@@ -4594,7 +4594,7 @@
         <v>5.1</v>
       </c>
       <c r="J31" t="n">
-        <v>2.84</v>
+        <v>3</v>
       </c>
       <c r="K31" t="n">
         <v>3.1</v>
@@ -4855,7 +4855,7 @@
         <v>2.2</v>
       </c>
       <c r="G33" t="n">
-        <v>2.36</v>
+        <v>2.34</v>
       </c>
       <c r="H33" t="n">
         <v>4.2</v>
@@ -4882,7 +4882,7 @@
         <v>1.59</v>
       </c>
       <c r="P33" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="Q33" t="n">
         <v>2.74</v>
@@ -4903,7 +4903,7 @@
         <v>1.27</v>
       </c>
       <c r="W33" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="X33" t="n">
         <v>7.8</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-22.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-22.xlsx
@@ -667,25 +667,25 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.59</v>
+        <v>1.63</v>
       </c>
       <c r="G2" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="H2" t="n">
-        <v>5.9</v>
+        <v>5.7</v>
       </c>
       <c r="I2" t="n">
         <v>6.6</v>
       </c>
       <c r="J2" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="K2" t="n">
-        <v>4.8</v>
+        <v>4.6</v>
       </c>
       <c r="L2" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="M2" t="n">
         <v>1.05</v>
@@ -709,16 +709,16 @@
         <v>3.1</v>
       </c>
       <c r="T2" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="U2" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="V2" t="n">
         <v>1.17</v>
       </c>
       <c r="W2" t="n">
-        <v>2.46</v>
+        <v>2.44</v>
       </c>
       <c r="X2" t="n">
         <v>22</v>
@@ -730,7 +730,7 @@
         <v>55</v>
       </c>
       <c r="AA2" t="n">
-        <v>180</v>
+        <v>900</v>
       </c>
       <c r="AB2" t="n">
         <v>9</v>
@@ -745,19 +745,19 @@
         <v>110</v>
       </c>
       <c r="AF2" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AG2" t="n">
         <v>9.800000000000001</v>
       </c>
       <c r="AH2" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AI2" t="n">
-        <v>200</v>
+        <v>330</v>
       </c>
       <c r="AJ2" t="n">
-        <v>19.5</v>
+        <v>18</v>
       </c>
       <c r="AK2" t="n">
         <v>21</v>
@@ -769,10 +769,10 @@
         <v>580</v>
       </c>
       <c r="AN2" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AO2" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
     </row>
     <row r="3">
@@ -805,37 +805,37 @@
         <v>2.3</v>
       </c>
       <c r="G3" t="n">
-        <v>2.6</v>
+        <v>2.52</v>
       </c>
       <c r="H3" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="I3" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="J3" t="n">
-        <v>2.56</v>
+        <v>2.62</v>
       </c>
       <c r="K3" t="n">
-        <v>2.88</v>
+        <v>2.86</v>
       </c>
       <c r="L3" t="n">
-        <v>1.71</v>
+        <v>1.74</v>
       </c>
       <c r="M3" t="n">
         <v>1.2</v>
       </c>
       <c r="N3" t="n">
-        <v>2.06</v>
+        <v>2.1</v>
       </c>
       <c r="O3" t="n">
         <v>1.75</v>
       </c>
       <c r="P3" t="n">
-        <v>1.32</v>
+        <v>1.34</v>
       </c>
       <c r="Q3" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="R3" t="n">
         <v>1.12</v>
@@ -847,19 +847,19 @@
         <v>2.4</v>
       </c>
       <c r="U3" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="V3" t="n">
         <v>1.26</v>
       </c>
       <c r="W3" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="X3" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="Y3" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="Z3" t="n">
         <v>32</v>
@@ -868,13 +868,13 @@
         <v>160</v>
       </c>
       <c r="AB3" t="n">
-        <v>6.8</v>
+        <v>7.2</v>
       </c>
       <c r="AC3" t="n">
         <v>7</v>
       </c>
       <c r="AD3" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AE3" t="n">
         <v>290</v>
@@ -883,7 +883,7 @@
         <v>14</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AH3" t="n">
         <v>32</v>
@@ -907,7 +907,7 @@
         <v>60</v>
       </c>
       <c r="AO3" t="n">
-        <v>250</v>
+        <v>600</v>
       </c>
     </row>
     <row r="4">
@@ -937,7 +937,7 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="G4" t="n">
         <v>1.62</v>
@@ -955,10 +955,10 @@
         <v>5.4</v>
       </c>
       <c r="L4" t="n">
-        <v>1.24</v>
+        <v>1.29</v>
       </c>
       <c r="M4" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N4" t="n">
         <v>4.9</v>
@@ -979,7 +979,7 @@
         <v>2.48</v>
       </c>
       <c r="T4" t="n">
-        <v>1.7</v>
+        <v>1.69</v>
       </c>
       <c r="U4" t="n">
         <v>2.16</v>
@@ -1036,10 +1036,10 @@
         <v>80</v>
       </c>
       <c r="AM4" t="n">
-        <v>95</v>
+        <v>580</v>
       </c>
       <c r="AN4" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="AO4" t="n">
         <v>95</v>
@@ -1090,7 +1090,7 @@
         <v>3.5</v>
       </c>
       <c r="L5" t="n">
-        <v>1.57</v>
+        <v>1.64</v>
       </c>
       <c r="M5" t="n">
         <v>1.13</v>
@@ -1105,7 +1105,7 @@
         <v>1.46</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.86</v>
+        <v>2.88</v>
       </c>
       <c r="R5" t="n">
         <v>1.15</v>
@@ -1225,7 +1225,7 @@
         <v>3</v>
       </c>
       <c r="L6" t="n">
-        <v>1.62</v>
+        <v>1.51</v>
       </c>
       <c r="M6" t="n">
         <v>1.14</v>
@@ -1237,13 +1237,13 @@
         <v>1.6</v>
       </c>
       <c r="P6" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="Q6" t="n">
         <v>2.78</v>
       </c>
       <c r="R6" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="S6" t="n">
         <v>6</v>
@@ -1345,10 +1345,10 @@
         <v>1.68</v>
       </c>
       <c r="G7" t="n">
-        <v>1.78</v>
+        <v>1.77</v>
       </c>
       <c r="H7" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="I7" t="n">
         <v>5.8</v>
@@ -1360,7 +1360,7 @@
         <v>4.4</v>
       </c>
       <c r="L7" t="n">
-        <v>1.41</v>
+        <v>1.01</v>
       </c>
       <c r="M7" t="n">
         <v>1.07</v>
@@ -1378,7 +1378,7 @@
         <v>1.94</v>
       </c>
       <c r="R7" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="S7" t="n">
         <v>3.5</v>
@@ -1408,7 +1408,7 @@
         <v>900</v>
       </c>
       <c r="AB7" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="AC7" t="n">
         <v>10.5</v>
@@ -1432,19 +1432,19 @@
         <v>190</v>
       </c>
       <c r="AJ7" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AK7" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AL7" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AM7" t="n">
         <v>580</v>
       </c>
       <c r="AN7" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AO7" t="n">
         <v>300</v>
@@ -1477,22 +1477,22 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.17</v>
+        <v>1.19</v>
       </c>
       <c r="G8" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="H8" t="n">
-        <v>17.5</v>
+        <v>15</v>
       </c>
       <c r="I8" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="J8" t="n">
-        <v>8.4</v>
+        <v>7.6</v>
       </c>
       <c r="K8" t="n">
-        <v>10.5</v>
+        <v>9.4</v>
       </c>
       <c r="L8" t="n">
         <v>1.01</v>
@@ -1507,52 +1507,52 @@
         <v>1.13</v>
       </c>
       <c r="P8" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.4</v>
+        <v>1.35</v>
       </c>
       <c r="R8" t="n">
+        <v>2</v>
+      </c>
+      <c r="S8" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="T8" t="n">
+        <v>2</v>
+      </c>
+      <c r="U8" t="n">
         <v>1.86</v>
       </c>
-      <c r="S8" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="T8" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="U8" t="n">
-        <v>1.8</v>
-      </c>
       <c r="V8" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="W8" t="n">
-        <v>5.6</v>
+        <v>5.3</v>
       </c>
       <c r="X8" t="n">
         <v>980</v>
       </c>
       <c r="Y8" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="Z8" t="n">
-        <v>230</v>
+        <v>190</v>
       </c>
       <c r="AA8" t="n">
         <v>1000</v>
       </c>
       <c r="AB8" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AC8" t="n">
-        <v>24</v>
+        <v>980</v>
       </c>
       <c r="AD8" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AE8" t="n">
-        <v>330</v>
+        <v>260</v>
       </c>
       <c r="AF8" t="n">
         <v>11</v>
@@ -1564,22 +1564,22 @@
         <v>980</v>
       </c>
       <c r="AI8" t="n">
-        <v>230</v>
+        <v>180</v>
       </c>
       <c r="AJ8" t="n">
-        <v>9.800000000000001</v>
+        <v>10.5</v>
       </c>
       <c r="AK8" t="n">
         <v>1000</v>
       </c>
       <c r="AL8" t="n">
-        <v>44</v>
+        <v>980</v>
       </c>
       <c r="AM8" t="n">
         <v>200</v>
       </c>
       <c r="AN8" t="n">
-        <v>3.85</v>
+        <v>3.3</v>
       </c>
       <c r="AO8" t="n">
         <v>1000</v>
@@ -1612,13 +1612,13 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.38</v>
+        <v>2.36</v>
       </c>
       <c r="G9" t="n">
         <v>2.6</v>
       </c>
       <c r="H9" t="n">
-        <v>2.62</v>
+        <v>2.58</v>
       </c>
       <c r="I9" t="n">
         <v>2.88</v>
@@ -1648,10 +1648,10 @@
         <v>1.39</v>
       </c>
       <c r="R9" t="n">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="S9" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="T9" t="n">
         <v>1.41</v>
@@ -1675,7 +1675,7 @@
         <v>29</v>
       </c>
       <c r="AA9" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AB9" t="n">
         <v>22</v>
@@ -1684,7 +1684,7 @@
         <v>13</v>
       </c>
       <c r="AD9" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AE9" t="n">
         <v>980</v>
@@ -1696,13 +1696,13 @@
         <v>14.5</v>
       </c>
       <c r="AH9" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AI9" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AJ9" t="n">
-        <v>95</v>
+        <v>36</v>
       </c>
       <c r="AK9" t="n">
         <v>25</v>
@@ -1753,7 +1753,7 @@
         <v>4.7</v>
       </c>
       <c r="H10" t="n">
-        <v>1.95</v>
+        <v>1.94</v>
       </c>
       <c r="I10" t="n">
         <v>1.96</v>
@@ -1765,7 +1765,7 @@
         <v>3.7</v>
       </c>
       <c r="L10" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="M10" t="n">
         <v>1.08</v>
@@ -1828,7 +1828,7 @@
         <v>32</v>
       </c>
       <c r="AG10" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AH10" t="n">
         <v>21</v>
@@ -1843,7 +1843,7 @@
         <v>65</v>
       </c>
       <c r="AL10" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AM10" t="n">
         <v>130</v>
@@ -1888,7 +1888,7 @@
         <v>3.4</v>
       </c>
       <c r="H11" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="I11" t="n">
         <v>2.28</v>
@@ -1912,7 +1912,7 @@
         <v>1.25</v>
       </c>
       <c r="P11" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="Q11" t="n">
         <v>1.76</v>
@@ -1933,7 +1933,7 @@
         <v>1.78</v>
       </c>
       <c r="W11" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="X11" t="n">
         <v>17.5</v>
@@ -1945,7 +1945,7 @@
         <v>15.5</v>
       </c>
       <c r="AA11" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AB11" t="n">
         <v>16</v>
@@ -1963,7 +1963,7 @@
         <v>25</v>
       </c>
       <c r="AG11" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="AH11" t="n">
         <v>15.5</v>
@@ -1972,7 +1972,7 @@
         <v>32</v>
       </c>
       <c r="AJ11" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AK11" t="n">
         <v>34</v>
@@ -1984,7 +1984,7 @@
         <v>70</v>
       </c>
       <c r="AN11" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AO11" t="n">
         <v>14</v>
@@ -2023,7 +2023,7 @@
         <v>2.64</v>
       </c>
       <c r="H12" t="n">
-        <v>2.86</v>
+        <v>2.84</v>
       </c>
       <c r="I12" t="n">
         <v>2.88</v>
@@ -2044,7 +2044,7 @@
         <v>4.3</v>
       </c>
       <c r="O12" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="P12" t="n">
         <v>2.12</v>
@@ -2059,7 +2059,7 @@
         <v>3.15</v>
       </c>
       <c r="T12" t="n">
-        <v>1.69</v>
+        <v>1.68</v>
       </c>
       <c r="U12" t="n">
         <v>2.34</v>
@@ -2119,10 +2119,10 @@
         <v>75</v>
       </c>
       <c r="AN12" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AO12" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13">
@@ -2314,25 +2314,25 @@
         <v>6.2</v>
       </c>
       <c r="O14" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="P14" t="n">
         <v>2.78</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.54</v>
+        <v>1.53</v>
       </c>
       <c r="R14" t="n">
         <v>1.7</v>
       </c>
       <c r="S14" t="n">
-        <v>2.38</v>
+        <v>2.36</v>
       </c>
       <c r="T14" t="n">
-        <v>2.54</v>
+        <v>2.5</v>
       </c>
       <c r="U14" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="V14" t="n">
         <v>1.04</v>
@@ -2341,7 +2341,7 @@
         <v>6.2</v>
       </c>
       <c r="X14" t="n">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="Y14" t="n">
         <v>60</v>
@@ -2353,43 +2353,43 @@
         <v>1000</v>
       </c>
       <c r="AB14" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AC14" t="n">
-        <v>25</v>
+        <v>18.5</v>
       </c>
       <c r="AD14" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AE14" t="n">
-        <v>1000</v>
+        <v>510</v>
       </c>
       <c r="AF14" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="AG14" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AH14" t="n">
+        <v>160</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>330</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>15</v>
+      </c>
+      <c r="AL14" t="n">
         <v>55</v>
-      </c>
-      <c r="AI14" t="n">
-        <v>350</v>
-      </c>
-      <c r="AJ14" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AK14" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AL14" t="n">
-        <v>240</v>
       </c>
       <c r="AM14" t="n">
         <v>340</v>
       </c>
       <c r="AN14" t="n">
-        <v>3.55</v>
+        <v>3.45</v>
       </c>
       <c r="AO14" t="n">
         <v>1000</v>
@@ -2422,22 +2422,22 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1.72</v>
+        <v>1.74</v>
       </c>
       <c r="G15" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="H15" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="I15" t="n">
         <v>5.4</v>
-      </c>
-      <c r="I15" t="n">
-        <v>5.5</v>
       </c>
       <c r="J15" t="n">
         <v>4.1</v>
       </c>
       <c r="K15" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="L15" t="n">
         <v>1.36</v>
@@ -2449,19 +2449,19 @@
         <v>4.6</v>
       </c>
       <c r="O15" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="P15" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="R15" t="n">
         <v>1.46</v>
       </c>
       <c r="S15" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="T15" t="n">
         <v>1.81</v>
@@ -2473,28 +2473,28 @@
         <v>1.22</v>
       </c>
       <c r="W15" t="n">
-        <v>2.34</v>
+        <v>2.32</v>
       </c>
       <c r="X15" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="Y15" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Z15" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AA15" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="AB15" t="n">
         <v>9.800000000000001</v>
       </c>
       <c r="AC15" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD15" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="AE15" t="n">
         <v>65</v>
@@ -2512,7 +2512,7 @@
         <v>160</v>
       </c>
       <c r="AJ15" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AK15" t="n">
         <v>16.5</v>
@@ -2524,7 +2524,7 @@
         <v>95</v>
       </c>
       <c r="AN15" t="n">
-        <v>8.800000000000001</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AO15" t="n">
         <v>70</v>
@@ -2557,10 +2557,10 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="G16" t="n">
-        <v>2.52</v>
+        <v>2.54</v>
       </c>
       <c r="H16" t="n">
         <v>2.96</v>
@@ -2587,7 +2587,7 @@
         <v>1.26</v>
       </c>
       <c r="P16" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="Q16" t="n">
         <v>1.79</v>
@@ -2602,13 +2602,13 @@
         <v>1.65</v>
       </c>
       <c r="U16" t="n">
-        <v>2.44</v>
+        <v>2.42</v>
       </c>
       <c r="V16" t="n">
         <v>1.5</v>
       </c>
       <c r="W16" t="n">
-        <v>1.65</v>
+        <v>1.64</v>
       </c>
       <c r="X16" t="n">
         <v>17</v>
@@ -2632,7 +2632,7 @@
         <v>12.5</v>
       </c>
       <c r="AE16" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AF16" t="n">
         <v>18</v>
@@ -2656,7 +2656,7 @@
         <v>34</v>
       </c>
       <c r="AM16" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AN16" t="n">
         <v>17</v>
@@ -2698,16 +2698,16 @@
         <v>4.9</v>
       </c>
       <c r="H17" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="I17" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="J17" t="n">
         <v>4.2</v>
       </c>
       <c r="K17" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="L17" t="n">
         <v>1.32</v>
@@ -2716,7 +2716,7 @@
         <v>1.05</v>
       </c>
       <c r="N17" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="O17" t="n">
         <v>1.23</v>
@@ -2737,13 +2737,13 @@
         <v>1.7</v>
       </c>
       <c r="U17" t="n">
-        <v>2.36</v>
+        <v>2.34</v>
       </c>
       <c r="V17" t="n">
-        <v>2.24</v>
+        <v>2.22</v>
       </c>
       <c r="W17" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="X17" t="n">
         <v>19.5</v>
@@ -2755,13 +2755,13 @@
         <v>12</v>
       </c>
       <c r="AA17" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AB17" t="n">
         <v>21</v>
       </c>
       <c r="AC17" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="AD17" t="n">
         <v>9.6</v>
@@ -2773,13 +2773,13 @@
         <v>38</v>
       </c>
       <c r="AG17" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AH17" t="n">
         <v>17.5</v>
       </c>
       <c r="AI17" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AJ17" t="n">
         <v>110</v>
@@ -2791,13 +2791,13 @@
         <v>55</v>
       </c>
       <c r="AM17" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AN17" t="n">
         <v>44</v>
       </c>
       <c r="AO17" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="18">
@@ -2842,7 +2842,7 @@
         <v>5.3</v>
       </c>
       <c r="K18" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="L18" t="n">
         <v>1.26</v>
@@ -2869,7 +2869,7 @@
         <v>2.26</v>
       </c>
       <c r="T18" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="U18" t="n">
         <v>2.38</v>
@@ -2962,37 +2962,37 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="G19" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="H19" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="I19" t="n">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="J19" t="n">
-        <v>2.8</v>
+        <v>2.74</v>
       </c>
       <c r="K19" t="n">
-        <v>3.05</v>
+        <v>2.92</v>
       </c>
       <c r="L19" t="n">
-        <v>1.71</v>
+        <v>1.01</v>
       </c>
       <c r="M19" t="n">
         <v>1.14</v>
       </c>
       <c r="N19" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="O19" t="n">
-        <v>1.72</v>
+        <v>1.71</v>
       </c>
       <c r="P19" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="Q19" t="n">
         <v>3.2</v>
@@ -3004,40 +3004,40 @@
         <v>7.2</v>
       </c>
       <c r="T19" t="n">
-        <v>2.44</v>
+        <v>2.4</v>
       </c>
       <c r="U19" t="n">
-        <v>1.6</v>
+        <v>1.63</v>
       </c>
       <c r="V19" t="n">
-        <v>1.67</v>
+        <v>1.66</v>
       </c>
       <c r="W19" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="X19" t="n">
         <v>7.4</v>
       </c>
       <c r="Y19" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="Z19" t="n">
         <v>16.5</v>
       </c>
       <c r="AA19" t="n">
-        <v>110</v>
+        <v>980</v>
       </c>
       <c r="AB19" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AC19" t="n">
-        <v>8.4</v>
+        <v>8</v>
       </c>
       <c r="AD19" t="n">
         <v>16.5</v>
       </c>
       <c r="AE19" t="n">
-        <v>120</v>
+        <v>55</v>
       </c>
       <c r="AF19" t="n">
         <v>34</v>
@@ -3067,7 +3067,7 @@
         <v>500</v>
       </c>
       <c r="AO19" t="n">
-        <v>180</v>
+        <v>980</v>
       </c>
     </row>
     <row r="20">
@@ -3106,7 +3106,7 @@
         <v>2.88</v>
       </c>
       <c r="I20" t="n">
-        <v>2.94</v>
+        <v>2.92</v>
       </c>
       <c r="J20" t="n">
         <v>4.1</v>
@@ -3139,7 +3139,7 @@
         <v>2.56</v>
       </c>
       <c r="T20" t="n">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="U20" t="n">
         <v>2.62</v>
@@ -3232,19 +3232,19 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>1.71</v>
+        <v>1.73</v>
       </c>
       <c r="G21" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="H21" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="I21" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="J21" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="K21" t="n">
         <v>4.2</v>
@@ -3283,7 +3283,7 @@
         <v>1.21</v>
       </c>
       <c r="W21" t="n">
-        <v>2.36</v>
+        <v>2.34</v>
       </c>
       <c r="X21" t="n">
         <v>14.5</v>
@@ -3391,7 +3391,7 @@
         <v>1.08</v>
       </c>
       <c r="N22" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="O22" t="n">
         <v>1.34</v>
@@ -3409,10 +3409,10 @@
         <v>3.65</v>
       </c>
       <c r="T22" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="U22" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="V22" t="n">
         <v>1.57</v>
@@ -3421,10 +3421,10 @@
         <v>1.51</v>
       </c>
       <c r="X22" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="Y22" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="Z22" t="n">
         <v>17</v>
@@ -3439,7 +3439,7 @@
         <v>7.4</v>
       </c>
       <c r="AD22" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AE22" t="n">
         <v>30</v>
@@ -3466,7 +3466,7 @@
         <v>44</v>
       </c>
       <c r="AM22" t="n">
-        <v>90</v>
+        <v>320</v>
       </c>
       <c r="AN22" t="n">
         <v>29</v>
@@ -3535,16 +3535,16 @@
         <v>2.18</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="R23" t="n">
-        <v>1.47</v>
+        <v>1.46</v>
       </c>
       <c r="S23" t="n">
         <v>3.1</v>
       </c>
       <c r="T23" t="n">
-        <v>1.72</v>
+        <v>1.71</v>
       </c>
       <c r="U23" t="n">
         <v>2.36</v>
@@ -3637,16 +3637,16 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>1.98</v>
+        <v>1.99</v>
       </c>
       <c r="G24" t="n">
-        <v>1.99</v>
+        <v>2.02</v>
       </c>
       <c r="H24" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="I24" t="n">
         <v>3.95</v>
-      </c>
-      <c r="I24" t="n">
-        <v>4.1</v>
       </c>
       <c r="J24" t="n">
         <v>4</v>
@@ -3676,22 +3676,22 @@
         <v>1.54</v>
       </c>
       <c r="S24" t="n">
-        <v>2.76</v>
+        <v>2.78</v>
       </c>
       <c r="T24" t="n">
         <v>1.65</v>
       </c>
       <c r="U24" t="n">
-        <v>2.46</v>
+        <v>2.44</v>
       </c>
       <c r="V24" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="W24" t="n">
-        <v>2</v>
+        <v>1.99</v>
       </c>
       <c r="X24" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="Y24" t="n">
         <v>19</v>
@@ -3712,7 +3712,7 @@
         <v>16</v>
       </c>
       <c r="AE24" t="n">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="AF24" t="n">
         <v>14</v>
@@ -3721,19 +3721,19 @@
         <v>10</v>
       </c>
       <c r="AH24" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AI24" t="n">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="AJ24" t="n">
         <v>23</v>
       </c>
       <c r="AK24" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AL24" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AM24" t="n">
         <v>70</v>
@@ -3772,7 +3772,7 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="G25" t="n">
         <v>2.44</v>
@@ -3835,7 +3835,7 @@
         <v>23</v>
       </c>
       <c r="AA25" t="n">
-        <v>60</v>
+        <v>130</v>
       </c>
       <c r="AB25" t="n">
         <v>11</v>
@@ -3847,7 +3847,7 @@
         <v>14</v>
       </c>
       <c r="AE25" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AF25" t="n">
         <v>16</v>
@@ -3871,7 +3871,7 @@
         <v>42</v>
       </c>
       <c r="AM25" t="n">
-        <v>90</v>
+        <v>200</v>
       </c>
       <c r="AN25" t="n">
         <v>20</v>
@@ -3907,7 +3907,7 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>2.44</v>
+        <v>2.42</v>
       </c>
       <c r="G26" t="n">
         <v>2.46</v>
@@ -3916,7 +3916,7 @@
         <v>3.25</v>
       </c>
       <c r="I26" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="J26" t="n">
         <v>3.45</v>
@@ -3931,7 +3931,7 @@
         <v>1.07</v>
       </c>
       <c r="N26" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="O26" t="n">
         <v>1.31</v>
@@ -3940,7 +3940,7 @@
         <v>1.99</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.98</v>
+        <v>1.97</v>
       </c>
       <c r="R26" t="n">
         <v>1.39</v>
@@ -3955,7 +3955,7 @@
         <v>2.24</v>
       </c>
       <c r="V26" t="n">
-        <v>1.43</v>
+        <v>1.42</v>
       </c>
       <c r="W26" t="n">
         <v>1.68</v>
@@ -4012,7 +4012,7 @@
         <v>19</v>
       </c>
       <c r="AO26" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="27">
@@ -4042,13 +4042,13 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="G27" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="H27" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="I27" t="n">
         <v>3.8</v>
@@ -4069,13 +4069,13 @@
         <v>4.3</v>
       </c>
       <c r="O27" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="P27" t="n">
         <v>2.12</v>
       </c>
       <c r="Q27" t="n">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="R27" t="n">
         <v>1.43</v>
@@ -4093,10 +4093,10 @@
         <v>1.36</v>
       </c>
       <c r="W27" t="n">
-        <v>1.9</v>
+        <v>1.87</v>
       </c>
       <c r="X27" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="Y27" t="n">
         <v>15.5</v>
@@ -4105,7 +4105,7 @@
         <v>27</v>
       </c>
       <c r="AA27" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AB27" t="n">
         <v>10.5</v>
@@ -4126,10 +4126,10 @@
         <v>10.5</v>
       </c>
       <c r="AH27" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="AI27" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AJ27" t="n">
         <v>25</v>
@@ -4147,7 +4147,7 @@
         <v>14</v>
       </c>
       <c r="AO27" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="28">
@@ -4180,7 +4180,7 @@
         <v>2.72</v>
       </c>
       <c r="G28" t="n">
-        <v>2.88</v>
+        <v>2.84</v>
       </c>
       <c r="H28" t="n">
         <v>3.1</v>
@@ -4216,22 +4216,22 @@
         <v>1.21</v>
       </c>
       <c r="S28" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="T28" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="U28" t="n">
         <v>1.86</v>
       </c>
       <c r="V28" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="W28" t="n">
         <v>1.54</v>
       </c>
       <c r="X28" t="n">
-        <v>8.6</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Y28" t="n">
         <v>9.199999999999999</v>
@@ -4252,7 +4252,7 @@
         <v>14</v>
       </c>
       <c r="AE28" t="n">
-        <v>120</v>
+        <v>300</v>
       </c>
       <c r="AF28" t="n">
         <v>21</v>
@@ -4261,13 +4261,13 @@
         <v>13</v>
       </c>
       <c r="AH28" t="n">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="AI28" t="n">
         <v>500</v>
       </c>
       <c r="AJ28" t="n">
-        <v>120</v>
+        <v>400</v>
       </c>
       <c r="AK28" t="n">
         <v>85</v>
@@ -4312,7 +4312,7 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>2.88</v>
+        <v>2.84</v>
       </c>
       <c r="G29" t="n">
         <v>2.9</v>
@@ -4321,7 +4321,7 @@
         <v>2.64</v>
       </c>
       <c r="I29" t="n">
-        <v>2.68</v>
+        <v>2.7</v>
       </c>
       <c r="J29" t="n">
         <v>3.6</v>
@@ -4348,7 +4348,7 @@
         <v>1.87</v>
       </c>
       <c r="R29" t="n">
-        <v>1.43</v>
+        <v>1.42</v>
       </c>
       <c r="S29" t="n">
         <v>3.2</v>
@@ -4360,7 +4360,7 @@
         <v>2.34</v>
       </c>
       <c r="V29" t="n">
-        <v>1.6</v>
+        <v>1.59</v>
       </c>
       <c r="W29" t="n">
         <v>1.52</v>
@@ -4381,7 +4381,7 @@
         <v>13</v>
       </c>
       <c r="AC29" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="AD29" t="n">
         <v>12</v>
@@ -4399,7 +4399,7 @@
         <v>16</v>
       </c>
       <c r="AI29" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AJ29" t="n">
         <v>44</v>
@@ -4408,13 +4408,13 @@
         <v>29</v>
       </c>
       <c r="AL29" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AM29" t="n">
         <v>80</v>
       </c>
       <c r="AN29" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AO29" t="n">
         <v>21</v>
@@ -4453,25 +4453,25 @@
         <v>3.2</v>
       </c>
       <c r="H30" t="n">
-        <v>2.98</v>
+        <v>2.96</v>
       </c>
       <c r="I30" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="J30" t="n">
-        <v>2.82</v>
+        <v>2.8</v>
       </c>
       <c r="K30" t="n">
         <v>2.92</v>
       </c>
       <c r="L30" t="n">
-        <v>1.72</v>
+        <v>1.01</v>
       </c>
       <c r="M30" t="n">
         <v>1.18</v>
       </c>
       <c r="N30" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="O30" t="n">
         <v>1.75</v>
@@ -4480,7 +4480,7 @@
         <v>1.38</v>
       </c>
       <c r="Q30" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="R30" t="n">
         <v>1.13</v>
@@ -4498,10 +4498,10 @@
         <v>1.46</v>
       </c>
       <c r="W30" t="n">
-        <v>1.46</v>
+        <v>1.45</v>
       </c>
       <c r="X30" t="n">
-        <v>6.4</v>
+        <v>6.8</v>
       </c>
       <c r="Y30" t="n">
         <v>7.6</v>
@@ -4510,28 +4510,28 @@
         <v>18</v>
       </c>
       <c r="AA30" t="n">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="AB30" t="n">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AC30" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="AD30" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AE30" t="n">
-        <v>140</v>
+        <v>450</v>
       </c>
       <c r="AF30" t="n">
-        <v>18.5</v>
+        <v>23</v>
       </c>
       <c r="AG30" t="n">
         <v>18</v>
       </c>
       <c r="AH30" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AI30" t="n">
         <v>500</v>
@@ -4591,7 +4591,7 @@
         <v>4.6</v>
       </c>
       <c r="I31" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="J31" t="n">
         <v>3</v>
@@ -4720,19 +4720,19 @@
         <v>2.86</v>
       </c>
       <c r="G32" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="H32" t="n">
         <v>3</v>
       </c>
       <c r="I32" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="J32" t="n">
-        <v>2.9</v>
+        <v>2.82</v>
       </c>
       <c r="K32" t="n">
-        <v>2.96</v>
+        <v>3</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
@@ -4855,22 +4855,22 @@
         <v>2.2</v>
       </c>
       <c r="G33" t="n">
-        <v>2.34</v>
+        <v>2.3</v>
       </c>
       <c r="H33" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="I33" t="n">
         <v>4.7</v>
       </c>
       <c r="J33" t="n">
-        <v>2.9</v>
+        <v>2.96</v>
       </c>
       <c r="K33" t="n">
         <v>3.1</v>
       </c>
       <c r="L33" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="M33" t="n">
         <v>1.13</v>
@@ -4879,19 +4879,19 @@
         <v>2.44</v>
       </c>
       <c r="O33" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="P33" t="n">
         <v>1.47</v>
       </c>
       <c r="Q33" t="n">
-        <v>2.74</v>
+        <v>2.84</v>
       </c>
       <c r="R33" t="n">
         <v>1.16</v>
       </c>
       <c r="S33" t="n">
-        <v>5.7</v>
+        <v>6.2</v>
       </c>
       <c r="T33" t="n">
         <v>2.22</v>
@@ -4903,25 +4903,25 @@
         <v>1.27</v>
       </c>
       <c r="W33" t="n">
-        <v>1.74</v>
+        <v>1.76</v>
       </c>
       <c r="X33" t="n">
-        <v>7.8</v>
+        <v>8.6</v>
       </c>
       <c r="Y33" t="n">
         <v>11.5</v>
       </c>
       <c r="Z33" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AA33" t="n">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="AB33" t="n">
         <v>7</v>
       </c>
       <c r="AC33" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="AD33" t="n">
         <v>21</v>
@@ -4930,10 +4930,10 @@
         <v>90</v>
       </c>
       <c r="AF33" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AG33" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AH33" t="n">
         <v>27</v>
@@ -4951,13 +4951,13 @@
         <v>75</v>
       </c>
       <c r="AM33" t="n">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="AN33" t="n">
         <v>36</v>
       </c>
       <c r="AO33" t="n">
-        <v>170</v>
+        <v>150</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-22.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-22.xlsx
@@ -667,61 +667,61 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.63</v>
+        <v>1.62</v>
       </c>
       <c r="G2" t="n">
-        <v>1.69</v>
+        <v>1.66</v>
       </c>
       <c r="H2" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="I2" t="n">
-        <v>6.6</v>
+        <v>7</v>
       </c>
       <c r="J2" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="K2" t="n">
-        <v>4.6</v>
+        <v>4.8</v>
       </c>
       <c r="L2" t="n">
-        <v>1.31</v>
+        <v>1.37</v>
       </c>
       <c r="M2" t="n">
         <v>1.05</v>
       </c>
       <c r="N2" t="n">
-        <v>4</v>
+        <v>4.3</v>
       </c>
       <c r="O2" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="P2" t="n">
-        <v>2.06</v>
+        <v>2.14</v>
       </c>
       <c r="Q2" t="n">
         <v>1.79</v>
       </c>
       <c r="R2" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="S2" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="T2" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="U2" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="V2" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="W2" t="n">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="X2" t="n">
-        <v>22</v>
+        <v>19.5</v>
       </c>
       <c r="Y2" t="n">
         <v>23</v>
@@ -733,34 +733,34 @@
         <v>900</v>
       </c>
       <c r="AB2" t="n">
-        <v>9</v>
+        <v>9.4</v>
       </c>
       <c r="AC2" t="n">
         <v>10.5</v>
       </c>
       <c r="AD2" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AE2" t="n">
-        <v>110</v>
+        <v>320</v>
       </c>
       <c r="AF2" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AG2" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="AH2" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="AI2" t="n">
-        <v>330</v>
+        <v>200</v>
       </c>
       <c r="AJ2" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AK2" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AL2" t="n">
         <v>34</v>
@@ -769,7 +769,7 @@
         <v>580</v>
       </c>
       <c r="AN2" t="n">
-        <v>11</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AO2" t="n">
         <v>160</v>
@@ -802,40 +802,40 @@
         </is>
       </c>
       <c r="F3" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="G3" t="n">
         <v>2.3</v>
       </c>
-      <c r="G3" t="n">
-        <v>2.52</v>
-      </c>
       <c r="H3" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="I3" t="n">
-        <v>4.8</v>
+        <v>5.3</v>
       </c>
       <c r="J3" t="n">
-        <v>2.62</v>
+        <v>2.74</v>
       </c>
       <c r="K3" t="n">
-        <v>2.86</v>
+        <v>2.94</v>
       </c>
       <c r="L3" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="M3" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="N3" t="n">
-        <v>2.1</v>
+        <v>2.16</v>
       </c>
       <c r="O3" t="n">
         <v>1.75</v>
       </c>
       <c r="P3" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="Q3" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="R3" t="n">
         <v>1.12</v>
@@ -844,67 +844,67 @@
         <v>7.6</v>
       </c>
       <c r="T3" t="n">
-        <v>2.4</v>
+        <v>2.46</v>
       </c>
       <c r="U3" t="n">
-        <v>1.57</v>
+        <v>1.56</v>
       </c>
       <c r="V3" t="n">
-        <v>1.26</v>
+        <v>1.24</v>
       </c>
       <c r="W3" t="n">
-        <v>1.65</v>
+        <v>1.76</v>
       </c>
       <c r="X3" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="Y3" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Z3" t="n">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="AA3" t="n">
-        <v>160</v>
+        <v>500</v>
       </c>
       <c r="AB3" t="n">
-        <v>7.2</v>
+        <v>6.6</v>
       </c>
       <c r="AC3" t="n">
         <v>7</v>
       </c>
       <c r="AD3" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AE3" t="n">
-        <v>290</v>
+        <v>330</v>
       </c>
       <c r="AF3" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AG3" t="n">
         <v>14</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>15.5</v>
       </c>
       <c r="AH3" t="n">
         <v>32</v>
       </c>
       <c r="AI3" t="n">
-        <v>180</v>
+        <v>500</v>
       </c>
       <c r="AJ3" t="n">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="AK3" t="n">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="AL3" t="n">
-        <v>130</v>
+        <v>290</v>
       </c>
       <c r="AM3" t="n">
         <v>500</v>
       </c>
       <c r="AN3" t="n">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="AO3" t="n">
         <v>600</v>
@@ -937,112 +937,112 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.5</v>
+        <v>1.63</v>
       </c>
       <c r="G4" t="n">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="H4" t="n">
-        <v>5.9</v>
+        <v>5.1</v>
       </c>
       <c r="I4" t="n">
-        <v>7</v>
+        <v>6.2</v>
       </c>
       <c r="J4" t="n">
-        <v>4.5</v>
+        <v>4.3</v>
       </c>
       <c r="K4" t="n">
-        <v>5.4</v>
+        <v>5</v>
       </c>
       <c r="L4" t="n">
-        <v>1.29</v>
+        <v>1.31</v>
       </c>
       <c r="M4" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N4" t="n">
-        <v>4.9</v>
+        <v>5.1</v>
       </c>
       <c r="O4" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="P4" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="R4" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="S4" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="T4" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="U4" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="V4" t="n">
         <v>1.2</v>
       </c>
-      <c r="P4" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="R4" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="S4" t="n">
-        <v>2.48</v>
-      </c>
-      <c r="T4" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="U4" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="V4" t="n">
-        <v>1.17</v>
-      </c>
       <c r="W4" t="n">
-        <v>2.6</v>
+        <v>2.42</v>
       </c>
       <c r="X4" t="n">
+        <v>90</v>
+      </c>
+      <c r="Y4" t="n">
         <v>970</v>
       </c>
-      <c r="Y4" t="n">
-        <v>48</v>
-      </c>
       <c r="Z4" t="n">
-        <v>130</v>
+        <v>970</v>
       </c>
       <c r="AA4" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="AB4" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="AC4" t="n">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="AD4" t="n">
-        <v>46</v>
+        <v>970</v>
       </c>
       <c r="AE4" t="n">
         <v>190</v>
       </c>
       <c r="AF4" t="n">
-        <v>24</v>
+        <v>12.5</v>
       </c>
       <c r="AG4" t="n">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="AH4" t="n">
-        <v>21</v>
+        <v>970</v>
       </c>
       <c r="AI4" t="n">
         <v>170</v>
       </c>
       <c r="AJ4" t="n">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="AK4" t="n">
-        <v>17.5</v>
+        <v>28</v>
       </c>
       <c r="AL4" t="n">
-        <v>80</v>
+        <v>970</v>
       </c>
       <c r="AM4" t="n">
         <v>580</v>
       </c>
       <c r="AN4" t="n">
-        <v>8</v>
+        <v>7.6</v>
       </c>
       <c r="AO4" t="n">
-        <v>95</v>
+        <v>600</v>
       </c>
     </row>
     <row r="5">
@@ -1072,64 +1072,64 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.92</v>
+        <v>2.02</v>
       </c>
       <c r="G5" t="n">
-        <v>2.02</v>
+        <v>2.06</v>
       </c>
       <c r="H5" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="I5" t="n">
-        <v>5.5</v>
+        <v>5.2</v>
       </c>
       <c r="J5" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K5" t="n">
         <v>3.25</v>
       </c>
-      <c r="K5" t="n">
-        <v>3.5</v>
-      </c>
       <c r="L5" t="n">
-        <v>1.64</v>
+        <v>1.68</v>
       </c>
       <c r="M5" t="n">
-        <v>1.13</v>
+        <v>1.16</v>
       </c>
       <c r="N5" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="O5" t="n">
-        <v>1.63</v>
+        <v>1.68</v>
       </c>
       <c r="P5" t="n">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.88</v>
+        <v>3.15</v>
       </c>
       <c r="R5" t="n">
         <v>1.15</v>
       </c>
       <c r="S5" t="n">
-        <v>6.2</v>
+        <v>7.2</v>
       </c>
       <c r="T5" t="n">
-        <v>2.42</v>
+        <v>2.48</v>
       </c>
       <c r="U5" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="V5" t="n">
-        <v>1.22</v>
+        <v>1.24</v>
       </c>
       <c r="W5" t="n">
-        <v>1.98</v>
+        <v>1.94</v>
       </c>
       <c r="X5" t="n">
         <v>8.6</v>
       </c>
       <c r="Y5" t="n">
-        <v>13.5</v>
+        <v>24</v>
       </c>
       <c r="Z5" t="n">
         <v>980</v>
@@ -1138,7 +1138,7 @@
         <v>900</v>
       </c>
       <c r="AB5" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="AC5" t="n">
         <v>8.800000000000001</v>
@@ -1153,10 +1153,10 @@
         <v>12</v>
       </c>
       <c r="AG5" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="AH5" t="n">
-        <v>110</v>
+        <v>980</v>
       </c>
       <c r="AI5" t="n">
         <v>500</v>
@@ -1165,7 +1165,7 @@
         <v>29</v>
       </c>
       <c r="AK5" t="n">
-        <v>80</v>
+        <v>140</v>
       </c>
       <c r="AL5" t="n">
         <v>460</v>
@@ -1174,10 +1174,10 @@
         <v>500</v>
       </c>
       <c r="AN5" t="n">
-        <v>980</v>
+        <v>36</v>
       </c>
       <c r="AO5" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
     </row>
     <row r="6">
@@ -1207,40 +1207,40 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.88</v>
+        <v>3.05</v>
       </c>
       <c r="G6" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="H6" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="I6" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="J6" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="K6" t="n">
         <v>3.05</v>
       </c>
-      <c r="I6" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="J6" t="n">
-        <v>2.96</v>
-      </c>
-      <c r="K6" t="n">
-        <v>3</v>
-      </c>
       <c r="L6" t="n">
-        <v>1.51</v>
+        <v>1.63</v>
       </c>
       <c r="M6" t="n">
         <v>1.14</v>
       </c>
       <c r="N6" t="n">
-        <v>2.5</v>
+        <v>2.58</v>
       </c>
       <c r="O6" t="n">
         <v>1.6</v>
       </c>
       <c r="P6" t="n">
-        <v>1.54</v>
+        <v>1.51</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.78</v>
+        <v>2.84</v>
       </c>
       <c r="R6" t="n">
         <v>1.18</v>
@@ -1252,52 +1252,52 @@
         <v>2.16</v>
       </c>
       <c r="U6" t="n">
-        <v>1.76</v>
+        <v>1.81</v>
       </c>
       <c r="V6" t="n">
-        <v>1.46</v>
+        <v>1.51</v>
       </c>
       <c r="W6" t="n">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="X6" t="n">
         <v>9.4</v>
       </c>
       <c r="Y6" t="n">
-        <v>9.6</v>
+        <v>9</v>
       </c>
       <c r="Z6" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AA6" t="n">
-        <v>70</v>
+        <v>430</v>
       </c>
       <c r="AB6" t="n">
-        <v>9.4</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AC6" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="AD6" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AE6" t="n">
-        <v>60</v>
+        <v>130</v>
       </c>
       <c r="AF6" t="n">
         <v>21</v>
       </c>
       <c r="AG6" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AH6" t="n">
         <v>28</v>
       </c>
       <c r="AI6" t="n">
-        <v>230</v>
+        <v>460</v>
       </c>
       <c r="AJ6" t="n">
-        <v>65</v>
+        <v>900</v>
       </c>
       <c r="AK6" t="n">
         <v>60</v>
@@ -1309,10 +1309,10 @@
         <v>500</v>
       </c>
       <c r="AN6" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AO6" t="n">
-        <v>80</v>
+        <v>600</v>
       </c>
     </row>
     <row r="7">
@@ -1342,58 +1342,58 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.68</v>
+        <v>1.74</v>
       </c>
       <c r="G7" t="n">
-        <v>1.77</v>
+        <v>1.76</v>
       </c>
       <c r="H7" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="I7" t="n">
-        <v>5.8</v>
+        <v>5.6</v>
       </c>
       <c r="J7" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="K7" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="L7" t="n">
-        <v>1.01</v>
+        <v>1.42</v>
       </c>
       <c r="M7" t="n">
         <v>1.07</v>
       </c>
       <c r="N7" t="n">
-        <v>3.65</v>
+        <v>3.75</v>
       </c>
       <c r="O7" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="P7" t="n">
-        <v>1.93</v>
+        <v>1.96</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="R7" t="n">
         <v>1.36</v>
       </c>
       <c r="S7" t="n">
-        <v>3.5</v>
+        <v>3.65</v>
       </c>
       <c r="T7" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="U7" t="n">
-        <v>1.96</v>
+        <v>1.99</v>
       </c>
       <c r="V7" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="W7" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="X7" t="n">
         <v>17</v>
@@ -1402,7 +1402,7 @@
         <v>21</v>
       </c>
       <c r="Z7" t="n">
-        <v>50</v>
+        <v>970</v>
       </c>
       <c r="AA7" t="n">
         <v>900</v>
@@ -1414,7 +1414,7 @@
         <v>10.5</v>
       </c>
       <c r="AD7" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AE7" t="n">
         <v>190</v>
@@ -1423,7 +1423,7 @@
         <v>10.5</v>
       </c>
       <c r="AG7" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="AH7" t="n">
         <v>24</v>
@@ -1435,10 +1435,10 @@
         <v>21</v>
       </c>
       <c r="AK7" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="AL7" t="n">
-        <v>42</v>
+        <v>980</v>
       </c>
       <c r="AM7" t="n">
         <v>580</v>
@@ -1447,7 +1447,7 @@
         <v>13</v>
       </c>
       <c r="AO7" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
     </row>
     <row r="8">
@@ -1477,64 +1477,64 @@
         </is>
       </c>
       <c r="F8" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="G8" t="n">
         <v>1.19</v>
       </c>
-      <c r="G8" t="n">
+      <c r="H8" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="I8" t="n">
+        <v>21</v>
+      </c>
+      <c r="J8" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="K8" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="L8" t="n">
         <v>1.23</v>
-      </c>
-      <c r="H8" t="n">
-        <v>15</v>
-      </c>
-      <c r="I8" t="n">
-        <v>18</v>
-      </c>
-      <c r="J8" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="K8" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="L8" t="n">
-        <v>1.01</v>
       </c>
       <c r="M8" t="n">
         <v>1.02</v>
       </c>
       <c r="N8" t="n">
-        <v>7.2</v>
+        <v>7.6</v>
       </c>
       <c r="O8" t="n">
         <v>1.13</v>
       </c>
       <c r="P8" t="n">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.35</v>
+        <v>1.41</v>
       </c>
       <c r="R8" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="S8" t="n">
-        <v>1.98</v>
+        <v>2.04</v>
       </c>
       <c r="T8" t="n">
-        <v>2</v>
+        <v>2.04</v>
       </c>
       <c r="U8" t="n">
-        <v>1.86</v>
+        <v>1.8</v>
       </c>
       <c r="V8" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="W8" t="n">
-        <v>5.3</v>
+        <v>6.2</v>
       </c>
       <c r="X8" t="n">
         <v>980</v>
       </c>
       <c r="Y8" t="n">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="Z8" t="n">
         <v>190</v>
@@ -1543,31 +1543,31 @@
         <v>1000</v>
       </c>
       <c r="AB8" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="AC8" t="n">
-        <v>980</v>
+        <v>25</v>
       </c>
       <c r="AD8" t="n">
         <v>70</v>
       </c>
       <c r="AE8" t="n">
-        <v>260</v>
+        <v>330</v>
       </c>
       <c r="AF8" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AG8" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AH8" t="n">
-        <v>980</v>
+        <v>48</v>
       </c>
       <c r="AI8" t="n">
-        <v>180</v>
+        <v>220</v>
       </c>
       <c r="AJ8" t="n">
-        <v>10.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AK8" t="n">
         <v>1000</v>
@@ -1576,10 +1576,10 @@
         <v>980</v>
       </c>
       <c r="AM8" t="n">
-        <v>200</v>
+        <v>260</v>
       </c>
       <c r="AN8" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="AO8" t="n">
         <v>1000</v>
@@ -1612,79 +1612,79 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.36</v>
+        <v>2.24</v>
       </c>
       <c r="G9" t="n">
-        <v>2.6</v>
+        <v>2.32</v>
       </c>
       <c r="H9" t="n">
-        <v>2.58</v>
+        <v>2.98</v>
       </c>
       <c r="I9" t="n">
-        <v>2.88</v>
+        <v>3.1</v>
       </c>
       <c r="J9" t="n">
         <v>4</v>
       </c>
       <c r="K9" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="L9" t="n">
-        <v>1.21</v>
+        <v>1.26</v>
       </c>
       <c r="M9" t="n">
         <v>1.02</v>
       </c>
       <c r="N9" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="O9" t="n">
         <v>1.15</v>
       </c>
       <c r="P9" t="n">
-        <v>3.05</v>
+        <v>2.96</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.39</v>
+        <v>1.48</v>
       </c>
       <c r="R9" t="n">
-        <v>1.82</v>
+        <v>1.79</v>
       </c>
       <c r="S9" t="n">
-        <v>2.04</v>
+        <v>2.22</v>
       </c>
       <c r="T9" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="U9" t="n">
-        <v>3</v>
+        <v>2.92</v>
       </c>
       <c r="V9" t="n">
-        <v>1.53</v>
+        <v>1.47</v>
       </c>
       <c r="W9" t="n">
-        <v>1.62</v>
+        <v>1.75</v>
       </c>
       <c r="X9" t="n">
         <v>38</v>
       </c>
       <c r="Y9" t="n">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="Z9" t="n">
-        <v>29</v>
+        <v>980</v>
       </c>
       <c r="AA9" t="n">
-        <v>48</v>
+        <v>120</v>
       </c>
       <c r="AB9" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AC9" t="n">
         <v>13</v>
       </c>
       <c r="AD9" t="n">
-        <v>15.5</v>
+        <v>29</v>
       </c>
       <c r="AE9" t="n">
         <v>980</v>
@@ -1693,31 +1693,31 @@
         <v>26</v>
       </c>
       <c r="AG9" t="n">
-        <v>14.5</v>
+        <v>12.5</v>
       </c>
       <c r="AH9" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AI9" t="n">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="AJ9" t="n">
-        <v>36</v>
+        <v>980</v>
       </c>
       <c r="AK9" t="n">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="AL9" t="n">
-        <v>30</v>
+        <v>980</v>
       </c>
       <c r="AM9" t="n">
-        <v>55</v>
+        <v>580</v>
       </c>
       <c r="AN9" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AO9" t="n">
-        <v>13</v>
+        <v>18.5</v>
       </c>
     </row>
     <row r="10">
@@ -1759,7 +1759,7 @@
         <v>1.96</v>
       </c>
       <c r="J10" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="K10" t="n">
         <v>3.7</v>
@@ -1774,7 +1774,7 @@
         <v>3.45</v>
       </c>
       <c r="O10" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="P10" t="n">
         <v>1.82</v>
@@ -1786,16 +1786,16 @@
         <v>1.3</v>
       </c>
       <c r="S10" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="T10" t="n">
-        <v>1.97</v>
+        <v>1.98</v>
       </c>
       <c r="U10" t="n">
         <v>1.97</v>
       </c>
       <c r="V10" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="W10" t="n">
         <v>1.27</v>
@@ -1828,7 +1828,7 @@
         <v>32</v>
       </c>
       <c r="AG10" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AH10" t="n">
         <v>21</v>
@@ -1843,7 +1843,7 @@
         <v>65</v>
       </c>
       <c r="AL10" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AM10" t="n">
         <v>130</v>
@@ -1852,7 +1852,7 @@
         <v>80</v>
       </c>
       <c r="AO10" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
     </row>
     <row r="11">
@@ -1882,58 +1882,58 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="G11" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="H11" t="n">
-        <v>2.26</v>
+        <v>2.16</v>
       </c>
       <c r="I11" t="n">
-        <v>2.28</v>
+        <v>2.2</v>
       </c>
       <c r="J11" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="K11" t="n">
         <v>3.9</v>
       </c>
       <c r="L11" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="M11" t="n">
         <v>1.06</v>
       </c>
       <c r="N11" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="O11" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="P11" t="n">
-        <v>2.26</v>
+        <v>2.2</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.76</v>
+        <v>1.8</v>
       </c>
       <c r="R11" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="S11" t="n">
-        <v>2.92</v>
+        <v>3</v>
       </c>
       <c r="T11" t="n">
-        <v>1.66</v>
+        <v>1.68</v>
       </c>
       <c r="U11" t="n">
-        <v>2.44</v>
+        <v>2.36</v>
       </c>
       <c r="V11" t="n">
-        <v>1.78</v>
+        <v>1.84</v>
       </c>
       <c r="W11" t="n">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="X11" t="n">
         <v>17.5</v>
@@ -1942,13 +1942,13 @@
         <v>12</v>
       </c>
       <c r="Z11" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>27</v>
+      </c>
+      <c r="AB11" t="n">
         <v>15.5</v>
-      </c>
-      <c r="AA11" t="n">
-        <v>28</v>
-      </c>
-      <c r="AB11" t="n">
-        <v>16</v>
       </c>
       <c r="AC11" t="n">
         <v>8.4</v>
@@ -1960,34 +1960,34 @@
         <v>22</v>
       </c>
       <c r="AF11" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AG11" t="n">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="AH11" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AI11" t="n">
         <v>32</v>
       </c>
       <c r="AJ11" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AK11" t="n">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="AL11" t="n">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="AM11" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AN11" t="n">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="AO11" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
     </row>
     <row r="12">
@@ -2017,16 +2017,16 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.62</v>
+        <v>2.44</v>
       </c>
       <c r="G12" t="n">
-        <v>2.64</v>
+        <v>2.48</v>
       </c>
       <c r="H12" t="n">
-        <v>2.84</v>
+        <v>3.05</v>
       </c>
       <c r="I12" t="n">
-        <v>2.88</v>
+        <v>3.15</v>
       </c>
       <c r="J12" t="n">
         <v>3.65</v>
@@ -2035,94 +2035,94 @@
         <v>3.7</v>
       </c>
       <c r="L12" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="M12" t="n">
         <v>1.06</v>
       </c>
       <c r="N12" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="O12" t="n">
         <v>1.27</v>
       </c>
       <c r="P12" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.85</v>
+        <v>1.84</v>
       </c>
       <c r="R12" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="S12" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="T12" t="n">
         <v>1.68</v>
       </c>
       <c r="U12" t="n">
-        <v>2.34</v>
+        <v>2.38</v>
       </c>
       <c r="V12" t="n">
-        <v>1.53</v>
+        <v>1.47</v>
       </c>
       <c r="W12" t="n">
-        <v>1.6</v>
+        <v>1.67</v>
       </c>
       <c r="X12" t="n">
         <v>16.5</v>
       </c>
       <c r="Y12" t="n">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="Z12" t="n">
-        <v>19.5</v>
+        <v>21</v>
       </c>
       <c r="AA12" t="n">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="AB12" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AC12" t="n">
         <v>8</v>
       </c>
       <c r="AD12" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AE12" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="AF12" t="n">
-        <v>18.5</v>
+        <v>17</v>
       </c>
       <c r="AG12" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AH12" t="n">
         <v>15.5</v>
       </c>
       <c r="AI12" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AJ12" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="AK12" t="n">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="AL12" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="AM12" t="n">
         <v>75</v>
       </c>
       <c r="AN12" t="n">
-        <v>19.5</v>
+        <v>17.5</v>
       </c>
       <c r="AO12" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13">
@@ -2152,70 +2152,70 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="G13" t="n">
-        <v>3.8</v>
+        <v>4.1</v>
       </c>
       <c r="H13" t="n">
-        <v>2.06</v>
+        <v>2.02</v>
       </c>
       <c r="I13" t="n">
-        <v>2.08</v>
+        <v>2.04</v>
       </c>
       <c r="J13" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="K13" t="n">
         <v>3.95</v>
       </c>
-      <c r="K13" t="n">
-        <v>4</v>
-      </c>
       <c r="L13" t="n">
-        <v>1.37</v>
+        <v>1.39</v>
       </c>
       <c r="M13" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N13" t="n">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="O13" t="n">
-        <v>1.27</v>
+        <v>1.29</v>
       </c>
       <c r="P13" t="n">
-        <v>2.16</v>
+        <v>2.12</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.82</v>
+        <v>1.87</v>
       </c>
       <c r="R13" t="n">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="S13" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="T13" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="U13" t="n">
-        <v>2.34</v>
+        <v>2.22</v>
       </c>
       <c r="V13" t="n">
-        <v>1.92</v>
+        <v>1.96</v>
       </c>
       <c r="W13" t="n">
-        <v>1.35</v>
+        <v>1.32</v>
       </c>
       <c r="X13" t="n">
-        <v>18.5</v>
+        <v>16.5</v>
       </c>
       <c r="Y13" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Z13" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AA13" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AB13" t="n">
         <v>16</v>
@@ -2224,37 +2224,37 @@
         <v>8.4</v>
       </c>
       <c r="AD13" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AE13" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AF13" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AG13" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AH13" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AI13" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AJ13" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AK13" t="n">
+        <v>46</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>55</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>85</v>
+      </c>
+      <c r="AN13" t="n">
         <v>42</v>
-      </c>
-      <c r="AL13" t="n">
-        <v>48</v>
-      </c>
-      <c r="AM13" t="n">
-        <v>80</v>
-      </c>
-      <c r="AN13" t="n">
-        <v>36</v>
       </c>
       <c r="AO13" t="n">
         <v>13</v>
@@ -2287,25 +2287,25 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="G14" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="H14" t="n">
+        <v>19</v>
+      </c>
+      <c r="I14" t="n">
         <v>21</v>
       </c>
-      <c r="I14" t="n">
-        <v>24</v>
-      </c>
       <c r="J14" t="n">
-        <v>8.6</v>
+        <v>9</v>
       </c>
       <c r="K14" t="n">
-        <v>9</v>
+        <v>9.4</v>
       </c>
       <c r="L14" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="M14" t="n">
         <v>1.03</v>
@@ -2314,34 +2314,34 @@
         <v>6.2</v>
       </c>
       <c r="O14" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="P14" t="n">
-        <v>2.78</v>
+        <v>2.74</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="R14" t="n">
-        <v>1.7</v>
+        <v>1.68</v>
       </c>
       <c r="S14" t="n">
-        <v>2.36</v>
+        <v>2.4</v>
       </c>
       <c r="T14" t="n">
-        <v>2.5</v>
+        <v>2.44</v>
       </c>
       <c r="U14" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="V14" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="W14" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="X14" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="Y14" t="n">
         <v>60</v>
@@ -2353,28 +2353,28 @@
         <v>1000</v>
       </c>
       <c r="AB14" t="n">
-        <v>10.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AC14" t="n">
-        <v>18.5</v>
+        <v>20</v>
       </c>
       <c r="AD14" t="n">
-        <v>80</v>
+        <v>400</v>
       </c>
       <c r="AE14" t="n">
-        <v>510</v>
+        <v>410</v>
       </c>
       <c r="AF14" t="n">
         <v>7.6</v>
       </c>
       <c r="AG14" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH14" t="n">
-        <v>160</v>
+        <v>980</v>
       </c>
       <c r="AI14" t="n">
-        <v>330</v>
+        <v>280</v>
       </c>
       <c r="AJ14" t="n">
         <v>8.199999999999999</v>
@@ -2383,13 +2383,13 @@
         <v>15</v>
       </c>
       <c r="AL14" t="n">
-        <v>55</v>
+        <v>970</v>
       </c>
       <c r="AM14" t="n">
-        <v>340</v>
+        <v>290</v>
       </c>
       <c r="AN14" t="n">
-        <v>3.45</v>
+        <v>3.6</v>
       </c>
       <c r="AO14" t="n">
         <v>1000</v>
@@ -2422,16 +2422,16 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1.74</v>
+        <v>1.77</v>
       </c>
       <c r="G15" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="H15" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="I15" t="n">
         <v>5.2</v>
-      </c>
-      <c r="I15" t="n">
-        <v>5.4</v>
       </c>
       <c r="J15" t="n">
         <v>4.1</v>
@@ -2440,16 +2440,16 @@
         <v>4.2</v>
       </c>
       <c r="L15" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="M15" t="n">
         <v>1.06</v>
       </c>
       <c r="N15" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="O15" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="P15" t="n">
         <v>2.18</v>
@@ -2458,34 +2458,34 @@
         <v>1.81</v>
       </c>
       <c r="R15" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="S15" t="n">
         <v>3.05</v>
       </c>
       <c r="T15" t="n">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="U15" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="V15" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="W15" t="n">
-        <v>2.32</v>
+        <v>2.28</v>
       </c>
       <c r="X15" t="n">
         <v>17</v>
       </c>
       <c r="Y15" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="Z15" t="n">
         <v>40</v>
       </c>
       <c r="AA15" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AB15" t="n">
         <v>9.800000000000001</v>
@@ -2494,40 +2494,40 @@
         <v>9.199999999999999</v>
       </c>
       <c r="AD15" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AE15" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AF15" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AG15" t="n">
         <v>9.800000000000001</v>
       </c>
       <c r="AH15" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AI15" t="n">
-        <v>160</v>
+        <v>65</v>
       </c>
       <c r="AJ15" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AK15" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AL15" t="n">
         <v>32</v>
       </c>
       <c r="AM15" t="n">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="AN15" t="n">
-        <v>9.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="AO15" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="16">
@@ -2557,16 +2557,16 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2.52</v>
+        <v>2.54</v>
       </c>
       <c r="G16" t="n">
-        <v>2.54</v>
+        <v>2.56</v>
       </c>
       <c r="H16" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="I16" t="n">
         <v>2.96</v>
-      </c>
-      <c r="I16" t="n">
-        <v>2.98</v>
       </c>
       <c r="J16" t="n">
         <v>3.7</v>
@@ -2587,31 +2587,31 @@
         <v>1.26</v>
       </c>
       <c r="P16" t="n">
-        <v>2.24</v>
+        <v>2.2</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.79</v>
+        <v>1.81</v>
       </c>
       <c r="R16" t="n">
         <v>1.47</v>
       </c>
       <c r="S16" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="T16" t="n">
         <v>1.65</v>
       </c>
       <c r="U16" t="n">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="V16" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="W16" t="n">
         <v>1.64</v>
       </c>
       <c r="X16" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="Y16" t="n">
         <v>14.5</v>
@@ -2632,7 +2632,7 @@
         <v>12.5</v>
       </c>
       <c r="AE16" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AF16" t="n">
         <v>18</v>
@@ -2641,7 +2641,7 @@
         <v>11.5</v>
       </c>
       <c r="AH16" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AI16" t="n">
         <v>36</v>
@@ -2656,10 +2656,10 @@
         <v>34</v>
       </c>
       <c r="AM16" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AN16" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AO16" t="n">
         <v>22</v>
@@ -2692,10 +2692,10 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="G17" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="H17" t="n">
         <v>1.79</v>
@@ -2704,40 +2704,40 @@
         <v>1.81</v>
       </c>
       <c r="J17" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="K17" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="L17" t="n">
-        <v>1.32</v>
+        <v>1.37</v>
       </c>
       <c r="M17" t="n">
         <v>1.05</v>
       </c>
       <c r="N17" t="n">
-        <v>5</v>
+        <v>4.8</v>
       </c>
       <c r="O17" t="n">
-        <v>1.23</v>
+        <v>1.25</v>
       </c>
       <c r="P17" t="n">
-        <v>2.38</v>
+        <v>2.24</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.7</v>
+        <v>1.77</v>
       </c>
       <c r="R17" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="S17" t="n">
-        <v>2.78</v>
+        <v>2.92</v>
       </c>
       <c r="T17" t="n">
-        <v>1.7</v>
+        <v>1.74</v>
       </c>
       <c r="U17" t="n">
-        <v>2.34</v>
+        <v>2.26</v>
       </c>
       <c r="V17" t="n">
         <v>2.22</v>
@@ -2749,25 +2749,25 @@
         <v>19.5</v>
       </c>
       <c r="Y17" t="n">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="Z17" t="n">
         <v>12</v>
       </c>
       <c r="AA17" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AB17" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AC17" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD17" t="n">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AE17" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AF17" t="n">
         <v>38</v>
@@ -2776,28 +2776,28 @@
         <v>18</v>
       </c>
       <c r="AH17" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AI17" t="n">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="AJ17" t="n">
         <v>110</v>
       </c>
       <c r="AK17" t="n">
+        <v>60</v>
+      </c>
+      <c r="AL17" t="n">
+        <v>60</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>85</v>
+      </c>
+      <c r="AN17" t="n">
         <v>55</v>
       </c>
-      <c r="AL17" t="n">
-        <v>55</v>
-      </c>
-      <c r="AM17" t="n">
-        <v>80</v>
-      </c>
-      <c r="AN17" t="n">
-        <v>44</v>
-      </c>
       <c r="AO17" t="n">
-        <v>8.800000000000001</v>
+        <v>9.4</v>
       </c>
     </row>
     <row r="18">
@@ -2827,73 +2827,73 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="G18" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="H18" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="I18" t="n">
-        <v>7.8</v>
+        <v>7.4</v>
       </c>
       <c r="J18" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="K18" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="L18" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="M18" t="n">
         <v>1.03</v>
       </c>
       <c r="N18" t="n">
-        <v>6.4</v>
+        <v>6.8</v>
       </c>
       <c r="O18" t="n">
         <v>1.16</v>
       </c>
       <c r="P18" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="R18" t="n">
-        <v>1.75</v>
+        <v>1.81</v>
       </c>
       <c r="S18" t="n">
-        <v>2.26</v>
+        <v>2.2</v>
       </c>
       <c r="T18" t="n">
-        <v>1.71</v>
+        <v>1.68</v>
       </c>
       <c r="U18" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="V18" t="n">
         <v>1.15</v>
       </c>
       <c r="W18" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="X18" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="Y18" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="Z18" t="n">
         <v>70</v>
       </c>
       <c r="AA18" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="AB18" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AC18" t="n">
         <v>12.5</v>
@@ -2905,16 +2905,16 @@
         <v>80</v>
       </c>
       <c r="AF18" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AG18" t="n">
         <v>10.5</v>
       </c>
       <c r="AH18" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AI18" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AJ18" t="n">
         <v>13.5</v>
@@ -2923,13 +2923,13 @@
         <v>13.5</v>
       </c>
       <c r="AL18" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AM18" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AN18" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="AO18" t="n">
         <v>70</v>
@@ -2962,100 +2962,100 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="G19" t="n">
         <v>4.5</v>
       </c>
       <c r="H19" t="n">
-        <v>2.32</v>
+        <v>2.38</v>
       </c>
       <c r="I19" t="n">
-        <v>2.5</v>
+        <v>2.46</v>
       </c>
       <c r="J19" t="n">
-        <v>2.74</v>
+        <v>2.76</v>
       </c>
       <c r="K19" t="n">
-        <v>2.92</v>
+        <v>2.88</v>
       </c>
       <c r="L19" t="n">
-        <v>1.01</v>
+        <v>1.73</v>
       </c>
       <c r="M19" t="n">
-        <v>1.14</v>
+        <v>1.19</v>
       </c>
       <c r="N19" t="n">
-        <v>2.22</v>
+        <v>2.26</v>
       </c>
       <c r="O19" t="n">
-        <v>1.71</v>
+        <v>1.75</v>
       </c>
       <c r="P19" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="Q19" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="R19" t="n">
         <v>1.13</v>
       </c>
       <c r="S19" t="n">
-        <v>7.2</v>
+        <v>7.6</v>
       </c>
       <c r="T19" t="n">
         <v>2.4</v>
       </c>
       <c r="U19" t="n">
-        <v>1.63</v>
+        <v>1.62</v>
       </c>
       <c r="V19" t="n">
-        <v>1.66</v>
+        <v>1.68</v>
       </c>
       <c r="W19" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="X19" t="n">
-        <v>7.4</v>
+        <v>6.6</v>
       </c>
       <c r="Y19" t="n">
-        <v>7.4</v>
+        <v>6.4</v>
       </c>
       <c r="Z19" t="n">
-        <v>16.5</v>
+        <v>28</v>
       </c>
       <c r="AA19" t="n">
         <v>980</v>
       </c>
       <c r="AB19" t="n">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="AC19" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AD19" t="n">
-        <v>16.5</v>
+        <v>34</v>
       </c>
       <c r="AE19" t="n">
-        <v>55</v>
+        <v>980</v>
       </c>
       <c r="AF19" t="n">
-        <v>34</v>
+        <v>980</v>
       </c>
       <c r="AG19" t="n">
-        <v>24</v>
+        <v>70</v>
       </c>
       <c r="AH19" t="n">
-        <v>36</v>
+        <v>980</v>
       </c>
       <c r="AI19" t="n">
         <v>480</v>
       </c>
       <c r="AJ19" t="n">
-        <v>130</v>
+        <v>500</v>
       </c>
       <c r="AK19" t="n">
-        <v>260</v>
+        <v>300</v>
       </c>
       <c r="AL19" t="n">
         <v>500</v>
@@ -3109,40 +3109,40 @@
         <v>2.92</v>
       </c>
       <c r="J20" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="K20" t="n">
         <v>4.2</v>
       </c>
       <c r="L20" t="n">
-        <v>1.31</v>
+        <v>1.33</v>
       </c>
       <c r="M20" t="n">
         <v>1.04</v>
       </c>
       <c r="N20" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="O20" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="P20" t="n">
-        <v>2.52</v>
+        <v>2.46</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="R20" t="n">
         <v>1.6</v>
       </c>
       <c r="S20" t="n">
-        <v>2.56</v>
+        <v>2.62</v>
       </c>
       <c r="T20" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="U20" t="n">
-        <v>2.62</v>
+        <v>2.6</v>
       </c>
       <c r="V20" t="n">
         <v>1.52</v>
@@ -3151,10 +3151,10 @@
         <v>1.7</v>
       </c>
       <c r="X20" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Y20" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="Z20" t="n">
         <v>23</v>
@@ -3163,37 +3163,37 @@
         <v>46</v>
       </c>
       <c r="AB20" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AC20" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD20" t="n">
         <v>13</v>
       </c>
       <c r="AE20" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AF20" t="n">
         <v>18</v>
       </c>
       <c r="AG20" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AH20" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AI20" t="n">
         <v>32</v>
       </c>
       <c r="AJ20" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AK20" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AL20" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AM20" t="n">
         <v>60</v>
@@ -3202,7 +3202,7 @@
         <v>13.5</v>
       </c>
       <c r="AO20" t="n">
-        <v>17.5</v>
+        <v>18.5</v>
       </c>
     </row>
     <row r="21">
@@ -3274,7 +3274,7 @@
         <v>3.55</v>
       </c>
       <c r="T21" t="n">
-        <v>1.93</v>
+        <v>1.94</v>
       </c>
       <c r="U21" t="n">
         <v>2</v>
@@ -3292,7 +3292,7 @@
         <v>18.5</v>
       </c>
       <c r="Z21" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AA21" t="n">
         <v>150</v>
@@ -3319,7 +3319,7 @@
         <v>22</v>
       </c>
       <c r="AI21" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AJ21" t="n">
         <v>17</v>
@@ -3367,16 +3367,16 @@
         </is>
       </c>
       <c r="F22" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="G22" t="n">
         <v>2.9</v>
       </c>
-      <c r="G22" t="n">
-        <v>2.94</v>
-      </c>
       <c r="H22" t="n">
-        <v>2.7</v>
+        <v>2.74</v>
       </c>
       <c r="I22" t="n">
-        <v>2.74</v>
+        <v>2.78</v>
       </c>
       <c r="J22" t="n">
         <v>3.4</v>
@@ -3385,40 +3385,40 @@
         <v>3.45</v>
       </c>
       <c r="L22" t="n">
-        <v>1.43</v>
+        <v>1.45</v>
       </c>
       <c r="M22" t="n">
         <v>1.08</v>
       </c>
       <c r="N22" t="n">
-        <v>3.75</v>
+        <v>3.65</v>
       </c>
       <c r="O22" t="n">
-        <v>1.34</v>
+        <v>1.36</v>
       </c>
       <c r="P22" t="n">
-        <v>1.92</v>
+        <v>1.87</v>
       </c>
       <c r="Q22" t="n">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="R22" t="n">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="S22" t="n">
-        <v>3.65</v>
+        <v>3.8</v>
       </c>
       <c r="T22" t="n">
-        <v>1.79</v>
+        <v>1.82</v>
       </c>
       <c r="U22" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="V22" t="n">
-        <v>1.57</v>
+        <v>1.56</v>
       </c>
       <c r="W22" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="X22" t="n">
         <v>12.5</v>
@@ -3430,10 +3430,10 @@
         <v>17</v>
       </c>
       <c r="AA22" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AB22" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AC22" t="n">
         <v>7.4</v>
@@ -3445,7 +3445,7 @@
         <v>30</v>
       </c>
       <c r="AF22" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AG22" t="n">
         <v>12.5</v>
@@ -3454,7 +3454,7 @@
         <v>17</v>
       </c>
       <c r="AI22" t="n">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="AJ22" t="n">
         <v>46</v>
@@ -3463,16 +3463,16 @@
         <v>32</v>
       </c>
       <c r="AL22" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AM22" t="n">
-        <v>320</v>
+        <v>100</v>
       </c>
       <c r="AN22" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AO22" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="23">
@@ -3502,16 +3502,16 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>2.16</v>
+        <v>2.1</v>
       </c>
       <c r="G23" t="n">
-        <v>2.18</v>
+        <v>2.12</v>
       </c>
       <c r="H23" t="n">
-        <v>3.65</v>
+        <v>3.75</v>
       </c>
       <c r="I23" t="n">
-        <v>3.7</v>
+        <v>3.85</v>
       </c>
       <c r="J23" t="n">
         <v>3.75</v>
@@ -3520,43 +3520,43 @@
         <v>3.8</v>
       </c>
       <c r="L23" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="M23" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N23" t="n">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="O23" t="n">
-        <v>1.28</v>
+        <v>1.3</v>
       </c>
       <c r="P23" t="n">
-        <v>2.18</v>
+        <v>2.1</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.82</v>
+        <v>1.89</v>
       </c>
       <c r="R23" t="n">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="S23" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="T23" t="n">
-        <v>1.71</v>
+        <v>1.74</v>
       </c>
       <c r="U23" t="n">
-        <v>2.36</v>
+        <v>2.28</v>
       </c>
       <c r="V23" t="n">
-        <v>1.37</v>
+        <v>1.35</v>
       </c>
       <c r="W23" t="n">
-        <v>1.84</v>
+        <v>1.89</v>
       </c>
       <c r="X23" t="n">
-        <v>16.5</v>
+        <v>15</v>
       </c>
       <c r="Y23" t="n">
         <v>15.5</v>
@@ -3565,10 +3565,10 @@
         <v>27</v>
       </c>
       <c r="AA23" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AB23" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AC23" t="n">
         <v>8.199999999999999</v>
@@ -3577,10 +3577,10 @@
         <v>15</v>
       </c>
       <c r="AE23" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AF23" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AG23" t="n">
         <v>10.5</v>
@@ -3589,25 +3589,25 @@
         <v>16.5</v>
       </c>
       <c r="AI23" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="AJ23" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AK23" t="n">
         <v>21</v>
       </c>
       <c r="AL23" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AM23" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AN23" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AO23" t="n">
-        <v>34</v>
+        <v>38</v>
       </c>
     </row>
     <row r="24">
@@ -3643,10 +3643,10 @@
         <v>2.02</v>
       </c>
       <c r="H24" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="I24" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="J24" t="n">
         <v>4</v>
@@ -3655,46 +3655,46 @@
         <v>4.1</v>
       </c>
       <c r="L24" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="M24" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N24" t="n">
-        <v>5.1</v>
+        <v>4.9</v>
       </c>
       <c r="O24" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="P24" t="n">
-        <v>2.4</v>
+        <v>2.32</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="R24" t="n">
-        <v>1.54</v>
+        <v>1.52</v>
       </c>
       <c r="S24" t="n">
-        <v>2.78</v>
+        <v>2.82</v>
       </c>
       <c r="T24" t="n">
-        <v>1.65</v>
+        <v>1.68</v>
       </c>
       <c r="U24" t="n">
-        <v>2.44</v>
+        <v>2.38</v>
       </c>
       <c r="V24" t="n">
         <v>1.33</v>
       </c>
       <c r="W24" t="n">
-        <v>1.99</v>
+        <v>1.98</v>
       </c>
       <c r="X24" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="Y24" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Z24" t="n">
         <v>32</v>
@@ -3706,13 +3706,13 @@
         <v>12</v>
       </c>
       <c r="AC24" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD24" t="n">
         <v>16</v>
       </c>
       <c r="AE24" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AF24" t="n">
         <v>14</v>
@@ -3721,10 +3721,10 @@
         <v>10</v>
       </c>
       <c r="AH24" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AI24" t="n">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="AJ24" t="n">
         <v>23</v>
@@ -3733,16 +3733,16 @@
         <v>18</v>
       </c>
       <c r="AL24" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AM24" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AN24" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AO24" t="n">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="25">
@@ -3772,10 +3772,10 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="G25" t="n">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
       <c r="H25" t="n">
         <v>3.2</v>
@@ -3790,55 +3790,55 @@
         <v>3.6</v>
       </c>
       <c r="L25" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="M25" t="n">
         <v>1.07</v>
       </c>
       <c r="N25" t="n">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="O25" t="n">
-        <v>1.32</v>
+        <v>1.34</v>
       </c>
       <c r="P25" t="n">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.96</v>
+        <v>2.04</v>
       </c>
       <c r="R25" t="n">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="S25" t="n">
-        <v>3.45</v>
+        <v>3.65</v>
       </c>
       <c r="T25" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="U25" t="n">
-        <v>2.26</v>
+        <v>2.18</v>
       </c>
       <c r="V25" t="n">
         <v>1.43</v>
       </c>
       <c r="W25" t="n">
-        <v>1.69</v>
+        <v>1.68</v>
       </c>
       <c r="X25" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="Y25" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="Z25" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AA25" t="n">
         <v>130</v>
       </c>
       <c r="AB25" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AC25" t="n">
         <v>7.8</v>
@@ -3847,37 +3847,37 @@
         <v>14</v>
       </c>
       <c r="AE25" t="n">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AF25" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AG25" t="n">
         <v>11.5</v>
       </c>
       <c r="AH25" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AI25" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="AJ25" t="n">
+        <v>60</v>
+      </c>
+      <c r="AK25" t="n">
         <v>36</v>
       </c>
-      <c r="AK25" t="n">
-        <v>28</v>
-      </c>
       <c r="AL25" t="n">
-        <v>42</v>
+        <v>130</v>
       </c>
       <c r="AM25" t="n">
-        <v>200</v>
+        <v>580</v>
       </c>
       <c r="AN25" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AO25" t="n">
-        <v>34</v>
+        <v>65</v>
       </c>
     </row>
     <row r="26">
@@ -3907,7 +3907,7 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="G26" t="n">
         <v>2.46</v>
@@ -3916,7 +3916,7 @@
         <v>3.25</v>
       </c>
       <c r="I26" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="J26" t="n">
         <v>3.45</v>
@@ -3925,43 +3925,43 @@
         <v>3.5</v>
       </c>
       <c r="L26" t="n">
-        <v>1.41</v>
+        <v>1.43</v>
       </c>
       <c r="M26" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N26" t="n">
-        <v>3.95</v>
+        <v>3.75</v>
       </c>
       <c r="O26" t="n">
-        <v>1.31</v>
+        <v>1.34</v>
       </c>
       <c r="P26" t="n">
-        <v>1.99</v>
+        <v>1.91</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.97</v>
+        <v>2.06</v>
       </c>
       <c r="R26" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="S26" t="n">
-        <v>3.45</v>
+        <v>3.55</v>
       </c>
       <c r="T26" t="n">
-        <v>1.76</v>
+        <v>1.8</v>
       </c>
       <c r="U26" t="n">
-        <v>2.24</v>
+        <v>2.16</v>
       </c>
       <c r="V26" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="W26" t="n">
         <v>1.68</v>
       </c>
       <c r="X26" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Y26" t="n">
         <v>13</v>
@@ -3982,7 +3982,7 @@
         <v>13.5</v>
       </c>
       <c r="AE26" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AF26" t="n">
         <v>15</v>
@@ -3994,7 +3994,7 @@
         <v>17</v>
       </c>
       <c r="AI26" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="AJ26" t="n">
         <v>34</v>
@@ -4003,16 +4003,16 @@
         <v>26</v>
       </c>
       <c r="AL26" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AM26" t="n">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="AN26" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AO26" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="27">
@@ -4042,22 +4042,22 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>2.1</v>
+        <v>2.06</v>
       </c>
       <c r="G27" t="n">
-        <v>2.14</v>
+        <v>2.08</v>
       </c>
       <c r="H27" t="n">
-        <v>3.7</v>
+        <v>3.85</v>
       </c>
       <c r="I27" t="n">
-        <v>3.8</v>
+        <v>3.95</v>
       </c>
       <c r="J27" t="n">
         <v>3.8</v>
       </c>
       <c r="K27" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="L27" t="n">
         <v>1.38</v>
@@ -4090,34 +4090,34 @@
         <v>2.28</v>
       </c>
       <c r="V27" t="n">
-        <v>1.36</v>
+        <v>1.34</v>
       </c>
       <c r="W27" t="n">
-        <v>1.87</v>
+        <v>1.92</v>
       </c>
       <c r="X27" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="Y27" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="Z27" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AA27" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AB27" t="n">
         <v>10.5</v>
       </c>
       <c r="AC27" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD27" t="n">
         <v>15</v>
       </c>
       <c r="AE27" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AF27" t="n">
         <v>13.5</v>
@@ -4126,10 +4126,10 @@
         <v>10.5</v>
       </c>
       <c r="AH27" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AI27" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="AJ27" t="n">
         <v>25</v>
@@ -4141,13 +4141,13 @@
         <v>32</v>
       </c>
       <c r="AM27" t="n">
-        <v>80</v>
+        <v>190</v>
       </c>
       <c r="AN27" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AO27" t="n">
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
     <row r="28">
@@ -4177,10 +4177,10 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>2.72</v>
+        <v>2.74</v>
       </c>
       <c r="G28" t="n">
-        <v>2.84</v>
+        <v>2.82</v>
       </c>
       <c r="H28" t="n">
         <v>3.1</v>
@@ -4195,28 +4195,28 @@
         <v>3.1</v>
       </c>
       <c r="L28" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="M28" t="n">
         <v>1.13</v>
       </c>
       <c r="N28" t="n">
-        <v>2.78</v>
+        <v>2.76</v>
       </c>
       <c r="O28" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="P28" t="n">
-        <v>1.6</v>
+        <v>1.58</v>
       </c>
       <c r="Q28" t="n">
-        <v>2.56</v>
+        <v>2.68</v>
       </c>
       <c r="R28" t="n">
         <v>1.21</v>
       </c>
       <c r="S28" t="n">
-        <v>5.2</v>
+        <v>5.5</v>
       </c>
       <c r="T28" t="n">
         <v>2.06</v>
@@ -4225,19 +4225,19 @@
         <v>1.86</v>
       </c>
       <c r="V28" t="n">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="W28" t="n">
         <v>1.54</v>
       </c>
       <c r="X28" t="n">
-        <v>9.199999999999999</v>
+        <v>8.6</v>
       </c>
       <c r="Y28" t="n">
-        <v>9.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="Z28" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AA28" t="n">
         <v>900</v>
@@ -4252,25 +4252,25 @@
         <v>14</v>
       </c>
       <c r="AE28" t="n">
-        <v>300</v>
+        <v>48</v>
       </c>
       <c r="AF28" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AG28" t="n">
         <v>13</v>
       </c>
       <c r="AH28" t="n">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="AI28" t="n">
         <v>500</v>
       </c>
       <c r="AJ28" t="n">
-        <v>400</v>
+        <v>46</v>
       </c>
       <c r="AK28" t="n">
-        <v>85</v>
+        <v>44</v>
       </c>
       <c r="AL28" t="n">
         <v>460</v>
@@ -4279,7 +4279,7 @@
         <v>200</v>
       </c>
       <c r="AN28" t="n">
-        <v>970</v>
+        <v>46</v>
       </c>
       <c r="AO28" t="n">
         <v>170</v>
@@ -4312,88 +4312,88 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>2.84</v>
+        <v>3.2</v>
       </c>
       <c r="G29" t="n">
-        <v>2.9</v>
+        <v>3.25</v>
       </c>
       <c r="H29" t="n">
-        <v>2.64</v>
+        <v>2.42</v>
       </c>
       <c r="I29" t="n">
-        <v>2.7</v>
+        <v>2.46</v>
       </c>
       <c r="J29" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="K29" t="n">
         <v>3.65</v>
       </c>
       <c r="L29" t="n">
-        <v>1.38</v>
+        <v>1.4</v>
       </c>
       <c r="M29" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N29" t="n">
-        <v>4.3</v>
+        <v>4.1</v>
       </c>
       <c r="O29" t="n">
-        <v>1.29</v>
+        <v>1.31</v>
       </c>
       <c r="P29" t="n">
-        <v>2.1</v>
+        <v>2.04</v>
       </c>
       <c r="Q29" t="n">
-        <v>1.87</v>
+        <v>1.92</v>
       </c>
       <c r="R29" t="n">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="S29" t="n">
-        <v>3.2</v>
+        <v>3.35</v>
       </c>
       <c r="T29" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="U29" t="n">
-        <v>2.34</v>
+        <v>2.3</v>
       </c>
       <c r="V29" t="n">
-        <v>1.59</v>
+        <v>1.68</v>
       </c>
       <c r="W29" t="n">
-        <v>1.52</v>
+        <v>1.44</v>
       </c>
       <c r="X29" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="Y29" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="Z29" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AA29" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="AB29" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AC29" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="AD29" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AE29" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AF29" t="n">
-        <v>19.5</v>
+        <v>22</v>
       </c>
       <c r="AG29" t="n">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="AH29" t="n">
         <v>16</v>
@@ -4402,22 +4402,22 @@
         <v>36</v>
       </c>
       <c r="AJ29" t="n">
+        <v>55</v>
+      </c>
+      <c r="AK29" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL29" t="n">
         <v>44</v>
       </c>
-      <c r="AK29" t="n">
-        <v>29</v>
-      </c>
-      <c r="AL29" t="n">
-        <v>38</v>
-      </c>
       <c r="AM29" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AN29" t="n">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="AO29" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
     </row>
     <row r="30">
@@ -4447,73 +4447,73 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="G30" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="H30" t="n">
-        <v>2.96</v>
+        <v>2.98</v>
       </c>
       <c r="I30" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="J30" t="n">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="K30" t="n">
         <v>2.92</v>
       </c>
       <c r="L30" t="n">
-        <v>1.01</v>
+        <v>1.74</v>
       </c>
       <c r="M30" t="n">
         <v>1.18</v>
       </c>
       <c r="N30" t="n">
-        <v>2.2</v>
+        <v>2.24</v>
       </c>
       <c r="O30" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="P30" t="n">
         <v>1.38</v>
       </c>
       <c r="Q30" t="n">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="R30" t="n">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="S30" t="n">
-        <v>7.6</v>
+        <v>8</v>
       </c>
       <c r="T30" t="n">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="U30" t="n">
         <v>1.62</v>
       </c>
       <c r="V30" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="W30" t="n">
         <v>1.46</v>
       </c>
-      <c r="W30" t="n">
-        <v>1.45</v>
-      </c>
       <c r="X30" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="Y30" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="Z30" t="n">
         <v>18</v>
       </c>
       <c r="AA30" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="AB30" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="AC30" t="n">
         <v>7</v>
@@ -4582,22 +4582,22 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>2.1</v>
+        <v>2.14</v>
       </c>
       <c r="G31" t="n">
         <v>2.22</v>
       </c>
       <c r="H31" t="n">
-        <v>4.6</v>
+        <v>4.8</v>
       </c>
       <c r="I31" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="J31" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="K31" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="L31" t="n">
         <v>0</v>
@@ -4717,22 +4717,22 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>2.86</v>
+        <v>2.88</v>
       </c>
       <c r="G32" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="H32" t="n">
         <v>3</v>
       </c>
       <c r="I32" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="J32" t="n">
-        <v>2.82</v>
+        <v>2.88</v>
       </c>
       <c r="K32" t="n">
-        <v>3</v>
+        <v>2.98</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
@@ -4855,43 +4855,43 @@
         <v>2.2</v>
       </c>
       <c r="G33" t="n">
-        <v>2.3</v>
+        <v>2.22</v>
       </c>
       <c r="H33" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="I33" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="J33" t="n">
-        <v>2.96</v>
+        <v>3.05</v>
       </c>
       <c r="K33" t="n">
         <v>3.1</v>
       </c>
       <c r="L33" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="M33" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="N33" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="O33" t="n">
         <v>1.62</v>
-      </c>
-      <c r="M33" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="N33" t="n">
-        <v>2.44</v>
-      </c>
-      <c r="O33" t="n">
-        <v>1.6</v>
       </c>
       <c r="P33" t="n">
         <v>1.47</v>
       </c>
       <c r="Q33" t="n">
-        <v>2.84</v>
+        <v>3</v>
       </c>
       <c r="R33" t="n">
         <v>1.16</v>
       </c>
       <c r="S33" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="T33" t="n">
         <v>2.22</v>
@@ -4903,13 +4903,13 @@
         <v>1.27</v>
       </c>
       <c r="W33" t="n">
-        <v>1.76</v>
+        <v>1.81</v>
       </c>
       <c r="X33" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Y33" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="Z33" t="n">
         <v>30</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-22.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-22.xlsx
@@ -667,64 +667,64 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="G2" t="n">
-        <v>1.66</v>
+        <v>1.64</v>
       </c>
       <c r="H2" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="I2" t="n">
         <v>7</v>
       </c>
       <c r="J2" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="K2" t="n">
         <v>4.8</v>
       </c>
       <c r="L2" t="n">
-        <v>1.37</v>
+        <v>1.35</v>
       </c>
       <c r="M2" t="n">
         <v>1.05</v>
       </c>
       <c r="N2" t="n">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
       <c r="O2" t="n">
-        <v>1.26</v>
+        <v>1.24</v>
       </c>
       <c r="P2" t="n">
-        <v>2.14</v>
+        <v>2.22</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.79</v>
+        <v>1.73</v>
       </c>
       <c r="R2" t="n">
-        <v>1.44</v>
+        <v>1.48</v>
       </c>
       <c r="S2" t="n">
-        <v>3</v>
+        <v>2.82</v>
       </c>
       <c r="T2" t="n">
-        <v>1.81</v>
+        <v>1.78</v>
       </c>
       <c r="U2" t="n">
-        <v>2.04</v>
+        <v>2.12</v>
       </c>
       <c r="V2" t="n">
         <v>1.18</v>
       </c>
       <c r="W2" t="n">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="X2" t="n">
-        <v>19.5</v>
+        <v>21</v>
       </c>
       <c r="Y2" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="Z2" t="n">
         <v>55</v>
@@ -733,10 +733,10 @@
         <v>900</v>
       </c>
       <c r="AB2" t="n">
-        <v>9.4</v>
+        <v>10</v>
       </c>
       <c r="AC2" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AD2" t="n">
         <v>24</v>
@@ -754,22 +754,22 @@
         <v>22</v>
       </c>
       <c r="AI2" t="n">
-        <v>200</v>
+        <v>330</v>
       </c>
       <c r="AJ2" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AK2" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AL2" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AM2" t="n">
         <v>580</v>
       </c>
       <c r="AN2" t="n">
-        <v>9.199999999999999</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AO2" t="n">
         <v>160</v>
@@ -802,7 +802,7 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>2.2</v>
+        <v>2.14</v>
       </c>
       <c r="G3" t="n">
         <v>2.3</v>
@@ -811,13 +811,13 @@
         <v>4.5</v>
       </c>
       <c r="I3" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="J3" t="n">
-        <v>2.74</v>
+        <v>2.76</v>
       </c>
       <c r="K3" t="n">
-        <v>2.94</v>
+        <v>3.05</v>
       </c>
       <c r="L3" t="n">
         <v>1.75</v>
@@ -829,10 +829,10 @@
         <v>2.16</v>
       </c>
       <c r="O3" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="P3" t="n">
-        <v>1.35</v>
+        <v>1.37</v>
       </c>
       <c r="Q3" t="n">
         <v>3.4</v>
@@ -841,10 +841,10 @@
         <v>1.12</v>
       </c>
       <c r="S3" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="T3" t="n">
-        <v>2.46</v>
+        <v>2.4</v>
       </c>
       <c r="U3" t="n">
         <v>1.56</v>
@@ -856,22 +856,22 @@
         <v>1.76</v>
       </c>
       <c r="X3" t="n">
-        <v>6.2</v>
+        <v>6.8</v>
       </c>
       <c r="Y3" t="n">
         <v>11</v>
       </c>
       <c r="Z3" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AA3" t="n">
         <v>500</v>
       </c>
       <c r="AB3" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="AC3" t="n">
-        <v>7</v>
+        <v>7.6</v>
       </c>
       <c r="AD3" t="n">
         <v>24</v>
@@ -883,7 +883,7 @@
         <v>12.5</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AH3" t="n">
         <v>32</v>
@@ -895,7 +895,7 @@
         <v>34</v>
       </c>
       <c r="AK3" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AL3" t="n">
         <v>290</v>
@@ -904,7 +904,7 @@
         <v>500</v>
       </c>
       <c r="AN3" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AO3" t="n">
         <v>600</v>
@@ -937,22 +937,22 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="G4" t="n">
-        <v>1.71</v>
+        <v>1.66</v>
       </c>
       <c r="H4" t="n">
         <v>5.1</v>
       </c>
       <c r="I4" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="J4" t="n">
         <v>4.3</v>
       </c>
       <c r="K4" t="n">
-        <v>5</v>
+        <v>5.2</v>
       </c>
       <c r="L4" t="n">
         <v>1.31</v>
@@ -964,31 +964,31 @@
         <v>5.1</v>
       </c>
       <c r="O4" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="P4" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.64</v>
+        <v>1.63</v>
       </c>
       <c r="R4" t="n">
-        <v>1.55</v>
+        <v>1.54</v>
       </c>
       <c r="S4" t="n">
-        <v>2.62</v>
+        <v>2.6</v>
       </c>
       <c r="T4" t="n">
-        <v>1.67</v>
+        <v>1.69</v>
       </c>
       <c r="U4" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="V4" t="n">
         <v>1.2</v>
       </c>
       <c r="W4" t="n">
-        <v>2.42</v>
+        <v>2.48</v>
       </c>
       <c r="X4" t="n">
         <v>90</v>
@@ -1000,13 +1000,13 @@
         <v>970</v>
       </c>
       <c r="AA4" t="n">
-        <v>150</v>
+        <v>170</v>
       </c>
       <c r="AB4" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AC4" t="n">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="AD4" t="n">
         <v>970</v>
@@ -1015,10 +1015,10 @@
         <v>190</v>
       </c>
       <c r="AF4" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AG4" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AH4" t="n">
         <v>970</v>
@@ -1030,7 +1030,7 @@
         <v>32</v>
       </c>
       <c r="AK4" t="n">
-        <v>28</v>
+        <v>65</v>
       </c>
       <c r="AL4" t="n">
         <v>970</v>
@@ -1039,7 +1039,7 @@
         <v>580</v>
       </c>
       <c r="AN4" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="AO4" t="n">
         <v>600</v>
@@ -1075,16 +1075,16 @@
         <v>2.02</v>
       </c>
       <c r="G5" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="H5" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="I5" t="n">
-        <v>5.2</v>
+        <v>5.4</v>
       </c>
       <c r="J5" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="K5" t="n">
         <v>3.25</v>
@@ -1105,67 +1105,67 @@
         <v>1.43</v>
       </c>
       <c r="Q5" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="R5" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="S5" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="T5" t="n">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="U5" t="n">
-        <v>1.6</v>
+        <v>1.58</v>
       </c>
       <c r="V5" t="n">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="W5" t="n">
-        <v>1.94</v>
+        <v>1.92</v>
       </c>
       <c r="X5" t="n">
-        <v>8.6</v>
+        <v>7.4</v>
       </c>
       <c r="Y5" t="n">
-        <v>24</v>
+        <v>11.5</v>
       </c>
       <c r="Z5" t="n">
-        <v>980</v>
+        <v>95</v>
       </c>
       <c r="AA5" t="n">
         <v>900</v>
       </c>
       <c r="AB5" t="n">
-        <v>6.4</v>
+        <v>5.8</v>
       </c>
       <c r="AC5" t="n">
-        <v>8.800000000000001</v>
+        <v>7.8</v>
       </c>
       <c r="AD5" t="n">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="AE5" t="n">
         <v>500</v>
       </c>
       <c r="AF5" t="n">
-        <v>12</v>
+        <v>10.5</v>
       </c>
       <c r="AG5" t="n">
         <v>12.5</v>
       </c>
       <c r="AH5" t="n">
-        <v>980</v>
+        <v>80</v>
       </c>
       <c r="AI5" t="n">
         <v>500</v>
       </c>
       <c r="AJ5" t="n">
-        <v>29</v>
+        <v>65</v>
       </c>
       <c r="AK5" t="n">
-        <v>140</v>
+        <v>80</v>
       </c>
       <c r="AL5" t="n">
         <v>460</v>
@@ -1174,7 +1174,7 @@
         <v>500</v>
       </c>
       <c r="AN5" t="n">
-        <v>36</v>
+        <v>500</v>
       </c>
       <c r="AO5" t="n">
         <v>600</v>
@@ -1207,16 +1207,16 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>3.05</v>
+        <v>3.15</v>
       </c>
       <c r="G6" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="H6" t="n">
         <v>2.82</v>
       </c>
       <c r="I6" t="n">
-        <v>2.96</v>
+        <v>2.88</v>
       </c>
       <c r="J6" t="n">
         <v>2.94</v>
@@ -1225,52 +1225,52 @@
         <v>3.05</v>
       </c>
       <c r="L6" t="n">
-        <v>1.63</v>
+        <v>1.62</v>
       </c>
       <c r="M6" t="n">
         <v>1.14</v>
       </c>
       <c r="N6" t="n">
-        <v>2.58</v>
+        <v>2.6</v>
       </c>
       <c r="O6" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="P6" t="n">
-        <v>1.51</v>
+        <v>1.55</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.84</v>
+        <v>2.74</v>
       </c>
       <c r="R6" t="n">
         <v>1.18</v>
       </c>
       <c r="S6" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="T6" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="U6" t="n">
         <v>1.81</v>
       </c>
       <c r="V6" t="n">
-        <v>1.51</v>
+        <v>1.53</v>
       </c>
       <c r="W6" t="n">
-        <v>1.45</v>
+        <v>1.43</v>
       </c>
       <c r="X6" t="n">
         <v>9.4</v>
       </c>
       <c r="Y6" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Z6" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AA6" t="n">
-        <v>430</v>
+        <v>900</v>
       </c>
       <c r="AB6" t="n">
         <v>9.800000000000001</v>
@@ -1282,34 +1282,34 @@
         <v>16</v>
       </c>
       <c r="AE6" t="n">
-        <v>130</v>
+        <v>300</v>
       </c>
       <c r="AF6" t="n">
         <v>21</v>
       </c>
       <c r="AG6" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AH6" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AI6" t="n">
         <v>460</v>
       </c>
       <c r="AJ6" t="n">
-        <v>900</v>
+        <v>160</v>
       </c>
       <c r="AK6" t="n">
         <v>60</v>
       </c>
       <c r="AL6" t="n">
-        <v>230</v>
+        <v>95</v>
       </c>
       <c r="AM6" t="n">
         <v>500</v>
       </c>
       <c r="AN6" t="n">
-        <v>70</v>
+        <v>140</v>
       </c>
       <c r="AO6" t="n">
         <v>600</v>
@@ -1342,22 +1342,22 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.74</v>
+        <v>1.69</v>
       </c>
       <c r="G7" t="n">
-        <v>1.76</v>
+        <v>1.72</v>
       </c>
       <c r="H7" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="I7" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="J7" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="K7" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="L7" t="n">
         <v>1.42</v>
@@ -1366,10 +1366,10 @@
         <v>1.07</v>
       </c>
       <c r="N7" t="n">
-        <v>3.75</v>
+        <v>3.85</v>
       </c>
       <c r="O7" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="P7" t="n">
         <v>1.96</v>
@@ -1378,13 +1378,13 @@
         <v>2</v>
       </c>
       <c r="R7" t="n">
-        <v>1.36</v>
+        <v>1.38</v>
       </c>
       <c r="S7" t="n">
-        <v>3.65</v>
+        <v>3.55</v>
       </c>
       <c r="T7" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="U7" t="n">
         <v>1.99</v>
@@ -1393,28 +1393,28 @@
         <v>1.22</v>
       </c>
       <c r="W7" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="X7" t="n">
         <v>17</v>
       </c>
       <c r="Y7" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="Z7" t="n">
-        <v>970</v>
+        <v>120</v>
       </c>
       <c r="AA7" t="n">
         <v>900</v>
       </c>
       <c r="AB7" t="n">
-        <v>9.4</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC7" t="n">
         <v>10.5</v>
       </c>
       <c r="AD7" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AE7" t="n">
         <v>190</v>
@@ -1423,22 +1423,22 @@
         <v>10.5</v>
       </c>
       <c r="AG7" t="n">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AH7" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AI7" t="n">
         <v>190</v>
       </c>
       <c r="AJ7" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AK7" t="n">
         <v>19.5</v>
       </c>
       <c r="AL7" t="n">
-        <v>980</v>
+        <v>65</v>
       </c>
       <c r="AM7" t="n">
         <v>580</v>
@@ -1483,49 +1483,49 @@
         <v>1.19</v>
       </c>
       <c r="H8" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="I8" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="J8" t="n">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="K8" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="L8" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="M8" t="n">
         <v>1.02</v>
       </c>
       <c r="N8" t="n">
-        <v>7.6</v>
+        <v>8</v>
       </c>
       <c r="O8" t="n">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="P8" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="R8" t="n">
-        <v>1.91</v>
+        <v>1.93</v>
       </c>
       <c r="S8" t="n">
-        <v>2.04</v>
+        <v>2</v>
       </c>
       <c r="T8" t="n">
-        <v>2.04</v>
+        <v>2.08</v>
       </c>
       <c r="U8" t="n">
-        <v>1.8</v>
+        <v>1.76</v>
       </c>
       <c r="V8" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="W8" t="n">
         <v>6.2</v>
@@ -1534,55 +1534,55 @@
         <v>980</v>
       </c>
       <c r="Y8" t="n">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="Z8" t="n">
-        <v>190</v>
+        <v>260</v>
       </c>
       <c r="AA8" t="n">
         <v>1000</v>
       </c>
       <c r="AB8" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AC8" t="n">
         <v>25</v>
       </c>
       <c r="AD8" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="AE8" t="n">
-        <v>330</v>
+        <v>390</v>
       </c>
       <c r="AF8" t="n">
-        <v>9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AG8" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AH8" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AI8" t="n">
-        <v>220</v>
+        <v>250</v>
       </c>
       <c r="AJ8" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="AK8" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AL8" t="n">
-        <v>980</v>
+        <v>44</v>
       </c>
       <c r="AM8" t="n">
         <v>260</v>
       </c>
       <c r="AN8" t="n">
-        <v>3.35</v>
+        <v>3.25</v>
       </c>
       <c r="AO8" t="n">
-        <v>1000</v>
+        <v>450</v>
       </c>
     </row>
     <row r="9">
@@ -1612,97 +1612,97 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.24</v>
+        <v>2.22</v>
       </c>
       <c r="G9" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="H9" t="n">
-        <v>2.98</v>
+        <v>3</v>
       </c>
       <c r="I9" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="J9" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="K9" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="L9" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="M9" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N9" t="n">
-        <v>6.8</v>
+        <v>6.4</v>
       </c>
       <c r="O9" t="n">
-        <v>1.15</v>
+        <v>1.16</v>
       </c>
       <c r="P9" t="n">
-        <v>2.96</v>
+        <v>2.88</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="R9" t="n">
-        <v>1.79</v>
+        <v>1.73</v>
       </c>
       <c r="S9" t="n">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="T9" t="n">
-        <v>1.42</v>
+        <v>1.47</v>
       </c>
       <c r="U9" t="n">
-        <v>2.92</v>
+        <v>2.82</v>
       </c>
       <c r="V9" t="n">
-        <v>1.47</v>
+        <v>1.46</v>
       </c>
       <c r="W9" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="X9" t="n">
         <v>38</v>
       </c>
       <c r="Y9" t="n">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="Z9" t="n">
+        <v>65</v>
+      </c>
+      <c r="AA9" t="n">
         <v>980</v>
       </c>
-      <c r="AA9" t="n">
-        <v>120</v>
-      </c>
       <c r="AB9" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="AC9" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AD9" t="n">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="AE9" t="n">
         <v>980</v>
       </c>
       <c r="AF9" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="AG9" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AH9" t="n">
         <v>14</v>
       </c>
       <c r="AI9" t="n">
-        <v>34</v>
+        <v>980</v>
       </c>
       <c r="AJ9" t="n">
-        <v>980</v>
+        <v>160</v>
       </c>
       <c r="AK9" t="n">
         <v>46</v>
@@ -1717,7 +1717,7 @@
         <v>10.5</v>
       </c>
       <c r="AO9" t="n">
-        <v>18.5</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10">
@@ -1747,70 +1747,70 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>4.6</v>
+        <v>4.8</v>
       </c>
       <c r="G10" t="n">
-        <v>4.7</v>
+        <v>4.9</v>
       </c>
       <c r="H10" t="n">
-        <v>1.94</v>
+        <v>1.92</v>
       </c>
       <c r="I10" t="n">
-        <v>1.96</v>
+        <v>1.93</v>
       </c>
       <c r="J10" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="K10" t="n">
         <v>3.7</v>
       </c>
       <c r="L10" t="n">
-        <v>1.47</v>
+        <v>1.49</v>
       </c>
       <c r="M10" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="N10" t="n">
-        <v>3.45</v>
+        <v>3.35</v>
       </c>
       <c r="O10" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="P10" t="n">
-        <v>1.82</v>
+        <v>1.79</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.18</v>
+        <v>2.24</v>
       </c>
       <c r="R10" t="n">
         <v>1.3</v>
       </c>
       <c r="S10" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="T10" t="n">
-        <v>1.98</v>
+        <v>2.02</v>
       </c>
       <c r="U10" t="n">
-        <v>1.97</v>
+        <v>1.93</v>
       </c>
       <c r="V10" t="n">
-        <v>2.02</v>
+        <v>2.06</v>
       </c>
       <c r="W10" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="X10" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="Y10" t="n">
-        <v>8.199999999999999</v>
+        <v>7.8</v>
       </c>
       <c r="Z10" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AA10" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AB10" t="n">
         <v>14.5</v>
@@ -1825,34 +1825,34 @@
         <v>22</v>
       </c>
       <c r="AF10" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AG10" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AH10" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AI10" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AJ10" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AK10" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AL10" t="n">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="AM10" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="AN10" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AO10" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11">
@@ -1882,19 +1882,19 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="G11" t="n">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="H11" t="n">
-        <v>2.16</v>
+        <v>2.1</v>
       </c>
       <c r="I11" t="n">
-        <v>2.2</v>
+        <v>2.12</v>
       </c>
       <c r="J11" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="K11" t="n">
         <v>3.9</v>
@@ -1909,16 +1909,16 @@
         <v>4.6</v>
       </c>
       <c r="O11" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="P11" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.8</v>
+        <v>1.79</v>
       </c>
       <c r="R11" t="n">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="S11" t="n">
         <v>3</v>
@@ -1927,52 +1927,52 @@
         <v>1.68</v>
       </c>
       <c r="U11" t="n">
-        <v>2.36</v>
+        <v>2.4</v>
       </c>
       <c r="V11" t="n">
-        <v>1.84</v>
+        <v>1.89</v>
       </c>
       <c r="W11" t="n">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="X11" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="Y11" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="Z11" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AA11" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AB11" t="n">
-        <v>15.5</v>
+        <v>16.5</v>
       </c>
       <c r="AC11" t="n">
         <v>8.4</v>
       </c>
       <c r="AD11" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AE11" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AF11" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AG11" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AH11" t="n">
         <v>16</v>
       </c>
       <c r="AI11" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AJ11" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AK11" t="n">
         <v>38</v>
@@ -1984,10 +1984,10 @@
         <v>75</v>
       </c>
       <c r="AN11" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AO11" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="12">
@@ -2017,7 +2017,7 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
       <c r="G12" t="n">
         <v>2.48</v>
@@ -2026,7 +2026,7 @@
         <v>3.05</v>
       </c>
       <c r="I12" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="J12" t="n">
         <v>3.65</v>
@@ -2050,7 +2050,7 @@
         <v>2.14</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="R12" t="n">
         <v>1.45</v>
@@ -2062,7 +2062,7 @@
         <v>1.68</v>
       </c>
       <c r="U12" t="n">
-        <v>2.38</v>
+        <v>2.36</v>
       </c>
       <c r="V12" t="n">
         <v>1.47</v>
@@ -2074,10 +2074,10 @@
         <v>16.5</v>
       </c>
       <c r="Y12" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="Z12" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AA12" t="n">
         <v>50</v>
@@ -2095,7 +2095,7 @@
         <v>32</v>
       </c>
       <c r="AF12" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AG12" t="n">
         <v>11.5</v>
@@ -2107,7 +2107,7 @@
         <v>40</v>
       </c>
       <c r="AJ12" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AK12" t="n">
         <v>24</v>
@@ -2158,58 +2158,58 @@
         <v>4.1</v>
       </c>
       <c r="H13" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="I13" t="n">
         <v>2.04</v>
       </c>
       <c r="J13" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="K13" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="L13" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="M13" t="n">
         <v>1.06</v>
       </c>
       <c r="N13" t="n">
-        <v>4.2</v>
+        <v>4.4</v>
       </c>
       <c r="O13" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="P13" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.87</v>
+        <v>1.84</v>
       </c>
       <c r="R13" t="n">
-        <v>1.43</v>
+        <v>1.45</v>
       </c>
       <c r="S13" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="T13" t="n">
         <v>1.75</v>
       </c>
       <c r="U13" t="n">
-        <v>2.22</v>
+        <v>2.26</v>
       </c>
       <c r="V13" t="n">
-        <v>1.96</v>
+        <v>1.97</v>
       </c>
       <c r="W13" t="n">
         <v>1.32</v>
       </c>
       <c r="X13" t="n">
-        <v>16.5</v>
+        <v>17.5</v>
       </c>
       <c r="Y13" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="Z13" t="n">
         <v>13</v>
@@ -2218,7 +2218,7 @@
         <v>24</v>
       </c>
       <c r="AB13" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AC13" t="n">
         <v>8.4</v>
@@ -2227,10 +2227,10 @@
         <v>10</v>
       </c>
       <c r="AE13" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="AF13" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AG13" t="n">
         <v>16</v>
@@ -2239,7 +2239,7 @@
         <v>17.5</v>
       </c>
       <c r="AI13" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AJ13" t="n">
         <v>80</v>
@@ -2248,7 +2248,7 @@
         <v>46</v>
       </c>
       <c r="AL13" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AM13" t="n">
         <v>85</v>
@@ -2257,7 +2257,7 @@
         <v>42</v>
       </c>
       <c r="AO13" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="14">
@@ -2287,22 +2287,22 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="G14" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="H14" t="n">
         <v>19</v>
       </c>
       <c r="I14" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J14" t="n">
-        <v>9</v>
+        <v>8.4</v>
       </c>
       <c r="K14" t="n">
-        <v>9.4</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="L14" t="n">
         <v>1.28</v>
@@ -2311,22 +2311,22 @@
         <v>1.03</v>
       </c>
       <c r="N14" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="O14" t="n">
         <v>1.18</v>
       </c>
       <c r="P14" t="n">
-        <v>2.74</v>
+        <v>2.72</v>
       </c>
       <c r="Q14" t="n">
         <v>1.55</v>
       </c>
       <c r="R14" t="n">
-        <v>1.68</v>
+        <v>1.67</v>
       </c>
       <c r="S14" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="T14" t="n">
         <v>2.44</v>
@@ -2338,10 +2338,10 @@
         <v>1.05</v>
       </c>
       <c r="W14" t="n">
-        <v>6</v>
+        <v>5.8</v>
       </c>
       <c r="X14" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="Y14" t="n">
         <v>60</v>
@@ -2353,28 +2353,28 @@
         <v>1000</v>
       </c>
       <c r="AB14" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="AC14" t="n">
-        <v>20</v>
+        <v>18.5</v>
       </c>
       <c r="AD14" t="n">
-        <v>400</v>
+        <v>75</v>
       </c>
       <c r="AE14" t="n">
-        <v>410</v>
+        <v>510</v>
       </c>
       <c r="AF14" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="AG14" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AH14" t="n">
-        <v>980</v>
+        <v>48</v>
       </c>
       <c r="AI14" t="n">
-        <v>280</v>
+        <v>340</v>
       </c>
       <c r="AJ14" t="n">
         <v>8.199999999999999</v>
@@ -2383,13 +2383,13 @@
         <v>15</v>
       </c>
       <c r="AL14" t="n">
-        <v>970</v>
+        <v>50</v>
       </c>
       <c r="AM14" t="n">
-        <v>290</v>
+        <v>340</v>
       </c>
       <c r="AN14" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="AO14" t="n">
         <v>1000</v>
@@ -2428,7 +2428,7 @@
         <v>1.78</v>
       </c>
       <c r="H15" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="I15" t="n">
         <v>5.2</v>
@@ -2440,34 +2440,34 @@
         <v>4.2</v>
       </c>
       <c r="L15" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="M15" t="n">
         <v>1.06</v>
       </c>
       <c r="N15" t="n">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="O15" t="n">
-        <v>1.26</v>
+        <v>1.29</v>
       </c>
       <c r="P15" t="n">
-        <v>2.18</v>
+        <v>2.1</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.81</v>
+        <v>1.89</v>
       </c>
       <c r="R15" t="n">
-        <v>1.47</v>
+        <v>1.42</v>
       </c>
       <c r="S15" t="n">
-        <v>3.05</v>
+        <v>3.3</v>
       </c>
       <c r="T15" t="n">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="U15" t="n">
-        <v>2.18</v>
+        <v>2.1</v>
       </c>
       <c r="V15" t="n">
         <v>1.23</v>
@@ -2476,37 +2476,37 @@
         <v>2.28</v>
       </c>
       <c r="X15" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="Y15" t="n">
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
       <c r="Z15" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AA15" t="n">
         <v>120</v>
       </c>
       <c r="AB15" t="n">
-        <v>9.800000000000001</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AC15" t="n">
-        <v>9.199999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD15" t="n">
         <v>19</v>
       </c>
       <c r="AE15" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AF15" t="n">
         <v>11</v>
       </c>
       <c r="AG15" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="AH15" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AI15" t="n">
         <v>65</v>
@@ -2515,19 +2515,19 @@
         <v>18</v>
       </c>
       <c r="AK15" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AL15" t="n">
         <v>32</v>
       </c>
       <c r="AM15" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AN15" t="n">
-        <v>9.4</v>
+        <v>10.5</v>
       </c>
       <c r="AO15" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
     </row>
     <row r="16">
@@ -2557,97 +2557,97 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2.54</v>
+        <v>2.46</v>
       </c>
       <c r="G16" t="n">
-        <v>2.56</v>
+        <v>2.5</v>
       </c>
       <c r="H16" t="n">
-        <v>2.94</v>
+        <v>3.05</v>
       </c>
       <c r="I16" t="n">
-        <v>2.96</v>
+        <v>3.1</v>
       </c>
       <c r="J16" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="K16" t="n">
         <v>3.7</v>
       </c>
-      <c r="K16" t="n">
-        <v>3.75</v>
-      </c>
       <c r="L16" t="n">
-        <v>1.36</v>
+        <v>1.39</v>
       </c>
       <c r="M16" t="n">
         <v>1.06</v>
       </c>
       <c r="N16" t="n">
-        <v>4.6</v>
+        <v>4.3</v>
       </c>
       <c r="O16" t="n">
-        <v>1.26</v>
+        <v>1.28</v>
       </c>
       <c r="P16" t="n">
-        <v>2.2</v>
+        <v>2.12</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.81</v>
+        <v>1.87</v>
       </c>
       <c r="R16" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="S16" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="T16" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="U16" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="V16" t="n">
         <v>1.47</v>
       </c>
-      <c r="S16" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="T16" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="U16" t="n">
-        <v>2.44</v>
-      </c>
-      <c r="V16" t="n">
-        <v>1.51</v>
-      </c>
       <c r="W16" t="n">
-        <v>1.64</v>
+        <v>1.66</v>
       </c>
       <c r="X16" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="Y16" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="Z16" t="n">
         <v>21</v>
       </c>
       <c r="AA16" t="n">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="AB16" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AC16" t="n">
         <v>8.199999999999999</v>
       </c>
       <c r="AD16" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AE16" t="n">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="AF16" t="n">
-        <v>18</v>
+        <v>16.5</v>
       </c>
       <c r="AG16" t="n">
         <v>11.5</v>
       </c>
       <c r="AH16" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AI16" t="n">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="AJ16" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AK16" t="n">
         <v>25</v>
@@ -2656,13 +2656,13 @@
         <v>34</v>
       </c>
       <c r="AM16" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AN16" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AO16" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17">
@@ -2692,70 +2692,70 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="G17" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="H17" t="n">
-        <v>1.79</v>
+        <v>1.78</v>
       </c>
       <c r="I17" t="n">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="J17" t="n">
         <v>4.1</v>
       </c>
       <c r="K17" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="L17" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="M17" t="n">
         <v>1.05</v>
       </c>
       <c r="N17" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="O17" t="n">
         <v>1.25</v>
       </c>
       <c r="P17" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.77</v>
+        <v>1.76</v>
       </c>
       <c r="R17" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="S17" t="n">
-        <v>2.92</v>
+        <v>2.9</v>
       </c>
       <c r="T17" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="U17" t="n">
         <v>2.26</v>
       </c>
       <c r="V17" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="W17" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="X17" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="Y17" t="n">
         <v>10.5</v>
       </c>
       <c r="Z17" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AA17" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AB17" t="n">
         <v>20</v>
@@ -2770,16 +2770,16 @@
         <v>17</v>
       </c>
       <c r="AF17" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AG17" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AH17" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AI17" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AJ17" t="n">
         <v>110</v>
@@ -2791,13 +2791,13 @@
         <v>60</v>
       </c>
       <c r="AM17" t="n">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="AN17" t="n">
         <v>55</v>
       </c>
       <c r="AO17" t="n">
-        <v>9.4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18">
@@ -2830,19 +2830,19 @@
         <v>1.48</v>
       </c>
       <c r="G18" t="n">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="H18" t="n">
         <v>7</v>
       </c>
       <c r="I18" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="J18" t="n">
-        <v>5.2</v>
+        <v>5.4</v>
       </c>
       <c r="K18" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="L18" t="n">
         <v>1.25</v>
@@ -2851,31 +2851,31 @@
         <v>1.03</v>
       </c>
       <c r="N18" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="O18" t="n">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="P18" t="n">
         <v>3</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.49</v>
+        <v>1.47</v>
       </c>
       <c r="R18" t="n">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="S18" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="T18" t="n">
         <v>1.68</v>
       </c>
       <c r="U18" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="V18" t="n">
-        <v>1.15</v>
+        <v>1.16</v>
       </c>
       <c r="W18" t="n">
         <v>3</v>
@@ -2884,13 +2884,13 @@
         <v>32</v>
       </c>
       <c r="Y18" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="Z18" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AA18" t="n">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="AB18" t="n">
         <v>13.5</v>
@@ -2899,13 +2899,13 @@
         <v>12.5</v>
       </c>
       <c r="AD18" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AE18" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AF18" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AG18" t="n">
         <v>10.5</v>
@@ -2917,13 +2917,13 @@
         <v>65</v>
       </c>
       <c r="AJ18" t="n">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="AK18" t="n">
         <v>13.5</v>
       </c>
       <c r="AL18" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AM18" t="n">
         <v>75</v>
@@ -2962,91 +2962,91 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>4.1</v>
+        <v>3.8</v>
       </c>
       <c r="G19" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="H19" t="n">
-        <v>2.38</v>
+        <v>2.54</v>
       </c>
       <c r="I19" t="n">
-        <v>2.46</v>
+        <v>2.64</v>
       </c>
       <c r="J19" t="n">
-        <v>2.76</v>
+        <v>2.72</v>
       </c>
       <c r="K19" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="L19" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="M19" t="n">
         <v>1.19</v>
       </c>
       <c r="N19" t="n">
-        <v>2.26</v>
+        <v>2.24</v>
       </c>
       <c r="O19" t="n">
         <v>1.75</v>
       </c>
       <c r="P19" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="Q19" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="R19" t="n">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="S19" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="T19" t="n">
-        <v>2.4</v>
+        <v>2.46</v>
       </c>
       <c r="U19" t="n">
-        <v>1.62</v>
+        <v>1.59</v>
       </c>
       <c r="V19" t="n">
-        <v>1.68</v>
+        <v>1.61</v>
       </c>
       <c r="W19" t="n">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="X19" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="Y19" t="n">
         <v>6.6</v>
       </c>
-      <c r="Y19" t="n">
-        <v>6.4</v>
-      </c>
       <c r="Z19" t="n">
-        <v>28</v>
+        <v>16.5</v>
       </c>
       <c r="AA19" t="n">
-        <v>980</v>
+        <v>220</v>
       </c>
       <c r="AB19" t="n">
-        <v>19</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AC19" t="n">
         <v>7</v>
       </c>
       <c r="AD19" t="n">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AE19" t="n">
         <v>980</v>
       </c>
       <c r="AF19" t="n">
-        <v>980</v>
+        <v>100</v>
       </c>
       <c r="AG19" t="n">
         <v>70</v>
       </c>
       <c r="AH19" t="n">
-        <v>980</v>
+        <v>32</v>
       </c>
       <c r="AI19" t="n">
         <v>480</v>
@@ -3064,7 +3064,7 @@
         <v>500</v>
       </c>
       <c r="AN19" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="AO19" t="n">
         <v>980</v>
@@ -3097,76 +3097,76 @@
         </is>
       </c>
       <c r="F20" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="G20" t="n">
         <v>2.4</v>
       </c>
-      <c r="G20" t="n">
-        <v>2.42</v>
-      </c>
       <c r="H20" t="n">
-        <v>2.88</v>
+        <v>2.96</v>
       </c>
       <c r="I20" t="n">
-        <v>2.92</v>
+        <v>2.98</v>
       </c>
       <c r="J20" t="n">
         <v>4</v>
       </c>
       <c r="K20" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="L20" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="M20" t="n">
         <v>1.04</v>
       </c>
       <c r="N20" t="n">
-        <v>5.4</v>
+        <v>5.9</v>
       </c>
       <c r="O20" t="n">
-        <v>1.21</v>
+        <v>1.19</v>
       </c>
       <c r="P20" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="R20" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="S20" t="n">
         <v>2.46</v>
       </c>
-      <c r="Q20" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="R20" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="S20" t="n">
-        <v>2.62</v>
-      </c>
       <c r="T20" t="n">
-        <v>1.58</v>
+        <v>1.56</v>
       </c>
       <c r="U20" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="V20" t="n">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="W20" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="X20" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="Y20" t="n">
-        <v>16</v>
+        <v>17.5</v>
       </c>
       <c r="Z20" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AA20" t="n">
         <v>46</v>
       </c>
       <c r="AB20" t="n">
-        <v>14.5</v>
+        <v>16</v>
       </c>
       <c r="AC20" t="n">
-        <v>9.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="AD20" t="n">
         <v>13</v>
@@ -3175,13 +3175,13 @@
         <v>28</v>
       </c>
       <c r="AF20" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AG20" t="n">
         <v>11.5</v>
       </c>
       <c r="AH20" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AI20" t="n">
         <v>32</v>
@@ -3193,16 +3193,16 @@
         <v>22</v>
       </c>
       <c r="AL20" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AM20" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AN20" t="n">
-        <v>13.5</v>
+        <v>12</v>
       </c>
       <c r="AO20" t="n">
-        <v>18.5</v>
+        <v>17</v>
       </c>
     </row>
     <row r="21">
@@ -3235,22 +3235,22 @@
         <v>1.73</v>
       </c>
       <c r="G21" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="H21" t="n">
         <v>5.5</v>
       </c>
       <c r="I21" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="J21" t="n">
         <v>4</v>
       </c>
       <c r="K21" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="L21" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="M21" t="n">
         <v>1.07</v>
@@ -3259,19 +3259,19 @@
         <v>3.9</v>
       </c>
       <c r="O21" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="P21" t="n">
         <v>1.98</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.98</v>
+        <v>1.99</v>
       </c>
       <c r="R21" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="S21" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="T21" t="n">
         <v>1.94</v>
@@ -3283,7 +3283,7 @@
         <v>1.21</v>
       </c>
       <c r="W21" t="n">
-        <v>2.34</v>
+        <v>2.32</v>
       </c>
       <c r="X21" t="n">
         <v>14.5</v>
@@ -3310,10 +3310,10 @@
         <v>80</v>
       </c>
       <c r="AF21" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="AG21" t="n">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="AH21" t="n">
         <v>22</v>
@@ -3322,7 +3322,7 @@
         <v>80</v>
       </c>
       <c r="AJ21" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AK21" t="n">
         <v>18</v>
@@ -3334,10 +3334,10 @@
         <v>130</v>
       </c>
       <c r="AN21" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AO21" t="n">
-        <v>110</v>
+        <v>95</v>
       </c>
     </row>
     <row r="22">
@@ -3367,16 +3367,16 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>2.88</v>
+        <v>2.92</v>
       </c>
       <c r="G22" t="n">
-        <v>2.9</v>
+        <v>2.94</v>
       </c>
       <c r="H22" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="I22" t="n">
         <v>2.74</v>
-      </c>
-      <c r="I22" t="n">
-        <v>2.78</v>
       </c>
       <c r="J22" t="n">
         <v>3.4</v>
@@ -3385,13 +3385,13 @@
         <v>3.45</v>
       </c>
       <c r="L22" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="M22" t="n">
         <v>1.08</v>
       </c>
       <c r="N22" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="O22" t="n">
         <v>1.36</v>
@@ -3406,7 +3406,7 @@
         <v>1.33</v>
       </c>
       <c r="S22" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="T22" t="n">
         <v>1.82</v>
@@ -3415,25 +3415,25 @@
         <v>2.14</v>
       </c>
       <c r="V22" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="W22" t="n">
-        <v>1.52</v>
+        <v>1.51</v>
       </c>
       <c r="X22" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="Y22" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="Z22" t="n">
         <v>17</v>
       </c>
       <c r="AA22" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AB22" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AC22" t="n">
         <v>7.4</v>
@@ -3445,34 +3445,34 @@
         <v>30</v>
       </c>
       <c r="AF22" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AG22" t="n">
         <v>12.5</v>
       </c>
       <c r="AH22" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AI22" t="n">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="AJ22" t="n">
         <v>46</v>
       </c>
       <c r="AK22" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AL22" t="n">
         <v>46</v>
       </c>
       <c r="AM22" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="AN22" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AO22" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="23">
@@ -3502,40 +3502,40 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>2.1</v>
+        <v>2.14</v>
       </c>
       <c r="G23" t="n">
-        <v>2.12</v>
+        <v>2.16</v>
       </c>
       <c r="H23" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="I23" t="n">
         <v>3.75</v>
       </c>
-      <c r="I23" t="n">
-        <v>3.85</v>
-      </c>
       <c r="J23" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="K23" t="n">
         <v>3.75</v>
       </c>
-      <c r="K23" t="n">
-        <v>3.8</v>
-      </c>
       <c r="L23" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="M23" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N23" t="n">
         <v>4.2</v>
       </c>
       <c r="O23" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="P23" t="n">
         <v>2.1</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.89</v>
+        <v>1.88</v>
       </c>
       <c r="R23" t="n">
         <v>1.43</v>
@@ -3550,16 +3550,16 @@
         <v>2.28</v>
       </c>
       <c r="V23" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="W23" t="n">
-        <v>1.89</v>
+        <v>1.86</v>
       </c>
       <c r="X23" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="Y23" t="n">
         <v>15</v>
-      </c>
-      <c r="Y23" t="n">
-        <v>15.5</v>
       </c>
       <c r="Z23" t="n">
         <v>27</v>
@@ -3589,7 +3589,7 @@
         <v>16.5</v>
       </c>
       <c r="AI23" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AJ23" t="n">
         <v>26</v>
@@ -3601,10 +3601,10 @@
         <v>34</v>
       </c>
       <c r="AM23" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AN23" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AO23" t="n">
         <v>38</v>
@@ -3637,16 +3637,16 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>1.99</v>
+        <v>2.02</v>
       </c>
       <c r="G24" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="H24" t="n">
-        <v>3.95</v>
+        <v>3.8</v>
       </c>
       <c r="I24" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="J24" t="n">
         <v>4</v>
@@ -3655,40 +3655,40 @@
         <v>4.1</v>
       </c>
       <c r="L24" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="M24" t="n">
         <v>1.05</v>
       </c>
       <c r="N24" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="O24" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="P24" t="n">
-        <v>2.32</v>
+        <v>2.36</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.73</v>
+        <v>1.71</v>
       </c>
       <c r="R24" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="S24" t="n">
-        <v>2.82</v>
+        <v>2.8</v>
       </c>
       <c r="T24" t="n">
-        <v>1.68</v>
+        <v>1.65</v>
       </c>
       <c r="U24" t="n">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="V24" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="W24" t="n">
-        <v>1.98</v>
+        <v>1.96</v>
       </c>
       <c r="X24" t="n">
         <v>19</v>
@@ -3697,7 +3697,7 @@
         <v>18</v>
       </c>
       <c r="Z24" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AA24" t="n">
         <v>75</v>
@@ -3709,40 +3709,40 @@
         <v>8.800000000000001</v>
       </c>
       <c r="AD24" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AE24" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AF24" t="n">
         <v>14</v>
       </c>
       <c r="AG24" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AH24" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AI24" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AJ24" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AK24" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AL24" t="n">
         <v>29</v>
       </c>
       <c r="AM24" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AN24" t="n">
         <v>11</v>
       </c>
       <c r="AO24" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="25">
@@ -3772,13 +3772,13 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="G25" t="n">
         <v>2.46</v>
       </c>
       <c r="H25" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="I25" t="n">
         <v>3.3</v>
@@ -3787,37 +3787,37 @@
         <v>3.5</v>
       </c>
       <c r="K25" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="L25" t="n">
-        <v>1.44</v>
+        <v>1.46</v>
       </c>
       <c r="M25" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N25" t="n">
-        <v>3.8</v>
+        <v>3.65</v>
       </c>
       <c r="O25" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P25" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="R25" t="n">
         <v>1.34</v>
       </c>
-      <c r="P25" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="R25" t="n">
-        <v>1.36</v>
-      </c>
       <c r="S25" t="n">
-        <v>3.65</v>
+        <v>3.75</v>
       </c>
       <c r="T25" t="n">
-        <v>1.8</v>
+        <v>1.82</v>
       </c>
       <c r="U25" t="n">
-        <v>2.18</v>
+        <v>2.14</v>
       </c>
       <c r="V25" t="n">
         <v>1.43</v>
@@ -3826,31 +3826,31 @@
         <v>1.68</v>
       </c>
       <c r="X25" t="n">
-        <v>14</v>
+        <v>12.5</v>
       </c>
       <c r="Y25" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Z25" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AA25" t="n">
-        <v>130</v>
+        <v>60</v>
       </c>
       <c r="AB25" t="n">
-        <v>10.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AC25" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="AD25" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AE25" t="n">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AF25" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AG25" t="n">
         <v>11.5</v>
@@ -3859,25 +3859,25 @@
         <v>17.5</v>
       </c>
       <c r="AI25" t="n">
-        <v>160</v>
+        <v>50</v>
       </c>
       <c r="AJ25" t="n">
-        <v>60</v>
+        <v>34</v>
       </c>
       <c r="AK25" t="n">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="AL25" t="n">
-        <v>130</v>
+        <v>42</v>
       </c>
       <c r="AM25" t="n">
-        <v>580</v>
+        <v>100</v>
       </c>
       <c r="AN25" t="n">
         <v>22</v>
       </c>
       <c r="AO25" t="n">
-        <v>65</v>
+        <v>38</v>
       </c>
     </row>
     <row r="26">
@@ -3925,7 +3925,7 @@
         <v>3.5</v>
       </c>
       <c r="L26" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="M26" t="n">
         <v>1.08</v>
@@ -3934,19 +3934,19 @@
         <v>3.75</v>
       </c>
       <c r="O26" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="P26" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="Q26" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="R26" t="n">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="S26" t="n">
-        <v>3.55</v>
+        <v>3.7</v>
       </c>
       <c r="T26" t="n">
         <v>1.8</v>
@@ -3964,7 +3964,7 @@
         <v>13</v>
       </c>
       <c r="Y26" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="Z26" t="n">
         <v>22</v>
@@ -3973,7 +3973,7 @@
         <v>55</v>
       </c>
       <c r="AB26" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AC26" t="n">
         <v>7.8</v>
@@ -4009,7 +4009,7 @@
         <v>95</v>
       </c>
       <c r="AN26" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AO26" t="n">
         <v>36</v>
@@ -4045,28 +4045,28 @@
         <v>2.06</v>
       </c>
       <c r="G27" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="H27" t="n">
         <v>3.85</v>
       </c>
       <c r="I27" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="J27" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="K27" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="L27" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="M27" t="n">
         <v>1.06</v>
       </c>
       <c r="N27" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="O27" t="n">
         <v>1.29</v>
@@ -4084,7 +4084,7 @@
         <v>3.2</v>
       </c>
       <c r="T27" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="U27" t="n">
         <v>2.28</v>
@@ -4141,7 +4141,7 @@
         <v>32</v>
       </c>
       <c r="AM27" t="n">
-        <v>190</v>
+        <v>85</v>
       </c>
       <c r="AN27" t="n">
         <v>13.5</v>
@@ -4177,22 +4177,22 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>2.74</v>
+        <v>2.76</v>
       </c>
       <c r="G28" t="n">
-        <v>2.82</v>
+        <v>2.86</v>
       </c>
       <c r="H28" t="n">
         <v>3.1</v>
       </c>
       <c r="I28" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="J28" t="n">
-        <v>3</v>
+        <v>2.98</v>
       </c>
       <c r="K28" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="L28" t="n">
         <v>1.6</v>
@@ -4201,13 +4201,13 @@
         <v>1.13</v>
       </c>
       <c r="N28" t="n">
-        <v>2.76</v>
+        <v>2.74</v>
       </c>
       <c r="O28" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="P28" t="n">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="Q28" t="n">
         <v>2.68</v>
@@ -4225,7 +4225,7 @@
         <v>1.86</v>
       </c>
       <c r="V28" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="W28" t="n">
         <v>1.54</v>
@@ -4237,7 +4237,7 @@
         <v>9.4</v>
       </c>
       <c r="Z28" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AA28" t="n">
         <v>900</v>
@@ -4267,10 +4267,10 @@
         <v>500</v>
       </c>
       <c r="AJ28" t="n">
-        <v>46</v>
+        <v>95</v>
       </c>
       <c r="AK28" t="n">
-        <v>44</v>
+        <v>90</v>
       </c>
       <c r="AL28" t="n">
         <v>460</v>
@@ -4279,7 +4279,7 @@
         <v>200</v>
       </c>
       <c r="AN28" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="AO28" t="n">
         <v>170</v>
@@ -4318,7 +4318,7 @@
         <v>3.25</v>
       </c>
       <c r="H29" t="n">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="I29" t="n">
         <v>2.46</v>
@@ -4327,7 +4327,7 @@
         <v>3.55</v>
       </c>
       <c r="K29" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="L29" t="n">
         <v>1.4</v>
@@ -4342,10 +4342,10 @@
         <v>1.31</v>
       </c>
       <c r="P29" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="Q29" t="n">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="R29" t="n">
         <v>1.41</v>
@@ -4357,25 +4357,25 @@
         <v>1.73</v>
       </c>
       <c r="U29" t="n">
-        <v>2.3</v>
+        <v>2.28</v>
       </c>
       <c r="V29" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="W29" t="n">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="X29" t="n">
         <v>14.5</v>
       </c>
       <c r="Y29" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Z29" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AA29" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AB29" t="n">
         <v>13.5</v>
@@ -4387,7 +4387,7 @@
         <v>11</v>
       </c>
       <c r="AE29" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AF29" t="n">
         <v>22</v>
@@ -4396,7 +4396,7 @@
         <v>13.5</v>
       </c>
       <c r="AH29" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AI29" t="n">
         <v>36</v>
@@ -4414,10 +4414,10 @@
         <v>85</v>
       </c>
       <c r="AN29" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AO29" t="n">
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
     </row>
     <row r="30">
@@ -4447,19 +4447,19 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="G30" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="H30" t="n">
+        <v>3</v>
+      </c>
+      <c r="I30" t="n">
         <v>3.15</v>
       </c>
-      <c r="H30" t="n">
-        <v>2.98</v>
-      </c>
-      <c r="I30" t="n">
-        <v>3.1</v>
-      </c>
       <c r="J30" t="n">
-        <v>2.82</v>
+        <v>2.8</v>
       </c>
       <c r="K30" t="n">
         <v>2.92</v>
@@ -4495,10 +4495,10 @@
         <v>1.62</v>
       </c>
       <c r="V30" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="W30" t="n">
         <v>1.47</v>
-      </c>
-      <c r="W30" t="n">
-        <v>1.46</v>
       </c>
       <c r="X30" t="n">
         <v>6.6</v>
@@ -4507,13 +4507,13 @@
         <v>7.4</v>
       </c>
       <c r="Z30" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="AA30" t="n">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="AB30" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="AC30" t="n">
         <v>7</v>
@@ -4525,13 +4525,13 @@
         <v>450</v>
       </c>
       <c r="AF30" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AG30" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AH30" t="n">
-        <v>55</v>
+        <v>110</v>
       </c>
       <c r="AI30" t="n">
         <v>500</v>
@@ -4717,19 +4717,19 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>2.88</v>
+        <v>2.94</v>
       </c>
       <c r="G32" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="H32" t="n">
         <v>3</v>
       </c>
       <c r="I32" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="J32" t="n">
-        <v>2.88</v>
+        <v>2.84</v>
       </c>
       <c r="K32" t="n">
         <v>2.98</v>
@@ -4852,13 +4852,13 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="G33" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="H33" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="I33" t="n">
         <v>4.6</v>
@@ -4873,10 +4873,10 @@
         <v>1.65</v>
       </c>
       <c r="M33" t="n">
-        <v>1.14</v>
+        <v>1.15</v>
       </c>
       <c r="N33" t="n">
-        <v>2.5</v>
+        <v>2.48</v>
       </c>
       <c r="O33" t="n">
         <v>1.62</v>
@@ -4885,7 +4885,7 @@
         <v>1.47</v>
       </c>
       <c r="Q33" t="n">
-        <v>3</v>
+        <v>2.96</v>
       </c>
       <c r="R33" t="n">
         <v>1.16</v>
@@ -4897,25 +4897,25 @@
         <v>2.22</v>
       </c>
       <c r="U33" t="n">
-        <v>1.68</v>
+        <v>1.67</v>
       </c>
       <c r="V33" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="W33" t="n">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="X33" t="n">
         <v>8.800000000000001</v>
       </c>
       <c r="Y33" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="Z33" t="n">
         <v>30</v>
       </c>
       <c r="AA33" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AB33" t="n">
         <v>7</v>
@@ -4924,10 +4924,10 @@
         <v>7.2</v>
       </c>
       <c r="AD33" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AE33" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="AF33" t="n">
         <v>12</v>
@@ -4936,7 +4936,7 @@
         <v>13</v>
       </c>
       <c r="AH33" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AI33" t="n">
         <v>130</v>
@@ -4951,7 +4951,7 @@
         <v>75</v>
       </c>
       <c r="AM33" t="n">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="AN33" t="n">
         <v>36</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-22.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-22.xlsx
@@ -670,58 +670,58 @@
         <v>1.6</v>
       </c>
       <c r="G2" t="n">
-        <v>1.64</v>
+        <v>1.63</v>
       </c>
       <c r="H2" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="I2" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="J2" t="n">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
       <c r="K2" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="L2" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="M2" t="n">
         <v>1.05</v>
       </c>
       <c r="N2" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="O2" t="n">
-        <v>1.24</v>
+        <v>1.26</v>
       </c>
       <c r="P2" t="n">
-        <v>2.22</v>
+        <v>2.26</v>
       </c>
       <c r="Q2" t="n">
         <v>1.73</v>
       </c>
       <c r="R2" t="n">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="S2" t="n">
-        <v>2.82</v>
+        <v>2.86</v>
       </c>
       <c r="T2" t="n">
-        <v>1.78</v>
+        <v>1.76</v>
       </c>
       <c r="U2" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="V2" t="n">
         <v>1.18</v>
       </c>
       <c r="W2" t="n">
-        <v>2.56</v>
+        <v>2.58</v>
       </c>
       <c r="X2" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="Y2" t="n">
         <v>25</v>
@@ -730,49 +730,49 @@
         <v>55</v>
       </c>
       <c r="AA2" t="n">
-        <v>900</v>
+        <v>500</v>
       </c>
       <c r="AB2" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AC2" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AD2" t="n">
         <v>24</v>
       </c>
       <c r="AE2" t="n">
-        <v>320</v>
+        <v>80</v>
       </c>
       <c r="AF2" t="n">
         <v>11</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.6</v>
       </c>
       <c r="AH2" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AI2" t="n">
-        <v>330</v>
+        <v>80</v>
       </c>
       <c r="AJ2" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AK2" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="AL2" t="n">
         <v>32</v>
       </c>
       <c r="AM2" t="n">
-        <v>580</v>
+        <v>110</v>
       </c>
       <c r="AN2" t="n">
-        <v>8.199999999999999</v>
+        <v>7.8</v>
       </c>
       <c r="AO2" t="n">
-        <v>160</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3">
@@ -802,22 +802,22 @@
         </is>
       </c>
       <c r="F3" t="n">
+        <v>2</v>
+      </c>
+      <c r="G3" t="n">
         <v>2.14</v>
       </c>
-      <c r="G3" t="n">
-        <v>2.3</v>
-      </c>
       <c r="H3" t="n">
-        <v>4.5</v>
+        <v>5.3</v>
       </c>
       <c r="I3" t="n">
-        <v>5.4</v>
+        <v>6</v>
       </c>
       <c r="J3" t="n">
-        <v>2.76</v>
+        <v>2.84</v>
       </c>
       <c r="K3" t="n">
-        <v>3.05</v>
+        <v>3.15</v>
       </c>
       <c r="L3" t="n">
         <v>1.75</v>
@@ -826,85 +826,85 @@
         <v>1.19</v>
       </c>
       <c r="N3" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="O3" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="P3" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="Q3" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="R3" t="n">
         <v>1.12</v>
       </c>
       <c r="S3" t="n">
-        <v>7.4</v>
+        <v>8</v>
       </c>
       <c r="T3" t="n">
-        <v>2.4</v>
+        <v>2.54</v>
       </c>
       <c r="U3" t="n">
-        <v>1.56</v>
+        <v>1.52</v>
       </c>
       <c r="V3" t="n">
-        <v>1.24</v>
+        <v>1.21</v>
       </c>
       <c r="W3" t="n">
-        <v>1.76</v>
+        <v>1.88</v>
       </c>
       <c r="X3" t="n">
         <v>6.8</v>
       </c>
       <c r="Y3" t="n">
-        <v>11</v>
+        <v>12.5</v>
       </c>
       <c r="Z3" t="n">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="AA3" t="n">
         <v>500</v>
       </c>
       <c r="AB3" t="n">
-        <v>6.4</v>
+        <v>5.8</v>
       </c>
       <c r="AC3" t="n">
         <v>7.6</v>
       </c>
       <c r="AD3" t="n">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="AE3" t="n">
-        <v>330</v>
+        <v>500</v>
       </c>
       <c r="AF3" t="n">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="AG3" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AH3" t="n">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="AI3" t="n">
         <v>500</v>
       </c>
       <c r="AJ3" t="n">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="AK3" t="n">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="AL3" t="n">
-        <v>290</v>
+        <v>150</v>
       </c>
       <c r="AM3" t="n">
         <v>500</v>
       </c>
       <c r="AN3" t="n">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="AO3" t="n">
         <v>600</v>
@@ -937,76 +937,76 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.56</v>
+        <v>1.61</v>
       </c>
       <c r="G4" t="n">
-        <v>1.66</v>
+        <v>1.68</v>
       </c>
       <c r="H4" t="n">
-        <v>5.1</v>
+        <v>4.9</v>
       </c>
       <c r="I4" t="n">
-        <v>6.4</v>
+        <v>5.8</v>
       </c>
       <c r="J4" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="K4" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="L4" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="M4" t="n">
         <v>1.03</v>
       </c>
       <c r="N4" t="n">
-        <v>5.1</v>
+        <v>5.7</v>
       </c>
       <c r="O4" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="P4" t="n">
-        <v>2.38</v>
+        <v>2.58</v>
       </c>
       <c r="Q4" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="R4" t="n">
         <v>1.63</v>
       </c>
-      <c r="R4" t="n">
-        <v>1.54</v>
-      </c>
       <c r="S4" t="n">
-        <v>2.6</v>
+        <v>2.44</v>
       </c>
       <c r="T4" t="n">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="U4" t="n">
-        <v>2.2</v>
+        <v>2.28</v>
       </c>
       <c r="V4" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="W4" t="n">
-        <v>2.48</v>
+        <v>2.44</v>
       </c>
       <c r="X4" t="n">
-        <v>90</v>
+        <v>46</v>
       </c>
       <c r="Y4" t="n">
-        <v>970</v>
+        <v>48</v>
       </c>
       <c r="Z4" t="n">
         <v>970</v>
       </c>
       <c r="AA4" t="n">
-        <v>170</v>
+        <v>130</v>
       </c>
       <c r="AB4" t="n">
-        <v>11</v>
+        <v>12.5</v>
       </c>
       <c r="AC4" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AD4" t="n">
         <v>970</v>
@@ -1015,13 +1015,13 @@
         <v>190</v>
       </c>
       <c r="AF4" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AG4" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AH4" t="n">
-        <v>970</v>
+        <v>36</v>
       </c>
       <c r="AI4" t="n">
         <v>170</v>
@@ -1030,16 +1030,16 @@
         <v>32</v>
       </c>
       <c r="AK4" t="n">
+        <v>16</v>
+      </c>
+      <c r="AL4" t="n">
         <v>65</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>970</v>
       </c>
       <c r="AM4" t="n">
         <v>580</v>
       </c>
       <c r="AN4" t="n">
-        <v>7.8</v>
+        <v>7.2</v>
       </c>
       <c r="AO4" t="n">
         <v>600</v>
@@ -1072,64 +1072,64 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>2.02</v>
+        <v>2.12</v>
       </c>
       <c r="G5" t="n">
-        <v>2.08</v>
+        <v>2.2</v>
       </c>
       <c r="H5" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="I5" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="J5" t="n">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="K5" t="n">
-        <v>3.25</v>
+        <v>3.05</v>
       </c>
       <c r="L5" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="M5" t="n">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
       <c r="N5" t="n">
-        <v>2.38</v>
+        <v>2.36</v>
       </c>
       <c r="O5" t="n">
-        <v>1.68</v>
+        <v>1.7</v>
       </c>
       <c r="P5" t="n">
-        <v>1.43</v>
+        <v>1.42</v>
       </c>
       <c r="Q5" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="R5" t="n">
         <v>1.14</v>
       </c>
       <c r="S5" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="T5" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="U5" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="V5" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="W5" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="X5" t="n">
         <v>7</v>
       </c>
-      <c r="T5" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="U5" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="V5" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="W5" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="X5" t="n">
-        <v>7.4</v>
-      </c>
       <c r="Y5" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="Z5" t="n">
         <v>95</v>
@@ -1141,7 +1141,7 @@
         <v>5.8</v>
       </c>
       <c r="AC5" t="n">
-        <v>7.8</v>
+        <v>7.4</v>
       </c>
       <c r="AD5" t="n">
         <v>36</v>
@@ -1150,7 +1150,7 @@
         <v>500</v>
       </c>
       <c r="AF5" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AG5" t="n">
         <v>12.5</v>
@@ -1165,7 +1165,7 @@
         <v>65</v>
       </c>
       <c r="AK5" t="n">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="AL5" t="n">
         <v>460</v>
@@ -1174,7 +1174,7 @@
         <v>500</v>
       </c>
       <c r="AN5" t="n">
-        <v>500</v>
+        <v>980</v>
       </c>
       <c r="AO5" t="n">
         <v>600</v>
@@ -1207,88 +1207,88 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>3.15</v>
+        <v>3.4</v>
       </c>
       <c r="G6" t="n">
-        <v>3.3</v>
+        <v>3.65</v>
       </c>
       <c r="H6" t="n">
-        <v>2.82</v>
+        <v>2.62</v>
       </c>
       <c r="I6" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="J6" t="n">
         <v>2.88</v>
       </c>
-      <c r="J6" t="n">
-        <v>2.94</v>
-      </c>
       <c r="K6" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="L6" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="M6" t="n">
-        <v>1.14</v>
+        <v>1.15</v>
       </c>
       <c r="N6" t="n">
-        <v>2.6</v>
+        <v>2.48</v>
       </c>
       <c r="O6" t="n">
-        <v>1.57</v>
+        <v>1.63</v>
       </c>
       <c r="P6" t="n">
-        <v>1.55</v>
+        <v>1.47</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.74</v>
+        <v>2.96</v>
       </c>
       <c r="R6" t="n">
-        <v>1.18</v>
+        <v>1.16</v>
       </c>
       <c r="S6" t="n">
-        <v>5.9</v>
+        <v>6.4</v>
       </c>
       <c r="T6" t="n">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="U6" t="n">
-        <v>1.81</v>
+        <v>1.75</v>
       </c>
       <c r="V6" t="n">
-        <v>1.53</v>
+        <v>1.58</v>
       </c>
       <c r="W6" t="n">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="X6" t="n">
-        <v>9.4</v>
+        <v>7.6</v>
       </c>
       <c r="Y6" t="n">
-        <v>8.800000000000001</v>
+        <v>7.6</v>
       </c>
       <c r="Z6" t="n">
-        <v>19.5</v>
+        <v>16</v>
       </c>
       <c r="AA6" t="n">
-        <v>900</v>
+        <v>46</v>
       </c>
       <c r="AB6" t="n">
         <v>9.800000000000001</v>
       </c>
       <c r="AC6" t="n">
-        <v>7.8</v>
+        <v>7</v>
       </c>
       <c r="AD6" t="n">
-        <v>16</v>
+        <v>13.5</v>
       </c>
       <c r="AE6" t="n">
-        <v>300</v>
+        <v>130</v>
       </c>
       <c r="AF6" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AG6" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AH6" t="n">
         <v>27</v>
@@ -1297,22 +1297,22 @@
         <v>460</v>
       </c>
       <c r="AJ6" t="n">
-        <v>160</v>
+        <v>75</v>
       </c>
       <c r="AK6" t="n">
-        <v>60</v>
+        <v>980</v>
       </c>
       <c r="AL6" t="n">
-        <v>95</v>
+        <v>500</v>
       </c>
       <c r="AM6" t="n">
         <v>500</v>
       </c>
       <c r="AN6" t="n">
-        <v>140</v>
+        <v>90</v>
       </c>
       <c r="AO6" t="n">
-        <v>600</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7">
@@ -1342,22 +1342,22 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.69</v>
+        <v>1.85</v>
       </c>
       <c r="G7" t="n">
-        <v>1.72</v>
+        <v>1.89</v>
       </c>
       <c r="H7" t="n">
-        <v>5.3</v>
+        <v>4.6</v>
       </c>
       <c r="I7" t="n">
-        <v>5.5</v>
+        <v>4.9</v>
       </c>
       <c r="J7" t="n">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="K7" t="n">
-        <v>4.4</v>
+        <v>4</v>
       </c>
       <c r="L7" t="n">
         <v>1.42</v>
@@ -1366,88 +1366,88 @@
         <v>1.07</v>
       </c>
       <c r="N7" t="n">
-        <v>3.85</v>
+        <v>3.75</v>
       </c>
       <c r="O7" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="P7" t="n">
-        <v>1.96</v>
+        <v>1.94</v>
       </c>
       <c r="Q7" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="R7" t="n">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="S7" t="n">
-        <v>3.55</v>
+        <v>3.65</v>
       </c>
       <c r="T7" t="n">
-        <v>1.9</v>
+        <v>1.86</v>
       </c>
       <c r="U7" t="n">
-        <v>1.99</v>
+        <v>2.04</v>
       </c>
       <c r="V7" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="W7" t="n">
-        <v>2.38</v>
+        <v>2.12</v>
       </c>
       <c r="X7" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="Y7" t="n">
         <v>17</v>
       </c>
-      <c r="Y7" t="n">
-        <v>19.5</v>
-      </c>
       <c r="Z7" t="n">
+        <v>36</v>
+      </c>
+      <c r="AA7" t="n">
         <v>120</v>
       </c>
-      <c r="AA7" t="n">
-        <v>900</v>
-      </c>
       <c r="AB7" t="n">
-        <v>8.800000000000001</v>
+        <v>8.4</v>
       </c>
       <c r="AC7" t="n">
-        <v>10.5</v>
+        <v>8.6</v>
       </c>
       <c r="AD7" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="AE7" t="n">
-        <v>190</v>
+        <v>65</v>
       </c>
       <c r="AF7" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AG7" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="AH7" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="AI7" t="n">
-        <v>190</v>
+        <v>70</v>
       </c>
       <c r="AJ7" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AK7" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AL7" t="n">
-        <v>65</v>
+        <v>36</v>
       </c>
       <c r="AM7" t="n">
-        <v>580</v>
+        <v>120</v>
       </c>
       <c r="AN7" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AO7" t="n">
-        <v>600</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8">
@@ -1477,22 +1477,22 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.16</v>
+        <v>1.18</v>
       </c>
       <c r="G8" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="H8" t="n">
-        <v>18</v>
+        <v>16.5</v>
       </c>
       <c r="I8" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="J8" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="K8" t="n">
-        <v>12</v>
+        <v>10.5</v>
       </c>
       <c r="L8" t="n">
         <v>1.22</v>
@@ -1501,58 +1501,58 @@
         <v>1.02</v>
       </c>
       <c r="N8" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="O8" t="n">
         <v>1.12</v>
       </c>
       <c r="P8" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="R8" t="n">
         <v>1.93</v>
       </c>
       <c r="S8" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="T8" t="n">
-        <v>2.08</v>
+        <v>2.02</v>
       </c>
       <c r="U8" t="n">
-        <v>1.76</v>
+        <v>1.84</v>
       </c>
       <c r="V8" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="W8" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="X8" t="n">
         <v>980</v>
       </c>
       <c r="Y8" t="n">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="Z8" t="n">
-        <v>260</v>
+        <v>210</v>
       </c>
       <c r="AA8" t="n">
         <v>1000</v>
       </c>
       <c r="AB8" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AC8" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="AD8" t="n">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="AE8" t="n">
-        <v>390</v>
+        <v>300</v>
       </c>
       <c r="AF8" t="n">
         <v>9.199999999999999</v>
@@ -1561,28 +1561,28 @@
         <v>12.5</v>
       </c>
       <c r="AH8" t="n">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="AI8" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="AJ8" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="AK8" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AL8" t="n">
-        <v>44</v>
+        <v>980</v>
       </c>
       <c r="AM8" t="n">
-        <v>260</v>
+        <v>220</v>
       </c>
       <c r="AN8" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="AO8" t="n">
-        <v>450</v>
+        <v>350</v>
       </c>
     </row>
     <row r="9">
@@ -1612,13 +1612,13 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="G9" t="n">
-        <v>2.3</v>
+        <v>2.28</v>
       </c>
       <c r="H9" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="I9" t="n">
         <v>3.15</v>
@@ -1627,7 +1627,7 @@
         <v>4.1</v>
       </c>
       <c r="K9" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="L9" t="n">
         <v>1.27</v>
@@ -1642,31 +1642,31 @@
         <v>1.16</v>
       </c>
       <c r="P9" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="Q9" t="n">
         <v>1.5</v>
       </c>
       <c r="R9" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="S9" t="n">
-        <v>2.3</v>
+        <v>2.26</v>
       </c>
       <c r="T9" t="n">
         <v>1.47</v>
       </c>
       <c r="U9" t="n">
-        <v>2.82</v>
+        <v>2.96</v>
       </c>
       <c r="V9" t="n">
         <v>1.46</v>
       </c>
       <c r="W9" t="n">
-        <v>1.76</v>
+        <v>1.78</v>
       </c>
       <c r="X9" t="n">
-        <v>38</v>
+        <v>85</v>
       </c>
       <c r="Y9" t="n">
         <v>25</v>
@@ -1681,7 +1681,7 @@
         <v>19.5</v>
       </c>
       <c r="AC9" t="n">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="AD9" t="n">
         <v>14</v>
@@ -1696,13 +1696,13 @@
         <v>12</v>
       </c>
       <c r="AH9" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AI9" t="n">
         <v>980</v>
       </c>
       <c r="AJ9" t="n">
-        <v>160</v>
+        <v>95</v>
       </c>
       <c r="AK9" t="n">
         <v>46</v>
@@ -1714,7 +1714,7 @@
         <v>580</v>
       </c>
       <c r="AN9" t="n">
-        <v>10.5</v>
+        <v>9.6</v>
       </c>
       <c r="AO9" t="n">
         <v>21</v>
@@ -1747,22 +1747,22 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="G10" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="H10" t="n">
-        <v>1.92</v>
+        <v>1.88</v>
       </c>
       <c r="I10" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="J10" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="K10" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="L10" t="n">
         <v>1.49</v>
@@ -1780,7 +1780,7 @@
         <v>1.79</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.24</v>
+        <v>2.22</v>
       </c>
       <c r="R10" t="n">
         <v>1.3</v>
@@ -1789,13 +1789,13 @@
         <v>4.2</v>
       </c>
       <c r="T10" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="U10" t="n">
-        <v>1.93</v>
+        <v>1.91</v>
       </c>
       <c r="V10" t="n">
-        <v>2.06</v>
+        <v>2.1</v>
       </c>
       <c r="W10" t="n">
         <v>1.25</v>
@@ -1804,43 +1804,43 @@
         <v>12</v>
       </c>
       <c r="Y10" t="n">
-        <v>7.8</v>
+        <v>7.4</v>
       </c>
       <c r="Z10" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="AB10" t="n">
         <v>14.5</v>
       </c>
       <c r="AC10" t="n">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD10" t="n">
         <v>10.5</v>
       </c>
       <c r="AE10" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AF10" t="n">
         <v>34</v>
       </c>
       <c r="AG10" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AH10" t="n">
         <v>22</v>
       </c>
       <c r="AI10" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AJ10" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="AK10" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AL10" t="n">
         <v>85</v>
@@ -1849,10 +1849,10 @@
         <v>140</v>
       </c>
       <c r="AN10" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AO10" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
     </row>
     <row r="11">
@@ -1888,7 +1888,7 @@
         <v>3.8</v>
       </c>
       <c r="H11" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="I11" t="n">
         <v>2.12</v>
@@ -1909,25 +1909,25 @@
         <v>4.6</v>
       </c>
       <c r="O11" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="P11" t="n">
         <v>2.22</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.79</v>
+        <v>1.81</v>
       </c>
       <c r="R11" t="n">
-        <v>1.49</v>
+        <v>1.48</v>
       </c>
       <c r="S11" t="n">
         <v>3</v>
       </c>
       <c r="T11" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="U11" t="n">
-        <v>2.4</v>
+        <v>2.36</v>
       </c>
       <c r="V11" t="n">
         <v>1.89</v>
@@ -1936,7 +1936,7 @@
         <v>1.35</v>
       </c>
       <c r="X11" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="Y11" t="n">
         <v>11.5</v>
@@ -1975,7 +1975,7 @@
         <v>70</v>
       </c>
       <c r="AK11" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AL11" t="n">
         <v>44</v>
@@ -2017,16 +2017,16 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.46</v>
+        <v>2.42</v>
       </c>
       <c r="G12" t="n">
-        <v>2.48</v>
+        <v>2.44</v>
       </c>
       <c r="H12" t="n">
-        <v>3.05</v>
+        <v>3.15</v>
       </c>
       <c r="I12" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="J12" t="n">
         <v>3.65</v>
@@ -2035,76 +2035,76 @@
         <v>3.7</v>
       </c>
       <c r="L12" t="n">
-        <v>1.38</v>
+        <v>1.41</v>
       </c>
       <c r="M12" t="n">
         <v>1.06</v>
       </c>
       <c r="N12" t="n">
-        <v>4.4</v>
+        <v>4</v>
       </c>
       <c r="O12" t="n">
-        <v>1.27</v>
+        <v>1.31</v>
       </c>
       <c r="P12" t="n">
-        <v>2.14</v>
+        <v>2.04</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.86</v>
+        <v>1.93</v>
       </c>
       <c r="R12" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="S12" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="T12" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="U12" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="V12" t="n">
         <v>1.45</v>
       </c>
-      <c r="S12" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="T12" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="U12" t="n">
-        <v>2.36</v>
-      </c>
-      <c r="V12" t="n">
-        <v>1.47</v>
-      </c>
       <c r="W12" t="n">
-        <v>1.67</v>
+        <v>1.69</v>
       </c>
       <c r="X12" t="n">
-        <v>16.5</v>
+        <v>15</v>
       </c>
       <c r="Y12" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="Z12" t="n">
         <v>22</v>
       </c>
       <c r="AA12" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AB12" t="n">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="AC12" t="n">
         <v>8</v>
       </c>
       <c r="AD12" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AE12" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AF12" t="n">
         <v>16</v>
       </c>
       <c r="AG12" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AH12" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AI12" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AJ12" t="n">
         <v>34</v>
@@ -2113,16 +2113,16 @@
         <v>24</v>
       </c>
       <c r="AL12" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AM12" t="n">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="AN12" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AO12" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13">
@@ -2161,46 +2161,46 @@
         <v>2</v>
       </c>
       <c r="I13" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="J13" t="n">
         <v>3.9</v>
       </c>
       <c r="K13" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="L13" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="M13" t="n">
         <v>1.06</v>
       </c>
       <c r="N13" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="O13" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="P13" t="n">
-        <v>2.14</v>
+        <v>2.18</v>
       </c>
       <c r="Q13" t="n">
         <v>1.84</v>
       </c>
       <c r="R13" t="n">
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="S13" t="n">
-        <v>3.15</v>
+        <v>3.05</v>
       </c>
       <c r="T13" t="n">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="U13" t="n">
-        <v>2.26</v>
+        <v>2.3</v>
       </c>
       <c r="V13" t="n">
-        <v>1.97</v>
+        <v>1.99</v>
       </c>
       <c r="W13" t="n">
         <v>1.32</v>
@@ -2215,10 +2215,10 @@
         <v>13</v>
       </c>
       <c r="AA13" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AB13" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AC13" t="n">
         <v>8.4</v>
@@ -2236,10 +2236,10 @@
         <v>16</v>
       </c>
       <c r="AH13" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="AI13" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AJ13" t="n">
         <v>80</v>
@@ -2248,16 +2248,16 @@
         <v>46</v>
       </c>
       <c r="AL13" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AM13" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AN13" t="n">
         <v>42</v>
       </c>
       <c r="AO13" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14">
@@ -2287,19 +2287,19 @@
         </is>
       </c>
       <c r="F14" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="G14" t="n">
         <v>1.2</v>
       </c>
-      <c r="G14" t="n">
-        <v>1.21</v>
-      </c>
       <c r="H14" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I14" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J14" t="n">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="K14" t="n">
         <v>8.800000000000001</v>
@@ -2311,25 +2311,25 @@
         <v>1.03</v>
       </c>
       <c r="N14" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="O14" t="n">
         <v>1.18</v>
       </c>
       <c r="P14" t="n">
-        <v>2.72</v>
+        <v>2.74</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="R14" t="n">
-        <v>1.67</v>
+        <v>1.69</v>
       </c>
       <c r="S14" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="T14" t="n">
-        <v>2.44</v>
+        <v>2.48</v>
       </c>
       <c r="U14" t="n">
         <v>1.65</v>
@@ -2338,10 +2338,10 @@
         <v>1.05</v>
       </c>
       <c r="W14" t="n">
-        <v>5.8</v>
+        <v>6</v>
       </c>
       <c r="X14" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="Y14" t="n">
         <v>60</v>
@@ -2353,16 +2353,16 @@
         <v>1000</v>
       </c>
       <c r="AB14" t="n">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AC14" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AD14" t="n">
         <v>75</v>
       </c>
       <c r="AE14" t="n">
-        <v>510</v>
+        <v>530</v>
       </c>
       <c r="AF14" t="n">
         <v>7.4</v>
@@ -2374,22 +2374,22 @@
         <v>48</v>
       </c>
       <c r="AI14" t="n">
-        <v>340</v>
+        <v>310</v>
       </c>
       <c r="AJ14" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="AK14" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AL14" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AM14" t="n">
-        <v>340</v>
+        <v>360</v>
       </c>
       <c r="AN14" t="n">
-        <v>3.65</v>
+        <v>3.5</v>
       </c>
       <c r="AO14" t="n">
         <v>1000</v>
@@ -2428,10 +2428,10 @@
         <v>1.78</v>
       </c>
       <c r="H15" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="I15" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="J15" t="n">
         <v>4.1</v>
@@ -2449,19 +2449,19 @@
         <v>4.2</v>
       </c>
       <c r="O15" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="P15" t="n">
         <v>2.1</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="R15" t="n">
         <v>1.42</v>
       </c>
       <c r="S15" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="T15" t="n">
         <v>1.85</v>
@@ -2476,7 +2476,7 @@
         <v>2.28</v>
       </c>
       <c r="X15" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="Y15" t="n">
         <v>18.5</v>
@@ -2491,7 +2491,7 @@
         <v>9.199999999999999</v>
       </c>
       <c r="AC15" t="n">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="AD15" t="n">
         <v>19</v>
@@ -2500,7 +2500,7 @@
         <v>65</v>
       </c>
       <c r="AF15" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AG15" t="n">
         <v>9.6</v>
@@ -2521,13 +2521,13 @@
         <v>32</v>
       </c>
       <c r="AM15" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="AN15" t="n">
         <v>10.5</v>
       </c>
       <c r="AO15" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
     </row>
     <row r="16">
@@ -2560,7 +2560,7 @@
         <v>2.46</v>
       </c>
       <c r="G16" t="n">
-        <v>2.5</v>
+        <v>2.48</v>
       </c>
       <c r="H16" t="n">
         <v>3.05</v>
@@ -2575,94 +2575,94 @@
         <v>3.7</v>
       </c>
       <c r="L16" t="n">
-        <v>1.39</v>
+        <v>1.37</v>
       </c>
       <c r="M16" t="n">
         <v>1.06</v>
       </c>
       <c r="N16" t="n">
-        <v>4.3</v>
+        <v>4.6</v>
       </c>
       <c r="O16" t="n">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="P16" t="n">
-        <v>2.12</v>
+        <v>2.22</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.87</v>
+        <v>1.81</v>
       </c>
       <c r="R16" t="n">
-        <v>1.43</v>
+        <v>1.48</v>
       </c>
       <c r="S16" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="T16" t="n">
-        <v>1.7</v>
+        <v>1.66</v>
       </c>
       <c r="U16" t="n">
-        <v>2.32</v>
+        <v>2.44</v>
       </c>
       <c r="V16" t="n">
         <v>1.47</v>
       </c>
       <c r="W16" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="X16" t="n">
-        <v>16.5</v>
+        <v>17.5</v>
       </c>
       <c r="Y16" t="n">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="Z16" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AA16" t="n">
         <v>50</v>
       </c>
       <c r="AB16" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AC16" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="AD16" t="n">
         <v>13</v>
       </c>
       <c r="AE16" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AF16" t="n">
         <v>16.5</v>
       </c>
       <c r="AG16" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AH16" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AI16" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AJ16" t="n">
         <v>34</v>
       </c>
       <c r="AK16" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AL16" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AM16" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AN16" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AO16" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17">
@@ -2698,55 +2698,55 @@
         <v>5.1</v>
       </c>
       <c r="H17" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="I17" t="n">
         <v>1.78</v>
-      </c>
-      <c r="I17" t="n">
-        <v>1.8</v>
       </c>
       <c r="J17" t="n">
         <v>4.1</v>
       </c>
       <c r="K17" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="L17" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="M17" t="n">
         <v>1.05</v>
       </c>
       <c r="N17" t="n">
-        <v>4.7</v>
+        <v>4.9</v>
       </c>
       <c r="O17" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="P17" t="n">
-        <v>2.26</v>
+        <v>2.3</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="R17" t="n">
-        <v>1.51</v>
+        <v>1.53</v>
       </c>
       <c r="S17" t="n">
-        <v>2.9</v>
+        <v>2.82</v>
       </c>
       <c r="T17" t="n">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="U17" t="n">
-        <v>2.26</v>
+        <v>2.3</v>
       </c>
       <c r="V17" t="n">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="W17" t="n">
         <v>1.24</v>
       </c>
       <c r="X17" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="Y17" t="n">
         <v>10.5</v>
@@ -2761,13 +2761,13 @@
         <v>20</v>
       </c>
       <c r="AC17" t="n">
-        <v>9.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="AD17" t="n">
         <v>9.800000000000001</v>
       </c>
       <c r="AE17" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AF17" t="n">
         <v>40</v>
@@ -2782,13 +2782,13 @@
         <v>29</v>
       </c>
       <c r="AJ17" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AK17" t="n">
         <v>60</v>
       </c>
       <c r="AL17" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AM17" t="n">
         <v>90</v>
@@ -2797,7 +2797,7 @@
         <v>55</v>
       </c>
       <c r="AO17" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="18">
@@ -2827,22 +2827,22 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1.48</v>
+        <v>1.46</v>
       </c>
       <c r="G18" t="n">
-        <v>1.49</v>
+        <v>1.47</v>
       </c>
       <c r="H18" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="I18" t="n">
-        <v>7.2</v>
+        <v>7.6</v>
       </c>
       <c r="J18" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="K18" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="L18" t="n">
         <v>1.25</v>
@@ -2857,37 +2857,37 @@
         <v>1.15</v>
       </c>
       <c r="P18" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="R18" t="n">
-        <v>1.82</v>
+        <v>1.84</v>
       </c>
       <c r="S18" t="n">
-        <v>2.18</v>
+        <v>2.14</v>
       </c>
       <c r="T18" t="n">
         <v>1.68</v>
       </c>
       <c r="U18" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="V18" t="n">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="W18" t="n">
-        <v>3</v>
+        <v>3.15</v>
       </c>
       <c r="X18" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="Y18" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="Z18" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AA18" t="n">
         <v>180</v>
@@ -2896,13 +2896,13 @@
         <v>13.5</v>
       </c>
       <c r="AC18" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AD18" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AE18" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AF18" t="n">
         <v>12</v>
@@ -2911,13 +2911,13 @@
         <v>10.5</v>
       </c>
       <c r="AH18" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AI18" t="n">
         <v>65</v>
       </c>
       <c r="AJ18" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AK18" t="n">
         <v>13.5</v>
@@ -2929,10 +2929,10 @@
         <v>75</v>
       </c>
       <c r="AN18" t="n">
-        <v>4.8</v>
+        <v>4.6</v>
       </c>
       <c r="AO18" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="19">
@@ -2962,22 +2962,22 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="G19" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="H19" t="n">
-        <v>2.54</v>
+        <v>2.58</v>
       </c>
       <c r="I19" t="n">
-        <v>2.64</v>
+        <v>2.72</v>
       </c>
       <c r="J19" t="n">
         <v>2.72</v>
       </c>
       <c r="K19" t="n">
-        <v>2.9</v>
+        <v>2.86</v>
       </c>
       <c r="L19" t="n">
         <v>1.74</v>
@@ -2986,7 +2986,7 @@
         <v>1.19</v>
       </c>
       <c r="N19" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="O19" t="n">
         <v>1.75</v>
@@ -2995,58 +2995,58 @@
         <v>1.38</v>
       </c>
       <c r="Q19" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="R19" t="n">
         <v>1.12</v>
       </c>
       <c r="S19" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="T19" t="n">
-        <v>2.46</v>
+        <v>1.05</v>
       </c>
       <c r="U19" t="n">
-        <v>1.59</v>
+        <v>1.66</v>
       </c>
       <c r="V19" t="n">
-        <v>1.61</v>
+        <v>1.58</v>
       </c>
       <c r="W19" t="n">
-        <v>1.33</v>
+        <v>1.35</v>
       </c>
       <c r="X19" t="n">
-        <v>6.4</v>
+        <v>1000</v>
       </c>
       <c r="Y19" t="n">
-        <v>6.6</v>
+        <v>1000</v>
       </c>
       <c r="Z19" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="AA19" t="n">
-        <v>220</v>
+        <v>980</v>
       </c>
       <c r="AB19" t="n">
-        <v>9.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="AC19" t="n">
-        <v>7</v>
+        <v>970</v>
       </c>
       <c r="AD19" t="n">
-        <v>19</v>
+        <v>1000</v>
       </c>
       <c r="AE19" t="n">
         <v>980</v>
       </c>
       <c r="AF19" t="n">
-        <v>100</v>
+        <v>980</v>
       </c>
       <c r="AG19" t="n">
-        <v>70</v>
+        <v>980</v>
       </c>
       <c r="AH19" t="n">
-        <v>32</v>
+        <v>980</v>
       </c>
       <c r="AI19" t="n">
         <v>480</v>
@@ -3097,16 +3097,16 @@
         </is>
       </c>
       <c r="F20" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="G20" t="n">
         <v>2.38</v>
       </c>
-      <c r="G20" t="n">
-        <v>2.4</v>
-      </c>
       <c r="H20" t="n">
-        <v>2.96</v>
+        <v>3</v>
       </c>
       <c r="I20" t="n">
-        <v>2.98</v>
+        <v>3.05</v>
       </c>
       <c r="J20" t="n">
         <v>4</v>
@@ -3121,43 +3121,43 @@
         <v>1.04</v>
       </c>
       <c r="N20" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="O20" t="n">
         <v>1.19</v>
       </c>
       <c r="P20" t="n">
-        <v>2.66</v>
+        <v>2.68</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.59</v>
+        <v>1.58</v>
       </c>
       <c r="R20" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="S20" t="n">
-        <v>2.46</v>
+        <v>2.44</v>
       </c>
       <c r="T20" t="n">
-        <v>1.56</v>
+        <v>1.54</v>
       </c>
       <c r="U20" t="n">
-        <v>2.7</v>
+        <v>2.76</v>
       </c>
       <c r="V20" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="W20" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="X20" t="n">
+        <v>26</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>18</v>
+      </c>
+      <c r="Z20" t="n">
         <v>25</v>
-      </c>
-      <c r="Y20" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="Z20" t="n">
-        <v>24</v>
       </c>
       <c r="AA20" t="n">
         <v>46</v>
@@ -3166,10 +3166,10 @@
         <v>16</v>
       </c>
       <c r="AC20" t="n">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="AD20" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AE20" t="n">
         <v>28</v>
@@ -3181,16 +3181,16 @@
         <v>11.5</v>
       </c>
       <c r="AH20" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AI20" t="n">
         <v>32</v>
       </c>
       <c r="AJ20" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AK20" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AL20" t="n">
         <v>28</v>
@@ -3199,10 +3199,10 @@
         <v>55</v>
       </c>
       <c r="AN20" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AO20" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
     </row>
     <row r="21">
@@ -3232,22 +3232,22 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="G21" t="n">
         <v>1.75</v>
       </c>
       <c r="H21" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="I21" t="n">
         <v>5.6</v>
       </c>
       <c r="J21" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="K21" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="L21" t="n">
         <v>1.42</v>
@@ -3262,16 +3262,16 @@
         <v>1.33</v>
       </c>
       <c r="P21" t="n">
-        <v>1.98</v>
+        <v>1.99</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="R21" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="S21" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="T21" t="n">
         <v>1.94</v>
@@ -3280,7 +3280,7 @@
         <v>2</v>
       </c>
       <c r="V21" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="W21" t="n">
         <v>2.32</v>
@@ -3367,64 +3367,64 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>2.92</v>
+        <v>2.9</v>
       </c>
       <c r="G22" t="n">
         <v>2.94</v>
       </c>
       <c r="H22" t="n">
-        <v>2.7</v>
+        <v>2.74</v>
       </c>
       <c r="I22" t="n">
-        <v>2.74</v>
+        <v>2.76</v>
       </c>
       <c r="J22" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="K22" t="n">
         <v>3.4</v>
       </c>
-      <c r="K22" t="n">
-        <v>3.45</v>
-      </c>
       <c r="L22" t="n">
-        <v>1.46</v>
+        <v>1.48</v>
       </c>
       <c r="M22" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="N22" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="O22" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="P22" t="n">
-        <v>1.87</v>
+        <v>1.85</v>
       </c>
       <c r="Q22" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="R22" t="n">
         <v>1.33</v>
       </c>
       <c r="S22" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="T22" t="n">
-        <v>1.82</v>
+        <v>1.84</v>
       </c>
       <c r="U22" t="n">
         <v>2.14</v>
       </c>
       <c r="V22" t="n">
-        <v>1.57</v>
+        <v>1.56</v>
       </c>
       <c r="W22" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="X22" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Y22" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="Z22" t="n">
         <v>17</v>
@@ -3433,13 +3433,13 @@
         <v>40</v>
       </c>
       <c r="AB22" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AC22" t="n">
         <v>7.4</v>
       </c>
       <c r="AD22" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AE22" t="n">
         <v>30</v>
@@ -3451,10 +3451,10 @@
         <v>12.5</v>
       </c>
       <c r="AH22" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AI22" t="n">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="AJ22" t="n">
         <v>46</v>
@@ -3463,16 +3463,16 @@
         <v>34</v>
       </c>
       <c r="AL22" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="AM22" t="n">
-        <v>95</v>
+        <v>110</v>
       </c>
       <c r="AN22" t="n">
         <v>32</v>
       </c>
       <c r="AO22" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="23">
@@ -3502,25 +3502,25 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>2.14</v>
+        <v>2.18</v>
       </c>
       <c r="G23" t="n">
-        <v>2.16</v>
+        <v>2.2</v>
       </c>
       <c r="H23" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="I23" t="n">
         <v>3.7</v>
       </c>
-      <c r="I23" t="n">
-        <v>3.75</v>
-      </c>
       <c r="J23" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="K23" t="n">
         <v>3.75</v>
       </c>
       <c r="L23" t="n">
-        <v>1.39</v>
+        <v>1.41</v>
       </c>
       <c r="M23" t="n">
         <v>1.06</v>
@@ -3529,31 +3529,31 @@
         <v>4.2</v>
       </c>
       <c r="O23" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="P23" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="R23" t="n">
-        <v>1.43</v>
+        <v>1.42</v>
       </c>
       <c r="S23" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="T23" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="U23" t="n">
-        <v>2.28</v>
+        <v>2.26</v>
       </c>
       <c r="V23" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="W23" t="n">
-        <v>1.86</v>
+        <v>1.83</v>
       </c>
       <c r="X23" t="n">
         <v>15.5</v>
@@ -3562,25 +3562,25 @@
         <v>15</v>
       </c>
       <c r="Z23" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AA23" t="n">
         <v>70</v>
       </c>
       <c r="AB23" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AC23" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="AD23" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AE23" t="n">
         <v>42</v>
       </c>
       <c r="AF23" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AG23" t="n">
         <v>10.5</v>
@@ -3589,10 +3589,10 @@
         <v>16.5</v>
       </c>
       <c r="AI23" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="AJ23" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AK23" t="n">
         <v>21</v>
@@ -3601,10 +3601,10 @@
         <v>34</v>
       </c>
       <c r="AM23" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AN23" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AO23" t="n">
         <v>38</v>
@@ -3637,16 +3637,16 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>2.02</v>
+        <v>2.06</v>
       </c>
       <c r="G24" t="n">
-        <v>2.04</v>
+        <v>2.1</v>
       </c>
       <c r="H24" t="n">
-        <v>3.8</v>
+        <v>3.65</v>
       </c>
       <c r="I24" t="n">
-        <v>3.9</v>
+        <v>3.75</v>
       </c>
       <c r="J24" t="n">
         <v>4</v>
@@ -3661,61 +3661,61 @@
         <v>1.05</v>
       </c>
       <c r="N24" t="n">
-        <v>5</v>
+        <v>5.2</v>
       </c>
       <c r="O24" t="n">
         <v>1.23</v>
       </c>
       <c r="P24" t="n">
-        <v>2.36</v>
+        <v>2.4</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.71</v>
+        <v>1.68</v>
       </c>
       <c r="R24" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="S24" t="n">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="T24" t="n">
-        <v>1.65</v>
+        <v>1.63</v>
       </c>
       <c r="U24" t="n">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="V24" t="n">
-        <v>1.34</v>
+        <v>1.36</v>
       </c>
       <c r="W24" t="n">
-        <v>1.96</v>
+        <v>1.9</v>
       </c>
       <c r="X24" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Y24" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="Z24" t="n">
         <v>30</v>
       </c>
       <c r="AA24" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AB24" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AC24" t="n">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="AD24" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AE24" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AF24" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AG24" t="n">
         <v>10.5</v>
@@ -3724,7 +3724,7 @@
         <v>15.5</v>
       </c>
       <c r="AI24" t="n">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="AJ24" t="n">
         <v>24</v>
@@ -3736,13 +3736,13 @@
         <v>29</v>
       </c>
       <c r="AM24" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AN24" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AO24" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="25">
@@ -3772,58 +3772,58 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="G25" t="n">
-        <v>2.46</v>
+        <v>2.5</v>
       </c>
       <c r="H25" t="n">
         <v>3.25</v>
       </c>
       <c r="I25" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="J25" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="K25" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="L25" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="M25" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="N25" t="n">
         <v>3.5</v>
       </c>
-      <c r="K25" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="L25" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="M25" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N25" t="n">
-        <v>3.65</v>
-      </c>
       <c r="O25" t="n">
-        <v>1.36</v>
+        <v>1.38</v>
       </c>
       <c r="P25" t="n">
-        <v>1.89</v>
+        <v>1.85</v>
       </c>
       <c r="Q25" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="R25" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="S25" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="T25" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="U25" t="n">
         <v>2.1</v>
       </c>
-      <c r="R25" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="S25" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="T25" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="U25" t="n">
-        <v>2.14</v>
-      </c>
       <c r="V25" t="n">
-        <v>1.43</v>
+        <v>1.42</v>
       </c>
       <c r="W25" t="n">
-        <v>1.68</v>
+        <v>1.66</v>
       </c>
       <c r="X25" t="n">
         <v>12.5</v>
@@ -3838,16 +3838,16 @@
         <v>60</v>
       </c>
       <c r="AB25" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="AC25" t="n">
         <v>7.6</v>
       </c>
       <c r="AD25" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AE25" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AF25" t="n">
         <v>15</v>
@@ -3859,7 +3859,7 @@
         <v>17.5</v>
       </c>
       <c r="AI25" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AJ25" t="n">
         <v>34</v>
@@ -3868,16 +3868,16 @@
         <v>27</v>
       </c>
       <c r="AL25" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AM25" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AN25" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AO25" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="26">
@@ -3910,7 +3910,7 @@
         <v>2.44</v>
       </c>
       <c r="G26" t="n">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="H26" t="n">
         <v>3.25</v>
@@ -3931,7 +3931,7 @@
         <v>1.08</v>
       </c>
       <c r="N26" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="O26" t="n">
         <v>1.35</v>
@@ -3946,10 +3946,10 @@
         <v>1.35</v>
       </c>
       <c r="S26" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="T26" t="n">
-        <v>1.8</v>
+        <v>1.82</v>
       </c>
       <c r="U26" t="n">
         <v>2.16</v>
@@ -3958,7 +3958,7 @@
         <v>1.43</v>
       </c>
       <c r="W26" t="n">
-        <v>1.68</v>
+        <v>1.67</v>
       </c>
       <c r="X26" t="n">
         <v>13</v>
@@ -3991,10 +3991,10 @@
         <v>11.5</v>
       </c>
       <c r="AH26" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AI26" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AJ26" t="n">
         <v>34</v>
@@ -4042,34 +4042,34 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>2.06</v>
+        <v>2.02</v>
       </c>
       <c r="G27" t="n">
-        <v>2.1</v>
+        <v>2.04</v>
       </c>
       <c r="H27" t="n">
-        <v>3.85</v>
+        <v>3.95</v>
       </c>
       <c r="I27" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="J27" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="K27" t="n">
         <v>3.9</v>
       </c>
       <c r="L27" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="M27" t="n">
         <v>1.06</v>
       </c>
       <c r="N27" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="O27" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="P27" t="n">
         <v>2.12</v>
@@ -4078,7 +4078,7 @@
         <v>1.86</v>
       </c>
       <c r="R27" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="S27" t="n">
         <v>3.2</v>
@@ -4087,13 +4087,13 @@
         <v>1.75</v>
       </c>
       <c r="U27" t="n">
-        <v>2.28</v>
+        <v>2.26</v>
       </c>
       <c r="V27" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="W27" t="n">
-        <v>1.92</v>
+        <v>1.96</v>
       </c>
       <c r="X27" t="n">
         <v>16</v>
@@ -4102,10 +4102,10 @@
         <v>16</v>
       </c>
       <c r="Z27" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AA27" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AB27" t="n">
         <v>10.5</v>
@@ -4114,13 +4114,13 @@
         <v>8.199999999999999</v>
       </c>
       <c r="AD27" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AE27" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AF27" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AG27" t="n">
         <v>10.5</v>
@@ -4129,13 +4129,13 @@
         <v>17</v>
       </c>
       <c r="AI27" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AJ27" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AK27" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="AL27" t="n">
         <v>32</v>
@@ -4144,7 +4144,7 @@
         <v>85</v>
       </c>
       <c r="AN27" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AO27" t="n">
         <v>40</v>
@@ -4177,7 +4177,7 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>2.76</v>
+        <v>2.8</v>
       </c>
       <c r="G28" t="n">
         <v>2.86</v>
@@ -4192,25 +4192,25 @@
         <v>2.98</v>
       </c>
       <c r="K28" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="L28" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="M28" t="n">
         <v>1.13</v>
       </c>
       <c r="N28" t="n">
-        <v>2.74</v>
+        <v>2.76</v>
       </c>
       <c r="O28" t="n">
-        <v>1.55</v>
+        <v>1.54</v>
       </c>
       <c r="P28" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="Q28" t="n">
-        <v>2.68</v>
+        <v>2.64</v>
       </c>
       <c r="R28" t="n">
         <v>1.21</v>
@@ -4228,7 +4228,7 @@
         <v>1.44</v>
       </c>
       <c r="W28" t="n">
-        <v>1.54</v>
+        <v>1.53</v>
       </c>
       <c r="X28" t="n">
         <v>8.6</v>
@@ -4237,7 +4237,7 @@
         <v>9.4</v>
       </c>
       <c r="Z28" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AA28" t="n">
         <v>900</v>
@@ -4249,7 +4249,7 @@
         <v>7</v>
       </c>
       <c r="AD28" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AE28" t="n">
         <v>48</v>
@@ -4264,13 +4264,13 @@
         <v>22</v>
       </c>
       <c r="AI28" t="n">
-        <v>500</v>
+        <v>460</v>
       </c>
       <c r="AJ28" t="n">
         <v>95</v>
       </c>
       <c r="AK28" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="AL28" t="n">
         <v>460</v>
@@ -4282,7 +4282,7 @@
         <v>48</v>
       </c>
       <c r="AO28" t="n">
-        <v>170</v>
+        <v>600</v>
       </c>
     </row>
     <row r="29">
@@ -4312,16 +4312,16 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>3.2</v>
+        <v>3.05</v>
       </c>
       <c r="G29" t="n">
-        <v>3.25</v>
+        <v>3.15</v>
       </c>
       <c r="H29" t="n">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="I29" t="n">
-        <v>2.46</v>
+        <v>2.54</v>
       </c>
       <c r="J29" t="n">
         <v>3.55</v>
@@ -4342,7 +4342,7 @@
         <v>1.31</v>
       </c>
       <c r="P29" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="Q29" t="n">
         <v>1.93</v>
@@ -4360,22 +4360,22 @@
         <v>2.28</v>
       </c>
       <c r="V29" t="n">
-        <v>1.69</v>
+        <v>1.65</v>
       </c>
       <c r="W29" t="n">
-        <v>1.43</v>
+        <v>1.46</v>
       </c>
       <c r="X29" t="n">
         <v>14.5</v>
       </c>
       <c r="Y29" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="Z29" t="n">
         <v>16</v>
       </c>
       <c r="AA29" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AB29" t="n">
         <v>13.5</v>
@@ -4384,10 +4384,10 @@
         <v>7.8</v>
       </c>
       <c r="AD29" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AE29" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AF29" t="n">
         <v>22</v>
@@ -4399,10 +4399,10 @@
         <v>16.5</v>
       </c>
       <c r="AI29" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AJ29" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AK29" t="n">
         <v>34</v>
@@ -4411,13 +4411,13 @@
         <v>44</v>
       </c>
       <c r="AM29" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AN29" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AO29" t="n">
-        <v>18.5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="30">
@@ -4459,7 +4459,7 @@
         <v>3.15</v>
       </c>
       <c r="J30" t="n">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="K30" t="n">
         <v>2.92</v>
@@ -4489,7 +4489,7 @@
         <v>8</v>
       </c>
       <c r="T30" t="n">
-        <v>2.48</v>
+        <v>2.46</v>
       </c>
       <c r="U30" t="n">
         <v>1.62</v>
@@ -4582,22 +4582,22 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="G31" t="n">
         <v>2.22</v>
       </c>
       <c r="H31" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="I31" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="J31" t="n">
-        <v>2.9</v>
+        <v>2.92</v>
       </c>
       <c r="K31" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="L31" t="n">
         <v>0</v>
@@ -4717,13 +4717,13 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>2.94</v>
+        <v>2.96</v>
       </c>
       <c r="G32" t="n">
         <v>3.1</v>
       </c>
       <c r="H32" t="n">
-        <v>3</v>
+        <v>2.98</v>
       </c>
       <c r="I32" t="n">
         <v>3.15</v>
@@ -4855,7 +4855,7 @@
         <v>2.22</v>
       </c>
       <c r="G33" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="H33" t="n">
         <v>4.3</v>
@@ -4879,13 +4879,13 @@
         <v>2.48</v>
       </c>
       <c r="O33" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="P33" t="n">
         <v>1.47</v>
       </c>
       <c r="Q33" t="n">
-        <v>2.96</v>
+        <v>3</v>
       </c>
       <c r="R33" t="n">
         <v>1.16</v>
@@ -4894,7 +4894,7 @@
         <v>6.4</v>
       </c>
       <c r="T33" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="U33" t="n">
         <v>1.67</v>
@@ -4903,7 +4903,7 @@
         <v>1.28</v>
       </c>
       <c r="W33" t="n">
-        <v>1.8</v>
+        <v>1.79</v>
       </c>
       <c r="X33" t="n">
         <v>8.800000000000001</v>
@@ -4921,10 +4921,10 @@
         <v>7</v>
       </c>
       <c r="AC33" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="AD33" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="AE33" t="n">
         <v>85</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-22.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-22.xlsx
@@ -667,112 +667,112 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.6</v>
+        <v>1.41</v>
       </c>
       <c r="G2" t="n">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="H2" t="n">
-        <v>6</v>
+        <v>8.4</v>
       </c>
       <c r="I2" t="n">
-        <v>6.8</v>
+        <v>9.4</v>
       </c>
       <c r="J2" t="n">
-        <v>4.5</v>
+        <v>5.4</v>
       </c>
       <c r="K2" t="n">
-        <v>4.7</v>
+        <v>5.8</v>
       </c>
       <c r="L2" t="n">
-        <v>1.36</v>
+        <v>1.34</v>
       </c>
       <c r="M2" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N2" t="n">
-        <v>4.6</v>
+        <v>5.1</v>
       </c>
       <c r="O2" t="n">
-        <v>1.26</v>
+        <v>1.22</v>
       </c>
       <c r="P2" t="n">
-        <v>2.26</v>
+        <v>2.5</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.73</v>
+        <v>1.64</v>
       </c>
       <c r="R2" t="n">
-        <v>1.49</v>
+        <v>1.59</v>
       </c>
       <c r="S2" t="n">
-        <v>2.86</v>
+        <v>2.58</v>
       </c>
       <c r="T2" t="n">
-        <v>1.76</v>
+        <v>1.78</v>
       </c>
       <c r="U2" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="V2" t="n">
-        <v>1.18</v>
+        <v>1.15</v>
       </c>
       <c r="W2" t="n">
-        <v>2.58</v>
+        <v>2.8</v>
       </c>
       <c r="X2" t="n">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="Y2" t="n">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="Z2" t="n">
-        <v>55</v>
+        <v>980</v>
       </c>
       <c r="AA2" t="n">
         <v>500</v>
       </c>
       <c r="AB2" t="n">
-        <v>9.800000000000001</v>
+        <v>10.5</v>
       </c>
       <c r="AC2" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>34</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>120</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AG2" t="n">
         <v>10.5</v>
       </c>
-      <c r="AD2" t="n">
+      <c r="AH2" t="n">
         <v>24</v>
       </c>
-      <c r="AE2" t="n">
-        <v>80</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>11</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>21</v>
-      </c>
       <c r="AI2" t="n">
-        <v>80</v>
+        <v>110</v>
       </c>
       <c r="AJ2" t="n">
-        <v>16</v>
+        <v>12.5</v>
       </c>
       <c r="AK2" t="n">
-        <v>15.5</v>
+        <v>14</v>
       </c>
       <c r="AL2" t="n">
         <v>32</v>
       </c>
       <c r="AM2" t="n">
-        <v>110</v>
+        <v>580</v>
       </c>
       <c r="AN2" t="n">
-        <v>7.8</v>
+        <v>5.7</v>
       </c>
       <c r="AO2" t="n">
-        <v>85</v>
+        <v>600</v>
       </c>
     </row>
     <row r="3">
@@ -802,13 +802,13 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="G3" t="n">
-        <v>2.14</v>
+        <v>2.18</v>
       </c>
       <c r="H3" t="n">
-        <v>5.3</v>
+        <v>5.1</v>
       </c>
       <c r="I3" t="n">
         <v>6</v>
@@ -817,19 +817,19 @@
         <v>2.84</v>
       </c>
       <c r="K3" t="n">
-        <v>3.15</v>
+        <v>2.88</v>
       </c>
       <c r="L3" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="M3" t="n">
         <v>1.19</v>
       </c>
       <c r="N3" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="O3" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="P3" t="n">
         <v>1.36</v>
@@ -844,28 +844,28 @@
         <v>8</v>
       </c>
       <c r="T3" t="n">
-        <v>2.54</v>
+        <v>2.5</v>
       </c>
       <c r="U3" t="n">
-        <v>1.52</v>
+        <v>1.54</v>
       </c>
       <c r="V3" t="n">
         <v>1.21</v>
       </c>
       <c r="W3" t="n">
-        <v>1.88</v>
+        <v>1.84</v>
       </c>
       <c r="X3" t="n">
-        <v>6.8</v>
+        <v>6.2</v>
       </c>
       <c r="Y3" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="Z3" t="n">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="AA3" t="n">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="AB3" t="n">
         <v>5.8</v>
@@ -874,40 +874,40 @@
         <v>7.6</v>
       </c>
       <c r="AD3" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AE3" t="n">
-        <v>500</v>
+        <v>150</v>
       </c>
       <c r="AF3" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AG3" t="n">
         <v>13</v>
       </c>
       <c r="AH3" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AI3" t="n">
-        <v>500</v>
+        <v>220</v>
       </c>
       <c r="AJ3" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AK3" t="n">
         <v>38</v>
       </c>
       <c r="AL3" t="n">
-        <v>150</v>
+        <v>110</v>
       </c>
       <c r="AM3" t="n">
         <v>500</v>
       </c>
       <c r="AN3" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AO3" t="n">
-        <v>600</v>
+        <v>320</v>
       </c>
     </row>
     <row r="4">
@@ -937,22 +937,22 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.61</v>
+        <v>1.63</v>
       </c>
       <c r="G4" t="n">
-        <v>1.68</v>
+        <v>1.7</v>
       </c>
       <c r="H4" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="I4" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="J4" t="n">
         <v>4.4</v>
       </c>
       <c r="K4" t="n">
-        <v>5.3</v>
+        <v>5.1</v>
       </c>
       <c r="L4" t="n">
         <v>1.29</v>
@@ -973,49 +973,49 @@
         <v>1.57</v>
       </c>
       <c r="R4" t="n">
-        <v>1.63</v>
+        <v>1.62</v>
       </c>
       <c r="S4" t="n">
         <v>2.44</v>
       </c>
       <c r="T4" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="U4" t="n">
-        <v>2.28</v>
+        <v>2.26</v>
       </c>
       <c r="V4" t="n">
         <v>1.21</v>
       </c>
       <c r="W4" t="n">
-        <v>2.44</v>
+        <v>2.42</v>
       </c>
       <c r="X4" t="n">
         <v>46</v>
       </c>
       <c r="Y4" t="n">
-        <v>48</v>
+        <v>970</v>
       </c>
       <c r="Z4" t="n">
         <v>970</v>
       </c>
       <c r="AA4" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="AB4" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AC4" t="n">
         <v>12</v>
       </c>
       <c r="AD4" t="n">
-        <v>970</v>
+        <v>36</v>
       </c>
       <c r="AE4" t="n">
         <v>190</v>
       </c>
       <c r="AF4" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AG4" t="n">
         <v>10.5</v>
@@ -1027,10 +1027,10 @@
         <v>170</v>
       </c>
       <c r="AJ4" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AK4" t="n">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="AL4" t="n">
         <v>65</v>
@@ -1039,10 +1039,10 @@
         <v>580</v>
       </c>
       <c r="AN4" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="AO4" t="n">
-        <v>600</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5">
@@ -1072,22 +1072,22 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>2.12</v>
+        <v>2.08</v>
       </c>
       <c r="G5" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="H5" t="n">
-        <v>4.8</v>
+        <v>5.2</v>
       </c>
       <c r="I5" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="J5" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="K5" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="L5" t="n">
         <v>1.69</v>
@@ -1096,25 +1096,25 @@
         <v>1.17</v>
       </c>
       <c r="N5" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="O5" t="n">
-        <v>1.7</v>
+        <v>1.69</v>
       </c>
       <c r="P5" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="Q5" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="R5" t="n">
         <v>1.14</v>
       </c>
       <c r="S5" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="T5" t="n">
-        <v>2.42</v>
+        <v>2.48</v>
       </c>
       <c r="U5" t="n">
         <v>1.6</v>
@@ -1123,61 +1123,61 @@
         <v>1.23</v>
       </c>
       <c r="W5" t="n">
-        <v>1.83</v>
+        <v>1.9</v>
       </c>
       <c r="X5" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="Y5" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="Z5" t="n">
-        <v>95</v>
+        <v>38</v>
       </c>
       <c r="AA5" t="n">
-        <v>900</v>
+        <v>170</v>
       </c>
       <c r="AB5" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="AC5" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="AD5" t="n">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="AE5" t="n">
-        <v>500</v>
+        <v>120</v>
       </c>
       <c r="AF5" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AG5" t="n">
         <v>12.5</v>
       </c>
       <c r="AH5" t="n">
-        <v>80</v>
+        <v>34</v>
       </c>
       <c r="AI5" t="n">
-        <v>500</v>
+        <v>170</v>
       </c>
       <c r="AJ5" t="n">
-        <v>65</v>
+        <v>26</v>
       </c>
       <c r="AK5" t="n">
-        <v>65</v>
+        <v>34</v>
       </c>
       <c r="AL5" t="n">
-        <v>460</v>
+        <v>85</v>
       </c>
       <c r="AM5" t="n">
         <v>500</v>
       </c>
       <c r="AN5" t="n">
-        <v>980</v>
+        <v>36</v>
       </c>
       <c r="AO5" t="n">
-        <v>600</v>
+        <v>230</v>
       </c>
     </row>
     <row r="6">
@@ -1207,22 +1207,22 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="G6" t="n">
         <v>3.65</v>
       </c>
       <c r="H6" t="n">
-        <v>2.62</v>
+        <v>2.6</v>
       </c>
       <c r="I6" t="n">
-        <v>2.74</v>
+        <v>2.7</v>
       </c>
       <c r="J6" t="n">
-        <v>2.88</v>
+        <v>2.86</v>
       </c>
       <c r="K6" t="n">
-        <v>3</v>
+        <v>2.98</v>
       </c>
       <c r="L6" t="n">
         <v>1.65</v>
@@ -1231,16 +1231,16 @@
         <v>1.15</v>
       </c>
       <c r="N6" t="n">
-        <v>2.48</v>
+        <v>2.46</v>
       </c>
       <c r="O6" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="P6" t="n">
         <v>1.47</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.96</v>
+        <v>3</v>
       </c>
       <c r="R6" t="n">
         <v>1.16</v>
@@ -1252,22 +1252,22 @@
         <v>2.2</v>
       </c>
       <c r="U6" t="n">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="V6" t="n">
         <v>1.58</v>
       </c>
       <c r="W6" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="X6" t="n">
-        <v>7.6</v>
+        <v>7.2</v>
       </c>
       <c r="Y6" t="n">
         <v>7.6</v>
       </c>
       <c r="Z6" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AA6" t="n">
         <v>46</v>
@@ -1282,7 +1282,7 @@
         <v>13.5</v>
       </c>
       <c r="AE6" t="n">
-        <v>130</v>
+        <v>44</v>
       </c>
       <c r="AF6" t="n">
         <v>22</v>
@@ -1291,7 +1291,7 @@
         <v>16.5</v>
       </c>
       <c r="AH6" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AI6" t="n">
         <v>460</v>
@@ -1300,10 +1300,10 @@
         <v>75</v>
       </c>
       <c r="AK6" t="n">
-        <v>980</v>
+        <v>60</v>
       </c>
       <c r="AL6" t="n">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="AM6" t="n">
         <v>500</v>
@@ -1312,7 +1312,7 @@
         <v>90</v>
       </c>
       <c r="AO6" t="n">
-        <v>55</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7">
@@ -1342,34 +1342,34 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="G7" t="n">
-        <v>1.89</v>
+        <v>1.86</v>
       </c>
       <c r="H7" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="I7" t="n">
-        <v>4.9</v>
+        <v>5.1</v>
       </c>
       <c r="J7" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="K7" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="L7" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="M7" t="n">
         <v>1.07</v>
       </c>
       <c r="N7" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="O7" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="P7" t="n">
         <v>1.94</v>
@@ -1378,58 +1378,58 @@
         <v>2.02</v>
       </c>
       <c r="R7" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="S7" t="n">
-        <v>3.65</v>
+        <v>3.75</v>
       </c>
       <c r="T7" t="n">
-        <v>1.86</v>
+        <v>1.89</v>
       </c>
       <c r="U7" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="V7" t="n">
         <v>1.25</v>
       </c>
       <c r="W7" t="n">
-        <v>2.12</v>
+        <v>2.16</v>
       </c>
       <c r="X7" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="Y7" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="Z7" t="n">
         <v>36</v>
       </c>
       <c r="AA7" t="n">
-        <v>120</v>
+        <v>900</v>
       </c>
       <c r="AB7" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AC7" t="n">
         <v>8.6</v>
       </c>
       <c r="AD7" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AE7" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AF7" t="n">
         <v>11</v>
       </c>
       <c r="AG7" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AH7" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AI7" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AJ7" t="n">
         <v>21</v>
@@ -1438,16 +1438,16 @@
         <v>20</v>
       </c>
       <c r="AL7" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AM7" t="n">
-        <v>120</v>
+        <v>170</v>
       </c>
       <c r="AN7" t="n">
         <v>13.5</v>
       </c>
       <c r="AO7" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
     </row>
     <row r="8">
@@ -1477,22 +1477,22 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="G8" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="H8" t="n">
         <v>16.5</v>
       </c>
       <c r="I8" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J8" t="n">
-        <v>8.800000000000001</v>
+        <v>8.4</v>
       </c>
       <c r="K8" t="n">
-        <v>10.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="L8" t="n">
         <v>1.22</v>
@@ -1501,40 +1501,40 @@
         <v>1.02</v>
       </c>
       <c r="N8" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="O8" t="n">
-        <v>1.12</v>
+        <v>1.13</v>
       </c>
       <c r="P8" t="n">
         <v>3.3</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="R8" t="n">
-        <v>1.93</v>
+        <v>1.91</v>
       </c>
       <c r="S8" t="n">
-        <v>2.02</v>
+        <v>2.06</v>
       </c>
       <c r="T8" t="n">
         <v>2.02</v>
       </c>
       <c r="U8" t="n">
-        <v>1.84</v>
+        <v>1.88</v>
       </c>
       <c r="V8" t="n">
         <v>1.05</v>
       </c>
       <c r="W8" t="n">
-        <v>6</v>
+        <v>5.7</v>
       </c>
       <c r="X8" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="Y8" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="Z8" t="n">
         <v>210</v>
@@ -1543,31 +1543,31 @@
         <v>1000</v>
       </c>
       <c r="AB8" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AC8" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AD8" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AE8" t="n">
-        <v>300</v>
+        <v>260</v>
       </c>
       <c r="AF8" t="n">
         <v>9.199999999999999</v>
       </c>
       <c r="AG8" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AH8" t="n">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="AI8" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="AJ8" t="n">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="AK8" t="n">
         <v>13</v>
@@ -1576,13 +1576,13 @@
         <v>980</v>
       </c>
       <c r="AM8" t="n">
-        <v>220</v>
+        <v>170</v>
       </c>
       <c r="AN8" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="AO8" t="n">
-        <v>350</v>
+        <v>340</v>
       </c>
     </row>
     <row r="9">
@@ -1612,22 +1612,22 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.2</v>
+        <v>2.28</v>
       </c>
       <c r="G9" t="n">
-        <v>2.28</v>
+        <v>2.34</v>
       </c>
       <c r="H9" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="I9" t="n">
         <v>3.05</v>
-      </c>
-      <c r="I9" t="n">
-        <v>3.15</v>
       </c>
       <c r="J9" t="n">
         <v>4.1</v>
       </c>
       <c r="K9" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="L9" t="n">
         <v>1.27</v>
@@ -1642,82 +1642,82 @@
         <v>1.16</v>
       </c>
       <c r="P9" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="Q9" t="n">
         <v>1.5</v>
       </c>
       <c r="R9" t="n">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="S9" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="T9" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="U9" t="n">
-        <v>2.96</v>
+        <v>2.84</v>
       </c>
       <c r="V9" t="n">
-        <v>1.46</v>
+        <v>1.48</v>
       </c>
       <c r="W9" t="n">
-        <v>1.78</v>
+        <v>1.74</v>
       </c>
       <c r="X9" t="n">
-        <v>85</v>
+        <v>44</v>
       </c>
       <c r="Y9" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="Z9" t="n">
-        <v>65</v>
+        <v>27</v>
       </c>
       <c r="AA9" t="n">
-        <v>980</v>
+        <v>80</v>
       </c>
       <c r="AB9" t="n">
-        <v>19.5</v>
+        <v>17.5</v>
       </c>
       <c r="AC9" t="n">
         <v>11</v>
       </c>
       <c r="AD9" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AE9" t="n">
-        <v>980</v>
+        <v>46</v>
       </c>
       <c r="AF9" t="n">
         <v>21</v>
       </c>
       <c r="AG9" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AH9" t="n">
         <v>14.5</v>
       </c>
       <c r="AI9" t="n">
-        <v>980</v>
+        <v>32</v>
       </c>
       <c r="AJ9" t="n">
-        <v>95</v>
+        <v>30</v>
       </c>
       <c r="AK9" t="n">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="AL9" t="n">
-        <v>980</v>
+        <v>26</v>
       </c>
       <c r="AM9" t="n">
-        <v>580</v>
+        <v>200</v>
       </c>
       <c r="AN9" t="n">
-        <v>9.6</v>
+        <v>10.5</v>
       </c>
       <c r="AO9" t="n">
-        <v>21</v>
+        <v>16.5</v>
       </c>
     </row>
     <row r="10">
@@ -1747,37 +1747,37 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="G10" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="H10" t="n">
         <v>1.88</v>
       </c>
       <c r="I10" t="n">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="J10" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="K10" t="n">
         <v>3.75</v>
       </c>
       <c r="L10" t="n">
-        <v>1.49</v>
+        <v>1.48</v>
       </c>
       <c r="M10" t="n">
         <v>1.09</v>
       </c>
       <c r="N10" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="O10" t="n">
         <v>1.4</v>
       </c>
       <c r="P10" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="Q10" t="n">
         <v>2.22</v>
@@ -1786,46 +1786,46 @@
         <v>1.3</v>
       </c>
       <c r="S10" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="T10" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="U10" t="n">
         <v>1.91</v>
       </c>
       <c r="V10" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="W10" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="X10" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="Y10" t="n">
         <v>7.4</v>
       </c>
       <c r="Z10" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>20</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>15</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD10" t="n">
         <v>10</v>
-      </c>
-      <c r="AA10" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AB10" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AC10" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AD10" t="n">
-        <v>10.5</v>
       </c>
       <c r="AE10" t="n">
         <v>21</v>
       </c>
       <c r="AF10" t="n">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="AG10" t="n">
         <v>19.5</v>
@@ -1837,10 +1837,10 @@
         <v>42</v>
       </c>
       <c r="AJ10" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="AK10" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AL10" t="n">
         <v>85</v>
@@ -1852,7 +1852,7 @@
         <v>100</v>
       </c>
       <c r="AO10" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11">
@@ -1882,16 +1882,16 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>3.75</v>
+        <v>3.9</v>
       </c>
       <c r="G11" t="n">
-        <v>3.8</v>
+        <v>3.95</v>
       </c>
       <c r="H11" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="I11" t="n">
         <v>2.08</v>
-      </c>
-      <c r="I11" t="n">
-        <v>2.12</v>
       </c>
       <c r="J11" t="n">
         <v>3.85</v>
@@ -1906,49 +1906,49 @@
         <v>1.06</v>
       </c>
       <c r="N11" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="O11" t="n">
         <v>1.26</v>
       </c>
       <c r="P11" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.81</v>
+        <v>1.79</v>
       </c>
       <c r="R11" t="n">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="S11" t="n">
-        <v>3</v>
+        <v>2.98</v>
       </c>
       <c r="T11" t="n">
-        <v>1.69</v>
+        <v>1.71</v>
       </c>
       <c r="U11" t="n">
         <v>2.36</v>
       </c>
       <c r="V11" t="n">
-        <v>1.89</v>
+        <v>1.93</v>
       </c>
       <c r="W11" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="X11" t="n">
+        <v>18</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>24</v>
+      </c>
+      <c r="AB11" t="n">
         <v>17.5</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="Z11" t="n">
-        <v>14</v>
-      </c>
-      <c r="AA11" t="n">
-        <v>26</v>
-      </c>
-      <c r="AB11" t="n">
-        <v>16.5</v>
       </c>
       <c r="AC11" t="n">
         <v>8.4</v>
@@ -1957,13 +1957,13 @@
         <v>10.5</v>
       </c>
       <c r="AE11" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AF11" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AG11" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AH11" t="n">
         <v>16</v>
@@ -1972,22 +1972,22 @@
         <v>30</v>
       </c>
       <c r="AJ11" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="AK11" t="n">
         <v>40</v>
       </c>
       <c r="AL11" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AM11" t="n">
         <v>75</v>
       </c>
       <c r="AN11" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AO11" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12">
@@ -2017,28 +2017,28 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.42</v>
+        <v>2.36</v>
       </c>
       <c r="G12" t="n">
-        <v>2.44</v>
+        <v>2.38</v>
       </c>
       <c r="H12" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="I12" t="n">
-        <v>3.2</v>
+        <v>3.35</v>
       </c>
       <c r="J12" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="K12" t="n">
         <v>3.65</v>
       </c>
-      <c r="K12" t="n">
-        <v>3.7</v>
-      </c>
       <c r="L12" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="M12" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N12" t="n">
         <v>4</v>
@@ -2047,31 +2047,31 @@
         <v>1.31</v>
       </c>
       <c r="P12" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.93</v>
+        <v>1.96</v>
       </c>
       <c r="R12" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="S12" t="n">
         <v>3.25</v>
       </c>
       <c r="T12" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="U12" t="n">
-        <v>2.28</v>
+        <v>2.26</v>
       </c>
       <c r="V12" t="n">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="W12" t="n">
-        <v>1.69</v>
+        <v>1.72</v>
       </c>
       <c r="X12" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="Y12" t="n">
         <v>13.5</v>
@@ -2080,31 +2080,31 @@
         <v>22</v>
       </c>
       <c r="AA12" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AB12" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AC12" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="AD12" t="n">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="AE12" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AF12" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AG12" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AH12" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AI12" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AJ12" t="n">
         <v>34</v>
@@ -2122,7 +2122,7 @@
         <v>18</v>
       </c>
       <c r="AO12" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13">
@@ -2152,16 +2152,16 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="G13" t="n">
         <v>4.1</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="I13" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="J13" t="n">
         <v>3.9</v>
@@ -2176,40 +2176,40 @@
         <v>1.06</v>
       </c>
       <c r="N13" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="O13" t="n">
         <v>1.27</v>
       </c>
       <c r="P13" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.84</v>
+        <v>1.81</v>
       </c>
       <c r="R13" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="S13" t="n">
-        <v>3.05</v>
+        <v>2.98</v>
       </c>
       <c r="T13" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="U13" t="n">
         <v>2.3</v>
       </c>
       <c r="V13" t="n">
-        <v>1.99</v>
+        <v>1.96</v>
       </c>
       <c r="W13" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="X13" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="Y13" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="Z13" t="n">
         <v>13</v>
@@ -2227,7 +2227,7 @@
         <v>10</v>
       </c>
       <c r="AE13" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AF13" t="n">
         <v>30</v>
@@ -2245,16 +2245,16 @@
         <v>80</v>
       </c>
       <c r="AK13" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AL13" t="n">
         <v>48</v>
       </c>
       <c r="AM13" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AN13" t="n">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="AO13" t="n">
         <v>12</v>
@@ -2287,109 +2287,109 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
       <c r="G14" t="n">
-        <v>1.2</v>
+        <v>1.23</v>
       </c>
       <c r="H14" t="n">
-        <v>20</v>
+        <v>16.5</v>
       </c>
       <c r="I14" t="n">
-        <v>21</v>
+        <v>17.5</v>
       </c>
       <c r="J14" t="n">
-        <v>8.6</v>
+        <v>7.8</v>
       </c>
       <c r="K14" t="n">
-        <v>8.800000000000001</v>
+        <v>8</v>
       </c>
       <c r="L14" t="n">
-        <v>1.28</v>
+        <v>1.3</v>
       </c>
       <c r="M14" t="n">
         <v>1.03</v>
       </c>
       <c r="N14" t="n">
-        <v>6.2</v>
+        <v>5.7</v>
       </c>
       <c r="O14" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="P14" t="n">
-        <v>2.74</v>
+        <v>2.58</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.57</v>
+        <v>1.61</v>
       </c>
       <c r="R14" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="S14" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="T14" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="U14" t="n">
         <v>1.69</v>
       </c>
-      <c r="S14" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="T14" t="n">
-        <v>2.48</v>
-      </c>
-      <c r="U14" t="n">
-        <v>1.65</v>
-      </c>
       <c r="V14" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="W14" t="n">
-        <v>6</v>
+        <v>5.3</v>
       </c>
       <c r="X14" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="Y14" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="Z14" t="n">
-        <v>1000</v>
+        <v>190</v>
       </c>
       <c r="AA14" t="n">
         <v>1000</v>
       </c>
       <c r="AB14" t="n">
-        <v>9.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="AC14" t="n">
-        <v>19</v>
+        <v>16.5</v>
       </c>
       <c r="AD14" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="AE14" t="n">
-        <v>530</v>
+        <v>370</v>
       </c>
       <c r="AF14" t="n">
         <v>7.4</v>
       </c>
       <c r="AG14" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="AH14" t="n">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="AI14" t="n">
-        <v>310</v>
+        <v>250</v>
       </c>
       <c r="AJ14" t="n">
-        <v>8</v>
+        <v>8.6</v>
       </c>
       <c r="AK14" t="n">
         <v>14.5</v>
       </c>
       <c r="AL14" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AM14" t="n">
-        <v>360</v>
+        <v>290</v>
       </c>
       <c r="AN14" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="AO14" t="n">
         <v>1000</v>
@@ -2422,22 +2422,22 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1.77</v>
+        <v>1.79</v>
       </c>
       <c r="G15" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="H15" t="n">
+        <v>5</v>
+      </c>
+      <c r="I15" t="n">
         <v>5.1</v>
       </c>
-      <c r="I15" t="n">
-        <v>5.3</v>
-      </c>
       <c r="J15" t="n">
+        <v>4</v>
+      </c>
+      <c r="K15" t="n">
         <v>4.1</v>
-      </c>
-      <c r="K15" t="n">
-        <v>4.2</v>
       </c>
       <c r="L15" t="n">
         <v>1.4</v>
@@ -2449,7 +2449,7 @@
         <v>4.2</v>
       </c>
       <c r="O15" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="P15" t="n">
         <v>2.1</v>
@@ -2464,22 +2464,22 @@
         <v>3.25</v>
       </c>
       <c r="T15" t="n">
-        <v>1.85</v>
+        <v>1.84</v>
       </c>
       <c r="U15" t="n">
-        <v>2.1</v>
+        <v>2.16</v>
       </c>
       <c r="V15" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="W15" t="n">
-        <v>2.28</v>
+        <v>2.24</v>
       </c>
       <c r="X15" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="Y15" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="Z15" t="n">
         <v>38</v>
@@ -2488,16 +2488,16 @@
         <v>120</v>
       </c>
       <c r="AB15" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="AC15" t="n">
         <v>9</v>
       </c>
       <c r="AD15" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AE15" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AF15" t="n">
         <v>10.5</v>
@@ -2512,10 +2512,10 @@
         <v>65</v>
       </c>
       <c r="AJ15" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AK15" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AL15" t="n">
         <v>32</v>
@@ -2563,16 +2563,16 @@
         <v>2.48</v>
       </c>
       <c r="H16" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="I16" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="J16" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="K16" t="n">
         <v>3.65</v>
-      </c>
-      <c r="K16" t="n">
-        <v>3.7</v>
       </c>
       <c r="L16" t="n">
         <v>1.37</v>
@@ -2581,19 +2581,19 @@
         <v>1.06</v>
       </c>
       <c r="N16" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="O16" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="P16" t="n">
-        <v>2.22</v>
+        <v>2.18</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.81</v>
+        <v>1.83</v>
       </c>
       <c r="R16" t="n">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="S16" t="n">
         <v>3</v>
@@ -2605,13 +2605,13 @@
         <v>2.44</v>
       </c>
       <c r="V16" t="n">
-        <v>1.47</v>
+        <v>1.46</v>
       </c>
       <c r="W16" t="n">
         <v>1.67</v>
       </c>
       <c r="X16" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="Y16" t="n">
         <v>14.5</v>
@@ -2620,7 +2620,7 @@
         <v>22</v>
       </c>
       <c r="AA16" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AB16" t="n">
         <v>12.5</v>
@@ -2629,10 +2629,10 @@
         <v>8</v>
       </c>
       <c r="AD16" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AE16" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="AF16" t="n">
         <v>16.5</v>
@@ -2653,16 +2653,16 @@
         <v>23</v>
       </c>
       <c r="AL16" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AM16" t="n">
         <v>70</v>
       </c>
       <c r="AN16" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AO16" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17">
@@ -2692,94 +2692,94 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="G17" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="H17" t="n">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
       <c r="I17" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="J17" t="n">
+        <v>4</v>
+      </c>
+      <c r="K17" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="L17" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N17" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="O17" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="P17" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="R17" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="S17" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="T17" t="n">
         <v>1.78</v>
       </c>
-      <c r="J17" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="K17" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="L17" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="M17" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N17" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="O17" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="P17" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="R17" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="S17" t="n">
-        <v>2.82</v>
-      </c>
-      <c r="T17" t="n">
-        <v>1.74</v>
-      </c>
       <c r="U17" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="V17" t="n">
-        <v>2.28</v>
+        <v>2.26</v>
       </c>
       <c r="W17" t="n">
         <v>1.24</v>
       </c>
       <c r="X17" t="n">
-        <v>19.5</v>
+        <v>18</v>
       </c>
       <c r="Y17" t="n">
-        <v>10.5</v>
+        <v>9.6</v>
       </c>
       <c r="Z17" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AA17" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AB17" t="n">
         <v>20</v>
       </c>
       <c r="AC17" t="n">
-        <v>9.4</v>
+        <v>9</v>
       </c>
       <c r="AD17" t="n">
         <v>9.800000000000001</v>
       </c>
       <c r="AE17" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AF17" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AG17" t="n">
         <v>18.5</v>
       </c>
       <c r="AH17" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AI17" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AJ17" t="n">
         <v>120</v>
@@ -2788,16 +2788,16 @@
         <v>60</v>
       </c>
       <c r="AL17" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AM17" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AN17" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="AO17" t="n">
-        <v>8.800000000000001</v>
+        <v>9.4</v>
       </c>
     </row>
     <row r="18">
@@ -2839,7 +2839,7 @@
         <v>7.6</v>
       </c>
       <c r="J18" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="K18" t="n">
         <v>5.6</v>
@@ -2860,25 +2860,25 @@
         <v>3.05</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="R18" t="n">
         <v>1.84</v>
       </c>
       <c r="S18" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="T18" t="n">
         <v>1.68</v>
       </c>
       <c r="U18" t="n">
-        <v>2.4</v>
+        <v>2.44</v>
       </c>
       <c r="V18" t="n">
         <v>1.15</v>
       </c>
       <c r="W18" t="n">
-        <v>3.15</v>
+        <v>3.05</v>
       </c>
       <c r="X18" t="n">
         <v>34</v>
@@ -2905,7 +2905,7 @@
         <v>80</v>
       </c>
       <c r="AF18" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AG18" t="n">
         <v>10.5</v>
@@ -2971,10 +2971,10 @@
         <v>2.58</v>
       </c>
       <c r="I19" t="n">
-        <v>2.72</v>
+        <v>2.7</v>
       </c>
       <c r="J19" t="n">
-        <v>2.72</v>
+        <v>2.74</v>
       </c>
       <c r="K19" t="n">
         <v>2.86</v>
@@ -2986,7 +2986,7 @@
         <v>1.19</v>
       </c>
       <c r="N19" t="n">
-        <v>2.26</v>
+        <v>2.24</v>
       </c>
       <c r="O19" t="n">
         <v>1.75</v>
@@ -2995,25 +2995,25 @@
         <v>1.38</v>
       </c>
       <c r="Q19" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="R19" t="n">
         <v>1.12</v>
       </c>
       <c r="S19" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="T19" t="n">
-        <v>1.05</v>
+        <v>2.2</v>
       </c>
       <c r="U19" t="n">
         <v>1.66</v>
       </c>
       <c r="V19" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="W19" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="X19" t="n">
         <v>1000</v>
@@ -3031,7 +3031,7 @@
         <v>1000</v>
       </c>
       <c r="AC19" t="n">
-        <v>970</v>
+        <v>42</v>
       </c>
       <c r="AD19" t="n">
         <v>1000</v>
@@ -3097,22 +3097,22 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>2.36</v>
+        <v>2.22</v>
       </c>
       <c r="G20" t="n">
-        <v>2.38</v>
+        <v>2.24</v>
       </c>
       <c r="H20" t="n">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="I20" t="n">
-        <v>3.05</v>
+        <v>3.35</v>
       </c>
       <c r="J20" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="K20" t="n">
-        <v>4.1</v>
+        <v>3.95</v>
       </c>
       <c r="L20" t="n">
         <v>1.3</v>
@@ -3127,10 +3127,10 @@
         <v>1.19</v>
       </c>
       <c r="P20" t="n">
-        <v>2.68</v>
+        <v>2.64</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.58</v>
+        <v>1.6</v>
       </c>
       <c r="R20" t="n">
         <v>1.68</v>
@@ -3139,43 +3139,43 @@
         <v>2.44</v>
       </c>
       <c r="T20" t="n">
-        <v>1.54</v>
+        <v>1.56</v>
       </c>
       <c r="U20" t="n">
-        <v>2.76</v>
+        <v>2.72</v>
       </c>
       <c r="V20" t="n">
-        <v>1.48</v>
+        <v>1.42</v>
       </c>
       <c r="W20" t="n">
-        <v>1.72</v>
+        <v>1.79</v>
       </c>
       <c r="X20" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Y20" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="Z20" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AA20" t="n">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="AB20" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AC20" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="AD20" t="n">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="AE20" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AF20" t="n">
-        <v>18.5</v>
+        <v>17.5</v>
       </c>
       <c r="AG20" t="n">
         <v>11.5</v>
@@ -3184,25 +3184,25 @@
         <v>14</v>
       </c>
       <c r="AI20" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AJ20" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AK20" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="AL20" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AM20" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AN20" t="n">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="AO20" t="n">
-        <v>17.5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21">
@@ -3235,16 +3235,16 @@
         <v>1.74</v>
       </c>
       <c r="G21" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="H21" t="n">
         <v>5.4</v>
       </c>
       <c r="I21" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="J21" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="K21" t="n">
         <v>4.2</v>
@@ -3256,40 +3256,40 @@
         <v>1.07</v>
       </c>
       <c r="N21" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="O21" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="P21" t="n">
-        <v>1.99</v>
+        <v>1.96</v>
       </c>
       <c r="Q21" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="R21" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="S21" t="n">
-        <v>3.55</v>
+        <v>3.65</v>
       </c>
       <c r="T21" t="n">
-        <v>1.94</v>
+        <v>1.95</v>
       </c>
       <c r="U21" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="V21" t="n">
         <v>1.22</v>
       </c>
       <c r="W21" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="X21" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="Y21" t="n">
-        <v>18.5</v>
+        <v>17.5</v>
       </c>
       <c r="Z21" t="n">
         <v>42</v>
@@ -3298,7 +3298,7 @@
         <v>150</v>
       </c>
       <c r="AB21" t="n">
-        <v>8.4</v>
+        <v>8</v>
       </c>
       <c r="AC21" t="n">
         <v>8.6</v>
@@ -3367,13 +3367,13 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>2.9</v>
+        <v>2.94</v>
       </c>
       <c r="G22" t="n">
-        <v>2.94</v>
+        <v>2.96</v>
       </c>
       <c r="H22" t="n">
-        <v>2.74</v>
+        <v>2.72</v>
       </c>
       <c r="I22" t="n">
         <v>2.76</v>
@@ -3391,34 +3391,34 @@
         <v>1.09</v>
       </c>
       <c r="N22" t="n">
-        <v>3.55</v>
+        <v>3.45</v>
       </c>
       <c r="O22" t="n">
-        <v>1.37</v>
+        <v>1.39</v>
       </c>
       <c r="P22" t="n">
-        <v>1.85</v>
+        <v>1.84</v>
       </c>
       <c r="Q22" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="R22" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="S22" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="T22" t="n">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="U22" t="n">
-        <v>2.14</v>
+        <v>2.1</v>
       </c>
       <c r="V22" t="n">
         <v>1.56</v>
       </c>
       <c r="W22" t="n">
-        <v>1.52</v>
+        <v>1.51</v>
       </c>
       <c r="X22" t="n">
         <v>12</v>
@@ -3427,13 +3427,13 @@
         <v>10</v>
       </c>
       <c r="Z22" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AA22" t="n">
         <v>40</v>
       </c>
       <c r="AB22" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AC22" t="n">
         <v>7.4</v>
@@ -3442,19 +3442,19 @@
         <v>12.5</v>
       </c>
       <c r="AE22" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AF22" t="n">
         <v>18.5</v>
       </c>
       <c r="AG22" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AH22" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AI22" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AJ22" t="n">
         <v>46</v>
@@ -3472,7 +3472,7 @@
         <v>32</v>
       </c>
       <c r="AO22" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="23">
@@ -3502,19 +3502,19 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="G23" t="n">
-        <v>2.2</v>
+        <v>2.24</v>
       </c>
       <c r="H23" t="n">
-        <v>3.65</v>
+        <v>3.55</v>
       </c>
       <c r="I23" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="J23" t="n">
         <v>3.7</v>
-      </c>
-      <c r="J23" t="n">
-        <v>3.65</v>
       </c>
       <c r="K23" t="n">
         <v>3.75</v>
@@ -3532,10 +3532,10 @@
         <v>1.3</v>
       </c>
       <c r="P23" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="R23" t="n">
         <v>1.42</v>
@@ -3544,28 +3544,28 @@
         <v>3.3</v>
       </c>
       <c r="T23" t="n">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="U23" t="n">
-        <v>2.26</v>
+        <v>2.32</v>
       </c>
       <c r="V23" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="W23" t="n">
-        <v>1.83</v>
+        <v>1.81</v>
       </c>
       <c r="X23" t="n">
         <v>15.5</v>
       </c>
       <c r="Y23" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="Z23" t="n">
         <v>26</v>
       </c>
       <c r="AA23" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AB23" t="n">
         <v>11</v>
@@ -3577,7 +3577,7 @@
         <v>14.5</v>
       </c>
       <c r="AE23" t="n">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="AF23" t="n">
         <v>14</v>
@@ -3589,13 +3589,13 @@
         <v>16.5</v>
       </c>
       <c r="AI23" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AJ23" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AK23" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AL23" t="n">
         <v>34</v>
@@ -3637,112 +3637,112 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>2.06</v>
+        <v>2.14</v>
       </c>
       <c r="G24" t="n">
-        <v>2.1</v>
+        <v>2.16</v>
       </c>
       <c r="H24" t="n">
-        <v>3.65</v>
+        <v>3.5</v>
       </c>
       <c r="I24" t="n">
-        <v>3.75</v>
+        <v>3.55</v>
       </c>
       <c r="J24" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="K24" t="n">
         <v>4</v>
       </c>
-      <c r="K24" t="n">
-        <v>4.1</v>
-      </c>
       <c r="L24" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="M24" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N24" t="n">
-        <v>5.2</v>
+        <v>5.8</v>
       </c>
       <c r="O24" t="n">
-        <v>1.23</v>
+        <v>1.19</v>
       </c>
       <c r="P24" t="n">
-        <v>2.4</v>
+        <v>2.64</v>
       </c>
       <c r="Q24" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="R24" t="n">
         <v>1.68</v>
       </c>
-      <c r="R24" t="n">
-        <v>1.57</v>
-      </c>
       <c r="S24" t="n">
-        <v>2.7</v>
+        <v>2.44</v>
       </c>
       <c r="T24" t="n">
-        <v>1.63</v>
+        <v>1.55</v>
       </c>
       <c r="U24" t="n">
-        <v>2.5</v>
+        <v>2.72</v>
       </c>
       <c r="V24" t="n">
-        <v>1.36</v>
+        <v>1.39</v>
       </c>
       <c r="W24" t="n">
-        <v>1.9</v>
+        <v>1.86</v>
       </c>
       <c r="X24" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="Y24" t="n">
-        <v>17.5</v>
+        <v>20</v>
       </c>
       <c r="Z24" t="n">
         <v>30</v>
       </c>
       <c r="AA24" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AB24" t="n">
-        <v>12.5</v>
+        <v>14.5</v>
       </c>
       <c r="AC24" t="n">
-        <v>9</v>
+        <v>9.4</v>
       </c>
       <c r="AD24" t="n">
         <v>15</v>
       </c>
       <c r="AE24" t="n">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="AF24" t="n">
+        <v>16</v>
+      </c>
+      <c r="AG24" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH24" t="n">
         <v>14.5</v>
       </c>
-      <c r="AG24" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AH24" t="n">
-        <v>15.5</v>
-      </c>
       <c r="AI24" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="AJ24" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AK24" t="n">
         <v>18.5</v>
       </c>
       <c r="AL24" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AM24" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="AN24" t="n">
-        <v>10.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AO24" t="n">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row r="25">
@@ -3772,10 +3772,10 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>2.44</v>
+        <v>2.42</v>
       </c>
       <c r="G25" t="n">
-        <v>2.5</v>
+        <v>2.48</v>
       </c>
       <c r="H25" t="n">
         <v>3.25</v>
@@ -3790,7 +3790,7 @@
         <v>3.45</v>
       </c>
       <c r="L25" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="M25" t="n">
         <v>1.09</v>
@@ -3799,19 +3799,19 @@
         <v>3.5</v>
       </c>
       <c r="O25" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="P25" t="n">
-        <v>1.85</v>
+        <v>1.84</v>
       </c>
       <c r="Q25" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="R25" t="n">
         <v>1.32</v>
       </c>
       <c r="S25" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="T25" t="n">
         <v>1.87</v>
@@ -3823,10 +3823,10 @@
         <v>1.42</v>
       </c>
       <c r="W25" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="X25" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="Y25" t="n">
         <v>12</v>
@@ -3856,7 +3856,7 @@
         <v>11.5</v>
       </c>
       <c r="AH25" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AI25" t="n">
         <v>55</v>
@@ -3865,7 +3865,7 @@
         <v>34</v>
       </c>
       <c r="AK25" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AL25" t="n">
         <v>44</v>
@@ -3907,7 +3907,7 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
       <c r="G26" t="n">
         <v>2.48</v>
@@ -3919,10 +3919,10 @@
         <v>3.3</v>
       </c>
       <c r="J26" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="K26" t="n">
         <v>3.45</v>
-      </c>
-      <c r="K26" t="n">
-        <v>3.5</v>
       </c>
       <c r="L26" t="n">
         <v>1.44</v>
@@ -3940,19 +3940,19 @@
         <v>1.9</v>
       </c>
       <c r="Q26" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="R26" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="S26" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="T26" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="U26" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="V26" t="n">
         <v>1.43</v>
@@ -3970,13 +3970,13 @@
         <v>22</v>
       </c>
       <c r="AA26" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AB26" t="n">
-        <v>10.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AC26" t="n">
-        <v>7.8</v>
+        <v>7.4</v>
       </c>
       <c r="AD26" t="n">
         <v>13.5</v>
@@ -3991,7 +3991,7 @@
         <v>11.5</v>
       </c>
       <c r="AH26" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AI26" t="n">
         <v>50</v>
@@ -4000,7 +4000,7 @@
         <v>34</v>
       </c>
       <c r="AK26" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AL26" t="n">
         <v>40</v>
@@ -4048,10 +4048,10 @@
         <v>2.04</v>
       </c>
       <c r="H27" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="I27" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="J27" t="n">
         <v>3.8</v>
@@ -4069,13 +4069,13 @@
         <v>4.3</v>
       </c>
       <c r="O27" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="P27" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="Q27" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="R27" t="n">
         <v>1.44</v>
@@ -4084,16 +4084,16 @@
         <v>3.2</v>
       </c>
       <c r="T27" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="U27" t="n">
-        <v>2.26</v>
+        <v>2.24</v>
       </c>
       <c r="V27" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="W27" t="n">
-        <v>1.96</v>
+        <v>1.98</v>
       </c>
       <c r="X27" t="n">
         <v>16</v>
@@ -4102,7 +4102,7 @@
         <v>16</v>
       </c>
       <c r="Z27" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AA27" t="n">
         <v>80</v>
@@ -4114,7 +4114,7 @@
         <v>8.199999999999999</v>
       </c>
       <c r="AD27" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AE27" t="n">
         <v>42</v>
@@ -4129,13 +4129,13 @@
         <v>17</v>
       </c>
       <c r="AI27" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AJ27" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AK27" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AL27" t="n">
         <v>32</v>
@@ -4147,7 +4147,7 @@
         <v>13</v>
       </c>
       <c r="AO27" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="28">
@@ -4186,10 +4186,10 @@
         <v>3.1</v>
       </c>
       <c r="I28" t="n">
-        <v>3.25</v>
+        <v>3.15</v>
       </c>
       <c r="J28" t="n">
-        <v>2.98</v>
+        <v>3</v>
       </c>
       <c r="K28" t="n">
         <v>3.1</v>
@@ -4201,7 +4201,7 @@
         <v>1.13</v>
       </c>
       <c r="N28" t="n">
-        <v>2.76</v>
+        <v>2.74</v>
       </c>
       <c r="O28" t="n">
         <v>1.54</v>
@@ -4210,13 +4210,13 @@
         <v>1.58</v>
       </c>
       <c r="Q28" t="n">
-        <v>2.64</v>
+        <v>2.68</v>
       </c>
       <c r="R28" t="n">
         <v>1.21</v>
       </c>
       <c r="S28" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="T28" t="n">
         <v>2.06</v>
@@ -4225,19 +4225,19 @@
         <v>1.86</v>
       </c>
       <c r="V28" t="n">
-        <v>1.44</v>
+        <v>1.46</v>
       </c>
       <c r="W28" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="X28" t="n">
-        <v>8.6</v>
+        <v>9</v>
       </c>
       <c r="Y28" t="n">
         <v>9.4</v>
       </c>
       <c r="Z28" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AA28" t="n">
         <v>900</v>
@@ -4252,7 +4252,7 @@
         <v>14.5</v>
       </c>
       <c r="AE28" t="n">
-        <v>48</v>
+        <v>120</v>
       </c>
       <c r="AF28" t="n">
         <v>17</v>
@@ -4264,13 +4264,13 @@
         <v>22</v>
       </c>
       <c r="AI28" t="n">
-        <v>460</v>
+        <v>500</v>
       </c>
       <c r="AJ28" t="n">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="AK28" t="n">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="AL28" t="n">
         <v>460</v>
@@ -4312,7 +4312,7 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="G29" t="n">
         <v>3.15</v>
@@ -4321,22 +4321,22 @@
         <v>2.5</v>
       </c>
       <c r="I29" t="n">
-        <v>2.54</v>
+        <v>2.52</v>
       </c>
       <c r="J29" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="K29" t="n">
         <v>3.55</v>
       </c>
-      <c r="K29" t="n">
-        <v>3.6</v>
-      </c>
       <c r="L29" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="M29" t="n">
         <v>1.07</v>
       </c>
       <c r="N29" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="O29" t="n">
         <v>1.31</v>
@@ -4345,7 +4345,7 @@
         <v>2.04</v>
       </c>
       <c r="Q29" t="n">
-        <v>1.93</v>
+        <v>1.94</v>
       </c>
       <c r="R29" t="n">
         <v>1.41</v>
@@ -4357,7 +4357,7 @@
         <v>1.73</v>
       </c>
       <c r="U29" t="n">
-        <v>2.28</v>
+        <v>2.34</v>
       </c>
       <c r="V29" t="n">
         <v>1.65</v>
@@ -4372,10 +4372,10 @@
         <v>11.5</v>
       </c>
       <c r="Z29" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AA29" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AB29" t="n">
         <v>13.5</v>
@@ -4399,7 +4399,7 @@
         <v>16.5</v>
       </c>
       <c r="AI29" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AJ29" t="n">
         <v>50</v>
@@ -4414,10 +4414,10 @@
         <v>80</v>
       </c>
       <c r="AN29" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AO29" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
     </row>
     <row r="30">
@@ -4447,100 +4447,100 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>3</v>
+        <v>2.82</v>
       </c>
       <c r="G30" t="n">
-        <v>3.1</v>
+        <v>2.92</v>
       </c>
       <c r="H30" t="n">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="I30" t="n">
-        <v>3.15</v>
+        <v>3.45</v>
       </c>
       <c r="J30" t="n">
-        <v>2.82</v>
+        <v>2.8</v>
       </c>
       <c r="K30" t="n">
-        <v>2.92</v>
+        <v>2.9</v>
       </c>
       <c r="L30" t="n">
-        <v>1.74</v>
+        <v>1.78</v>
       </c>
       <c r="M30" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="N30" t="n">
-        <v>2.24</v>
+        <v>2.18</v>
       </c>
       <c r="O30" t="n">
-        <v>1.78</v>
+        <v>1.81</v>
       </c>
       <c r="P30" t="n">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="Q30" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="R30" t="n">
         <v>1.12</v>
       </c>
       <c r="S30" t="n">
-        <v>8</v>
+        <v>8.4</v>
       </c>
       <c r="T30" t="n">
-        <v>2.46</v>
+        <v>2.54</v>
       </c>
       <c r="U30" t="n">
         <v>1.62</v>
       </c>
       <c r="V30" t="n">
-        <v>1.46</v>
+        <v>1.41</v>
       </c>
       <c r="W30" t="n">
-        <v>1.47</v>
+        <v>1.52</v>
       </c>
       <c r="X30" t="n">
-        <v>6.6</v>
+        <v>6.2</v>
       </c>
       <c r="Y30" t="n">
-        <v>7.4</v>
+        <v>8</v>
       </c>
       <c r="Z30" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AA30" t="n">
         <v>160</v>
       </c>
       <c r="AB30" t="n">
-        <v>7.8</v>
+        <v>6.8</v>
       </c>
       <c r="AC30" t="n">
         <v>7</v>
       </c>
       <c r="AD30" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AE30" t="n">
         <v>450</v>
       </c>
       <c r="AF30" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AG30" t="n">
         <v>17</v>
       </c>
       <c r="AH30" t="n">
-        <v>110</v>
+        <v>60</v>
       </c>
       <c r="AI30" t="n">
         <v>500</v>
       </c>
       <c r="AJ30" t="n">
+        <v>150</v>
+      </c>
+      <c r="AK30" t="n">
         <v>160</v>
-      </c>
-      <c r="AK30" t="n">
-        <v>450</v>
       </c>
       <c r="AL30" t="n">
         <v>500</v>
@@ -4549,10 +4549,10 @@
         <v>500</v>
       </c>
       <c r="AN30" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="AO30" t="n">
-        <v>250</v>
+        <v>600</v>
       </c>
     </row>
     <row r="31">
@@ -4582,22 +4582,22 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="G31" t="n">
         <v>2.22</v>
       </c>
       <c r="H31" t="n">
-        <v>4.7</v>
+        <v>4.9</v>
       </c>
       <c r="I31" t="n">
         <v>5</v>
       </c>
       <c r="J31" t="n">
-        <v>2.92</v>
+        <v>2.9</v>
       </c>
       <c r="K31" t="n">
-        <v>3</v>
+        <v>2.96</v>
       </c>
       <c r="L31" t="n">
         <v>0</v>
@@ -4717,22 +4717,22 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>2.96</v>
+        <v>2.94</v>
       </c>
       <c r="G32" t="n">
         <v>3.1</v>
       </c>
       <c r="H32" t="n">
-        <v>2.98</v>
+        <v>3</v>
       </c>
       <c r="I32" t="n">
         <v>3.15</v>
       </c>
       <c r="J32" t="n">
-        <v>2.84</v>
+        <v>2.86</v>
       </c>
       <c r="K32" t="n">
-        <v>2.98</v>
+        <v>2.96</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
@@ -4852,19 +4852,19 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="G33" t="n">
-        <v>2.26</v>
+        <v>2.24</v>
       </c>
       <c r="H33" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="I33" t="n">
         <v>4.6</v>
       </c>
       <c r="J33" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="K33" t="n">
         <v>3.1</v>
@@ -4876,16 +4876,16 @@
         <v>1.15</v>
       </c>
       <c r="N33" t="n">
-        <v>2.48</v>
+        <v>2.52</v>
       </c>
       <c r="O33" t="n">
-        <v>1.63</v>
+        <v>1.62</v>
       </c>
       <c r="P33" t="n">
         <v>1.47</v>
       </c>
       <c r="Q33" t="n">
-        <v>3</v>
+        <v>2.96</v>
       </c>
       <c r="R33" t="n">
         <v>1.16</v>
@@ -4897,16 +4897,16 @@
         <v>2.24</v>
       </c>
       <c r="U33" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="V33" t="n">
         <v>1.28</v>
       </c>
       <c r="W33" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="X33" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="Y33" t="n">
         <v>10.5</v>
@@ -4918,7 +4918,7 @@
         <v>120</v>
       </c>
       <c r="AB33" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="AC33" t="n">
         <v>7.4</v>
@@ -4933,7 +4933,7 @@
         <v>12</v>
       </c>
       <c r="AG33" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AH33" t="n">
         <v>28</v>
@@ -4951,10 +4951,10 @@
         <v>75</v>
       </c>
       <c r="AM33" t="n">
-        <v>250</v>
+        <v>260</v>
       </c>
       <c r="AN33" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AO33" t="n">
         <v>150</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-22.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-22.xlsx
@@ -667,112 +667,112 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.41</v>
+        <v>1.19</v>
       </c>
       <c r="G2" t="n">
-        <v>1.44</v>
+        <v>1.2</v>
       </c>
       <c r="H2" t="n">
-        <v>8.4</v>
+        <v>25</v>
       </c>
       <c r="I2" t="n">
-        <v>9.4</v>
+        <v>29</v>
       </c>
       <c r="J2" t="n">
-        <v>5.4</v>
+        <v>7.8</v>
       </c>
       <c r="K2" t="n">
-        <v>5.8</v>
+        <v>8.6</v>
       </c>
       <c r="L2" t="n">
-        <v>1.34</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
         <v>1.04</v>
       </c>
-      <c r="N2" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="O2" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="P2" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="R2" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="S2" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="T2" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="U2" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="V2" t="n">
-        <v>1.15</v>
-      </c>
       <c r="W2" t="n">
-        <v>2.8</v>
+        <v>5.3</v>
       </c>
       <c r="X2" t="n">
-        <v>27</v>
+        <v>1000</v>
       </c>
       <c r="Y2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AO2" t="n">
         <v>36</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>980</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>500</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>34</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>120</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>24</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>110</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>14</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>32</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>580</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>600</v>
       </c>
     </row>
     <row r="3">
@@ -802,112 +802,112 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>2.08</v>
+        <v>1.22</v>
       </c>
       <c r="G3" t="n">
-        <v>2.18</v>
+        <v>1.24</v>
       </c>
       <c r="H3" t="n">
+        <v>32</v>
+      </c>
+      <c r="I3" t="n">
+        <v>42</v>
+      </c>
+      <c r="J3" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="K3" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="O3" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="P3" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="R3" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="S3" t="n">
+        <v>10</v>
+      </c>
+      <c r="T3" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="U3" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="V3" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="W3" t="n">
         <v>5.1</v>
       </c>
-      <c r="I3" t="n">
-        <v>6</v>
-      </c>
-      <c r="J3" t="n">
-        <v>2.84</v>
-      </c>
-      <c r="K3" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="L3" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="M3" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="N3" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="O3" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="P3" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="R3" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="S3" t="n">
-        <v>8</v>
-      </c>
-      <c r="T3" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="U3" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="V3" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="W3" t="n">
-        <v>1.84</v>
-      </c>
       <c r="X3" t="n">
-        <v>6.2</v>
+        <v>1000</v>
       </c>
       <c r="Y3" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="Z3" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="AA3" t="n">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="AB3" t="n">
-        <v>5.8</v>
+        <v>3.05</v>
       </c>
       <c r="AC3" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="AD3" t="n">
-        <v>26</v>
+        <v>55</v>
       </c>
       <c r="AE3" t="n">
-        <v>150</v>
+        <v>580</v>
       </c>
       <c r="AF3" t="n">
-        <v>10</v>
+        <v>4.9</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AH3" t="n">
-        <v>38</v>
+        <v>70</v>
       </c>
       <c r="AI3" t="n">
-        <v>220</v>
+        <v>1000</v>
       </c>
       <c r="AJ3" t="n">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="AK3" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AL3" t="n">
-        <v>110</v>
+        <v>210</v>
       </c>
       <c r="AM3" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="AN3" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AO3" t="n">
-        <v>320</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="4">
@@ -937,70 +937,70 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.63</v>
+        <v>1.55</v>
       </c>
       <c r="G4" t="n">
-        <v>1.7</v>
+        <v>1.58</v>
       </c>
       <c r="H4" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="I4" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="J4" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="K4" t="n">
         <v>5</v>
       </c>
-      <c r="I4" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="J4" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="K4" t="n">
-        <v>5.1</v>
-      </c>
       <c r="L4" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="M4" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N4" t="n">
-        <v>5.7</v>
+        <v>6</v>
       </c>
       <c r="O4" t="n">
         <v>1.18</v>
       </c>
       <c r="P4" t="n">
-        <v>2.58</v>
+        <v>2.68</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="R4" t="n">
-        <v>1.62</v>
+        <v>1.66</v>
       </c>
       <c r="S4" t="n">
         <v>2.44</v>
       </c>
       <c r="T4" t="n">
-        <v>1.65</v>
+        <v>1.69</v>
       </c>
       <c r="U4" t="n">
-        <v>2.26</v>
+        <v>2.22</v>
       </c>
       <c r="V4" t="n">
-        <v>1.21</v>
+        <v>1.17</v>
       </c>
       <c r="W4" t="n">
-        <v>2.42</v>
+        <v>2.72</v>
       </c>
       <c r="X4" t="n">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="Y4" t="n">
-        <v>970</v>
+        <v>36</v>
       </c>
       <c r="Z4" t="n">
-        <v>970</v>
+        <v>60</v>
       </c>
       <c r="AA4" t="n">
-        <v>1000</v>
+        <v>170</v>
       </c>
       <c r="AB4" t="n">
         <v>12</v>
@@ -1009,40 +1009,40 @@
         <v>12</v>
       </c>
       <c r="AD4" t="n">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="AE4" t="n">
-        <v>190</v>
+        <v>80</v>
       </c>
       <c r="AF4" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="AG4" t="n">
         <v>10.5</v>
       </c>
       <c r="AH4" t="n">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="AI4" t="n">
-        <v>170</v>
+        <v>65</v>
       </c>
       <c r="AJ4" t="n">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="AK4" t="n">
-        <v>26</v>
+        <v>14.5</v>
       </c>
       <c r="AL4" t="n">
+        <v>27</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>80</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="AO4" t="n">
         <v>65</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>580</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>7</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>60</v>
       </c>
     </row>
     <row r="5">
@@ -1072,46 +1072,46 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>2.08</v>
+        <v>2.28</v>
       </c>
       <c r="G5" t="n">
-        <v>2.1</v>
+        <v>2.34</v>
       </c>
       <c r="H5" t="n">
-        <v>5.2</v>
+        <v>4.3</v>
       </c>
       <c r="I5" t="n">
-        <v>5.4</v>
+        <v>4.5</v>
       </c>
       <c r="J5" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="K5" t="n">
         <v>3</v>
       </c>
-      <c r="K5" t="n">
-        <v>3.1</v>
-      </c>
       <c r="L5" t="n">
-        <v>1.69</v>
+        <v>1.71</v>
       </c>
       <c r="M5" t="n">
         <v>1.17</v>
       </c>
       <c r="N5" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="O5" t="n">
-        <v>1.69</v>
+        <v>1.73</v>
       </c>
       <c r="P5" t="n">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="Q5" t="n">
-        <v>3.15</v>
+        <v>3.3</v>
       </c>
       <c r="R5" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="S5" t="n">
-        <v>7</v>
+        <v>7.8</v>
       </c>
       <c r="T5" t="n">
         <v>2.48</v>
@@ -1120,64 +1120,64 @@
         <v>1.6</v>
       </c>
       <c r="V5" t="n">
-        <v>1.23</v>
+        <v>1.28</v>
       </c>
       <c r="W5" t="n">
-        <v>1.9</v>
+        <v>1.74</v>
       </c>
       <c r="X5" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>28</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>120</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="AC5" t="n">
         <v>7.2</v>
       </c>
-      <c r="Y5" t="n">
+      <c r="AD5" t="n">
+        <v>21</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>100</v>
+      </c>
+      <c r="AF5" t="n">
         <v>11.5</v>
       </c>
-      <c r="Z5" t="n">
-        <v>38</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>170</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>24</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>120</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>10</v>
-      </c>
       <c r="AG5" t="n">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="AH5" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AI5" t="n">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="AJ5" t="n">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="AK5" t="n">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="AL5" t="n">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="AM5" t="n">
         <v>500</v>
       </c>
       <c r="AN5" t="n">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="AO5" t="n">
-        <v>230</v>
+        <v>180</v>
       </c>
     </row>
     <row r="6">
@@ -1207,34 +1207,34 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>3.45</v>
+        <v>3.05</v>
       </c>
       <c r="G6" t="n">
-        <v>3.65</v>
+        <v>3.15</v>
       </c>
       <c r="H6" t="n">
-        <v>2.6</v>
+        <v>2.9</v>
       </c>
       <c r="I6" t="n">
-        <v>2.7</v>
+        <v>3</v>
       </c>
       <c r="J6" t="n">
-        <v>2.86</v>
+        <v>2.94</v>
       </c>
       <c r="K6" t="n">
-        <v>2.98</v>
+        <v>3.05</v>
       </c>
       <c r="L6" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="N6" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="O6" t="n">
         <v>1.65</v>
-      </c>
-      <c r="M6" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="N6" t="n">
-        <v>2.46</v>
-      </c>
-      <c r="O6" t="n">
-        <v>1.64</v>
       </c>
       <c r="P6" t="n">
         <v>1.47</v>
@@ -1246,73 +1246,73 @@
         <v>1.16</v>
       </c>
       <c r="S6" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="T6" t="n">
-        <v>2.2</v>
+        <v>2.28</v>
       </c>
       <c r="U6" t="n">
-        <v>1.74</v>
+        <v>1.72</v>
       </c>
       <c r="V6" t="n">
-        <v>1.58</v>
+        <v>1.5</v>
       </c>
       <c r="W6" t="n">
-        <v>1.37</v>
+        <v>1.46</v>
       </c>
       <c r="X6" t="n">
         <v>7.2</v>
       </c>
       <c r="Y6" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="Z6" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>55</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>8</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>80</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>18</v>
+      </c>
+      <c r="AG6" t="n">
         <v>15</v>
       </c>
-      <c r="AA6" t="n">
+      <c r="AH6" t="n">
         <v>46</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>7</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>44</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>22</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>29</v>
       </c>
       <c r="AI6" t="n">
         <v>460</v>
       </c>
       <c r="AJ6" t="n">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="AK6" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AL6" t="n">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="AM6" t="n">
         <v>500</v>
       </c>
       <c r="AN6" t="n">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="AO6" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7">
@@ -1342,112 +1342,112 @@
         </is>
       </c>
       <c r="F7" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="G7" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+      <c r="I7" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="J7" t="n">
+        <v>4</v>
+      </c>
+      <c r="K7" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="L7" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N7" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P7" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="R7" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="S7" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="T7" t="n">
         <v>1.83</v>
       </c>
-      <c r="G7" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="H7" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="I7" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="J7" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="K7" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="L7" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="M7" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N7" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="O7" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="P7" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="R7" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="S7" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="T7" t="n">
-        <v>1.89</v>
-      </c>
       <c r="U7" t="n">
-        <v>2.02</v>
+        <v>2.12</v>
       </c>
       <c r="V7" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="W7" t="n">
-        <v>2.16</v>
+        <v>2.24</v>
       </c>
       <c r="X7" t="n">
-        <v>15</v>
+        <v>16.5</v>
       </c>
       <c r="Y7" t="n">
-        <v>16.5</v>
+        <v>20</v>
       </c>
       <c r="Z7" t="n">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="AA7" t="n">
-        <v>900</v>
+        <v>130</v>
       </c>
       <c r="AB7" t="n">
-        <v>8.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="AC7" t="n">
-        <v>8.6</v>
+        <v>9</v>
       </c>
       <c r="AD7" t="n">
         <v>19</v>
       </c>
       <c r="AE7" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AF7" t="n">
         <v>11</v>
       </c>
       <c r="AG7" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="AH7" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="AI7" t="n">
+        <v>70</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>19</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>18</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>110</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>11</v>
+      </c>
+      <c r="AO7" t="n">
         <v>75</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>21</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>20</v>
-      </c>
-      <c r="AL7" t="n">
-        <v>38</v>
-      </c>
-      <c r="AM7" t="n">
-        <v>170</v>
-      </c>
-      <c r="AN7" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AO7" t="n">
-        <v>80</v>
       </c>
     </row>
     <row r="8">
@@ -1477,109 +1477,109 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="G8" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="H8" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="I8" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J8" t="n">
         <v>8.4</v>
       </c>
       <c r="K8" t="n">
-        <v>9.800000000000001</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="L8" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="M8" t="n">
         <v>1.02</v>
       </c>
       <c r="N8" t="n">
-        <v>8</v>
+        <v>7.6</v>
       </c>
       <c r="O8" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="P8" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.41</v>
+        <v>1.43</v>
       </c>
       <c r="R8" t="n">
-        <v>1.91</v>
+        <v>1.86</v>
       </c>
       <c r="S8" t="n">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="T8" t="n">
-        <v>2.02</v>
+        <v>1.98</v>
       </c>
       <c r="U8" t="n">
-        <v>1.88</v>
+        <v>1.93</v>
       </c>
       <c r="V8" t="n">
         <v>1.05</v>
       </c>
       <c r="W8" t="n">
-        <v>5.7</v>
+        <v>5.5</v>
       </c>
       <c r="X8" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="Y8" t="n">
         <v>1000</v>
       </c>
       <c r="Z8" t="n">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="AA8" t="n">
         <v>1000</v>
       </c>
       <c r="AB8" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AC8" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AD8" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AE8" t="n">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="AF8" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="AG8" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AH8" t="n">
-        <v>48</v>
+        <v>980</v>
       </c>
       <c r="AI8" t="n">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="AJ8" t="n">
-        <v>9.6</v>
+        <v>10.5</v>
       </c>
       <c r="AK8" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AL8" t="n">
-        <v>980</v>
+        <v>34</v>
       </c>
       <c r="AM8" t="n">
-        <v>170</v>
+        <v>210</v>
       </c>
       <c r="AN8" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="AO8" t="n">
         <v>340</v>
@@ -1612,112 +1612,112 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.28</v>
+        <v>2.38</v>
       </c>
       <c r="G9" t="n">
-        <v>2.34</v>
+        <v>2.44</v>
       </c>
       <c r="H9" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="I9" t="n">
         <v>2.96</v>
       </c>
-      <c r="I9" t="n">
-        <v>3.05</v>
-      </c>
       <c r="J9" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="K9" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="L9" t="n">
-        <v>1.27</v>
+        <v>1.29</v>
       </c>
       <c r="M9" t="n">
         <v>1.03</v>
       </c>
       <c r="N9" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="O9" t="n">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
       <c r="P9" t="n">
-        <v>2.88</v>
+        <v>2.72</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.5</v>
+        <v>1.55</v>
       </c>
       <c r="R9" t="n">
-        <v>1.74</v>
+        <v>1.68</v>
       </c>
       <c r="S9" t="n">
-        <v>2.28</v>
+        <v>2.4</v>
       </c>
       <c r="T9" t="n">
-        <v>1.48</v>
+        <v>1.52</v>
       </c>
       <c r="U9" t="n">
-        <v>2.84</v>
+        <v>2.8</v>
       </c>
       <c r="V9" t="n">
-        <v>1.48</v>
+        <v>1.51</v>
       </c>
       <c r="W9" t="n">
-        <v>1.74</v>
+        <v>1.69</v>
       </c>
       <c r="X9" t="n">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="Y9" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="Z9" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="AA9" t="n">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="AB9" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AC9" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AD9" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AE9" t="n">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="AF9" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AG9" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AH9" t="n">
         <v>14.5</v>
       </c>
       <c r="AI9" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AJ9" t="n">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="AK9" t="n">
         <v>22</v>
       </c>
       <c r="AL9" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AM9" t="n">
-        <v>200</v>
+        <v>55</v>
       </c>
       <c r="AN9" t="n">
-        <v>10.5</v>
+        <v>12.5</v>
       </c>
       <c r="AO9" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10">
@@ -1747,31 +1747,31 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="G10" t="n">
-        <v>5.1</v>
+        <v>5.6</v>
       </c>
       <c r="H10" t="n">
-        <v>1.88</v>
+        <v>1.79</v>
       </c>
       <c r="I10" t="n">
-        <v>1.89</v>
+        <v>1.81</v>
       </c>
       <c r="J10" t="n">
-        <v>3.65</v>
+        <v>3.75</v>
       </c>
       <c r="K10" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="L10" t="n">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="M10" t="n">
         <v>1.09</v>
       </c>
       <c r="N10" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="O10" t="n">
         <v>1.4</v>
@@ -1783,76 +1783,76 @@
         <v>2.22</v>
       </c>
       <c r="R10" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="S10" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="T10" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="U10" t="n">
-        <v>1.91</v>
+        <v>1.88</v>
       </c>
       <c r="V10" t="n">
-        <v>2.12</v>
+        <v>2.22</v>
       </c>
       <c r="W10" t="n">
-        <v>1.24</v>
+        <v>1.21</v>
       </c>
       <c r="X10" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="Y10" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="Z10" t="n">
-        <v>9.800000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="AA10" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>16</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AE10" t="n">
         <v>20</v>
       </c>
-      <c r="AB10" t="n">
-        <v>15</v>
-      </c>
-      <c r="AC10" t="n">
-        <v>8</v>
-      </c>
-      <c r="AD10" t="n">
-        <v>10</v>
-      </c>
-      <c r="AE10" t="n">
+      <c r="AF10" t="n">
+        <v>40</v>
+      </c>
+      <c r="AG10" t="n">
         <v>21</v>
       </c>
-      <c r="AF10" t="n">
-        <v>38</v>
-      </c>
-      <c r="AG10" t="n">
-        <v>19.5</v>
-      </c>
       <c r="AH10" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AI10" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AJ10" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="AK10" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AL10" t="n">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="AM10" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="AN10" t="n">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="AO10" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11">
@@ -1882,16 +1882,16 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="G11" t="n">
-        <v>3.95</v>
+        <v>3.85</v>
       </c>
       <c r="H11" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="I11" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="J11" t="n">
         <v>3.85</v>
@@ -1903,43 +1903,43 @@
         <v>1.36</v>
       </c>
       <c r="M11" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N11" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="O11" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="P11" t="n">
-        <v>2.24</v>
+        <v>2.22</v>
       </c>
       <c r="Q11" t="n">
         <v>1.79</v>
       </c>
       <c r="R11" t="n">
-        <v>1.49</v>
+        <v>1.48</v>
       </c>
       <c r="S11" t="n">
-        <v>2.98</v>
+        <v>3</v>
       </c>
       <c r="T11" t="n">
-        <v>1.71</v>
+        <v>1.69</v>
       </c>
       <c r="U11" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="V11" t="n">
-        <v>1.93</v>
+        <v>1.91</v>
       </c>
       <c r="W11" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="X11" t="n">
         <v>18</v>
       </c>
       <c r="Y11" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="Z11" t="n">
         <v>13.5</v>
@@ -1948,7 +1948,7 @@
         <v>24</v>
       </c>
       <c r="AB11" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AC11" t="n">
         <v>8.4</v>
@@ -1960,10 +1960,10 @@
         <v>19.5</v>
       </c>
       <c r="AF11" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AG11" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AH11" t="n">
         <v>16</v>
@@ -1972,22 +1972,22 @@
         <v>30</v>
       </c>
       <c r="AJ11" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="AK11" t="n">
         <v>40</v>
       </c>
       <c r="AL11" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AM11" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AN11" t="n">
         <v>36</v>
       </c>
       <c r="AO11" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="12">
@@ -2017,64 +2017,64 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="G12" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="H12" t="n">
         <v>3.25</v>
       </c>
       <c r="I12" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="J12" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="K12" t="n">
         <v>3.6</v>
       </c>
-      <c r="K12" t="n">
-        <v>3.65</v>
-      </c>
       <c r="L12" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="M12" t="n">
         <v>1.07</v>
       </c>
       <c r="N12" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="O12" t="n">
-        <v>1.31</v>
+        <v>1.33</v>
       </c>
       <c r="P12" t="n">
-        <v>2.02</v>
+        <v>1.98</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.96</v>
+        <v>2</v>
       </c>
       <c r="R12" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="S12" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="T12" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="U12" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="V12" t="n">
         <v>1.43</v>
       </c>
-      <c r="S12" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="T12" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="U12" t="n">
-        <v>2.26</v>
-      </c>
-      <c r="V12" t="n">
-        <v>1.42</v>
-      </c>
       <c r="W12" t="n">
-        <v>1.72</v>
+        <v>1.71</v>
       </c>
       <c r="X12" t="n">
-        <v>15.5</v>
+        <v>14</v>
       </c>
       <c r="Y12" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="Z12" t="n">
         <v>22</v>
@@ -2089,7 +2089,7 @@
         <v>7.8</v>
       </c>
       <c r="AD12" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AE12" t="n">
         <v>36</v>
@@ -2104,7 +2104,7 @@
         <v>16.5</v>
       </c>
       <c r="AI12" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AJ12" t="n">
         <v>34</v>
@@ -2119,7 +2119,7 @@
         <v>85</v>
       </c>
       <c r="AN12" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AO12" t="n">
         <v>34</v>
@@ -2152,22 +2152,22 @@
         </is>
       </c>
       <c r="F13" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="G13" t="n">
         <v>3.95</v>
-      </c>
-      <c r="G13" t="n">
-        <v>4.1</v>
       </c>
       <c r="H13" t="n">
         <v>2.02</v>
       </c>
       <c r="I13" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="J13" t="n">
         <v>3.9</v>
       </c>
       <c r="K13" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="L13" t="n">
         <v>1.37</v>
@@ -2179,28 +2179,28 @@
         <v>4.6</v>
       </c>
       <c r="O13" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="P13" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="R13" t="n">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="S13" t="n">
-        <v>2.98</v>
+        <v>3</v>
       </c>
       <c r="T13" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="U13" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="V13" t="n">
-        <v>1.96</v>
+        <v>1.95</v>
       </c>
       <c r="W13" t="n">
         <v>1.33</v>
@@ -2215,25 +2215,25 @@
         <v>13</v>
       </c>
       <c r="AA13" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AB13" t="n">
         <v>17</v>
       </c>
       <c r="AC13" t="n">
-        <v>8.4</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD13" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AE13" t="n">
         <v>19</v>
       </c>
       <c r="AF13" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AG13" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AH13" t="n">
         <v>16.5</v>
@@ -2242,19 +2242,19 @@
         <v>30</v>
       </c>
       <c r="AJ13" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AK13" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AL13" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AM13" t="n">
         <v>75</v>
       </c>
       <c r="AN13" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AO13" t="n">
         <v>12</v>
@@ -2299,10 +2299,10 @@
         <v>17.5</v>
       </c>
       <c r="J14" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="K14" t="n">
-        <v>8</v>
+        <v>8.4</v>
       </c>
       <c r="L14" t="n">
         <v>1.3</v>
@@ -2317,28 +2317,28 @@
         <v>1.2</v>
       </c>
       <c r="P14" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="R14" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="S14" t="n">
         <v>2.58</v>
       </c>
-      <c r="Q14" t="n">
-        <v>1.61</v>
-      </c>
-      <c r="R14" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="S14" t="n">
-        <v>2.52</v>
-      </c>
       <c r="T14" t="n">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="U14" t="n">
-        <v>1.69</v>
+        <v>1.66</v>
       </c>
       <c r="V14" t="n">
         <v>1.06</v>
       </c>
       <c r="W14" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="X14" t="n">
         <v>32</v>
@@ -2347,7 +2347,7 @@
         <v>50</v>
       </c>
       <c r="Z14" t="n">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="AA14" t="n">
         <v>1000</v>
@@ -2356,40 +2356,40 @@
         <v>9</v>
       </c>
       <c r="AC14" t="n">
-        <v>16.5</v>
+        <v>17.5</v>
       </c>
       <c r="AD14" t="n">
         <v>65</v>
       </c>
       <c r="AE14" t="n">
-        <v>370</v>
+        <v>380</v>
       </c>
       <c r="AF14" t="n">
-        <v>7.4</v>
+        <v>7</v>
       </c>
       <c r="AG14" t="n">
         <v>11.5</v>
       </c>
       <c r="AH14" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AI14" t="n">
-        <v>250</v>
+        <v>270</v>
       </c>
       <c r="AJ14" t="n">
-        <v>8.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AK14" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AL14" t="n">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="AM14" t="n">
-        <v>290</v>
+        <v>340</v>
       </c>
       <c r="AN14" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="AO14" t="n">
         <v>1000</v>
@@ -2422,16 +2422,16 @@
         </is>
       </c>
       <c r="F15" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="G15" t="n">
         <v>1.79</v>
       </c>
-      <c r="G15" t="n">
-        <v>1.8</v>
-      </c>
       <c r="H15" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="I15" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="J15" t="n">
         <v>4</v>
@@ -2440,46 +2440,46 @@
         <v>4.1</v>
       </c>
       <c r="L15" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="M15" t="n">
         <v>1.06</v>
       </c>
       <c r="N15" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="O15" t="n">
         <v>1.29</v>
       </c>
       <c r="P15" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.9</v>
+        <v>1.87</v>
       </c>
       <c r="R15" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="S15" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="T15" t="n">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="U15" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="V15" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="W15" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="X15" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="Y15" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="Z15" t="n">
         <v>38</v>
@@ -2488,16 +2488,16 @@
         <v>120</v>
       </c>
       <c r="AB15" t="n">
-        <v>9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AC15" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD15" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AE15" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AF15" t="n">
         <v>10.5</v>
@@ -2506,13 +2506,13 @@
         <v>9.6</v>
       </c>
       <c r="AH15" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AI15" t="n">
         <v>65</v>
       </c>
       <c r="AJ15" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AK15" t="n">
         <v>17</v>
@@ -2521,7 +2521,7 @@
         <v>32</v>
       </c>
       <c r="AM15" t="n">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="AN15" t="n">
         <v>10.5</v>
@@ -2557,16 +2557,16 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2.46</v>
+        <v>2.54</v>
       </c>
       <c r="G16" t="n">
-        <v>2.48</v>
+        <v>2.56</v>
       </c>
       <c r="H16" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="I16" t="n">
-        <v>3.15</v>
+        <v>3.05</v>
       </c>
       <c r="J16" t="n">
         <v>3.6</v>
@@ -2581,34 +2581,34 @@
         <v>1.06</v>
       </c>
       <c r="N16" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="O16" t="n">
         <v>1.27</v>
       </c>
       <c r="P16" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.83</v>
+        <v>1.81</v>
       </c>
       <c r="R16" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="S16" t="n">
         <v>3</v>
       </c>
       <c r="T16" t="n">
-        <v>1.66</v>
+        <v>1.65</v>
       </c>
       <c r="U16" t="n">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
       <c r="V16" t="n">
-        <v>1.46</v>
+        <v>1.48</v>
       </c>
       <c r="W16" t="n">
-        <v>1.67</v>
+        <v>1.64</v>
       </c>
       <c r="X16" t="n">
         <v>18</v>
@@ -2617,10 +2617,10 @@
         <v>14.5</v>
       </c>
       <c r="Z16" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AA16" t="n">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="AB16" t="n">
         <v>12.5</v>
@@ -2629,13 +2629,13 @@
         <v>8</v>
       </c>
       <c r="AD16" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AE16" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AF16" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AG16" t="n">
         <v>11</v>
@@ -2650,7 +2650,7 @@
         <v>34</v>
       </c>
       <c r="AK16" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AL16" t="n">
         <v>34</v>
@@ -2659,10 +2659,10 @@
         <v>70</v>
       </c>
       <c r="AN16" t="n">
-        <v>16.5</v>
+        <v>17.5</v>
       </c>
       <c r="AO16" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17">
@@ -2701,7 +2701,7 @@
         <v>1.78</v>
       </c>
       <c r="I17" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="J17" t="n">
         <v>4</v>
@@ -2716,40 +2716,40 @@
         <v>1.06</v>
       </c>
       <c r="N17" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="O17" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="P17" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.83</v>
+        <v>1.81</v>
       </c>
       <c r="R17" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="S17" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="T17" t="n">
         <v>1.78</v>
       </c>
       <c r="U17" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="V17" t="n">
-        <v>2.26</v>
+        <v>2.24</v>
       </c>
       <c r="W17" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="X17" t="n">
         <v>18</v>
       </c>
       <c r="Y17" t="n">
-        <v>9.6</v>
+        <v>10</v>
       </c>
       <c r="Z17" t="n">
         <v>11</v>
@@ -2758,13 +2758,13 @@
         <v>18</v>
       </c>
       <c r="AB17" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AC17" t="n">
         <v>9</v>
       </c>
       <c r="AD17" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="AE17" t="n">
         <v>17</v>
@@ -2773,10 +2773,10 @@
         <v>38</v>
       </c>
       <c r="AG17" t="n">
+        <v>19</v>
+      </c>
+      <c r="AH17" t="n">
         <v>18.5</v>
-      </c>
-      <c r="AH17" t="n">
-        <v>18</v>
       </c>
       <c r="AI17" t="n">
         <v>30</v>
@@ -2791,10 +2791,10 @@
         <v>60</v>
       </c>
       <c r="AM17" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="AN17" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AO17" t="n">
         <v>9.4</v>
@@ -2845,46 +2845,46 @@
         <v>5.6</v>
       </c>
       <c r="L18" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="M18" t="n">
         <v>1.03</v>
       </c>
       <c r="N18" t="n">
-        <v>7</v>
+        <v>7.4</v>
       </c>
       <c r="O18" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="P18" t="n">
-        <v>3.05</v>
+        <v>3.15</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="R18" t="n">
-        <v>1.84</v>
+        <v>1.88</v>
       </c>
       <c r="S18" t="n">
-        <v>2.16</v>
+        <v>2.1</v>
       </c>
       <c r="T18" t="n">
-        <v>1.68</v>
+        <v>1.66</v>
       </c>
       <c r="U18" t="n">
-        <v>2.44</v>
+        <v>2.42</v>
       </c>
       <c r="V18" t="n">
         <v>1.15</v>
       </c>
       <c r="W18" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="X18" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="Y18" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="Z18" t="n">
         <v>70</v>
@@ -2893,7 +2893,7 @@
         <v>180</v>
       </c>
       <c r="AB18" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AC18" t="n">
         <v>13</v>
@@ -2902,16 +2902,16 @@
         <v>27</v>
       </c>
       <c r="AE18" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AF18" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AG18" t="n">
         <v>10.5</v>
       </c>
       <c r="AH18" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AI18" t="n">
         <v>65</v>
@@ -2926,10 +2926,10 @@
         <v>24</v>
       </c>
       <c r="AM18" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AN18" t="n">
-        <v>4.6</v>
+        <v>4.4</v>
       </c>
       <c r="AO18" t="n">
         <v>65</v>
@@ -2962,22 +2962,22 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="G19" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="H19" t="n">
-        <v>2.58</v>
+        <v>2.56</v>
       </c>
       <c r="I19" t="n">
-        <v>2.7</v>
+        <v>2.64</v>
       </c>
       <c r="J19" t="n">
-        <v>2.74</v>
+        <v>2.78</v>
       </c>
       <c r="K19" t="n">
-        <v>2.86</v>
+        <v>2.84</v>
       </c>
       <c r="L19" t="n">
         <v>1.74</v>
@@ -2989,10 +2989,10 @@
         <v>2.24</v>
       </c>
       <c r="O19" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="P19" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="Q19" t="n">
         <v>3.45</v>
@@ -3001,73 +3001,73 @@
         <v>1.12</v>
       </c>
       <c r="S19" t="n">
-        <v>7.8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="T19" t="n">
-        <v>2.2</v>
+        <v>2.46</v>
       </c>
       <c r="U19" t="n">
-        <v>1.66</v>
+        <v>1.6</v>
       </c>
       <c r="V19" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="W19" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="X19" t="n">
-        <v>1000</v>
+        <v>6.2</v>
       </c>
       <c r="Y19" t="n">
-        <v>1000</v>
+        <v>6.6</v>
       </c>
       <c r="Z19" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AA19" t="n">
-        <v>980</v>
+        <v>44</v>
       </c>
       <c r="AB19" t="n">
-        <v>1000</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC19" t="n">
-        <v>42</v>
+        <v>7</v>
       </c>
       <c r="AD19" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AE19" t="n">
-        <v>980</v>
+        <v>48</v>
       </c>
       <c r="AF19" t="n">
-        <v>980</v>
+        <v>23</v>
       </c>
       <c r="AG19" t="n">
-        <v>980</v>
+        <v>19</v>
       </c>
       <c r="AH19" t="n">
-        <v>980</v>
+        <v>34</v>
       </c>
       <c r="AI19" t="n">
-        <v>480</v>
+        <v>260</v>
       </c>
       <c r="AJ19" t="n">
-        <v>500</v>
+        <v>95</v>
       </c>
       <c r="AK19" t="n">
-        <v>300</v>
+        <v>80</v>
       </c>
       <c r="AL19" t="n">
-        <v>500</v>
+        <v>150</v>
       </c>
       <c r="AM19" t="n">
-        <v>500</v>
+        <v>330</v>
       </c>
       <c r="AN19" t="n">
-        <v>600</v>
+        <v>140</v>
       </c>
       <c r="AO19" t="n">
-        <v>980</v>
+        <v>65</v>
       </c>
     </row>
     <row r="20">
@@ -3103,58 +3103,58 @@
         <v>2.24</v>
       </c>
       <c r="H20" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I20" t="n">
         <v>3.35</v>
       </c>
       <c r="J20" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="K20" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="L20" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="M20" t="n">
         <v>1.04</v>
       </c>
       <c r="N20" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="O20" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="P20" t="n">
-        <v>2.64</v>
+        <v>2.72</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="R20" t="n">
-        <v>1.68</v>
+        <v>1.7</v>
       </c>
       <c r="S20" t="n">
-        <v>2.44</v>
+        <v>2.4</v>
       </c>
       <c r="T20" t="n">
-        <v>1.56</v>
+        <v>1.55</v>
       </c>
       <c r="U20" t="n">
-        <v>2.72</v>
+        <v>2.74</v>
       </c>
       <c r="V20" t="n">
         <v>1.42</v>
       </c>
       <c r="W20" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="X20" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="Y20" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="Z20" t="n">
         <v>27</v>
@@ -3163,7 +3163,7 @@
         <v>55</v>
       </c>
       <c r="AB20" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AC20" t="n">
         <v>9.4</v>
@@ -3178,7 +3178,7 @@
         <v>17.5</v>
       </c>
       <c r="AG20" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AH20" t="n">
         <v>14</v>
@@ -3193,7 +3193,7 @@
         <v>19.5</v>
       </c>
       <c r="AL20" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AM20" t="n">
         <v>50</v>
@@ -3202,7 +3202,7 @@
         <v>10.5</v>
       </c>
       <c r="AO20" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
     </row>
     <row r="21">
@@ -3232,16 +3232,16 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="G21" t="n">
         <v>1.76</v>
       </c>
       <c r="H21" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="I21" t="n">
         <v>5.4</v>
-      </c>
-      <c r="I21" t="n">
-        <v>5.5</v>
       </c>
       <c r="J21" t="n">
         <v>4</v>
@@ -3250,13 +3250,13 @@
         <v>4.2</v>
       </c>
       <c r="L21" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="M21" t="n">
         <v>1.07</v>
       </c>
       <c r="N21" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="O21" t="n">
         <v>1.34</v>
@@ -3301,7 +3301,7 @@
         <v>8</v>
       </c>
       <c r="AC21" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD21" t="n">
         <v>21</v>
@@ -3310,7 +3310,7 @@
         <v>80</v>
       </c>
       <c r="AF21" t="n">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AG21" t="n">
         <v>9.6</v>
@@ -3367,16 +3367,16 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>2.94</v>
+        <v>2.96</v>
       </c>
       <c r="G22" t="n">
-        <v>2.96</v>
+        <v>2.98</v>
       </c>
       <c r="H22" t="n">
-        <v>2.72</v>
+        <v>2.7</v>
       </c>
       <c r="I22" t="n">
-        <v>2.76</v>
+        <v>2.74</v>
       </c>
       <c r="J22" t="n">
         <v>3.35</v>
@@ -3385,7 +3385,7 @@
         <v>3.4</v>
       </c>
       <c r="L22" t="n">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="M22" t="n">
         <v>1.09</v>
@@ -3394,40 +3394,40 @@
         <v>3.45</v>
       </c>
       <c r="O22" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="P22" t="n">
         <v>1.84</v>
       </c>
       <c r="Q22" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="R22" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="S22" t="n">
         <v>4</v>
       </c>
       <c r="T22" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="U22" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="V22" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="W22" t="n">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="X22" t="n">
         <v>12</v>
       </c>
       <c r="Y22" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Z22" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AA22" t="n">
         <v>40</v>
@@ -3439,13 +3439,13 @@
         <v>7.4</v>
       </c>
       <c r="AD22" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AE22" t="n">
         <v>32</v>
       </c>
       <c r="AF22" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AG22" t="n">
         <v>13</v>
@@ -3469,7 +3469,7 @@
         <v>110</v>
       </c>
       <c r="AN22" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AO22" t="n">
         <v>29</v>
@@ -3505,19 +3505,19 @@
         <v>2.2</v>
       </c>
       <c r="G23" t="n">
-        <v>2.24</v>
+        <v>2.22</v>
       </c>
       <c r="H23" t="n">
         <v>3.55</v>
       </c>
       <c r="I23" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="J23" t="n">
         <v>3.7</v>
       </c>
       <c r="K23" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="L23" t="n">
         <v>1.41</v>
@@ -3529,37 +3529,37 @@
         <v>4.2</v>
       </c>
       <c r="O23" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="P23" t="n">
         <v>2.1</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.88</v>
+        <v>1.89</v>
       </c>
       <c r="R23" t="n">
         <v>1.42</v>
       </c>
       <c r="S23" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="T23" t="n">
-        <v>1.74</v>
+        <v>1.72</v>
       </c>
       <c r="U23" t="n">
         <v>2.32</v>
       </c>
       <c r="V23" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="W23" t="n">
         <v>1.81</v>
       </c>
       <c r="X23" t="n">
-        <v>15.5</v>
+        <v>16.5</v>
       </c>
       <c r="Y23" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="Z23" t="n">
         <v>26</v>
@@ -3574,7 +3574,7 @@
         <v>8</v>
       </c>
       <c r="AD23" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AE23" t="n">
         <v>38</v>
@@ -3586,7 +3586,7 @@
         <v>10.5</v>
       </c>
       <c r="AH23" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AI23" t="n">
         <v>46</v>
@@ -3601,13 +3601,13 @@
         <v>34</v>
       </c>
       <c r="AM23" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AN23" t="n">
         <v>15</v>
       </c>
       <c r="AO23" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="24">
@@ -3637,10 +3637,10 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>2.14</v>
+        <v>2.1</v>
       </c>
       <c r="G24" t="n">
-        <v>2.16</v>
+        <v>2.12</v>
       </c>
       <c r="H24" t="n">
         <v>3.5</v>
@@ -3649,64 +3649,64 @@
         <v>3.55</v>
       </c>
       <c r="J24" t="n">
-        <v>3.95</v>
+        <v>4.1</v>
       </c>
       <c r="K24" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="L24" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="M24" t="n">
         <v>1.04</v>
       </c>
       <c r="N24" t="n">
-        <v>5.8</v>
+        <v>6.2</v>
       </c>
       <c r="O24" t="n">
         <v>1.19</v>
       </c>
       <c r="P24" t="n">
-        <v>2.64</v>
+        <v>2.74</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="R24" t="n">
-        <v>1.68</v>
+        <v>1.72</v>
       </c>
       <c r="S24" t="n">
-        <v>2.44</v>
+        <v>2.38</v>
       </c>
       <c r="T24" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="U24" t="n">
-        <v>2.72</v>
+        <v>2.78</v>
       </c>
       <c r="V24" t="n">
         <v>1.39</v>
       </c>
       <c r="W24" t="n">
-        <v>1.86</v>
+        <v>1.89</v>
       </c>
       <c r="X24" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="Y24" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Z24" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AA24" t="n">
         <v>60</v>
       </c>
       <c r="AB24" t="n">
-        <v>14.5</v>
+        <v>15.5</v>
       </c>
       <c r="AC24" t="n">
-        <v>9.4</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD24" t="n">
         <v>15</v>
@@ -3715,34 +3715,34 @@
         <v>32</v>
       </c>
       <c r="AF24" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AG24" t="n">
         <v>11</v>
       </c>
       <c r="AH24" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AI24" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AJ24" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AK24" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AL24" t="n">
         <v>26</v>
       </c>
       <c r="AM24" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AN24" t="n">
-        <v>9.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="AO24" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25">
@@ -3775,13 +3775,13 @@
         <v>2.42</v>
       </c>
       <c r="G25" t="n">
-        <v>2.48</v>
+        <v>2.44</v>
       </c>
       <c r="H25" t="n">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="I25" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="J25" t="n">
         <v>3.4</v>
@@ -3790,22 +3790,22 @@
         <v>3.45</v>
       </c>
       <c r="L25" t="n">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="M25" t="n">
         <v>1.09</v>
       </c>
       <c r="N25" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="O25" t="n">
         <v>1.39</v>
       </c>
       <c r="P25" t="n">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="Q25" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="R25" t="n">
         <v>1.32</v>
@@ -3820,10 +3820,10 @@
         <v>2.1</v>
       </c>
       <c r="V25" t="n">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="W25" t="n">
-        <v>1.67</v>
+        <v>1.69</v>
       </c>
       <c r="X25" t="n">
         <v>12</v>
@@ -3832,16 +3832,16 @@
         <v>12</v>
       </c>
       <c r="Z25" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AA25" t="n">
         <v>60</v>
       </c>
       <c r="AB25" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="AC25" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="AD25" t="n">
         <v>14</v>
@@ -3850,7 +3850,7 @@
         <v>40</v>
       </c>
       <c r="AF25" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AG25" t="n">
         <v>11.5</v>
@@ -3913,16 +3913,16 @@
         <v>2.48</v>
       </c>
       <c r="H26" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="I26" t="n">
         <v>3.3</v>
       </c>
       <c r="J26" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="K26" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="L26" t="n">
         <v>1.44</v>
@@ -3931,13 +3931,13 @@
         <v>1.08</v>
       </c>
       <c r="N26" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="O26" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="P26" t="n">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="Q26" t="n">
         <v>2.1</v>
@@ -3946,13 +3946,13 @@
         <v>1.34</v>
       </c>
       <c r="S26" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="T26" t="n">
-        <v>1.83</v>
+        <v>1.86</v>
       </c>
       <c r="U26" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="V26" t="n">
         <v>1.43</v>
@@ -3964,7 +3964,7 @@
         <v>13</v>
       </c>
       <c r="Y26" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="Z26" t="n">
         <v>22</v>
@@ -3976,7 +3976,7 @@
         <v>9.800000000000001</v>
       </c>
       <c r="AC26" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="AD26" t="n">
         <v>13.5</v>
@@ -3994,7 +3994,7 @@
         <v>18</v>
       </c>
       <c r="AI26" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AJ26" t="n">
         <v>34</v>
@@ -4009,7 +4009,7 @@
         <v>95</v>
       </c>
       <c r="AN26" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AO26" t="n">
         <v>36</v>
@@ -4042,19 +4042,19 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="G27" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="H27" t="n">
-        <v>4</v>
+        <v>3.85</v>
       </c>
       <c r="I27" t="n">
-        <v>4.2</v>
+        <v>3.95</v>
       </c>
       <c r="J27" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="K27" t="n">
         <v>3.9</v>
@@ -4069,19 +4069,19 @@
         <v>4.3</v>
       </c>
       <c r="O27" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="P27" t="n">
-        <v>2.1</v>
+        <v>2.16</v>
       </c>
       <c r="Q27" t="n">
-        <v>1.87</v>
+        <v>1.85</v>
       </c>
       <c r="R27" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="S27" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="T27" t="n">
         <v>1.76</v>
@@ -4090,34 +4090,34 @@
         <v>2.24</v>
       </c>
       <c r="V27" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="W27" t="n">
-        <v>1.98</v>
+        <v>1.94</v>
       </c>
       <c r="X27" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="Y27" t="n">
         <v>16</v>
       </c>
       <c r="Z27" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AA27" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AB27" t="n">
         <v>10.5</v>
       </c>
       <c r="AC27" t="n">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="AD27" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AE27" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AF27" t="n">
         <v>13</v>
@@ -4129,25 +4129,25 @@
         <v>17</v>
       </c>
       <c r="AI27" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AJ27" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AK27" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AL27" t="n">
         <v>32</v>
       </c>
       <c r="AM27" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AN27" t="n">
         <v>13</v>
       </c>
       <c r="AO27" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="28">
@@ -4180,13 +4180,13 @@
         <v>2.8</v>
       </c>
       <c r="G28" t="n">
-        <v>2.86</v>
+        <v>2.88</v>
       </c>
       <c r="H28" t="n">
         <v>3.1</v>
       </c>
       <c r="I28" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="J28" t="n">
         <v>3</v>
@@ -4204,46 +4204,46 @@
         <v>2.74</v>
       </c>
       <c r="O28" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="P28" t="n">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="Q28" t="n">
-        <v>2.68</v>
+        <v>2.7</v>
       </c>
       <c r="R28" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="S28" t="n">
         <v>5.6</v>
       </c>
       <c r="T28" t="n">
-        <v>2.06</v>
+        <v>2.1</v>
       </c>
       <c r="U28" t="n">
-        <v>1.86</v>
+        <v>1.85</v>
       </c>
       <c r="V28" t="n">
         <v>1.46</v>
       </c>
       <c r="W28" t="n">
-        <v>1.54</v>
+        <v>1.53</v>
       </c>
       <c r="X28" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Y28" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Z28" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AA28" t="n">
-        <v>900</v>
+        <v>160</v>
       </c>
       <c r="AB28" t="n">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="AC28" t="n">
         <v>7</v>
@@ -4252,31 +4252,31 @@
         <v>14.5</v>
       </c>
       <c r="AE28" t="n">
-        <v>120</v>
+        <v>70</v>
       </c>
       <c r="AF28" t="n">
         <v>17</v>
       </c>
       <c r="AG28" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AH28" t="n">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="AI28" t="n">
-        <v>500</v>
+        <v>460</v>
       </c>
       <c r="AJ28" t="n">
-        <v>100</v>
+        <v>55</v>
       </c>
       <c r="AK28" t="n">
-        <v>90</v>
+        <v>44</v>
       </c>
       <c r="AL28" t="n">
         <v>460</v>
       </c>
       <c r="AM28" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="AN28" t="n">
         <v>48</v>
@@ -4312,22 +4312,22 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="G29" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="H29" t="n">
-        <v>2.5</v>
+        <v>2.44</v>
       </c>
       <c r="I29" t="n">
-        <v>2.52</v>
+        <v>2.46</v>
       </c>
       <c r="J29" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="K29" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="L29" t="n">
         <v>1.41</v>
@@ -4336,16 +4336,16 @@
         <v>1.07</v>
       </c>
       <c r="N29" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="O29" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="P29" t="n">
         <v>2.04</v>
       </c>
       <c r="Q29" t="n">
-        <v>1.94</v>
+        <v>1.93</v>
       </c>
       <c r="R29" t="n">
         <v>1.41</v>
@@ -4357,16 +4357,16 @@
         <v>1.73</v>
       </c>
       <c r="U29" t="n">
-        <v>2.34</v>
+        <v>2.3</v>
       </c>
       <c r="V29" t="n">
-        <v>1.65</v>
+        <v>1.68</v>
       </c>
       <c r="W29" t="n">
-        <v>1.46</v>
+        <v>1.44</v>
       </c>
       <c r="X29" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="Y29" t="n">
         <v>11.5</v>
@@ -4396,13 +4396,13 @@
         <v>13.5</v>
       </c>
       <c r="AH29" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AI29" t="n">
         <v>36</v>
       </c>
       <c r="AJ29" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AK29" t="n">
         <v>34</v>
@@ -4453,46 +4453,46 @@
         <v>2.92</v>
       </c>
       <c r="H30" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I30" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="J30" t="n">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="K30" t="n">
         <v>2.9</v>
       </c>
       <c r="L30" t="n">
-        <v>1.78</v>
+        <v>1.77</v>
       </c>
       <c r="M30" t="n">
         <v>1.19</v>
       </c>
       <c r="N30" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="O30" t="n">
-        <v>1.81</v>
+        <v>1.83</v>
       </c>
       <c r="P30" t="n">
         <v>1.36</v>
       </c>
       <c r="Q30" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="R30" t="n">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="S30" t="n">
-        <v>8.4</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="T30" t="n">
         <v>2.54</v>
       </c>
       <c r="U30" t="n">
-        <v>1.62</v>
+        <v>1.59</v>
       </c>
       <c r="V30" t="n">
         <v>1.41</v>
@@ -4504,10 +4504,10 @@
         <v>6.2</v>
       </c>
       <c r="Y30" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="Z30" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AA30" t="n">
         <v>160</v>
@@ -4519,40 +4519,40 @@
         <v>7</v>
       </c>
       <c r="AD30" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AE30" t="n">
-        <v>450</v>
+        <v>140</v>
       </c>
       <c r="AF30" t="n">
-        <v>20</v>
+        <v>16.5</v>
       </c>
       <c r="AG30" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AH30" t="n">
+        <v>34</v>
+      </c>
+      <c r="AI30" t="n">
+        <v>300</v>
+      </c>
+      <c r="AJ30" t="n">
+        <v>55</v>
+      </c>
+      <c r="AK30" t="n">
         <v>60</v>
       </c>
-      <c r="AI30" t="n">
-        <v>500</v>
-      </c>
-      <c r="AJ30" t="n">
-        <v>150</v>
-      </c>
-      <c r="AK30" t="n">
-        <v>160</v>
-      </c>
       <c r="AL30" t="n">
-        <v>500</v>
+        <v>260</v>
       </c>
       <c r="AM30" t="n">
         <v>500</v>
       </c>
       <c r="AN30" t="n">
-        <v>600</v>
+        <v>240</v>
       </c>
       <c r="AO30" t="n">
-        <v>600</v>
+        <v>250</v>
       </c>
     </row>
     <row r="31">
@@ -4582,10 +4582,10 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="G31" t="n">
-        <v>2.22</v>
+        <v>2.26</v>
       </c>
       <c r="H31" t="n">
         <v>4.9</v>
@@ -4594,10 +4594,10 @@
         <v>5</v>
       </c>
       <c r="J31" t="n">
-        <v>2.9</v>
+        <v>2.86</v>
       </c>
       <c r="K31" t="n">
-        <v>2.96</v>
+        <v>2.94</v>
       </c>
       <c r="L31" t="n">
         <v>0</v>
@@ -4717,7 +4717,7 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>2.94</v>
+        <v>2.98</v>
       </c>
       <c r="G32" t="n">
         <v>3.1</v>
@@ -4852,61 +4852,61 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>2.2</v>
+        <v>2.24</v>
       </c>
       <c r="G33" t="n">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="H33" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="I33" t="n">
         <v>4.6</v>
       </c>
       <c r="J33" t="n">
-        <v>3</v>
+        <v>2.96</v>
       </c>
       <c r="K33" t="n">
-        <v>3.1</v>
+        <v>2.98</v>
       </c>
       <c r="L33" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="M33" t="n">
-        <v>1.15</v>
+        <v>1.18</v>
       </c>
       <c r="N33" t="n">
-        <v>2.52</v>
+        <v>2.32</v>
       </c>
       <c r="O33" t="n">
-        <v>1.62</v>
+        <v>1.72</v>
       </c>
       <c r="P33" t="n">
-        <v>1.47</v>
+        <v>1.41</v>
       </c>
       <c r="Q33" t="n">
-        <v>2.96</v>
+        <v>3.3</v>
       </c>
       <c r="R33" t="n">
-        <v>1.16</v>
+        <v>1.14</v>
       </c>
       <c r="S33" t="n">
-        <v>6.4</v>
+        <v>7.6</v>
       </c>
       <c r="T33" t="n">
-        <v>2.24</v>
+        <v>2.48</v>
       </c>
       <c r="U33" t="n">
-        <v>1.65</v>
+        <v>1.61</v>
       </c>
       <c r="V33" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="W33" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="X33" t="n">
-        <v>8.6</v>
+        <v>6.6</v>
       </c>
       <c r="Y33" t="n">
         <v>10.5</v>
@@ -4915,49 +4915,49 @@
         <v>30</v>
       </c>
       <c r="AA33" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="AB33" t="n">
-        <v>6.8</v>
+        <v>6.4</v>
       </c>
       <c r="AC33" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="AD33" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AE33" t="n">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="AF33" t="n">
         <v>12</v>
       </c>
       <c r="AG33" t="n">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="AH33" t="n">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="AI33" t="n">
-        <v>130</v>
+        <v>160</v>
       </c>
       <c r="AJ33" t="n">
         <v>32</v>
       </c>
       <c r="AK33" t="n">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="AL33" t="n">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="AM33" t="n">
-        <v>260</v>
+        <v>320</v>
       </c>
       <c r="AN33" t="n">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="AO33" t="n">
-        <v>150</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-22.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-22.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO33"/>
+  <dimension ref="A1:AO31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -653,75 +653,75 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>09:40:00</t>
+          <t>11:10:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Al-Raed (KSA)</t>
+          <t>Al-Ula FC</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Al-Adalh</t>
+          <t>Al-Wahda (KSA)</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.19</v>
+        <v>1.55</v>
       </c>
       <c r="G2" t="n">
-        <v>1.2</v>
+        <v>1.56</v>
       </c>
       <c r="H2" t="n">
-        <v>25</v>
+        <v>6.2</v>
       </c>
       <c r="I2" t="n">
-        <v>29</v>
+        <v>7.8</v>
       </c>
       <c r="J2" t="n">
-        <v>7.8</v>
+        <v>4.7</v>
       </c>
       <c r="K2" t="n">
-        <v>8.6</v>
+        <v>5.4</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>5.6</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>2.14</v>
       </c>
       <c r="V2" t="n">
-        <v>1.04</v>
+        <v>1.02</v>
       </c>
       <c r="W2" t="n">
-        <v>5.3</v>
+        <v>1.01</v>
       </c>
       <c r="X2" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="Y2" t="n">
         <v>1000</v>
@@ -730,7 +730,7 @@
         <v>1000</v>
       </c>
       <c r="AA2" t="n">
-        <v>1000</v>
+        <v>190</v>
       </c>
       <c r="AB2" t="n">
         <v>1000</v>
@@ -739,46 +739,46 @@
         <v>1000</v>
       </c>
       <c r="AD2" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AE2" t="n">
-        <v>1000</v>
+        <v>990</v>
       </c>
       <c r="AF2" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AG2" t="n">
-        <v>1000</v>
+        <v>960</v>
       </c>
       <c r="AH2" t="n">
         <v>1000</v>
       </c>
       <c r="AI2" t="n">
+        <v>90</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>980</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>970</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>990</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>26</v>
+      </c>
+      <c r="AO2" t="n">
         <v>1000</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>36</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Tunisian Ligue Professionelle 1</t>
+          <t>Egyptian Premier</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -788,36 +788,36 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>10:00:00</t>
+          <t>12:00:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Club Africain</t>
+          <t>Wadi Degla</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Etoile Sportive Sahel</t>
+          <t>Ghazl El Mahallah</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.22</v>
+        <v>1.38</v>
       </c>
       <c r="G3" t="n">
-        <v>1.24</v>
+        <v>1.39</v>
       </c>
       <c r="H3" t="n">
-        <v>32</v>
+        <v>17.5</v>
       </c>
       <c r="I3" t="n">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="J3" t="n">
-        <v>6.2</v>
+        <v>4.4</v>
       </c>
       <c r="K3" t="n">
-        <v>6.6</v>
+        <v>4.7</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -826,34 +826,34 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>2.92</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>1.49</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>1.42</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>1.1</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>2.8</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>1.47</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="W3" t="n">
-        <v>5.1</v>
+        <v>3.5</v>
       </c>
       <c r="X3" t="n">
         <v>1000</v>
@@ -868,52 +868,52 @@
         <v>1000</v>
       </c>
       <c r="AB3" t="n">
-        <v>3.05</v>
+        <v>1000</v>
       </c>
       <c r="AC3" t="n">
-        <v>7.8</v>
+        <v>1000</v>
       </c>
       <c r="AD3" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AE3" t="n">
-        <v>580</v>
+        <v>1000</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.9</v>
+        <v>1000</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AH3" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AI3" t="n">
         <v>1000</v>
       </c>
       <c r="AJ3" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="AK3" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AL3" t="n">
-        <v>210</v>
+        <v>3.5</v>
       </c>
       <c r="AM3" t="n">
-        <v>1000</v>
+        <v>5.7</v>
       </c>
       <c r="AN3" t="n">
-        <v>40</v>
+        <v>2.48</v>
       </c>
       <c r="AO3" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Saudi 1st Division</t>
+          <t>Egyptian Premier</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -923,132 +923,132 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>11:10:00</t>
+          <t>12:00:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Al-Ula FC</t>
+          <t>Haras El Hodood</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Al-Wahda (KSA)</t>
+          <t>Kahraba Ismailia</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.55</v>
+        <v>12.5</v>
       </c>
       <c r="G4" t="n">
-        <v>1.58</v>
+        <v>14</v>
       </c>
       <c r="H4" t="n">
-        <v>6.2</v>
+        <v>1.42</v>
       </c>
       <c r="I4" t="n">
-        <v>6.8</v>
+        <v>1.44</v>
       </c>
       <c r="J4" t="n">
-        <v>4.7</v>
+        <v>4.4</v>
       </c>
       <c r="K4" t="n">
-        <v>5</v>
+        <v>4.6</v>
       </c>
       <c r="L4" t="n">
-        <v>1.3</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>1.04</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>1.18</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.68</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.55</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>1.66</v>
+        <v>3.6</v>
       </c>
       <c r="S4" t="n">
-        <v>2.44</v>
+        <v>1.37</v>
       </c>
       <c r="T4" t="n">
-        <v>1.69</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>2.22</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>1.17</v>
+        <v>3.25</v>
       </c>
       <c r="W4" t="n">
-        <v>2.72</v>
+        <v>1.07</v>
       </c>
       <c r="X4" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="Y4" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="Z4" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AA4" t="n">
-        <v>170</v>
+        <v>1000</v>
       </c>
       <c r="AB4" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AC4" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AD4" t="n">
-        <v>24</v>
+        <v>3.75</v>
       </c>
       <c r="AE4" t="n">
-        <v>80</v>
+        <v>5.7</v>
       </c>
       <c r="AF4" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AG4" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AH4" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="AI4" t="n">
         <v>21</v>
       </c>
-      <c r="AI4" t="n">
-        <v>65</v>
-      </c>
       <c r="AJ4" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="AK4" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="AL4" t="n">
-        <v>27</v>
+        <v>840</v>
       </c>
       <c r="AM4" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AN4" t="n">
-        <v>5.9</v>
+        <v>1000</v>
       </c>
       <c r="AO4" t="n">
-        <v>65</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Egyptian Premier</t>
+          <t>Saudi Professional League</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1058,132 +1058,132 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>12:00:00</t>
+          <t>12:15:07</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Wadi Degla</t>
+          <t>Al-Taawoun Buraidah</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Ghazl El Mahallah</t>
+          <t>Al-Hazm (KSA)</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>2.28</v>
+        <v>1.34</v>
       </c>
       <c r="G5" t="n">
-        <v>2.34</v>
+        <v>1.35</v>
       </c>
       <c r="H5" t="n">
-        <v>4.3</v>
+        <v>16</v>
       </c>
       <c r="I5" t="n">
-        <v>4.5</v>
+        <v>16.5</v>
       </c>
       <c r="J5" t="n">
-        <v>2.92</v>
+        <v>5</v>
       </c>
       <c r="K5" t="n">
-        <v>3</v>
+        <v>5.2</v>
       </c>
       <c r="L5" t="n">
-        <v>1.71</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>1.17</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>2.3</v>
+        <v>4.6</v>
       </c>
       <c r="O5" t="n">
-        <v>1.73</v>
+        <v>1.27</v>
       </c>
       <c r="P5" t="n">
-        <v>1.4</v>
+        <v>1.79</v>
       </c>
       <c r="Q5" t="n">
-        <v>3.3</v>
+        <v>2.22</v>
       </c>
       <c r="R5" t="n">
-        <v>1.13</v>
+        <v>1.23</v>
       </c>
       <c r="S5" t="n">
-        <v>7.8</v>
+        <v>5.1</v>
       </c>
       <c r="T5" t="n">
-        <v>2.48</v>
+        <v>2.02</v>
       </c>
       <c r="U5" t="n">
-        <v>1.6</v>
+        <v>1.89</v>
       </c>
       <c r="V5" t="n">
-        <v>1.28</v>
+        <v>1.06</v>
       </c>
       <c r="W5" t="n">
-        <v>1.74</v>
+        <v>3.85</v>
       </c>
       <c r="X5" t="n">
-        <v>6.6</v>
+        <v>1000</v>
       </c>
       <c r="Y5" t="n">
-        <v>9.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="Z5" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
       <c r="AA5" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AB5" t="n">
-        <v>6.2</v>
+        <v>4.9</v>
       </c>
       <c r="AC5" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="AD5" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AE5" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="AF5" t="n">
-        <v>11.5</v>
+        <v>5.4</v>
       </c>
       <c r="AG5" t="n">
-        <v>13.5</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AH5" t="n">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="AI5" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="AJ5" t="n">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="AK5" t="n">
-        <v>40</v>
+        <v>19.5</v>
       </c>
       <c r="AL5" t="n">
-        <v>95</v>
+        <v>70</v>
       </c>
       <c r="AM5" t="n">
-        <v>500</v>
+        <v>330</v>
       </c>
       <c r="AN5" t="n">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="AO5" t="n">
-        <v>180</v>
+        <v>460</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Egyptian Premier</t>
+          <t>Saudi Professional League</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1193,126 +1193,126 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>12:00:00</t>
+          <t>14:30:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Haras El Hodood</t>
+          <t>Al-Hilal</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Kahraba Ismailia</t>
+          <t>Al-Feiha</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>3.05</v>
+        <v>1.21</v>
       </c>
       <c r="G6" t="n">
-        <v>3.15</v>
+        <v>1.22</v>
       </c>
       <c r="H6" t="n">
-        <v>2.9</v>
+        <v>17.5</v>
       </c>
       <c r="I6" t="n">
-        <v>3</v>
+        <v>18.5</v>
       </c>
       <c r="J6" t="n">
-        <v>2.94</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="K6" t="n">
-        <v>3.05</v>
+        <v>8.6</v>
       </c>
       <c r="L6" t="n">
-        <v>1.66</v>
+        <v>1.23</v>
       </c>
       <c r="M6" t="n">
-        <v>1.16</v>
+        <v>1.02</v>
       </c>
       <c r="N6" t="n">
-        <v>2.48</v>
+        <v>7.8</v>
       </c>
       <c r="O6" t="n">
-        <v>1.65</v>
+        <v>1.13</v>
       </c>
       <c r="P6" t="n">
-        <v>1.47</v>
+        <v>3.2</v>
       </c>
       <c r="Q6" t="n">
-        <v>3</v>
+        <v>1.42</v>
       </c>
       <c r="R6" t="n">
-        <v>1.16</v>
+        <v>1.86</v>
       </c>
       <c r="S6" t="n">
-        <v>6.6</v>
+        <v>2.08</v>
       </c>
       <c r="T6" t="n">
-        <v>2.28</v>
+        <v>1.95</v>
       </c>
       <c r="U6" t="n">
-        <v>1.72</v>
+        <v>1.99</v>
       </c>
       <c r="V6" t="n">
-        <v>1.5</v>
+        <v>1.05</v>
       </c>
       <c r="W6" t="n">
-        <v>1.46</v>
+        <v>5.5</v>
       </c>
       <c r="X6" t="n">
-        <v>7.2</v>
+        <v>50</v>
       </c>
       <c r="Y6" t="n">
-        <v>7.8</v>
+        <v>85</v>
       </c>
       <c r="Z6" t="n">
-        <v>17</v>
+        <v>730</v>
       </c>
       <c r="AA6" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AB6" t="n">
-        <v>8</v>
+        <v>12.5</v>
       </c>
       <c r="AC6" t="n">
-        <v>6.8</v>
+        <v>20</v>
       </c>
       <c r="AD6" t="n">
-        <v>14.5</v>
+        <v>75</v>
       </c>
       <c r="AE6" t="n">
-        <v>80</v>
+        <v>250</v>
       </c>
       <c r="AF6" t="n">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="AG6" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="AH6" t="n">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="AI6" t="n">
-        <v>460</v>
+        <v>650</v>
       </c>
       <c r="AJ6" t="n">
-        <v>90</v>
+        <v>10.5</v>
       </c>
       <c r="AK6" t="n">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="AL6" t="n">
-        <v>500</v>
+        <v>34</v>
       </c>
       <c r="AM6" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="AN6" t="n">
-        <v>120</v>
+        <v>3.5</v>
       </c>
       <c r="AO6" t="n">
-        <v>65</v>
+        <v>370</v>
       </c>
     </row>
     <row r="7">
@@ -1328,132 +1328,132 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>12:15:00</t>
+          <t>14:30:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Al-Taawoun Buraidah</t>
+          <t>Al-Quadisiya (KSA)</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Al-Hazm (KSA)</t>
+          <t>Al-Ittihad</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.76</v>
+        <v>2.34</v>
       </c>
       <c r="G7" t="n">
-        <v>1.79</v>
+        <v>2.36</v>
       </c>
       <c r="H7" t="n">
-        <v>5</v>
+        <v>2.96</v>
       </c>
       <c r="I7" t="n">
-        <v>5.2</v>
+        <v>3.05</v>
       </c>
       <c r="J7" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="K7" t="n">
         <v>4.2</v>
       </c>
       <c r="L7" t="n">
-        <v>1.4</v>
+        <v>1.28</v>
       </c>
       <c r="M7" t="n">
-        <v>1.06</v>
+        <v>1.03</v>
       </c>
       <c r="N7" t="n">
-        <v>4.2</v>
+        <v>7</v>
       </c>
       <c r="O7" t="n">
-        <v>1.29</v>
+        <v>1.16</v>
       </c>
       <c r="P7" t="n">
-        <v>2.08</v>
+        <v>2.86</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.88</v>
+        <v>1.51</v>
       </c>
       <c r="R7" t="n">
-        <v>1.41</v>
+        <v>1.74</v>
       </c>
       <c r="S7" t="n">
-        <v>3.25</v>
+        <v>2.26</v>
       </c>
       <c r="T7" t="n">
-        <v>1.83</v>
+        <v>1.48</v>
       </c>
       <c r="U7" t="n">
-        <v>2.12</v>
+        <v>2.88</v>
       </c>
       <c r="V7" t="n">
-        <v>1.23</v>
+        <v>1.5</v>
       </c>
       <c r="W7" t="n">
-        <v>2.24</v>
+        <v>1.73</v>
       </c>
       <c r="X7" t="n">
-        <v>16.5</v>
+        <v>30</v>
       </c>
       <c r="Y7" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Z7" t="n">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="AA7" t="n">
-        <v>130</v>
+        <v>46</v>
       </c>
       <c r="AB7" t="n">
-        <v>9</v>
+        <v>17.5</v>
       </c>
       <c r="AC7" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AD7" t="n">
-        <v>19</v>
+        <v>13.5</v>
       </c>
       <c r="AE7" t="n">
-        <v>65</v>
+        <v>27</v>
       </c>
       <c r="AF7" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="AG7" t="n">
-        <v>9.6</v>
+        <v>12</v>
       </c>
       <c r="AH7" t="n">
-        <v>19.5</v>
+        <v>14</v>
       </c>
       <c r="AI7" t="n">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="AJ7" t="n">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="AK7" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="AL7" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="AM7" t="n">
-        <v>110</v>
+        <v>48</v>
       </c>
       <c r="AN7" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AO7" t="n">
-        <v>75</v>
+        <v>15.5</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Saudi Professional League</t>
+          <t>UEFA Europa League</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1463,78 +1463,78 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>14:30:00</t>
+          <t>14:45:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Al-Hilal</t>
+          <t>Freiburg</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Al-Feiha</t>
+          <t>Maccabi Tel Aviv</t>
         </is>
       </c>
       <c r="F8" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="G8" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="H8" t="n">
+        <v>17</v>
+      </c>
+      <c r="I8" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="J8" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="K8" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="L8" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N8" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="O8" t="n">
         <v>1.2</v>
       </c>
-      <c r="G8" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="H8" t="n">
-        <v>16</v>
-      </c>
-      <c r="I8" t="n">
-        <v>18</v>
-      </c>
-      <c r="J8" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="K8" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="L8" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="M8" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N8" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="O8" t="n">
-        <v>1.14</v>
-      </c>
       <c r="P8" t="n">
-        <v>3.2</v>
+        <v>2.56</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="R8" t="n">
-        <v>1.86</v>
+        <v>1.6</v>
       </c>
       <c r="S8" t="n">
-        <v>2.12</v>
+        <v>2.58</v>
       </c>
       <c r="T8" t="n">
-        <v>1.98</v>
+        <v>2.46</v>
       </c>
       <c r="U8" t="n">
-        <v>1.93</v>
+        <v>1.66</v>
       </c>
       <c r="V8" t="n">
         <v>1.05</v>
       </c>
       <c r="W8" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="X8" t="n">
+        <v>30</v>
+      </c>
+      <c r="Y8" t="n">
         <v>48</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>1000</v>
       </c>
       <c r="Z8" t="n">
         <v>200</v>
@@ -1543,52 +1543,52 @@
         <v>1000</v>
       </c>
       <c r="AB8" t="n">
-        <v>12.5</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AC8" t="n">
-        <v>26</v>
+        <v>16.5</v>
       </c>
       <c r="AD8" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AE8" t="n">
-        <v>250</v>
+        <v>380</v>
       </c>
       <c r="AF8" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AG8" t="n">
         <v>11.5</v>
       </c>
       <c r="AH8" t="n">
-        <v>980</v>
+        <v>44</v>
       </c>
       <c r="AI8" t="n">
-        <v>180</v>
+        <v>270</v>
       </c>
       <c r="AJ8" t="n">
-        <v>10.5</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AK8" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AL8" t="n">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="AM8" t="n">
-        <v>210</v>
+        <v>270</v>
       </c>
       <c r="AN8" t="n">
-        <v>3.4</v>
+        <v>3.95</v>
       </c>
       <c r="AO8" t="n">
-        <v>340</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Saudi Professional League</t>
+          <t>UEFA Europa League</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1598,126 +1598,126 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>14:30:00</t>
+          <t>14:45:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Al-Quadisiya (KSA)</t>
+          <t>Brann</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Al-Ittihad</t>
+          <t>Midtjylland</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.38</v>
+        <v>3.75</v>
       </c>
       <c r="G9" t="n">
-        <v>2.44</v>
+        <v>3.85</v>
       </c>
       <c r="H9" t="n">
-        <v>2.86</v>
+        <v>2.1</v>
       </c>
       <c r="I9" t="n">
-        <v>2.96</v>
+        <v>2.12</v>
       </c>
       <c r="J9" t="n">
-        <v>4</v>
+        <v>3.7</v>
       </c>
       <c r="K9" t="n">
-        <v>4.3</v>
+        <v>3.8</v>
       </c>
       <c r="L9" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N9" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="O9" t="n">
         <v>1.29</v>
       </c>
-      <c r="M9" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N9" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="O9" t="n">
-        <v>1.17</v>
-      </c>
       <c r="P9" t="n">
-        <v>2.72</v>
+        <v>2.06</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.55</v>
+        <v>1.92</v>
       </c>
       <c r="R9" t="n">
-        <v>1.68</v>
+        <v>1.42</v>
       </c>
       <c r="S9" t="n">
-        <v>2.4</v>
+        <v>3.3</v>
       </c>
       <c r="T9" t="n">
-        <v>1.52</v>
+        <v>1.76</v>
       </c>
       <c r="U9" t="n">
-        <v>2.8</v>
+        <v>2.24</v>
       </c>
       <c r="V9" t="n">
-        <v>1.51</v>
+        <v>1.89</v>
       </c>
       <c r="W9" t="n">
-        <v>1.69</v>
+        <v>1.35</v>
       </c>
       <c r="X9" t="n">
+        <v>16</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>13</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>25</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>15</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF9" t="n">
         <v>27</v>
       </c>
-      <c r="Y9" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="Z9" t="n">
-        <v>24</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>95</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>17</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>13</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>28</v>
-      </c>
-      <c r="AF9" t="n">
-        <v>20</v>
-      </c>
       <c r="AG9" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AH9" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>34</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>75</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>42</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>50</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>90</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>42</v>
+      </c>
+      <c r="AO9" t="n">
         <v>14.5</v>
-      </c>
-      <c r="AI9" t="n">
-        <v>30</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>34</v>
-      </c>
-      <c r="AK9" t="n">
-        <v>22</v>
-      </c>
-      <c r="AL9" t="n">
-        <v>27</v>
-      </c>
-      <c r="AM9" t="n">
-        <v>55</v>
-      </c>
-      <c r="AN9" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AO9" t="n">
-        <v>16</v>
       </c>
     </row>
     <row r="10">
@@ -1738,121 +1738,121 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Plzen</t>
+          <t>PAOK</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Porto</t>
+          <t>Betis</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>5.5</v>
+        <v>2.36</v>
       </c>
       <c r="G10" t="n">
-        <v>5.6</v>
+        <v>2.38</v>
       </c>
       <c r="H10" t="n">
-        <v>1.79</v>
+        <v>3.35</v>
       </c>
       <c r="I10" t="n">
-        <v>1.81</v>
+        <v>3.4</v>
       </c>
       <c r="J10" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="K10" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="L10" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N10" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P10" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="R10" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="S10" t="n">
         <v>3.75</v>
       </c>
-      <c r="K10" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="L10" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="M10" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="N10" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="O10" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="P10" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="R10" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="S10" t="n">
-        <v>4.2</v>
-      </c>
       <c r="T10" t="n">
-        <v>2.08</v>
+        <v>1.82</v>
       </c>
       <c r="U10" t="n">
-        <v>1.88</v>
+        <v>2.14</v>
       </c>
       <c r="V10" t="n">
-        <v>2.22</v>
+        <v>1.41</v>
       </c>
       <c r="W10" t="n">
-        <v>1.21</v>
+        <v>1.72</v>
       </c>
       <c r="X10" t="n">
-        <v>12</v>
+        <v>13.5</v>
       </c>
       <c r="Y10" t="n">
-        <v>7.2</v>
+        <v>12.5</v>
       </c>
       <c r="Z10" t="n">
-        <v>9.4</v>
+        <v>22</v>
       </c>
       <c r="AA10" t="n">
-        <v>17.5</v>
+        <v>60</v>
       </c>
       <c r="AB10" t="n">
-        <v>16</v>
+        <v>9.6</v>
       </c>
       <c r="AC10" t="n">
-        <v>8.199999999999999</v>
+        <v>7.6</v>
       </c>
       <c r="AD10" t="n">
-        <v>10.5</v>
+        <v>14</v>
       </c>
       <c r="AE10" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="AF10" t="n">
+        <v>14</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>46</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>34</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>25</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>38</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>100</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>21</v>
+      </c>
+      <c r="AO10" t="n">
         <v>40</v>
-      </c>
-      <c r="AG10" t="n">
-        <v>21</v>
-      </c>
-      <c r="AH10" t="n">
-        <v>23</v>
-      </c>
-      <c r="AI10" t="n">
-        <v>44</v>
-      </c>
-      <c r="AJ10" t="n">
-        <v>150</v>
-      </c>
-      <c r="AK10" t="n">
-        <v>85</v>
-      </c>
-      <c r="AL10" t="n">
-        <v>90</v>
-      </c>
-      <c r="AM10" t="n">
-        <v>150</v>
-      </c>
-      <c r="AN10" t="n">
-        <v>130</v>
-      </c>
-      <c r="AO10" t="n">
-        <v>14</v>
       </c>
     </row>
     <row r="11">
@@ -1873,121 +1873,121 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Brann</t>
+          <t>Malmo FF</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Midtjylland</t>
+          <t>Crvena Zvezda</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>3.8</v>
+        <v>3.95</v>
       </c>
       <c r="G11" t="n">
-        <v>3.85</v>
+        <v>4</v>
       </c>
       <c r="H11" t="n">
-        <v>2.08</v>
+        <v>2.02</v>
       </c>
       <c r="I11" t="n">
-        <v>2.1</v>
+        <v>2.04</v>
       </c>
       <c r="J11" t="n">
-        <v>3.85</v>
+        <v>3.95</v>
       </c>
       <c r="K11" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="L11" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="M11" t="n">
         <v>1.05</v>
       </c>
       <c r="N11" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="O11" t="n">
         <v>1.25</v>
       </c>
       <c r="P11" t="n">
-        <v>2.22</v>
+        <v>2.28</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.79</v>
+        <v>1.76</v>
       </c>
       <c r="R11" t="n">
-        <v>1.48</v>
+        <v>1.51</v>
       </c>
       <c r="S11" t="n">
-        <v>3</v>
+        <v>2.92</v>
       </c>
       <c r="T11" t="n">
         <v>1.69</v>
       </c>
       <c r="U11" t="n">
-        <v>2.38</v>
+        <v>2.36</v>
       </c>
       <c r="V11" t="n">
-        <v>1.91</v>
+        <v>1.97</v>
       </c>
       <c r="W11" t="n">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="X11" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="Y11" t="n">
         <v>11.5</v>
       </c>
       <c r="Z11" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AA11" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AB11" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AC11" t="n">
-        <v>8.4</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD11" t="n">
         <v>10.5</v>
       </c>
       <c r="AE11" t="n">
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
       <c r="AF11" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AG11" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AH11" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AI11" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AJ11" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AK11" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AL11" t="n">
         <v>44</v>
       </c>
       <c r="AM11" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AN11" t="n">
         <v>36</v>
       </c>
       <c r="AO11" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
     </row>
     <row r="12">
@@ -2008,121 +2008,121 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>PAOK</t>
+          <t>Plzen</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Betis</t>
+          <t>Porto</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.38</v>
+        <v>5.4</v>
       </c>
       <c r="G12" t="n">
-        <v>2.4</v>
+        <v>5.5</v>
       </c>
       <c r="H12" t="n">
-        <v>3.25</v>
+        <v>1.83</v>
       </c>
       <c r="I12" t="n">
-        <v>3.3</v>
+        <v>1.85</v>
       </c>
       <c r="J12" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="K12" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="L12" t="n">
-        <v>1.43</v>
+        <v>1.49</v>
       </c>
       <c r="M12" t="n">
-        <v>1.07</v>
+        <v>1.09</v>
       </c>
       <c r="N12" t="n">
-        <v>3.9</v>
+        <v>3.4</v>
       </c>
       <c r="O12" t="n">
-        <v>1.33</v>
+        <v>1.41</v>
       </c>
       <c r="P12" t="n">
-        <v>1.98</v>
+        <v>1.77</v>
       </c>
       <c r="Q12" t="n">
-        <v>2</v>
+        <v>2.24</v>
       </c>
       <c r="R12" t="n">
-        <v>1.39</v>
+        <v>1.29</v>
       </c>
       <c r="S12" t="n">
-        <v>3.45</v>
+        <v>4.2</v>
       </c>
       <c r="T12" t="n">
-        <v>1.76</v>
+        <v>2.08</v>
       </c>
       <c r="U12" t="n">
-        <v>2.24</v>
+        <v>1.89</v>
       </c>
       <c r="V12" t="n">
-        <v>1.43</v>
+        <v>2.18</v>
       </c>
       <c r="W12" t="n">
-        <v>1.71</v>
+        <v>1.22</v>
       </c>
       <c r="X12" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="Y12" t="n">
-        <v>12.5</v>
+        <v>7.4</v>
       </c>
       <c r="Z12" t="n">
-        <v>22</v>
+        <v>9.4</v>
       </c>
       <c r="AA12" t="n">
-        <v>60</v>
+        <v>18.5</v>
       </c>
       <c r="AB12" t="n">
-        <v>10.5</v>
+        <v>15.5</v>
       </c>
       <c r="AC12" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="AD12" t="n">
-        <v>14</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AE12" t="n">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="AF12" t="n">
+        <v>40</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>21</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>23</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>44</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>150</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>85</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>95</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>160</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>130</v>
+      </c>
+      <c r="AO12" t="n">
         <v>15</v>
-      </c>
-      <c r="AG12" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AH12" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AI12" t="n">
-        <v>46</v>
-      </c>
-      <c r="AJ12" t="n">
-        <v>34</v>
-      </c>
-      <c r="AK12" t="n">
-        <v>24</v>
-      </c>
-      <c r="AL12" t="n">
-        <v>36</v>
-      </c>
-      <c r="AM12" t="n">
-        <v>85</v>
-      </c>
-      <c r="AN12" t="n">
-        <v>19</v>
-      </c>
-      <c r="AO12" t="n">
-        <v>34</v>
       </c>
     </row>
     <row r="13">
@@ -2143,121 +2143,121 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Malmo FF</t>
+          <t>Bologna</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Crvena Zvezda</t>
+          <t>Celtic</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>3.9</v>
+        <v>1.8</v>
       </c>
       <c r="G13" t="n">
-        <v>3.95</v>
+        <v>1.81</v>
       </c>
       <c r="H13" t="n">
-        <v>2.02</v>
+        <v>5.1</v>
       </c>
       <c r="I13" t="n">
-        <v>2.06</v>
+        <v>5.2</v>
       </c>
       <c r="J13" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="K13" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="L13" t="n">
-        <v>1.37</v>
+        <v>1.39</v>
       </c>
       <c r="M13" t="n">
         <v>1.06</v>
       </c>
       <c r="N13" t="n">
-        <v>4.6</v>
+        <v>4.3</v>
       </c>
       <c r="O13" t="n">
-        <v>1.26</v>
+        <v>1.28</v>
       </c>
       <c r="P13" t="n">
-        <v>2.22</v>
+        <v>2.1</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.8</v>
+        <v>1.87</v>
       </c>
       <c r="R13" t="n">
-        <v>1.49</v>
+        <v>1.43</v>
       </c>
       <c r="S13" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="T13" t="n">
-        <v>1.72</v>
+        <v>1.83</v>
       </c>
       <c r="U13" t="n">
-        <v>2.32</v>
+        <v>2.16</v>
       </c>
       <c r="V13" t="n">
-        <v>1.95</v>
+        <v>1.24</v>
       </c>
       <c r="W13" t="n">
-        <v>1.33</v>
+        <v>2.24</v>
       </c>
       <c r="X13" t="n">
+        <v>16</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>38</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>120</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>60</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>65</v>
+      </c>
+      <c r="AJ13" t="n">
         <v>18</v>
       </c>
-      <c r="Y13" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z13" t="n">
-        <v>13</v>
-      </c>
-      <c r="AA13" t="n">
-        <v>24</v>
-      </c>
-      <c r="AB13" t="n">
-        <v>17</v>
-      </c>
-      <c r="AC13" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AD13" t="n">
+      <c r="AK13" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>32</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>95</v>
+      </c>
+      <c r="AN13" t="n">
         <v>10.5</v>
       </c>
-      <c r="AE13" t="n">
-        <v>19</v>
-      </c>
-      <c r="AF13" t="n">
-        <v>29</v>
-      </c>
-      <c r="AG13" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AH13" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AI13" t="n">
-        <v>30</v>
-      </c>
-      <c r="AJ13" t="n">
+      <c r="AO13" t="n">
         <v>75</v>
-      </c>
-      <c r="AK13" t="n">
-        <v>42</v>
-      </c>
-      <c r="AL13" t="n">
-        <v>46</v>
-      </c>
-      <c r="AM13" t="n">
-        <v>75</v>
-      </c>
-      <c r="AN13" t="n">
-        <v>36</v>
-      </c>
-      <c r="AO13" t="n">
-        <v>12</v>
       </c>
     </row>
     <row r="14">
@@ -2278,121 +2278,121 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Freiburg</t>
+          <t>Fenerbahce</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Maccabi Tel Aviv</t>
+          <t>Aston Villa</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.22</v>
+        <v>2.5</v>
       </c>
       <c r="G14" t="n">
-        <v>1.23</v>
+        <v>2.52</v>
       </c>
       <c r="H14" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="I14" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="J14" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="K14" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="L14" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N14" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="O14" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="P14" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="R14" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="S14" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="T14" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="U14" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="V14" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="W14" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="X14" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>22</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>48</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>29</v>
+      </c>
+      <c r="AF14" t="n">
         <v>16.5</v>
-      </c>
-      <c r="I14" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="J14" t="n">
-        <v>8</v>
-      </c>
-      <c r="K14" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="L14" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="M14" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N14" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="O14" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="P14" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="R14" t="n">
-        <v>1.61</v>
-      </c>
-      <c r="S14" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="T14" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="U14" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="V14" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="W14" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="X14" t="n">
-        <v>32</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>50</v>
-      </c>
-      <c r="Z14" t="n">
-        <v>200</v>
-      </c>
-      <c r="AA14" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB14" t="n">
-        <v>9</v>
-      </c>
-      <c r="AC14" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AD14" t="n">
-        <v>65</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>380</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>7</v>
       </c>
       <c r="AG14" t="n">
         <v>11.5</v>
       </c>
       <c r="AH14" t="n">
-        <v>46</v>
+        <v>15</v>
       </c>
       <c r="AI14" t="n">
-        <v>270</v>
+        <v>36</v>
       </c>
       <c r="AJ14" t="n">
-        <v>8.199999999999999</v>
+        <v>34</v>
       </c>
       <c r="AK14" t="n">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="AL14" t="n">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="AM14" t="n">
-        <v>340</v>
+        <v>70</v>
       </c>
       <c r="AN14" t="n">
-        <v>4.1</v>
+        <v>17</v>
       </c>
       <c r="AO14" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15">
@@ -2413,121 +2413,121 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Bologna</t>
+          <t>Young Boys</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Celtic</t>
+          <t>Lyon</t>
         </is>
       </c>
       <c r="F15" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="G15" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="H15" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="I15" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="J15" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="K15" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="L15" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N15" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="O15" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P15" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="R15" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="S15" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="T15" t="n">
         <v>1.78</v>
       </c>
-      <c r="G15" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="H15" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="I15" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="J15" t="n">
-        <v>4</v>
-      </c>
-      <c r="K15" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="L15" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="M15" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N15" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="O15" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="P15" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="R15" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="S15" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="T15" t="n">
-        <v>1.83</v>
-      </c>
       <c r="U15" t="n">
-        <v>2.14</v>
+        <v>2.22</v>
       </c>
       <c r="V15" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="W15" t="n">
         <v>1.23</v>
       </c>
-      <c r="W15" t="n">
-        <v>2.26</v>
-      </c>
       <c r="X15" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>11</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AE15" t="n">
         <v>16.5</v>
       </c>
-      <c r="Y15" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="Z15" t="n">
-        <v>38</v>
-      </c>
-      <c r="AA15" t="n">
+      <c r="AF15" t="n">
+        <v>40</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>18</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>30</v>
+      </c>
+      <c r="AJ15" t="n">
         <v>120</v>
       </c>
-      <c r="AB15" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AC15" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AD15" t="n">
-        <v>19</v>
-      </c>
-      <c r="AE15" t="n">
-        <v>65</v>
-      </c>
-      <c r="AF15" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AG15" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AH15" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AI15" t="n">
-        <v>65</v>
-      </c>
-      <c r="AJ15" t="n">
-        <v>18</v>
-      </c>
       <c r="AK15" t="n">
-        <v>17</v>
+        <v>60</v>
       </c>
       <c r="AL15" t="n">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="AM15" t="n">
         <v>90</v>
       </c>
       <c r="AN15" t="n">
-        <v>10.5</v>
+        <v>65</v>
       </c>
       <c r="AO15" t="n">
-        <v>75</v>
+        <v>8.6</v>
       </c>
     </row>
     <row r="16">
@@ -2548,127 +2548,127 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Fenerbahce</t>
+          <t>Feyenoord</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Aston Villa</t>
+          <t>Sturm Graz</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2.54</v>
+        <v>1.43</v>
       </c>
       <c r="G16" t="n">
-        <v>2.56</v>
+        <v>1.44</v>
       </c>
       <c r="H16" t="n">
-        <v>3</v>
+        <v>7.6</v>
       </c>
       <c r="I16" t="n">
-        <v>3.05</v>
+        <v>7.8</v>
       </c>
       <c r="J16" t="n">
-        <v>3.6</v>
+        <v>5.8</v>
       </c>
       <c r="K16" t="n">
-        <v>3.65</v>
+        <v>6</v>
       </c>
       <c r="L16" t="n">
-        <v>1.37</v>
+        <v>1.23</v>
       </c>
       <c r="M16" t="n">
-        <v>1.06</v>
+        <v>1.02</v>
       </c>
       <c r="N16" t="n">
-        <v>4.6</v>
+        <v>8</v>
       </c>
       <c r="O16" t="n">
-        <v>1.27</v>
+        <v>1.13</v>
       </c>
       <c r="P16" t="n">
-        <v>2.2</v>
+        <v>3.3</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.81</v>
+        <v>1.42</v>
       </c>
       <c r="R16" t="n">
-        <v>1.48</v>
+        <v>1.95</v>
       </c>
       <c r="S16" t="n">
-        <v>3</v>
+        <v>2.04</v>
       </c>
       <c r="T16" t="n">
-        <v>1.65</v>
+        <v>1.64</v>
       </c>
       <c r="U16" t="n">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="V16" t="n">
-        <v>1.48</v>
+        <v>1.14</v>
       </c>
       <c r="W16" t="n">
-        <v>1.64</v>
+        <v>3.25</v>
       </c>
       <c r="X16" t="n">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="Y16" t="n">
-        <v>14.5</v>
+        <v>40</v>
       </c>
       <c r="Z16" t="n">
-        <v>21</v>
+        <v>75</v>
       </c>
       <c r="AA16" t="n">
-        <v>48</v>
+        <v>180</v>
       </c>
       <c r="AB16" t="n">
-        <v>12.5</v>
+        <v>15</v>
       </c>
       <c r="AC16" t="n">
-        <v>8</v>
+        <v>13.5</v>
       </c>
       <c r="AD16" t="n">
+        <v>28</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>80</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>12</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>65</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>14</v>
+      </c>
+      <c r="AK16" t="n">
         <v>13</v>
       </c>
-      <c r="AE16" t="n">
-        <v>29</v>
-      </c>
-      <c r="AF16" t="n">
-        <v>17</v>
-      </c>
-      <c r="AG16" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH16" t="n">
-        <v>15</v>
-      </c>
-      <c r="AI16" t="n">
-        <v>38</v>
-      </c>
-      <c r="AJ16" t="n">
-        <v>34</v>
-      </c>
-      <c r="AK16" t="n">
-        <v>24</v>
-      </c>
       <c r="AL16" t="n">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="AM16" t="n">
         <v>70</v>
       </c>
       <c r="AN16" t="n">
-        <v>17.5</v>
+        <v>4.2</v>
       </c>
       <c r="AO16" t="n">
-        <v>24</v>
+        <v>65</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>UEFA Europa League</t>
+          <t>Egyptian Premier</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -2678,126 +2678,126 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>14:45:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Young Boys</t>
+          <t>Ismaily</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Lyon</t>
+          <t>Al Mokawloon</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>5</v>
+        <v>4.2</v>
       </c>
       <c r="G17" t="n">
-        <v>5.2</v>
+        <v>4.5</v>
       </c>
       <c r="H17" t="n">
-        <v>1.78</v>
+        <v>2.36</v>
       </c>
       <c r="I17" t="n">
-        <v>1.8</v>
+        <v>2.44</v>
       </c>
       <c r="J17" t="n">
-        <v>4</v>
+        <v>2.78</v>
       </c>
       <c r="K17" t="n">
-        <v>4.2</v>
+        <v>2.86</v>
       </c>
       <c r="L17" t="n">
-        <v>1.37</v>
+        <v>1.73</v>
       </c>
       <c r="M17" t="n">
-        <v>1.06</v>
+        <v>1.18</v>
       </c>
       <c r="N17" t="n">
-        <v>4.6</v>
+        <v>2.26</v>
       </c>
       <c r="O17" t="n">
-        <v>1.26</v>
+        <v>1.76</v>
       </c>
       <c r="P17" t="n">
-        <v>2.2</v>
+        <v>1.38</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.81</v>
+        <v>3.45</v>
       </c>
       <c r="R17" t="n">
-        <v>1.48</v>
+        <v>1.13</v>
       </c>
       <c r="S17" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="T17" t="n">
-        <v>1.78</v>
+        <v>2.36</v>
       </c>
       <c r="U17" t="n">
-        <v>2.22</v>
+        <v>1.6</v>
       </c>
       <c r="V17" t="n">
-        <v>2.24</v>
+        <v>1.7</v>
       </c>
       <c r="W17" t="n">
-        <v>1.23</v>
+        <v>1.28</v>
       </c>
       <c r="X17" t="n">
-        <v>18</v>
+        <v>6.4</v>
       </c>
       <c r="Y17" t="n">
-        <v>10</v>
+        <v>6.4</v>
       </c>
       <c r="Z17" t="n">
-        <v>11</v>
+        <v>12.5</v>
       </c>
       <c r="AA17" t="n">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="AB17" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AC17" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AD17" t="n">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="AE17" t="n">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="AF17" t="n">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="AG17" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AH17" t="n">
-        <v>18.5</v>
+        <v>34</v>
       </c>
       <c r="AI17" t="n">
-        <v>30</v>
+        <v>480</v>
       </c>
       <c r="AJ17" t="n">
-        <v>120</v>
+        <v>500</v>
       </c>
       <c r="AK17" t="n">
-        <v>60</v>
+        <v>95</v>
       </c>
       <c r="AL17" t="n">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="AM17" t="n">
-        <v>95</v>
+        <v>500</v>
       </c>
       <c r="AN17" t="n">
-        <v>70</v>
+        <v>600</v>
       </c>
       <c r="AO17" t="n">
-        <v>9.4</v>
+        <v>55</v>
       </c>
     </row>
     <row r="18">
@@ -2813,132 +2813,132 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>14:45:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Feyenoord</t>
+          <t>Red Bull Salzburg</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Sturm Graz</t>
+          <t>FC Basel</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1.46</v>
+        <v>2.16</v>
       </c>
       <c r="G18" t="n">
-        <v>1.47</v>
+        <v>2.18</v>
       </c>
       <c r="H18" t="n">
-        <v>7.2</v>
+        <v>3.4</v>
       </c>
       <c r="I18" t="n">
-        <v>7.6</v>
+        <v>3.45</v>
       </c>
       <c r="J18" t="n">
-        <v>5.4</v>
+        <v>4</v>
       </c>
       <c r="K18" t="n">
-        <v>5.6</v>
+        <v>4.1</v>
       </c>
       <c r="L18" t="n">
-        <v>1.24</v>
+        <v>1.29</v>
       </c>
       <c r="M18" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N18" t="n">
-        <v>7.4</v>
+        <v>6.4</v>
       </c>
       <c r="O18" t="n">
-        <v>1.14</v>
+        <v>1.18</v>
       </c>
       <c r="P18" t="n">
-        <v>3.15</v>
+        <v>2.76</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.44</v>
+        <v>1.55</v>
       </c>
       <c r="R18" t="n">
-        <v>1.88</v>
+        <v>1.73</v>
       </c>
       <c r="S18" t="n">
-        <v>2.1</v>
+        <v>2.34</v>
       </c>
       <c r="T18" t="n">
-        <v>1.66</v>
+        <v>1.53</v>
       </c>
       <c r="U18" t="n">
-        <v>2.42</v>
+        <v>2.8</v>
       </c>
       <c r="V18" t="n">
-        <v>1.15</v>
+        <v>1.4</v>
       </c>
       <c r="W18" t="n">
-        <v>3.1</v>
+        <v>1.84</v>
       </c>
       <c r="X18" t="n">
+        <v>26</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>21</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>28</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>55</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>15</v>
+      </c>
+      <c r="AE18" t="n">
         <v>32</v>
       </c>
-      <c r="Y18" t="n">
-        <v>38</v>
-      </c>
-      <c r="Z18" t="n">
-        <v>70</v>
-      </c>
-      <c r="AA18" t="n">
-        <v>180</v>
-      </c>
-      <c r="AB18" t="n">
+      <c r="AF18" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AH18" t="n">
         <v>14</v>
       </c>
-      <c r="AC18" t="n">
-        <v>13</v>
-      </c>
-      <c r="AD18" t="n">
-        <v>27</v>
-      </c>
-      <c r="AE18" t="n">
-        <v>75</v>
-      </c>
-      <c r="AF18" t="n">
-        <v>12</v>
-      </c>
-      <c r="AG18" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AH18" t="n">
+      <c r="AI18" t="n">
+        <v>34</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>28</v>
+      </c>
+      <c r="AK18" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AL18" t="n">
+        <v>25</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>46</v>
+      </c>
+      <c r="AN18" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AO18" t="n">
         <v>19</v>
-      </c>
-      <c r="AI18" t="n">
-        <v>65</v>
-      </c>
-      <c r="AJ18" t="n">
-        <v>14</v>
-      </c>
-      <c r="AK18" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AL18" t="n">
-        <v>24</v>
-      </c>
-      <c r="AM18" t="n">
-        <v>70</v>
-      </c>
-      <c r="AN18" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="AO18" t="n">
-        <v>65</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Egyptian Premier</t>
+          <t>UEFA Europa League</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -2948,126 +2948,126 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Ismaily</t>
+          <t>Dinamo Zagreb</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Al Mokawloon</t>
+          <t>FCSB</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>3.75</v>
+        <v>1.75</v>
       </c>
       <c r="G19" t="n">
-        <v>3.95</v>
+        <v>1.77</v>
       </c>
       <c r="H19" t="n">
-        <v>2.56</v>
+        <v>5.3</v>
       </c>
       <c r="I19" t="n">
-        <v>2.64</v>
+        <v>5.4</v>
       </c>
       <c r="J19" t="n">
-        <v>2.78</v>
+        <v>4</v>
       </c>
       <c r="K19" t="n">
-        <v>2.84</v>
+        <v>4.2</v>
       </c>
       <c r="L19" t="n">
-        <v>1.74</v>
+        <v>1.44</v>
       </c>
       <c r="M19" t="n">
-        <v>1.19</v>
+        <v>1.07</v>
       </c>
       <c r="N19" t="n">
-        <v>2.24</v>
+        <v>3.85</v>
       </c>
       <c r="O19" t="n">
-        <v>1.76</v>
+        <v>1.33</v>
       </c>
       <c r="P19" t="n">
-        <v>1.37</v>
+        <v>1.97</v>
       </c>
       <c r="Q19" t="n">
-        <v>3.45</v>
+        <v>2</v>
       </c>
       <c r="R19" t="n">
-        <v>1.12</v>
+        <v>1.36</v>
       </c>
       <c r="S19" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="T19" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="U19" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="V19" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="W19" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="X19" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>40</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>140</v>
+      </c>
+      <c r="AB19" t="n">
         <v>8.199999999999999</v>
       </c>
-      <c r="T19" t="n">
-        <v>2.46</v>
-      </c>
-      <c r="U19" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="V19" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="W19" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="X19" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="Y19" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="Z19" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AA19" t="n">
-        <v>44</v>
-      </c>
-      <c r="AB19" t="n">
+      <c r="AC19" t="n">
         <v>8.800000000000001</v>
       </c>
-      <c r="AC19" t="n">
-        <v>7</v>
-      </c>
       <c r="AD19" t="n">
-        <v>14.5</v>
+        <v>21</v>
       </c>
       <c r="AE19" t="n">
-        <v>48</v>
+        <v>75</v>
       </c>
       <c r="AF19" t="n">
-        <v>23</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AG19" t="n">
-        <v>19</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AH19" t="n">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="AI19" t="n">
-        <v>260</v>
+        <v>80</v>
       </c>
       <c r="AJ19" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AK19" t="n">
+        <v>18</v>
+      </c>
+      <c r="AL19" t="n">
+        <v>38</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>120</v>
+      </c>
+      <c r="AN19" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AO19" t="n">
         <v>95</v>
-      </c>
-      <c r="AK19" t="n">
-        <v>80</v>
-      </c>
-      <c r="AL19" t="n">
-        <v>150</v>
-      </c>
-      <c r="AM19" t="n">
-        <v>330</v>
-      </c>
-      <c r="AN19" t="n">
-        <v>140</v>
-      </c>
-      <c r="AO19" t="n">
-        <v>65</v>
       </c>
     </row>
     <row r="20">
@@ -3088,121 +3088,121 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Red Bull Salzburg</t>
+          <t>Braga</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>FC Basel</t>
+          <t>Nottm Forest</t>
         </is>
       </c>
       <c r="F20" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="G20" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="H20" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="I20" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="J20" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="K20" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="L20" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="M20" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="N20" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="O20" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="P20" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="Q20" t="n">
         <v>2.22</v>
       </c>
-      <c r="G20" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="H20" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="I20" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="J20" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="K20" t="n">
-        <v>4</v>
-      </c>
-      <c r="L20" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="M20" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N20" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="O20" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="P20" t="n">
-        <v>2.72</v>
-      </c>
-      <c r="Q20" t="n">
+      <c r="R20" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="S20" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="T20" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="U20" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="V20" t="n">
         <v>1.57</v>
       </c>
-      <c r="R20" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="S20" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="T20" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="U20" t="n">
-        <v>2.74</v>
-      </c>
-      <c r="V20" t="n">
-        <v>1.42</v>
-      </c>
       <c r="W20" t="n">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="X20" t="n">
-        <v>26</v>
+        <v>11.5</v>
       </c>
       <c r="Y20" t="n">
-        <v>19.5</v>
+        <v>9.6</v>
       </c>
       <c r="Z20" t="n">
-        <v>27</v>
+        <v>16.5</v>
       </c>
       <c r="AA20" t="n">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="AB20" t="n">
-        <v>15.5</v>
+        <v>10.5</v>
       </c>
       <c r="AC20" t="n">
-        <v>9.4</v>
+        <v>7.2</v>
       </c>
       <c r="AD20" t="n">
-        <v>14.5</v>
+        <v>12.5</v>
       </c>
       <c r="AE20" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AF20" t="n">
-        <v>17.5</v>
+        <v>18.5</v>
       </c>
       <c r="AG20" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AH20" t="n">
-        <v>14</v>
+        <v>18.5</v>
       </c>
       <c r="AI20" t="n">
+        <v>48</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>48</v>
+      </c>
+      <c r="AK20" t="n">
+        <v>36</v>
+      </c>
+      <c r="AL20" t="n">
+        <v>50</v>
+      </c>
+      <c r="AM20" t="n">
+        <v>110</v>
+      </c>
+      <c r="AN20" t="n">
         <v>34</v>
       </c>
-      <c r="AJ20" t="n">
+      <c r="AO20" t="n">
         <v>29</v>
-      </c>
-      <c r="AK20" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AL20" t="n">
-        <v>25</v>
-      </c>
-      <c r="AM20" t="n">
-        <v>50</v>
-      </c>
-      <c r="AN20" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AO20" t="n">
-        <v>19.5</v>
       </c>
     </row>
     <row r="21">
@@ -3223,121 +3223,121 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Dinamo Zagreb</t>
+          <t>Roma</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>FCSB</t>
+          <t>Stuttgart</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>1.75</v>
+        <v>2.22</v>
       </c>
       <c r="G21" t="n">
-        <v>1.76</v>
+        <v>2.24</v>
       </c>
       <c r="H21" t="n">
-        <v>5.3</v>
+        <v>3.7</v>
       </c>
       <c r="I21" t="n">
-        <v>5.4</v>
+        <v>3.75</v>
       </c>
       <c r="J21" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="K21" t="n">
-        <v>4.2</v>
+        <v>3.55</v>
       </c>
       <c r="L21" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="M21" t="n">
         <v>1.07</v>
       </c>
       <c r="N21" t="n">
-        <v>3.85</v>
+        <v>4.2</v>
       </c>
       <c r="O21" t="n">
-        <v>1.34</v>
+        <v>1.29</v>
       </c>
       <c r="P21" t="n">
-        <v>1.96</v>
+        <v>2.06</v>
       </c>
       <c r="Q21" t="n">
-        <v>2.02</v>
+        <v>1.92</v>
       </c>
       <c r="R21" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="S21" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="T21" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="U21" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="V21" t="n">
         <v>1.36</v>
       </c>
-      <c r="S21" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="T21" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="U21" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="V21" t="n">
-        <v>1.22</v>
-      </c>
       <c r="W21" t="n">
-        <v>2.3</v>
+        <v>1.8</v>
       </c>
       <c r="X21" t="n">
         <v>15</v>
       </c>
       <c r="Y21" t="n">
-        <v>17.5</v>
+        <v>15</v>
       </c>
       <c r="Z21" t="n">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="AA21" t="n">
-        <v>150</v>
+        <v>70</v>
       </c>
       <c r="AB21" t="n">
-        <v>8</v>
+        <v>10.5</v>
       </c>
       <c r="AC21" t="n">
-        <v>8.800000000000001</v>
+        <v>7.8</v>
       </c>
       <c r="AD21" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="AE21" t="n">
+        <v>40</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>16</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>48</v>
+      </c>
+      <c r="AJ21" t="n">
+        <v>27</v>
+      </c>
+      <c r="AK21" t="n">
+        <v>22</v>
+      </c>
+      <c r="AL21" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM21" t="n">
         <v>80</v>
       </c>
-      <c r="AF21" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AG21" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AH21" t="n">
-        <v>22</v>
-      </c>
-      <c r="AI21" t="n">
-        <v>80</v>
-      </c>
-      <c r="AJ21" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AK21" t="n">
-        <v>18</v>
-      </c>
-      <c r="AL21" t="n">
-        <v>38</v>
-      </c>
-      <c r="AM21" t="n">
-        <v>130</v>
-      </c>
       <c r="AN21" t="n">
-        <v>11.5</v>
+        <v>15.5</v>
       </c>
       <c r="AO21" t="n">
-        <v>95</v>
+        <v>36</v>
       </c>
     </row>
     <row r="22">
@@ -3358,121 +3358,121 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Braga</t>
+          <t>Nice</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Nottm Forest</t>
+          <t>Go Ahead Eagles</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>2.96</v>
+        <v>2.12</v>
       </c>
       <c r="G22" t="n">
-        <v>2.98</v>
+        <v>2.14</v>
       </c>
       <c r="H22" t="n">
-        <v>2.7</v>
+        <v>3.5</v>
       </c>
       <c r="I22" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="J22" t="n">
+        <v>4</v>
+      </c>
+      <c r="K22" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="L22" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="M22" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N22" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="O22" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="P22" t="n">
         <v>2.74</v>
       </c>
-      <c r="J22" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="K22" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="L22" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="M22" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="N22" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="O22" t="n">
+      <c r="Q22" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="R22" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="S22" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="T22" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="U22" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="V22" t="n">
         <v>1.4</v>
       </c>
-      <c r="P22" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="R22" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="S22" t="n">
-        <v>4</v>
-      </c>
-      <c r="T22" t="n">
+      <c r="W22" t="n">
         <v>1.87</v>
       </c>
-      <c r="U22" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="V22" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="W22" t="n">
-        <v>1.5</v>
-      </c>
       <c r="X22" t="n">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="Y22" t="n">
-        <v>9.800000000000001</v>
+        <v>21</v>
       </c>
       <c r="Z22" t="n">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="AA22" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="AB22" t="n">
-        <v>10.5</v>
+        <v>15.5</v>
       </c>
       <c r="AC22" t="n">
-        <v>7.4</v>
+        <v>9.6</v>
       </c>
       <c r="AD22" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AE22" t="n">
         <v>32</v>
       </c>
       <c r="AF22" t="n">
-        <v>19</v>
+        <v>16.5</v>
       </c>
       <c r="AG22" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AH22" t="n">
+        <v>14</v>
+      </c>
+      <c r="AI22" t="n">
+        <v>34</v>
+      </c>
+      <c r="AJ22" t="n">
+        <v>27</v>
+      </c>
+      <c r="AK22" t="n">
         <v>18</v>
       </c>
-      <c r="AI22" t="n">
-        <v>46</v>
-      </c>
-      <c r="AJ22" t="n">
-        <v>46</v>
-      </c>
-      <c r="AK22" t="n">
-        <v>34</v>
-      </c>
       <c r="AL22" t="n">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="AM22" t="n">
-        <v>110</v>
+        <v>50</v>
       </c>
       <c r="AN22" t="n">
-        <v>34</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AO22" t="n">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23">
@@ -3493,121 +3493,121 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Roma</t>
+          <t>Ferencvaros</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Stuttgart</t>
+          <t>Panathinaikos</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>2.2</v>
+        <v>2.44</v>
       </c>
       <c r="G23" t="n">
-        <v>2.22</v>
+        <v>2.46</v>
       </c>
       <c r="H23" t="n">
-        <v>3.55</v>
+        <v>3.3</v>
       </c>
       <c r="I23" t="n">
-        <v>3.65</v>
+        <v>3.4</v>
       </c>
       <c r="J23" t="n">
-        <v>3.7</v>
+        <v>3.4</v>
       </c>
       <c r="K23" t="n">
-        <v>3.8</v>
+        <v>3.45</v>
       </c>
       <c r="L23" t="n">
-        <v>1.41</v>
+        <v>1.47</v>
       </c>
       <c r="M23" t="n">
-        <v>1.06</v>
+        <v>1.09</v>
       </c>
       <c r="N23" t="n">
-        <v>4.2</v>
+        <v>3.45</v>
       </c>
       <c r="O23" t="n">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="P23" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="R23" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="S23" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="T23" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="U23" t="n">
         <v>2.1</v>
       </c>
-      <c r="Q23" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="R23" t="n">
+      <c r="V23" t="n">
         <v>1.42</v>
       </c>
-      <c r="S23" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="T23" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="U23" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="V23" t="n">
-        <v>1.37</v>
-      </c>
       <c r="W23" t="n">
-        <v>1.81</v>
+        <v>1.68</v>
       </c>
       <c r="X23" t="n">
-        <v>16.5</v>
+        <v>11.5</v>
       </c>
       <c r="Y23" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="Z23" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="AA23" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AB23" t="n">
-        <v>11</v>
+        <v>9.4</v>
       </c>
       <c r="AC23" t="n">
-        <v>8</v>
+        <v>7.4</v>
       </c>
       <c r="AD23" t="n">
         <v>14</v>
       </c>
       <c r="AE23" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AF23" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AG23" t="n">
-        <v>10.5</v>
+        <v>11.5</v>
       </c>
       <c r="AH23" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AI23" t="n">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="AJ23" t="n">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="AK23" t="n">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="AL23" t="n">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="AM23" t="n">
-        <v>80</v>
+        <v>110</v>
       </c>
       <c r="AN23" t="n">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="AO23" t="n">
-        <v>34</v>
+        <v>42</v>
       </c>
     </row>
     <row r="24">
@@ -3628,121 +3628,121 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Nice</t>
+          <t>Celta Vigo</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Go Ahead Eagles</t>
+          <t>Lille</t>
         </is>
       </c>
       <c r="F24" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="G24" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="H24" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="I24" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="J24" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="K24" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="L24" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="M24" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N24" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="O24" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P24" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="Q24" t="n">
         <v>2.1</v>
       </c>
-      <c r="G24" t="n">
+      <c r="R24" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="S24" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="T24" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="U24" t="n">
         <v>2.12</v>
       </c>
-      <c r="H24" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="I24" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="J24" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="K24" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="L24" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="M24" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N24" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="O24" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="P24" t="n">
-        <v>2.74</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="R24" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="S24" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="T24" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="U24" t="n">
-        <v>2.78</v>
-      </c>
       <c r="V24" t="n">
-        <v>1.39</v>
+        <v>1.43</v>
       </c>
       <c r="W24" t="n">
-        <v>1.89</v>
+        <v>1.67</v>
       </c>
       <c r="X24" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>55</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>38</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG24" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AH24" t="n">
+        <v>18</v>
+      </c>
+      <c r="AI24" t="n">
+        <v>50</v>
+      </c>
+      <c r="AJ24" t="n">
+        <v>34</v>
+      </c>
+      <c r="AK24" t="n">
         <v>27</v>
       </c>
-      <c r="Y24" t="n">
-        <v>21</v>
-      </c>
-      <c r="Z24" t="n">
-        <v>29</v>
-      </c>
-      <c r="AA24" t="n">
-        <v>60</v>
-      </c>
-      <c r="AB24" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AC24" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AD24" t="n">
-        <v>15</v>
-      </c>
-      <c r="AE24" t="n">
-        <v>32</v>
-      </c>
-      <c r="AF24" t="n">
-        <v>17</v>
-      </c>
-      <c r="AG24" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH24" t="n">
-        <v>14</v>
-      </c>
-      <c r="AI24" t="n">
-        <v>34</v>
-      </c>
-      <c r="AJ24" t="n">
-        <v>27</v>
-      </c>
-      <c r="AK24" t="n">
-        <v>18</v>
-      </c>
       <c r="AL24" t="n">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="AM24" t="n">
-        <v>50</v>
+        <v>95</v>
       </c>
       <c r="AN24" t="n">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="AO24" t="n">
-        <v>21</v>
+        <v>38</v>
       </c>
     </row>
     <row r="25">
@@ -3763,19 +3763,19 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Ferencvaros</t>
+          <t>Rangers</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Panathinaikos</t>
+          <t>Ludogorets</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>2.42</v>
+        <v>2.24</v>
       </c>
       <c r="G25" t="n">
-        <v>2.44</v>
+        <v>2.28</v>
       </c>
       <c r="H25" t="n">
         <v>3.35</v>
@@ -3784,106 +3784,106 @@
         <v>3.4</v>
       </c>
       <c r="J25" t="n">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="K25" t="n">
-        <v>3.45</v>
+        <v>3.85</v>
       </c>
       <c r="L25" t="n">
-        <v>1.47</v>
+        <v>1.37</v>
       </c>
       <c r="M25" t="n">
-        <v>1.09</v>
+        <v>1.06</v>
       </c>
       <c r="N25" t="n">
-        <v>3.45</v>
+        <v>4.4</v>
       </c>
       <c r="O25" t="n">
-        <v>1.39</v>
+        <v>1.28</v>
       </c>
       <c r="P25" t="n">
-        <v>1.85</v>
+        <v>2.18</v>
       </c>
       <c r="Q25" t="n">
-        <v>2.16</v>
+        <v>1.83</v>
       </c>
       <c r="R25" t="n">
-        <v>1.32</v>
+        <v>1.46</v>
       </c>
       <c r="S25" t="n">
-        <v>3.95</v>
+        <v>3.1</v>
       </c>
       <c r="T25" t="n">
-        <v>1.87</v>
+        <v>1.71</v>
       </c>
       <c r="U25" t="n">
-        <v>2.1</v>
+        <v>2.32</v>
       </c>
       <c r="V25" t="n">
         <v>1.41</v>
       </c>
       <c r="W25" t="n">
-        <v>1.69</v>
+        <v>1.78</v>
       </c>
       <c r="X25" t="n">
-        <v>12</v>
+        <v>17.5</v>
       </c>
       <c r="Y25" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="Z25" t="n">
+        <v>24</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>55</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AE25" t="n">
+        <v>34</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG25" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH25" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AI25" t="n">
+        <v>42</v>
+      </c>
+      <c r="AJ25" t="n">
+        <v>29</v>
+      </c>
+      <c r="AK25" t="n">
         <v>22</v>
       </c>
-      <c r="AA25" t="n">
-        <v>60</v>
-      </c>
-      <c r="AB25" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="AC25" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AD25" t="n">
-        <v>14</v>
-      </c>
-      <c r="AE25" t="n">
-        <v>40</v>
-      </c>
-      <c r="AF25" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AG25" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AH25" t="n">
-        <v>18</v>
-      </c>
-      <c r="AI25" t="n">
-        <v>55</v>
-      </c>
-      <c r="AJ25" t="n">
-        <v>34</v>
-      </c>
-      <c r="AK25" t="n">
-        <v>28</v>
-      </c>
       <c r="AL25" t="n">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="AM25" t="n">
-        <v>110</v>
+        <v>75</v>
       </c>
       <c r="AN25" t="n">
-        <v>23</v>
+        <v>15.5</v>
       </c>
       <c r="AO25" t="n">
-        <v>40</v>
+        <v>29</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>UEFA Europa League</t>
+          <t>Argentinian Primera Division</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -3898,121 +3898,121 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Celta Vigo</t>
+          <t>Aldosivi</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Lille</t>
+          <t>Defensa y Justicia</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>2.46</v>
+        <v>2.8</v>
       </c>
       <c r="G26" t="n">
-        <v>2.48</v>
+        <v>2.86</v>
       </c>
       <c r="H26" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="I26" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="J26" t="n">
-        <v>3.45</v>
+        <v>3</v>
       </c>
       <c r="K26" t="n">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="L26" t="n">
-        <v>1.44</v>
+        <v>1.61</v>
       </c>
       <c r="M26" t="n">
-        <v>1.08</v>
+        <v>1.13</v>
       </c>
       <c r="N26" t="n">
-        <v>3.65</v>
+        <v>2.72</v>
       </c>
       <c r="O26" t="n">
-        <v>1.36</v>
+        <v>1.55</v>
       </c>
       <c r="P26" t="n">
-        <v>1.89</v>
+        <v>1.57</v>
       </c>
       <c r="Q26" t="n">
-        <v>2.1</v>
+        <v>2.72</v>
       </c>
       <c r="R26" t="n">
-        <v>1.34</v>
+        <v>1.2</v>
       </c>
       <c r="S26" t="n">
-        <v>3.75</v>
+        <v>5.7</v>
       </c>
       <c r="T26" t="n">
-        <v>1.86</v>
+        <v>2.12</v>
       </c>
       <c r="U26" t="n">
-        <v>2.12</v>
+        <v>1.84</v>
       </c>
       <c r="V26" t="n">
-        <v>1.43</v>
+        <v>1.45</v>
       </c>
       <c r="W26" t="n">
-        <v>1.67</v>
+        <v>1.53</v>
       </c>
       <c r="X26" t="n">
-        <v>13</v>
+        <v>8.6</v>
       </c>
       <c r="Y26" t="n">
-        <v>12</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Z26" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AA26" t="n">
-        <v>60</v>
+        <v>160</v>
       </c>
       <c r="AB26" t="n">
-        <v>9.800000000000001</v>
+        <v>8.4</v>
       </c>
       <c r="AC26" t="n">
-        <v>7.6</v>
+        <v>7</v>
       </c>
       <c r="AD26" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AE26" t="n">
+        <v>70</v>
+      </c>
+      <c r="AF26" t="n">
+        <v>17</v>
+      </c>
+      <c r="AG26" t="n">
         <v>13.5</v>
       </c>
-      <c r="AE26" t="n">
-        <v>38</v>
-      </c>
-      <c r="AF26" t="n">
-        <v>15</v>
-      </c>
-      <c r="AG26" t="n">
-        <v>11.5</v>
-      </c>
       <c r="AH26" t="n">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="AI26" t="n">
+        <v>460</v>
+      </c>
+      <c r="AJ26" t="n">
         <v>48</v>
       </c>
-      <c r="AJ26" t="n">
-        <v>34</v>
-      </c>
       <c r="AK26" t="n">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="AL26" t="n">
-        <v>40</v>
+        <v>460</v>
       </c>
       <c r="AM26" t="n">
-        <v>95</v>
+        <v>500</v>
       </c>
       <c r="AN26" t="n">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="AO26" t="n">
-        <v>36</v>
+        <v>600</v>
       </c>
     </row>
     <row r="27">
@@ -4033,121 +4033,121 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Rangers</t>
+          <t>FC Utrecht</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Ludogorets</t>
+          <t>Genk</t>
         </is>
       </c>
       <c r="F27" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="G27" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="H27" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="I27" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="J27" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="K27" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="L27" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="M27" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N27" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="O27" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="P27" t="n">
         <v>2.04</v>
       </c>
-      <c r="G27" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="H27" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="I27" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="J27" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="K27" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="L27" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="M27" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N27" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="O27" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="P27" t="n">
-        <v>2.16</v>
-      </c>
       <c r="Q27" t="n">
-        <v>1.85</v>
+        <v>1.92</v>
       </c>
       <c r="R27" t="n">
-        <v>1.45</v>
+        <v>1.41</v>
       </c>
       <c r="S27" t="n">
-        <v>3.15</v>
+        <v>3.35</v>
       </c>
       <c r="T27" t="n">
-        <v>1.76</v>
+        <v>1.73</v>
       </c>
       <c r="U27" t="n">
-        <v>2.24</v>
+        <v>2.3</v>
       </c>
       <c r="V27" t="n">
-        <v>1.33</v>
+        <v>1.68</v>
       </c>
       <c r="W27" t="n">
-        <v>1.94</v>
+        <v>1.44</v>
       </c>
       <c r="X27" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="Y27" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>34</v>
+      </c>
+      <c r="AB27" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AC27" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AD27" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE27" t="n">
+        <v>25</v>
+      </c>
+      <c r="AF27" t="n">
+        <v>22</v>
+      </c>
+      <c r="AG27" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AH27" t="n">
         <v>16</v>
       </c>
-      <c r="Z27" t="n">
-        <v>29</v>
-      </c>
-      <c r="AA27" t="n">
-        <v>75</v>
-      </c>
-      <c r="AB27" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AC27" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="AD27" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AE27" t="n">
-        <v>44</v>
-      </c>
-      <c r="AF27" t="n">
-        <v>13</v>
-      </c>
-      <c r="AG27" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AH27" t="n">
-        <v>17</v>
-      </c>
       <c r="AI27" t="n">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="AJ27" t="n">
-        <v>24</v>
+        <v>55</v>
       </c>
       <c r="AK27" t="n">
-        <v>19.5</v>
+        <v>34</v>
       </c>
       <c r="AL27" t="n">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="AM27" t="n">
         <v>80</v>
       </c>
       <c r="AN27" t="n">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="AO27" t="n">
-        <v>40</v>
+        <v>18.5</v>
       </c>
     </row>
     <row r="28">
@@ -4163,17 +4163,17 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>20:00:00</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Aldosivi</t>
+          <t>Banfield</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Defensa y Justicia</t>
+          <t>Huracan</t>
         </is>
       </c>
       <c r="F28" t="n">
@@ -4183,112 +4183,112 @@
         <v>2.88</v>
       </c>
       <c r="H28" t="n">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="I28" t="n">
-        <v>3.2</v>
+        <v>3.45</v>
       </c>
       <c r="J28" t="n">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="K28" t="n">
-        <v>3.1</v>
+        <v>2.88</v>
       </c>
       <c r="L28" t="n">
-        <v>1.61</v>
+        <v>1.77</v>
       </c>
       <c r="M28" t="n">
-        <v>1.13</v>
+        <v>1.19</v>
       </c>
       <c r="N28" t="n">
-        <v>2.74</v>
+        <v>2.16</v>
       </c>
       <c r="O28" t="n">
-        <v>1.55</v>
+        <v>1.83</v>
       </c>
       <c r="P28" t="n">
-        <v>1.57</v>
+        <v>1.36</v>
       </c>
       <c r="Q28" t="n">
-        <v>2.7</v>
+        <v>3.6</v>
       </c>
       <c r="R28" t="n">
-        <v>1.2</v>
+        <v>1.11</v>
       </c>
       <c r="S28" t="n">
-        <v>5.6</v>
+        <v>8.6</v>
       </c>
       <c r="T28" t="n">
-        <v>2.1</v>
+        <v>2.58</v>
       </c>
       <c r="U28" t="n">
-        <v>1.85</v>
+        <v>1.59</v>
       </c>
       <c r="V28" t="n">
-        <v>1.46</v>
+        <v>1.4</v>
       </c>
       <c r="W28" t="n">
         <v>1.53</v>
       </c>
       <c r="X28" t="n">
-        <v>8.800000000000001</v>
+        <v>6.4</v>
       </c>
       <c r="Y28" t="n">
-        <v>9.199999999999999</v>
+        <v>7.8</v>
       </c>
       <c r="Z28" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="AA28" t="n">
         <v>160</v>
       </c>
       <c r="AB28" t="n">
-        <v>8.6</v>
+        <v>6.8</v>
       </c>
       <c r="AC28" t="n">
         <v>7</v>
       </c>
       <c r="AD28" t="n">
-        <v>14.5</v>
+        <v>18</v>
       </c>
       <c r="AE28" t="n">
-        <v>70</v>
+        <v>150</v>
       </c>
       <c r="AF28" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AG28" t="n">
-        <v>13.5</v>
+        <v>15.5</v>
       </c>
       <c r="AH28" t="n">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="AI28" t="n">
-        <v>460</v>
+        <v>260</v>
       </c>
       <c r="AJ28" t="n">
         <v>55</v>
       </c>
       <c r="AK28" t="n">
-        <v>44</v>
+        <v>75</v>
       </c>
       <c r="AL28" t="n">
-        <v>460</v>
+        <v>260</v>
       </c>
       <c r="AM28" t="n">
         <v>500</v>
       </c>
       <c r="AN28" t="n">
-        <v>48</v>
+        <v>240</v>
       </c>
       <c r="AO28" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>UEFA Europa League</t>
+          <t>Argentinian Primera Division</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -4298,126 +4298,126 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>20:00:00</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>FC Utrecht</t>
+          <t>Union Santa Fe</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Genk</t>
+          <t>CA Platense</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>3.2</v>
+        <v>2.18</v>
       </c>
       <c r="G29" t="n">
-        <v>3.25</v>
+        <v>2.24</v>
       </c>
       <c r="H29" t="n">
-        <v>2.44</v>
+        <v>4.9</v>
       </c>
       <c r="I29" t="n">
-        <v>2.46</v>
+        <v>5</v>
       </c>
       <c r="J29" t="n">
-        <v>3.55</v>
+        <v>2.84</v>
       </c>
       <c r="K29" t="n">
-        <v>3.6</v>
+        <v>2.94</v>
       </c>
       <c r="L29" t="n">
-        <v>1.41</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>1.07</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>4.1</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>1.3</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>2.04</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>1.93</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>1.41</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>3.35</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>1.73</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>2.3</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>1.68</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>1.44</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>11.5</v>
+        <v>0</v>
       </c>
       <c r="Z29" t="n">
-        <v>16.5</v>
+        <v>0</v>
       </c>
       <c r="AA29" t="n">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="AB29" t="n">
-        <v>13.5</v>
+        <v>0</v>
       </c>
       <c r="AC29" t="n">
-        <v>7.8</v>
+        <v>0</v>
       </c>
       <c r="AD29" t="n">
-        <v>11.5</v>
+        <v>0</v>
       </c>
       <c r="AE29" t="n">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="AF29" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="AG29" t="n">
-        <v>13.5</v>
+        <v>0</v>
       </c>
       <c r="AH29" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="AI29" t="n">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="AJ29" t="n">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="AK29" t="n">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="AL29" t="n">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="AM29" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="AN29" t="n">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="AO29" t="n">
-        <v>19.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -4433,126 +4433,126 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>20:00:00</t>
+          <t>22:15:00</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Banfield</t>
+          <t>Instituto</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Huracan</t>
+          <t>Velez Sarsfield</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>2.82</v>
+        <v>2.98</v>
       </c>
       <c r="G30" t="n">
-        <v>2.92</v>
+        <v>3.1</v>
       </c>
       <c r="H30" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="I30" t="n">
-        <v>3.4</v>
+        <v>3.15</v>
       </c>
       <c r="J30" t="n">
-        <v>2.82</v>
+        <v>2.86</v>
       </c>
       <c r="K30" t="n">
-        <v>2.9</v>
+        <v>2.96</v>
       </c>
       <c r="L30" t="n">
-        <v>1.77</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>1.19</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>2.16</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>1.83</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>1.36</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>3.6</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>1.11</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>8.800000000000001</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>2.54</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>1.59</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>1.41</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>1.52</v>
+        <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>6.2</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>7.8</v>
+        <v>0</v>
       </c>
       <c r="Z30" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="AA30" t="n">
-        <v>160</v>
+        <v>0</v>
       </c>
       <c r="AB30" t="n">
-        <v>6.8</v>
+        <v>0</v>
       </c>
       <c r="AC30" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AD30" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="AE30" t="n">
-        <v>140</v>
+        <v>0</v>
       </c>
       <c r="AF30" t="n">
-        <v>16.5</v>
+        <v>0</v>
       </c>
       <c r="AG30" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="AH30" t="n">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="AI30" t="n">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="AJ30" t="n">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="AK30" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="AL30" t="n">
-        <v>260</v>
+        <v>0</v>
       </c>
       <c r="AM30" t="n">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="AN30" t="n">
-        <v>240</v>
+        <v>0</v>
       </c>
       <c r="AO30" t="n">
-        <v>250</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -4568,395 +4568,125 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>20:00:00</t>
+          <t>22:15:00</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Union Santa Fe</t>
+          <t>Central Cordoba (SdE)</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>CA Platense</t>
+          <t>Gimnasia Mendoza</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>2.2</v>
+        <v>2.28</v>
       </c>
       <c r="G31" t="n">
-        <v>2.26</v>
+        <v>2.3</v>
       </c>
       <c r="H31" t="n">
-        <v>4.9</v>
+        <v>4.4</v>
       </c>
       <c r="I31" t="n">
-        <v>5</v>
+        <v>4.6</v>
       </c>
       <c r="J31" t="n">
-        <v>2.86</v>
+        <v>2.94</v>
       </c>
       <c r="K31" t="n">
-        <v>2.94</v>
+        <v>2.98</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>1.72</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>1.41</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>1.14</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>7.6</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>2.48</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>1.76</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>6.6</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Z31" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AA31" t="n">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="AB31" t="n">
-        <v>0</v>
+        <v>6.2</v>
       </c>
       <c r="AC31" t="n">
-        <v>0</v>
+        <v>7.2</v>
       </c>
       <c r="AD31" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AE31" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AF31" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AG31" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AH31" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AI31" t="n">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="AJ31" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AK31" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="AL31" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="AM31" t="n">
-        <v>0</v>
+        <v>320</v>
       </c>
       <c r="AN31" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="AO31" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>Argentinian Primera Division</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>2026-01-22</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>22:15:00</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>Instituto</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>Velez Sarsfield</t>
-        </is>
-      </c>
-      <c r="F32" t="n">
-        <v>2.98</v>
-      </c>
-      <c r="G32" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="H32" t="n">
-        <v>3</v>
-      </c>
-      <c r="I32" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="J32" t="n">
-        <v>2.86</v>
-      </c>
-      <c r="K32" t="n">
-        <v>2.96</v>
-      </c>
-      <c r="L32" t="n">
-        <v>0</v>
-      </c>
-      <c r="M32" t="n">
-        <v>0</v>
-      </c>
-      <c r="N32" t="n">
-        <v>0</v>
-      </c>
-      <c r="O32" t="n">
-        <v>0</v>
-      </c>
-      <c r="P32" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>0</v>
-      </c>
-      <c r="R32" t="n">
-        <v>0</v>
-      </c>
-      <c r="S32" t="n">
-        <v>0</v>
-      </c>
-      <c r="T32" t="n">
-        <v>0</v>
-      </c>
-      <c r="U32" t="n">
-        <v>0</v>
-      </c>
-      <c r="V32" t="n">
-        <v>0</v>
-      </c>
-      <c r="W32" t="n">
-        <v>0</v>
-      </c>
-      <c r="X32" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y32" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z32" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA32" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB32" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC32" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD32" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE32" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF32" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG32" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH32" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI32" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ32" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK32" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL32" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM32" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN32" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO32" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>Argentinian Primera Division</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>2026-01-22</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>22:15:00</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>Central Cordoba (SdE)</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>Gimnasia Mendoza</t>
-        </is>
-      </c>
-      <c r="F33" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="G33" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="H33" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="I33" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="J33" t="n">
-        <v>2.96</v>
-      </c>
-      <c r="K33" t="n">
-        <v>2.98</v>
-      </c>
-      <c r="L33" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="M33" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="N33" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="O33" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="P33" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="Q33" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="R33" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="S33" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="T33" t="n">
-        <v>2.48</v>
-      </c>
-      <c r="U33" t="n">
-        <v>1.61</v>
-      </c>
-      <c r="V33" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="W33" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="X33" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="Y33" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="Z33" t="n">
-        <v>30</v>
-      </c>
-      <c r="AA33" t="n">
-        <v>130</v>
-      </c>
-      <c r="AB33" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="AC33" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="AD33" t="n">
-        <v>21</v>
-      </c>
-      <c r="AE33" t="n">
-        <v>100</v>
-      </c>
-      <c r="AF33" t="n">
-        <v>12</v>
-      </c>
-      <c r="AG33" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AH33" t="n">
-        <v>32</v>
-      </c>
-      <c r="AI33" t="n">
-        <v>160</v>
-      </c>
-      <c r="AJ33" t="n">
-        <v>32</v>
-      </c>
-      <c r="AK33" t="n">
-        <v>40</v>
-      </c>
-      <c r="AL33" t="n">
-        <v>90</v>
-      </c>
-      <c r="AM33" t="n">
-        <v>320</v>
-      </c>
-      <c r="AN33" t="n">
-        <v>42</v>
-      </c>
-      <c r="AO33" t="n">
         <v>180</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-22.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-22.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO31"/>
+  <dimension ref="A1:AO27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -643,7 +643,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Saudi 1st Division</t>
+          <t>Saudi Professional League</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -653,75 +653,75 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>11:10:00</t>
+          <t>14:30:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Al-Ula FC</t>
+          <t>Al-Quadisiya (KSA)</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Al-Wahda (KSA)</t>
+          <t>Al-Ittihad</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.55</v>
+        <v>2.62</v>
       </c>
       <c r="G2" t="n">
-        <v>1.56</v>
+        <v>2.66</v>
       </c>
       <c r="H2" t="n">
-        <v>6.2</v>
+        <v>3.35</v>
       </c>
       <c r="I2" t="n">
-        <v>7.8</v>
+        <v>3.5</v>
       </c>
       <c r="J2" t="n">
-        <v>4.7</v>
+        <v>3</v>
       </c>
       <c r="K2" t="n">
-        <v>5.4</v>
+        <v>3.15</v>
       </c>
       <c r="L2" t="n">
-        <v>1.02</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>1.04</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>5.6</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="Q2" t="n">
         <v>1.17</v>
       </c>
-      <c r="P2" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>1.02</v>
-      </c>
       <c r="R2" t="n">
-        <v>1.07</v>
+        <v>2.26</v>
       </c>
       <c r="S2" t="n">
-        <v>1.02</v>
+        <v>1.75</v>
       </c>
       <c r="T2" t="n">
-        <v>1.6</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>2.14</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>1.02</v>
+        <v>1.4</v>
       </c>
       <c r="W2" t="n">
-        <v>1.01</v>
+        <v>1.58</v>
       </c>
       <c r="X2" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="Y2" t="n">
         <v>1000</v>
@@ -730,55 +730,55 @@
         <v>1000</v>
       </c>
       <c r="AA2" t="n">
-        <v>190</v>
+        <v>1000</v>
       </c>
       <c r="AB2" t="n">
         <v>1000</v>
       </c>
       <c r="AC2" t="n">
-        <v>1000</v>
+        <v>7.2</v>
       </c>
       <c r="AD2" t="n">
-        <v>970</v>
+        <v>8</v>
       </c>
       <c r="AE2" t="n">
-        <v>990</v>
+        <v>18.5</v>
       </c>
       <c r="AF2" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AG2" t="n">
-        <v>960</v>
+        <v>6.8</v>
       </c>
       <c r="AH2" t="n">
-        <v>1000</v>
+        <v>7.2</v>
       </c>
       <c r="AI2" t="n">
-        <v>90</v>
+        <v>18</v>
       </c>
       <c r="AJ2" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AK2" t="n">
-        <v>16.5</v>
+        <v>14</v>
       </c>
       <c r="AL2" t="n">
-        <v>970</v>
+        <v>15</v>
       </c>
       <c r="AM2" t="n">
-        <v>990</v>
+        <v>36</v>
       </c>
       <c r="AN2" t="n">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="AO2" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Egyptian Premier</t>
+          <t>Saudi Professional League</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -788,36 +788,36 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>12:00:00</t>
+          <t>14:31:29</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Wadi Degla</t>
+          <t>Al-Hilal</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Ghazl El Mahallah</t>
+          <t>Al-Feiha</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.38</v>
+        <v>1.08</v>
       </c>
       <c r="G3" t="n">
-        <v>1.39</v>
+        <v>1.09</v>
       </c>
       <c r="H3" t="n">
-        <v>17.5</v>
+        <v>80</v>
       </c>
       <c r="I3" t="n">
-        <v>18</v>
+        <v>85</v>
       </c>
       <c r="J3" t="n">
-        <v>4.4</v>
+        <v>14.5</v>
       </c>
       <c r="K3" t="n">
-        <v>4.7</v>
+        <v>16</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -838,10 +838,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>7.8</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>1.14</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -850,10 +850,10 @@
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>1.05</v>
+        <v>1.01</v>
       </c>
       <c r="W3" t="n">
-        <v>3.5</v>
+        <v>12</v>
       </c>
       <c r="X3" t="n">
         <v>1000</v>
@@ -883,37 +883,37 @@
         <v>1000</v>
       </c>
       <c r="AG3" t="n">
-        <v>1000</v>
+        <v>8.4</v>
       </c>
       <c r="AH3" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AI3" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AJ3" t="n">
         <v>1000</v>
       </c>
       <c r="AK3" t="n">
-        <v>1000</v>
+        <v>5</v>
       </c>
       <c r="AL3" t="n">
-        <v>3.5</v>
+        <v>12</v>
       </c>
       <c r="AM3" t="n">
-        <v>5.7</v>
+        <v>80</v>
       </c>
       <c r="AN3" t="n">
-        <v>2.48</v>
+        <v>2.1</v>
       </c>
       <c r="AO3" t="n">
-        <v>21</v>
+        <v>360</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Egyptian Premier</t>
+          <t>UEFA Europa League</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -923,36 +923,36 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>12:00:00</t>
+          <t>14:45:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Haras El Hodood</t>
+          <t>Plzen</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Kahraba Ismailia</t>
+          <t>Porto</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>12.5</v>
+        <v>3.45</v>
       </c>
       <c r="G4" t="n">
-        <v>14</v>
+        <v>3.5</v>
       </c>
       <c r="H4" t="n">
-        <v>1.42</v>
+        <v>2.6</v>
       </c>
       <c r="I4" t="n">
-        <v>1.44</v>
+        <v>2.62</v>
       </c>
       <c r="J4" t="n">
-        <v>4.4</v>
+        <v>3</v>
       </c>
       <c r="K4" t="n">
-        <v>4.6</v>
+        <v>3.1</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -961,34 +961,34 @@
         <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>6.2</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.08</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>1.87</v>
       </c>
       <c r="R4" t="n">
-        <v>3.6</v>
+        <v>1.29</v>
       </c>
       <c r="S4" t="n">
-        <v>1.37</v>
+        <v>4.1</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="V4" t="n">
-        <v>3.25</v>
+        <v>1.6</v>
       </c>
       <c r="W4" t="n">
-        <v>1.07</v>
+        <v>1.4</v>
       </c>
       <c r="X4" t="n">
         <v>1000</v>
@@ -1003,28 +1003,28 @@
         <v>1000</v>
       </c>
       <c r="AB4" t="n">
-        <v>1000</v>
+        <v>6.8</v>
       </c>
       <c r="AC4" t="n">
-        <v>1000</v>
+        <v>4</v>
       </c>
       <c r="AD4" t="n">
-        <v>3.75</v>
+        <v>5.5</v>
       </c>
       <c r="AE4" t="n">
-        <v>5.7</v>
+        <v>13.5</v>
       </c>
       <c r="AF4" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AG4" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AH4" t="n">
-        <v>5.6</v>
+        <v>990</v>
       </c>
       <c r="AI4" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AJ4" t="n">
         <v>1000</v>
@@ -1033,7 +1033,7 @@
         <v>1000</v>
       </c>
       <c r="AL4" t="n">
-        <v>840</v>
+        <v>1000</v>
       </c>
       <c r="AM4" t="n">
         <v>1000</v>
@@ -1042,13 +1042,13 @@
         <v>1000</v>
       </c>
       <c r="AO4" t="n">
-        <v>18</v>
+        <v>160</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Saudi Professional League</t>
+          <t>UEFA Europa League</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1058,132 +1058,132 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>12:15:07</t>
+          <t>14:45:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Al-Taawoun Buraidah</t>
+          <t>Freiburg</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Al-Hazm (KSA)</t>
+          <t>Maccabi Tel Aviv</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.34</v>
+        <v>1.6</v>
       </c>
       <c r="G5" t="n">
-        <v>1.35</v>
+        <v>1.61</v>
       </c>
       <c r="H5" t="n">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="I5" t="n">
-        <v>16.5</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="J5" t="n">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="K5" t="n">
-        <v>5.2</v>
+        <v>3.8</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="N5" t="n">
-        <v>4.6</v>
+        <v>2.1</v>
       </c>
       <c r="O5" t="n">
-        <v>1.27</v>
+        <v>1.88</v>
       </c>
       <c r="P5" t="n">
-        <v>1.79</v>
+        <v>1.33</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.22</v>
+        <v>3.95</v>
       </c>
       <c r="R5" t="n">
-        <v>1.23</v>
+        <v>1.1</v>
       </c>
       <c r="S5" t="n">
-        <v>5.1</v>
+        <v>10.5</v>
       </c>
       <c r="T5" t="n">
-        <v>2.02</v>
+        <v>3.95</v>
       </c>
       <c r="U5" t="n">
-        <v>1.89</v>
+        <v>1.32</v>
       </c>
       <c r="V5" t="n">
-        <v>1.06</v>
+        <v>1.11</v>
       </c>
       <c r="W5" t="n">
-        <v>3.85</v>
+        <v>2.68</v>
       </c>
       <c r="X5" t="n">
-        <v>1000</v>
+        <v>7</v>
       </c>
       <c r="Y5" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="Z5" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AA5" t="n">
         <v>1000</v>
       </c>
       <c r="AB5" t="n">
-        <v>4.9</v>
+        <v>4</v>
       </c>
       <c r="AC5" t="n">
-        <v>7</v>
+        <v>10.5</v>
       </c>
       <c r="AD5" t="n">
+        <v>55</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>470</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>85</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>15</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>42</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>220</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN5" t="n">
         <v>26</v>
       </c>
-      <c r="AE5" t="n">
-        <v>150</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>25</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>150</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>13</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AL5" t="n">
-        <v>70</v>
-      </c>
-      <c r="AM5" t="n">
-        <v>330</v>
-      </c>
-      <c r="AN5" t="n">
-        <v>20</v>
-      </c>
       <c r="AO5" t="n">
-        <v>460</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Saudi Professional League</t>
+          <t>UEFA Europa League</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1193,132 +1193,132 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>14:30:00</t>
+          <t>14:45:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Al-Hilal</t>
+          <t>PAOK</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Al-Feiha</t>
+          <t>Betis</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.21</v>
+        <v>2.7</v>
       </c>
       <c r="G6" t="n">
-        <v>1.22</v>
+        <v>2.72</v>
       </c>
       <c r="H6" t="n">
-        <v>17.5</v>
+        <v>3.6</v>
       </c>
       <c r="I6" t="n">
-        <v>18.5</v>
+        <v>3.7</v>
       </c>
       <c r="J6" t="n">
-        <v>8.199999999999999</v>
+        <v>2.78</v>
       </c>
       <c r="K6" t="n">
-        <v>8.6</v>
+        <v>2.82</v>
       </c>
       <c r="L6" t="n">
-        <v>1.23</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>1.02</v>
+        <v>1.25</v>
       </c>
       <c r="N6" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="O6" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="P6" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="R6" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="S6" t="n">
+        <v>14</v>
+      </c>
+      <c r="T6" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="U6" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="V6" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="W6" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="X6" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>20</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>95</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="AC6" t="n">
         <v>7.8</v>
       </c>
-      <c r="O6" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="P6" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="R6" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="S6" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="T6" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="U6" t="n">
-        <v>1.99</v>
-      </c>
-      <c r="V6" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="W6" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="X6" t="n">
-        <v>50</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>85</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>730</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>20</v>
-      </c>
       <c r="AD6" t="n">
+        <v>24</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>120</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>55</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>270</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>55</v>
+      </c>
+      <c r="AK6" t="n">
         <v>75</v>
       </c>
-      <c r="AE6" t="n">
+      <c r="AL6" t="n">
+        <v>240</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>110</v>
+      </c>
+      <c r="AO6" t="n">
         <v>250</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>9</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>36</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>650</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>13</v>
-      </c>
-      <c r="AL6" t="n">
-        <v>34</v>
-      </c>
-      <c r="AM6" t="n">
-        <v>700</v>
-      </c>
-      <c r="AN6" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AO6" t="n">
-        <v>370</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Saudi Professional League</t>
+          <t>UEFA Europa League</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1328,126 +1328,126 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>14:30:00</t>
+          <t>14:45:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Al-Quadisiya (KSA)</t>
+          <t>Malmo FF</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Al-Ittihad</t>
+          <t>Crvena Zvezda</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2.34</v>
+        <v>27</v>
       </c>
       <c r="G7" t="n">
-        <v>2.36</v>
+        <v>30</v>
       </c>
       <c r="H7" t="n">
-        <v>2.96</v>
+        <v>1.21</v>
       </c>
       <c r="I7" t="n">
-        <v>3.05</v>
+        <v>1.22</v>
       </c>
       <c r="J7" t="n">
-        <v>4.1</v>
+        <v>7</v>
       </c>
       <c r="K7" t="n">
-        <v>4.2</v>
+        <v>7.4</v>
       </c>
       <c r="L7" t="n">
-        <v>1.28</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>5</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="P7" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="R7" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="S7" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="T7" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="U7" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="V7" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="W7" t="n">
         <v>1.03</v>
       </c>
-      <c r="N7" t="n">
-        <v>7</v>
-      </c>
-      <c r="O7" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="P7" t="n">
-        <v>2.86</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="R7" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="S7" t="n">
-        <v>2.26</v>
-      </c>
-      <c r="T7" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="U7" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="V7" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="W7" t="n">
-        <v>1.73</v>
-      </c>
       <c r="X7" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="Y7" t="n">
-        <v>21</v>
+        <v>5.2</v>
       </c>
       <c r="Z7" t="n">
-        <v>26</v>
+        <v>4.6</v>
       </c>
       <c r="AA7" t="n">
-        <v>46</v>
+        <v>8.4</v>
       </c>
       <c r="AB7" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE7" t="n">
         <v>17.5</v>
       </c>
-      <c r="AC7" t="n">
-        <v>11</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>27</v>
-      </c>
       <c r="AF7" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AG7" t="n">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="AH7" t="n">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="AI7" t="n">
-        <v>30</v>
+        <v>75</v>
       </c>
       <c r="AJ7" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AK7" t="n">
-        <v>22</v>
+        <v>360</v>
       </c>
       <c r="AL7" t="n">
-        <v>26</v>
+        <v>290</v>
       </c>
       <c r="AM7" t="n">
-        <v>48</v>
+        <v>490</v>
       </c>
       <c r="AN7" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AO7" t="n">
-        <v>15.5</v>
+        <v>11.5</v>
       </c>
     </row>
     <row r="8">
@@ -1468,121 +1468,121 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Freiburg</t>
+          <t>Brann</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Maccabi Tel Aviv</t>
+          <t>Midtjylland</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.23</v>
+        <v>10</v>
       </c>
       <c r="G8" t="n">
-        <v>1.24</v>
+        <v>10.5</v>
       </c>
       <c r="H8" t="n">
-        <v>17</v>
+        <v>1.5</v>
       </c>
       <c r="I8" t="n">
-        <v>17.5</v>
+        <v>1.51</v>
       </c>
       <c r="J8" t="n">
-        <v>7.6</v>
+        <v>4.2</v>
       </c>
       <c r="K8" t="n">
-        <v>7.8</v>
+        <v>4.3</v>
       </c>
       <c r="L8" t="n">
-        <v>1.3</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>1.03</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>5.7</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>1.2</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>2.56</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.63</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>1.6</v>
+        <v>4.4</v>
       </c>
       <c r="S8" t="n">
-        <v>2.58</v>
+        <v>1.28</v>
       </c>
       <c r="T8" t="n">
-        <v>2.46</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>1.66</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>1.05</v>
+        <v>2.96</v>
       </c>
       <c r="W8" t="n">
-        <v>5.4</v>
+        <v>1.1</v>
       </c>
       <c r="X8" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="Y8" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="Z8" t="n">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="AA8" t="n">
         <v>1000</v>
       </c>
       <c r="AB8" t="n">
-        <v>9.199999999999999</v>
+        <v>1000</v>
       </c>
       <c r="AC8" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="AD8" t="n">
-        <v>65</v>
+        <v>4.6</v>
       </c>
       <c r="AE8" t="n">
-        <v>380</v>
+        <v>6.4</v>
       </c>
       <c r="AF8" t="n">
-        <v>7</v>
+        <v>1000</v>
       </c>
       <c r="AG8" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AH8" t="n">
-        <v>44</v>
+        <v>5.6</v>
       </c>
       <c r="AI8" t="n">
-        <v>270</v>
+        <v>8</v>
       </c>
       <c r="AJ8" t="n">
-        <v>8.199999999999999</v>
+        <v>1000</v>
       </c>
       <c r="AK8" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="AL8" t="n">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="AM8" t="n">
-        <v>270</v>
+        <v>21</v>
       </c>
       <c r="AN8" t="n">
-        <v>3.95</v>
+        <v>38</v>
       </c>
       <c r="AO8" t="n">
-        <v>1000</v>
+        <v>6.8</v>
       </c>
     </row>
     <row r="9">
@@ -1603,121 +1603,121 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Brann</t>
+          <t>Bologna</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Midtjylland</t>
+          <t>Celtic</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>3.75</v>
+        <v>5.2</v>
       </c>
       <c r="G9" t="n">
-        <v>3.85</v>
+        <v>5.4</v>
       </c>
       <c r="H9" t="n">
-        <v>2.1</v>
+        <v>1.76</v>
       </c>
       <c r="I9" t="n">
-        <v>2.12</v>
+        <v>1.77</v>
       </c>
       <c r="J9" t="n">
-        <v>3.7</v>
+        <v>4</v>
       </c>
       <c r="K9" t="n">
-        <v>3.8</v>
+        <v>4.1</v>
       </c>
       <c r="L9" t="n">
-        <v>1.41</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>1.06</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>4.2</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>1.29</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>2.06</v>
+        <v>8.6</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.92</v>
+        <v>1.12</v>
       </c>
       <c r="R9" t="n">
-        <v>1.42</v>
+        <v>2.52</v>
       </c>
       <c r="S9" t="n">
-        <v>3.3</v>
+        <v>1.64</v>
       </c>
       <c r="T9" t="n">
-        <v>1.76</v>
+        <v>1.2</v>
       </c>
       <c r="U9" t="n">
-        <v>2.24</v>
+        <v>5.6</v>
       </c>
       <c r="V9" t="n">
-        <v>1.89</v>
+        <v>2.28</v>
       </c>
       <c r="W9" t="n">
-        <v>1.35</v>
+        <v>1.22</v>
       </c>
       <c r="X9" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="Y9" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="Z9" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="AA9" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AB9" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>14</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>17</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>9</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>30</v>
+      </c>
+      <c r="AN9" t="n">
         <v>15</v>
       </c>
-      <c r="AC9" t="n">
-        <v>8</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>21</v>
-      </c>
-      <c r="AF9" t="n">
-        <v>27</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>15</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AI9" t="n">
-        <v>34</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>75</v>
-      </c>
-      <c r="AK9" t="n">
-        <v>42</v>
-      </c>
-      <c r="AL9" t="n">
-        <v>50</v>
-      </c>
-      <c r="AM9" t="n">
-        <v>90</v>
-      </c>
-      <c r="AN9" t="n">
-        <v>42</v>
-      </c>
       <c r="AO9" t="n">
-        <v>14.5</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10">
@@ -1738,121 +1738,121 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>PAOK</t>
+          <t>Fenerbahce</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Betis</t>
+          <t>Aston Villa</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2.36</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="G10" t="n">
-        <v>2.38</v>
+        <v>8.4</v>
       </c>
       <c r="H10" t="n">
-        <v>3.35</v>
+        <v>1.49</v>
       </c>
       <c r="I10" t="n">
-        <v>3.4</v>
+        <v>1.5</v>
       </c>
       <c r="J10" t="n">
-        <v>3.5</v>
+        <v>4.7</v>
       </c>
       <c r="K10" t="n">
-        <v>3.55</v>
+        <v>4.8</v>
       </c>
       <c r="L10" t="n">
-        <v>1.45</v>
+        <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>1.08</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>3.65</v>
+        <v>5.5</v>
       </c>
       <c r="O10" t="n">
-        <v>1.36</v>
+        <v>1.21</v>
       </c>
       <c r="P10" t="n">
-        <v>1.88</v>
+        <v>2.08</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.1</v>
+        <v>1.9</v>
       </c>
       <c r="R10" t="n">
-        <v>1.35</v>
+        <v>1.31</v>
       </c>
       <c r="S10" t="n">
-        <v>3.75</v>
+        <v>4.1</v>
       </c>
       <c r="T10" t="n">
-        <v>1.82</v>
+        <v>1.69</v>
       </c>
       <c r="U10" t="n">
-        <v>2.14</v>
+        <v>2.34</v>
       </c>
       <c r="V10" t="n">
-        <v>1.41</v>
+        <v>3</v>
       </c>
       <c r="W10" t="n">
-        <v>1.72</v>
+        <v>1.13</v>
       </c>
       <c r="X10" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="Y10" t="n">
-        <v>12.5</v>
+        <v>5.8</v>
       </c>
       <c r="Z10" t="n">
-        <v>22</v>
+        <v>6.6</v>
       </c>
       <c r="AA10" t="n">
-        <v>60</v>
+        <v>15.5</v>
       </c>
       <c r="AB10" t="n">
-        <v>9.6</v>
+        <v>1000</v>
       </c>
       <c r="AC10" t="n">
-        <v>7.6</v>
+        <v>7.2</v>
       </c>
       <c r="AD10" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>18</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG10" t="n">
         <v>14</v>
       </c>
-      <c r="AE10" t="n">
-        <v>40</v>
-      </c>
-      <c r="AF10" t="n">
-        <v>14</v>
-      </c>
-      <c r="AG10" t="n">
-        <v>11</v>
-      </c>
       <c r="AH10" t="n">
-        <v>16.5</v>
+        <v>18.5</v>
       </c>
       <c r="AI10" t="n">
         <v>46</v>
       </c>
       <c r="AJ10" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AK10" t="n">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="AL10" t="n">
-        <v>38</v>
+        <v>70</v>
       </c>
       <c r="AM10" t="n">
-        <v>100</v>
+        <v>230</v>
       </c>
       <c r="AN10" t="n">
-        <v>21</v>
+        <v>130</v>
       </c>
       <c r="AO10" t="n">
-        <v>40</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11">
@@ -1873,121 +1873,121 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Malmo FF</t>
+          <t>Young Boys</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Crvena Zvezda</t>
+          <t>Lyon</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>3.95</v>
+        <v>17</v>
       </c>
       <c r="G11" t="n">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="H11" t="n">
-        <v>2.02</v>
+        <v>1.3</v>
       </c>
       <c r="I11" t="n">
-        <v>2.04</v>
+        <v>1.31</v>
       </c>
       <c r="J11" t="n">
-        <v>3.95</v>
+        <v>5.6</v>
       </c>
       <c r="K11" t="n">
-        <v>4</v>
+        <v>5.7</v>
       </c>
       <c r="L11" t="n">
-        <v>1.37</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="P11" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="R11" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="S11" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="T11" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="U11" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="V11" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="W11" t="n">
         <v>1.05</v>
       </c>
-      <c r="N11" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="O11" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="P11" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="R11" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="S11" t="n">
-        <v>2.92</v>
-      </c>
-      <c r="T11" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="U11" t="n">
-        <v>2.36</v>
-      </c>
-      <c r="V11" t="n">
-        <v>1.97</v>
-      </c>
-      <c r="W11" t="n">
-        <v>1.33</v>
-      </c>
       <c r="X11" t="n">
-        <v>19</v>
+        <v>1000</v>
       </c>
       <c r="Y11" t="n">
-        <v>11.5</v>
+        <v>5.1</v>
       </c>
       <c r="Z11" t="n">
-        <v>13</v>
+        <v>5.1</v>
       </c>
       <c r="AA11" t="n">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="AB11" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="AC11" t="n">
-        <v>8.800000000000001</v>
+        <v>8</v>
       </c>
       <c r="AD11" t="n">
-        <v>10.5</v>
+        <v>8</v>
       </c>
       <c r="AE11" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AF11" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>28</v>
+      </c>
+      <c r="AH11" t="n">
         <v>30</v>
       </c>
-      <c r="AG11" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AH11" t="n">
+      <c r="AI11" t="n">
+        <v>75</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>190</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>180</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>400</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>600</v>
+      </c>
+      <c r="AO11" t="n">
         <v>16.5</v>
-      </c>
-      <c r="AI11" t="n">
-        <v>29</v>
-      </c>
-      <c r="AJ11" t="n">
-        <v>75</v>
-      </c>
-      <c r="AK11" t="n">
-        <v>42</v>
-      </c>
-      <c r="AL11" t="n">
-        <v>44</v>
-      </c>
-      <c r="AM11" t="n">
-        <v>75</v>
-      </c>
-      <c r="AN11" t="n">
-        <v>36</v>
-      </c>
-      <c r="AO11" t="n">
-        <v>11.5</v>
       </c>
     </row>
     <row r="12">
@@ -2008,127 +2008,127 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Plzen</t>
+          <t>Feyenoord</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Porto</t>
+          <t>Sturm Graz</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>5.4</v>
+        <v>1.15</v>
       </c>
       <c r="G12" t="n">
-        <v>5.5</v>
+        <v>1.16</v>
       </c>
       <c r="H12" t="n">
-        <v>1.83</v>
+        <v>30</v>
       </c>
       <c r="I12" t="n">
-        <v>1.85</v>
+        <v>34</v>
       </c>
       <c r="J12" t="n">
-        <v>3.6</v>
+        <v>9.6</v>
       </c>
       <c r="K12" t="n">
-        <v>3.7</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="L12" t="n">
-        <v>1.49</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>1.09</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>3.4</v>
+        <v>7.4</v>
       </c>
       <c r="O12" t="n">
-        <v>1.41</v>
+        <v>1.15</v>
       </c>
       <c r="P12" t="n">
-        <v>1.77</v>
+        <v>2.44</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.24</v>
+        <v>1.68</v>
       </c>
       <c r="R12" t="n">
-        <v>1.29</v>
+        <v>1.44</v>
       </c>
       <c r="S12" t="n">
-        <v>4.2</v>
+        <v>3.2</v>
       </c>
       <c r="T12" t="n">
-        <v>2.08</v>
+        <v>2.36</v>
       </c>
       <c r="U12" t="n">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="V12" t="n">
-        <v>2.18</v>
+        <v>1.03</v>
       </c>
       <c r="W12" t="n">
-        <v>1.22</v>
+        <v>7.2</v>
       </c>
       <c r="X12" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="Y12" t="n">
-        <v>7.4</v>
+        <v>1000</v>
       </c>
       <c r="Z12" t="n">
-        <v>9.4</v>
+        <v>1000</v>
       </c>
       <c r="AA12" t="n">
-        <v>18.5</v>
+        <v>1000</v>
       </c>
       <c r="AB12" t="n">
-        <v>15.5</v>
+        <v>7.6</v>
       </c>
       <c r="AC12" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="AD12" t="n">
-        <v>9.800000000000001</v>
+        <v>55</v>
       </c>
       <c r="AE12" t="n">
-        <v>21</v>
+        <v>360</v>
       </c>
       <c r="AF12" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AH12" t="n">
         <v>40</v>
       </c>
-      <c r="AG12" t="n">
-        <v>21</v>
-      </c>
-      <c r="AH12" t="n">
-        <v>23</v>
-      </c>
       <c r="AI12" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="AJ12" t="n">
-        <v>150</v>
+        <v>7.2</v>
       </c>
       <c r="AK12" t="n">
-        <v>85</v>
+        <v>13.5</v>
       </c>
       <c r="AL12" t="n">
-        <v>95</v>
+        <v>50</v>
       </c>
       <c r="AM12" t="n">
-        <v>160</v>
+        <v>400</v>
       </c>
       <c r="AN12" t="n">
-        <v>130</v>
+        <v>6.4</v>
       </c>
       <c r="AO12" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>UEFA Europa League</t>
+          <t>Egyptian Premier</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2138,126 +2138,126 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>14:45:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Bologna</t>
+          <t>Ismaily</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Celtic</t>
+          <t>Al Mokawloon</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1.8</v>
+        <v>5.1</v>
       </c>
       <c r="G13" t="n">
-        <v>1.81</v>
+        <v>5.5</v>
       </c>
       <c r="H13" t="n">
-        <v>5.1</v>
+        <v>2.26</v>
       </c>
       <c r="I13" t="n">
-        <v>5.2</v>
+        <v>2.32</v>
       </c>
       <c r="J13" t="n">
-        <v>4</v>
+        <v>2.68</v>
       </c>
       <c r="K13" t="n">
-        <v>4.1</v>
+        <v>2.72</v>
       </c>
       <c r="L13" t="n">
-        <v>1.39</v>
+        <v>2.4</v>
       </c>
       <c r="M13" t="n">
-        <v>1.06</v>
+        <v>1.28</v>
       </c>
       <c r="N13" t="n">
-        <v>4.3</v>
+        <v>1.82</v>
       </c>
       <c r="O13" t="n">
-        <v>1.28</v>
+        <v>2.16</v>
       </c>
       <c r="P13" t="n">
-        <v>2.1</v>
+        <v>1.24</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.87</v>
+        <v>5</v>
       </c>
       <c r="R13" t="n">
-        <v>1.43</v>
+        <v>1.07</v>
       </c>
       <c r="S13" t="n">
-        <v>3.2</v>
+        <v>13</v>
       </c>
       <c r="T13" t="n">
-        <v>1.83</v>
+        <v>3.15</v>
       </c>
       <c r="U13" t="n">
-        <v>2.16</v>
+        <v>1.4</v>
       </c>
       <c r="V13" t="n">
-        <v>1.24</v>
+        <v>1.79</v>
       </c>
       <c r="W13" t="n">
-        <v>2.24</v>
+        <v>1.22</v>
       </c>
       <c r="X13" t="n">
-        <v>16</v>
+        <v>4.6</v>
       </c>
       <c r="Y13" t="n">
-        <v>18.5</v>
+        <v>4.8</v>
       </c>
       <c r="Z13" t="n">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="AA13" t="n">
-        <v>120</v>
+        <v>42</v>
       </c>
       <c r="AB13" t="n">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="AC13" t="n">
-        <v>8.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD13" t="n">
-        <v>18.5</v>
+        <v>990</v>
       </c>
       <c r="AE13" t="n">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="AF13" t="n">
-        <v>10.5</v>
+        <v>55</v>
       </c>
       <c r="AG13" t="n">
-        <v>9.6</v>
+        <v>990</v>
       </c>
       <c r="AH13" t="n">
-        <v>18.5</v>
+        <v>990</v>
       </c>
       <c r="AI13" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AJ13" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="AK13" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="AL13" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AM13" t="n">
-        <v>95</v>
+        <v>1000</v>
       </c>
       <c r="AN13" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AO13" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="14">
@@ -2273,126 +2273,126 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>14:45:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Fenerbahce</t>
+          <t>Roma</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Aston Villa</t>
+          <t>Stuttgart</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>2.5</v>
+        <v>2.24</v>
       </c>
       <c r="G14" t="n">
-        <v>2.52</v>
+        <v>2.26</v>
       </c>
       <c r="H14" t="n">
-        <v>3.05</v>
+        <v>3.6</v>
       </c>
       <c r="I14" t="n">
-        <v>3.1</v>
+        <v>3.65</v>
       </c>
       <c r="J14" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="K14" t="n">
         <v>3.6</v>
       </c>
-      <c r="K14" t="n">
-        <v>3.65</v>
-      </c>
       <c r="L14" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N14" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="O14" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="P14" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="R14" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="S14" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="T14" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="U14" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V14" t="n">
         <v>1.37</v>
       </c>
-      <c r="M14" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N14" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="O14" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="P14" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="R14" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="S14" t="n">
-        <v>2.96</v>
-      </c>
-      <c r="T14" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="U14" t="n">
-        <v>2.44</v>
-      </c>
-      <c r="V14" t="n">
-        <v>1.47</v>
-      </c>
       <c r="W14" t="n">
-        <v>1.66</v>
+        <v>1.79</v>
       </c>
       <c r="X14" t="n">
-        <v>17</v>
+        <v>14.5</v>
       </c>
       <c r="Y14" t="n">
         <v>14.5</v>
       </c>
       <c r="Z14" t="n">
+        <v>25</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>70</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>15</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>40</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>14</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>48</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>28</v>
+      </c>
+      <c r="AK14" t="n">
         <v>22</v>
       </c>
-      <c r="AA14" t="n">
-        <v>48</v>
-      </c>
-      <c r="AB14" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AC14" t="n">
-        <v>8</v>
-      </c>
-      <c r="AD14" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>29</v>
-      </c>
-      <c r="AF14" t="n">
+      <c r="AL14" t="n">
+        <v>36</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>85</v>
+      </c>
+      <c r="AN14" t="n">
         <v>16.5</v>
       </c>
-      <c r="AG14" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AH14" t="n">
-        <v>15</v>
-      </c>
-      <c r="AI14" t="n">
-        <v>36</v>
-      </c>
-      <c r="AJ14" t="n">
-        <v>34</v>
-      </c>
-      <c r="AK14" t="n">
-        <v>23</v>
-      </c>
-      <c r="AL14" t="n">
-        <v>32</v>
-      </c>
-      <c r="AM14" t="n">
-        <v>70</v>
-      </c>
-      <c r="AN14" t="n">
-        <v>17</v>
-      </c>
       <c r="AO14" t="n">
-        <v>25</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15">
@@ -2408,30 +2408,30 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>14:45:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Young Boys</t>
+          <t>Red Bull Salzburg</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Lyon</t>
+          <t>FC Basel</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>5.1</v>
+        <v>2.14</v>
       </c>
       <c r="G15" t="n">
-        <v>5.3</v>
+        <v>2.16</v>
       </c>
       <c r="H15" t="n">
-        <v>1.75</v>
+        <v>3.35</v>
       </c>
       <c r="I15" t="n">
-        <v>1.76</v>
+        <v>3.4</v>
       </c>
       <c r="J15" t="n">
         <v>4.2</v>
@@ -2440,94 +2440,94 @@
         <v>4.3</v>
       </c>
       <c r="L15" t="n">
-        <v>1.36</v>
+        <v>1.28</v>
       </c>
       <c r="M15" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="N15" t="n">
-        <v>4.7</v>
+        <v>6.4</v>
       </c>
       <c r="O15" t="n">
-        <v>1.25</v>
+        <v>1.17</v>
       </c>
       <c r="P15" t="n">
-        <v>2.26</v>
+        <v>2.86</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.77</v>
+        <v>1.53</v>
       </c>
       <c r="R15" t="n">
-        <v>1.49</v>
+        <v>1.76</v>
       </c>
       <c r="S15" t="n">
-        <v>2.96</v>
+        <v>2.28</v>
       </c>
       <c r="T15" t="n">
-        <v>1.78</v>
+        <v>1.51</v>
       </c>
       <c r="U15" t="n">
-        <v>2.22</v>
+        <v>2.84</v>
       </c>
       <c r="V15" t="n">
-        <v>2.3</v>
+        <v>1.41</v>
       </c>
       <c r="W15" t="n">
-        <v>1.23</v>
+        <v>1.87</v>
       </c>
       <c r="X15" t="n">
+        <v>27</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>22</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>29</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>55</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>15</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>30</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>14</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>32</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>28</v>
+      </c>
+      <c r="AK15" t="n">
         <v>18.5</v>
       </c>
-      <c r="Y15" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="Z15" t="n">
-        <v>11</v>
-      </c>
-      <c r="AA15" t="n">
-        <v>17</v>
-      </c>
-      <c r="AB15" t="n">
-        <v>21</v>
-      </c>
-      <c r="AC15" t="n">
+      <c r="AL15" t="n">
+        <v>24</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>46</v>
+      </c>
+      <c r="AN15" t="n">
         <v>9.199999999999999</v>
       </c>
-      <c r="AD15" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AE15" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AF15" t="n">
-        <v>40</v>
-      </c>
-      <c r="AG15" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AH15" t="n">
-        <v>18</v>
-      </c>
-      <c r="AI15" t="n">
-        <v>30</v>
-      </c>
-      <c r="AJ15" t="n">
-        <v>120</v>
-      </c>
-      <c r="AK15" t="n">
-        <v>60</v>
-      </c>
-      <c r="AL15" t="n">
-        <v>60</v>
-      </c>
-      <c r="AM15" t="n">
-        <v>90</v>
-      </c>
-      <c r="AN15" t="n">
-        <v>65</v>
-      </c>
       <c r="AO15" t="n">
-        <v>8.6</v>
+        <v>18.5</v>
       </c>
     </row>
     <row r="16">
@@ -2543,132 +2543,132 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>14:45:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Feyenoord</t>
+          <t>Dinamo Zagreb</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Sturm Graz</t>
+          <t>FCSB</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1.43</v>
+        <v>1.76</v>
       </c>
       <c r="G16" t="n">
-        <v>1.44</v>
+        <v>1.78</v>
       </c>
       <c r="H16" t="n">
-        <v>7.6</v>
+        <v>5.3</v>
       </c>
       <c r="I16" t="n">
-        <v>7.8</v>
+        <v>5.4</v>
       </c>
       <c r="J16" t="n">
-        <v>5.8</v>
+        <v>4</v>
       </c>
       <c r="K16" t="n">
-        <v>6</v>
+        <v>4.1</v>
       </c>
       <c r="L16" t="n">
-        <v>1.23</v>
+        <v>1.45</v>
       </c>
       <c r="M16" t="n">
-        <v>1.02</v>
+        <v>1.07</v>
       </c>
       <c r="N16" t="n">
-        <v>8</v>
+        <v>3.85</v>
       </c>
       <c r="O16" t="n">
-        <v>1.13</v>
+        <v>1.34</v>
       </c>
       <c r="P16" t="n">
-        <v>3.3</v>
+        <v>1.97</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.42</v>
+        <v>2</v>
       </c>
       <c r="R16" t="n">
-        <v>1.95</v>
+        <v>1.37</v>
       </c>
       <c r="S16" t="n">
-        <v>2.04</v>
+        <v>3.6</v>
       </c>
       <c r="T16" t="n">
-        <v>1.64</v>
+        <v>1.92</v>
       </c>
       <c r="U16" t="n">
-        <v>2.48</v>
+        <v>2.02</v>
       </c>
       <c r="V16" t="n">
-        <v>1.14</v>
+        <v>1.22</v>
       </c>
       <c r="W16" t="n">
-        <v>3.25</v>
+        <v>2.28</v>
       </c>
       <c r="X16" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>17</v>
+      </c>
+      <c r="Z16" t="n">
         <v>40</v>
       </c>
-      <c r="Y16" t="n">
-        <v>40</v>
-      </c>
-      <c r="Z16" t="n">
+      <c r="AA16" t="n">
+        <v>140</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>20</v>
+      </c>
+      <c r="AE16" t="n">
         <v>75</v>
       </c>
-      <c r="AA16" t="n">
-        <v>180</v>
-      </c>
-      <c r="AB16" t="n">
-        <v>15</v>
-      </c>
-      <c r="AC16" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AD16" t="n">
-        <v>28</v>
-      </c>
-      <c r="AE16" t="n">
-        <v>80</v>
-      </c>
       <c r="AF16" t="n">
-        <v>12</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AG16" t="n">
-        <v>10.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AH16" t="n">
-        <v>19.5</v>
+        <v>21</v>
       </c>
       <c r="AI16" t="n">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="AJ16" t="n">
-        <v>14</v>
+        <v>17.5</v>
       </c>
       <c r="AK16" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="AL16" t="n">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="AM16" t="n">
-        <v>70</v>
+        <v>120</v>
       </c>
       <c r="AN16" t="n">
-        <v>4.2</v>
+        <v>11.5</v>
       </c>
       <c r="AO16" t="n">
-        <v>65</v>
+        <v>85</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Egyptian Premier</t>
+          <t>UEFA Europa League</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -2678,126 +2678,126 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Ismaily</t>
+          <t>Braga</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Al Mokawloon</t>
+          <t>Nottm Forest</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>4.2</v>
+        <v>2.98</v>
       </c>
       <c r="G17" t="n">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="H17" t="n">
-        <v>2.36</v>
+        <v>2.76</v>
       </c>
       <c r="I17" t="n">
-        <v>2.44</v>
+        <v>2.78</v>
       </c>
       <c r="J17" t="n">
-        <v>2.78</v>
+        <v>3.25</v>
       </c>
       <c r="K17" t="n">
-        <v>2.86</v>
+        <v>3.3</v>
       </c>
       <c r="L17" t="n">
-        <v>1.73</v>
+        <v>1.55</v>
       </c>
       <c r="M17" t="n">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="N17" t="n">
-        <v>2.26</v>
+        <v>3.05</v>
       </c>
       <c r="O17" t="n">
-        <v>1.76</v>
+        <v>1.47</v>
       </c>
       <c r="P17" t="n">
-        <v>1.38</v>
+        <v>1.68</v>
       </c>
       <c r="Q17" t="n">
-        <v>3.45</v>
+        <v>2.42</v>
       </c>
       <c r="R17" t="n">
-        <v>1.13</v>
+        <v>1.26</v>
       </c>
       <c r="S17" t="n">
-        <v>8</v>
+        <v>4.7</v>
       </c>
       <c r="T17" t="n">
-        <v>2.36</v>
+        <v>2</v>
       </c>
       <c r="U17" t="n">
-        <v>1.6</v>
+        <v>1.98</v>
       </c>
       <c r="V17" t="n">
-        <v>1.7</v>
+        <v>1.56</v>
       </c>
       <c r="W17" t="n">
-        <v>1.28</v>
+        <v>1.5</v>
       </c>
       <c r="X17" t="n">
-        <v>6.4</v>
+        <v>10.5</v>
       </c>
       <c r="Y17" t="n">
-        <v>6.4</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Z17" t="n">
+        <v>16</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>42</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AD17" t="n">
         <v>12.5</v>
       </c>
-      <c r="AA17" t="n">
+      <c r="AE17" t="n">
         <v>36</v>
       </c>
-      <c r="AB17" t="n">
-        <v>19</v>
-      </c>
-      <c r="AC17" t="n">
-        <v>7</v>
-      </c>
-      <c r="AD17" t="n">
+      <c r="AF17" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>20</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>50</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>48</v>
+      </c>
+      <c r="AK17" t="n">
+        <v>40</v>
+      </c>
+      <c r="AL17" t="n">
+        <v>60</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>130</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>42</v>
+      </c>
+      <c r="AO17" t="n">
         <v>34</v>
-      </c>
-      <c r="AE17" t="n">
-        <v>48</v>
-      </c>
-      <c r="AF17" t="n">
-        <v>42</v>
-      </c>
-      <c r="AG17" t="n">
-        <v>21</v>
-      </c>
-      <c r="AH17" t="n">
-        <v>34</v>
-      </c>
-      <c r="AI17" t="n">
-        <v>480</v>
-      </c>
-      <c r="AJ17" t="n">
-        <v>500</v>
-      </c>
-      <c r="AK17" t="n">
-        <v>95</v>
-      </c>
-      <c r="AL17" t="n">
-        <v>150</v>
-      </c>
-      <c r="AM17" t="n">
-        <v>500</v>
-      </c>
-      <c r="AN17" t="n">
-        <v>600</v>
-      </c>
-      <c r="AO17" t="n">
-        <v>55</v>
       </c>
     </row>
     <row r="18">
@@ -2818,19 +2818,19 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Red Bull Salzburg</t>
+          <t>Nice</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>FC Basel</t>
+          <t>Go Ahead Eagles</t>
         </is>
       </c>
       <c r="F18" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="G18" t="n">
         <v>2.16</v>
-      </c>
-      <c r="G18" t="n">
-        <v>2.18</v>
       </c>
       <c r="H18" t="n">
         <v>3.4</v>
@@ -2839,106 +2839,106 @@
         <v>3.45</v>
       </c>
       <c r="J18" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="K18" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="L18" t="n">
-        <v>1.29</v>
+        <v>1.31</v>
       </c>
       <c r="M18" t="n">
         <v>1.04</v>
       </c>
       <c r="N18" t="n">
-        <v>6.4</v>
+        <v>5.6</v>
       </c>
       <c r="O18" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="P18" t="n">
-        <v>2.76</v>
+        <v>2.54</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.55</v>
+        <v>1.63</v>
       </c>
       <c r="R18" t="n">
-        <v>1.73</v>
+        <v>1.61</v>
       </c>
       <c r="S18" t="n">
-        <v>2.34</v>
+        <v>2.6</v>
       </c>
       <c r="T18" t="n">
-        <v>1.53</v>
+        <v>1.59</v>
       </c>
       <c r="U18" t="n">
-        <v>2.8</v>
+        <v>2.62</v>
       </c>
       <c r="V18" t="n">
         <v>1.4</v>
       </c>
       <c r="W18" t="n">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="X18" t="n">
+        <v>23</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>18</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>27</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>60</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>34</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>16</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>36</v>
+      </c>
+      <c r="AJ18" t="n">
         <v>26</v>
       </c>
-      <c r="Y18" t="n">
-        <v>21</v>
-      </c>
-      <c r="Z18" t="n">
-        <v>28</v>
-      </c>
-      <c r="AA18" t="n">
-        <v>55</v>
-      </c>
-      <c r="AB18" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AC18" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AD18" t="n">
-        <v>15</v>
-      </c>
-      <c r="AE18" t="n">
-        <v>32</v>
-      </c>
-      <c r="AF18" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AG18" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AH18" t="n">
-        <v>14</v>
-      </c>
-      <c r="AI18" t="n">
-        <v>34</v>
-      </c>
-      <c r="AJ18" t="n">
-        <v>28</v>
-      </c>
       <c r="AK18" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AL18" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AM18" t="n">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="AN18" t="n">
-        <v>9.199999999999999</v>
+        <v>11</v>
       </c>
       <c r="AO18" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>UEFA Europa League</t>
+          <t>Argentinian Primera Division</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -2953,121 +2953,121 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Dinamo Zagreb</t>
+          <t>Aldosivi</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>FCSB</t>
+          <t>Defensa y Justicia</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>1.75</v>
+        <v>2.8</v>
       </c>
       <c r="G19" t="n">
-        <v>1.77</v>
+        <v>2.86</v>
       </c>
       <c r="H19" t="n">
-        <v>5.3</v>
+        <v>3.1</v>
       </c>
       <c r="I19" t="n">
-        <v>5.4</v>
+        <v>3.25</v>
       </c>
       <c r="J19" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K19" t="n">
-        <v>4.2</v>
+        <v>3.05</v>
       </c>
       <c r="L19" t="n">
-        <v>1.44</v>
+        <v>1.61</v>
       </c>
       <c r="M19" t="n">
-        <v>1.07</v>
+        <v>1.13</v>
       </c>
       <c r="N19" t="n">
-        <v>3.85</v>
+        <v>2.72</v>
       </c>
       <c r="O19" t="n">
-        <v>1.33</v>
+        <v>1.55</v>
       </c>
       <c r="P19" t="n">
-        <v>1.97</v>
+        <v>1.57</v>
       </c>
       <c r="Q19" t="n">
-        <v>2</v>
+        <v>2.72</v>
       </c>
       <c r="R19" t="n">
-        <v>1.36</v>
+        <v>1.2</v>
       </c>
       <c r="S19" t="n">
-        <v>3.6</v>
+        <v>5.7</v>
       </c>
       <c r="T19" t="n">
-        <v>1.92</v>
+        <v>2.12</v>
       </c>
       <c r="U19" t="n">
-        <v>2.04</v>
+        <v>1.84</v>
       </c>
       <c r="V19" t="n">
-        <v>1.22</v>
+        <v>1.45</v>
       </c>
       <c r="W19" t="n">
-        <v>2.3</v>
+        <v>1.53</v>
       </c>
       <c r="X19" t="n">
-        <v>15</v>
+        <v>8.4</v>
       </c>
       <c r="Y19" t="n">
-        <v>17.5</v>
+        <v>9</v>
       </c>
       <c r="Z19" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>160</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>46</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>23</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>75</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>46</v>
+      </c>
+      <c r="AK19" t="n">
         <v>40</v>
       </c>
-      <c r="AA19" t="n">
-        <v>140</v>
-      </c>
-      <c r="AB19" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AC19" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AD19" t="n">
-        <v>21</v>
-      </c>
-      <c r="AE19" t="n">
-        <v>75</v>
-      </c>
-      <c r="AF19" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AG19" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AH19" t="n">
-        <v>22</v>
-      </c>
-      <c r="AI19" t="n">
-        <v>80</v>
-      </c>
-      <c r="AJ19" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AK19" t="n">
-        <v>18</v>
-      </c>
       <c r="AL19" t="n">
-        <v>38</v>
+        <v>70</v>
       </c>
       <c r="AM19" t="n">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="AN19" t="n">
-        <v>11.5</v>
+        <v>46</v>
       </c>
       <c r="AO19" t="n">
-        <v>95</v>
+        <v>60</v>
       </c>
     </row>
     <row r="20">
@@ -3088,121 +3088,121 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Braga</t>
+          <t>FC Utrecht</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Nottm Forest</t>
+          <t>Genk</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>2.94</v>
+        <v>3.25</v>
       </c>
       <c r="G20" t="n">
-        <v>2.98</v>
+        <v>3.3</v>
       </c>
       <c r="H20" t="n">
-        <v>2.72</v>
+        <v>2.4</v>
       </c>
       <c r="I20" t="n">
-        <v>2.74</v>
+        <v>2.42</v>
       </c>
       <c r="J20" t="n">
-        <v>3.35</v>
+        <v>3.55</v>
       </c>
       <c r="K20" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="L20" t="n">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="M20" t="n">
-        <v>1.09</v>
+        <v>1.07</v>
       </c>
       <c r="N20" t="n">
-        <v>3.35</v>
+        <v>4.2</v>
       </c>
       <c r="O20" t="n">
-        <v>1.42</v>
+        <v>1.3</v>
       </c>
       <c r="P20" t="n">
-        <v>1.8</v>
+        <v>2.04</v>
       </c>
       <c r="Q20" t="n">
-        <v>2.22</v>
+        <v>1.93</v>
       </c>
       <c r="R20" t="n">
-        <v>1.3</v>
+        <v>1.41</v>
       </c>
       <c r="S20" t="n">
-        <v>4.2</v>
+        <v>3.3</v>
       </c>
       <c r="T20" t="n">
-        <v>1.9</v>
+        <v>1.73</v>
       </c>
       <c r="U20" t="n">
-        <v>2.04</v>
+        <v>2.3</v>
       </c>
       <c r="V20" t="n">
-        <v>1.57</v>
+        <v>1.7</v>
       </c>
       <c r="W20" t="n">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="X20" t="n">
-        <v>11.5</v>
+        <v>15</v>
       </c>
       <c r="Y20" t="n">
-        <v>9.6</v>
+        <v>11</v>
       </c>
       <c r="Z20" t="n">
-        <v>16.5</v>
+        <v>15</v>
       </c>
       <c r="AA20" t="n">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="AB20" t="n">
-        <v>10.5</v>
+        <v>13.5</v>
       </c>
       <c r="AC20" t="n">
-        <v>7.2</v>
+        <v>7.8</v>
       </c>
       <c r="AD20" t="n">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="AE20" t="n">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="AF20" t="n">
-        <v>18.5</v>
+        <v>22</v>
       </c>
       <c r="AG20" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AH20" t="n">
-        <v>18.5</v>
+        <v>16</v>
       </c>
       <c r="AI20" t="n">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="AJ20" t="n">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="AK20" t="n">
         <v>36</v>
       </c>
       <c r="AL20" t="n">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="AM20" t="n">
-        <v>110</v>
+        <v>80</v>
       </c>
       <c r="AN20" t="n">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="AO20" t="n">
-        <v>29</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21">
@@ -3223,118 +3223,118 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Roma</t>
+          <t>Celta Vigo</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Stuttgart</t>
+          <t>Lille</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>2.22</v>
+        <v>2.46</v>
       </c>
       <c r="G21" t="n">
-        <v>2.24</v>
+        <v>2.48</v>
       </c>
       <c r="H21" t="n">
-        <v>3.7</v>
+        <v>3.25</v>
       </c>
       <c r="I21" t="n">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="J21" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="K21" t="n">
-        <v>3.55</v>
+        <v>3.45</v>
       </c>
       <c r="L21" t="n">
-        <v>1.42</v>
+        <v>1.45</v>
       </c>
       <c r="M21" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N21" t="n">
-        <v>4.2</v>
+        <v>3.65</v>
       </c>
       <c r="O21" t="n">
-        <v>1.29</v>
+        <v>1.36</v>
       </c>
       <c r="P21" t="n">
-        <v>2.06</v>
+        <v>1.9</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.92</v>
+        <v>2.08</v>
       </c>
       <c r="R21" t="n">
-        <v>1.42</v>
+        <v>1.34</v>
       </c>
       <c r="S21" t="n">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="T21" t="n">
-        <v>1.72</v>
+        <v>1.84</v>
       </c>
       <c r="U21" t="n">
-        <v>2.32</v>
+        <v>2.12</v>
       </c>
       <c r="V21" t="n">
-        <v>1.36</v>
+        <v>1.43</v>
       </c>
       <c r="W21" t="n">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="X21" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>55</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>38</v>
+      </c>
+      <c r="AF21" t="n">
         <v>15</v>
       </c>
-      <c r="Y21" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z21" t="n">
+      <c r="AG21" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>50</v>
+      </c>
+      <c r="AJ21" t="n">
+        <v>34</v>
+      </c>
+      <c r="AK21" t="n">
         <v>26</v>
       </c>
-      <c r="AA21" t="n">
-        <v>70</v>
-      </c>
-      <c r="AB21" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AC21" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AD21" t="n">
-        <v>15</v>
-      </c>
-      <c r="AE21" t="n">
+      <c r="AL21" t="n">
         <v>40</v>
       </c>
-      <c r="AF21" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AG21" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AH21" t="n">
-        <v>16</v>
-      </c>
-      <c r="AI21" t="n">
-        <v>48</v>
-      </c>
-      <c r="AJ21" t="n">
-        <v>27</v>
-      </c>
-      <c r="AK21" t="n">
+      <c r="AM21" t="n">
+        <v>95</v>
+      </c>
+      <c r="AN21" t="n">
         <v>22</v>
-      </c>
-      <c r="AL21" t="n">
-        <v>34</v>
-      </c>
-      <c r="AM21" t="n">
-        <v>80</v>
-      </c>
-      <c r="AN21" t="n">
-        <v>15.5</v>
       </c>
       <c r="AO21" t="n">
         <v>36</v>
@@ -3358,12 +3358,12 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Nice</t>
+          <t>Rangers</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Go Ahead Eagles</t>
+          <t>Ludogorets</t>
         </is>
       </c>
       <c r="F22" t="n">
@@ -3373,106 +3373,106 @@
         <v>2.14</v>
       </c>
       <c r="H22" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I22" t="n">
-        <v>3.55</v>
+        <v>3.65</v>
       </c>
       <c r="J22" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="K22" t="n">
         <v>4</v>
       </c>
-      <c r="K22" t="n">
-        <v>4.2</v>
-      </c>
       <c r="L22" t="n">
-        <v>1.29</v>
+        <v>1.37</v>
       </c>
       <c r="M22" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N22" t="n">
-        <v>6.2</v>
+        <v>4.5</v>
       </c>
       <c r="O22" t="n">
-        <v>1.18</v>
+        <v>1.27</v>
       </c>
       <c r="P22" t="n">
-        <v>2.74</v>
+        <v>2.2</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.57</v>
+        <v>1.8</v>
       </c>
       <c r="R22" t="n">
-        <v>1.71</v>
+        <v>1.47</v>
       </c>
       <c r="S22" t="n">
-        <v>2.38</v>
+        <v>3</v>
       </c>
       <c r="T22" t="n">
-        <v>1.54</v>
+        <v>1.72</v>
       </c>
       <c r="U22" t="n">
-        <v>2.76</v>
+        <v>2.34</v>
       </c>
       <c r="V22" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="W22" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="X22" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="Z22" t="n">
         <v>26</v>
       </c>
-      <c r="Y22" t="n">
-        <v>21</v>
-      </c>
-      <c r="Z22" t="n">
-        <v>29</v>
-      </c>
       <c r="AA22" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AB22" t="n">
-        <v>15.5</v>
+        <v>11</v>
       </c>
       <c r="AC22" t="n">
-        <v>9.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD22" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AE22" t="n">
+        <v>38</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>14</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH22" t="n">
+        <v>17</v>
+      </c>
+      <c r="AI22" t="n">
+        <v>44</v>
+      </c>
+      <c r="AJ22" t="n">
+        <v>26</v>
+      </c>
+      <c r="AK22" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AL22" t="n">
+        <v>30</v>
+      </c>
+      <c r="AM22" t="n">
+        <v>70</v>
+      </c>
+      <c r="AN22" t="n">
+        <v>13</v>
+      </c>
+      <c r="AO22" t="n">
         <v>32</v>
-      </c>
-      <c r="AF22" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AG22" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH22" t="n">
-        <v>14</v>
-      </c>
-      <c r="AI22" t="n">
-        <v>34</v>
-      </c>
-      <c r="AJ22" t="n">
-        <v>27</v>
-      </c>
-      <c r="AK22" t="n">
-        <v>18</v>
-      </c>
-      <c r="AL22" t="n">
-        <v>25</v>
-      </c>
-      <c r="AM22" t="n">
-        <v>50</v>
-      </c>
-      <c r="AN22" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AO22" t="n">
-        <v>21</v>
       </c>
     </row>
     <row r="23">
@@ -3502,16 +3502,16 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>2.44</v>
+        <v>2.48</v>
       </c>
       <c r="G23" t="n">
-        <v>2.46</v>
+        <v>2.52</v>
       </c>
       <c r="H23" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="I23" t="n">
         <v>3.3</v>
-      </c>
-      <c r="I23" t="n">
-        <v>3.4</v>
       </c>
       <c r="J23" t="n">
         <v>3.4</v>
@@ -3520,46 +3520,46 @@
         <v>3.45</v>
       </c>
       <c r="L23" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="M23" t="n">
         <v>1.09</v>
       </c>
       <c r="N23" t="n">
-        <v>3.45</v>
+        <v>3.35</v>
       </c>
       <c r="O23" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="P23" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="Q23" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="R23" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="S23" t="n">
-        <v>3.95</v>
+        <v>4.1</v>
       </c>
       <c r="T23" t="n">
-        <v>1.87</v>
+        <v>1.89</v>
       </c>
       <c r="U23" t="n">
         <v>2.1</v>
       </c>
       <c r="V23" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="W23" t="n">
-        <v>1.68</v>
+        <v>1.66</v>
       </c>
       <c r="X23" t="n">
         <v>11.5</v>
       </c>
       <c r="Y23" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="Z23" t="n">
         <v>21</v>
@@ -3580,13 +3580,13 @@
         <v>40</v>
       </c>
       <c r="AF23" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AG23" t="n">
         <v>11.5</v>
       </c>
       <c r="AH23" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AI23" t="n">
         <v>55</v>
@@ -3595,16 +3595,16 @@
         <v>34</v>
       </c>
       <c r="AK23" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AL23" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AM23" t="n">
         <v>110</v>
       </c>
       <c r="AN23" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AO23" t="n">
         <v>42</v>
@@ -3613,7 +3613,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>UEFA Europa League</t>
+          <t>Argentinian Primera Division</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -3623,132 +3623,132 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>20:00:00</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Celta Vigo</t>
+          <t>Banfield</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Lille</t>
+          <t>Huracan</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>2.46</v>
+        <v>2.88</v>
       </c>
       <c r="G24" t="n">
-        <v>2.48</v>
+        <v>2.96</v>
       </c>
       <c r="H24" t="n">
         <v>3.25</v>
       </c>
       <c r="I24" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="J24" t="n">
-        <v>3.45</v>
+        <v>2.76</v>
       </c>
       <c r="K24" t="n">
-        <v>3.5</v>
+        <v>2.84</v>
       </c>
       <c r="L24" t="n">
-        <v>1.45</v>
+        <v>1.77</v>
       </c>
       <c r="M24" t="n">
-        <v>1.08</v>
+        <v>1.19</v>
       </c>
       <c r="N24" t="n">
-        <v>3.65</v>
+        <v>2.16</v>
       </c>
       <c r="O24" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="P24" t="n">
         <v>1.36</v>
       </c>
-      <c r="P24" t="n">
-        <v>1.89</v>
-      </c>
       <c r="Q24" t="n">
-        <v>2.1</v>
+        <v>3.6</v>
       </c>
       <c r="R24" t="n">
-        <v>1.34</v>
+        <v>1.11</v>
       </c>
       <c r="S24" t="n">
-        <v>3.75</v>
+        <v>8.6</v>
       </c>
       <c r="T24" t="n">
-        <v>1.86</v>
+        <v>2.56</v>
       </c>
       <c r="U24" t="n">
-        <v>2.12</v>
+        <v>1.6</v>
       </c>
       <c r="V24" t="n">
-        <v>1.43</v>
+        <v>1.42</v>
       </c>
       <c r="W24" t="n">
-        <v>1.67</v>
+        <v>1.51</v>
       </c>
       <c r="X24" t="n">
-        <v>13</v>
+        <v>6.2</v>
       </c>
       <c r="Y24" t="n">
-        <v>12</v>
+        <v>7.6</v>
       </c>
       <c r="Z24" t="n">
         <v>21</v>
       </c>
       <c r="AA24" t="n">
-        <v>55</v>
+        <v>160</v>
       </c>
       <c r="AB24" t="n">
-        <v>9.800000000000001</v>
+        <v>7</v>
       </c>
       <c r="AC24" t="n">
-        <v>7.6</v>
+        <v>7.2</v>
       </c>
       <c r="AD24" t="n">
-        <v>13.5</v>
+        <v>17.5</v>
       </c>
       <c r="AE24" t="n">
-        <v>38</v>
+        <v>150</v>
       </c>
       <c r="AF24" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AG24" t="n">
-        <v>11.5</v>
+        <v>16</v>
       </c>
       <c r="AH24" t="n">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="AI24" t="n">
-        <v>50</v>
+        <v>260</v>
       </c>
       <c r="AJ24" t="n">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="AK24" t="n">
-        <v>27</v>
+        <v>75</v>
       </c>
       <c r="AL24" t="n">
-        <v>40</v>
+        <v>260</v>
       </c>
       <c r="AM24" t="n">
-        <v>95</v>
+        <v>500</v>
       </c>
       <c r="AN24" t="n">
-        <v>23</v>
+        <v>90</v>
       </c>
       <c r="AO24" t="n">
-        <v>38</v>
+        <v>600</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>UEFA Europa League</t>
+          <t>Argentinian Primera Division</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -3758,126 +3758,126 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>20:00:00</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Rangers</t>
+          <t>Union Santa Fe</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Ludogorets</t>
+          <t>CA Platense</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>2.24</v>
+        <v>2.22</v>
       </c>
       <c r="G25" t="n">
-        <v>2.28</v>
+        <v>2.26</v>
       </c>
       <c r="H25" t="n">
-        <v>3.35</v>
+        <v>4.9</v>
       </c>
       <c r="I25" t="n">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="J25" t="n">
-        <v>3.8</v>
+        <v>2.84</v>
       </c>
       <c r="K25" t="n">
-        <v>3.85</v>
+        <v>2.94</v>
       </c>
       <c r="L25" t="n">
-        <v>1.37</v>
+        <v>1.74</v>
       </c>
       <c r="M25" t="n">
-        <v>1.06</v>
+        <v>1.19</v>
       </c>
       <c r="N25" t="n">
-        <v>4.4</v>
+        <v>2.26</v>
       </c>
       <c r="O25" t="n">
-        <v>1.28</v>
+        <v>1.75</v>
       </c>
       <c r="P25" t="n">
-        <v>2.18</v>
+        <v>1.39</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.83</v>
+        <v>3.45</v>
       </c>
       <c r="R25" t="n">
-        <v>1.46</v>
+        <v>1.13</v>
       </c>
       <c r="S25" t="n">
-        <v>3.1</v>
+        <v>7.8</v>
       </c>
       <c r="T25" t="n">
-        <v>1.71</v>
+        <v>2.58</v>
       </c>
       <c r="U25" t="n">
-        <v>2.32</v>
+        <v>1.58</v>
       </c>
       <c r="V25" t="n">
-        <v>1.41</v>
+        <v>1.25</v>
       </c>
       <c r="W25" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="X25" t="n">
-        <v>17.5</v>
+        <v>6.4</v>
       </c>
       <c r="Y25" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="Z25" t="n">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="AA25" t="n">
-        <v>55</v>
+        <v>180</v>
       </c>
       <c r="AB25" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>25</v>
+      </c>
+      <c r="AE25" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF25" t="n">
         <v>11.5</v>
       </c>
-      <c r="AC25" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="AD25" t="n">
+      <c r="AG25" t="n">
         <v>13.5</v>
       </c>
-      <c r="AE25" t="n">
-        <v>34</v>
-      </c>
-      <c r="AF25" t="n">
-        <v>15</v>
-      </c>
-      <c r="AG25" t="n">
-        <v>10.5</v>
-      </c>
       <c r="AH25" t="n">
-        <v>16.5</v>
+        <v>44</v>
       </c>
       <c r="AI25" t="n">
+        <v>190</v>
+      </c>
+      <c r="AJ25" t="n">
+        <v>32</v>
+      </c>
+      <c r="AK25" t="n">
         <v>42</v>
       </c>
-      <c r="AJ25" t="n">
-        <v>29</v>
-      </c>
-      <c r="AK25" t="n">
-        <v>22</v>
-      </c>
       <c r="AL25" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AM25" t="n">
-        <v>75</v>
+        <v>400</v>
       </c>
       <c r="AN25" t="n">
-        <v>15.5</v>
+        <v>46</v>
       </c>
       <c r="AO25" t="n">
-        <v>29</v>
+        <v>260</v>
       </c>
     </row>
     <row r="26">
@@ -3893,132 +3893,132 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>22:15:00</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Aldosivi</t>
+          <t>Instituto</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Defensa y Justicia</t>
+          <t>Velez Sarsfield</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>2.8</v>
+        <v>2.98</v>
       </c>
       <c r="G26" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="H26" t="n">
+        <v>3</v>
+      </c>
+      <c r="I26" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="J26" t="n">
         <v>2.86</v>
       </c>
-      <c r="H26" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="I26" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="J26" t="n">
-        <v>3</v>
-      </c>
       <c r="K26" t="n">
-        <v>3.1</v>
+        <v>2.96</v>
       </c>
       <c r="L26" t="n">
-        <v>1.61</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>1.13</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>2.72</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>1.55</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>1.57</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>2.72</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>1.2</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>5.7</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>2.12</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>1.84</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>1.45</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>1.53</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>8.6</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>9.199999999999999</v>
+        <v>0</v>
       </c>
       <c r="Z26" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AA26" t="n">
-        <v>160</v>
+        <v>0</v>
       </c>
       <c r="AB26" t="n">
-        <v>8.4</v>
+        <v>0</v>
       </c>
       <c r="AC26" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AD26" t="n">
-        <v>14.5</v>
+        <v>0</v>
       </c>
       <c r="AE26" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="AF26" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="AG26" t="n">
-        <v>13.5</v>
+        <v>0</v>
       </c>
       <c r="AH26" t="n">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="AI26" t="n">
-        <v>460</v>
+        <v>0</v>
       </c>
       <c r="AJ26" t="n">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="AK26" t="n">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="AL26" t="n">
-        <v>460</v>
+        <v>0</v>
       </c>
       <c r="AM26" t="n">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="AN26" t="n">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="AO26" t="n">
-        <v>600</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>UEFA Europa League</t>
+          <t>Argentinian Primera Division</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -4028,666 +4028,126 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>22:15:00</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>FC Utrecht</t>
+          <t>Central Cordoba (SdE)</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Genk</t>
+          <t>Gimnasia Mendoza</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>3.2</v>
+        <v>2.48</v>
       </c>
       <c r="G27" t="n">
-        <v>3.25</v>
+        <v>2.54</v>
       </c>
       <c r="H27" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="I27" t="n">
+        <v>4</v>
+      </c>
+      <c r="J27" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="K27" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="L27" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="M27" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="N27" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="O27" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="P27" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="R27" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="S27" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="T27" t="n">
         <v>2.44</v>
       </c>
-      <c r="I27" t="n">
-        <v>2.46</v>
-      </c>
-      <c r="J27" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="K27" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="L27" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="M27" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N27" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="O27" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="P27" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="Q27" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="R27" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="S27" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="T27" t="n">
-        <v>1.73</v>
-      </c>
       <c r="U27" t="n">
-        <v>2.3</v>
+        <v>1.62</v>
       </c>
       <c r="V27" t="n">
-        <v>1.68</v>
+        <v>1.33</v>
       </c>
       <c r="W27" t="n">
-        <v>1.44</v>
+        <v>1.65</v>
       </c>
       <c r="X27" t="n">
-        <v>15</v>
+        <v>6.6</v>
       </c>
       <c r="Y27" t="n">
-        <v>11.5</v>
+        <v>9.4</v>
       </c>
       <c r="Z27" t="n">
-        <v>15.5</v>
+        <v>24</v>
       </c>
       <c r="AA27" t="n">
-        <v>34</v>
+        <v>95</v>
       </c>
       <c r="AB27" t="n">
-        <v>13.5</v>
+        <v>6.6</v>
       </c>
       <c r="AC27" t="n">
-        <v>7.8</v>
+        <v>7</v>
       </c>
       <c r="AD27" t="n">
-        <v>11</v>
+        <v>19.5</v>
       </c>
       <c r="AE27" t="n">
-        <v>25</v>
+        <v>80</v>
       </c>
       <c r="AF27" t="n">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="AG27" t="n">
         <v>13.5</v>
       </c>
       <c r="AH27" t="n">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="AI27" t="n">
-        <v>36</v>
+        <v>130</v>
       </c>
       <c r="AJ27" t="n">
+        <v>38</v>
+      </c>
+      <c r="AK27" t="n">
+        <v>70</v>
+      </c>
+      <c r="AL27" t="n">
+        <v>95</v>
+      </c>
+      <c r="AM27" t="n">
+        <v>300</v>
+      </c>
+      <c r="AN27" t="n">
         <v>55</v>
       </c>
-      <c r="AK27" t="n">
-        <v>34</v>
-      </c>
-      <c r="AL27" t="n">
-        <v>42</v>
-      </c>
-      <c r="AM27" t="n">
-        <v>80</v>
-      </c>
-      <c r="AN27" t="n">
-        <v>30</v>
-      </c>
       <c r="AO27" t="n">
-        <v>18.5</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>Argentinian Primera Division</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>2026-01-22</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>20:00:00</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>Banfield</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>Huracan</t>
-        </is>
-      </c>
-      <c r="F28" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="G28" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="H28" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="I28" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="J28" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="K28" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="L28" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="M28" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="N28" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="O28" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="P28" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="R28" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="S28" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="T28" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="U28" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="V28" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="W28" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="X28" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="Y28" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="Z28" t="n">
-        <v>24</v>
-      </c>
-      <c r="AA28" t="n">
         <v>160</v>
-      </c>
-      <c r="AB28" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="AC28" t="n">
-        <v>7</v>
-      </c>
-      <c r="AD28" t="n">
-        <v>18</v>
-      </c>
-      <c r="AE28" t="n">
-        <v>150</v>
-      </c>
-      <c r="AF28" t="n">
-        <v>16</v>
-      </c>
-      <c r="AG28" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AH28" t="n">
-        <v>34</v>
-      </c>
-      <c r="AI28" t="n">
-        <v>260</v>
-      </c>
-      <c r="AJ28" t="n">
-        <v>55</v>
-      </c>
-      <c r="AK28" t="n">
-        <v>75</v>
-      </c>
-      <c r="AL28" t="n">
-        <v>260</v>
-      </c>
-      <c r="AM28" t="n">
-        <v>500</v>
-      </c>
-      <c r="AN28" t="n">
-        <v>240</v>
-      </c>
-      <c r="AO28" t="n">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>Argentinian Primera Division</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>2026-01-22</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>20:00:00</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>Union Santa Fe</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>CA Platense</t>
-        </is>
-      </c>
-      <c r="F29" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="G29" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="H29" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="I29" t="n">
-        <v>5</v>
-      </c>
-      <c r="J29" t="n">
-        <v>2.84</v>
-      </c>
-      <c r="K29" t="n">
-        <v>2.94</v>
-      </c>
-      <c r="L29" t="n">
-        <v>0</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" t="n">
-        <v>0</v>
-      </c>
-      <c r="O29" t="n">
-        <v>0</v>
-      </c>
-      <c r="P29" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>0</v>
-      </c>
-      <c r="R29" t="n">
-        <v>0</v>
-      </c>
-      <c r="S29" t="n">
-        <v>0</v>
-      </c>
-      <c r="T29" t="n">
-        <v>0</v>
-      </c>
-      <c r="U29" t="n">
-        <v>0</v>
-      </c>
-      <c r="V29" t="n">
-        <v>0</v>
-      </c>
-      <c r="W29" t="n">
-        <v>0</v>
-      </c>
-      <c r="X29" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y29" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z29" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA29" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB29" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC29" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD29" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE29" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF29" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG29" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH29" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI29" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ29" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK29" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL29" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM29" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN29" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO29" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>Argentinian Primera Division</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>2026-01-22</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>22:15:00</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>Instituto</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>Velez Sarsfield</t>
-        </is>
-      </c>
-      <c r="F30" t="n">
-        <v>2.98</v>
-      </c>
-      <c r="G30" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="H30" t="n">
-        <v>3</v>
-      </c>
-      <c r="I30" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="J30" t="n">
-        <v>2.86</v>
-      </c>
-      <c r="K30" t="n">
-        <v>2.96</v>
-      </c>
-      <c r="L30" t="n">
-        <v>0</v>
-      </c>
-      <c r="M30" t="n">
-        <v>0</v>
-      </c>
-      <c r="N30" t="n">
-        <v>0</v>
-      </c>
-      <c r="O30" t="n">
-        <v>0</v>
-      </c>
-      <c r="P30" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q30" t="n">
-        <v>0</v>
-      </c>
-      <c r="R30" t="n">
-        <v>0</v>
-      </c>
-      <c r="S30" t="n">
-        <v>0</v>
-      </c>
-      <c r="T30" t="n">
-        <v>0</v>
-      </c>
-      <c r="U30" t="n">
-        <v>0</v>
-      </c>
-      <c r="V30" t="n">
-        <v>0</v>
-      </c>
-      <c r="W30" t="n">
-        <v>0</v>
-      </c>
-      <c r="X30" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y30" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z30" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA30" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB30" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC30" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD30" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE30" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF30" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG30" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH30" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI30" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ30" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK30" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL30" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM30" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN30" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO30" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>Argentinian Primera Division</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>2026-01-22</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>22:15:00</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>Central Cordoba (SdE)</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>Gimnasia Mendoza</t>
-        </is>
-      </c>
-      <c r="F31" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="G31" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="H31" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="I31" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="J31" t="n">
-        <v>2.94</v>
-      </c>
-      <c r="K31" t="n">
-        <v>2.98</v>
-      </c>
-      <c r="L31" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="M31" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="N31" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="O31" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="P31" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="R31" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="S31" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="T31" t="n">
-        <v>2.48</v>
-      </c>
-      <c r="U31" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="V31" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="W31" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="X31" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="Y31" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z31" t="n">
-        <v>30</v>
-      </c>
-      <c r="AA31" t="n">
-        <v>130</v>
-      </c>
-      <c r="AB31" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="AC31" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="AD31" t="n">
-        <v>21</v>
-      </c>
-      <c r="AE31" t="n">
-        <v>100</v>
-      </c>
-      <c r="AF31" t="n">
-        <v>12</v>
-      </c>
-      <c r="AG31" t="n">
-        <v>13</v>
-      </c>
-      <c r="AH31" t="n">
-        <v>32</v>
-      </c>
-      <c r="AI31" t="n">
-        <v>160</v>
-      </c>
-      <c r="AJ31" t="n">
-        <v>32</v>
-      </c>
-      <c r="AK31" t="n">
-        <v>38</v>
-      </c>
-      <c r="AL31" t="n">
-        <v>90</v>
-      </c>
-      <c r="AM31" t="n">
-        <v>320</v>
-      </c>
-      <c r="AN31" t="n">
-        <v>42</v>
-      </c>
-      <c r="AO31" t="n">
-        <v>180</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-22.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-22.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO5"/>
+  <dimension ref="A1:AO3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -653,126 +653,126 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>20:00:00</t>
+          <t>22:15:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Banfield</t>
+          <t>Instituto</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Huracan</t>
+          <t>Velez Sarsfield</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2.56</v>
+        <v>2.82</v>
       </c>
       <c r="G2" t="n">
-        <v>2.58</v>
+        <v>2.9</v>
       </c>
       <c r="H2" t="n">
-        <v>3.85</v>
+        <v>3.3</v>
       </c>
       <c r="I2" t="n">
-        <v>4.1</v>
+        <v>3.4</v>
       </c>
       <c r="J2" t="n">
-        <v>2.78</v>
+        <v>2.84</v>
       </c>
       <c r="K2" t="n">
-        <v>2.86</v>
+        <v>2.88</v>
       </c>
       <c r="L2" t="n">
-        <v>1.83</v>
+        <v>1.89</v>
       </c>
       <c r="M2" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="N2" t="n">
-        <v>2.1</v>
+        <v>2.04</v>
       </c>
       <c r="O2" t="n">
-        <v>1.86</v>
+        <v>1.93</v>
       </c>
       <c r="P2" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="Q2" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="R2" t="n">
         <v>1.1</v>
       </c>
       <c r="S2" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="T2" t="n">
-        <v>2.72</v>
+        <v>2.68</v>
       </c>
       <c r="U2" t="n">
         <v>1.53</v>
       </c>
       <c r="V2" t="n">
-        <v>1.33</v>
+        <v>1.41</v>
       </c>
       <c r="W2" t="n">
-        <v>1.61</v>
+        <v>1.52</v>
       </c>
       <c r="X2" t="n">
-        <v>5.9</v>
+        <v>5.6</v>
       </c>
       <c r="Y2" t="n">
-        <v>8.800000000000001</v>
+        <v>7.8</v>
       </c>
       <c r="Z2" t="n">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="AA2" t="n">
-        <v>130</v>
+        <v>90</v>
       </c>
       <c r="AB2" t="n">
-        <v>6.2</v>
+        <v>6.6</v>
       </c>
       <c r="AC2" t="n">
         <v>7.2</v>
       </c>
       <c r="AD2" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AE2" t="n">
-        <v>110</v>
+        <v>80</v>
       </c>
       <c r="AF2" t="n">
-        <v>14</v>
+        <v>16.5</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>17.5</v>
       </c>
       <c r="AH2" t="n">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="AI2" t="n">
-        <v>180</v>
+        <v>160</v>
       </c>
       <c r="AJ2" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="AK2" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="AL2" t="n">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="AM2" t="n">
-        <v>430</v>
+        <v>540</v>
       </c>
       <c r="AN2" t="n">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="AO2" t="n">
-        <v>200</v>
+        <v>160</v>
       </c>
     </row>
     <row r="3">
@@ -788,396 +788,126 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>20:00:00</t>
+          <t>22:15:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Union Santa Fe</t>
+          <t>Central Cordoba (SdE)</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>CA Platense</t>
+          <t>Gimnasia Mendoza</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>2.02</v>
+        <v>6.2</v>
       </c>
       <c r="G3" t="n">
-        <v>2.08</v>
+        <v>7.4</v>
       </c>
       <c r="H3" t="n">
-        <v>5.3</v>
+        <v>1.66</v>
       </c>
       <c r="I3" t="n">
-        <v>5.6</v>
+        <v>1.73</v>
       </c>
       <c r="J3" t="n">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="K3" t="n">
-        <v>3.1</v>
+        <v>3.95</v>
       </c>
       <c r="L3" t="n">
-        <v>1.81</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>1.18</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>2.2</v>
+        <v>6.2</v>
       </c>
       <c r="O3" t="n">
-        <v>1.79</v>
+        <v>1.15</v>
       </c>
       <c r="P3" t="n">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="Q3" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="R3" t="n">
-        <v>1.12</v>
+        <v>1.13</v>
       </c>
       <c r="S3" t="n">
         <v>8</v>
       </c>
       <c r="T3" t="n">
-        <v>2.66</v>
+        <v>1.05</v>
       </c>
       <c r="U3" t="n">
-        <v>1.53</v>
+        <v>2.58</v>
       </c>
       <c r="V3" t="n">
-        <v>1.2</v>
+        <v>2.02</v>
       </c>
       <c r="W3" t="n">
-        <v>1.94</v>
+        <v>1.12</v>
       </c>
       <c r="X3" t="n">
-        <v>6.4</v>
+        <v>1000</v>
       </c>
       <c r="Y3" t="n">
-        <v>11.5</v>
+        <v>7.6</v>
       </c>
       <c r="Z3" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AA3" t="n">
-        <v>220</v>
+        <v>1000</v>
       </c>
       <c r="AB3" t="n">
-        <v>5.5</v>
+        <v>1000</v>
       </c>
       <c r="AC3" t="n">
-        <v>7.8</v>
+        <v>1000</v>
       </c>
       <c r="AD3" t="n">
-        <v>27</v>
+        <v>1000</v>
       </c>
       <c r="AE3" t="n">
-        <v>160</v>
+        <v>1000</v>
       </c>
       <c r="AF3" t="n">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AH3" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AI3" t="n">
-        <v>220</v>
+        <v>1000</v>
       </c>
       <c r="AJ3" t="n">
-        <v>29</v>
+        <v>1000</v>
       </c>
       <c r="AK3" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AL3" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AM3" t="n">
-        <v>430</v>
+        <v>1000</v>
       </c>
       <c r="AN3" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AO3" t="n">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Argentinian Primera Division</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2026-01-22</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>22:15:00</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Instituto</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Velez Sarsfield</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="G4" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="H4" t="n">
-        <v>2.96</v>
-      </c>
-      <c r="I4" t="n">
-        <v>3</v>
-      </c>
-      <c r="J4" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="K4" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="L4" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="M4" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="N4" t="n">
-        <v>2.34</v>
-      </c>
-      <c r="O4" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="P4" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="R4" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="S4" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="T4" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="U4" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="V4" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="W4" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="X4" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>60</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>7</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>15</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>55</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>28</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>95</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>65</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>60</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>110</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>270</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>80</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Argentinian Primera Division</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2026-01-22</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>22:15:00</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Central Cordoba (SdE)</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Gimnasia Mendoza</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="G5" t="n">
-        <v>2.54</v>
-      </c>
-      <c r="H5" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="I5" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="J5" t="n">
-        <v>2.84</v>
-      </c>
-      <c r="K5" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="L5" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="M5" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="N5" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="O5" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="P5" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="R5" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="S5" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="T5" t="n">
-        <v>2.44</v>
-      </c>
-      <c r="U5" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="V5" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="W5" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="X5" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>25</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>95</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>7</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>80</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>14</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>30</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>130</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>38</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>44</v>
-      </c>
-      <c r="AL5" t="n">
-        <v>90</v>
-      </c>
-      <c r="AM5" t="n">
-        <v>290</v>
-      </c>
-      <c r="AN5" t="n">
-        <v>60</v>
-      </c>
-      <c r="AO5" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
     </row>
   </sheetData>
